--- a/example_pandas.xlsx
+++ b/example_pandas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="178">
   <si>
     <t>Extracted content</t>
   </si>
@@ -52,15 +52,12 @@
     <t>project may property condition assessment astm e atmore shopping center spring avenue atmore alabama prepared client name prepared bock clark w market street suite akron ohio bockandclarkcom may client property condition assessment atmore shopping center spring avenue atmore escambia county alabama dear mr smith bock clark environmental llc complete property condition report pcr referenced property report conducted accordance american society testing material astm standard guide property condition assessment baseline property condition assessment process e generally accepted industry standard bock clark environmental llc cer tifies best knowledge report true accurate hope find report complete informative please hesitate contact u question service sincerely bock clark environmental llc vincent l jacques pe jamie ziemba project manager project manager david p conway site inspector table content executive summary property summary property description general physical condition recommendation discussion purpose scope limitation purpose scope work limitation property access nonaccess disclosure user reliance property description property detail utility service provider neighboring property code compliance municipal department property ground topography drainage paving curbing flatwork landscaping appurtenance amenity ancillary structure area frame envelope substructure superstructure roofing facade interior element finish fixture appliance equipment furnishing etc area plumbing mechanical electrical plumbing heating ventilation air conditioning electrical elevator escalator life safetyfire protectionadamold life safety system ada issue microbial contamination mold appendix appendix property photograph appendix property map drawing appendix property questionnaire appendix municipalregulatory information appendix replacement reserve table appendix personnel qualification atmore shopping center bc project executive summary property summary property name atmore shopping center property address spring avenue countycitystatezip escambia county atmore alabama property usage retail shopping center based upon walkthrough subject property conducted bock clark environmental following short term repair recommended immediate need short term cost repair item cost basis estimated cost paving curbing repairreplace damageddeteriorated asphalt pavement sf sf superstructure repair clean maintain cmu wall sf sf roofing roof replacement sf sf hvac replace nonworking hvac unit ton ton facade exterior maintenance sf sf ada issue install vertical signage three ada space unit unit mold remove replace water damaged building material lump sum atmore shopping center bc project immediate need short term cost repair item cost basis estimated cost moisture minimization plan lump sum total based upon assessment analysis subject property conducted bock clark environmental following table summarizes replacement reserve anticipated subject property property description subject property consists irregularly shaped parcel land totaling approximately acre improved one singlestory retail building containing four tenant space totaling net rentable square foot nrsf additionally two lumber storage shed constructed consist approximately total square foot storage space main building constructed steel concrete masonry unit cmu construction cmu splitface cmu conc rete block eifs exterior wall primary roofing system retail building flat covered rubber membrane topped ballast awning topped pitched standing seam metal roof present store entrance foundation consists reinfo rced concrete slab grade two lumber storage shed consist steel frame constructi pitched standing seam metal roof reinforced concrete footing column locati ons additional site improvement include small lumber sale office adjacent lumber storag e shed well two stormwater detention pond located along southern property boundary along lindberg avenue stormwater retention pond located northernmost portion subject property beyond chain link fencing building h eated cooled electric rooftop package unit property serviced municipal water sewer remainder property improved asphalt paved driveway parking area concrete sidewalk concrete patio exterior sale landscaping current tenant include marvins home building material goody department store citi trend clothing hibbett sport sporting good vacant space also pr esent accessed rear building surrounding propertie consist undeveloped land residential replacement reserve summary term uninflated reserveannual cost per sfinflated reserve annual cost per sf year atmore shopping center bc project property north strip retail building including rentacenter subway clothing store east undeveloped land lindbe rg avenue followed adam plaza includes dollar tree dirt cheap outh atmore plaza including cash advance restaurant west general physical condition general condition fair short term need observed inspection discussed greater detail level maintenance fair recommendation discussion paving curbing majority main parking lot driveway sealed recently appears many area pavement damage alligator cracking sealed rather repaired alligator cracking raveli ng observed many location additionally rear north service drive exhibit si gnificant cracking raveling damaged deteriorated asphalt pavement repairedreplaced order prevent deterioration minor crack crackfilled area patched overlain significantly deteriorated area removed repaved opinion cost work included short term cost table superstructure cracking cmu wall throughout rear building area observed significant cracking appears ha led interior water intrusion issue additionally concrete block northeast corner building damaged wall showing damage interior exterior repaired cleaned maintained testing completed positively determine reason observed water intrusion opinion cost work ha included short term cost table roofing based age roof reported significant roof leak eul year flat roof replacement likely required beginning term opinion cost work included short term cost table faades deteriorated caulkingpointing replaced exterior maintenance atmore shopping center bc project painting power washing caulking stucco patchi ng etc typically required every six eight year depending quality prepara tion surface quality material used weather condition building curren tly requires exterior maintenance opinion cost work included short term cost table hvac five inoperable hvac unit rem oved roof prevent water intrusion issue curb cove red handled part routine maintenance property owner respons ible providing working system tenant turnover replacement unit vacant tenant space approximately ton likely necessary cost replacement included short term need table otherwise given eul ear packaged unit anticipated hvac equipment require replacement term ada issue three ada parking space observed lack vertical signage vertical signage installed space cost work included short term cost table mold comprehensive mold survey beyond sc ope assessment however assessment visual evidence active water mold damage observed throughout interior area inspected bock clark environmental particular mold growth appeared associated water damage multiple roof leak mold growth observed water piping marvins space accordi ng marvins store employee mold grows floor tile must cleaned every recommended moldimpacted build ing material removed replaced accordance epa guideline additionally due history continued presence water intrusion issue subject prope rty moisture minimization plan implemented subject property plan take proactive preventative approach order minimize moisture damage ndor mold impact insuring early identification repair potential problem bock clark environmental included cost work short term cost table building component system identified would require additional investigation time atmore shopping center bc project purpose scope limitation purpose bock clark environmental wa retained conduct property condition assessment subject property purpose assessmen provide objective independent professional opinion potential repair cost associated subject property scope work assessment conducted accordance w ith american society testing material astm standard guide prope rty condition assessment baseline property condition assessment process e generally accepted industry standard specific scope work included following document review interview effort made review record document readily available specifically identify assist identification physical deficiency well preceding ongoing e fforts cost investigate remediate physical deficiency combinati thereof including building certificate occupancy outstanding recorded material building code violation recorded material fire code violation record info rmation reasonably ascertainable standard source reviewed information practically reviewable provided bock clark environmental reasonable tim e formulate opinion complete pca stated pca bock clark environmental obligation retrieving documentation revi ewing subsequently provided understood information provided bock clark environmental within ten business day source receiving appropriate inquiry without inperson request required nominal cost cover source cost retrieving duplicating information inspection include regulatory code compliance audit facility bock clark environmental provided owner owner representative presurvey questionnaire addition r eadily available bock clark environmental reviewed following document information may possession provided owner owner representative u er combination thereof appropriate appraisal certificate occupancy safety inspection record warranty information roof boiler chiller cooling tower etc record indicating age material building system roofing paving plumbing heating air conditioning electrical etc historical cost incurred repair improvement recu rring replacement etc pending proposal atmore shopping center bc project executed contract material repair im provements description future work planned outstanding citation building fire zoning code violation ada survey status improvement implemented effect physical compliance previously prepared property condition report study pertaining aspect subject property physical condition record indicati ng building occupancy percentage record indicating building turnover percentage building rent roll leasing literature listing sale marketingpromotional literature photogr aphs descriptive info rmation reduced floor plan etc drawing specification asbuilt construction bock clark environmental requested th e owner user identify person person knowledgeable physical characteristic main tenance repair property bock clark environmental interviewed property manager agent owner inquire subject property historical pair replacement cost level preventive maintenance exercised pending repair improvement frequency repair replacement existence ongoing pe nding litigation related subject property physical condition walkthrough survey report based observation made duri ng property walk observation limited r epresentative property improvement including exterior surface open space accessible ar ea roof representative unit mechanical staff vacant common area inspection investigation behind wall inside plenum generally inacce ssible area performe investigation building facade performed st reet andor balcony level riding scaffolding equipment part scope bock clark service physical test made sample engineeri ng analysis collected bock clark environmental make warranty regarding ei f system curtain wall building skin condition would readily ob ervable would therefore considered outside scope assignment reliance placed accuracy disclosure property representative visual survey mold conducted su rvey limited visual observation area walked considered comprehensive survey property sampling conducted inspection nvestigation behind wall generally inaccessible area performed conclusion mold observed therefore taken property mold free concern exist area inspected condition building structure compone nt evaluated broken one following description poor requiring action immediately within month fair serviceable showing age wear require maintenance repair replacement loan term good major sign age wear may need replacement loan term excellent new like new atmore shopping center bc project propertysite feature observation c onducted property type condition adequacy following item general topography storm water drainage ingres egress paving curbing parking flatwor k landscaping appurtenance recreational facility amenity ancillary structure utility building frame envelope observation conducted property type condition adequacy following item substructure superstructure facade roofing interior element observation conducted property type condition adequacy following item interior finish fixture appliance furnishing plumbing mechanical electrical observati ons conducted property type condition adequacy followi ng item plumbing heating ventilation air conditioning electrical elevatorsescalators property condition assessment included baseline american disability act ada evaluation visual accessibility survey consisting limited scope visual survey based checklist provided astm e baseline scope work excludes limited measurement count since evaluation limited scope based representative sampling noncompliant condition may exist identified result assessment ev aluation screening considered indepth ada fha survey audit opinion regarding ada compliance considered preliminary purpose limited visual survey provide general observation level attention paid keeping property ada compliant life safetyfire protection observation conducted property type condition adequacy life safety fire protection system opinion cost remedy physical deficienci e opinion cost segregated immediate cost short term cost immediat e need defined opinion cost require immediate action result following material existing potential unsafe condition material building fire c ode violation condition left uncorrected potential result c ontribute critical element system failure within one year result probably significant escalation remedial cost deficiency andor item identified base observation unless otherwise noted short term cost opinion cost medy physical deficiency deferred maintenance may warrant immediate attention require repair replacement undertaken priority basis addition routine preventive maintenance opinion cost may include cost te sting exploratory probing analysis deemed warranted con ultant performance additional service beyond guide generally time frame repair within one two year atmore shopping center bc project quantity estimate extrapolation representative area observed unit price replacement cost based combinati construction cost guide data bock clark experience discussion pr operty manager facility engineer andor individual familiar local market generally repair replacement item total less considered routine intenance item included itemized list recommended repair immedi ate need unless associated regulatory compliance safety issue opinion bock clark environmental potential significantly impact marketab ility property prospective tenant purchaser assumption regarding overall condition subject property developed based upon inspection representative property improvement estimation mechanical structural system condition rema ining useful life cost associated correction identified deficiency ar e based upon limited inspection also limited respect completeness quantity could derived actual takeoff measurement lump sum figure allowance used estimated cost correct based professional judgment th e probable actual extent observed defect exclusive cost design procure construct manage correction useful life estimate component base published source cluding limited life expectancy guideline published rshall swift united state department housing urban development guideline industry standard bock clark professional experience evaluating life nd performance element component system expected remaining useful life building component assume current level maintenance capital improvement maintained recommendation report implemented quantity estimate typically based field observation information provided property management replacement cost based published source including limited mean facility cost data nd mean repair remodeling cost data historical cost provided pr operty management ownership bock clark professional experience contractor cost quotation available photograph representative bock clark observation included throughout report appendix addition visual observa tions letter response municipal regulatory agency included appe ndix bock clark environmental relied source contacted individual listed within report appendix limitation bock clark environmental performed th e service prepared report accordance generally accepted consulting practice make warranty either expressed implied character nature service product atmore shopping center bc project bock clark environmental officer employee pr esent contemplated interest property employment compensation preparing report contingent upon observation conclusion information report concerning equipm ent operation condition space concealed area observed viewable di sclosure known problem source deemed reliable including limited property manager maintenance personnel however representation warranty made accuracy thereof pca wholly eliminate uncertainty garding presence physical deficiency performance subject property bu ilding system preparation pca accordance astm guide intended reduce eliminate uncertainty regarding potential component system failure reduce potential component system may initially ob erved astm also recognizes inherent subjective nature consultant opinion issue workmanship quality original installation estimating remainin g useful life rul given component system astm recognizes consultant suggested remedy may determined time constraint formed without aid engi neering calculation testing exploratory probing removal material design furtherm ore may alternate appropriate scheme method remedy physical deficiency property access nonaccess disclosure inspector david conway date inspection february weather condition weather condition clear temperature low time site inspection property contact mr marc harris focus management group property manager property escort unaccompanied property questionnaire sent mr marc ha rris focus management group property manager questionnaire result questionnaire completed mr keith hyatt focus management property manager copy questionnaire included appendix report mr marc harris also provided information regarding lease agreement physical condition property including recent capital improvement required repair information included appropriate section report atmore shopping center bc project term lease tenant responsible maintenance replacement respective interior finishesfixtures well water heater landlord responsible maintenance building structure common area pavement ground roofing system hvac equipment area accessed bock clark environmental accessed four tenant space fire sprinkler room public restroom bock clark environmental also assessed building exterior property ground including lumber storage shed inaccessible area bock clark environm ental access vacant space accessed rear building roof exceptionsdeletions scope none user reliance report use benefit nd may relied upon client affiliate third party authorized client bock clark environmental including lender connection ecured financing property respective successor assigns atmore shopping center bc project property description property detail property size acre source escambia county property usage retail shopping center number building one plus two lumber storage shed lumber office number tenant space four tenant space net rentable square footage nrsf source property management date construction multi tenant tail building lumber storage shed source property management escambia county legal description provided bock clark environmental however brief legal description obtained escambia county follows beg w ly ly ne cor se nw stnre th e ly n ly e ly ly ly e ly ly n r w lindberg ave w ly alg sd n r w n ly w ly ly w ly ly w ly n ly pob cn tg ac c utility service provider electricity information provided gas na potable water city atmore sanitary service city atmore storm water city atmore solid waste information provided tenant responsibility hvac maintenance coley ac pest control information provided atmore shopping center bc project landscaping hawkeye lawncare fire system vsc fire system security information provided roof maintenance edward roofing elevator na electrical maintenance trico electric plumbing maintenance southern plumbing neighboring property north property undeveloped land residential property along west meadow drive east property strip retail building feat uring rentacenter cato fashion subway south property undeveloped land li ndberg avenue followed adam plaza includes dollar tree dirt cheap west property atmore plaza including cash advance restaurant atmore shopping center bc project code compliance municipal department building department city atmore building inspectionspermits code enforcement pertinent information bock clark environm ental requested information pertaining outstanding building code violation subject property well information regarding date construction certificat e occupancy according chris black building inspector open permit documented building code violation subject property one certificate occupancy marvins available dated july classified business copy found appendix report fire department city atmore fire pertinent information bock clark environm ental requested information pertaining outstanding fire code violation subject property writing report response request received zoning department city atmore building inspectionspermits code enforcement pertinent information bock clark envir onmental requested information regarding current zoning property whether property legal conforming use legal nonconforming use according density parking today code according chris black building inspector property zoned b general business district documented zoning violation associated property health department escambia county health department environmental health pertinent information bock clark envi ronmental requested information regarding inspection andor code violation regarding applicable activity facility restaurant require inspection subj ect property writing report bock clark environmental received response request recommendation concern uncovered based information obtained city atmore building inspectionspermits code enforcement bock clark environmental received response city atmore fire department escambia county health department writing report noted often case munici pal department either slow respond request however based source information obtained reviewed absence information deemed critical atmore shopping center bc project property ground topography drainage topography elevation subject prope rty approximately foot mean sea level amsl property ge nerally flat gentle slope southeast unusual problematic feature noted reported property drainage runoff building roof directed scupper gutter downspouts subsequently flow via sheet fl ow catch basin raceway drainage culvert discharge two detention pond south one retention pond north surface water body onsite su rface water body exception abovementioned retention pond northern portion subject property flood plain designation subject property ituated within zone x shaded defined area determined outside annual chance floodplain seismic zone property located zone property located seismic zone considered potentially vulnerable signi ficant impact earthquake activity subject property located one zone general condition good topography drainage property maintained part routine maintenance concern sign ponding significant pondi ng problem noted reported sign erosion sign significant erosion noted reported minor sign erosion observed culvert raceway drainage problem major draina ge problem noted reported indication wetland evidence wetla nd noted subject property northernmost portion stormwater rete ntion pond located area vegetation typical wetland also observed within area recommendation physical deficienciesdefe rred maintenance immediate short term need noted area minor erosion addressed part routine maintenance potential wetland area identified bock clark recommendation determination made regarding whether area would considered jurisdictional wetland prior development activity likely impact area atmore shopping center bc project paving curbing driveway driveway consist asphalt stabilized base parking areasgarages parking area consist asphalt stabilized base curbsswalesother poured concrete curb present throughout parking area driveway along sidewalk around landscape median preformed concrete parking stop present select area ingressegress primary ingres egress fo r subject property provided via one driveway lindberg avenue access area behind building north provided via one service driveway south presley street number parking space approxi mately onsite parking space ada parking space general condition poor good limited pave ment repair sealing striping appear conducted recently western driv eway along marvins pavement front marvins well pavement within lumber shed appears overlain recently recent pavement work reported concern inadequate ingres egress concern relating ingres egress property noted reported inadequate number space problem regarding inadequate parking noted reported faded pavement striping concern lating pavement striping noted reported spallingcracking majority main parking lot driveway sealed recently appears many area pavement damage alligator cracking sealed rather repaired alligator cracking raveling observed many location additionally rear north service drive exhibit significant cracking raveling depression pothole significant depression pothole observed depression associated abovedescribed damage ponding significant area ponding noted reported atmore shopping center bc project concern relating th e paving curbing noted reported recommendation damageddeteriorated asphalt pavement repairedreplaced order prevent deterioration mi crack crackfilled area patchedoverlain significantly deteri orated area removed repaved opinion cost work included short term cost table asphalt parking area typically eul year depending level maintenance traffic weather condition eul extended significantly periodic sealing surface bock clark environmental included cost periodic sealing striping parking area replacement reserve schedule atmore shopping center bc project flatwork sidewalkspatios sidewalk located along th e storefront case rear building consist standard poured concrete sl ab concrete patio exterior sale present along west side building marvins one concrete loading dock area present northeast corner building another present behind marvins concrete pad support electrical tr ansformers switchboxes concrete raceway present pavement edge help facilitate drainage detentionretention pond concrete also present water metersdrainage line located throughout property general condition fair good minor moderate cracking observed flatwork throughout property section sidewalk appear recently replaced recently repainted concern significant crack heaving settlement significant cracking heaving settlement observed reported minor moderate cracking observed flatwork throughout property trip hazard trip hazard observed reported damaged concrete observed water meter drainage line located rear building significant concern noted reported recommendation damaged concrete observed water meter drainage line rear building repaired der prevent damage handled part routine maintenance physical deficienci esdeferred maintenance immediate short term need noted concrete flatwork generally eul ex cess year constructed properly stabilized base maintained regularly bock clark environmental included cost ongoing concrete repair replacement reserve schedule atmore shopping center bc project drainage paving flatwork area soil erosion concrete raceway detention pond detention pond drainage culvert southern portion subject property atmore shopping center bc project drainage paving flatwork retention pond northern portion subject property parking lot atmore shopping center bc project drainage paving flatwork parking lot recently patched pavement atmore shopping center bc project drainage paving flatwork recently overlain pavement typical alligator cracking atmore shopping center bc project drainage paving flatwork typical pavement condition typical alligator cracking raveling atmore shopping center bc project drainage paving flatwork typical pavement damage recently overlain pavement atmore shopping center bc project drainage paving flatwork typical sidewalk painted sidewalk atmore shopping center bc project drainage paving flatwork typical cracking sidewalk concrete pad loading dock atmore shopping center bc project drainage paving flatwork damaged concrete water meter surrounded damaged asphalt damaged concrete drainage line atmore shopping center bc project drainage paving flatwork concrete patio associated marvins exterior sale typical cracking concrete patio atmore shopping center bc project drainage paving flatwork driveway note cracking typical alligator cracking pavement damage atmore shopping center bc project drainage paving flatwork northern service drive pavement damage northern service drive atmore shopping center bc project landscaping appurtenance landscaping landscaping consists tree manicured lawn landscaped island median irrigationsprinkler landscaping se rviced underground sprinkler system property lighting poletop building soffit mounted fixture illuminate driveway parking area property ground building exterior retaining wall retaining wall present property fencingwalls chain link fencing topped barbed wire present along north west southwest property boundary fencing al surround lumber storage shed area marvins property signage building mounted letteri ng illuminated identifies various tenant ground mounted concrete metal monument sign present main entrance significant landscaping appurtenance observed general condition good landscaping appurtenance maintained needed concern overgrown dead landscaping si gnificant area overgrown landscaping noted damaged fencesretaining wallssigns chain link fencing observed slightly damaged bent along length one instance pole wood board appeared propping fence dditionally several letter noted missing main sign property entrance inadequatebroken property lighting si gnificant concern relating inadequate nonfunctional property lighting noted concern noted reported recommendation slight damage chain link fencing repaired prevent deterioration additionally missing letter replaced th e main property sign handled part routine maintenance physical deficienciesdeferred maintenance immediate short term need noted atmore shopping center bc project amenity ancillary structuresareas ancillary structure two steelframed lumber storage shed associated marvins present southwestern portion subj ect property shed topped pitched standingseam metal roof small wood st eel shed located adjacent lumber storage shed serf exterior lumber office mechanicalelectricalboiler room dedicated electric storage room located within building amenity ancillary structure present general condition good recent repair reported concern problem ancillary structure concern noted reported recommendation ancillary structuresareas maintained part ongoing exterior maintenance property noted ection part routine maintenance atmore shopping center bc project landscaping appurtances ancillary structure property signage landscaping note missing letter main property sign atmore shopping center bc project landscaping appurtances ancillary structure landscaping landscaping median site lighting atmore shopping center bc project landscaping appurtances ancillary structure chain link fencing barbed wire chain link fencing atmore shopping center bc project landscaping appurtances ancillary structure area damaged chain link fencing note pole board propping fence lumber office atmore shopping center bc project landscaping appurtances ancillary structure lumber storage shed lumber storage shed atmore shopping center bc project frame envelope substructure foundation foundation consists concrete slab grade basementcrawl space basement crawlspace s</t>
   </si>
   <si>
+    <t>onecle home sample business contract netapp inc contract printerfriendly sample business contract californiasunnyvale crossman avenue purchase sale agreement escrow instruction martincrossman llc network appliance inc popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link purchase sale agreement escrow instruction purchase sale agreement escrow instruction agreement dated st day july reference purpose made martincrossman llc california limited liability company seller network appliance inc california corporation assignee buyer agreement shall effective effective date date last person signing agreement shall signed agreement r e c l agreement entered basis following fact understanding intention party seller owner certain real property located city sunnyvale county santa clara state california consisting property located thereon thereunder commonly known crossman avenue particularly described exhibit attached hereto real property b buyer desire purchase property defined section seller seller desire sell property buyer upon term condition stated agreement c order effectuate foregoing seller buyer desire enter agreement therefore consideration mutual covenant party herein contained valuable consideration party agree follows sale purchase title company general subject term covenant condition agreement seller shall sell buyer buyer shall purchase seller property property used agreement term property includes real property item referred subsection personal property seller right title interest personal property located real property owned seller used operation maintenance real property personal property page right privilege seller right title interest right privilege tenement hereditament rightsofway easement appurtenance mineral right development right air right riparian littoral right belonging appertaining real property contract lease seller right title interest service maintenance construction management contract relating property collectively contract ii lease tenancy occupancy agreement portion real property collectively lease seller interest security deposit prepaid rent lease guaranty lease permit warranty seller right title interest license permit approval affecting pertaining property assignable assigned buyer closing ii warranty affecting pertaining property assignable assigned buyer closing improvement improvement fixture located real property property owned tenant including without limitation office building located real property containing aggregate approximately seventyeight thousand eight hundred eighteen square foot net rentable area well building structure presently located real property apparatus equipment appliance used connection operation occupancy real property heating air conditioning system facility used provide utility refrigeration ventilation garbage disposal service real property along onsite parking collectively improvement intangible property intangible personal property hereafter owned seller used ownership use operation real property improvement personal property collectively intangible property title company purchase sale property shall accomplished escrow seller established establish chicago title company title company alameda california payment purchase price amount purchase price purchase price paid buyer seller property sixteen million seven hundred fifty thousand dollar amount may adjusted provided agreement term payment buyer shall pay purchase price seller follows deposit effective date condition precedent effectiveness agreement buyer shall deliver title company cashier check wire transfer amount one million dollar initial deposit page earnest money deposit account purchase price within five day effective date satisfaction waiver condition precedent set forth section agreement following shall occur buyer shall deliver directly title company additional deposit additional deposit amount five hundred thousand dollar ii initial deposit additional deposit shall become nonrefundable except otherwise provided agreement initial deposit shall released seller earlier occur buyer notification seller buyer financing transaction place ii march provided interest accrued thereon shall remain escrow account applied toward purchase price close escrow provided herein seller shall right apply additional deposit toward cost associated termination agreement defined section including limited direct compensation trw reasonable attorney fee termination cost provided however buyer seller shall share equally dollar dollar pari passu basis termination cost maximum amount five hundred thousand nol dollar ii event buyer share termination cost less additional deposit excess fund shall remain escrow title company together interest accrued thereon since date additional deposit delivered title company shall credited toward purchase price closing iii seller notifies buyer termination cost exceed one million dollar buyer shall right participate negotiation trw fund additional termination cost upon written notice election within three business day seller notification buyer decline fund additional termination cost fails give notice seller shall option fund additional termination cost ii terminate agreement provided section used agreement term deposit mean initial deposit additional deposit notwithstanding provision agreement contrary seller shall absolutely obligation return portion additional deposit applied termination cost payment balance balance purchase price shall paid full cash escrow closing deposit handling deposit title company shall deposit deposit interestbearing account term deposit used agreement shall include interest earned thereon liquidated damage buyer acknowledges closing sale property buyer term condition within time period set forth agreement material seller buyer also acknowledges substantial damage suffered seller transaction consummated due buyer default agreement buyer acknowledges date agreement seller damage would page extremely difficult impossible compute light unpredictable state economy governmental regulation fluctuating market real estate real estate loan type factor directly affect value marketability property light foregoing fact circumstance surrounding transaction following negotiation party buyer seller agree amount initial deposit represents reasonable estimate damage seller would suffer reason buyer default hereunder accordingly buyer seller hereby agree event default buyer agreement seller may terminate agreement giving notice buyer title company event termination seller shall retain initial deposit liquidated damage lieu claim seller may law equity including without limitation specific performance arising reason buyer default party initialed section establish intent liquidate damage notwithstanding foregoing nothing contained section shall deemed limit buyer obligation perform continuing obligation defined section ii buyer indemnification obligation contained agreement including contained subsection section article seller buyer initial cg initial cc buyer condition precedent inspection property enumeration condition buyer obligation purchase property shall subject satisfaction waiver buyer condition precedent specified section inspection date sixty day effective date hereof buyer shall approved investigation inspection test study analysis buyer elect make provided section respect property property document within two day effective date seller shall delivered copy otherwise made available buyer buyer review buyer shall reviewed approved date set forth section following lease lease respect real property page b contract contract seller possession affecting pertaining real property c income expense report income expense report showing result operation seller real property period date plan approval report plan specification permit license approval engineering consultant report test assessment pertaining development improvement property extent presently seller possession control excepting appraisal internal memoranda valuation document proprietary confidential document termination existing lease option within one hundred twenty day effective date hereof option termination date buyer shall received termination agreement seller current lessee property trw terminating trws option renew lease trw lease containing condition contingency payment trw compensation provided termination agreement termination agreement shall also include typical tenant estoppel language effect trw lease currently force trw claim offset seller thereunder notwithstanding anything contrary agreement event shall buyer obligated release trw indemnify otherwise incur expense liability trw termination cost connection termination trws right extend term lease provided however foregoing shall way affect right obligation buyer trw resulting buyer assumption trw lease close escrow additionally buyer shall onetime right extend option termination date thirty day seller shall default agreement seller fails obtain termination agreement right terminate respect condition buyer shall give written notice seller date specified condition stating whether condition satisfied unsatisfied waived buyer notice state condition unsatisfied notice shall state reason therefor reasonable detail buyer failure give notice respect condition shall conclusively deemed mean condition satisfied buyer notifies seller writing date satisfaction condition condition unsatisfied condition deemed unsatisfied agreement shall terminate agreement terminated deposit shall returned buyer upon buyer compliance provision section ii neither seller buyer shall obligation agreement except buyer obligation perform continuing obligation defined section buyer fails deliver buyer document work product seller compliance section within ten day termination agreement buyer shall forfeit deposit seller shall entitled deposit immediately disbursed seller page buyer inspection property general subject restriction limitation provision section upon least two business day prior written verbal notice seller shall allow buyer authorized representative agent reasonable access property business hour purpose making examination test analysis investigation survey inquiry inspection connection buyer effort bring satisfaction condition precedent set forth section examination test analysis investigation survey inquiry inspection shall performed buyer buyer sole cost expense shall subject reasonable condition seller may impose including requirement buyer authorized representative agent accompanied representative seller present property buyer shall conduct examination test analysis investigation survey inquiry inspection manner minimize inconvenience tenant lease addition buyer shall right perform boring sampling soil test groundwater test intrusive physical environmental audit procedure property unless approved seller seller sole discretion confidentiality buyer agent employee contractor representative shall disclose third party including governmental quasigovernmental authority result examination test analysis investigation survey inquiry inspection conducted request buyer regarding property except extent buyer required pursuant applicable law provided prior disclosure buyer shall notify seller buyer belief buyer required disclose information ii buyer consultant require information order perform service retained provided prior disclosure buyer shall obtain benefit seller written agreement consultant consultant agrees disclose information person entity indemnity buyer shall indemnify defend protect hold seller harmless loss cost damage injury claim including claim lien work labor performed material supply furnished liability expense including reasonable attorney fee result exercise buyer agent contractor employee authorized representative right entry pursuant section performance buyer due diligence agreement buyer shall promptly repair damage property caused entry onto property contact tenant notwithstanding provision agreement contrary buyer shall contact tenant occupant real property buyer obtains prior written consent seller seller elect buyer accompanied representative seller page buyer work product upon termination agreement reason whatsoever default seller hereunder buyer shall promptly deliver seller report plan specification study drawing photograph model survey test result document work product buyer consultant agent employee independent contractor either received buyer seller third person prepared buyer relating property way arising agreement excluding confidential internal memoranda buyer respect property ii report material performed buyer behalf third party pursuant term privileged confidential proprietary buyer acknowledges abovedescribed material prepared direction others buyer make representation warranty kind respect material including limited accuracy completeness suitability reliance thereon seller notwithstanding provision agreement contrary buyer delivery seller work product shall condition precedent buyer right obtain disbursement deposit upon termination agreement continuing obligation purpose agreement obligation buyer set forth section collectively referred continuing obligation seller condition precedent enumeration condition seller obligation sell property buyer shall subject satisfaction waiver seller condition precedent specified section termination existing lease option option termination date seller shall concluded termination agreement trw form satisfactory seller sole discretion containing condition contingency buyer additional deposit shall released applied termination cost subject requirement section right terminate seller shall give written notice buyer title company stating whether condition satisfied unsatisfied waived seller seller failure give notice shall conclusively deemed mean condition unsatisfied condition remains unsatisfied date specified condition seller may terminate agreement giving written notice buyer event termination deposit shall promptly returned buyer neither seller buyer shall obligation agreement except buyer obligation perform continuing obligation buyer delivery buyer work product seller compliance section shall condition precedent buyer right obtain disbursement deposit upon termination agreement pursuant section seller shall promptly give written notice title company stating condition precedent satisfied following seller receipt buyer work product provided section page title title real property shall conveyed seller buyer grant deed deed subject lien real property tax assessment delinquent ii matter title respecting real property approved deemed approved buyer due diligence period iii matter affecting condition title real property created written consent buyer foregoing exception title referred collectively condition title conclusive evidence delivery title accordance foregoing shall willingness title company issue buyer upon payment regularly scheduled premium alta owner policy title insurance amount purchase price showing title real property vested record buyer subject condition title standard printed exception condition policy title insurance seller reason intentional default seller including intentional encumbrance property seller without buyer prior written consent unable deliver title property subject condition title buyer sole remedy shall terminate agreement receive return deposit neither seller buyer shall thereafter right obligation agreement except buyer obligation perform continuing obligation buyer shall right commence action damage specific performance relief result seller inability deliver title property subject condition title damage destruction taking operation damage destruction time prior closing seller determines real property destroyed damaged earthquake flood casualty damage require repair casualty proceeding instituted taking material portion real property power eminent domain taking buyer shall right giving written notice seller title company within thirty day date receipt written notice casualty taking either consummate purchase property accordance agreement event seller shall assign buyer closing insurance proceeds payable seller account casualty event buyer shall receive credit purchase price amount deductible portion seller insurance policy reasonable cost incurred buyer obtaining insurance proceeds b award payable seller reason taking case may ii terminate agreement effective date notice termination given buyer fails give notice within day period buyer shall deemed elected terminate agreement pursuant article closing date shall deferred necessary permit buyer day period following receipt notice casualty taking make election specified hereinabove buyer terminates agreement pursuant article deposit shall returned buyer neither seller buyer shall obligation agreement except buyer obligation perform continuing obligation however notwithstanding foregoing buyer delivery buyer work product seller compliance section shall condition precedent buyer right obtain disbursement deposit upon termination agreement pursuant article page nothing herein shall deemed constitute obligation part seller carry maintain insurance kind whatsoever pertaining property operation property period effective date agreement earlier occur closing date ii termination agreement seller shall generally operate property manner seller operated property date agreement b keep buyer generally apprised material discussion correspondence seller existing prospective tenant property c enter lease service contract agreement contract affecting relating property survive close escrow otherwise affect use operation enjoyment property close escrow without prior written consent buyer consent shall unreasonably withheld continue carry insurance policy carried seller respect property effect date agreement continuously full force effect e continue maintain property manner maintained seller effective date agreement f promptly notify buyer change seller aware condition respect property event circumstance seller aware make representation warranty seller buyer agreement untrue misleading covenant seller agreement seller incapable performing less likely perform seller representation warranty seller knowledge used agreement term seller current actual knowledge mean current actual knowledge richardson watkins andor lynn tolin seller representative without obligation inquiry term shall include knowledge person firm understood buyer seller representative involved operation property seller acquisition property ii seller representative charged knowledge act omission predecessor title property management property seller acquisition property iii seller current actual knowledge shall apply construed include information material may possession seller generally incidentally seller representative actually aware seller represents warrant buyer richardson watkins lynn tolin executive individual responsible daytoday management property capacity employee martin group company inc property manager manager property individual likely familiar subject matter representation warranty described section representation warranty seller hereby make following representation warranty date agreement lease attached hereto exhibit c current accurate list lease page hazardous material seller current actual knowledge governmental authority notified seller need take remedial corrective action environmental law respect hazardous material real property used agreement environmental law mean present future statute ordinance order rule regulation federal state local governmental agency relating use generation manufacture installation release discharge storage transportation disposal hazardous material hazardous material mean petroleum asbestos polychlorinated biphenyls radioactive material radon gas underground storage tank chemical material substance hereafter defined included definition hazardous substance hazardous waste hazardous material extremely hazardous waste restricted hazardous waste toxic substance word similar import environmental law condemnation seller received written notice pending condemnation eminent domain proceeding affecting real property part thereof due authorization seller duly authorized execute perform obligation agreement person signing agreement behalf seller power authority bind seller agreement instrument agreement document executed seller delivered buyer closing time closing duly authorized executed delivered seller nonforeign person seller foreign person defined internal revenue code section f seller subject withholding section california revenue taxation code closing seller shall deliver buyer escrow declaration penalty perjury confirming foregoing statement official notice seller received written notice insurance company governmental agency board fire underwriter similar rating organization requiring requesting work repair done real property consent consent sale conveyance property seller required obtained governmental agency public administrative body leasing commission brokerage fee upon close escrow shall brokerage leasing fee commission compensation due payable absolute contingent basis person firm corporation entity respect account lease fee commission compensation shall become due payable buyer reason existing agreement term lease respect renewal extension lease leasing additional space tenant purchase space tenant contract management contract seller property manager shall terminated close escrow neither seller property page manager entered possession service contract respect property buyer advised trw may concluded service contract third party trw lease seller default performance obligation trw lease seller current actual knowledge copy trw lease delivered buyer true correct complete constitutes entire agreement trw seller regarding property ii tenant improvement required furnished constructed installed trw lease seller acquisition property completed installed reasonable satisfaction trw iii trw default performance obligation trw lease agreement incorporated therein reference circumstance existing arising seller acquisition property passage time giving notice would constitute event default trw term trw lease iv lease trw lease relating property since seller acquisition property trw lease amended modified supplemented except termination agreement seller actual knowledge time acquisition property trw lease full force effect without right setoff seller actual knowledge since acquisition property trw lease continues full force effect without right setoff property document seller provided buyer full access property document prepared seller seller knowledge due diligence material amended modified except disclosed buyer seller writing limitation seller representation warranty event breach seller covenant representation warranty discovered prior closing buyer sole remedy shall elect writing terminate agreement event shall seller liable indirect consequential damage account seller breach covenant representation warranty contained agreement seller total liability buyer breach covenant representation warranty contained agreement shall exceed provision article shall terminate one year closing seller shall liability buyer article date seller disclaimer release indemnification seller seller disclaimer except representation warranty seller set forth section buyer acknowledges agrees sale property buyer made without warranty representation kind seller either express implied respect aspect portion component property including physical condition nature quality property including quality soil property quality labor material included building improvement fixture equipment personal property comprising portion property ii fitness property particular purpose iii presence suspected presence hazardous material property including soil groundwater property iv existing proposed governmental law regulation applicable page property development change use thereof including environmental law law regulation dealing zoning land use buyer agrees acknowledges closing buyer shall made feasibility study investigation environmental study engineering study inquiry governmental official inquiry investigation buyer shall deem necessary satisfy condition nature quality property suitability property buyer purpose buyer agrees acknowledges purchasing property buyer shall rely entirely investigation examination inspection property analysis evaluation property document furnished seller buyer pursuant subsection upon representation warranty seller agent representative seller set forth section therefore buyer agrees consummating purchase property pursuant agreement buyer shall acquire property condition fault subject seller representation warranty set forth section solely reliance buyer investigation examination inspection analysis evaluation property representation warranty seller described section agreement acknowledgment contained section constitute conclusive admission buyer sophisticated knowledgeable investor real property shall acquire property solely upon judgment matter germane property buyer contemplated use property upon statement representation warranty seller agent representative seller expressly set forth agreement closing upon request seller buyer shall execute deliver seller certificate buyer reaffirming foregoing buyer release seller buyer hereby waif release forever discharge seller officer director employee agent claim action cause action demand liability damage cost expense compensation whatsoever whether direct indirect known unknown foreseeable unforeseeable buyer may closing may arise future account way arising connected property including physical condition nature quality property including soil groundwater real property ii presence release property including soil groundwater real property hazardous material iii ownership management operation property closing upon request seller buyer shall deliver seller certificate buyer reaffirming foregoing buyer hereby waif protection california civil code section read follows general release extend claim creditor know suspect exist favor time executing release known must materially affected settlement debtor buyer initial cc page however foregoing provision section shall serve release seller breach express representation warranty set forth section claim arising seller fraud flood hazard zone buyer acknowledges real property located area secretary hud found special flood hazard pursuant national flood insurance program buyer required purchase flood insurance order obtain loan secured real property federally regulated financial institution loan insured guaranteed agency united state government buyer shall sole responsibility determine whether real property located area subject national flood insurance program buyer representation warranty general buyer make covenant representation warranty set forth section shall survive closing regardless investigation seller shall made respect thereto prior closing ii material relied upon seller iii true respect date hereof iv shall true closing organization buyer natural person buyer duly organized validly existing good standing law state california authorization instrument agreement document executed buyer delivered seller closing time closing duly authorized executed delivered buyer closing closing transaction contemplated agreement shall consummated escrow office title company may closing date purpose agreement term closing shall mean consummation sale conveyance property buyer evidenced recordation deed seller delivery escrow seller shall deliver following item escrow deed deed duly executed acknowledged seller except amount transfer tax shall shown deed shall set forth separate affidavit instrument recordation deed shall attached thereto amount transfer tax shall record deed shall form exhibit e attached agreement evidence authorization evidence shall reasonably establish seller execution agreement performance obligation hereunder duly authorized person person executing agreement behalf seller page duly authorized empowered document document instrument may reasonably required consummate transaction accordance term condition herein contained appropriate escrow instruction title company buyer delivery escrow buyer shall deliver following item escrow cash immediately available fund following amount balance purchase price ii amount necessary buyer pay buyer share closing cost proration specified section iii amount required close escrow accordance term agreement document document instrument may reasonably required order consummate transaction accordance term condition agreement appropriate escrow instruction title company evidence authorization evidence shall reasonably establish buyer execution agreement performance obligation hereunder duly authorized person person executing agreement behalf buyer duly authorized empowered seller buyer joint delivery escrow seller buyer jointly shall deliver following item escrow assignment assumption agreement document seller assigns buyer buyer assumes lease contract permit warranty survive closing assignment assignment shall form attached agreement exhibit document document instrument may reasonably required consummate transaction accordance term condition agreement closing proration closing item income expense property shall prorated provided section basis actual day elapsed month closing occurs midnight day immediately preceding closing date except provided section income expense attributable period prior closing date shall account seller income expense attributable period closing date shall account buyer property tax assessment shall prorated escrow item income expense shall prorated outside escrow closing date party percentage rent payable lease respect period closing date shall paid buyer seller within three day receipt without limiting generality foregoing following item shall prorated escrow described page current rent collected seller lease respect rent receivables carried seller lease closing buyer shall pay seller full value immediately available fund closing seller shall execute deliver buyer closing assignment seller right title interest respect thereto b current real personal property tax nondelinquent bond improvement assessment general special nondelinquent public governmental charge assessment affecting property including current assessment lien encumbrance sewer water drainage public improvement whether completed commenced prior date agreement closing date occurs tax rate assessment fixed proration tax assessment title company shall made closing based upon recent tax bill available c water sewer charge basis fiscal year assessed prorated part tax bill water meter real property seller extent able shall furnish reading effective closing date feasible date thirty day prior closing date unfixed meter charge based thereon intervening period shall apportioned basis last reading upon taking subsequent actual reading apportionment shall readjusted seller buyer case may shall promptly deliver amount determined due upon readjustment seller unable furnish prior reading reading subsequent closing date shall apportioned per diem basis date reading immediately prior thereto seller shall pay proportionate charge due closing date unpaid water meter bill obligation tenant respective lease billed directly tenant shall adjusted amount paid payable respect contract buyer assumes closing e electricity gas telephone utility hvac cost expense income except extent tenant pay cost directly supplier service closing cost seller shall pay following closing cost fee cost releasing encumbrance lien security interest record condition title ii escrow fee iii onehalf city documentary transfer tax payable upon recordation deed iv county documentary transfer tax payable upon recordation deed v cost standard clta policy title insurance buyer shall pay following closing cost premium buyer policy title insurance ii onehalf city documentary transfer tax payable upon recordation deed iii recording fee iv cost fee title insurance premium charge payable connection financing obtained buyer acquire property including escrow fee relating funding andor recordation financing party shall pay onehalf escrow cancellation fee charged title company connection purchase sale property accordance agreement closing cost shall paid party accordance custom prevailing county page real property located security deposit respect lease effect closing seller shall give buyer closing escrow credit amount security deposit deposit held seller lease possession subject right tenant lease seller shall deliver exclusive possession property buyer closing closing proc</t>
+  </si>
+  <si>
     <t>onecle hom e sample business contract netapp inc contract printerfriendly sample business contract california sunnyvale crossman avenue purchase sale agreement escrow instruction martincrossman llc network appliance inc popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link purchase sale agreement escrow instruction purchase sale agreement escrow instruction agreement dated st day july reference purpose made martincrossman llc california limited liability company seller network appliance inc california corporation assignee buyer agreement shall effective effective date date last person signing agreement shall signed agreement r e c l agreement entered basis following fact understanding intention party seller owner certai n real property located city sunnyvale county santa clara state california consisting property located thereon thereunder commonly known crossman avenue particularly described exhibit attached hereto real property b buyer desire purchase property defined section seller seller desire sell property buyer upon term condition stated agreement c order effectuate foregoing seller buyer desire enter agreement therefore consideration mutual covenant party herein contained valuable consideration party agree follows sale purchase title company general subject term covenant condition agreement seller shall sell buyer buyer shall purchase seller property property used agreement term property includes real property item referred subsection personal property seller right title interest personal property loca ted real property owned seller used operation maintenance real property personal property page right privilege ellers right title interest right privilege tenement hereditament rightsofway easement appurtenance mineral right development right air right riparian littoral right belonging appertaining real property contract lease seller right title interest nd service maintenance construction management contract relating property collectively contract ii lease tenancy occupancy agreement portion real property collectively lease seller interest security deposit prepaid rent lease guaranty lease permit warranty seller right title interest license permit approval affecting pertaining property assignable assigned buyer closing ii warranty affecting pertaining property assignable assigned buyer closing improvement improvement fixture located real property property owned tenant including without limitation office building located real property containing aggregate ap proximately seventy eight thousand eight hundred eighteen square foot net rentable area well building structure presently located real property apparatus equipment appliance used connection operation occupancy real property heating air conditioning system facility used provide utility refrigeration ventilation garbage disposal service real property along site parking c ollectively improvement intangible property intangible personal property hereafter owned seller used ownership use operation real property improvement personal property collectively intangible property title company purchase sale property shall accomplish ed escrow seller established establish chicago title company title company alameda california payment purchase price amount purchase price purchase price paid buyer seller property sixteen million seven hundred fifty thousand dollar amount may adjusted provided agreement term payment buyer shall pay purchase price seller follows deposit effective date condition precedent effectiveness agreement buyer shall deliver title company cashier check wire transfer amount one million dollar initial deposit page earnest money deposit account purchase price within five day effective date satisfaction waiver condition precedent set forth section agreement following shall occur buyer shall deliver directly title company additional deposit additional deposi amount five hundred thousand dollar ii initial deposit additional deposit shall become nonrefundable except otherwise provided agreement initial deposit shall released seller earlier occur buyer notification seller buyer financing transaction place ii march provided interest accrued thereon shall remain escrow account applied toward purchase price close escrow provided herein seller shall right apply additional deposit toward cost associated termination agreement defined section including limited di rect compensation trw reasonable attorney fee termination cost provided however buyer seller shall share equally dollar dollar pari passu basis termination cost maximum amount five hundr ed thousand nol dollar ii event buyer share termination cost less additional deposit excess fund shall remain escrow title company together interest accrued th ereon since date additional deposit delivered title company shall credited toward purchase price closing iii seller notifies buyer termination cost exceed one million dollar bu yer shall right participate negotiation trw fund additional termination cost upon written notice election within three business day seller notification buyer decline fund additional termina tion cost fails give notice seller shall option fund additional termination cost ii terminate agreement provided section used agreement term deposit mean initial deposit additional deposit notwithstanding provision agreement contrary seller shall hav e absolutely obligation return portion additional deposit applied termination cost payment balance balance purchase price shall paid full cash escrow closi ng deposit handling deposit title company shall deposit deposit interest bearing account term deposit used agreement shall include interest earned thereon liquidated damage buyer acknowledges closing sale property buyer term condition within time period set forth agreement material seller buyer also acknowledges substantial damage suffered seller su ch transaction consummated due buyer default agreement buyer acknowledges date agreement seller damage would page extremely difficult mpossible compute light unpredictable state economy governmental regulation fluctuating market real estate real estate loan type factor directly affect value marketability property light foregoing fact circumstance surrounding transaction following negotiation party buyer seller agree amount initial deposit represents reasonable estimate damage seller would suffer reason buyer default hereunder accordingly buyer seller hereby agree eve nt default buyer agreement seller may terminate agreement giving notice buyer title company event termination seller shall retain initial deposit liquidated damage lieu claim se ller may law equity including without limitation specific performance arising reason buyer default party initialed section establish intent liquidate damage notwithstanding foregoing noth ing contained section shall deemed limit buyer obligation perform continuing obligation defined section ii buyer indemnification obligation contained agreement including contained ubsection section article seller buyer initial cg initial cc buyer cond itions precedent inspection property enumeration condition buyer obligation purchase property shall subject satisfaction waiver buyer condition precedent specified section inspection date sixty day effective date hereof buyer shall approved investigation inspection test study analysis buyer elect make provided section respect property property document within two day effective date seller shall delivered copy otherw ise made available buyer buyer review buyer shall reviewed approved date set forth section following lease lease respect real property page b contract contract seller possession affecting pertaining real property c income expense report income expense report showing r esults operation seller real property period date plan approval report plan specification permit license approval engineering consultant report test assessment pertaining development improvement property extent presently seller possession control excepting appraisal internal memoranda valuation document proprietary confidential document termination existing lease option within one hundred twenty day effective date h ereof option termination date buyer shall received termination agreement seller current lessee property trw terminating trws option renew lease trw lease containing condition continge ncies payment trw compensation provided termination agreement termination agreement shall also include typical tenant estoppel language effect trw lease currently force trw claim set seller thereunder notwithstanding anything contrary agreement event shall buyer obligated release trw indemnify otherwise incur expense liability trw termination cost connection termination trws right extend term lease provided however foregoing shall way affect right obligation buyer trw resulting buyer assumption trw lease close escrow additionally buyer shall one time right extend option termination date thirty day seller shall default agreement seller fails obtain termination agreement right terminate respect condition buyer shall give written notice seller date specified condition stating whether condition satisfied unsatisfied waived buyer notice state hat condition unsatisfied notice shall state reason therefor reasonable detail buyer failure give notice respect condition shall conclusively deemed mean condition satisfied buyer notif y seller writing date satisfaction condition condition unsatisfied condition deemed unsatisfied agreement shall terminate agreement terminated deposit shall returned buyer upon buyer compliance provision section ii neither seller buyer shall obligation agre ement except buyer obligation perform continuing obligation defined section buyer fails deliver buyer document work product seller compliance section within ten day termination agreement buyer shall forfeit deposit seller shall entitled deposit immediately disbursed seller page buyer inspection property gene ral subject restriction limitation provision section upon least two business day prior written verbal notice seller shall allow buyer authorized representative agent reasonable access p roperty business hour purpose making examination test analysis investigation survey inquiry inspection connection buyer effort bring satisfaction condition precedent set forth sectio n examination test analysis investigation survey inquiry inspection shall performed buyer buyer sole cost expense shall subject reasonable condition seller may impose including requirement buyer authorized representative agent accompanied representative seller present property buyer shall conduct examination test analysis investigation survey inquiry inspection manner minimize inconvenience tenant lease addition buyer shall right perform boring sampling soil test groundwater test intrusive physical environmental audit procedur e property unless approved seller seller sole discretion confidentiality buyer agent employee contractor representative shall disclose third party including governmental quasi governmental authority result examination test analysis investigation survey inquiry inspection conducted request buyer regarding property except extent buyer required pursuant applicable law provided prior disclosure buyer shall notify seller buyer belief buyer required disclose information ii buyer consultant require information order perfor service retained provided prior disclosure buyer shall obtain benefit seller written agreement consultant consultant agrees disclose information ther person entity indemnity buyer shall indemnify defend protect hold seller harmless loss cost damage injury claim including claim lien work labor performed material suppl y furnished liability expense including reasonable attorney fee result exercise buyer agent contractor employee authorized representative right entry pursuant section performance buyer due diligence agreement buyer shall promptly repair damage property caused entry onto property contact tenant notwithstanding provision agreement contra ry buyer shall contact tenant occupant real property buyer obtains prior written consent seller seller elect buyer accompanied representative seller page buyer work product upon termination agreement reason whatsoever default seller hereunder buyer shall promptly deliver seller report plan specification study drawing photograph model survey test result document work product buyer consultant agent employee independent contractor either received buyer seller third person prepared buyer relating prop erty way arising agreement excluding confidential internal memoranda buyer respect property ii report material performed buyer behalf third party pursuant term privileged confidential proprietary buyer acknowledges described material prepared direction others buyer make representation warranty kind respect material including limited accuracy completeness suitability reliance thereon seller notwithstanding provision agreement contrary buyer delivery seller work product shall condition precedent buyer right obtain disbursement deposit upon termination agreement continuing obligation purpose agreement obligation buyer set forth section collectively referred continuing obligation seller condition precedent enumeration condition seller obligation sell property buyer shall subject satisfaction waiver seller condition precedent specified section termination existing lease option option termination date seller shall concluded termination agreement trw form satisfactory seller sole discretion containing condition contingency buyer additional deposit shall released applied termination cost subject requirement section right terminate seller shall give written notice buyer title company stating whether condition satisfied unsatisfied waived seller seller failure give notice shall conclusively deemed mean condition unsatisfied condition remains unsatisfied date specified condition seller may terminate agreement giving written notice buyer event termination deposit shall promptly returned buyer neither seller buyer shall obligation agreement except buyer obligation perform continuing obligation buyer delivery buyer work product seller compliance section shall condition precedent buyer right obtain disbursement deposit upon termination agreement pursuant section seller shall promptly give written notice title company stating condition precedent satisfied following seller receipt buyer work product provided section page title title real property shall conveye seller buyer grant deed deed subject lien real property tax assessment delinquent ii matter title respecting real property approved deemed approved buyer due diligence period iii matter affecting condition title real property created written consent buyer foregoing exception title referred collectively condition title conclusive evidence deliver title accordance foregoing shall willingness title company issue buyer upon payment regularly scheduled premium alta owner policy title insurance amount purchase price showing title real property vested record buyer subject condition title standard printed exception condition policy title insurance seller reason intentional default seller including int entional encumbrance property seller without buyer prior written consent unable deliver title property subject condition title buyer sole remedy shall terminate agreement receive return deposit neither seller buyer shall thereafter right obligation agreement except bu yers obligation perform continuing obligation buyer shall right commence action damage specific performance relief result seller inability deliver title property subject condition title damage destruction taking operation damage destruction time prior closing seller determines real property destroyed damaged earthquake flood casualty amage require repair casualty proceeding instituted taking material portion real property power eminent domain taking buyer shall right givi ng written notice seller title company within thirty day date receipt written notice casualty taking either consummate purchase property accordance agreement event selle r shall assign buyer closing insurance proceeds payable seller account casualty event buyer shall receive credit purchase price amount deductible portion seller insurance policy reasonable cost incurred buyer obtaining insurance proceeds b award payable seller reason taking case may ii terminate agreement effective date notice termination given buyer fails give notice within day period buyer shall deemed elected terminate agreement pursuant article closing date shall deferred necessary permit buyer day period following receipt notice casualty taking make election specified hereinabove buyer terminates agreement pursuant article deposit shall returned buyer neither seller buyer shall h ave obligation agreement except buyer obligation perform continuing obligation however notwithstanding foregoing buyer delivery buyer work product seller compliance section shall conditio n precedent buyer right obtain disbursement deposit upon termination agreement pursuant article page nothing herein shall deemed constitute obligation par seller carry maintain insurance kind whatsoever pertaining property operation property period effective date agreement earlier occur closing date ii termination agreement seller shall generally operate property manner seller operated property date agreement b keep buyer generally apprised material discussion correspondence tween seller existing prospective tenant property c enter lease service contract agreement contract affecting relating property survive close escrow otherwise affect th e use operation enjoyment property close escrow without prior written consent buyer consent shall unreasonably withheld continue carry insurance policy carried seller respect property effect date agreement continuously full force effect e continue maintain pro perty manner maintained seller effective date agreement f promptly notify buyer change seller aware condition respect property event circumstance whic h seller aware make representation warranty seller buyer agreement untrue misleading covenant seller agreement seller incapable performing less likely perform seller representation warranty seller knowledge used agreement term seller current actual knowledge mean current actual knowledge richardson watkins andor lynn tolin seller representative without obligation inquiry term shall include knowledge person firm understood buyer seller representative involved operation property seller acquisition property ii seller representative charged knowledge act omission predecessor title property management property seller acquisition property iii seller current actual knowle dge shall apply construed include information material may possession seller generally incidentally seller representative actually aware seller represents warrant buyer richa rdson watkins lynn tolin executive individual responsible day today management property capacity employee martin group company inc property manager manager property individual likely familiar subject matter representation warranty described section representation warranty seller hereby make following representation warranty date agreement lease attached hereto exhibit c current accurate list lease page hazardous material seller current actual knowledge governmental authority notified seller need take remedial corrective action environmental law respect hazardous material real property used agreement environmental law mean present future statute ordinance order rule regulation federal state local governmental agency relating use generation manufacture installation release discharge storage transportation disposal hazardous material hazardous material mean petroleum asbestos polychlorinated biphenyls radioactive material radon gas undergro und storage tank chemical material substance hereafter defined included definition hazardous substance hazardous waste hazardous material extremely hazardous waste restricted hazardous waste toxic sub stance word similar import environmental law condemnation seller received written notice pending condemnation eminent domain proceeding affecting real property part thereof due authorization seller duly authorized execute perform obligation agreement person signing agreement behalf seller power authority bind seller agreement instrument agreement document executed seller delivered buyer closing time c losing duly authorized executed delivered seller non foreign person seller foreign person defined internal revenue code section f seller subject withholding section california revenue taxation code closing seller shall deliver buyer escrow declaration penalty perjury confirming foregoing statement official notice seller received written notice insurance company governmental agency board fire underwriter similar rating organization requiring requesting work repair done real property consent consent sale conveyance property seller required obtained governmental agency public administrative body leasing commission brokerage fee upon close escrow shall brokerage leasi ng fee commission compensation due payable absolute contingent basis person firm corporation entity respect account lease fee commission compensation shall become due payable buyer reason existing agreement term lease respect r enewal extension lease leasing additional space tenant purchase space tenant contract management contract seller property manager shall terminate close escrow neither seller property page manager entered possession service contract respect property buyer advised trw may concluded uch service contract third party trw lease seller default performance obligation trw lease seller current actual knowledge copy trw lease delivered b uyer true correct complete constitutes entire agreement trw seller regarding property ii tenant improvement required furnished constructed installed trw lease seller acquisit ion property completed installed reasonable satisfaction trw iii trw default performance obligation trw lease agreement incorporated therein reference circumstance existing arising seller acquisition property passage time giving notice would constitute event default trw term trw lease iv othe r lease trw lease relating property since seller acquisition property trw lease amended modified supplemented except termination agreement seller actual knowledge time acqui sition property trw lease full force effect without right setoff seller actual knowledge since acquisition property trw lease continues full force effect without right setoff property document seller provided buyer full access property document prepared seller seller knowledge due diligence material amended modified except disclosed buyer seller writing limitation seller representation warranty event breach seller covenant representation warranty discovered prior closing buyer sole remedy sha elect writing terminate agreement event shall seller liable indirect consequential damage account seller breach covenant representation warranty contained agreement seller total li ability buyer breach covenant representation warranty contained agreement shall exceed provision article shall terminate one year closing seller shall liability b uyer article date seller disclaimer release indemnification seller seller disclaimer except representation warranty seller set forth section buyer acknowledges agrees sale property buyer made without warranty representation kind seller either ex press implied respect aspect portion component property including physical condition nature quality property including quality soil property quality labor mate rial included building improvement fixture equipment personal property comprising portion property ii fitness property particular purpose iii presence suspected presence hazardous materia l property including soil groundwater property iv existing proposed governmental law regulation applicable page property development change use thereof including environmental law law regulation dealing zoning land use buyer agrees acknowledges closing buyer shall made feasibility study investiga tions environmental study engineering study inquiry governmental official inquiry investigation buyer shall deem necessary satisfy condition nature quality property suitability property buyer purpose buyer agrees acknowledges purchasing property buyer shall rely entirely investigation examination inspection property analysis evaluation property document furnished seller buyer pursuant subsection upon representation warranty seller agent repres entative seller set forth section therefore buyer agrees consummating purchase property pursuant agreement buyer shall acquire property condition fault subject seller representation warranty set forth section solely reliance buyer investigation examination inspection analysis evaluation property representation warranty seller described section agreement acknowledgment contained section constitute conclusive admission buyer sophisticated knowledgeable investor real property shall acquire property solely upon judgment matter germane property buyer contemplated use property upon statement representation warranty seller agent representative seller expressly set forth agreement closin g upon request seller buyer shall execute deliver seller certificate buyer reaffirming foregoing buyer release seller buyer hereby waif release forever discharge seller officer director emp loyees agent claim action cause action demand liability damage cost expense compensation whatsoever whether direct indirect known unknown foreseeable unforeseeable buyer may closing may arise future account way arising connected property including physical condition nature quality property including soil groundwater real property ii presence release property including soil groundwater real property hazardous material iii ownership management operation property closi ng upon request seller buyer shall deliver seller certificate buyer reaffirming foregoing buyer hereby waif protection california civil code section read follows general release n ot extend claim creditor know suspect exist favor time executing release known must materially affected settlement debtor buyer initial cc page however foregoing provision section shall serve release seller breach ex press representation warranty set forth section claim arising seller fraud flood hazard zone buyer acknowledges real property located area secretary hud found spec ial flood hazard pursuant national flood insurance program buyer required purchase flood insurance order obtain loan secured real property federally regulated financial institution loan insured guaranteed agency united state government buyer shall sole responsibility determine whether real property located area subjec national flood insurance program buyer representation warranty general buyer make covenant representation warranty set forth section shall survive closing regardless investigation seller shall made respect thereto prior closing ii material relied upon seller iii true respect date hereof iv shall true closing organization buyer natural person buyer duly organized validly existing good standing law state california authorization instrument agreement document executed buyer whi ch delivered seller closing time closing duly authorized executed delivered buyer closing closing transaction contemplated agreement shall consummated esc row office title company may closing date purpose agreement term closing shall mean consummation sale conveyance property buyer evidenced recordation deed seller delivery escrow seller shall deliver following item escrow deed deed duly executed acknowledged seller except amount transfer tax shall shown deed shall set forth separate affidavit instrument recordation deed shall attached thereto amount transfer tax shall record deed shall form f exhibit e attached agreement evidence authorization evidence shall reasonably establish seller execution agreement performance obligation hereunder duly authorized th e person person executing agreement behalf seller page duly authorized empowered document document instrument may reasonably required consummate transaction accordance term condition herein contained appropriate escrow instruction title company buyer delivery escrow buyer shall deliver following item escrow cash immediately available fund following amount balance purchase price ii amount necessary buyer pay buyer share closing cost proration specified section iii amount required close escrow accordance term agreement document documen t instrument may reasonably required order consummate transaction accordance term condition agreement appropriate escrow instruction title company evidence authorization evidence shall reasonably establish buyer execution agreement performance obligation hereunder duly authorized person person executing agreement behalf buyer duly authoriz ed empowered seller buyer joint delivery escrow seller buyer jointly shall deliver following item escrow assignment assumption agreement document seller assigns buyer buyer assumes lease contract permit warranty survive closing assignment assignment shall form attached agreement exhibit document doc uments instrument may reasonably required consummate transaction accordance term condition agreement closing proration closing item income expense property shall prorated provided section basis actual day elapsed month closing occurs midnight day immedi ately preceding closing date except provided section income expense attributable period prior closing date shall account seller income expense attributable period clos ing date shall account buyer property tax assessment shall prorated escrow item income expense shall prorated outside escrow closing date party percentage rent payable th e lease respect period closing date shall paid buyer seller within three day receipt without limiting generality foregoing following item shall prorated escrow described page current rent collected seller lease respect rent receivables carried seller lease closing buyer shall pay seller full value n immediately available fund closing seller shall execute deliver buyer closing assignment seller right title interest respect thereto b current real personal property tax nondelinquent bond improvement assessment general special nondelinquent public governmental charge assessment affecting property including current assessment lien encumbrance sewer water drainage public improvement whether completed commenced prior date agreement closing date occurs tax rate assessment fixed proration tax assessment title company shall made closing based upon recent tax bill available c water sewer charge basis fiscal year assessed prorated part tax bill wa ter meter real property seller extent able shall furnish reading effective closing date feasible date thirty day prior closing date unfixed meter charge based ther eon intervening period shall apportioned basis last reading upon taking subsequent actual reading apportionment shall readjusted seller buyer case may shall promptly deliver mount determined due upon readjustment seller unable furnish prior reading reading subsequent closing date shall apportioned per diem basis date reading immediately prior thereto seller shal l pay proportionate charge due closing date unpaid water meter bill obligation tenant respective lease billed directly tenant shall adjusted amount paid r payable respect contract buyer assumes closing e electricity gas telephone utility hvac cost expense income except extent tenant pay cost directly supplier service closing cost seller shall pay following closing cost fee cost releasing encumbrance lien security interest record condition title ii escrow fee iii onehalf city documentary transfer tax payable upon recordation deed iv county documentary transfer tax payable upon recordation deed v cost standard clta policy title insurance buyer shall pay following closing cost premium buyer policy title insurance ii one half city documentary transfer tax payable upon recordatio n deed iii recording fee iv cost fee title insurance premium charge payable connection financing obtained buyer acquire property including escrow fee relating fund ing andor recordation financing party shall pay one half escrow cancellation fee charged title company connection purchase sale property accordance agreement closing cost shall pai party accordance custom prevailing county page real property located security deposit respect lease effect closing seller shall give buyer closing escrow credit amount security dep</t>
   </si>
   <si>
-    <t xml:space="preserve">onecle hom e sample business contract netapp inc contract printer friendly sample business contract california sunnyvale crossman avenue purchase sale agreement escrow instruction martincrossman llc network appliance inc popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link purchase sale agreement escrow instruction purchase sale agreement escrow instruction agreement dated st day july reference purpose made martincrossman llc california limited liability company seller network appliance inc california corporation assignee buyer agreement shall effective effective date date last person signing agreement shall signed agreement r e c l agreement entered basis following fact understanding intention party seller owner certain real property located city sunnyvale county santa clara state california consisting property located thereon thereunder commonly known crossman avenue particularly described exhibit attached hereto real property b buyer desire purchase property defined section seller seller desire sell property buyer upon term condition stated agreement c order effectuate foregoing seller buyer desire enter agreement therefore consideration mutual covenant party herein contained valuable consideration party agree follows sale purchase title company general subject term covenant condition agreement seller shall sell buyer buyer shall purchase seller property property used agreement term property includes real property item referred subsection personal property seller right title interest personal property located real property owned seller used operation maintenance real property personal property page right privilege seller right title interest right privilege tenement hereditament rightsofway easement appurtenance mineral right development right air right riparian littoral right belonging appertaining real property contract lease seller right title interest service maintenance construction management contract relating property collectively contract ii lease tenancy occupancy agreement portion real property collectively lease seller interest security deposit prepaid rent lease guaranty lease permit warranty seller right title interest license permit approval affecting pertaining property assignable assigned buyer closing ii warranty affecting pertaining property assignable assigned buyer closing improvement improvement fixture located real property property owned tenant including without limitation office building located real property containing aggregate approximately seventy eight thousand eight hundred eighteen square foot net rentable area well building structure presently located real property apparatus equipment appliance used connection operation occupancy real property heating air conditioning system facility used provide utility refrigeration ventilation garbage disposal service real property along site parking collectively improvement intangible property intangible personal property hereafter owned seller used ownership use operation real property improvement personal property collectively intangible property title company purchase sale property shall accomplished escrow seller established establish chicago title company title company alameda california payment purchase price amount purchase price purchase price paid buyer seller property sixteen million seven hundred fifty thousand dollar amount may adjusted provided agreement term payment buyer shall pay purchase price seller follows deposit effective date condition precedent effectiveness agreement buyer shall deliver title company cashier check wire transfer amount one million dollar initial deposit page earnest money deposit account purchase price within five day effective date satisfaction waiver condition precedent set forth section agreement following shall occur buyer shall deliver directly title company additional deposit additional deposit amount five hundred thousand dollar ii initial deposit additional deposit shall become nonrefundable except otherwise provided agreement initial deposit shall released seller earlier occur buyer notification seller buyer financing transaction place ii march provided interest accrued thereon shall remain escrow account applied toward purchase price close escrow provided herein seller shall right apply additional deposit toward cost associated termination agreement defined section including limited direct compensation trw reasonable attorney fee termination cost provided however buyer seller shall share equally dollar dollar pari passu basis termination cost maximum amount five hundred thousand nol dollar ii event buyer share termination cost less additional deposit excess fund shall remain escrow title company together interest accrued thereon since date additional deposit delivered title company shall credited toward purchase price closing iii seller notifies buyer termination cost exceed one million dollar buyer shall right participate negotiation trw fund additional termination cost upon written notice election within three business day seller notification buyer decline fund additional termination cost fails give notice seller shall option fund additional termination cost ii terminate agreement provided section used agreement term deposit mean initial deposit additional deposit notwithstanding provision agreement contrary seller shall absolutely obligation return portion additional deposit applied termination cost payment balance balance purchase price shall paid full cash escrow closing deposit handling deposit title company shall deposit deposit interest bearing account term deposit used agreement shall include interest earned thereon liquidated damage buyer acknowledges closing sale property buyer term condition within time period set forth agreement material seller buyer also acknowledges substantial damage suffered seller transaction consummated due buyer default agreement buyer acknowledges date agreement seller damage would page extremely difficult impossible compute light unpredictable state economy governmental regulation fluctuating market real estate real estate loan type factor directly affect value marketability property light foregoing fact circumstance surrounding transaction following negotiation party buyer seller agree amount initial deposit represents reasonable estimate damage seller would suffer reason buyer default hereunder accordingly buyer seller hereby agree event default buyer agreement seller may terminate agreement giving notice buyer title company event termination seller shall retain initial deposit liquidated damage lieu claim seller may law equity including without limitation specific performance arising reason buyer default party initialed section establish intent liquidate damage notwithstanding foregoing nothing contained section shall deemed limit buyer obligation perform continuing obligation defined section ii buyer indemnification obligation contained agreement including contained subsection section article seller buyer initial cg initial cc buyer condition precedent inspection property enumeration condition buyer obligation purchase property shall subject satisfaction waiver buyer condition precedent specified section inspection date sixty day effective date hereof buyer shall approved investigation inspection test study analysis buyer elect make provided section respect property property document within two day effective date seller shall delivered copy otherwise made available buyer buyer review buyer shall reviewed approved date set forth section following lease lease respect real property page b contract contract seller possession affecting pertaining real property c income expense report income expense report showing result operation seller real property period date plan approval report plan specification permit license approval engineering consultant report test assessment pertaining development improvement property extent presently seller possession control excepting appraisal internal memoranda valuation document proprietary confidential document termination existing lease option within one hundred twenty day effective date hereof option termination date buyer shall received termination agreement seller current lessee property trw terminating trws option renew lease trw lease containing condition contingency payment trw compensation provided termination agreement termination agreement shall also include typical tenant estoppel language effect trw lease currently force trw claim offset seller thereunder notwithstanding anything contrary agreement event shall buyer obligated release trw indemnify otherwise incur expense liability trw termination cost connection termination trws right extend term lease provided however foregoing shall way affect right obligation buyer trw resulting buyer assumption trw lease close escrow additionally buyer shall one time right extend option termination date thirty day seller shall default agreement seller fails obtain termination agreement right terminate respect condition buyer shall give written notice seller date specified condition stating whether condition satisfied unsatisfied waived buyer notice state condition unsatisfied notice shall state reason therefor reasonable detail buyer failure give notice respect condition shall conclusively deemed mean condition satisfied buyer notifies seller writing date satisfaction condition condition unsatisfied condition deemed unsatisfied agreement shall terminate agreement terminated deposit shall returned buyer upon buyer compliance provision section ii neither seller buyer shall obligation agreement except buyer obligation perform continuing obligation defined section buyer fails deliver buyer document work product seller compliance section within ten day termination agreement buyer shall forfeit deposit seller shall entitled deposit immediately disbursed seller page buyer inspection property general subject restriction limitation provision section upon least two business day prior written verbal notice seller shall allow buyer authorized representative agent reasonable access property business hour purpose making examination test analysis investigation survey inquiry inspection connection buyer effort bring satisfaction condition precedent set forth section examination test analysis investigation survey inquiry inspection shall performed buyer buyer sole cost expense shall subject reasonable condition seller may impose including requirement buyer authorized representative agent accompanied representative seller present property buyer shall conduct examination test analysis investigation survey inquiry inspection manner minimize inconvenience tenant lease addition buyer shall right perform boring sampling soil test groundwater test intrusive physical environmental audit procedure property unless approved seller seller sole discretion confidentiality buyer agent employee contractor representative shall disclose third party including governmental quasi governmental authority result examination test analysis investigation survey inquiry inspection conducted request buyer regarding property except extent buyer required pursuant applicable law provided prior disclosure buyer shall notify seller buyer belief buyer required disclose information ii buyer consultant require information order perform service retained provided prior disclosure buyer shall obtain benefit seller written agreement consultant consultant agrees disclose information person entity indemnity buyer shall indemnify defend protect hold seller harmless loss cost damage injury claim including claim lien work labor performed material supply furnished liability expense including reasonable attorney fee result exercise buyer agent contractor employee authorized representative right entry pursuant section performance buyer due diligence agreement buyer shall promptly repair damage property caused entry onto property contact tenant notwithstanding provision agreement contrary buyer shall contact tenant occupant real property buyer obtains prior written consent seller seller elect buyer accompanied representative seller page buyer work product upon termination agreement reason whatsoever default seller hereunder buyer shall promptly deliver seller report plan specification study drawing photograph model survey test result document work product buyer consultant agent employee independent contractor either received buyer seller third person prepared buyer relating property way arising agreement excluding confidential internal memoranda buyer respect property ii report material performed buyer behalf third party pursuant term privileged confidential proprietary buyer acknowledges described material prepared direction others buyer make representation warranty kind respect material including limited accuracy completeness suitability reliance thereon seller notwithstanding provision agreement contrary buyer delivery seller work product shall condition precedent buyer right obtain disbursement deposit upon termination agreement continuing obligation purpose agreement obligation buyer set forth section collectively referred continuing obligation seller condition precedent enumeration condition seller obligation sell property buyer shall subject satisfaction waiver seller condition precedent specified section termination existing lease option option termination date seller shall concluded termination agreement trw form satisfactory seller sole discretion containing condition contingency buyer additional deposit shall released applied termination cost subject requirement section right terminate seller shall give written notice buyer title company stating whether condition satisfied unsatisfied waived seller seller failure give notice shall conclusively deemed mean condition unsatisfied condition remains unsatisfied date specified condition seller may terminate agreement giving written notice buyer event termination deposit shall promptly returned buyer neither seller buyer shall obligation agreement except buyer obligation perform continuing obligation buyer delivery buyer work product seller compliance section shall condition precedent buyer right obtain disbursement deposit upon termination agreement pursuant section seller shall promptly give written notice title company stating condition precedent satisfied following seller receipt buyer work product provided section page title title real property shall conveyed seller buyer grant deed deed subject lien real property tax assessment delinquent ii matter title respecting real property approved deemed approved buyer due diligence period iii matter affecting condition title real property created written consent buyer foregoing exception title referred collectively condition title conclusive evidence delivery title accordance foregoing shall willingness title company issue buyer upon payment regularly scheduled premium alta owner policy title insurance amount purchase price showing title real property vested record buyer subject condition title standard printed exception condition policy title insurance seller reason intentional default seller including intentional encumbrance property seller without buyer prior written consent unable deliver title property subject condition title buyer sole remedy shall terminate agreement receive return deposit neither seller buyer shall thereafter right obligation agreement except buyer obligation perform continuing obligation buyer shall right commence action damage specific performance relief result seller inability deliver title property subject condition title damage destruction taking operation damage destruction time prior closing seller determines real property destroyed damaged earthquake flood casualty damage require repair casualty proceeding instituted taking material portion real property power eminent domain taking buyer shall right giving written notice seller title company within thirty day date receipt written notice casualty taking either consummate purchase property accordance agreement event seller shall assign buyer closing insurance proceeds payable seller account casualty event buyer shall receive credit purchase price amount deductible portion seller insurance policy reasonable cost incurred buyer obtaining insurance proceeds b award payable seller reason taking case may ii terminate agreement effective date notice termination given buyer fails give notice within day period buyer shall deemed elected terminate agreement pursuant article closing date shall deferred necessary permit buyer day period following receipt notice casualty taking make election specified hereinabove buyer terminates agreement pursuant article deposit shall returned buyer neither seller buyer shall obligation agreement except buyer obligation perform continuing obligation however notwithstanding foregoing buyer delivery buyer work product seller compliance section shall condition precedent buyer right obtain disbursement deposit upon termination agreement pursuant article page nothing herein shall deemed constitute obligation part seller carry maintain insurance kind whatsoever pertaining property operation property period effective date agreement earlier occur closing date ii termination agreement seller shall generally operate property manner seller operated property date agreement b keep buyer generally apprised material discussion correspondence seller existing prospective tenant property c enter lease service contract agreement contract affecting relating property survive close escrow otherwise affect use operation enjoyment property close escrow without prior written consent buyer consent shall unreasonably withheld continue carry insurance policy carried seller respect property effect date agreement continuously full force effect e continue maintain property manner maintained seller effective date agreement f promptly notify buyer change seller aware condition respect property event circumstance seller aware make representation warranty seller buyer agreement untrue misleading covenant seller agreement seller incapable performing less likely perform seller representation warranty seller knowledge used agreement term seller current actual knowledge mean current actual knowledge richardson watkins andor lynn tolin seller representative without obligation inquiry term shall include knowledge person firm understood buyer seller representative involved operation property seller acquisition property ii seller representative charged knowledge act omission predecessor title property management property seller acquisition property iii seller current actual knowledge shall apply construed include information material may possession seller generally incidentally seller representative actually aware seller represents warrant buyer richardson watkins lynn tolin executive individual responsible day today management property capacity employee martin group company inc property manager manager property individual likely familiar subject matter representation warranty described section representation warranty seller hereby make following representation warranty date agreement lease attached hereto exhibit c current accurate list lease page hazardous material seller current actual knowledge governmental authority notified seller need take remedial corrective action environmental law respect hazardous material real property used agreement environmental law mean present future statute ordinance order rule regulation federal state local governmental agency relating use generation manufacture installation release discharge storage transportation disposal hazardous material hazardous material mean petroleum asbestos polychlorinated biphenyls radioactive material radon gas underground storage tank chemical material substance hereafter defined included definition hazardous substance hazardous waste hazardous material extremely hazardous waste restricted hazardous waste toxic substance word similar import environmental law condemnation seller received written notice pending condemnation eminent domain proceeding affecting real property part thereof due authorization seller duly authorized execute perform obligation agreement person signing agreement behalf seller power authority bind seller agreement instrument agreement document executed seller delivered buyer closing time closing duly authorized executed delivered seller non foreign person seller foreign person defined internal revenue code section f seller subject withholding section california revenue taxation code closing seller shall deliver buyer escrow declaration penalty perjury confirming foregoing statement official notice seller received written notice insurance company governmental agency board fire underwriter similar rating organization requiring requesting work repair done real property consent consent sale conveyance property seller required obtained governmental agency public administrative body leasing commission brokerage fee upon close escrow shall brokerage leasing fee commission compensation due payable absolute contingent basis person firm corporation entity respect account lease fee commission compensation shall become due payable buyer reason existing agreement term lease respect renewal extension lease leasing additional space tenant purchase space tenant contract management contract seller property manager shall terminated close escrow neither seller property page manager entered possession service contract respect property buyer advised trw may concluded service contract third party trw lease seller default performance obligation trw lease seller current actual knowledge copy trw lease delivered buyer true correct complete constitutes entire agreement trw seller regarding property ii tenant improvement required furnished constructed installed trw lease seller acquisition property completed installed reasonable satisfaction trw iii trw default performance obligation trw lease agreement incorporated therein reference circumstance existing arising seller acquisition property passage time giving notice would constitute event default trw term trw lease iv lease trw lease relating property since seller acquisition property trw lease amended modified supplemented except termination agreement seller actual knowledge time acquisition property trw lease full force effect without right setoff seller actual knowledge since acquisition property trw lease continues full force effect without right setoff property document seller provided buyer full access property document prepared seller seller knowledge due diligence material amended modified except disclosed buyer seller writing limitation seller representation warranty event breach seller covenant representation warranty discovered prior closing buyer sole remedy shall elect writing terminate agreement event shall seller liable indirect consequential damage account seller breach covenant representation warranty contained agreement seller total liability buyer breach covenant representation warranty contained agreement shall exceed provision article shall terminate one year closing seller shall liability buyer article date seller disclaimer release indemnification seller seller disclaimer except representation warranty seller set forth section buyer acknowledges agrees sale property buyer made without warranty representation kind seller either express implied respect aspect portion component property including physical condition nature quality property including quality soil property quality labor material included building improvement fixture equipment personal property comprising portion property ii fitness property particular purpose iii presence suspected presence hazardous material property including soil groundwater property iv existing proposed governmental law regulation applicable page property development change use thereof including environmental law law regulation dealing zoning land use buyer agrees acknowledges closing buyer shall made feasibility study investigation environmental study engineering study inquiry governmental official inquiry investigation buyer shall deem necessary satisfy condition nature quality property suitability property buyer purpose buyer agrees acknowledges purchasing property buyer shall rely entirely investigation examination inspection property analysis evaluation property document furnished seller buyer pursuant subsection upon representation warranty seller agent representative seller set forth section therefore buyer agrees consummating purchase property pursuant agreement buyer shall acquire property condition fault subject seller representation warranty set forth section solely reliance buyer investigation examination inspection analysis evaluation property representation warranty seller described section agreement acknowledgment contained section constitute conclusive admission buyer sophisticated knowledgeable investor real property shall acquire property solely upon judgment matter germane property buyer contemplated use property upon statement representation warranty seller agent representative seller expressly set forth agreement closing upon request seller buyer shall execute deliver seller certificate buyer reaffirming foregoing buyer release seller buyer hereby waif release forever discharge seller officer director employee agent claim action cause action demand liability damage cost expense compensation whatsoever whether direct indirect known unknown foreseeable unforeseeable buyer may closing may arise future account way arising connected property including physical condition nature quality property including soil groundwater real property ii presence release property including soil groundwater real property hazardous material iii ownership management operation property closing upon request seller buyer shall deliver seller certificate buyer reaffirming foregoing buyer hereby waif protection california civil code section read follows general release extend claim creditor know suspect exist favor time executing release known must materially affected settlement debtor buyer initial cc page however foregoing provision section shall serve release seller breach express representation warranty set forth section claim arising seller fraud flood hazard zone buyer acknowledges real property located area secretary hud found special flood hazard pursuant national flood insurance program buyer required purchase flood insurance order obtain loan secured real property federally regulated financial institution loan insured guaranteed agency united state government buyer shall sole responsibility determine whether real property located area subject national flood insurance program buyer representation warranty general buyer make covenant representation warranty set forth section shall survive closing regardless investigation seller shall made respect thereto prior closing ii material relied upon seller iii true respect date hereof iv shall true closing organization buyer natural person buyer duly organized validly existing good standing law state california authorization instrument agreement document executed buyer delivered seller closing time closing duly authorized executed delivered buyer closing closing transaction contemplated agreement shall consummated escrow office title company may closing date purpose agreement term closing shall mean consummation sale conveyance property buyer evidenced recordation deed seller delivery escrow seller shall deliver following item escrow deed deed duly executed acknowledged seller except amount transfer tax shall shown deed shall set forth separate affidavit instrument recordation deed shall attached thereto amount transfer tax shall record deed shall form exhibit e attached agreement evidence authorization evidence shall reasonably establish seller execution agreement performance obligation hereunder duly authorized person person executing agreement behalf seller page duly authorized empowered document document instrument may reasonably required consummate transaction accordance term condition herein contained appropriate escrow instruction title company buyer delivery escrow buyer shall deliver following item escrow cash immediately available fund following amount balance purchase price ii amount necessary buyer pay buyer share closing cost proration specified section iii amount required close escrow accordance term agreement document document instrument may reasonably required order consummate transaction accordance term condition agreement appropriate escrow instruction title company evidence authorization evidence shall reasonably establish buyer execution agreement performance obligation hereunder duly authorized person person executing agreement behalf buyer duly authorized empowered seller buyer joint delivery escrow seller buyer jointly shall deliver following item escrow assignment assumption agreement document seller assigns buyer buyer assumes lease contract permit warranty survive closing assignment assignment shall form attached agreement exhibit document document instrument may reasonably required consummate transaction accordance term condition agreement closing proration closing item income expense property shall prorated provided section basis actual day elapsed month closing occurs midnight day immediately preceding closing date except provided section income expense attributable period prior closing date shall account seller income expense attributable period closing date shall account buyer property tax assessment shall prorated escrow item income expense shall prorated outside escrow closing date party percentage rent payable lease respect period closing date shall paid buyer seller within three day receipt without limiting generality foregoing following item shall prorated escrow described page current rent collected seller lease respect rent receivables carried seller lease closing buyer shall pay seller full value immediately available fund closing seller shall execute deliver buyer closing assignment seller right title interest respect thereto b current real personal property tax nondelinquent bond improvement assessment general special nondelinquent public governmental charge assessment affecting property including current assessment lien encumbrance sewer water drainage public improvement whether completed commenced prior date agreement closing date occurs tax rate assessment fixed proration tax assessment title company shall made closing based upon recent tax bill available c water sewer charge basis fiscal year assessed prorated part tax bill water meter real property seller extent able shall furnish reading effective closing date feasible date thirty day prior closing date unfixed meter charge based thereon intervening period shall apportioned basis last reading upon taking subsequent actual reading apportionment shall readjusted seller buyer case may shall promptly deliver amount determined due upon readjustment seller unable furnish prior reading reading subsequent closing date shall apportioned per diem basis date reading immediately prior thereto seller shall pay proportionate charge due closing date unpaid water meter bill obligation tenant respective lease billed directly tenant shall adjusted amount paid payable respect contract buyer assumes closing e electricity gas telephone utility hvac cost expense income except extent tenant pay cost directly supplier service closing cost seller shall pay following closing cost fee cost releasing encumbrance lien security interest record condition title ii escrow fee iii onehalf city documentary transfer tax payable upon recordation deed iv county documentary transfer tax payable upon recordation deed v cost standard clta policy title insurance buyer shall pay following closing cost premium buyer policy title insurance ii one half city documentary transfer tax payable upon recordation deed iii recording fee iv cost fee title insurance premium charge payable connection financing obtained buyer acquire property including escrow fee relating funding andor recordation financing party shall pay one half escrow cancellation fee charged title company connection purchase sale property accordance agreement closing cost shall paid party accordance custom prevailing county page real property located security deposit respect lease effect closing seller shall give buyer closing escrow credit amount security deposit deposit held seller lease possession subject right tenant lease seller shall deliver exclusive possession property buyer closing closing </t>
-  </si>
-  <si>
-    <t>lpb page recording mail name address city state zip filed record request short form deed trust deed trust made day grantor whose address trustee whose address beneficiary whose address grantor hereby irrevocably grant bargain sell conveys trustee trust power sale following described property county washington assessor property tax parcelaccoun number together tenement hereditament appurtenance hereafter thereunto belonging anywise appertaining rent issue profit thereof property right kind nature whatsoever furthe r set forth master form deed trust hereinafter referred subject however right power authority hereinafter given conferred upon beneficiary collect apply rent issue profit deed purpose securing performance agreement grantor incorporated reference contained herein payment sum dollar interest thereon according term promissory note even date herewith payable beneficiary order made grantor renewal modification extension thereof also sum may advanced loaned beneficiary grantor hishertheir successor assigns together interest thereon rate shall agreed upon executing delivering deed trust note secured hereby party agree provision paragraph inclusive master form deed trust hereinafter referred except para graph specifically excluded modified herein hereby incorporated herein reference made integral part hereof purpose set forth herein length grantor hereby make said covenant agrees fu lly perform said provision master form deed trust referred recorded twentyfifth th day july official record office county auditor following county washington boo k page designated name county towitlpb page county book vol page auditor county book vol page auditor adam record instr lewis official rec asotin microfilmed auditor lincoln mortgage benton official rec ac mason reel frame chelan official rec okanogan mortgage clallam official c pacific official rec clark aud microfilm g pend oreille mtgs columbia deed f pierce mtgs cowlitz official rec san juan mtgs douglas mortgage skagit official rec ferry deed skamania mtgs franklin official rec snohomish official rec garfield microfilmed auditor spokane official rec c grant rec doc stevens mtgs gray harbor general thurston official rec island official rec waukiakum mortgage jefferson fficial rec walla walla mtgs king mtgs whatcom official rec kitsap official rec whitman misc kittitas mortgage yakima official rec klickitat mortgage copy master form deed trust hereby furnished person executing deed trust executing deed trust grantor acknowledges receipt master form deed trust property subject deed trust used principally primarily agriculture farming purpose undersigned grantor request copy notice default notice sale hereunder mailed address hereinbefore set forth witness hand seal grantor day year first written state s coun ty certify know satisfactory evidence isare person appeared said person acknowledged heshethey signed instrument acknowledged hishertheir free voluntary act us purpose mentioned instrument dated notary public state appointment expires state s county certify know satisfactory evidence isare person w ho appeared said person acknowledged heshethey signed instrument oath stated heshethey isare authorized execute instrument acknowledged free voluntary act par tyies us purpose mentioned instrument dated notary public state appointment expires lpb page request full reconveyance used obligation paid note deed trust trustee undersigned legal owner holder note indebtedness secured within deed trust said note together indebtedness secured said deed trust fully paid sat isfied hereby requested directed payment sum owing term said deed trust cancel said note mentioned evidence indebtedness secured said deed trust delivered herewith together said deed trust reconvey without warranty party designated term said deed trust estate held thereunder dated mail reconveyance lose destroy deed trust note secures must delivered trustee cancellation madelpbattachment page master form deed trust recorded washington mortgage correspon dence association washington corporation pursuant c l grantor covenant agrees follows following described estate property right grantor also included security performance coven ant agreement grantor contained herein short form deed trust payment sum money secured hereby estate right grantor said property land lying street road adj oining said premise access right easement appertaining thereto b building structure improvement fixture article property hereafter attached used adapted use operation said premi s including without limited heating incinerating apparatus equipment whatsoever boiler engine motor dynamo generating equipment piping plumbing fixture range cooking apparatus mechanical kitchenequipm ent refrigerator cooling ventilating sprinkling vacuum cleaning system fire extinguishing apparatus gas electric fixture carpeting underpadding elevator escalator partition mantel builtin mirror window shade blind screen storm sash awning furnishing public space hall lobby shrubbery plant including also interest owner said premise item hereafter time acquired conditional sale contract chattel mortgage title retaining security instrument property mentioned paragraph shall deemed part realty severable wholly part without material injury freehold c singular land enements privilege water right hereditament appurtenance thereto belonging anywise appertaining reversion reversion remainder remainder rent issue profit thereof estate right title claim int erest demand whatsoever grantor either law equity bargained premise hold said premise bargained described together singular land tenement privilege water right heredit ament appurtenance thereto belonging anywise appertaining reversion reversion remainder remainder rent issue profit thereof estate right title claim demand whatsoever grantor ei ther law equity bargained premise forever security faithful performance promissory note secured hereby security faithful performance covenant agreement term nd condition deed trust subject however right power authority hereinafter given conferred upon beneficiary collect apply rent issue profit grantorss right encumber said pr operty debt except encumbrance actual term specifically expressed intent shall time remain subject subordinate tenancy existence encumbrance becomes effective ii enancies thereafter created grantor hereby representing special inducement beneficiary make loan date hereof encumbrance secure debt junior deed trust ii covenanting none date deed trust becomes record except either case encumbrance prior written approval beneficiary grantor right enter lease lease agreement would create tenancy hat may become subordinate respect mortgage deed trust deed trust grantor beneficiary shall respectively become debtor secured party uniform commercial code financing statement affecting property either referred described herein way connected use enjoym ent premise deed trust shall deemed security agreement defined said uniform commercial code remedy violation covenant term condition agreement herein contained shall prescrib ed herein ii general law iii part security also reflected said financing statement specific statutory consequence hereafter enacted specified uniform commercial code beneficiary sole election grantor beneficiary agree filing financing statement record normally personal property shall never construed anywise derogating impairing declaration hereby st ated intention party hereto everything used connection production income property subject deed trust andor adapted use therein andor described reflected deed trust time purpose proceeding legal equitable shall regarded part real estate irrespective whether item physically attached improvement ii serial number used better identification certain equipment item capable thus identified recital contained short form deed trust list filed beneficiary iii item referred reflected financing state ment filed time pay debt monies secured hereby cause shall become due keep property free statutory governmental lien kind grantor isare seized fee simple property owns outright every part thereof lien encumbrance upon none superior deed trust created suffered created grantor life deed trust tha good right make deed trust forever warrant defend said property unto beneficiary successor assigns every person whomsoever lawfully claiming claim part thereof gran tor upon request mail furnish written statement duly acknowledged amount due deed trust whether offset defense exist debt secured hereby pay beneficiary beneficiary requires togethe r addition monthly payment principal lpbattachment page interest payable term said note date set forth therein making monthly payment month said note fully paid sum estimated benefi ciary equal ground rent tax special assessment next due premise covered deed trust plus premium next become due payable insurance policy may required paragraph grantor agreeing deliver promptly beneficiary bill notice thereof less sum already paid therefor divided number month elapse two month prior date ground rent premium tax specia l assessment become delinquent sum held beneficiary trust pay said ground rent premium tax special assessment payment mentioned paragraph payment made said note shall added together aggregate amount thereof shall paid grantor month single payment applied beneficiary following item order set forth ground rent tax special assessment fire hazar insurance premium interest note secured hereby amortization principal said note deficiency amount aggregate monthly payment shall constitute event default deed trust arra ngement provided paragraph solely added protection beneficiary entail responsibility beneficiary part beyond allowing due credit without interest sum actually received upon assignmen deed trust beneficiary fund hand shall turned assignee responsibility assignor respect thereto shall terminate transfer property subject deed trust shall utomatically transfer grantee right grantor respect fund accumulated hereunder event payment portion thereof paid within fifteen day commencing date due beneficiary may collect grantor agrees pay payment late charge two cent dolla r overdue liquidated damage additional expense handling delinquent payment total payment herein called reserve made paragraph hereof relating reserve ground rent tax special assessment premium insurance policy shall exceed amount payment actually made beneficiary purpose set forth paragraph plus amount reasonably accumulated reserve toward payment therefrom next become due excess may provided default exists term instrument term promissory note hereby secured otherwise credited beneficiary payment subsequent aggregate partial payment made grantor option beneficiary refunded grantor hishertheir successor interest may appear upon record beneficiary however monthly payment accumulating reserve shall ufficient pay sum required shall become due payable grantor shall pay beneficiary amount necessary make deficiency within thirty day written notice grantor stating amount defic iency shall default provision deed trust thereafter sale property accordance provision hereof beneficiary acquires property otherwise default beneficiary shall apply time commencement proceeding time property otherwise acquired balance remaining fund accumulated paragraph less sum become due payable pendency proce edings credit amount secured hereby maintain building improvement property rentable tenantable condition state repair neither commit suffer waste promptly comply quirements federal state municipal authority law ordinance regulation covenant condition restriction respecting said property use thereof pay fee charge kind connection therewith beneficiary may recover damage breach covenant amount would cost put property condition called herein event breach requirement paragraph beneficiary may addition ot right remedy time thereafter declare whole said principal sum immediately due payable proof impairment security shall unnecessary suit proceeding paragraph grantor shall permit beneficiary r agent opportunity inspect property including interior structure reasonable time reasonable notice complete restore promptly good workmanlike manner building improvement may constructed damaged destroyed thereon pay due cost incurred therefor loan secured hereby part thereof obtained purpose financing construction improvement said property grantor agree commence construction promptly event within thirty day date instrument complete accordance agreement relating construction plan specification satisfactory beneficiar within eight month date instrument b allow beneficiary inspect said property time construction c replace work material unsatisfactory beneficiary within fifteen calendar day writte n notice grantor fact work shall cease construction improvement reason whatsoever period fifteen consecutive day trustee upon presentation affidavit signed beneficiary setting forth fact showing defa ult grantor numbered paragraph authorized accept true conclusive fact statement therein act thereon hereunder building improvement property shall structurally altered removed demolished without beneficiary prior written consent shall fixture chattel covered deed trust adapted lpbattachment page proper use enjoyment premise removed time without like consent unless actually replaced article equal suitability owned grantor free clear lien security interest except may approved writing beneficiary provide beneficiary least thirty day prior expiration ex isting insurance maintain unceasingly insurance premium prepaid property subject deed trust hereafter becoming part said property loss fire hazard casualty contingenci e including war damage may required time time beneficiary amount period time loss payable clause without contribution favor form satisfactory beneficiary deliver policy beneficiary delivery shall constitute assignment beneficiary return premium insurance shall carried company approved beneficiary beneficiary may option require grantor maintain said required polic y grantorss possession lieu delivering said policy beneficiary event said policy shall kept available grantor time return beneficiary inspection beneficiary agent insurer aid requirement may withdrawn beneficiary time event foreclosure deed trust transfer title subject property extinguishment indebtedness secured hereby interest grantor insurance policy force shall pas purchaser grantee pay beneficiary beneficiary may require reasonable fee cover cost substituting policy event grantor replaces policy prior expiration grantor reimburse beneficiary premium paid insurance beneficiary upon grantorss default insuring building improvement default assigning delivering policy beneficiary endorsed appear defend suit action proceeding might affect value security instrument security right power beneficiary trustee beneficiary trustee elect also ppear defend action proceeding made party reason deed trust elect prosecute action appears necessary preserve said value grantor time indemnify demand reimb urse beneficiary trustee loss damage expense cost including cost evidence title attorney fee arising incurred connection suit action proceeding sum expenditure shall secured deed trust interest provided note secured hereby shall due payable demand pay cost suit cost evidence title reasonable attorney fee proceeding suit brought beneficiary foreclose deed trust pay full least thirty day delinquent rent tax assessment encumbrance charge lien interest may hereafter levied assessed claimed upon property hat subject deed trust part thereof time appear prior superior hereto provision made heretofore upon request exhibit beneficiary official receipt therefor pay tax imposed upon reasonable cost fee expense trust default paragraph beneficiary may option pay pay reserve accumulated paragraph sum without waiver right benefici ary reason default grantor beneficiary shall liable grantor failure exercise option repay immediately written notice grantor sum expended advanced hereunder behalf beneficiary trustee interest date advance expenditure rate ten percent per annum paid repayment thereof shall secured hereby failure repay expenditure advance interest thereon within ten day mailing notice beneficiary option constitute event default hereunder beneficiar may option commence action grantor recovery expenditure advance interest thereon event grantor agrees pay addition amount expenditure advance cost expense incurred action together reasonable attorney fee grantor fail make payment act herein provided beneficiary trustee without obligation without notice demand upon gra ntors without releasing grantor obligation hereof may make manner extent either may deem necessary protect security hereof beneficiary trustee authorized enter upon property purpose commence appear defend action proceeding purporting affect security hereof right power beneficiary trustee pay purchase contest compromise encumbrance charge lien judgment either appears prior superior hereto exercising power incur liability expend whatever amount absolute discretion may deem necessary therefor including cost evidence title employ counsel pay hertheir reasonable fee fully comply term condition provision lease said property shall become default needful preserve said lease force b permit assignment lease subletting thereunder unless right assign sublet expressly reserved lessee lease c save except tax assessment provided paid grantor specified paragraph hereof grantor create suffer permit created subsequent date execution delivery deed trust lien encumbrance may become superior lease affecting said propertylpbattachment page part automobile parking area included within said property taken condemnation said area otherwise reduced grantor provide parking facility kind size location comply lease making contract substitute parking facility grantor furnish beneficiary satisfactory assurance completion thereof free lien conformity governmental zoning regulation property r part appurtenance thereof right interest therein taken damaged reason public private improvement condemnation proceeding including change grade fire earthquake casualty manner beneficiar may option commence appear prosecute name action proceeding make compromise settlement connection taking damage obtain compensation award relief therefor com pensation award damage right action proceeds including proceeds policy insurance affecting property hereby assigned beneficiary may deducting therefrom expense including attorney fee rel ease monies received apply indebtedness secured hereby apply repair restoration property may elect grantor assigns beneficiary return premium repayment upon insurance time provided benefit beneficiary refund rebate made tax assessment said property beneficiary may time collect said return premium repayment refund rebate etc notwithstanding sum secured hereby overdue right collection asserted grantor also agrees execute assignment compensation award damage rebate return premium repayment right action proceeds beneficiary trustee may require time essence hereof connection obligation grantor herein said note accepting payment sum secured hereby due date beneficiary waive right either require prompt payment due sum secured declare default failure pay time upon written request beneficiary payment fee presentation deed said note endorsement case full reconveyance cancella tion retention without affecting liability person payment indebtedness trustee may consent making map plat said property b join granting easement creating restriction thereon c joi n subordination agreement affecting deed lien charge thereof reconvey without warranty part property grantee reconveyance may described person person legally entitled recital therein matter fact shall conclusive proof truthfulness thereof grantor agrees pay reasonable trustee fee full partial reconveyance together recording fee trustee option ele ct record said reconveyance case sale deed trust said property real personal mixed may sold one parcel grantor shall without first obtaining beneficiary written consent assign rent profit property collect rent one month advance change general nature occupancy initiate acquiesce zoning reclassification suffer act thing would impair ecurity said debt beneficiary lien upon said property rent thereof event breach requirement paragraph beneficiary may addition right remedy time thereafter declare whol e said principal sum immediately due payable holder deed trust action foreclose shall entitled without notice without regard adequacy security said debt appointment receiver rent profit property receiver shall addition right power customarily given exercised receiver right power granted beneficiary covenant contained paragra ph hereof security payment indebtedness herein mentioned grantorss rent profit said property right title interest grantor lease hereafter affecting said property hereby assigned transferred beneficiary long default shall exist compliance requirement hereof instrument time executed respect deed trust grantor may collect signed rent profit fall due upon occurrence default later time beneficiary sole discretion may fix written notice right grantor collect receive rent profit shall wholly terminate rent profit grantor receivable respect said property shall permitted collect hereunder shall received trust pay usual reasonable operating expense tax upon said property sum owing beneficiary become due payable provided deed trust said note modification either balance rent profit payment operating expense tax sum due beneficiary setting aside accrual date expense tax sum including amortization shall grantorss absolute property lease whole part property involving initial term three year shall modified terminated without written consent beneficiary shall surrender lease accepted rental thereunder collected two month advance without like written consent event default hereunder exercise beneficiary right hereby granted grantor agrees payment made tenant occupant beneficiary shall tenant considered though de grantor discharge tenant obligation grantor nothing herein contained shall construed obliging beneficiary perform grantorss covenant lease rental arrangement grantor shall execute deliver beneficiary upon demand supplemental assignment necessary effectuate intention paragraph upon failure grantor comply beneficiary may addition right remedy ha declare maturity indebtedness hereby securedlpbattachment page event default compliance requirement deed trust instrument time executed respect deed trust continuance thereof period would entitle beneficiary dec lare said debt due payable ten day period applicable beneficiary may option enter upon take possession said property let part thereof making therefor alteration find necessary may terminate lawful manner tenancy occupancy said property exercising respect thereto right option available grantor occurrence default owner said property shall occupy said property part thereof owner shall pay beneficiary advance first day month reasonable rental space occupied upon failure beneficiary shall entitled remove owner f rom property appropriate action proceeding entering upon taking possession said property collection rent issue profit proceeds fire insurance policy compensation award taking damage property application release thereof aforesaid shall cure waive default notice default hereunder invalidate act done pursuant notice sum secured hereby shall become im mediately due payable option beneficiary without demand notice following occur shall event default default grantor payment indebtedness secured hereby perfor mance observance agreement contained herein b assignment made grantor owner said property benefit creditor c transfer title made grantor owner said property gra ntee successor interest without assumption term condition herein contained following shall occur respect property grantor owner said property appointment r eceiver liquidator trustee ii adjudication bankrupt insolvent iii filing petition bankruptcy reorganization iv institution proceeding dissolution liquidation v grantor unable adm writing inability pay hishertheir debt due vi default provision instrument may held beneficiary security said note including loan agreement related document term covenan t incorporated herein reference though fully set forth herein waiver beneficiary default part grantor shall construed waiver subsequent default hereunder event default upon wri tten request beneficiary trustee shall sell trust property accordance deed trust act state washington rcw chapter existing hereafter amended uniform commercial code state washington whe applicable public auction highest bidder person except trustee may bid trustee sale trustee shall apply proceeds sale follows expense sale including reasonable trustee fee attorney fee b obligation secured deed trust c surplus shall distributed accordance said deed trust act trustee shall deliver purchaser sale deed without warranty shall convey purcha ser interest property grantor power convey time hishertheir execution deed trust may acquired thereafter trustee deed shall recite fact showing sale cond ucted compliance requirement law deed trust recital shall prima facie evidence compliance conclusive evidence thereof favor bona fide purchaser encumbrancers value power sale conferred deed trust deed trust act state washington exclusive remedy exercised beneficiary may foreclose deed trust mortgage time beneficiary may appoint writing success trustee discharge appoint new trustee place trustee named herein upon recording appointment mortgage record county deed trust recorded successor trustee shall vested wit h power original trustee trustee obligated notify party hereto pending sale deed trust action proceeding grantor trustee beneficiary shall party unless action proceeding brought trustee property subject deed trust used principally primarily agricultural farming purpose event passage date deed trust federal state local law deducting f rom value real property purpose taxation lien thereon changing way law force taxation mortgage deed trust debt secured thereby federal state local purpose manner collection tax affect interest beneficiary event grantor shall bear pay full amount tax provided reason payment grantor new additional tax would unlawful payment thereof would constitute usury render loan indebtedness secured hereby wholly partially usurious term provision note within deed trust otherwise beneficiary may op tion without demand notice declare whole sum secured deed trust interest thereon immediately due payable beneficiary may option pay amount portion tax render loan indebtedness sec ured hereby unlawful usurious event grantor shall concurrently therewith pay remaining lawful nonusurious portion balance said tax circumstance whatever fulfillment provision deed trust said note time performance provision shall due shall involve transcending limit validity prescribed usury statute law ipso facto obligation fulfilled shall reduced limit vali dity event shall exaction possible deed trust said note excess limit validity obligation shall fulfilled limit validity provision paragraph sh control every provision deed trust said notelpbattachment page event deed trust foreclosed mortgage property sold foreclosure sale purchaser may redemption period allowed make r epairs alteration said property may reasonably necessary proper operation care preservation protection insuring thereof sum paid together interest thereon time expenditure highest lawful r ate shall added become part amount required paid redemption sale grantor shall deliver beneficiary within day written demand therefor detailed operating statement form satisfactory beneficiary covering subject property certified correct grantor grantor shall permit beneficiary representative examine book record pertaining said property upon prior written demand less ten day default thereof beneficiary shall addition remedy option maturing indebtedness hereby secured beneficiary shall demand one statement calendar year beneficiary sha right option foreclose deed trust subject right tenant tenant said property failure make tenant tenant party defendant suit action foreclose hisherthei r right asserted grantor defense action suit instituted collect indebtedness secured hereby part thereof deficiency remaining unpaid foreclosure sale said property statute rule law time existing contrary notwithstanding upon default grantor following acceleration maturity herein provided tender payment amount necessary satisfy entire indebtedness secured eby made time prior foreclosure sale including sale power sale grantor successor assigns anyone behalf grantor successor assigns shall constitute evasion prepayment term sa id note deemed voluntary prepayment thereunder payment extent permitted law therefore include additional payment required prepayment privilege contained said note time th ere prepayment privilege payment extent permitted law include additional payment five percent principal balance beneficiary shall subrogated security lien although released record encumbrance paid proceeds loan secured deed trust grantor time time within fifteen day request beneficiary shall execute acknowledge deliver beneficiary chattel mortgage security agreement similar security instrument form substance satisfactory beneficiary covering property kind whatsoever owned grantor grantor interest sole opinion beneficiary essential operation said property covered deed trust grantor shall time time within fif teen day request beneficiary execute acknowledge deliver financing statement renewal affidavit certificate continuation statement document beneficiary may request order perfect preserve continue extend maintain security interest priority deed trust priority chattel mortgage security instrument first lien grantor agrees pay beneficiary demand cost expense incur red beneficiary connection preparation execution recording filing refiling instrument document including charge examining title attorney fee rendering opinion priority deed f trust chattel mortgage security instrument valid first subsisting lien however neither request made beneficiary failure beneficiary make request shall construed release property part thereof conveyance title deed trust understood agreed covenant chattel mortgage security agreement similar security instrument delivered beneficiary cumulative given additional security beneficiary right remedy herein specified intended cumulative substitution right remedy otherwise available requirement whatsoever may waived time except writing signed beneficiary shall waiver operative upon single occasion deed trust changed terminated orally deed trust applies inures benefit binding party hereto hishertheir heir devisee legatee administrator executor successor assigns obligation grantor hereunder joint several term beneficiary shall mean holder owner including pledgee note secured hereby whether named beneficiary herein without affecting liability person payment obligation herein mentioned including grantor convey said property without affecting lien hereof upon property released beneficiary may without notice release person liable extend maturity modify term obligation grant indulgence release reconvey cause released reconve yed time part said property described herein take release security make composition arrangement debtor beneficiary may also accept additional security either concurrently herewith thereafter sell otherwise realize thereon either concurrently sale hereunder deed trust shall construed wherever applicable use singular number shall include plural number use plural nu mber shall include singular number use gender shall applicable gender shall likewise construed applicable including corporation word note shall include note evidencing indebtedness secured h ereby provision hereof shall determined contravene invalid law state washington contravention invalidity shall invalidate provision agreement shall construed containing particular provision provision held invalid right obligation party shall construed enforced accordingly notice given grantor beneficiary hereunder shall sufficient mai led postage prepaid address grantor stated short form deed trust address grantor hashave requested writing beneficiary notice sent time period provided giving notice hereunder shall commence upon date notice deposited mail</t>
-  </si>
-  <si>
     <t>lease summary sheet basic information premise property address tenant registered address name occupant title division different tenant landlord registered address lease term commencement date expiry date year march march date lease signed march monthly rental hk hk per sqft inclusive management fee government rate management fee landlord account hk per month subject increase adjustment government rate landlord account hk per quarter outgoings aircon car park etc security deposit hk equivalent month rental refunded tenant landl ord without interest within day expiration sooner deter mination tenancy delivery vacant possession landlord last outstanding claim landlord tenant rent free period early handover period break clause yes upon expiry fir month tenant may terminate tenancy serv ing less month prior written notice landlord payment lieu notice diplomatic clause option extend landlord con ent tenant may continue occupy premise expiration tenancy shall considered calendar monthly tenant shall give one month notice quit bank mortgage consent sale redevelopment clause lease summary sheet remark tenant obligation general covenant pay rent without deduction set first day every calendar month pay outgoings ut ilities charge electricity water gas insure keep insured apartment tenant belonging includi ng landlord fixture furniture fitting comprehensively similar value thereof tenant shall upon request landlord provide landlord valid insurance policy permit landlord inspection reasonable hour perform observe compliance house rule deed mutual covenantgovernment lease development hand said prem ises tenantable repair condition fair wear ear accident fire excepted upon expiration sooner termination lease special term condition b repair maintenance responsible repair door window kitchen bathroom fitting pipe drain caused negligence tenant take necessary precaution protect interior apartment approaching storm depression typhoon serve notice writing landlord agent damage may suffered apartment accident defect water pipe electrical wiring fitting fixture facility provided landlord tenant shall responsible reasonable cost unblocking drainage pipe within apartment exclusive u e tenant whether caused carele s use tenant circumstance beyond control special term condition tenant restriction make alteration addition premise air conditioning system provided landlord without previous written consent landlord cause nuisance annoyance neighbor common area estate erect sign exterior premise illegal immoral use keep pet keep retain dangerous good apartment allowed assignment subletting vitiation landlord insurance special term condition lease summary sheet landlord obligationsrights provide quiet enjoyment tenant premise pay government rent rate service charge property tax maintain repair structural facility premise including roof main electricity supply cable main drain concealed pipe main wall window frame enforce deed mutual covenant relating building reasonable sa fety protection tenant exclusion landlord liability indemnity tenant landlord agent shall circumstance liable tenant person whomsoever respect loss damage person property sustained tenant su ch person caused way owing defect breakdown suspension serv ing lift electrical power water supply air conditioning system service provided building respect loss damage person property sustained tenant disruption inconvenience caused suffered tenant person caused way owing connected esc ape fume smoke fire substance thing overflow water anywhere within building save except caused landlord negligence security safekeeping premise person content therein responsibility shall time rest tenant landlord remedy default cesser rent inventory mostly kitchen applianc e aircons water heater furniture fitting supplied landlord</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>page overview working supervision manager administrative assistant perform variety general administrative clerical service incumbent required take direction work tuitively support completion department goal objective professiona lly culturally appropriate manner responsibility coordinate department administrative activity n effective date accurate manner actively participates department strategic planning session work cooperative ly team member support achievement work plan activity designed achieve identified goal objective operate office equipment computer fax machine photocopier voice mail messaging system computer scanning equ ipment complete department task performs clerical function preparing correspondence receiving visitor arranging conference call scheduling meeting manager designate coordinate organizes department meeting confe rences including meeting venue booking catering requirement set room audio visual equipment flip chart tends requirement department meeting completes internal external correspondence legal document form lette r document distributes directed prepares meeting agenda r ecord distribut e meeting minute maintains organized file coordinate required repair office equipment coordinate completes significant special project independently cooperation gro ups directed manager designate develops implement maintains agency procedure within department arranges department team travel including making hotel accommodatio n land air transportation booking maintains adequate office supply department supply used within department understands adheres agency policy procedure administrative assistant job description department alternative care immediate supervisor manager alternative care location manitoulinsudbury salary tbd page perform administrative clerical support mana ger accomplishing role responsibility includes assist development distribution staff schedule produce form schedule correspondence required completes confidential administrative service manage r produce andor assist production required internal external r eports regularly review progress standard department deliverable take appropriate action ensure timely completion department task coordinate liaison activity agency department assist development department budget ensures spending remains within acceptable variance support manager addressing personnel matter within department verifies rec ords department staff compliance agency administrative financial policy procedure including travel expense claim staff attendance report prepares financial expenditure payment authorization form administrative docu ments authoriz ation manager cheque quisitions purchase order etc serve coordinator department information reporting communication strategy activity includes develop maintain accurate date record management system including classifying coding electronic hardcopy file store retriev e disseminat e information staff client prepares detailed presentation report required mana ger designate ensures safeguarding confidential file provides website update department ensure date department information posted intranet website creates database andor process accomplish task suppo rts development implementation agency comprehensive public relation strategy first nation community chief council public community service agency implement strategy communicating service program impa ct part agency overall communication strategy coordinate completes department communiqu internal external audience qualification administrative assistant diploma related diploma degree minimum year experience similar position first nation social service agency page knowledge skill possesses knowledge respect sensitivity anishinabe culture committed helping first nation family strengthen achieve healthy level well b eing ability speak anishinabemowin knowledge first nation family structure culture demonstrated significant front line experience working first nation community ability develop provide leadership guidance motivati vision management staff agency ensure professional standard service first nation community family child must possess strong organization evaluation problem solving skill must able communica te effectively writing verbally working knowledge microsoft office suite frontline cim pen lieu must able work flexible hour must valid driver license possess vehicle must willing aut horize vulnerable ector check page certification acknowledgement receipt employee print employee signature date certify read understand agree responsibility assigned position manager supervisor print manager supervisor signature date certify job description accurate description responsibility assigned position department manager date approve delegation responsibility outlined herein within context attached organizational structure</t>
   </si>
   <si>
-    <t>city county san francisco office controller city performance example board director policy manual citywide nonprofit monitoring capacity building program best practice board director policy manual citywide nonprofit monitoring capacity building program promotes use upto date board director policy manual best practice nonprofit agency manual support member nonprofit board director unde rstand role responsibility including fiduciary governance responsibility nonprofit policy manual typically include limited following type information list bylaw define term limit quorum committee structure votingdecisionmaking process policy board member assisting raising fund annual giving board member responsibility financial oversight including reviewing financial statement irs form approving annual budget board leadership position filled board conduct active recruitment fill vacancy conflict interest policy information citywide nonprofit monitoring capacity building program resource tip nonprofit please visit wwwsfcontrollerorgnonprofits following page three example board director policy manual meet city standard used template nonprofit needing develop update polici e manual shared permission agency example jewish vocational service example toolworks example healthright b c e role responsiblities board director ntroduction boar advise support toolworks ensure policy practice aligned adhere agency overall mission value strategic direction board responsible approving change overall mission fiduciary legal governance hiring evaluating executive director boar consist member variety skill set diversity background life experience commitment agency mission bo ard responsibility b oard eet often needed effectively discharge responsibility achieve quorum every meeting minimum number meeting one year besix record minute meeting full governing body committee provide proper financial oversight ensure adequate financial control inplace review formally adopt annual budget agency ensure adequate resource allow agency fulfill mission ensure legal ethical integrity maintain accountability including agencyscompliance applicable local state federal law ensure effective organizational planning responsible hiring supervision annual evaluation executive directorceo bo ard member responsibility e ach board member u nderstand promote mission agency review become familiar agency mission article law polic y board orientation book board role responsibility b e prepared attend board meeting bi monthly board retreat willing serve board agency committee make every effort attend agency event including holiday party special event client site visit contribute particular professional personal skill make asignificant contribution time effort furtherance agency goal including fund social enterprise development activity example may include accounting legal human resource business development expertise serve advocate agency including always speaking pride andknowledge agency accomplishment opportunity highlight organization annual giving effort ensure board leadership position filled work increase diversity boardmembership helping recruit new board member variety skill set anddiversity background life experience initiate periodic communication executive director respond call executive director program director periodic specific need read understood term participation member board director toolworks agree become member board name date soperations mgtbod board handbook board manual board role responsibilitiesdoc board director meeting date toolworks board director meet every two month beginning january exact date set meeting prior two meeting year open public staff must informed date least one month one business day prior ensure proper compliance sunshine ordinance meet request reasonable accommodation soperations mgtbod board handbook board manual bod meeting datesdocx board director board tickler january annual meeting open staff person served community member review outcome measurement employee client recognition community award february biannual review financial policy biannual review compensation staff april board selfassessment bi annually assign point people ed review june budget approval following fiscal year set board goal insurance review august conflict interest renew term board member ed review october review bylaw article incorporation review accessibility plan open meeting december auditor report holiday party meeting board director include following standing item approval minute prior meeting financial legal update ed report program update review policy recommended personnel committee status update active committee workgroups program highlight staff person served soperations mgtbod board handbook board manual board ticklerdocx board director board director self evaluation order prepare board director meeting discussion self evaluation please complete following survey return name date answer disagree neutral requested provide explanation including specific description area concern response remain confidential thank name please circle agree disagree neutral following statement use line provided make comment board understands role responsibility agree disagree neutral explanation board understands toolworks mission program agree disagree neutral explanation board give adequate attention strategic planning agree disagree neutral explanation committee board active responsible work agree disagree neutral explanation board receives regular report finance program etc agree disagree neutral explanation board monitor evaluates toolworks performance agree disagree neutral explanation board reasonably involved community special event agree disagree neutral soperations mgtbod board handbook board manual board self evaluationdoc board director explanation board evaluates key staff approved personnel policy agree disagree neutral explanation board necessary skill diversity perform job agree disagree neutral explanation board receives notice meeting minute timely fashion agree disagree neutral explanation board member regularly attend meeting agree disagree neutral explanation board meeting well run focus important matter agree disagree neutral explanation comment soperations mgtbod board handbook board manual board self evaluationdoc board director mission vision value mission toolworks partnership people disability human service agency dedicated providing tool resource promote independence equality personal satisfaction goal provide service increase economic social opportunity people disability create program driven client choice encourage personal growth increase one potential educate community value strength ability individual vision toolworks nonprofit human service agency respected well known community innovative organization committed providing full range quality service opportunity client diverse population served active voice decision making well represented staff board staff dedicated highly skilled working environment promotes professional development job satisfaction b eing financially table due broad funding base primarily business revenue toolworks offer wage benefit competitive public private sector hrough partnership collaboration academic institution foundation government business nonprofit toolworks leader exemplifies best nonprofit arena soperations mgtbod board handbook board manual board vision value missiondoc board director value strive deliver service exceptional quality customer place mediocrity half hearted effort toolworks c ommitment client committed provide opportunity growth client serve recognize importance client active voice within agency accountability operate point view eac h responsible success failure agency goal rust respect individual value respect uniqueness every individual committed kind keeping open mind appreciating difference avoiding judgment eamwork recognize achievement mission common goal made possible individual talent collective effort team member member challenged identify support foster team growth embracing spirit cooperation actively participating honest constructive communication willingness align one view attainment team objective c ontinuous improvement continuous improvement important u creative try new thing learn mistake actively seek provide act feedback soperations mgtbod board handbook board manual board vision value missiondoc board director board director code ethic w ill best see toolworks operated manner upholds agency integrity merit trust support public strive uphold applicable law regulation going beyond letter law protect andor enhance toolworks ability accomplish mission treat others respect others would done tome similar circumstance responsible steward toolworks resource take action could benefit personally unwarranted expense toolworks avoiding even appearance conflict interest carefully consider public perception personal professional action effect action could positively negatively toolworks reputation community elsewhere strive personal professional growth improve effectiveness toolworks board member refrain unwarranted intrusion responsibility toolworksoperational management soperations mgtbod board handbook board manual code ethicsdocx board director bylaw toolworks california nonprofit public benefit corporation article name purpose name corporation purpose corporation formed shall provided article incorporation artic le ii membershi p corporation shall member article iii director section power subject provision california nonprofit corporation law limitation article incorporation business affair corporation shall managed corporate power shall exercised direction board director section number qualification director authorized number director shall least seven thirteen director need resident state california section term office director term office director shall three year soperations mgtbod board handbook board manual toolworks bylaw finaldoc board director section election vacancy director shall selected majority director office whether quorum vacancy board shall filled majority director office whether quorum reduction authorized number director shall effect removing director director term office expires se ction resignation except provided paragraph director may resign resignation shall effective giving written notice chair board executive director secretary board director unless notice specifies later time resignation become effective resignation director effective future time board director may select successor take office date resignation becomes effective director may resign corporation would left without duly selected director director charge affair se ction restriction interested director person se rving board director time may interested person interested person person compensated corporation service rendered within previous month whether full time part time employee ind ependent contractor otherwise excluding reasonable compensation paid director director brother sister ancestor descendant spouse brother inlaw mother inlaw father inlaw person however violation provision paragraph shall affect validity enforceability transaction entered corporation se ction removal director may removed office majority vote director sec tion place meeting meeting telephone regul ar meeting board director may held place within outside state california designated time time resolution board absence designation regula r meeting shall held principal executive office corporation special meeting board shall held place within outside state california designated notice meeting stated notice principal executive office corporation notwithstanding provision section regular special meeting board director may held place consented soperations mgtbod board handbook board manual toolworks bylaw finaldoc board director writing board member either meeting consent given shall filed minute meeting meeting regular special may held conference telephone similar communication equipment long director participating meeting communicate one another director shall deemed present person meeting section annual meeting board director shall hold regular meeting second tuesday january otherwise directed board director purpose organization election officer transaction business notice meeting shall required section regular meeting regular meeting board director shall held without call time shall time time fixed board director least three meeting shall held year regular meeting may held without notice section special meeting authority call special meeting board director purpose may called time chair board executive director vice president secretary two director b notice manner giving notice time place special meeting shall given director one following method personal delivery written notice b firstclass mail postage paid c telephone communication either directly director person director office would reasonably expected communicate notice promptly director email e telegram charge prepaid notice shall given sent director address telephone number shown record corporation ii time requirement notice sent first class mail shall deposited united state mail box least four day time set meeting notice given personal deliver telephone email telegraph shall delivered telephoned given telegraph company least hour time set meeting iii notice content notice shall state time place meeting however need specify purpose meeting place meeting held principal executive office corporation section quorum soperations mgtbod board handbook board manual toolworks bylaw finaldoc board director majority currently authorized number director sh constitute quorum transaction business except adjourn provided section article ix every act decision done made majority director present meeting duly held quorum present shall regarded act board director subject provision california nonprofit corporation law especially provision relating approval contract transaction director direct indirect material financial interest ii appointment committee iii indemnification director meeting quorum initially present may continue transact business notwithstanding withdrawal director action taken approved least majority required quorum meeting se ction waiver notice transaction meeting board director however called noticed wherever held shall valid though taken meeting duly held regular call notice quorum present b either meeting director present sign written waiver notice consent holding meeting approval minute waiver notice consent need specify purpose meeting waiver consent approval shall filed corporate record made part minute meeting notice meeting shall also deemed given director attends meeting without protesting commencement lack adequate notice se ction adjournment majority director present whether constituting quorum may adjourn meeting another time place se ction notice adjournment notice time place holding adjourned meeting need given unless meeting adjourned hour case personal notice time place shall given time adjourned meeting director present time adjournment se ction record qf meeting minute meeting shall taken distributed member board within reasonable time meeting se ction action without meeting soperations mgtbod board handbook board manual toolworks bylaw finaldoc board director action required permitted taken board director may taken without meeting member board individually collectively consent writing action action written consent shall force effect unanimous vote board director written consent consent shall filed minute proceeding board se ction fee compensation director director member committee may receive compensation service reimbursement expense may determined resolution board director reasonable director shall compensated service board member reasonable reimburse ment expense may authorized art icle iv committee section committee director board director may resolution adopted majority director office designate one committee consisting two director serve pleasure board committee extent provided resolution board shall authority board except committee regardless board resolution may take final action matter nonprofit corporation law california also requires member approval approval majority member b fill vacancy board director committee authority board c amend repeal bylaw adopt new bylaw amend repeal resolution board director express term amendable repealable e appoint committee board director member committee f approve transaction corporation party one director material financial interest corporation one director corporation person one director material financial interest se ction meeting action committee meeting action committee shall governed held taken accordance provision article iii bylaw concerning meetin g director change context bylaw necessary substitute committee member board director member except ti regular meeting committee may determined either r esolution board director resolution committee soperations mgtbod board handbook board manual toolworks bylaw finaldoc board director special meeting committee may also called resolution board director notice special meeting committee shall also given alternate member shall right attend meeting committee minute shall kept meeting committee shall filed corporate record board director may adopt rule government committee inco nsistent provision bylaw article v officer section officer officer corporation shall executive director secretary chief financial officer corporation may also discretion board director chair board one vice president one assistant secretary one assistant treasurer officer may appointed accordance provision section article v number office may held person except neither secretary chief financial officer may serve concurrently either executive director chair board section election officer officer corporation except appointed accordance provision section article v shall chosen board director shall serve removed resigned subject right officer contract employment section subordinate officer board director may appoint may authorize chair board executive director another officer appoint officer business corporation may require shall title hold office period authority perform duty specified bylaw determined time time board director section removal officer subject right officer contract employment officer may removed without cause board director regular special meeting board except case officer chosen board director officer power r removal may conferred board director section resignation officer soperations mgtbod board handbook board manual toolworks bylaw finaldoc board director officer may resign time giving written notice corporation resignation shall take effect date receipt notice later time specified notice unless otherwise specified notice acceptance resignation shall necessary make effective resignation without prejudice right corporation contract officer party section vacancy officer vacancy office death resignation removal disqualification cause shall filled manner prescribed bylaw regu lar appointment office section responsibility officer chair board officer elected chair board shall preside meeting board director exercise perform power duty may time time assigned board director prescribed bylaw executive director chair board shall addition chief executive officer corporation shall power duty prescribed paragraph b b executive director subject supervisory power may given board director chair board executive director shall subject control board director generally supervise direct control business officer corporation executive director shall preside absence chair board none meeting board director executive director shall power duty may prescribed board director bylaw c vice president bsence disability executive director vice president order rank fixed th e board director ranked vice president designated board director shall perform duty executive director acting shall power subject restriction upon executive director vice president shall power perform duty time time may prescribed respectively board director chair board secretary secretary shall attend following book minute secretary shall keep cause kept principal executive office place board director may direct book minute meeting action director committee director ti place holding whether regular special special authorized notice given name present meeting proceeding meeting ii notice duty secretary shall give cause given notice meeting member board director required bylaw given secretary shall power perform duty may prescribed board director bylaw e chief financial officer chief financial officer shall attend following book account chief financial officer shall keep maintain cause kept maintained adequate correct book record acc ounts property soperations mgtbod board handbook board manual toolworks bylaw finaldoc board director business transaction corporation including account asset liability receipt disbursement gain loss capital retained earnings matter customarily included financial statement bo ok account shall open inspection director reasonable time ii deposit disbursement money valuable chief financial officer shall deposit money valuable name credit corporat ion depository may designated board director shall disburse fund corporation may ordered board director shall render executive director director whenever request account transaction chief financial officer financial condition corporation shall power perform duty may prescribed board director bylaw iii bond required board director chief financial officer shall give corporation bond amount surety surety specified board faithful performance duty office restoration corporation book paper voucher money property every kind possession control death resignation retirement removal office art icle vi record report section maintenance corporate record corporation shall keep adequate correct book record account b minute written form proceeding board committee board record shall kept corporation principal executive office principa l executive office state california principal business office state se ction inspection director every director shall absolute right reasonable time inspect book record document every kind physical property corporation subsidiary corporation inspection director may made person agent attorney right inspection includes right copy make extract document se ction annual report director later day close corporation fiscal year board shall cause annual report sent director report shall contain following information reasonable detail asset liability including trust fund corporation end fiscal year soperations mgtbod board handbook board manual toolworks bylaw finaldoc board director principal change asset liability including trust fund fiscal year revenue receipt corporation unrestricted restricted particular purpose fiscal year expense disbursement corporation general restricted purpose fiscal year information required section article b report required section shall accompanied report thereon independent accountant report certificate authorized officer corporation statement prepared without audit book record corporation ection annual statement certain transaction indemnification later day close corporation f iscal year corporation shall prepare mail deliver director statement amount circumstance transaction following kind transaction corporation parent subsidiary party either following direct indire ct financial interest director officer corporation parent subsidiary mere common directorship shall considered interest holder voting power corporation parent subsidiary transaction involved one number transaction person involving aggregate ar ticle vii fiscal year fiscal year corporation shall end th day june year ar ticle viii amendment subject limitation set forth board director may adopt amend repeal bylaw power subject following limitation provision bylaw requires vote larg er proportion director otherwise required law provision may altered amended repealed except vote larger number director soperations mgtbod board handbook board manual toolworks bylaw finaldoc l h r ght bo r f di r e c r n ua l table content h ebo r pg board member job descriptionpgs faq board directorspg boardpg standing committee board directorspgs board director calendarpgs ch r e rdo c um e n pg article incorporationpgs c tax exemption letterpgs bo r p e r n pg healthright amended restated bylawspgs healthright code conduct policypgs whistleblower protection policypgs sarbanesoxley act implication nonprofit organizationspgs healthright conflict interest policypgs healthright conflict interest questionnairepgs p r g r n de v e n pg hr history mission visionpgs healthright eventspg f n n c e e c n pg h ebo r g et better better better board member job description pur pose board support mission work healthright provides missionbased leadership strategic governance fiduciary oversight organization responsibility engage longrange organizational planning strategic development review approve annual budget audit financial report review organizational corporate compliance risk management practice well quality improvementoutcome monitoring initiative represent hr stakeholder act ambassador advocate organization assist recruitment new board member select evaluate review compensation ceo ensure organization adequate resource participating fundraising activity make significant financial contribution organization review board material attend participate monthly board meeting participate least two board subcommittee board term board member elected board year term board member may elected consecutive board term board meeting time commitment board meeting occur monthly th wednesday month pm pm board subcommittee determine meeting schedule accordance applicable bylaw section exception finance subcommittee meet monthly one hour board meeting pm board member may miss meeting within month period typical time commitment board member average hour per month board meeting subcommittee meeting prep learningadvocacyevents board member agreement governing board member healthright fully committed mission pledged help carry understand duty responsibility accordance best practice include following fiscally responsible board member organization know budget take active part reviewing approving monitoring budget know legal responsibility organization member board take active part establishi ng overseeing organization policy program act accordance bylaw operating principle outlined manual understand morally responsible member board health well organization actively participate fundraising whatever way best suited agreed charge organization fundraising may include individual solicitation undertaking special event writing mail appeal like making good faith agreement best help raise much money give substantial annual financial donation actively promote healthright community encourage support staff understand board meet monthly prepare attend board meeting available phone consultation serve least two committee needed able meet obligation board member offer resignation director officer insurance director officer covered million aggregate limit board member deductible additional defense cost coverage federal insurance company recommended limit coverage nonprofit important information hr federally qualified health center fqhc receiving federal fund provide primary medical care indigent disabled individual fqhcs heightened board governance fiduciary responsibility responsibility reflected responsibility term meeting commitment additionally federal center medicaremedicaid cm require fqhc collect confidential personal information ie date birth address social security number board member kept file cm acknowledge read understand job description understand quota set rigid standard measurement achievement formed trust board member carry agreement best ability signed date board member signed date board chair mission street suite san francisco california wwwhealth right org faq board director board meeting board meeting held every month fourth wednesday november december meeting scheduled late fall make adjustment holiday meeting begin pm two hour long although time run slightly board packet sent via email advance meeting hard copy available site light dinner provided meeting located meeting held mission street corner erie thstreet ndfloor conference room best way gain access enter building via back packing lot take either elevator ndfloor also enter clinic mission street entrance staff assist special parking transportation instruction parking lot behind building access via erie street valet available board parking free charge alternatively mission street parking relatively easy time meter end pm arrive early bring quarter guarantee dont get ticket taking public transportation mission thbart station three block building cant attend person work travel family commitment sometime necessitate member miss meeting branching throughout state locate board member live work central southern california strive board attendance meeting bare minimum must member quorum need callin meeting number access code number allows audio involvement additionally minute prior start meeting send video conference link preferable allows participant see projection material contact course dr vitka eisen always available office number personal cell two staff member also always available michelle seidman special assistant dr eisen board liaison reached office cell jeff schindler director advancement additional contact reached office cell expectation board membership board member attend monthly board meeting board member review approve monitor budget board member establish oversee policy program board member act accordance bylaw operating principle organization understand moral responsibility health wellbeing organization board member actively participate fundraising goal organization make significant donation board member act ambassador promote organization community board member agree become consumer healthright clinic mean two primary care visit year beyond board meeting meeting scheduled respectful time make meeting meaningful addition monthly board meeting ask member involved least one preferably two eight committee board committee meet monthly quarterly others scheduled needed finance development committee meet monthly attempt book committee meeting week two three month current report delivered full board committee member selected committee board director follows finance development auditcorporate compliance governancenominating human relation compensation executive cqi quality improvement ad hoc currently capital campaign fqhc application mission street suite san francisco california wwwhealth right org healthright give hope build health change life people need providing compassionate integrated care includes primary medical mental health substance use disorder treatment board healthright evolved last year keeping pace change healthcare reform ensuring able continue provide care community marginalized underserved recently meant merger several organization whose mission align mission hr often serve specialized population asian pacific islander lgtbq homeless woman child ex offender proud become family program continues offer individualized care culturally competent strong desire board reflects diversity population serve advocate work mission outreach expertise personal contribution healthright enclosed find information many program outline role responsibility board entail information member current board well leadership team hr interested learning board membership please call jeff schindler director advancement reached office cell jschindlerhealthrightorg standing committee board director executive committee executive committee shall composed board chair vice chair secretary chair finance committee meeting held board chair determines business board practically conducted full board finance committee finance committee shall review financial operation financial reporting corporation make recommendation board necessary committee shall comprised least three governing director finance committee shall meet monthly development committee development committee shall oversee development activity corporation board develop method program generating gift grant donation committee charged developing method increasing visibility hr committee shall meet reasonable frequency determined chair committee governancenominating committee governance committee charged identifying recommending name vacancy officer corporation creates program team building retention committee evaluates new candidate current direct</t>
-  </si>
-  <si>
     <t>commuter benefit participation form nycs commuter benefit law certain employer must offer commuter benefit existing full time employee beginning january four week employee begin full time work whichever later information please call visit nycgovcommuterbenefits read frequently asked question commuter benefit law note employee employer required law offer commuter benefit program however participation voluntary may decline enroll program may cancel participation time may also choose enroll program later date employer information employer name address citystatezip code phone number employee information name firstmiddlelast address citystatezip code phone number email address date hire employee printed name accept decline employer offer use pre tax income pay qualified transportation benefit extent permitted federal law employee signature date question employer obligation nycs commuter benefit law report non compliance please c ontact department consumer affair dca nycgovcommuterbenefits email commuterbenefitsdcanycgov contact new york outside nyc nycs commuter benefit law take effect january law covered employer must offer commuter benefit eligible fulltime employee beginning january information employer employee advantage commuter benefit program covered lawadvantages employer advantage employee employee employer employee lower monthly expense using pretax income pay commute employer save reducing payroll tax employee sign transportation benefit employer save employer attract retain employee offering transportation benefitsnycs commuter benet law covered covered covered covered forprofit nonprofit employer fulltime nonunion employee new york city including temporary help firm fulltime employee covered employer united state new york state new york city government including office department independent agency authority institution association society body state including legislature judiciary employer required pay federal state city payroll tax employee work less average hour per week fourweek period fulltime employee new york city resident work outside new york city fulltime employee covered collective bargaining agreement independent contractor former employeesunder commuter benefit law fulltime employee employee work average hour per week recent four week portion new york city lorelei salas commissionerbill de blasiomayorconsum er affairswhich transit covered law information resource available employer employee contact visit nycgovcommuterbenefits information nycs commuter benefit law employee eligible refundable tax credit like earned income tax credit eitc pretax transit benefit could reduce amount tax credit employee consult tax professional contact visit nycgovconsumers information nyc financial empowerment center new yorkers get free oneonone professional financial counseling free tax preparation assistance eligible new yorkers tax seasoncontact visit nycgovcommuterbenefits information nycs commuter benefit law setting commuter benefit program covered covered new york city regional mass transit service including metropolitan transportation authority mta subway bus long island rail road amtrak new jersey transit metronorth eligible ferry water taxi service eligible vanpool service eligible commuter bus service accessaride area paratransit provider parking expense bicycling expense including citibikes federal tax law employee use pretax income qualified bicycle commuting reimbursement benefit bicycle rental fee qualified transportation fringe benefit nycs commut er benet law re b etter way work</t>
   </si>
   <si>
@@ -124,12 +118,12 @@
     <t>nondisclosure agreement name address name address agree enter mutual confidential business relationship purpose order achieve purpose party may ac quire valuable trade secret andor confidential proprietary information party affiliate consideration foregoing hereby agreed confidential information mean confidential proprietary information disclosed one party party clearly labeled confidential proprietary disclosed orally followed writing within day oral disclosure identifying subject matter confidential proprietary party agrees use confidential information purpose whatsoever except purpose set forth party agrees disclose confidential information third person disclose confidential information employee affiliate need know agree keep information confidential party agrees shall protect confidentiality take reasonable step prevent disclosure unauthorized use confidential information order prevent falling public domain possession person legally bound maintain confid entiality provided event shall party obligation exceed reasonable standard care taken protect confidential information like importance e ach party promptly advise party writing misappropriation misuse person confidential information provide assistance injured party legal proceeding related thereto party acknowledges obligation hereunder survive accordance term hereof notwithstanding termination business relationship party period two year following last disclo sure confidential information party hereunder copy confidential information made except implement purpose agreement material document note memoranda software code drawing sketch tangible item containing consisting relating confidential information party furnished hereunder party possession party remain property party disclosed confidential information shall promptly returned party upon disclosing party request therefore nothing contained agreement shall construed granting right license otherwise confidential information except specified agreement party obligation agreement shall apply information known receiving party publicly available time disclosure b becomes publicly available disclosure disclosing party receiving party act either party c hereafter rightfully furnished receiving party third party without restriction use disclosure disclosed prior written consent disclosing party e information independently developed receiving party f required disclosed pursuant judicial administrative proceeding provided receiving party promptly notifies disclosing party action give disclosing party opportunity seek legal remedy maintain information confidence nothing agreement shall obligate either party disclose information party enter agreement th e party party acknowledges party required bring action enforce provision agreement damage irreparable difficult meas ure party shall entitled equitable relief including preliminary injuncti addition relief available litigation arise concerning agreement prevailing party shall entitled attorney fee court cost addition relief may awarded agreement shall governed arizona law without regard provision concerning conflict law agreement exhibit attached hereto complete exclusive statement regarding subject matter agreement supercede prior agreement understanding communication oral written party regarding subject matter agreement waiver breach failure enforce term condition agreement time shall way affect limit waive party right thereafter enforce compel compliance agreement modification agreement effective unless writing signed party obligation benefit agreement shall binding upon inure benefit party respective successor assigns representative date date</t>
   </si>
   <si>
+    <t>mutual nondisclosure agreement mutual nondisclosure agreement agreement made definition activity mean discussion exchange information related product service b affiliate party mean corporation entity party directly indirectly control controlled context party control corporation entity owns fifty percent voting right board director mechanism control corporation entity c confidential information mean business marketing technical scientific information disclosed either party including affiliate time disclosure designated confidential like designation disclosed circumstance confidence would understood party affiliate exercising reasonable business judgment confidential disclosure use restriction proprietary right disclosure use confidential information received party shall retained confidence disclosed personnel party need know used connection activity accordance agreement receiving party shall use degree care us protect confidential information similar nature less reasonable care prevent unauthorized use disclosure party confidential information confidential information received party agreement shall copied without prior written consent disclosing party upon request disclosing party receiving party shall immediately return disclosing party confidential information copy thereof directed disclosing party shall immediately destroy confidential information copy thereof shall furnish proof destruction disclosing party obligation confidence set forth agreement shall extend affiliate received confidential information b exemption neither party shall bound obligation restricting disclosure use set forth agreement respect confidential information part thereof known receiving party prior disclosure ii lawfully public domain prior disclosure becomes publicly available breach agreement iii disclosed receiving party third party provided third party breach confidentiality obligation respect information iv independently developed receiving party v disclosed disclosure compelled pursuant legal judicial administrative proceeding otherwise required law subject receiving party giving reasonable prior notice disclosing party allow disclosing party seek protective court order foregoing exemption shall extend affiliate received confidential information c proprietary right party including affiliate acquire right express implied confidential information party including affiliate except limited use specified agreement confidential information party affiliate including right title interest therein remain sole exclusive property party affiliate additional term warranty disclosing party warrant right make disclosure agreement confidential information provided party including affiliate agreement provided asis basis party make warranty representation condition either express implied regarding accuracy completeness confidential information disclosed affiliate confidential information disclosed free third party intellectual property claim b remedy party agrees violation threatened violation agreement cause irreparable harm party entitling party seek injunctive relief addition legal remedy term termination term agreement shall commence effective date shall continue period one year period confidentiality restricted use disclosure confidential information shall five year date disclosure party reserve right terminate discussion regarding activity b effect termination event termination expiration agreement receiving party shall immediately destroy return disclosing party option disclosing party confidential information copy thereof general waiver failure party claim breach term agreement shall constitute waiver breach right party enforce subsequent breach term b assignment neither party shall assign agreement interest herein right hereunder without prior written consent party c severability event provision agreement found invalid void unenforceable party agree unless provision materially affect intent purpose agreement invalidity voidability unenforceability shall affect validity agreement remaining provision herein governing law agreement shall governed law state california without regard conflict law principle e entire agreement agreement create partnership agency relationship agreement constitute entire agreement party subject matter hereof supersede prior agreement communication understanding nature whatsoever oral written agreement may modified waived orally may modified writing signed duly authorized representative party witness whereof party signed agreement effective date executed executed printed name printed name title title date date</t>
+  </si>
+  <si>
     <t>mutual non disclosure agreement mutual non disclosure agreemen agreement made definition activity mean discussion exchange information related product service b affiliate party mean corporation entity party directly indirectly control controlled context party contr ols corporation entity owns fifty percent voting right board director mechanism control corporation entity c confidential information mean business marketing tech nical scientific information disclosed either party including affiliate time disclosure designated confidential like designation disclosed circumstance confidence would understood par tie affiliate exercising reasonable business judgment confidential disclosure use restriction proprietary right disclosure use confidential information received party shall retained confidence disclosed personnel party need know used connection activity accordance agreement receiving party shall use degree care us protect confidential information similar nature less reasonable care prevent unauthorized use disclosure party confidential information confidential information received party agreement shall copied without prior writt en consent disclosing party upon request disclosing party receiving party shall immediately return disclosing party confidential information copy thereof directed disclosing party shall immediately de troy confidential information copy thereof shall furnish proof destruction disclosing party obligation confidence set forth agreement shall extend affiliate received confidential infor mation b exemption neither party shall bound obligation restricting disclosure use set forth agreement respect confidential information part thereof known receiving party prior disclo sure ii lawfully public domain prior disclosure becomes publicly available breach agreement iii disclosed receiving party third party provided third party breach confidentiality obligation respect information iv independently developed receiving party v disclosed disclosure compelled pursuant legal judicial administrative proceeding otherwise required law subject receiving party giving reasonable prior notice disclosing party allow disclosing party seek protective court order foregoing exemption shall extend affiliate received confidenti al information c proprietary right party including affiliate acquire right express implied confidential information party including affiliate except limited use specified agreem ent confidential information party affiliate including right title interest therein remain sole exclusive property party affiliate additional term warranty disclosing party warrant right make disclosure agreement confidential information provided party including affiliate agreement provided basis party make warranty representatio n condition either express implied regarding accuracy completeness confidential information disclosed affiliate confidential information disclosed free third party intellectual property claim b remedy party agrees violation threatened violation agreement cause irreparable harm party entitling party seek injunctive relief addition legal remedy term termination term agreement shall commence effective date shall continue period one year period confidentiality restricted use disclosure confidential information shall five year date dis closure party reserve right terminate discussion regarding activity b effect termination event termination expiration agreement receiving party shall immediately destroy return disclosi ng party option disclosing party confidential information copy thereof general waiver failure party claim breach term agreement shall constitute waiver breach right pa rty enforce subsequent breach term b assignment neither party shall assign agreement interest herein right hereunder without prior written consent party c severability event provis ion agreement found invalid void unenforceable party agree unless provision materially affect intent purpose agreement invalidity voidability unenforceability shall affect validity agreement remaining provision herein governing law agreement shall governed law state california without regard conflict law principle e entire agreement agreement create partnership agency relationship agreement constitute entire agreement party subject matter hereof supersede prior agreement communication understanding nature whatsoever oral written agr eement may modified waived orally may modified writing signed duly authorized representative party witness whereof party signed agreement effective date executed executed print ed name printed name title title date date</t>
   </si>
   <si>
-    <t>mutual non disclosure agreement mutual non disclosure agreemen agreement made definition activity mean discussion exchange information related product service b affiliate party mean corporation entity party directly indirectly control controlled context party control corporation entity owns fifty percent voting right board director mechanism control corporation entity c confidential information mean business marketing technical scientific information disclosed either party including affiliate time disclosure designated confidential like designation disclosed circumstance confidence would understood party affiliate exercising reasonable business judgment confidential disclosure use restriction proprietary right disclosure use confidential information received party shall retained confidence disclosed personnel party need know used connection activity accordance agreement receiving party shall use degree care us protect confidential information similar nature less reasonable care prevent unauthorized use disclosure party confidential information confidential information received party agreement shall copied without prior written consent disclosing party upon request disclosing party receiving party shall immediately return disclosing party confidential information copy thereof directed disclosing party shall immediately destroy confidential information copy thereof shall furnish proof destruction disclosing party obligation confidence set forth agreement shall extend affiliate received confidential information b exemption neither party shall bound obligation restricting disclosure use set forth agreement respect confidential information part thereof known receiving party prior disclosure ii lawfully public domain prior disclosure becomes publicly available breach agreement iii disclosed receiving party third party provided third party breach confidentiality obligation respect information iv independently developed receiving party v disclosed disclosure compelled pursuant legal judicial administrative proceeding otherwise required law subject receiving party giving reasonable prior notice disclosing party allow disclosing party seek protective court order foregoing exemption shall extend affiliate received confidential information c proprietary right party including affiliate acquire right express implied confidential information party including affiliate except limited use specified agreement confidential information party affiliate including right title interest therein remain sole exclusive property party affiliate additional term warranty disclosing party warrant right make disclosure agreement confidential information provided party including affiliate agreement provided basis party make warranty representation condition either express implied regarding accuracy completeness confidential information disclosed affiliate confidential information disclosed free third party intellectual property claim b remedy party agrees violation threatened violation agreement cause irreparable harm party entitling party seek injunctive relief addition legal remedy term termination term agreement shall commence effective date shall continue period one year period confidentiality restricted use disclosure confidential information shall five year date disclosure party reserve right terminate discussion regarding activity b effect termination event termination expiration agreement receiving party shall immediately destroy return disclosing party option disclosing party confidential information copy thereof general waiver failure party claim breach term agreement shall constitute waiver breach right party enforce subsequent breach term b assignment neither party shall assign agreement interest herein right hereunder without prior written consent party c severability event provision agreement found invalid void unenforceable party agree unless provision materially affect intent purpose agreement invalidity voidability unenforceability shall affect validity agreement remaining provision herein governing law agreement shall governed law state california without regard conflict law principle e entire agreement agreement create partnership agency relationship agreement constitute entire agreement party subject matter hereof supersede prior agreement communication understanding nature whatsoever oral written agreement may modified waived orally may modified writing signed duly authorized representative party witness whereof party signed agreement effective date executed executed print ed name printed name title title date date</t>
-  </si>
-  <si>
     <t>july d d pe southern california united food commercial worker union food employer joint pension trust fundpension plan summary plan description plan employee april employee hired employer march aviso este folleto contiene un resumen en ingles de la descripcion de sus beneficios con su empleasor explica sus derechos obligaciones como participante en estos plane si usted tiene dificultad encomprender cualquier parte de este folleto comunquese con el administrador de plane southerncalifornia united food commercial worker union food employer joint pension rustfund la siguiente direccion katella avenue cypress ca la horas de oficinadel administrador de plane son de pm lunes viernes tambien puede llamarle directamente su oficina al telfono spd applies pension benefit earned work employer march formerly known plan pension benefit earn march plan employeeif continuously employed employer entire working career employed employer retire benefit may different described summary plan description please contact fund office information determine plan employee employee employer november february employed employer march plan employee cease tobe plan employee consecutive day november duringwhich employed employer ou return work absence plan employee benefit return information benefit earned absence day please see page know whether plan employee please call fund office assistance spd applies plan employee four class participant participate pension plan february summary plan description describes benefit available plan employee thissummary plan description describe benefit available plan employee planb employee plan b employee wish information benefit available tothese class employee question class please contact fund officeto plan employee southern california united food commercial worker union food employer joint pension rust fund established april result collective bargaining southern californiaretail food industry employer various union local united food commercial workersinternational union july separate pension plan covering meat cutter southerncalifornia merged plan plan designed provide retirement benefit participant working collective bargaining agreement employer southern california retail food industry one unitedfood commercial worker union local addition benefit plan upon retirementparticipants may eligible retiree health welfare benefit coverage southern californiaunited food commercial worker union food employer benefit fund pension benefitstogether social security benefit help enjoy year retirement union employer proud part helping establish excellent benefit program board trustee southern california united food commercial worker unionsand food employer joint pension rust fund important read understand rule following page summary plan description rule tell must earn valuable benefit providedthrough program question particular rule applies ifyou thinking change employment could affect participation plan please contact fund office summary plan description plan employee employee hired employer march summary plan description plan employee employee hired employer march table content plan employee introduction highlight plan provision plan employee glossary term become participant earn credit plan vesting credit benefit credit earn vesting credit earn benefit credit become vestedhow lose credit oneyear break service excused absence permanent break service benefit freeze separation service reciprocity pension plan type retirement normal retirement early retirement rule disability retirement early retirement pending social security disability award required distribution pension benefit calculated normal retirement benefit early retirement benefit rule disability retirement amount payment option single life annuity joint survivor annuity joint survivor annuityincome adjustment option annuitypreretirement death benefit surviving spouse benefit pension payment surviving spouse begin surviving dependent child benefit pension payment dependent child begin divorce separation qdros apply pension benefit pension benefit begin withholding tax pension payment pension payment verification continue working retirement age suspension benefit earned april supension benefit earned march work employer collective bargaining agreement work employer collective bargaining agreement age age suspendible employment alternative suspension benefit reduction benefit notice documentation pension payment suspended reduced circumstance may result loss benefit reduced benefit earned day absence employment occurring november normal retirement normal retirement benefit early retirement rule disability retirementpreretirement death benefit surviving spouse benefit surviving dependent child benefit summary plan description plan employee employee hired employer march important information pension plan name plantype planplan sponsorname plan sponsor name address member board trustee plan administratoragent service legal processcollective bargaining agreement fundingfiscal year planplan recordsnormal retirement age documentsclaims appeal procedure filing claim processing claim filing ap p eal claim determination processing appeal failure follow procedure plan amendment termination plan termination insuranceyour erisa right receive information plan benefit prudent action plan fiduciary enforce right assistance question index participating union local administrative office fund introduction summary plan description provides simplified explanation rule pension plan april except otherwise noted generally summary plan description apply youunless covered plan march complete copy pension plan isavailable fund office plan benefit participant working collective bargaining agreement employer southern california retail food industry one united food commercial worker union local addition plan benefit participant working forrelated employer union fund office whose behalf contribution required bemade plan left retired southern california retail food industry april havent continuously employed retail food industry entire working career yourpension plan benefit may different described summary plan descriptionadditionally work southern california retail food industry march thissummary plan description apply circumstance contact thefund office information benefit november consecutive day employed employer cease plan employee benefit later earn lower andsubject less favorable rule would earned without interruption employmentplease see page information benefit earned day absence occurringafter november rustees maintain principal administrative office fund office subadministrative office union local office operate supervision main office questionsabout pension benefit please call union local fund office glossary defines certain term used summary plan description initial letter capitalized please refer glossary meaning term pension plan may amended future time time summary significant change mailed participant report change address fund office ensurethat receive notice change plan important notice summary plan description summary benefit provided southern california united food commercial worker union food employer joint pension trust fund subject provision official plan document modify affect plan document way case difference summary plan description official plan document plan document prevail neither beneficiary shall earn right statement omission summary plan description provision plan document modified amended way statement promise written oral made person including employee fund office union contributing employer board trustee shall full discretion authority determine question concerning interpretation administration plan including without limitation question relating eligibility plan benefit determination board shall conclusive binding person purpose summary plan description plan employeesfor employee hired employer march highlight plan provision plan employee hired employer march schedule outline major provision pension plan included thissummary plan description learn plan please refer thepages indicated right side schedule page normal retirement age service requirement age year vesting credit age least less year vesting credit less year vesting credit see page amount service april per month first year benefit credit plus per month additional year benefit credit service april per month year benefit credit one first year benefit credit plus per month additional year benefit credit amount assume never separation service never period day november employed employer rule pension age service requirement age plus year benefit credit total least amount accrued normal retirement benefit early retirement age requirement least age less age service requirement year vesting credit amount normal retirement benefit reduced first month next month retirement precedes age summary plan description plan employee employee hired employer march highlight plan provision plan employee hired employer march schedule outline major provision pension plan included thissummary plan description learn plan please refer thepages indicated right side schedule page disability retirement age requirement less age service requirement year vesting credit requirement eligible social security disability benefit separation service calendar year calendar year disability began unless separation service beginning disability accrued least one hour covered service amount normal retirement benefit form payment retirement single life annuity single life annuity provides monthly pension payment lifetime benefit payable death joint survivor annuity monthly pension benefit life die spouse amount receiving continue surviving spouse spouse dy benefit amount thereafter increased monthly amount would received single life annuity joint survivor annuity monthly pension benefit life die spouse amount werereceiving continue surviving spouse spouse dy benefitamount thereafter increased monthlyamount would received single life annuity summary plan description plan employee employee hired employer march highlight plan provision plan employee hired employer march schedule outline major provision pension plan included thissummary plan description learn plan please refer thepages indicated right side schedule page form payment retirement continued income adjustment option july check fund office see annuity option available available retire reaching age age provides greater monthly payment age smaller monthly payment age whenit expected could begin receiving socialsecurity benefit paid single life annuity joint survivor annuity feature preretirement death benefit surviving spouse benefit paid spouse death die retire service requirement vested requirement spouse must legallymarried throughout oneyear period ending onthe date death benefit begin see page amount benefit would received hadyou retired joint survivor annuity date benefit begin benefit end monthly benefit paid lifetime spouse preretirement death benefit surviving dependent child die retire surviving spouse benefit payable dependentchildren age may eligiblefor benefit pension plan see page summary plan description plan employeesfor employee hired employer march highlight plan provision plan employee hired employer march schedule outline major provision pension plan included thissummary plan description learn plan please refer thepages indicated right side schedule page participation rule participation generally hired march became participant upon attainment age completion least hour servicewithin period two consecutive calendar year termination participation cease participant last day thecalendar year work less hoursof service unless vested reestablishing participation permanent break serviceyou may become participant aftercompleting hour service within calendaryear benefit credit work least hour covered service calendar year receive one year ofbenefit credit partial credit given hour covered service less hour covered service v esting credit work least hour service calendar year earn one year vesting credit n g vested year vesting credit least one hour service april year vesting credit participant later fifth anniversary participation reachage summary plan description plan employeesfor employee hired employer march highlight plan provision plan employee hired employer march schedule outline major provision pension plan included thissummary plan description learn plan please refer thepages indicated right side schedule page break service rule oneyear break service vested incur oneyear break service calendar year fail earn atleast hour service one vesting credit aoneyear break service cause participationin plan end long apermanent break service may becomea participant completing hour service acalendar year permanent break service vested permanentbreak service five consecutiveoneyear break service hour service afterapril vested differentrule determines permanentbreak service permanent break service allpreviously accumulated vesting credit andbenefit credit lost berecovered reduced benefit employment gap day november job employer end reason notreturn work within day employer contributes fund behalffor coverage plan future benefit less returned within day please see page information benefit earned absence day beginning november summary plan description plan employeesfor employee hired employer march glossary term following term appear summary plan description initial letter capitalized meaning described term employer mean employer collective bargaining agreement relatedemployer union local fund office required make contribution report thepension plan behalf plan benefit term hour covered service mean straighttime hour work hour employer obligated contribute pension fund hour paid vacation sick leave unused sick leave jury duty holiday absence funeral leave period time receive state disability worker compensation benefit provided disability started september six hour service credited per dayfor day disability maximum hour service lifetime hour industry vacation paid accordance term industry vacation plan united food commercial worker union food employer benefit fund certain circumstance limitation period time military servicethe term hour service includes hour covered service hour worked april employer position covered collective bargaining agreement employment withthe employer employment terminated nonbargaining unit work workunder collective bargaining agreement hour service also includes hour february participant absent work account leave family medical leave act term collective bargaining agreement mean agreement employer one southern california ufcw union local requires employer contribution pension fund forplan benefit term vested mean earned enough year vesting credit five least one hour service april otherwise ten become entitled pension benefit without towork additional time employer summary plan description plan employeesfor employee hired employer march become participant hired employer march became participant automatically reached age hour service within two consecutive calendar year became participant credited hour service hour credited service retroactive date hire vested continue participant rest life vested cease participant oneyear break service long apermanent break service may reestablish status participant returning work anemployer earning hour service one year vesting credit within calendar year please refer page description oneyear break service permanent break service hired employer february participation rule apply unless employed fund office union local owner unincorporated business may participate plan stockholder incorporated business may able participate certain case please contact fund office detail earn credit plan order understand become eligible benefit plan much benefit willbe must first understand plan measure service done counting hour ofservice hour covered service defined glossary term page receive credit hour service hour covered service explained vesting cr edit benefit cr edit hour service plan give vesting credit hour covered service give benefit credit vesting credit used determine entitled retirement benefit determine benefit available benefit credit used determine amount retirement benefit earn v esting credit earn one year vesting credit calendar year least hour service earn vesting credit year less hour service earnmore one year vesting credit calendar year certain limit plan also provides hour service vesting credit absence family leave pregnancy childbirth care child birth placement adoption care familymember serious health condition participant serious health condition absentfrom work one reason promptly contact fund office figure page see example earn vesting credit summary plan description plan employee employee hired employer march earn ben efit credit earn one full year benefit credit calendar year hour covered service work less hour covered service hour ofcovered service calendar year earn partial benefit credit year partial credit isdetermined dividing hour covered service year method determining partial benefit credit somewhat different please contact fund office information plan also grant benefit credit certain circumstance employment plan inception date april addition employee employer first join plan october may entitled benefit credit employment employer date contributionsbegin contact rust fund office think one situation applies earn benefit credit calendar year less hour covered service one year benefit credit earned calendar year figure page see example earn benefit credit become vested three way become vested retirement option available depend upon become vested earn least ten year vesting credit vested satisfy plan requirement eligible normal retirement age early retirement age disabilityretirement age less rule pension earn least five less ten year vesting credit least one hour service april vested satisfy plan requirement beeligible normal retirement age eligible early retirement disabilityretirement rule even less five year vesting credit vested participant later fifth anniversary participation plan age satisfy planrequirements eligible normal retirement vested satisfy plan requirement entitled receive benefit retirement even leave employment covered plan vested die youretire spouse dependent child may entitled pension benefit provided planrequirements satisfied see page lose cr edits become vested never lose vesting credit benefit credit earned beforeyou vested however break service cause lose credit two type breaksin service plan oneyear break service permanent break service summary plan description plan employeesfor employee hired employer march oneyear break service excused absence vested incur oneyear break service calendar year fail earn year vesting credit hour service happens participation plan endand vesting benefit credit lost lost credit reinstated however returnto work employer earn another year vesting credit permanent break serviceoccurs oneyear break service may avoided period excused absence disability military service employment employer position covered collective bargaining agreement andemployment ufcw international union area covered plan whenever absentfrom work one reason promptly contact fund office benefit credit example anthony work hour calendar year benefit credit year hour worked benefit credit next year anthony work hour benefit credit year partial benefit credit calculation partial hour worked benefit credit benefit credit divided figure vesting credit benefit credit example hour worked vesting credit benefit credit calendar year year year figure summary plan description plan employee employee hired employer march permanent break service permanent break service vesting benefit credit earned lost recovered suffer permanent break service vestedif vested least one hour service april permanent break service five consecutive oneyear break service vested least one hour service april permanent break service number consecutive oneyear break service first equal orexceeds greater five number year vesting credit accumulated first yourconsecutive oneyear break service return work employer april reestablish participation suffer permanent break service able becomevested five year vesting credit including vesting credit earned year different rule apply permanent break service may affect amount benefit credit accrued plan employment continuous pleasecontact fund office determine rule affect break service example shown figure following page benefit fr eeze separation service whether vested pension benefit separation service occurs end second consecutive calendar year fail earn vesting credit hour service unlessyou qualify excused absence described page see oneyear break service excusedabsences separation service benefit earned separation service based formula plan time separation service occurs wont get future improvement inthe plan formula benefit credit earned separation service benefit befrozen however return work separation service earn additional benefit credit return additional benefit credit determined based formula effect separation service also occurs begin receiving retirement benefit planan example separation service shown figure following page summary plan description plan employee employee hired employer march break service example maria worked collective bargaining agreement covered pension plan least hour four year year worked least hour earned vesting credit total four year vesting credit maria went work employer collective bargaining agreement incurred oneyear break service failed earn vesting credit inthat year year maria continues work employer collectivebargaining agreement incur additional oneyear break service maria continues work employer collective bargaining agreement end permanently lose four year vesting credit benefit creditbecause time permanent break service five consecutive oneyearbreaks service permanent break service even maria return employmentcovered collective bargaining agreement become participant earnvesting benefit credit maria reemployed collective bargaining agreement end earns additional year vesting credit prior four year vesting benefit credit reinstated added vesting benefit credit earns return figure separation service example january age year work employer li left job food clerk work carpenter earn hour service either aseparation service occurred december applies ufcw pensionfund early retirement benefit age monthly pension payment becalculated based formula effect december separation service figure reciprocity pension plan pension fund entered reciprocal arrangement certain related ufcw plan purpose preserving participant pension credit certain circumstance vesting credit may beearned related plan please contact fund office employment covered byanother ufcw plan summary plan description plan employeesfor employee hired employer march type retirement meet individual need pension plan provides benefit variety circumstance described normal retirement earned least ten year vesting credit satisfy plan requirement canretire begin receiving full monthly pension built plan first themonth following th birthday vested least five less ten year vesting credit satisfy plan requirement retire begin receiving full monthly pension built plan onor first month following th birthday less five year vesting credit satisfy plan requirement may begin receiving retirement benefit participant plan later fifth anniversary ofparticipation plan age early retirement earned least ten year vesting credit satisfy plan requirement canretire time first month following th birthday rule rule provides age benefit credit total aseparation service december retire receive retirement benefit noreduction early retirement age year benefit credit counted toward rule may include year reciprocal service year employment due involuntary transfer employer whichoccurred january december location job classification wasrepresented union ufcw union covered plan separation service december benefit credit accrued december qualify payment rule benefit credit earned becounted determine age service equal please see page description separation inservice summary plan description plan employeesfor employee hired employer march disability retir ement eligible disability retirement benefit meet following condition receiving social security disability benefit eligible normal retirement least ten year vesting credit incurred separation service see page calendar year calendar year disability begin unless earn least one hour covered service theseparation service disability begin monthly disability retirement benefit determined way normal retirement benefit based total year benefit credit earned disability reduction forage case early retirement disability retirement benefit payable month whichyou receive social security disability benefit receiving disability retirement benefit required furnish evidence annually eligibility social security disability benefit become eligible normal retirementbenefit entitlement social security disability benefit end become eligible yournormal retirement benefit disability retirement benefit payment stop soon meet theconditions early normal retirement may apply benefit early retirement pending social security disability award applied social security disability award eligible early retirement meet requirement disability retirement may apply early retirement paid arewaiting receive social security disability award early retirement converted adisability retirement date entitlement social security disability benefit sixmonths early retirement date receive social security disability award date entitlement within six month early retirement date early retirement benefit remain effect converted todisability retirement normal retirement time information please contact fundoffice elect receive early retirement benefit form income adjustment option convert early retirement disability retirement time requir ed distribution plan requires collect retirement benefit starting later april year followingthe year reach age even still working longer working employer date still begun collecting retirement benefit may subject toadverse tax consequence summary plan description plan employee employee hired employer march pension benefit calculated normal retir ement benefit amount normal retirement benefit based year benefit credit following formula effect april used calculate lifetime monthly normal retirement benefit amount section assume never separation service never aperiod day november employed anyemployer benefit paid single life annuity based year benefit credit earned april monthly benefit per month first ten year benefit credit plus per month additional year benefit credit based year benefit credit earned april monthly benefit per month year benefit credit one first ten year benefit credit earned plan plus per month additional year benefit credit figure show example normal retirement benefit paid single life annuity calculated continue working employer past age eligible normal retirement benefit generally age retire later age amount normal retirement benefit willbe based service actual date retirement may apply work lessthan hour month employer contact fund office additional information normal retirement benefit example carlos total continuous year benefit credit retires age year earned april year earned april monthly benefit plan would calculated follows x year benefit credit earned april plus x year benefit credit earned april plus x year benefit credit earned april equal total monthly normal retirement benefit payable age carlos receive benefit month rest life assuming benefit paid single life annuity figure summary plan description plan employee employee hired employer march early retir ement benefit retire early qualify rule monthly benefit less would retired normal retirement benefit age monthly benefit payment areexpected paid longer period early retirement benefit benefit reduced first month next month date retirementprecedes th birthday shown table figure page figure show example early retirement benefit paid single life annuity calculated rule qualify rule see page monthly benefit calculated hadretired normal retirement benefit age early retirement benefit example suppose carlos previous example titled normal retirement benefit example retiredwith continuous year benefit credit age four month monthly early retirement benefit would calculated follows x year benefit credit earned april plus x year benefit credit earned april plus x year benefit credit earned april equal total monthly normal retirement benefit payable age time percentage benefit payable age four month x equal total monthly early retirement benefit payable age carlos receive benefit month rest life assuming benefit paid single life annuity figure summary plan description plan employee employee hired employer march early retirement reduction factor table age plus number full month estimate early retirement benefit multiply normal retirement benefit percentagefrom table corresponds age year month reduction apply age year benefit credit total least age mo mo mo mo mo mo mo mo mo mo mo mo figure disability retir ement amount monthly disability retirement benefit determined way normal retirement benefit based total year benefit credit earned disability reduction forage case early retirement disability retirement benefit payable month receive social security disability benefit payment option retire able select one benefit payment option described single life nnuity married retire benefit paid single life annuity single life annuity provides monthly pension payment lifetime benefit payable yourdeath married retire single life annuity available spouse consent spouse complete form required reject joint survivor annuity refer joint survivor annuity section information summary plan description plan employee employee hired employer march joint survivor nnuity legally married retire benefit paid joint survivor annuity unless spouse specifically reject form payment spouse must consent rejectionin writing form provided fund office joint survivor annuity give monthly payment rest life die payment equal half payment amount receiving automatically continue yoursurviving spouse provided married least one year death exchangefor continuing payment spouse amount monthly payment reduced theamount reduction based age spouse time retirement ifyour spouse five year younger reduction retirement andafter january earned least hour service retire without hour service benefit credit earned separation service thereduction reduction increase every year including fraction year yourspouse five year younger spouse dy monthly pension payment thereafter increased monthly amount would received single life annuity example joint survivor annuity shown figure joint survivor annuity example susan retires age year benefit credit time retirement normal retirement benefit per month since susan married elect joint survivor annuity survivor pension continue husband age die joint survivor annuity following benefit would payable susan husband alive susan receive per month minus susan dy first husband receive per month rest lifetime husband die first susans benefit increase per month rest lifetime susan husband elect single life annuity susan would receive per month rest lifetime nothing payable husband death figure summary plan description plan employee employee hired employer march joint survivor nnuity retire april legally married retire entitled elect receive benefit form joint survivor annuity spouse consent andboth spouse complete form required reject joint survivor annuity much like joint survivor annuity joint survivor annuity give monthly payment rest life die payment equal payment amount werereceiving automatically continue surviving spouse life provided beenmarried least one year death exchange continuing payment spouse amount monthly payment actuarially reduced actuarial reduction us interest life expectancy assumption contained inthe plan definition actuarial equivalence based age spouse time ofyour retirement upon request fund office provide actuarial assumption thereduction factor used determine amount joint survivor annuity please contact thefund office information joint survivor annuity spouse dy monthly pension payment thereafter increased monthly amount would received singlelife annuity income adjustment option annuity income adjustment option may available retiring july please contact fund office find available wish retire retire reaching age age may elect optional form benefit payment called income adjustment option annuity usually retirement benefit payable amounteach month life inst</t>
   </si>
   <si>
@@ -139,69 +133,42 @@
     <t>page rev philadelphia board pension retirement summary plan description plan plan b plan l plan w p e n n c e n e r p l z th f l r p h l e l p h p e n n l v n page rev introduction booklet summary plan escription plan plan developed city order comply mandate state act basic interpretation act required city formulate pension plan would less expensive administer plan adoption plan enabled city receive additional funding state thereby enhancing retirement system plan cover following employee group plan fire employee hired hired july plan b police uniformed investigatory employee hired rehired july plan l official elected general municipal special election took office january plan municipal employee represented af scme district council afscme district council local hired rehired october civil service exempt appointed non represented employee employee first judicial district pennsylvania hired rehired january deputy sheriff employee register will hired rehired july preface retirement mean something different u basically though career look forward time favorite pursuit enough money enjoy feeling financial security question time expect plenty u today economy would find difficult im possible provide financial security adequate dependable income retire need help city philadelphia meet need employee modern efficient retirement system system provides career city employee monthly retirement income life addition social security benefit receive non uniformed employee basic retirement income provided two source might also want something extra way personal saving allow additional retirement security philadelphia retirement system provided city charter charter city council told adopt comprehensive fair actuarial ly sound pension retirement system covering officer employee city word retirement system system designed insure sufficient reliable benefit retirement system administered phil adelphia board pension retirement member board act executive director board composed director finance serf chairperson managing director city solicitor personnel director city co ntroller four member elected civil service employee city philadelphia elected member serve fouryear term addition group independent practicing physician make medical panel necessary adv ises board disability application together member board review decide upon every pension application page rev law govern retirement system complex many special rule concerning specific job group e mployees particular circumstance booklet briefly explain important part retirement system offer protects family retirement situation may arise time booklet intended complete explanation pension ordinance however read carefully question plan provision affect retirement counselor board pen ion retirement willing help complete pension code viewed wwwphilagovpensions click title event conflict provision stated pensi handbook city ordinance make body law governs retirement system city ordinance controlling may appeal decision board staff full board pension retirement directing writte n appeal within day date decision board executive director definition several term used booklet retirement counselor may unfamiliar offer short explanation eaning certain word look youll find many sound complicated actually board philadelphia board pension retirement employee person paid treasury city employee belong one following three division uniformed uniformed investigatory employee either police fire department district attorney office municipal employee uniformed elected division city elected official elected general municipal special election compensation yearly salary receive city final compensation last yearly salary receive city average final compensation member f plan l average three highest annual compensation calculated either three calendar year three anniversary year member plan b average two highest annual compensation calculated either two calendar year two anniversary year credited service period service employee regular member contribution made also period service credit purchased accordance provision section leaf absence without pay section purchase governmental service section purchase prior city service section pension credit former ceta employee section election fire employee police employee laid subsequently reinstated purchase pension credit layoff period subject limitation restriction set forth chapter public employee retirement code retirem ent benefit payment retired employee disabled employee beneficiary person receives benefit upon death active employee vested member page rev domestic relation order judgment decree order including approval f property settlement agreement entered court competent jurisdiction pursuant domestic relation law relates marital property right spouse former spouse member including right receive portion f money payable furtherance equitable distribution marital asset survivor person receives benefit upon death retired employee medical panel group physician assist board making medical examina tions investigation reporting finding board actuary person study pension system offer advice keep financially sound strong actuarial report actuary finding along recommendatio n guidance vested sufficient credited service eligible retire separation service retirement upon reaching retirement age member plan currently year important note employee necessar ily vested year anniversary hire date since employee may break service leave absence without pay pension credit purchased day employee receive pay ther efore make pension contribution certain member eligible participate early vesting retirement system contributes several contributor fund retirement system employee city nd state profitable return retirement system investment program employee regular employee city contribute retirement system automatic deduction paycheck amount deduction vary epending cost plan member city state major share cost benefit contributed city philadelphia city contribution determined annually board actuary city co ntribution supplemented annual payment state investment another contribution retirement system provided return investment investment selected accordance policy decided upon member board p ensions retirement board aided decision outside professional investment consultant investment program balanced reduce risk provide consistently profitable return retirement system funding board p ensions retirement city philadelphia concerned condition pension fund board entrusted responsibility monitoring fund ensure funding future pension benefit city philadelph ia guarantee obligation pay retirement benefit assist board role guardian fund actuary evaluates finance fund annual basis determine soundness actuary issue report finding commendation board page rev required act report reviewed city controller office commonwealth pennsylvania auditor general office membership permanent employee city automatically memb er retirement system beginning first day employment contribution retirement system required deducted paycheck temporary employee employment last six month may member retirement system employment continues beyond six month become member retirement system pension contribution deducted paycheck beginning first full pay period expiration original six month may also purchase pension credit period temporary employment making application board disqualification provided ordinance state law employ ee beneficiary employee entitled receive benefit payment kind retirement system employee convicted pleads guilty defense crime related public office public employment em ployee may entitled return contribution without interest except city right assert claim city offset return contribution eligibility requirement eligibility requirement service pension police fire employee eligible retire age completed year credited service municipal civilian employee eligible retire age completed year credited service elected official eligible retire age completed year credited service employee covered early vesting provision may retire noted age completed year credited service member pla n b completed year credited service member plan l credited service credited service period employee pay pension contribution employee get paid pension contribution ded ucted paycheck day employee work contribution deducted constitutes credited service also ordinance may permit employee leave absence pay contribution leave receive credit employee purchase pension credit prior military governmental eligible service benefit calculated police fire employee year month day credited service including year benefit average final compensation page rev year month day credited service excess year benefit average final compensation example police fire employee year credited service employee would receive average final compensation first year x additional year x municipal employee year month day credited service including year benefit average final compen sation year month day credited service excess year benefit average final compensation example municipal employee year credited service employee would receive average final compensati first year x additional year x elected official year month day credited service benefit average final compensation example elected official year credited service e lected official would receive average final compensation year x figure average final compensation police fire employee average highest year pensionable earnings take highest salary year need consecutive r must last year divid e pensionable earnings include base pay longevity police stress pay fire premium pay elected official municipal employee average highest year earnings take hig hest pensionable earnings year need consecutive r must last year divide pensionable earnings include base pay longevity pay overtime pay translate term dollar per month police fire employee year credited service average final compensation x divided per month municipal employee year credited service nd average final compensation page rev x divided per month elected official year credited service average final compensation x divided per month benefit entitled time retirement become effective day following termination service city retiring employee normally expect receive first payc heck retirement benefit within six eight week retire first payment cover amount due date retirement benefit payment continue remainder lifetime case remainder survivor lifetime well happens maximum credited service attained maximum allowable benefit plan b l average final compensation mean maximum year allowable cr edited service plan b year plan year plan l maximum year maximum allowable credited service attained whether continuous membership retirement system employment r purchase credited service prior city governmental military ceta service leaf absence pay eligible layoff period employee may elect suspend contribution upon written election employe e entitled refund regular contribution made without interest date completion maximum allowable credited service employee attained maximum allowable credited service previously purchase prior governmental military service credit may elect forfeit credit service receive refund total purchase cost including interest penalty paid employee elect cease contribution retirement syste shall pension benefit frozen date employee contribution cease mean wage increase one employee highest salary year occurs date cease paying pension contribution b e included calculation average final compensation pension purpose employee retirement benefit determined retired city service date stopped making pension contribution early vesting el igible member plan b hired january position exempt civil service entitled represented union newly hired member participation year vesting mandatory member prior city employment participation optional however employee must elect within month date rehire member plan l elected office january newly elected member without prior city servi ce credit participation year vesting mandatory newly elected member take office january prior city service credit participation optional however official must elect within month taking office cost early vesting member plan b required pay higher contribution rate year contribution revert normal plan rate remainder employment member plan l b e required pay higher contribution rate year contribution revert normal plan l rate remainder employment page rev optional participant actively employed january election f early vesting irrevocable however upon attaining year credited service member may elect year vesting verification board staff member year credited service additional early vesting contribut ion paid refunded without interest benefit early vesting eligible member plan entitled receive monthly pension benefit age applicable eligible make application ordinary disability benef attained year credited service either regular employment purchase type credited service upon employee death designated beneficiary would choice receiving annual pension benefit r lump sum payment eligible member plan l entitled receive monthly pension benefit age applicable eligible make application ordinary disability benefit attained year credited service either throug h regular employment purchase type credited service upon employee death designated beneficiary would choice receiving annual pension benefit lump sum payment example using calculation used earli er member participates early vesting plan separate employment year credited service average final compensation age normal retirement age plan member would entitled monthly pension benefit follows x year x divided optional early retirement plan also includes option retire early municipal employee retire early age year credited service member participating early vesting may exercise early retirement option however benefit reduction involved may feasible option police fire employee retire age year credited servi ce early retirement benefit calculation previously noted except reduction one half month employee younger minimum retirement age example using calculation used earlier municipal employee year credited service average final compensation x divided per month except case retiring employee age two year younger mini mum retirement age year month x monthly amount reduced follows x optional early nefit per month additionally police fire empl oyee year credited service municipal employee elected official year credited service eligible early retirement benefit regardless age without reduction monthly benefit page rev separation service benefit plan also provides separation service benefit mean employee vested completed year credited service see definition vested definition section booklet young qualify regular retirement optional early retirement may separate city service leave contribution retirement system collect benefit future date either reach minimum retirement age hi plan reach minimum retirement age optional early retirement benefit course decides collect benefit early minimum retirement age reduced previously illustrated optional early retirement month minimum retirement age employee leaf job planning collect separation service benefit dy eligible treated death active employee beneficiary eli gible ordinary death benefit member participating early vesting plan b completed year credited service member participating early vesting plan l completed year credited service deferred reti rement option plan drop drop drop enhancement current pension plan elect participate drop cease make contribution retirement system monthly pension benefit calculated day fore drop enrollment date reason want purchase type credited service application must include required verification prior governmental service former employer copy dd must made drop enrollment date must complete payment purchase service credit within ninety day drop enrollment date monthly pension benefit credited tax deferred interest bearing account intere st rate determined board pension retirement continue work city philadelphia four year officially retire within four year drop enrollment date begin receive monthly pension benefit plus accumulated balance drop account election participate drop irrevocable eligible participate employee attained least year credited service attained mal retirement age plan plan b age plan l age plan age make application approximately day date wish enroll drop information concerning drop call arra nge appointment pension counselor note member participating early vesting plan b l although vested less year credited service must least year credited service participate drop elect participate drop participation irrevocable example drop benefit service retirement benefit monthly remain drop maximum four year period upon separating city employmen entitled accumulated drop proceeds approximately service retirement benefit credited drop account begin paid last working day month page rev extraordin ary extension mayor may determine extraordinary circumstance exists threatens public health safety welfare would city best overall interest extend participation participant drop th eir fourth year program may remain employee city one additional year beyond four year limit term condition drop death benefit whats difference death benefit survivorship ben efits survivorship benefit become payable retired employee dy death benefit payable active employee dy vested employee separated city employment dy prior receiving separation service benefit surv ivorship benefit monthly amount calculated earlier booklet reduction survivorship benefit survivorship benefit paid upon death retired employee three survivorship option p lan b l plan fourth survivorship option two four survivorship option involve reduction monthly pension amount amount reduction based age retiree retiree designated survivor employee may designate following people survivor spouse please note november pension board longer recognizes common law marriage life partner must prove life partner required phila code title including file valid verification required title b natural adopted child child employee trust benefit disabled natural disabled adopted child provided follow ing condition met beneficiary trust shall irrevocable later date retirement death employee member whichever occurs first trust must valid trust pennsylvania law would fact trust corpus trust must irrevocable beneficiary trust must identifiable trust instrument copy trust must provided pension board within thirty day date employee submission document designating trust survivor case annual benefit paid monthly life ordinance determining life shall lifetime irrevocable beneficiary trust paren parent employee anyone else related employee blood marriage person designated employee estate employee employee retires survivorship benefit option page rev employee may designate n estate except return contribution option organization like charity option reduction benefit payable return unused pension contribution retired employee account mean employee retired contribution received benefit payment remaining account would payable designated survivor option generally incurs sizable reduction month ly benefit upon death retired employee retired employee designated survivor would receive life amount retired employee receiving financial planning purpose good estimate pension benefi reduced approximately mean unreduced benefit monthly option monthly benefit would monthly amount payable designated survivor lifetime option also involves reduction monthly benefit however reduction great option reduction upon death retired employee retired employee designated survivor receive life one half amount receiv ing financial planning purpose good estimate benefit reduced approximately mean unreduced benefit monthly option monthly benefit would amount payable designa ted survivor lifetime resignation provision designated survivor dy retired employee retired employee one year date designated survivor death designate new survivor retired employe e chooses designate new survivor year pass without retired employee changing designation monthly benefit adjusted upward though survivorship option selected adjustment becomes effective either first day month following retiree written notice intend name new survivor first day month following expiration year retiree option name new survivor option designate new survivor exercised one time happens retired employee designated survivor dy retiree retiree name new survivor also dy since retired employee e opportunity designate new survivor name another survivor retired employee retired option upon death unused contribution account paid estate retired employee retired u nder option option effective first day month following death last designated survivor retiree benefit adjusted upward though option selected upon death benefit paid employee retires without making option selection without designating survivor monthly benefit reduced upon death benefit paid page rev option respect member plan plan x p lan j plan plan b police fire member plan reduction monthly benefi event retired employee dy valid beneficiary exists respect member plan retired member r eceive retirement benefit form annuity life retired member elected option dy without elected option onehalf amount member retirement benefit without reduction shall paid member surviving spouse life partner provided married least two year certified life partner least two year required phila code title including file valid verification required title b retirement date separated member became eligible apply retirement benefit upon death surviving spouse life partner surviving spouse qualifies previous para graph retirement benefit shall paid dependent child either natural adopted deceased member child attains age eighteen child remains dependent physical mental infirmity duratio n infirmity eligible child retirement benefit shall paid dependent parent parent deceased upon election member time member life benefit otherwise payable member eath child remains dependent time member death physical mental infirmity may instead paid trust benefit child long trust meet following condition beneficiary tr ust shall irrevocable later date election death member whichever occurs first b trust must valid trust pennsylvania law would fact trust corpus c trust must irr evocable beneficiary trust must identifiable trust instrument e copy trust must provided pension board within thirty day date member submission document designating trust survivor f case annual benefit paid monthly life ordinance determining life hall lifetime irrevocable beneficiary trust surviving spouse dependent child pare nt qualifies member dy receiving retirement benefit equal member contribution balance shall paid member beneficiary failure choose option member plan eligible option member plan plan b plan l plan retires without electing retirement benefit option among option option option member shall receive retirement benefit without actuarial reduction except early retirement optional e arly retirement benefit upon member death subject provision subsection benefit paid failure designate survivor member plan plan b plan l plan retires without designating survivor nd dy benefit paid provided however member survived spouse member married two year member living time death member ne child age eighteen time member death member shall deemed designated spouse survivor option change option retirement member may revoke election option section may elect option except member plan plan j plan x may elect option retirement subject provision designation survivor last election forego ing option shall irrevocable page rev effect designating impermissible survivor survivor shall designated accordance provision designation survivor member designates survivor within permissible class designation shall invalid effect survivor shall determined accordance provision designation survivor respect member elected option amount payable upon death membe r shall paid member survivor accordance provision respect member elected option option additional amount would paid member member lifetime member elected option option shall paid member survivor accordance provision ordinary death benefit ordinary death benefit may either lump sum lifetime monthly pension epending deceased employee length credited service age deceased employee vested younger minimum retirement age benefit payable lump sum lump sum beneficiary would receive th e deceased employee contribution without interest plus additional benefit equal percent deceased employee average final compensation exceed average final compensation amount would reduced amoun group life insurance paid city example beneficiary would receive employee contribution plus additional death benefit determined follows average final year credited year required additional compensation service vest death benefit x x less amount group life insurance paid city deceased employee reached minimum retirement age year credited service beneficiary may elect lump sum benefit lifetime monthly pension beneficiary chooses receive lifetime monthly benefit benefit calculated though deceased employee retired option survivorship benefit refer option survivorship benefit police fire employee considered year credited service employee participating early vesting provision plan b year credited service employee participating early vesting provision plan l year credited service vested service connected death benefit death active employee caused sol ely performance duty spouse minor child dependent parent may eligible receive service connected death benefit spouse employee whose death determined service connected receive deceased employee final compensation provided living employee time death additionally child age shall receive final compensation however total benefit exceed dec eased employee final compensation eligible spouse spouse dy remarries still child age benefit payable final compensation minor child exceed final compensation page rev apply widow police uniform employee pa state act neither spouse child eligible benefit payment made dependent father mother case benefit would final compensation dependent parent service connected death benefit also includes return deceased employee contribution without interest service connected death benefit reduced dollar dollar amount paid worker compensation spouse employee whose death determined service connected elect ordinary death benefit dy minor child age dollar amount benefit distributed propor tionately among surviving minor child minor child attains age minor child dy benefit redistributed among remaining minor child service connected death health care benefit provided survivor f police officer fire fighter whose death deemed service connected basically health care coverage provided would deceased employee would entitled specifically coverage maintained spouse life remarriage minor child age however child enrolled full time undergraduate student payment continue age child end student status whichever occurs first apply widow police uniform employee pa state act service connected disability benefit employee wish apply service connected disability benefit must within one year following separation city em ployment minimum service requirement service connected disability benefit eligible employee must determined mentally physically permanently incapacitated performance duty city position determination made board based advice board medical panel medical panel board must find disability resulted solely performance duty employee position employee receives n award worker compensation benefit whose disability deemed service connected may forego receiving service connected disability benefit favor service benefit ordinary disability benefit separation service retirement b enefit employee applied receiving benefit receives worker compensation award total partial disability retirement application treated application service connected disability benef board determines application meet requirement service connected disability benefit employee retired basis employee already receiving service ordinary disability benefit ben efit converted service connected disability benefit date employee separated city employment apply fire uniform deputy sheriff employee service connected disability benefit payment em ployees final rate pay benefit also includes option return employee contribution without interest however employee exercise option give right survivorship benefit beneficiary empl oyee approved service connected disability benefit also awarded worker compensation benefit disability benefit reduced dollar dollar amount paid worker compensation alternately service connected disabi lity recipient may waive right receive worker compensation page rev ordinary disability benefit employee wish apply ordinary disability benefit must within one year following separation city employment eligible disability municipal employee must completed year credited service fire employee must completed year credited service police employee must completed year credited service unless disability total permanent case considered year credited service elected official must completed year credited service employee participating early vesting provision plan b must completed ear credited service elected official participating early vesting plan l must completed year credited service disability must occurred person employed city disability must resul employee wrongdoing employee granted ordinary disability benefit incapacity would qualify service connected disability upon application ordinary disability benefit employee board deems disability service connected employee would retired service connected disability pension employee receiving ordinary disability benefit also receiving eligible worker compensation benefit board termi nate ordinary disability benefit employee may apply separation service retirement benefit minimum retirement age plan attained disability benefit calculated manner regular service tirement benefit apply fire uniform deputy sheriff employee purchase credited service following period service eligible purchase pension credit public employee retirement system perio d service credit purchased increase total credited service purpose calculating annual pension benefit attaining year less participating early vesting credited service required vestin g example member pension plan appointed city employment april upon appointment member elected purchase year prior governmental service credit member separated employment effective june mem ber would year month day credited service time worked member contributed retirement system year credited service purchase prior governmental service member would total credi ted service year month day would vested payment purchase service credit may made lump sum payroll installment account employee may eligible use deferred compensation plan und er certain term condition make payment purchase service credit leaf absence without pay employee may buy service credit leaf absence without pay day less purchase credit leaf han day except following type leaf member illness maternity injury maximum year military leave original enlistment original enrollment draft recall duration leave employee purchase credit vo luntary entry military page rev special education training duration leave service united nation international peacekeeping police mission duration leave employee must pay leave within day return wor k exception military leave absence subject userra military leaf ended december employee make application purchase credit leave absence beyond day deadline may purchase credit paying addition contribution due leave period interest assumed actuarial rate compounded annually date employee returned service leave absence date application military leave absence ended december employee must complete payment leave earlier period three time duration leave absence five year employee make application beyond prescribed time period may purchase credit paying contribution due plus interest assumed actuarial rate compounded annually date employee returned service leave date application vested employee dy beneficiary day date death complete payment receive death benefit based credited service including period leave beneficiary complete paym ent leave death benefit based credited service without period leave payment made toward purchasing leave refunded military governmental service prior city employment employee may certain condition purchase maximum year pension credit active service armed force united state characterize</t>
   </si>
   <si>
-    <t>pension plan summary january table content welcome retirement journey important note plan glance responsibility joining plan regular fulltime employee regular fulltime employee ou eligible join plan havent et consider contributing required contribution voluntary contribution ax implication maximizing contribution plan pay investing retirement account happens ou choose investment option fee difference lower fee make retirement saving learning investment monitoring changing investment investment risk return worklife event plan change marital status disability unpaid leave absence leaving western retirement retirement death learning plan planning retirement journey employersponsored plan governmentsponsored plan personal saving administration plan contact u glossary planning financially sound retirement lot like planning trip need know final destination plan youre going get everyones plan retirement different creating map plan regularly checking make sure youre still right track best way ensure journey successful income retirement meet need western two pension plan one academic staff one administrative staff valuable benefit working western plan along government benefit personal saving source income important element journey financially secure retirement pension plan western defined contribution plan mean income retirement determined contribution made pension account investment earnings money generates retire use pension account balance provide type retirement income suit much retirement income able generate plan depends different factor much money accumulated pension account determined bythe amount contribution made account investment perform retirement date choose draw income choice retirement income vehicle retire longterm interest rate retire legislative requirement consider plan summary map employerprovided pension plan help reach final retirement destination glossary end summary provides definition important term welcome retirement journey important note western university offer two pension plan employee western employee participating employer university western ontario pension plan member academic staff university western ontario pension plan member administrative staff sake simplicity unless otherwise noted throughout summary western refers western university employer participate plan brescia university college huron university college plan refers pension plan academic staff pension plan administrative staff summary provides important information western plan course summary provide exhaustive detail official plan text govern actual pension benefit plan final authority case dispute plan member beneficiary authorized person may see copy full plan text statement investment policy procedure relevant document contacting human resource welcome retirement journey approach retirement savingsyou build taxdeferred saving pension account arrange retirement income based amount accumulated account retirement contribution ou western contribute plan ou choose make additional voluntary contribution plan grow retirement saving faster contribution made account direct impact income generate retirement investment required contribution voluntary contribution deposited account western contribution also deposited account ou choose invest account among investment choice provided investment return direct impact income generate retirement retirement income amount retirement income receive known retire depends amount money accumulated account contribution western investment earnings contribution type retirement income arrange retirement age ou retire western start receiving retirement income plan early year normal retirement date wait later date start drawing retirement income long retirement income begin later december year reach age membership plan well contribution western end latest december year reach age member professional managerial association police association iuoe contribution end earlier day day reach point least age age plus service equal leaving western leave western whether change job retire entitled full balance retirement account lockedin saving choose transfer saving sun life retirement saving plan western retiree sun life western preferred provider retirement income fund rif program ou early year normal retirement date continue investing retirement saving receiving periodic income leave saving plan continue investing growing retirement saving ready draw saving early year normal retirement date later age transfer saving plan another lockedin retirement saving vehicle transfer saving new employer pension plan plan accepts transfer sun life purchase immediate annuity early year normal retirement date deferred annuity behalf combination provided meet requirement similar choice non lockedin saving accumulated voluntary account however additional option take saving cash less income tax event death retirement retirement spouse spouse designated beneficiary estate receives account balancethe death benefit depends arrangement made account balance retired plan glance pension saving could important financial asset decision make pension saving big impact retirement income road western joint pension board oversees governance operation plan board delegated daytoday service administration plan sun life financial western human resource also assist administration plan especially time enrolment plan termination retirement liaising sun life financial ou responsibility well aking responsibility plan member seriously help increase likelihood journey successful meet retirement goal ou responsible choosing join deciding much contribute selecting investment fund contribution choice designed monitored joint pension board reviewing account periodically choosing retirement date choosing retirement income vehicle designating beneficiary sun life financial provides various tool resource help responsibility visit sunlifecawestern go learning plan section booklet information responsibility regular fulltime employee faculty regular fulltime faculty employee automatically join plan first month coinciding following date hire following exception brescia university college employee automatically join plan first month immediately following one year continuous fulltime employment huron university college employee automatically join plan first day employment administrative regular fulltime administrative employee choose join plan first month coinciding following date hire automatically join plan first month coinciding following five year employment following exception brescia university college employee eligible join plan following three month continuous fulltime employment unionized employee huron university college choose join first day employment automatically join two year employmentother regular fulltime employee regular fulltime employee eligible join plan january year earned least year maximum pensionable earnings two previous calendar year western work sun life advise eligible join plan ou also eligible join plan first month long month continuous service earned least year maximum pensionable earnings two previous calendar year date membership plan optional employee regular fulltime ou may join plan december year reach age day membership plan end member professional managerial association police association iuoe would able join plan earlier day day reach point least age age plus service equal joining plan eligible join plan havent yet consider eligible join plan havent joined yet consider carefully start contributing plan western also make contribution behalf youre benefiting western contribution plan youre missing important part overall compensation earlier start saving retirement save better chance reaching retirement income goal choosing join plan soon mean youll better prepared financial security road meet anita anita hired fulltime position project coordinator march anita voluntarily join administrative staff pension plan first month date hire doesnt automatically join plan five year anitas stats anitas annual earnings anitas annual contribution annual earnings western annual contribution anitas annual earnings first year next year rest career first year employment next year rest career anita wait five year join plan loses western contribution every year addition losing valuable compensation western retirement saving anita accumulate plan lower here look anitas saving retirement might look like voluntarily chooses join first becomes eligible wait five year join plan keep mind example doesnt take account future salary increase anitas would trigger higher contribution western mean even bigger saving retirement projection shown illustration purpose using net rate return investment fee represent form guarantee including rate return actual accumulated saving time retirement vary based contribution level actual future earnings investment choice actual rate returnearly participation delayed five ear joining plan accumulated retirement saving year participation program retirement required contribution ou western contribute percentage earnings plan contribution deposited regular account much western contribute may depend different factor whether academic staff administrative staff employee groupemployer year service table outline required contribution western contribution plan academic staff contributionsemployer contribution uwo faculty association including librarian archivist certain employee contributing year clinical eachers huron university college brescia university college fulltime faculty brescia university college parttime faculty administrative staff contributionsemployer contribution service western professional managerial association pma certain employeesless year year contributing year western staff employee less year year year huron university college brescia university college management brescia university college administrative contributing required contribution end required contribution western end latest december year reach age member professional managerial association police association iuoe contribution western end earlier day day reach point least age age plus service equal voluntary contribution ou may choose grow retirement income plan making voluntary contribution required contribution maximum allowed income tax act way make voluntary contribution plan payroll deduction reduces taxable income right away transferring saving personal registered retirement saving plan rrsp previous employer pension plan voluntary account established name accept voluntary contribution ou invest voluntary contribution among investment option plan benefit lower investment management fee ransfers spousal rrsp allowed plan ou may transfer lockedin amount another registered plan plan saving administered required pension legislation contribution investment earnings accumulated voluntary account may taken cash less income tax lockedin saving transferred plan rrsp time administration fee applied sun life transaction voluntary contribution end long active member plan may continue make voluntary contribution plan december year reach age member professional managerial association police association iuoe contribution western end earlier day day reach point least age age plus service equal maximizing contribution plan member eligible make voluntary contribution plan maximum allowed income tax act many reason consider maximizing contribution plan build retirement income faster use convenient payroll deduction contribution taxdeductible benefit tax saving pay right away benefit lower fee applied fund available retail outlet bank investment firm invest fund closely monitored tailored need western employee flexibility change level voluntary contribution every month contact sun life financial customer care centre interested increasing contribution plan start retirement journey today contributing tax implication income tax act limit annual taxdeductible contribution make retirement saving plan maximum annual amount earned income annual dollar limit change year year line change average canadian wage limit total save taxsheltered retirement plan including western plan personal rrsp every year member plan pension adjustment pa reported tax slip pa defined contribution plan western total contribution required voluntary contribution western contribution made plan calendar year pa reduces amount contribute rrsp following calendar year canada revenue agency cra informs year rrsp contribution limit notice assessment contributing maximizing contribution plan pay contribute plan saving accumulate road retirement plan allows additional flexibility increase contribution required contribution making voluntary contribution plan maximum allowed income ax act meet scott scott contributing academic pension plan since joined plan scott stats scott annual earnings scott annual contribution annual earnings western annual contribution scott annual earnings chart show scott retirement income might look like two scenario make voluntary contribution required contribution maximum allowed income ax act chooses contribute required contribution career western chart show scott retirement saving two scenario contributes plan year keep mind example doesnt take account future salary increase scott would trigger higher contribution western mean even bigger saving retirement projection shown illustration purpose using net rate return investment fee represent form guarantee including rate return actual accumulated saving time retirement vary based contribution level actual future earnings investment choice actual rate returnaccumulated retirement saving year participation program retirementscenario contributing maximum allowed income tax act scenario making required contribution contributing ou decide invest retirement account balance made western contribution contribution investment earnings including gain loss western joint pension board selected wide range quality investment option suit investment goal option come different degree risk return may appropriate different point career ou may allocate retirement saving account available fund contribution listed member detail sunlifeca western invested one option western contribution listed employer detail invested different investment option plan offer investment option across three primary asset class cash money market fixed incomebonds equitystocks asset class different property respect risk loss chance growth investment return generated example bond generally provide investment return stream income received interest payment equity generally provide investment return underlying value stock increase sold purchase price select investment want consider developing investment strategy ideal investment strategy strike balance kind longterm return want amount shortterm risk willing bear ou consider risk tolerance investment objective plan use money much time invest want use moneyat sunlifecawestern find resource help make sound investment choice increase financial literacy plan comfortable retirement resource include article webinars calculator asset allocation tool help understand risk tolerance make investment decision maximize retirement saving goal investment advice specialist also assist personal oneonone unbiased investment advice western pension plan member sun life also access valuable online reporting morningstar leading provider independent investment research analysis find wealth information investment available plan including fund managed top holding get know sunlifecawestern sun life financial selected western provide high quality service tool western pension plan member sunlifecawestern make investment change online get help calling sun life financial customer care centre pm et business day ou also ask directed investment advice specialist provide personal oneonone unbiased advice investment choice available western pension plan investing retirement account happens choose investment option make active choice retirement account money automatically invested default investment option balanced growth custom portfolio although fund may appropriate member certain age particular risk tolerance would appropriate member stage career recommendation remains responsibility actively select regularly review investment option ensure youre path financially secure retirement fee various cost associated running plan western pay many expense behalf active retired employee western member pay fund management fee fmfs associated fund choose sunlifecawestern able view fee associated investment available additional flat fee charged semiannually brescia university college huron university college employee leave western retirement leave saving plan fee withdrawal fund sun life financial may apply investing retirement account difference lower fee make retirement saving total fee different fund within plan averaged approximately fee different fund ranged overall fee far fee comparable retirement saving product available retail organization fund offered bank insurance company average close per year difference fee compound investment career make big difference road ready retire year period lower fee would expected provide approximately retirement saving meet mei mei want contribute additional annually towards retirement chart show mei could earn additional retirement saving making additional contribution western plan benefiting lower fee plan rather investing retail organization annual fee projection shown illustration purpose using net rate return investment fee represent form guarantee including rate return actual accumulated saving time retirement vary based contribution level actual future earnings investment choice actual rate returnaccumulated retirement saving year contributing every year extra saving due low fee western plansavings typical retail fee investing retirement account learning investment one predict retirement income look like future important understand investment choice aware risk associated example investment choice conservative may limit chance reaching retirement goal aggressive may expose substantial loss ready draw retirement income result different fund investment approach may appropriate different point journey retirement sun life financial provides variety way learn investing setting retirement income goal fund available western pension plan visit sunlifecawestern information monitoring changing investment online personalized pension account sunlifecawestern provides uptodate information investment addition morningstar report available sunlifecawestern offer highly detailed information fund available sun life also provide semiannual statement outlining investment choice investment return data ou access western pension plan account anytime wish online sunlifecawestern via mobile device daily valuation account mean make investment change business day investment change may made online phone sun life customer care centre available answer question assist business day pm et call licensed investment advice specialist also available calling number provide unbiased oneonone advice western pension plan investment investing retirement account investment risk return important recognize dramatically investment return time affect retirement income example sitting lowrisk strategy year likely generate much lower investment return result substantially less income retirement investment return would expected managed level risk accepted career fund within plan different proportion invested cashmoney market fixed incomebonds equitystocks general equity fund mean potentially higher rate return higher risk chart show relationship longterm shortterm risk return within different asset class potential return riskvolatility fixed income equity investing retirement account ou consider risk investing fund versus potential return well risk tolerance setting investment strategy ensure invest approach make sense retirement income goal morningstar report sunlifecawestern provide detail fund available risk investing fund may also want use asset allocation tool available sunlifecawestern determine risk tolerance assist choosing right investment change marital status marital status change please inform western sun life financial go life change section human resource website read download necessary form ensure marital status properly recorded western login sunlifecawestern review update pension beneficiary marriage commonlaw relationship end may assign portion retirement saving accumulated relationship exspouse january division retirement saving plan processed unless married spouse first obtain statement family law value contact sun life customer care centre detail updating beneficiary marital status change review necessary update beneficiary plan ou view make change western pension plan beneficiary sunlifecawestern named beneficiary receive saving accumulated account death however eligible spouse death person receive benefit payable regular account may eligible designate nonspouse beneficiary portion contribution made january please contact sun life financial customer care centre detail disability employee group western contributes share western share required contribution period receiving full benefit long term disability plan contact human resource information unpaid leave absence go one following type unpaid leave may choose continue contributing plan loan another employer participate employer pension plan unpaid education leave unpaid maternity parental leave study leave career development leave reservist leave political candidacy leave type leave choose continue contributing may responsible making western contribution planning leave contact human resource information option worklife event plan leaving western retirement leave western retirement year normal retirement date several option lockedin retirement saving accumulated western pension plan ou may choose leave saving plan continue investing growing retirement saving ready draw saving early year normal retirement date later age semi annual administrative fee deducted account sun life transfer saving plan lockedin retirement account lira sun life financial another financial institution new employer registered pension plan provided plan willing accept sun life financial purchase deferred lifetime annuity behalf annunity sun life another financial institution ou may also accumulated retirement saving voluntary account may include non lockedin saving example transferred personal rrsp money plan made voluntary contribution plan ou similar choice non lockedin saving leave western however voluntary contribution lockedin additional option take saving cash less income tax regular fulltime employee membership plan end least six month contribution ended exception apply employee parttime faculty member allow resume participation plan start working another position western within period administrative fee charged member longer employed university ou review fee consider best option employment end sun life financial assist information option step need take retirement saving plan different way build retirement saving make required contribution western make contribution may choose make voluntary contribution limit allowed income tax act may transfer saving personal rrsp saving previous employer pension plan whats lockedin required contribution plan western contribution investment income earned contribution lockedin case saving transferred previous employer pension plan also lockedin whats lockedin voluntary contribution plan saving transferred personal rrsp plan investment income earned contribution lockedin lockedin mean pension legislation requires saving accumulated registered pension plan lockedin saving must used provide periodic retirement income result taken cash certain situation example financial hardship pension legislation allows special access lockedin saving special access allowed transferred money plan another lockedin vehicle another registered pension plan meet specific criterion set pension legislation obtain approval fsco agency regulates ontario pension plan information special access lockedin saving form apply consult pension unlocking section fscos website wwwfsco govonca worklife event plan retirement ou retire begin receive retirement income plan early year normal retirement date planning retiring early keep mind year retire early one less working year able contribute plan receive western contribution potentially earn investment return additional year retirement one year youll need rely saving income retire several option lockedin retirement saving accumulated plan ou may choose transfer saving sun life retirement saving plan western retiree sun life financial western preferred provider retirement income fund rif program continue invest account familiar investment begin periodic withdrawal continue maintain invest account plan ready draw investment end year reach age latest transfer retirement saving plan lockedin retirement account lira sun life another financial institution new employer registered pension plan provided plan willing accept purchase immediate deferred lifetime annuity ou may also accumulated retirement saving voluntary account may include non lockedin saving example transferred personal rrsp money plan made voluntary contribution plan ou similar choice non lockedin saving retire however option retirement income vehicle lockedin additional option take saving cash less income tax detailed information retirement income option available consult western retirement guide available pension section human resource website contact sun life financial customer care centre income tax act requires retirement saving converted income end year reach age eligible spouse retire pension law requires pension include guarantee die first spouse receive least pension income retirement assuming select annuity payment retirement income choose form pension provides less survivor pension spouse must waive writing spouse right pension ou may eligible designate nonspouse beneficiary contribution made january contact sun life financial customer care centre detail approaching retirement recommend contact sun life financial plan retire within coming two year provide information choice wish schedule meeting sun life retirement consultant western human resource provide information retirement eligibility postretirement benefit phased retirement faculty member worklife event plan death death retirement die retirement accumulated saving regular account paid spouse long living together date death eligible spouse recently named beneficiary estate designated beneficiary beneficiary died accumulated saving voluntary account paid beneficiary beneficiary beneficiary died estate spouse person provincial law must receive full value retirement saving regular account unless spouse waif right benefit writing ou may eligible designate nonspouse beneficiary contribution made january contact sun life financial customer care centre detail person spouse living separate apart person date spousal status must determined spouse following option payment retirement saving transfer saving taxdeferred rrsp another employer pension plan purchase immediate deferred lifetime annuity insurance company receive saving cash less income tax transfer saving taxdeferred retirement income fund beneficiary spouse value account paid lumpsum payment less income tax death retirement die retirement benefit payable depend option chose retired time death fund left western pension account paid according beneficiaryies file described death retirement circumstance balance account forfeited pension plan beneficiary sure keep pension beneficiary date ou make change time logging sunlifecawestern worklife event plan retirement saving plan play important part overall income retirement wide variety resource available help map journey reach financial destination retirement ake advantage resource get want go secure pension accounty secure online pension account sunlifecawestern let view pension account balance updated business day review make change investment ou make change online via phone pension statement addition viewing detailed account information anytime wish sunlifecawestern sun life financial provide statement twice annually june december sunlifecawestern sunlifecawestern best source wealth information aspect plan including access morningstar highly respected tool containing detail investment available western pension plan also access asset allocation tool designed help determine risk tolerance help make investment decision ools also available help project retirement income group education session sun life financial campus western various time throughout year providing education information session well online webinars video article tool help learn investing save efficiently retirement retirement income option available plan sun life financial customer care centrethe sun life financial customer care centre available answer question assist business day pm et call licensed investment advice specialist also available pm et business day provide unbiased oneonone advice western pension plan investment point resource help journey financial security retirement learning plan successful trip usually mean taking time leave decide want go want get oull want examine much trip cost whether afford case pick new destination original destination expensive ou take similar step plan financially comfortable retirement want go consider want want retirement year example see travelling extensively spending time gardening reading relaxing home child still home school different lifestyle retirement carry different price tag identifying need help set appropriate financial goal want take trip age would like retire know retire age current life expectancy retirement could last year planning retiring earlier age keep mind year retire early one less working year youre able contribute plan receive western contribution potentially earn investment return additional year retirement one year youll need rely saving income much cost determine retirement cost based income need retirement afford estimate much receive retirement income source determine track meeting retirement income goal need reevaluate destination target reaching retirement income goal readjust expectation retirement example age retire retirement much retirement income accumulate retirement saving retire planning retirement journey retire retirement income come three different source employersponsored plan governmentsponsored plan personal saving employersponsored plan employersponsored pension plan western plan provide employee retirement income supplement revenue government plan retirement income plan depends saving accumulated retirement account retire contribution western contribution investment income earn direct impact income generate retirement may also participate supplemental pension arrangement spa provides notional account member required contribution western exceed total contribution permitted income tax act participate spa receive annual statement providing notional retirement saving sure take account determining potential retirement income participated another employer pension plan want include pension benefit payable consider overall retirement incomegovernmentsponsored plan current legislation retire entitled receive benefit canada pension plan cpp may entitled pension benefit old age security oas program canada pension plan cpp cpp compulsory public pension plan provides worker family basic financial protection event retirement death disability amount pension cpp depends age retire number year contributed plan employment earnings made contribution learn pension cpp contact service canada old age security program oas oas pension flatrate pension receive reach oas retirement age provided meet certain residency requirement paid monthly death adjusted four time year reflect increase cost living total retirement income certain level may repay part oas benefit receive oas pension taxable income information oas benefit contact service canada planning retirement journey planning retirement journey personal saving personal saving play important role retirement income topping pension income employersponsored governmentsponsored plan ensure financially comfortable retirement many people use rrsps build saving make taxdeductible contribution personal spousal rrsp specified limit rrsp contribution limit set canada revenue agency cra total contribute year rrsp deduction limit depends earned income pension adjustment pa cra let know rrsp contribution room notice assessment receive file income tax return ou carry forward unused contribution room may allow examp</t>
-  </si>
-  <si>
     <t>job description teacher duty responsibility teacher shall include following overall function teach educate student according guidelin e provided national curriculum framework overall guidance competent education authority teach educate student according educ ational need ability attainment potential individual student entrust ed hisher care head school head unit main responsibility planning preparing delivering lesson tudents class teaching according educational need abilit y achievement individual student group student adopting working towards implementation school development plan particular school giving servi ce assigning work correcting marking work carried hisher student assessing recording reporting developme nt progress attainment behaviour one student providing contributing oral written ass sments report reference relating individual student group studen t participating arrangement within agreed nati onal framework appraisal student performance promoting general progress wellbeing dividual student group student class entrusted himher providing guidance advice student educat ional social matter education future career prov iding information source expert advice communicating consulting cooperating oth er member school staff including post special resp onsibility parentsguardians ensure best interest student reviewing evaluating one teaching lea rning strategy methodology programme line nati onal curriculum framework guideline advising cooperating head school assistant head head department education officer teacher preparation development course study teaching material teaching programme method teaching assessment pastoral car e arrangement ensuring high standard professional practice quality teaching learning subject effective dialog ue participating reciprocal peer review observation class teaching pract ice head department subjectlevel concerned participating inservice education training course well continuing professional development cpd opportunity aking part action research exercise maintaining good order discipline amongst stude nt one care safeguarding health safety time participating staff group meeting rel ated school curriculum pastoral care arrangement better organiza tion administration school contributing professional development new teacher student teacher according arrangement agreed head school providing necessary information advice designated personnel school andor college provide necess ary information regarding requisition arrangement connection th e teaching subject assigned himher ensuring safe custody optimum use equipm ent normally used oneself lesson see regular serv icing maintenance participating school assembly registering monitoring attendance studen t one care sharing possible reasonable way e ffective management organisation order discipline school nurture culture teacher view e ssentially facilitator learning reflective practitioner participating contributing map iep c onferences review officially statemented student collaborating w ith parent smt inclusion coordinator professionalsstakeholders w orking student together learning support assistant deve loping implementing individual educational programme iep student individual educational need participating iep individual trans ition plan itp meeting ensuring scheme forecast work carried class handed lsa good time necessary adaptation resource made use student individual educational need class regularly discussing monitoring work car ried lsa class case student severe learning diffic ulties communication problem ensuring contact book daily upd ated necessary information including parent signature liaising collaborating specialist teacher resource person professional working statemented student making use audiovisual technological devicesaid e radio aid projector adaptation delive ry lesson secondary level teacher shall expected teach student different level achievement teacher preferabl teach two level unless special circumstance warrant otherwi se encouraging participation eu project project accordance sdp target agreed senior manag ement team</t>
   </si>
   <si>
     <t>reporting disclosure guide employee benefit plan publication developed u department labor employee benefit security administration ebsa view ebsa publication visit agency website dolgovagenciesebsa order publication speak benefit advisor contact ebsa electronically askebsadolgov call toll free material made available alternative format person disability upon request voice phone tty booklet constitutes small entity compliance guide purpose small business regulatory enforcement fairness act reporting disclosure guide employee benefit plan u department labor employee benefit security administration september introduction reporting disclosure guide employee benefit plan prepared u department labor employee benefit security administration ebsa assistance pension benefit guaranty corporation pbgc intended used quick reference tool certain basic reporting disclosure requirement employee retirement income security act erisa erisa reporting disclosure requirement reflected guide example guide general matter focus disclosure required internal revenue code provision erisa department treasury internal revenue service irs regulatory interpretive authority information irs notice disclosure requirement please visit irs website irsgovretirementplansretirementplan reportinganddisclosure guide contains page list ebsa pbgc resource including agency internet site law regulation guidance av ailable erisas reporting disclosure requirement reader refer law regulation instruction applicable form official guidance issued ebsa pbgc complete information erisas reporting disclosure requirement guide contains three chapter first chapter beginning page provides overview common disclosure administrator employ ee benefit plan required furnish participant beneficiary certain individual title erisa chapter three section basic disclosure requirement retirement welfare benefit p lan additional disclosure requirement welfare benefit plan group health plan additional disclosure requirement retirement plan second chapter beginning page provides overview reporting disclosure requirement defined benefit pension plan title iv erisa pbgc administers provision chapter focus primarily singleemployer plan four section first section pension insurance premium applies covered singleemployer multiemployer defined benefit plan last three section standard termination distress termination reportable event report apply covered singleemployer defined benefit plan third chapter beginning page provides overview form form annual reporting requirement chapter consists following quick reference chart pension welfare benefit plan form quick reference chart form quick reference chart department labor publication intended improve public access information reporting disclosure rule erisa updated september please sure check current law regulation reporting disclosure provision included publication ebsas website dolgovagenciesebsa overview erisa title basic disclosure requirement section basic disclosure requirement retirement welfare benefit plan document primary vehicle informing participant beneficiary plan operates must written average participant sufficiently comprehensive apprise covered person benefit right obligation plan must accurately reflect plan content date earlier day prior date spd disclosed see cfr style format content requirement participant pension plan beneficiary receiving benefit also see plan document person right obtain spd upon request see cfr c provision foreign language assistance certain portion plan participant literate nonenglish language automatically participant within day becoming covered plan pension plan beneficiary within day first receiving benefit however plan day becoming subject erisa distribute spd updated spd must furnished every year change made spd information plan amended otherwise must furnished every year see cfr b summary material modification smm describes material modification plan change information required spd distribution updated spd satisfies requirement see cfr bparticipants pension plan beneficiary receiving benefit also see plan document person right obtain smm upon request automatically participant pension plan beneficiary receiving benefit later day end plan year change adopted summary annual report sar narrative summary form see cfr bd prescribed format participant pension plan beneficiary receiving benefit plan year beginning december sar longer required defined benefit pension plan title iv applies instead provide annual funding notice see automatically participant pension plan beneficiary receiving benefit within month end plan year month due date filing form approved extension notification benefit determination claim notice explanation benefitsinformation regarding benefit claim determination adv erse benefit determination must include required disclosure eg specific reason denial claim reference specific plan provision benefit determination based description plan appeal procedure claimant participant beneficiary authorized claim representative requirement vary depending type plan type benefit claim involved see cfr prescribed claim procedure requirement plan document plan administrator must furnish copy certain document upon written request must copy available examination document include latest updated spd latest form trust agreement instrument plan established operated participant beneficiary also see cfr regarding department authority request document copy must furnished later day written request plan administrator must make copy available principal office certain location specified cfr bb footnote chapter page type information summary plan description spd section additional disclosure requirement welfare benefit plan group health plan summary group health plan amendment change information required spd constitute material reduction covered service benefit see cfr bd definitionsparticipants generally within day adoption material reduction group health plan service benefit see cfr bd regarding dayalternative rule furnishing required information cobra general notice notice right purchase temporary extension group health coverage coverage lost due qualifying event see cfr information visit dolgovagencies ebsalawsandregulationslawscobra model notice available dolgov agenciesebsalawsandregulationslaws cobramodelgeneralnoticedoc covered employee covered spouse group health plan coverage commences cobra election notice notice qualified beneficiary right elect cobra coverage upon occurrence qualifying event well information coverage option available marketplace see cfr information visit dolgovagencies ebsalawsandregulationslawscobra model notice available dolgov agenciesebsalawsandregulationslaws cobramodelelectionnoticedoc covered employee covered spouse dependent child qualified beneficiary administrator must generally provide qualified beneficiary notice generally within day notified employer qualified beneficiary qualifying event employer also plan administrator administrator must provide notice later day date qualifying event occurred plan provides cobra continuation coverage start date loss coverage date loss coverage due qualifying event notice unavailability cobra notice individual entitled cobra coverage see cfr c individual provide notice administrator qualifying event administrator determines eligible cobra coverage administrator must provide notice generally within day notified individual qualifying event notice early termination cobra coverage notice qualified beneficiary cobra coverage terminate earlier maximum period coverage see cfr dqualified beneficiary whose cobra coverage terminate earlier maximum period coverage soon practicable following administrator determination coverage terminate medical child support order mcso notice notification plan administrator regarding receipt qualification determination mcso directing plan provide health coverage participant noncustodial child see erisa prescribed requirement participant child named mcso representative administrator upon receipt mcso must promptly issue notice including plan procedure determining qualified status administrator must also issue separate notice whether mcso qualified within reasonable time receipt document summary material reduction covered service benefit type information whendocument type information national medical support nm notice notice used state agency responsible enforcing health care coverage provision mcso see erisa cfr prescribed requirement depending upon certain condition employer must complete return part nm notice state agency transfer part b notice plan administrator determination whether notice qualified mcso state agency employer plan administrator participant custodial parent child representative employer must either send part state agency part b plan administrator within day date notice sooner reasonable administrator must promptly notify aected person receipt notice procedure determining qualified status administrator must within business day date sooner reasonable complete return part b state agency must also provide required information aected person certain circumstance employer may required send part state agency plan administrator processed part b notice special enrollment right notice describing group health plan special enrollment rule including right special enroll within day loss coverage marriage birth child adoption placement adoption see cfr c prescribed requirement well model notice employee eligible enroll group health plan time employee initially oered opportunity enroll group health plan employer chipra notice employer rather plan must inform employee possible premium assistance opportunity available state reside model notice available dol govagenciesebsalawsandregulations lawschipra see fr prescribed requirement employ ee regardless enrollment eligibility status notice must furnished annually wellness program disclosure notice given group health plan oering health contingent wellness program order obtain reward notice must disclose availability reasonable alternative standard possibility waiver otherwise applicable standard disclosure must include contact information obtaining alternative statement recommendation individual personal physician accommodated see cfr fv prescribed requirement well model language participant beneficiary eligible participate health contingent wellness program order obtain reward plan material describe term health contingent wellness program activityonly outcomebased wellness program outcomebased wellness program notice must also included disclosure individual satisfy initial outcomebased standard plan material merely mention program available without describing term disclosure required newborn act description right notice must include statement describing requirement federal state law relate hospital length stay connection childbirth federal law applies area plan operates state law applies area spd describe federal state requirement applicable area see cfr u prescribed requirement well model language participant notice must included summary plan description michelles law enrollment notice must include description michelles law provision continued coverage medically necessary leaf absence see erisa section c participant beneficiary notice must included notice regarding requirement certification student status coverage plan note aordable care act plan deny restrict coverage child age based student status womens health cancer right act whcra notice notice describing required benefit mastectomyrelated reconstructive surgery prosthesis treatment physical complication mastectomy participant notice must furnished upon enrollment annually mental health parity addiction equity act mhpaea criterion medically necessary determination notice notice must provide beneficiary criterion medically necessary determination respect mental healthsubstance use disorder benefit see cfr current potential participant beneficiary contracting provider notice must provided upon request mhpaea claim denial notice notice must provide reason denial reimbursement payment service respect mental health substance use disorder benefit see cfr dparticipant beneficiary notice must provided upon request otherwise required law mhpaea increased cost exemption group health plan claiming mhpaeas increased cost exemption must furnish notice plan exemption parity requirement see cfr gparticipants beneficiary ebsa state regulator notice must provided using cost exemption grandfathered plan disclosurenotice notice must disclose plan grandfathered must include contact information see cfr participant beneficiary notice must included plan material describing benefit health coverage document type information document type information summary benefit coverage sbc uniform glossary template describes benefit coverage plan uniform glossary defining statutorily naic recommended term see cfr c required sbc template available dolgovsites defaultfilese bsalawsandregulations lawsaffordable careactforemployersand adviserssbcte mplatepdf uniform glossary available dolgovsitesdefault filesebsalawsandregulations lawsaffordabl ecareactforemployersand adviserssbcuniformglossary ofcov erage andmedicaltermspdf sbc must include internet address individual review uniform glossary well contact information obtaining paper copy plan provided group health insurance issuer p articipants beneficiary sbc must provided participant beneficiary enrollment material upon renewal reissuance coverage sbc must also provided special enrollee later date spd required provided day enrollment sbc copy uniform glossary must also provided upon request within day summary benefit coverage notice modificationif plan make material modification plan term would aect content sbc reflected recently provided sbc plan must provide notice change apply change occur connection renewal reissuance see cfr b participant beneficiary notice must provided later day prior date modification become eectiv e notice regarding designation primary care provider nongrandfathered plan requires participant beneficiary designate primary care provider plan must provide notice term plan coverage regarding designation primary care provider participant right designate participating primary care provider available accept participant respect child designate participating physician specializes pediatrics plan may require authorization referral obgyn care participating obgyn professional see cfr aa model language available participant notice must provided summary plan description similar description benefit dolgovagenciesebsalawsand regulation lawsaffordable careactforemployersand adviserspatientprotectionmodelnoticedoc document type information internal claim appeal internal claim appeal non internal claim appeal notice internal claim appeal timing external review notice grandfathered plan must provide notice adverse benefit determination notice final internal adverse benefit determination see cfr biie specific content requirement model notice available dolgovagenciesebsalawsand regulationslawsaffordablecareact foremployersandadvisersrevised modelnoticeofadversebenefit determinationdoc dolgovagenciesebsalawsand regulationslawsaffordablecareact foremployersandadvisersrevised modelnoticeoffinalinternal adversebenefitdeterminationdoc external review external review independent review organization iro issue notice final external review decision see state law technical release cfr c prescribed requirement model notice federal process technical release fi nal rule available dolgovagenciesebsalaws andregulationslawsaffordablecareact foremployersandadvisersrevised modelnoticeoffinalexternalreview decisiondoc provided claimant federal external review pursuant technical release notice provided iro claimant plan notice vary based type claim external review timing notice may vary based type claim whether state federal process applies see cfr information external review process disclosure nongrandfathered plan must provide description external review process attached summary plan description policy certificate evidence coverage provided participant beneficiary enrollee see echnical release cfr c informationparticipants beneficiary description external review process must provided summary plan description evidence coverage provided enrollee document type information ebsa form ebsa form form used organization wish claim accommodation respect requirement cover certain contraceptive service without cost sharing method invoking accommodation providing notice secretary hhs also available ebsa form provided organization plan plan health insurance issuer third party administrator notice secretary hhs sent email u mail hhs ebsa form available online dolgovagenciesebsalawsandregulationslawsaffordablecareactforemployersandadviserscoverageofpreventiveservices information providing notice hhs available online dolgovsitesdefault filesebsalawsandregulationslaws affordablecareactforemplo yersand advisersmodelnoticetosecretaryofhhs pdf employer notice employee coverage option employer subject fair labor standard act must provide written notice informing employee existence marketplace potential availability tax credit employ ee may lose employer contribution employee purchase qualified health plan see technical release flsa b prescribed requirement model notice available dolgovagenciesebsalawsandregulationslawsaffordablecareactforemployersandadviserscoverageoptionsnotice must provided employer employee regardless plan eligibility parttime fulltime status notice must provided new employ ee please refer department regulation guidance information extent charge may assessed cover cost furnishing particular information statement document participant beneficiary required title erisa see eg cfr b term group health plan mean employee welfare plan extent plan provides medical care employee dependent directly insurance reimbursement otherwise cobra generally applies group health plan employer employed employee prior calendar year provision cobra covering state local government plan administered department health human service cobra apply plan sponsored certain churchrelated organization information see ebsas compliance assistance guide health benefit coverage federal law section additional disclosure requirement retirement plan document type information periodic pension benefit statement content statement varies depending type plan general statement must indicate total benefit total nonforfeitable pension benefit accrued earliest date benefit become nonforfeitable benefit statement individual account plan must also provide value investment asset individual account allocated benefit statement individual account plan permit participant investment direction must also include explanation limitation restriction right participant beneficiary plan direct inv estment explanation importance wellbalanced diversified portfolio including statement risk holding percent portfolio security entity employer security may adequately diversified notice directing participant beneficiary internet website department labor source information individual investing diversification see erisa participant beneficiary general least quarter individual account plan permit participant direct investment least year case individual account plan permit participant direct investment least every three year case defined benefit plan alternative defined benefit plan satisfy requirement least ear administrator provides notice availability pension benefit statement way obtain statement addition plan administrator defined benefit plan must furnish benefit statement participant beneficiary upon written request limited one request month period addition plan administrator individual account plan must furnish benefit statement upon request beneficiary receive statement automatically limited one request month period statement accrued nonforfeitable benefitsstatements total accrued benefit total nonforfeitable pension benefit accrued earliest date benefit become nonforfeitable see erisa participant plan administrator shall provide statement participant upon request upon termination service employer participant ear break service one statement shall required month period statement provided upon request one statement shall required respect consecutive ear break service document type information whendocument document type informationtype information suspension benefit notice notice benefit payment suspended certain period employment reemployment see cfr prescribed requirement employee whose benefit suspended first month payroll period withholding benefit payment occurs notice transfer excess pension notification transfer defined benefit employer sponsoring pension plan notice must given later asset retiree health plan excess asset retiree health benefit transfer made must give notice day date transfer benefitaccount account see erisa e prescribed requirement secretary labor treasury employee organization representing plan participant plan administrator plan administrator must notify participant beneficiary plan employer notice also must available inspection principal office administrator domestic relation order dro notification plan administrator participant alternate payee ie administrator upon receipt dro qualified domestic relation regarding receipt dro upon spouse former spouse child must promptly issue notice order qdro notice determination whether dro qualified information see erisa ebsa booklet qdros division retirement benefit qualified domestic relation order dependent participant named dro right receive portion participant plan benefit including plan procedure determining qualified status second notice regarding whether dro qualified must issued within reasonable period time receipt dro notice significant reduction notice plan amendment defined participant alternate payee except provided regulation future benefitaccruals benefit plan certain defined qdro contributing employer certain prescribed secretary contribution plan provide employee organization treasury notice must provided significant reduction rate future within reasonable time generally benefit accrual elimination day eective date plan significant reduction early retirement amendment subject erisa see benefit retirementtype subsidy see h erisa irc f cfr f information notice failure meet minimum funding standard notification failure make required installment plan contribution satisfy minimum funding standard within day contribution due date applicable multiemployer plan see erisa information participant beneficiary alternative payee qdros must furnished within reasonable period time failure notice required funding waiver requested timely manner waiver denied notice must provided within day denial section c plan disclosure investmentrelated certain disclosure participantdirected individual account plan described cfr c including blackout notice participantdirected individual account plan described erisa section caii described special rule apply qualified investment option erisa section cc participant beneficiary applicable certain information furnished participant beneficiary time investment instruction made certain information must furnished upon request document type information document type information whendocument document document type informationtype informationtype information notice blackout period notification period participant beneficiary individual generally least day individual account plan consecutive business day temporary suspension limitation restriction individual account plan directing diversifying plan asset obtaining loan obtaining distribution account plan aected blackout period issuer aected employer security held plan day advance notice see erisa cfr forfurther information notice requirement advance notice participant p articipants beneficiary whose initial notice must furnished least qualified default investment alternative notice beneficiary describing circumstance contribution asset invested behalf qualified default investment alternative investment objective qualified default inv estment alternative right participant beneficiary direct investment qualified default investment alternative see cfr c see also erisa ebehalf investment qdia may made day advance date plan eligibility least day advance date first investment qualified default investment alternative behalf participant beneficiary date plan eligibility participant opportunity make permissible withdrawal within first day annual notice requirement within reasonable period time least day advance subsequent plan year see cfr c automatic contribution arrangement notice plan administrator automatic contribution arrangement shall provide notice erisa e generally notice shall inform participant right obligation arrangement participant arrangement applies see erisa e plan administrator automatic contribution arrangement shall within reasonable period plan year provide notice see erisa e annual funding notice basic information status financial condition defined benefit pension plan including plan funding percentage asset liability demographic information regarding active retired separated service participant funding policy endangered critical critical declining participant beneficiary receiving benefit alternate payee receiving benefit labor organization representing participant plan employer multiemployer plan party collective bargaining agreement pursuant plan maintained would subject withdrawal liability later day plan year large plan small plan fewer participant day plan year preceding notice year must furnish notice later earlier date annual report filed latest date annual report must filed including extension status explanation event material eect liability asset rule termination insolvency description benefit guaranteed pbgc annual report information information disclosed pbgc applicable additional information plan administrator elect include see erisa f cfr pbgc use irs sample automatic enrollment notice posted irs website may used satisfy two notice requirement see field assistance bulletin question document type information document type information whendocument document document type informationtype informationtype information multiemployer plan summary report certain financial information contribution schedule benefit formula number employer obligated contribute number participant whose behalf contribution made specified period time number withdrawing employer withdrawal liability see erisa employee organization employer obligation contribute plan within day due date annual report multiemployer pension plan information made available request copy periodic actuarial report quarterly semiannual annual financial report amortization extension application see erisa k cfr participant beneficiary receiving benefit labor organization representing participant plan employer obligation contribute plan within day written request requester entitled receive one copy report application month period see erisa k multiemployer plan notice potential withdrawal liability estimated amount employer withdrawal liability estimated liability determined see erisa l employer obligation contribute plan generally within day written request notice fundingbased limitation plan administrator singleemployer multiple employer defined benefit plan must provide notice specified fundingbased limit benefit accrual benefit distribution see erisa j participant beneficiary generally within day plan becomes subject specified fundingbased limitation well time determined secretary treasury see irs notice notice right divest notice right sell company stock reinvest proceeds investment available plan notice also must describe importance diversifying investment retirement account asset see erisa irs notice provides model notice participant alternate payee account plan beneficiary deceased participant see erisa j later day first date individual eligible exercise right see erisa disclosure required fiduciary safe harbor automatic rollover individual retirement plan certain mandatory distribution exceeding order qualify safe harbor plan fiduciary must furnish participant summary plan description spd summary material modification smm describes plan automatic rollov er provision including explanation participant subject mandatory distribution fails make election regarding form benefit distribution participant account balance rolled individual retirement plan see cfr separating participant subject mandatory distribution internal revenue code disclosure spd smm must provided mandatory distribution made sufficient provided conjunction notice required code section f must provided plan participant less day day date distribution see irs notice document type information whennotice plan termination pursuant p articipants beneficiary terminated notice given safe harbor distribution individual account plan winding process erminated individual plan termination p articipants account plan plan fiduciary including qualified termination administrator must provide notice participant beneficiary plan termination distribution option procedure make election addition notice must provide information account balance explain known fee paid participant beneficiary retirement plan provide name address telephone number individual retirement plan provider known plan administrator fiduciary information termination may obtained see cfr beneficiary hav e day receipt notice elect form distribution notice critical endangered sponsor multiemployer defined participant beneficiary bargaining status benefit pension plan must provide notice plan critical endangered status plan critical declining status plan critical status funding liquidity problem notice must include explanation possibility certain adjustable benefit may reduced see irc party pbgc department labor later day plan actuary annual certification actuary certifies plan critical endangered status model critical status notice see dolgov agenciesebsaaboutebsaouractivities publicdisclosurecriticalstatusnotices participant plan inv estment fee disclosure plan administrator must furnish information administrative investment cost participation ktype plan includes general information mechanic structure plan give investment direction information plan administrative cost eg recordkeeping legal individual charge may assessed participant loan qdros etc also includes comparative chart information plan investment option including investment fee expense performance benchmark data active website address supplemental investment information glossary term assist participant understanding plan investment option see cfr agenerally participant beneficiary authority direct investment individual account plan general information plan potential administrative individual cost well comparative chart key information plan investment option must furnished annually least month period least quarterly basis participant must receive statement dollar amount administrative individual fee charged account information may certain circumstance included plan spd participant periodic pension benefit statement document type information whenplan service provider disclosure certain plan service provider must provide detailed information compensation direct indirect receive providing service pension plan service provider also may hav e furnish information assist plan complying erisa reporting disclosure requirement eg form annual report participant plan investment fee disclosure see cfr bc definition whichservice provider must comply specific disclosure must furnished plan fiduciary responsible hiring pension plan service provider generally disclosure must furnished plan fiduciary reasonably advance entering contract arrangement service provider see cfr bc provision change update previously disclosed information must furnished service provider overview basic pbgc reporting disclosure requirement section pension insurance premium covered singleemployer multiemployer defined benefit plan erisa cfr part document type information comprehensive premium filing annual premium payment supporting data plan pbgc th day th calendar month begin st day premium payment year section standard termination covered singleemployer defined benefit plan erisa cfr part document type information notice intent terminate advises proposed termination provides information termination process participant beneficiary alternate payee union least day proposed termination date possible insurer known time supplemental notice later day distribution date form standard termination notice advises proposed termination provides plan data pbgc later day proposed termi</t>
   </si>
   <si>
-    <t>program insurance institute business home safetyemergencysevereweathersevere weather emergency preparedness response planningprepared insurance institute business home safety ibhs independent nonprofit scientific research communication organization supported property insurance industry ibhs work reduce social economic effect natural disaster risk residential commercial property conducting building science research advocating improved construction maintenance preparedness practicesa program insurance institute business home safetyemergencysevereweather ezprep overview many business prepared respond manmade natural disaster statistic show business close disaster least never reopens small business particularly risk likely operation concentrated one location could damaged destroyed help keep small business open business ibhs developed severe weather emergency preparedness response planning toolkit designed standalone guide along customizable checklist used small business build plan responding operational disruption also complement ibhs ofbez program simpletouse business continuity program focus recovering initial emergency response disastersafetyorgibhsbusinessprotectionofbezbusinesscontinuity best prepared business implement program protect business bottom linescontents emergency preparedness response plan get prepared discover risk life safety offseason day incident hour incident hour incident immediately incident recovery incident longerterm planning repair supply checklist easy way prepare business unexpected program insurance institute business home safetyemergencysevere weather ezprepwhy create emergency preparedness response plan every business want stay business plan prepare respond severe weather emergency plan poorly prepared misunderstood plan lead disorganized preparation confused response possibility harm employee facility equipment operation highest priority employee safety also important reduce property damage economic loss plan save time focus energy facing imminent crisis responding one could foreseen advance addition planning severe weather threatens entire region preparedness response plan also created nonweatherrelated threat hazard specific one business water damage leaking bursting pipe small fire power outage included emergency preparedness response plan plan include best practice taken emergency along action address unique challenge specific business facility operation risk face addition severe weather plan also important consider nonweatherrelated threat risk stem nature business hot work operation metalworking woodworking manufacturing flammable liquid handling storage plastic storage cooking equipment refrigeration system businessrelated risk greatest concern business know risk exercise ofbez toolkit assist determining threat likely affect business taking account frequency likelihood event occur severity amount damage event capable causing business business plan highest ranking threat soon possible next step inspect vulnerable area building envelope roof window wall door surrounding premise worksite layout emergency system ensure plan protects vulnerable asset operation analysis also may help identify way streamline planning process time money perspective basic organizational task completed next step identify implement step needed protect people property storm many type natural hazard tracked monitored allows least preparedness planning however case emergency planning help make business resilient better able withstand even event happens without warningwhat emergency preparedness response plan way organizing implementing action prevent reduce damage natural disaster extreme event program insurance institute business home safetyemergencysevere weather ezprep create severe weather type emergency preparedness response plan based guide recommendation type business available resource use customizable checklist template downloaded disastersafetyorgwpcontentuploadsezprepchecklisttemplateibhsxls create plan including preparedness recovery action task team member responsibility alert level etc fit business building need ideally emergency planning month priority however minimum week start severe weather season area good time refocus effortsnatural disaster season geographic location severe winter weather nov mar northeast midwest mountain west northwest high elevation southeast midatlantic flooding mar june northwest mountain west northwest midwest flash flooding yearround nationwide tornado mar june midwest southeast southwest midatlantic hurricane june nov gulf coast atlantic seaboard state thunderstorm lightningmar sept central plain southeast midatlantic southwest hailstorm mar september east rockies wildfire mar june southeast june nov mountain west pacific west southwestunited state natural disaster severe weather season get prepared easy way prepare business unexpected program insurance institute business home safetyemergencysevere weather ezprepdiscover risk help identify natural hazard may affect business use ibhs zip code tool disastersafetyorg enter zip code select go see severe weather risk location select specific risk get free disaster preparedness resource including practical specific measure business business owner take help minimize impact disaster program insurance institute business home safetyemergencysevere weather ezprep life safety completed life safety tasksprimary staff responsiblealternate staff responsible create procedure employee report emergency fire alarm dialing calling internal emergency number etc create medical emergency procedure perform extent whether business rely fire department ambulatory service provide service create evacuation procedure appoint lead team charge developing evacuation plan including evacuate route take including floor plan exit diagram action employee take evacuating shutting window turning equipment closing door behind plan also include procedure account employee evacuationeg sweep area check office restroom conduct roll call assembly area etc create shelterinplace procedure action employee take sheltering create life safety equipment maintenance procedure aed personal protection equipment etc insert additional row specific action item taskslife safety come first business owner manager promote encourage disaster safety personal preparedness among employeesfor example posting material workplace encouraging employee create family disaster plan conducting educational training program effort conducted online facetoface brochureshandouts video etc emergency preparedness response plan include following safety procedure task assigned either titleposition individual along alternate assignment reviewed updated annuallylife safetya program insurance institute business home safetyemergencysevere weather ezprep completed offseason month month tasksprimary staff responsiblealternate staff responsible create emergency response team including chain command current list telephone number contact emergency plan team member local police fire department utility contractor hvac contractor electrician plumber building owner applicable etc create checklist employee specifically assigned responsibility sure assign primary alternate actiontask designate knowledgeable person responsible monitoring news weather disseminating weather update assemble needed supply emergency supply kit first aid kit employee remain site safe condition ensure proper supply food bedding life safety equipment included sure reinspect replenish supply annually actual emergency create emergency shutdown startup procedure appropriate personnel component computer system special equipment refrigeration system etc building system electric system gas utility system hvac boiler review procedure annually establish relationship advance thereafter revisit relationship local reliable contractor available poststorm building repair inspect building envelope roof cover flashing window wall warehouse door conduct repair located flood storm surge zone determine water entry point document flood protection technique inspect conduct repair surrounding ground ensure proper site drainage including ground drain gutter facilitate water runoffoffseason every region county risk severe weather least season year ideally emergency planning considered month priority even case week start severe weather season area good time refocus effort program insurance institute business home safetyemergencysevere weather ezprep completed offseason month month tasksprimary staff responsiblealternate staff responsible backup power diesel generator used test system establish proper contract fuel supplier emergency fuel delivery maintain fire sprinkler system fire extinguisher smoke detector consider fire protection system monitored fire department immediately notified sprinkler activated inspect replenish critical spare part inventory consider replacement contingency ie equipment leasing contract plan critical business equipment cause bottleneck business operation may take extensive time replace production facility back capability adding additional production line shift outsourcing etc create system communicate emergency message template business website telephone recording social medium site company intranet employee communication etc maintain list local radio tv station event business need broadcast information closingsreopenings create disseminate payroll policy event office closing due emergency consider document record report hard copy electronic copy safeguarded including storing firerated cabinet relocating record ground level bolting cabinet earthquake area transferring site location backing distant location etc insert additional row specific action item tasksoffseason conta program insurance institute business home safetyemergencysevere weather ezprep day incident completed day incident tasksprimary staff responsiblealternate staff responsible needed secure equipment cabinet fixture vulnerable approaching event inspect roof ground loose debris may become hazard high wind staff temporary help available begin removal debris otherwise removal may done hour interval notify employee potential severe weather instruct prepare possible implementation emergency plan ensure employee business designated emergency telephone number key contact information important document employee emergency wallet card telephone call tree list etc insert additional row specific action item tasksa program insurance institute business home safetyemergencysevere weather ezprep hour incident completed hour incident tasksprimary staff responsiblealternate staff responsible check roof equipment air conditioner fan housing satellite dish antenna sign mount secure damage heavy wind inspect repair roof edge flashing clear roof drain gutter downspouts debris prevent water backup remove secure loose ground item including landscaping may become windborne debris secure garbage can outdoor furniture sign awning flag flagpole tool clean debris outdoor perimeter drain especially area water may collect shipping receiving area ground slope toward building ensure fire protection system proper working order fill emergency generator fuel contact fuel supplier anticipated need poststorm delivery review message template business website telephone recording employee communication intranet etc advise employee begin checking employee emergency hotline business website company intranet etc update status officefacility instruct employee laptop take home end day confirm connect business server home addition instruct employee fully charge cell phone common device ensure power cord car charger insert additional row specific action item tasksa program insurance institute business home safetyemergencysevere weather ezprep completed hour incident tasksprimary staff responsiblealternate staff responsible make decision close officefacility excuse employee sufficient time prepare home family notify employee office closure detail notify key customer supplier partner officefacility closing ie usps fed ex ups cleaning service building management vendor shipper etc hurricane highwind event install window protection eg permanent shutter plywood panel tape never used protect pressure flying debris window protection unavailable close window blind cover office equipment plastic sheet tarp disconnect electrical equipment unplug power source building potential exposed flooding storm surge seal water entry point ie utility penetration building install flood protection including firstfloor drain plug raise equipment furniture expected flood level height elevate relocate critical record computer equipment alternate site possible employee remain site make sure safe secure area designated advance condition permit instruct monitor document minimize leak water infiltration critical area vital equipment expecting delivery contact sendershipper inform officefacility closure make sure employee call tree responsibility updated version company telephone call list multiple format hard copy electronically etc instruct employee change voicemail turn email office notification indicate officefacility closed due weather etc customize message template message post business website social medium site company intranet record outgoing message business main telephone line employee emergency hotline etc hour incidenta program insurance institute business home safetyemergencysevere weather ezprep hour incident cont completed hour incident tasksprimary staff responsiblealternate staff responsible advise employee check status officefacility least twice per day place closed notice officefacility main entrance including instruction find information online phone conduct full partial shutdown procedure close lock office door especially perimeter office insert additional row specific action item task immediately incident completed immediately incident tasksprimary staff responsiblealternate staff responsible building occupied alarm system loses power arrange alternate security activate company telephone call tree process contact employee regarding status business officefacility update employee emergency hotline company intranet social medium business website posting status business operation designate time key staff member call conference call situation overview insert additional row specific action item tasksa program insurance institute business home safetyemergencysevere weather ezprep completed recovery incident tasksprimary staff responsiblealternate staff responsible authorize employee assigned recovery responsibility return facility assess condition document damage notify business owner key manager etc finding deemed safe authorize employee assigned startup responsibility begin documented startup procedure take overall inventory including photo damaged property report damage related expense insurance company possible necessary protect building equipment furniture damage instruct employee returning building examine work area test office equipment report finding back designated staff contact notify key customer supplier partner officefacility reopening necessary property operational change resulting storm damage safety operational concern addressed provide clear employee return work insert additional row specific action item tasksrecovery incidenta program insurance institute business home safetyemergencysevere weather ezprep business get major disruption important remember next catastrophe occur time time begin inspecting building premise initiating repair building envelope making improvement help reduce damage future ibhs provides wealth resource strengthening building natural hazard disastersafetyorgfortifiedsaferbusiness disastersafetyorgibhsbusinessprotection also time hold debrief meeting review procedure solicit input employee successful document shortcoming emergency plan compile log action taken incorporate improvement plan future employee ability safeguard business emergency reflects understanding overall plan responsibility practice offseason everyone prepared next storm hit plan must implemented completed longterm planning repair tasksprimary staff responsiblealternate staff responsible hold debrief meeting noting success failure compile log action taken incorporate improvement plan insert additional row specific action item task importance training exercising plan checklist completed review train rehearse employee fulfill role responsibility emergency preparedness response plan kept secret shared entire staff feedback encouraged throughout entire process employee included process made aware plan desire equipped assist recovery event approaching storm type business interruption every employee know role expected exercise plan annually incorporate feedback gap lesson learned annual update distribute plan checklist paper electronic format employee business office emergency disaster kit part developing emergency preparedness response plan assembly maintenance businessoffice emergency disaster kit supply disaster may require employee shelterinplace time emergency personnel may need stay site order protect property building essential item water food communication tool hygiene sanitation first aid supply could critical avoiding injury employee reducing damage business use suggested item supply list help assemble emergency preparedness response supply may neededlongerterm planning repairsa program insurance institute business home safetyemergencysevere weather ezprep ezprep supply checklist download disastersafetyorgwpcontentuploadsezprepsupplychecklistibhsxls completed longterm planning repair task typequantity neededquantity presentdate checked equipment battery batterypowered item tv lantern personal fan etc boot bungee cord camera digital disposal andor smartphone camera communication device twoway radio satellite radio cell phone charger weather radio electrical lockouttagout kit extension cord indoor outdoor fire extinguisher floor drain plug fuel can generator fuel hard hat hose rope safety harness shop vacuum wetdry steel cable turn buckle strap tape duct masking electrical cloth caution etc tarpaulin waterresistant fireretardant etc tool plier hammer gas wrench wrench screwdriver nail handsaw staple gun staple etc utility knife yard equipment ax blower hatchet pruner trimmer chainsaw etcsupply checklista program insurance institute business home safetyemergencysevere weather ezprep completed longterm planning repair task typequantity neededquantity presentdate checked cleanup bleach broom mop bucketspails disinfectant eye protection safety goggles glove leather nitrile rubber latex etc ladder rake shovel spill kit towel paper cloth rag etc waste drum shel terinplace batterypowered handcrank radio noaa weather radio tone alert extra battery bedding blanket opener manual cooler ice disposable plate cup eating utensil drinking water nonbreakable container dust mask help filter contaminated air plastic sheeting duct tape shelterinplace firstaid kit flashlight food least threeday supply nonperishable food hand sanitizer local map plastic bag ziptop trash etc toiletry manual opener foodsupply checklist conta program insurance institute business home safetyemergencysevere weather ezprep completed longterm planning repair task typequantity neededquantity presentdate checked moist towelettes garbage bag plastic tie personal sanitation water one gallon water per person per day least three day drinking sanitation whistle signal help stormflood protection sand sand bag sealant expandable polyurethane caulk caulk gun etc sump pump wood plywood lumber etc insert additional row specific needed supply supply suggested readygovsupply checklist cont easy way prepare business unexpected program insurance institute business home safetyemergencysevere weather ezprepnotes easy way prepare business unexpected program insurance institute business home safetyemergencysevere weather ezprepnotes insurance institute business home safety download document httpdisastersafetyorgwpcontentuploadsezprepibhspdfa program insurance institute business home safetyemergencysevere weather ezprep</t>
-  </si>
-  <si>
     <t>effective january associate benet book summary plan descriptionyour associate benet book summary plan description medical plan dental plan pharmacy benet life insurance disability plan associate stock purchase plan walmart k plan much whats inside walmart store inc effective january associate benet book summary plan descriptionyour associate benet book summary plan description medical plan dental plan pharmacy benet life insurance disability plan associate stock purchase plan walmart k plan much whats inside walmart store inc want learn go eligibility enrollment eligibility benet associate hawaii eligibility benet associate massachusetts medical plan pharmacy benet health saving account dental plan cobra resource living critical illness insurance accident insurance companypaid life insurance optional life insurance dependent life insurance accidental death dismemberment insurance business travel accident insurance short term disability short term disability plus longterm disability truck driver longterm disability associate stock purchase plan walmart k plan claim appeal legal information glossary term information made easy associate benet book make easy quickly get information need walmart benet got question walmart benet download associate benet book pdf wire mywalmartcom getting answer easy two click word search nd information need simply launch pdf adob e reader click edit top tool bar click search type word phrase describe information youre looking checkup vesting click search youll get instant result question call go youre eligible benet enroll walmart benet customer service tdd hearing impaired visit mywalmartcom medical claim call phone number insurance id card mywalmartcom wire work medical prenoticationbehavioral health prenotification find network provider mywalmartcom wire work pharmacy benet medco health saving account bny mellon u bank dental claim delta dental shortterm disability shortterm disability plus longterm disability truck driver longterm disabilitythe hartford accident insurance critical illness insuranceallstate benefit companypaid life optional life dependent life accidental death dismemberment add insurance business travel accidentprudential life baby maternity program ask mayo clinic nurse line call hour day day week resource living call hour day day week walmart k plan merrill lynch associate stock purchase plan computershare mywalmartcom tdd hearing impaired associate benet book associate benefit book includes summary plan description spds associate health welfare plan plan walmart k plan please take time review spd understand benefit information obtained call walmart store inc plan service provider waive provision limitation plan information given statement made call email guarantee payment benefit addition benefit quote given phone based wholly information supplied time additional relevant information discovered may affect payment claim benefit subject eligibility payment premium limitation exclusion outlined applicable plan document including insurance policy request copy document governing plan writing custodian record benefit customer service sw th street bentonville ar atencin asociados hispanos este folleto contiene un resumen en ingls de los derechos beneficios para todos los asociados bajo el plan de beneficios de walmart si ud tiene dificultades para entender cualquier parte de este folleto puede dirigirse la siguiente direccin benefit customer service benefit customer service sw th street bentonville ar puede llamar para cualquier pregunta al tenemos asociados quienes hablan espaol pueden ayudarles ud comprender sus beneficios de walmart el libro de beneficios para asociados esta disponible en espaol si usted desea una copia en espaol favor de ver su representante de personal indd pmeligibility enrollmenteligibility enrollment medicare become eligible medicare next month choice prescription drug coverage see page legal information chapter detail associate health welfare plan ssociate eligibility ependent eligibility ependents eligible l egal documentation dependent coverage w hen dependent becomes ineligible w hen enroll benefit w hen coverage effective p aying benefit tobaccofree rate benefit continuation go leave absence changing benefit year status change event making status change event change job classification change qualified medical child support order qmcso plan coverage end find seeindd pmquestions log mywalmartcom wire call benet customer service eligibility enrollment associate benefit book need know eligibility enrollment c e nroll uring nitial e nrollment p eriod n ewly h ired ssociate uring nnual e nrollment status change event initial enr ollment per iod beg in depends job classifica tion change job classifica tion change associate hawaii massachusetts eligibility benefit information explained eligibility benefit associate hawaii eligibility benefit associate massachusetts chapter read chapt er lear n ou need enr oll ho w enr ollment c ertain benefit lif e insur ance disability benefit initial enrollment period affect participation benefit medical den tal cr itical illness insur ance ac cident insur ance ac cidental dea th dismember ment add coverage changed except annual enrollment unless status change eventeligibility enrollment eligibility enrollment resource find w hat ou n eed online r esources enroll walmart benefit wire mywalmartcom call benefit customer service notify b enefits c ustomer ervice w ithin day status change event dependent losing eligibility plancall benefit customer service notify b enefits c ustomer ervice f payroll deduction benefit incorrectcall benefit customer service reinstate coverage upon return military leavecall benefit customer service pay premium benefit leave absencesend check money order payable associate health welfare trust benefit customer service po box department lowell ar please sure include name insurance id number found insurance id card facility number payment ensure proper credityou ay lso p ay b c redit c ard calling selecting credit card payment option eligibility enrollment seeindd pm question log mywalmart com wire call benet customer service associate health welfare plan associate health welfare plan plan single comprehensive employee benefit plan offer medical dental critical illness insurance accident insurance add business travel accident insurance life insurance disability resource living employee assistance wellness coverage eligible associate eligible dependent eligibility benefit described chapter term condition benefit described applicable chapter associate benefit book plan sponsored walmart store inc governed employee retirement income security act erisa amended associate hawaii massachusetts also read eligibility benefit associate hawaii eligibility benefit associate massachusetts chapter associate eligibility benefit eligible depend hire date classification company walmart store inc payroll system see enrollment eligibil ity effective date job classification section chapter list benefit eligible benefit eligibility waiting period based job classification expectation apply enroll benefit using correct accurate information may subject loss benefit andor loss employment review walmarts policy inten tional dishonesty please refer statement ethic found wire fulltimeparttime associate classification hired january hired january classification follows work average hour per week classified fulltime eligible full time benefit work average hour per week classified parttime eli gible parttime benefit work average less hour per week classified parttime ineligible enroll benefit classified parttime truck driver exempt hour requirement fulltimeparttime associate classification hired january hired january classified fulltime must regularly work following hour hour per week hired prior september hour per week hired andor classified fulltime management september december hour per week hired andor classified fulltime management january classified parttime regularly work less hour outlined associate currently within hourperweek requirement grandfathered requirement regardless transition parttime associate within hourperweek requirement change status fulltime management parttime back fulltime subject hourperweek requirement associate change status fulltime management back fulltime must maintain hour per week requirement based original hire date field logistics hourly pharmacist classified fulltime company payroll system exempt hourperweek requirement salaried status regardless hire date hourly associate associate position may qualify benefit eligibility waiting period management associate job description hourly associate sub stantially management associate walmart participating subsidiary state law mandate position classified hourlyquestions log mywalmart com wire call benet customer service associate benefit bookeligibility enrollment temporary ineligible associate temporary ineligible associate eligible resource living business travel accident insurance benefit special eligibility rule certain insured benefit hmo plan available facility policy hmo plan well insurance policy dependent life insurance add insurance may different eligibility requirement described chapter may obtain explanation difference calling plan apply eligibility requirement described chapter unless contact benefit customer service number request different eligibility provision policy applied example state law may require insurance policy include different eligibility provision relating dependent allowing coverage dependent child age coverage domestic partner recognized state localized associate associate approved company localized status dependent residing united state eligible benefit plan associate united state citi zen residing working united state includ ing medical dental life disability benefit available united state associate plan localized associate applicable dependent longer eligible expatriate coverage plan medical benefit eligible depen dent localized associate resides outside united state eligible dependent may choose utilize bluecard worldwide network available utilize local provider medical benefit paid covered expense processed network claim subject otherwise applicable limitation exclu sion plan localized associate eligible dependent must file claim reimbursement plan otherwise applicable claim proceduresassociates eligible eligible plan even may reclassified court irs department labor commonlaw employee walmart store inc participating subsidiary leased employee nonresident alien unless covered specific insurance policy expatriate thirdcountry national employed company independent contractor consultant classified associate walmart store inc participating subsidiary enrolled medicare part applicable eligibility medical plan option plan also excluded covered collective bargaining agreement extent agreement provide participation associate health welfare plan dependent eligibility eligible dependent limited legal spouse opposite gender long legally separated parttime associate may cover eligible child may cover spouse medical benefit parttime truck driver may cover eligible child may cover spouse medical benefit dependent age natural child adopted child child placed adoption stepchild foster child someone legal custody legal guardianship provided related living member household provide half support question log mywalmartcom wire call benet customer service enrolled hmo dependent life area supported hmo may still enroll dependent heshe would access hmo plan provider geographic area may emergency coverage unsure dependent life outside hmo coverage area call hmo number listed plan material find ay c hange c overage p lan f b oth ou nd ependents special enrollment annual enrollment period dependent must enrolled coverage plan child incapable selfsupport coverage eligible child may continued beyond th birthday child ph ysically men tally incapable self suppor child c overed elig ible dependen walmartsponsored medical dental plan criti cal illness insurance accident insurance add dependent life insurance prior th birthday child doc tor pr ovides wr itten medical evidenc e disability inability provide selfsupport dependent eligible ependent n ot e ligible u nder c overage f h e r covered b p lan associa te w almart associa te may either covered associate covered dependent time except optional dependent life insurance add coverage covered b p lan dependen another associa te walmart except dependent life insur ance add coverage enrolled edicare p art applicable elig ibility f medical plan option plan residing outside unit ed tate e xcept dependen t attending college fulltime outside united state covered specific policy expatriate thirdcountry national employed company statement apply dependent life insurance dependent localized associate illegal immig rant elig ible dependen defined abo legal documentation dependent coverage ay b e r equired p rovide l egal ocumentation prove eligibility dependent plan reserve right conduct verification audit require associate provide written documentation proof dependent eligibility upon request associate responsibility provide written documentation requested plan necessary documentation provided time frame requested plan right cancel dependent coverage requested documentation received associate responsibility notify plan change dependent eligibility dependent becomes ineligible ust n otify b enefits c ustomer ervice w ithin ays date dependent becomes ineligible coverage plan calling ependent ust e lect c onsolidated mnibus b udget reconciliation act cobra continuation coverage within day event date resulted loss eligibility order qualify cobra coverage see cobra chapter information regarding cobra failure notify plan dependent becomes ineligible coverage may considered intentional misrepresentation material fact could cause coverage rescinded case may responsible charge mistakenly paid plan dependent becomes ineligible refund associate premium contribution granted notify benefit customer service seeindd pmquestions log mywalmartcom wire call benet customer service associate benefit bookeligibility enrollment enroll benefit completed eligibility waiting period see chart later chapter find one applies job classification information enroll benefit uring nitial e nrollment p eriod w hich rst ime eligible enroll timing initial enrollment period vary job classification change job classification change nnual e nrollment f ssociates w hich u sually occurs fall year benefit enroll annual enrollment generally effective january next year however enroll optional life insurance dependent life insurance annual enrollment coverage effective day prudential approves end eligibility waiting period whichever later could january next year addition choose enroll shortterm disability shortterm disability plus longterm disability annual enrollment oneyear wait date enroll endofyear pay period cover prior new year deduction reflect deduction amount prior year december new deduction amount new year prorated number day covered january end pay period tatu c hange ev ent allo w ou make change coverage outside annual enrollment accordance federal law associate hawaii massachusetts eligibility benefit information explained eligibility benefit associate hawaii eligibility benefit associate massachusetts chapter eligible enroll initial enrollment period eligible follow ing benefit next annual enrollment period unless status change event medical dental hmo plan vailable critical illness insur ance accident insur ance accidental dea th dismember mentnote hat ome h mo h ave ifferent e ligibility requirement see medical plan chapter information eligible enroll initial enrollment period may still enroll following benefit year going online wire mywalmartcom however enroll benefit initial enrollment period benefit may reduced may additional waiting period may required provide proof good health optional lif e insur ance dependent lif e insur ance shortterm disabilit shortterm disabilit plus longterm disabilit truck dr iver longt erm disabilit proof good health includes completing question naire regarding medical history possibly medical exam proof good health questionnaire made available enroll confirming enrollment enroll coverage view confirmation statement wire mywalmartcom believe error regarding benefit enrolled immediately contact benefit customer service insur ance id car enroll hra plan hdp standard plan receive bluecross blueshield insurance id card home address id card dependent whose address different associate address sen dir ectly dependen t addr es insur ance id card also serve pharmacy id card enroll dental plan medical plan card also serve delta dental id card enroll hmo dental plan den tal plan receive separate delta dental id card home address c u pdate r ependents ddress w hile enrolling online time wire mywalmartcom seeindd pm question log mywalmartcom wire call benet customer service attempt enroll hour operation attempt enroll coverage hour operation wire mywalmartcom made contact benefit customer service final day initial annual enrollment period may enroll next business day however event able enroll part annual enrollment beginning plan year automatic reenrollment associate medical plan option currently medical coverage actively enroll annual enrollment automatically reenrolled coverage option described annual enrollment material posted online mywalmartcom wire annual enroll ment ou lso ay c b enefits c ustomer ervice information important note must actively complete online enrollment session mywalmartcom wire receive tobaccofree rate andor covered spouse eligible information see tobaccofree rate chapter ay c hange r rop c overage uring nnual e nrollment actively enroll annual enrollment automatically enrolled coverage plan able change coverage new plan year started january unless experience status change event next annual enrollment period reenroll annual enrollment deemed consented automatic reenrollment described section payroll deduction adjusted accordingly coverage effective chart following page show coverage b enefits b ecomes e ffective ou ust b e ctivelyat work day coverage effective coverage begin however activelyatwork day coverage medical dental critical illness insurance accident insurance add resource living benefit effective coverage benefit begin long reported first day work enrolled benefit enrollment required resource living benefit activelyatwork reason scheduled vacation effective date coverage coverage delayed return activework associate hawaii massachusetts eligibility benefit information explained eligibility benefit associate hawaii eligibility benefit associate massachusetts chapter activework activelyatwork medical dental critical illness insurance accident insurance add resource living coverage activelyatwork activework mean active status reported work walmart companypaid life insurance optional life insurance dependent life insurance business travel accident insurance shortterm disability shortterm disability plus longterm disability truck driver longterm disability coverage activelyatwork activework mean activelyatwork company day one scheduled work day performing regular duty job f ulltime b asis n hat ay ou w ill b e eemed b e ctivelyatwork day one sched uled work day activelyatwork preceding scheduled work day delay coverage leave absence coverage become effective coverage delayed return activework apply medical dental critical illness insurance accident insurance add resource living seeindd pmquestions log mywalmartcom wire call benet customer service associate benefit bookeligibility enrollment effective date benefit plan following enrollment eligibility effective date job classification chart provide coverage effec tive date enroll initial enrollment period enroll initial enrollment period may enroll annual enrollment experience status change event described changing benefit year status change event section later chapter associate hawaii massachusetts eligibility benefit information explained eligibility benefit associate hawaii eligibility benefit associate massachusetts chapter enrollment eligibility effective date job classification fulltime hourly associate day wait plan enrollment period effective date edical h mo p lan ental enrollment f wo full calendar year dd c ritical llness nsurance ccident nsuranceinitial enrollment period day date hire prior th day coverage effective st day continuous fulltime employment critical illness insurance enroll initial enrollment period coverage effective st day continuous fulltime employment amount elected outside initial enrollment period require proof good health available electronically complete online enrollment complete electronic proof good health questionnaire day date enroll coverage complete paper form sent allstate companypaid life insurance automatically enrolled st day date hire b usiness ravel ccident insurance r esources f l ivingautomatically enrolled date hire ptional l ife nsurance ependent l ife nsurance hortterm isability vailable n c alifornia nd rhode island different coverage vailable n h awaii n ew j ersey n ew ork hortterm isability p lu vailable n c alifornia nd r hode island l ongterm isabilityinitial enrollment periodbetween day date hire prior th day coverage effective enroll initial enrollment period guaranteed issue amount become effective enrollment date eligibility date whichever later complete proof good health coverage effective upon approval prudential benefit eligibility date whichever later optional dependent life insurance ay e nroll ny ime uring ear b ut p roof f g ood h ealth ay b e r equired std std p lu ltd ay e nroll ny ime uring ear b ut f ou e nroll ny ime ther han nitial enrollment period oneyear wait reduction benefit note hese b enefits r equire ou eet efinition f ctivework r ctivelyatwork ee act ivework activelyatwork section chapter information seeindd pm question log mywalmartcom wire call benet customer service fulltime hourly massachusetts associate day wait medical day wait benefit plan enrollment period effective date edical h mo p lansinitial enrollment period date rst paycheck prior th day date hire coverage effective enroll initial enrollment period st day continuous fulltime employment ental enrollment f wo full calendar year dd c ritical llness nsurance ccident nsuranceinitial enrollment period day date hire prior th day coverage effective st day continuous fulltime employment critical illness insurance enroll initial enrollment period coverage effective st day continuous fulltime employment amount elected outside initial enrollment period require proof good health available electronically complete online enrollment session complete electronic proof good health questionnaire day date enroll coverage complete paper form sent allstate companypaid life insurance automatically enrolled st day date hire b usiness ravel accident insurance r esources f l ivingautomatically enrolled date hire ptional l ife nsurance ependent l ife nsurance hortterm isability vail able california rhode island different coverage available n h awaii n ew j ersey nd n ew ork hortterm isability p lu vailable n c alifornia nd r hode island l ongterm isabilityinitial enrollment period day date hire prior th day coverage effective enroll initial enrollment period guaranteed issue amount become effective enrollment date eligibility date whichever later complete proof good health coverage effective upon approval prudential benefit eligibility date whichever later optional dependent life insurance ay e nroll ny ime uring ear b ut p roof f g ood h ealth ay b e r equired std std p lu ltd ay e nroll ny ime uring ear b ut f ou e nroll ny ime ther han nitial enrollment period oneyear wait reduction benefit note hese b enefits r equire ou eet efinition f ctivework r ctivelyatwork ee act ivework activelyatwork section chapter information seeindd pmquestions log mywalmart com wire call benet customer service associate benefit bookeligibility enrollment parttime hourly associate parttime truck driver day wait plan enrollment period effective date medical hmo plansinitial enrollment period day prior oneyear anniversary date prior oneyear anniversary date coverage effective th day continuous employment critical illness insurance accident insurancecritical illness insurance enroll initial enrollment period coverage effective th day continuous employment amount elected outside initial enrollment period require proof good health available electronically complete online enrollment session complete electronic questionnaire day date enroll coverage complete paper form sent allstate business travel accident insurance resource livingautomatically enrolled date hire note parttime associate parttime truck driver may cover eligible dependent child may cover spouse dental add optional life dependent life companypaid life disability coverage available parttime hourly associate parttime truck driver hired january must work required number hour see associate eligibility earlier chapterfulltime hourly vision center manager walmartcom functional nonexempt associate wait plan enrollment period effective date medical hmo plan dental enrollment two full calendar year add critical illness insurance accident insuranceinitial enrollment period date rst paycheck prior th day date hire coverage effective date hire critical illness insurance enroll critical illness insurance initial enrollment period cover age effective date hire amount elected outside initial enroll ment period require proof good health available electronically complete online enrollment session complete electronic proof good health questionnaire day date enroll coverage com plete paper form sent allstate companypaid life insurance automatically enrolled date hire business travel accident insurance resource livingautomatically enrolled date hire optional life insurance dependent life insurance shortterm disability available california rhode island different coverage available hawaii new jersey new york shortterm disability plus available california rhode island longterm disabilityinitial enrollment period date rst paycheck prior th day date hire coverage effective enroll initial enrollment period guaranteed issue amount become effective enrollment date complete proof good health coverage effective upon approval prudential optional dependent life insurance may enroll time year proof good health may required std std plus ltd may enroll time year enroll time initial enrollment period oneyear wait reduction benefit note benefit require meet definition activework activelyatwork see ctivework activelyatwork section chapter information question log mywalmartcom wire call benet customer service fulltime hourly pharmacist excludes california pharmacist fulltime hourly field logistics associate fulltime hourly field supervisor position store club day wait plan enrollment period effective date edical h mo p lan ental enrollment f wo full calendar year dd c ritical llness nsurance ccident nsuranceinitial enrollment period date rst paycheck prior th day date hire coverage effective enroll initial enrollment period st day continuous fulltime employment critical illness insurance enroll initial enrollment period coverage effective st day continuous fulltime employment amount elected outside initial enrollment period require proof good health available electronically complete online enrollment session complete electronic proof good health questionnaire day date enroll coverage complete paper form sent allstate companypaid life insurance automatically enrolled st day date hire b usiness ravel ccident insurance r esources f l ivingautomatically enrolled date hire ptional l ife nsurance ependent l ife nsurance hortterm isability vailable n c alifornia nd rhode island different coverage available hawaii new j ersey nd n ew ork hortterm isability p lu vailable n c alifornia nd r hode island l ongterm isabilityinitial enrollment period date rst paycheck prior th day date hire coverage effective enroll initial enrollment period guaranteed issue amount become effective enrollment date eligibility date whichever later complete proof good health coverage effective upon approval prudential benefit eligibility date whichever later optional dependent life insurance ay e nroll ny ime uring ear b ut p roof f g ood h ealth ay b e r equired std std p lu ltd ay e nroll ny ime uring ear b ut f ou e nroll ny ime ther han nitial enrollment period oneyear wait reduction benefit california pharmacist eligible benefit listed chart management associate later chapter n ote hese b enefits r equire ou eet efinition f ctivework r ctivelyatwork ee act ivework activelyatwork section chapter information temporary ineligible associate parttime associate hired january work required number hour benefit eligibility plan enrollment period effective date b usiness ravel ccident insurance r esources f l ivingautomatically enrolled date hire note emporary ssociates n ot e ligible f ny ther b enefits ncluding c ompanypaid l ife nsurance nd isability seeindd pmquestions log mywalmartcom wire call benet customer service associate benefit bookeligibility enrollment management associate management trainee california pharmacist fulltime truck dr ivers w ait plan enrollment period effective date edical h mo p lan ental enrollment f wo full calendar year dd c ritical llness nsurance ccident nsuranceinitial enrollment period date rst paycheck prior th day date hire coverage effective ate f h ire critical illness insurance enroll initial enrollment period coverage effective date hire amount elected outside initial enrollment period require proof good health available electronically complete online enrollment session complete electronic proof good health questionnaire day date enroll coverage complete paper form sent allstate companypaid life insurance automatically enrolled date hire b usiness ravel ccident insurance r esources f l ivingautomatically enrolled date hire ptional l ife nsurance ependent l ife nsurance l ongterm isability ruck river longterm disabilityinitial enrollment period date rst paycheck prior th day date hire coverage effective enroll initial enrollment period guaranteed issue amount become effective enrollment date complete proof good health coverage effective upon approval prudential optional dependent life insurance ay e nroll ny ime uring ear b ut p roof f g ood h ealth ay b e r equired ltd ay e nroll ny ime uring ear b ut f ou e nroll ny ime ther han nitial enrollment period oneyear wait reduction benefit truck driver ltd ay e nroll ny ime uring ear b ut f ou e nroll ny ime ther han nitial e nrollment p eriod ou w ill b e r equired p rovide p roof f g ood h ealth ou w ill h ave reduction benefit one year percent average monthly wage percent std std plus available management associate management trainee fulltime truck driver california pharmacist note hese b enefits r equire ou eet efinition f ctivework r ctivelyatwork ee ctivework activelyatwork section chapter information seeindd pm question log mywalmartcom wire call benet customer service paying benefit payroll deduction withheld walmart paycheck pay benefit selection generally first paycheck effective date reflect deduction day coverage within pay period endofyear pay period cover prior new year deduction reflect amount prior year december new amount new year prorated number day covered january end pay period p ayroll eductions flect yo ur c ost f b enefits f payroll period ending date paycheck paid biweekly deduc tions pay coverage previous two week deduction based biweekly every week pay period except rhode island weekly pay period enrolled hdp standard plan also contribute health saving account pretax basis see health saving account chapter information payroll deduction withheld reason unpaid premium must paid full original effective date could result extra deduction paycheck important check paycheck stub sure proper deduction taken remember view paycheck stub online monday payday going online paystub mywalmartcom coverage deduction selected correct paycheck stub call benefit customer service immediately many walmart benefit paid pretax dollar purchasing pretax dollar mean payroll deduction coverage deducted paycheck federal case state tax withheld result pay remains tax lower benefit dollar go get money social security tax withheld pretax dollar spend benefit amount pay benefit pretax dollar counted wage social security purpose result future social security benefit may reduced somewhatdeductions premium contribution past due retroactive election may made aftertax basis tobaccofree rate ando</t>
   </si>
   <si>
     <t>page succession planning tool kit succession planning process identifying key leadership position department developing employee within state government assume position comprehensive plan address current fut ure leadership need maintaining existing merit principle tool kit intended provide framework developing succession strategy utilizing following step step identification key leadership position step identify competency skill success factor leadership step assess current bench strength step design implemen career development strategy step monitor evaluate strategy page step identification key leadership position begin process succession planning department strategic leadership team identify key leadership position evaluating impact position achieving strategic goal objective recommend human resource hr director included part strategic leadership team discussion one approach identifying key position small department team could begin review position division level determine position key larger department may want focus bureau office level department leadership wish conduct broader succession planning initiative find captured key position may go step including mid manager specialist example determine position key department leadership evaluate impact position achieving strategic goal objective well vacancy risk marketability incumbent worksheet following page provide choice evaluation tool use strategic team hr director position prioritized succession planning based analysis department may assign numerical value high medium low assessment order create rank order position succession planning alternatively department may choose focus position rated high vacancy risk impact page position impact risk assessment assessment position impact based prioritized list department mission goal objective strategic plan assessment vacancy risk based factor incumbent retirement eligibility marketability etc position impactrisk assessment position title classification level incumbent bureau location position impact high med low vacancy risk high med low position title classification level incumbent bureau location position impact high med low vacancy risk high med low position title classification level incumbent bureau location position impact high med low vacancy risk high med low position title classification level incumbent bureau location position impact high med low vacancy risk high med low position title classification level incumbent bureau location position impact high med low vacancy risk high med low position title classification level incumbent bureau location position impact high med low vacancy risk high med low c page position impact risk assessment description detailed assessment posi tion could conducted utilizing worksheet position impact position title classification level incumbent bureau location function responsibility authority priority strategic objective position impact high medium low vacancy risk retirement eligible marketability factor eg life event vacancy risk high medium low c page position impact risk sessment attrition factor using workforce data report turn data identify current projected human capital supply attrition factoring position could conducted utilizing worksheet position title classification level incumbent bureau location position impact factor managerssupervisors esti mate difficulty effort required based function responsi bility authority pr iority strategic objective replace position incumbent critical unique knowledge eg specialist ecp important proceduralized knowledge skill eg ecp common knowledge skill e g entrylevel ecp vacancy risk factor projected retirement date workforce retirement forecast report marketability factor position turnover projected retirement date ot turnover factor win year projected retirement date ot turnover factor win year projected retirement date turnover factor greater year position impact factor x vacancy risk factor total attrition factor total attrition factor estimated effort urgency delivery program service high higher medium point low point tva authority model c page step identify competency skill success factor leadership leadership team identified priority position next step document education experience key competency factor necessary success key leadership position position success profile position title classification level bureau location education degree certificati ons licensure etc experience competency check key competency th e position suggest ed limit selection maximum key competency group s adaptability aligning performance success building partnership building trust communication customer focus decision making delegating responsibility developing successful team facilitating change innovation leading vision value planning organizing work strategic planning technicalprofessional group adaptability aligning performance success building partnership building trust coaching communication customer focus decision making delegating responsibility developing successful team managing conflict planning organizing work safety awareness stress tolerance work standard technicalprofessional additional factor c page elect expand pool target ed leadership position nonmanagerial position following profile may used position success profile position title classification level bureau location education degree certificati ons licensure etc experience competency check key competency position suggested limit selecti maximum key competency group adaptability building strategic working relationship building trust coaching continuous learning contributing team success communication customer focus decision making followup initiating action innovation planning organizing work technicalprofessional work standard additional factor c page step assess curre nt bench strength third step succession planning process knowing bench strength order gauge bench strength department n eeds determine whether critical leadership position one person ready successfully assume role responsibility position knowing depth talent within organization allow department leader focus strategy development measurement needed leader evaluate depth strength andor weakness available talent prioritized key position important inflate preparedness assessment leader rely person bench strength multiple position especially position would relying individual high impact high risk may unlikely multiple high impacthigh risk position would vacated within given short period time possible example type early retirement legislation would result vacancy occurring high impacthigh risk position others currently rated low impactlow risk following sample worksh eet assist department aggregate review bench strength page position bench strength assessment strategic leadership team revi ewing manager nd human resource utilize form indicate number current employee th eir judgment either cu rrently eligible may eligible within year prioritized key leadership position position title classification level bureau location ready ready within year ready within year ready within year action plan position title classification level bureau location ready ready within year ready within year ready within year action plan position title classification level bureau location ready ready within year ready within year ready within year action plan c page example position bench strength assessment strategic leadership team revi ewing manager nd human resource utilize form indicate number current employee th eir judgment either cu rrently eligible may eligible within year prioritized key leadership position position title chief financial officer classification level state office administrator bureau finance location lansingcentral office ready ready within year ready within year ready within year action plan chief financial officer key leadership posi tion high positi impact vacancy risk current incumbent eligible retire ca reer development assignment shadowing done current officer develop plan presented stra tegic leadership team day plan consider division head midmanagers position title classification level bureau location ready ready within year ready within year ready within year action plan position title classification level bureau location ready ready within year ready within year ready within year action plan c page step design implement ca reer development strategy strategic leadership team evaluated bench strength prioritized key leadership position attention shift continued career development employee determined eligible potentially eligible position step succession planning process focused helping employee manager discus career development plan discussing encouraging th e career development employee important part management however purpose succession planning increasing bench strength specified area selection subset employee upon focus career development effort may necessary annual performance review session provides excellent opportunity gin discussion career development goal opportunity however manager need keep mind clarify employee goal purpose career development discussion separate distinct justcompleted performance review performance management focused past year goal objective career development discussion focused futur e career opportunity upon completing employee annual performance review manager initiate discussion employee career interest well career development option possible barrier career movement manager assist employee setting appropriate career goal providing feedback based observation assessment employee ability potential assessment based actual experience observation employee knowledge skill experien ce assumption personal bias page based discussion manager work hr office choose appropriate career development activity employee example activity include onthejob trainingcross training participation project participation team task force committee civil service training course computerbased training course work external provider attending workrelated conference membership particip ation professional organization working mentor coaching consulting others leadership development program selfstudy reading assignment participation associated career development program guarantee promotion andor job selection following worksheet may used guide discussion manager employee page guidance manager part workforce planning process department currently developing highlevel succession plan succession planning process identifying key leadership position within department developing employee within state government assume position participation associ ated career development program guarantee promotion andor job selection employee hr role play career development activity associated succession planning responsible fairly assessing career potential direct report open honest career discussion employee working individual career development plan providing growth opportunity providing ongoing coaching ensuring current future need department met employee responsible expressing interest pursuing new role creating keeping uptodate career development plan working identify career development opportunity open acting feedback taking opportunity andor risk career development hr responsible facilitating career development move provide individual growth opportunity defining appropriate type training development based career path annual performance review session provides excellent opportunity discussing career development plan employee upon completing employee annual performance review yo u initiate discussion career development opportunity po ssible barrier career movement however need keep mind cl arify employee goal purpose career development discussion separate distinct justcompleted performance review page manager assist employee setti ng appropriate career goal providing feedback based observation ssessment employee ability potential assessment base actual experience observation employee knowledge skill e xperience assumption personal bias prior discussion please take time assess employee career goal development option answer ing following question know employee career goal last discus career goal development opportuni tie employee employee career goal target date realistic see individu al career development option see strength area development additional competency techni cal skill individual desired future role need attention required resource available eg training mentor project assignment budget time etc provide needed job experience consider potential assignmentsprojectsexperiences might needed career development based discussion work hr office choose appropriate career developmental activiti e employee considering department need time budget example include onthejob trainingcross training participation projec t participation team ta sk force committee civil service training course computerbased traini ng course work external provider page university course work attending workrelated conference membership participation professional organization working ment coaching consulting others leadership development program selfst udy reading assignment important manager clearly communicate employee participation career develo pment program guarentee promotion rather provides opportunity employee demonstrate career potential page guidance employee part workforce planning process department currently developing highlevel succession plan succession planning process identifying key leadership position within department developing employee within state government assume position participation associ ated career development program guarantee promotion andor job selection manager hr role play career development activity associated succession planning responsible expressing interest pursuing new role creating keeping uptodate career development plan working manager identify career development opportunity open acting feedback taking opportunity andor risk development career manager responsible fairly assessing direct report open honest career discussion employee working individual career development plan providing growth opportunity providing ongoing coaching ensuring current future need department met hr responsible facilitating career development move provide individual growth opportunity defining appropriate type training development based career path page annual performance review session provides excellent opportunity discussing career development plan manager opportunity discus career pl anning discussion part performance review prior career development discussion please take time assess career goal development option answering following question career goal interested leadership position within department position career goal target date realistic strength area career development additional competency technical skill desired future role need attention type career development oppo rtunities prefer eg training mentoring project assignment etc based discussion work manager choose appropriate career development activity considering department need time budget example include onthejob traini ngcross training participation project participation team task force committee civil service training course computerbased training course work external provider university course work attending workrelated conference memb ership participation professional organization working mentor coaching consulting others leadership development program selfstudy reading assignment participation career development pr ograms guarantee promotion rather provides opportunity demonstrate career potential page step monitor evaluate strategy final step process monitoring evaluating effectiveness strategy implemented close high priority talent gap succession planning strategy designed inclusive opportunity increase available talent pool candidate key leadership position future need state government continuous monitoring data collecting human resource strategic leadership team provide necessary information whether strategy meeting department need previous step process may simple assessment number candidate ready compete key leadership position complex pre post organizational skill assessment minimum measurement identify timetable expected outcome strategy page succession planning overall goal providing right leadership right place right time right skill guide intended use state agency outcome strategic workforce planning activity department use guide reference begin assessing individual need civil service commission stand ready available assist human resource need addition following workforce planning area demographic data state michigan workforce recruitment need assessment strategy succession planningcareer management strategy consistent merit principle identification training need support knowledge transfer strategy</t>
   </si>
   <si>
+    <t>tax indemnity agreement tax indemnity agreement agreement dated november entered among focus medium holding limited international business company organized law british virgin island company g focus holding limited exempted company organized existing law cayman island lead investor group plc company organized existing law england coinvestor lead party listed schedule hereto together lead investor coinvestor lead investor recital whereas company investor party share purchase agreement dated november share purchase agreement whereas condition precedent share purchase agreement company enter agreement whereas company seek induce investor consummate investment company contemplated share purchase agreement end seek satisfy condition precedent investment entering agreement agreement therefore consideration premise set forth mutual covenant agreement set forth herein good valuable consideration adequacy hereby acknowledged party hereto hereby agree follows section interpretation definition unless otherwise defined agreement capitalized term used herein shall following meaning affiliate mean respect given person person control controlled common control given person acquisition price mean respect indemnity share u per share subject adjustment provided connection occurrence earnout event acquisition price indemnity share issued outstanding prior earnout event shall adjusted multiplying acquisition price earnout dilution factor ii acquisition price series c share issued company investor connection earnout event shall equal u muliplied earnout dilution factor indemnity agreement page b case new indemnity share issued upon conversion exchange indemnity share acquisition price new indemnity share shall acquisition price indemnity share converted exchanged apportioned pro rata across indemnity share issued conversion exchange according fair value thereof applicable law mean respect person provision constitution treaty statute law regulation ordinance code rule judgment rule common law order decree award injunction governmental approval concession grant franchise license agreement directive requirement governmental restriction similar form decision determination interpretation administration foregoing government entity whether effect date hereof thereafter case amended applicable person subsidiary respective asset closing meaning ascribed thereto share purchase agreement consent mean consent approval authorization waiver permit grant franchise concession agreement license exemption order registration certificate declaration filing report notice person including government entity control mean used respect person power direct management policy person directly indirectly whether ownership voting security contract otherwise term controlling controlled meaning correlative foregoing earnout agreement mean certain earnout agreement even date herewith among company investor certain affiliate company earnout dilution factor mean respect earnout event fraction numerator shall equal total indemnity share issued outstanding immediately prior earnout event determined asconverted basis denominator shall equal total indemnity share issued outstanding immediately following earnout agreement asconverted basis earnout event mean issuance series c share investor earnout agreement encumbrance mean claim charge easement encumbrance lease covenant security interest lien option pledge right others restriction whether voting sale transfer disposition otherwise whether imposed agreement understanding law equity otherwise equity security shall mean ordinary share ordinary share equivalent tax indemnity agreement page fair value mean respect security property asset business entity fair market value thereof determined accordance following procedure fair value shall initially determined good faith board director communicated writing holder representing majority voting power indemnity share held holder ii holder representing majority voting power indemnity share held holder agree fair value initially determined board director holder may require fair value determined appraiser recognized international standing reputation company holder able agree appointment appraiser company holder shall designate appraiser recognized international standing reputation appraiser turn appoint third appraiser shall determine fair value iii appraiser duly designated make determination fair value shall deliver determination writing company holder determination shall conclusive binding company holder fee expense appraiser shall borne company iv fair value equity interest person shall determined without regard fact equity interest may constitute minority ownership interest closely held corporation whenever fair value must determined pursuant provision company shall responsible promptly initiating procedure making determination procedure contemplated connection obtaining determination fully complied determination fair value purpose shall deemed preliminary subject adjustment pending full compliance procedure government entity mean government agency bureau board commission court department official political subdivision tribunal instrumentality government group company mean person natural person controlled company holder mean investor together permitted transferee assigns holder right hereunder hong kong mean hong kong special administrative region indemnifiable loss mean respect indemnified party given date diminution fair value indemnity share held thereby acquisition price share action cost damage tax indemnity agreement page disbursement expense liability loss deficiency obligation penalty settlement kind nature suffered indemnified party way diminution value notwithstanding anything contrary provided preceding sentence indemnifiable loss shall include shall limited interest carrying cost penalty legal accounting professional fee expense reasonably incurred investigation collection prosecution defense claim amount paid settlement may imposed otherwise incurred suffered indemnified party ii tax may payable indemnified party reason indemnification indemnifiable loss hereunder tax would payable notwithstanding event giving rise indemnification iii diminution fair value indemnity share resulting indemnity payment made company pursuant agreement indemnity share mean series c share acquired investor pursuant share purchase agreement earnout agreement ii ordinary share issuable issued upon conversion series c share iii equity security company issued issuable upon conversion exchange exercise ordinary share equivalent dividend distribution respect exchange replacement share referenced ii ipo mean firmcommitment underwritten initial public offering company ordinary share liability mean respect person liability owing person nature whether accrued absolute contingent otherwise whether due become due ordinary share shall mean ordinary share par value u per share company ordinary share equivalent shall mean warrant option right exercisable ordinary share instrument convertible exchangeable ordinary share person mean natural person limited liability company joint stock company joint venture partnership enterprise trust unincorporated organization entity organization prc mean people republic china solely purpose agreement excluding hong kong macau special administrative region island taiwan qualified exchange mean new york stock exchange nasdaq stock market national market system main board hong kong stock exchange main market london stock exchange mainboard singapore exchange series c qpo mean ipo company qualified exchange exchange shall approved writing holder majority tax indemnity agreement page voting power outstanding series c share ordinary share representing least fullydiluted share capital company immediately following offering price per share value company less u immediately prior offering series c share mean series c share series c share series c share mean series c preferred share par value u per share company series c share mean series c preferred share par value u per share company tax mean national provincial local income sale use excise franchise real personal property gross receipt capital stock production business occupation disability employment payroll severance withholding tax charge imposed government entity interest penalty civil criminal related thereto nonpayment thereof loss tax liability incurred connection determination settlement litigation liability arising therefrom tax return mean tax return declaration report estimate claim refund claim extension information return statement relating tax including schedule attachment thereto interpretation purpose agreement except otherwise expressly herein provided term defined section shall meaning assigned section include plural well singular ii reference agreement designated section subdivision designated section subdivision body agreement iii pronoun either gender neuter shall include appropriate pronoun form iv word herein hereof hereunder word similar import refer agreement whole particular section subdivision v reference agreement designated schedule exhibit annex schedule exhibit annex attached agreement vi formula purport calculate excess one value another shall deemed yield value equal zero excess section indemnity indemnity company hereby agrees indemnify hold harmless holder indemnified party indemnifiable loss suffered indemnified party directly indirectly result based upon arising failure company group company prior december timely pay tax due payable thereby subject withholding remittance thereby ii timely file tax return iii comply applicable law relating tax iv pay fund social welfare benefit company group company may may required applicable law pay fund behalf prior continuing employee thereof indemnifiable event tax indemnity agreement page procedure indemnified party shall entitled select counsel defense action suit proceeding alternative dispute resolution mechanism whether civil criminal administrative investigative claim may cause indemnifiable loss indemnified party company shall advance reasonable expense including attorney fee related cost expense obligation incurred connection investigating defending claim collectively defense expense defense expense shall paid company indemnified party incurred event later fifteen day written request supporting documentation supplied indemnified party company b claim asserted third party indemnified party indemnified party may request company defend claim behalf indemnified party written notice company fails defend indemnified party upon request recovery indemnified party shall conclusive favor company provided however company received reasonable notice claim allowed control defense judgment indemnified party shall constitute presumptive evidence company c payment made company indemnified party hereunder shall made immediately available fund bank account designated indemnified party payment made indemnified party shall made u dollar company covenant agrees full authority resource make payment hereunder account company holder u dollar required ii shall make payment hereunder irrespective without deduction counterclaim defense recoupment setoff iii payment indemnity hereunder shall include amount necessary hold recipient payment indemnity harmless aftertax basis tax required paid respect payment indemnity taking account tax section representation warranty company represents warrant covenant investor duly organized validly existing law jurisdiction formation corporate power authority operate property carry business conducted proposed conducted perform obligation agreement b corporate action necessary part company officer director shareholder taken authorization execution delivery agreement performance obligation hereunder agreement constitutes valid legally binding obligation company enforceable accordance term hereof except limited applicable bankruptcy insolvency reorganization moratorium law general application affecting enforcement creditor right generally ii limited law relating availability specific performance injunctive relief remedy nature equitable remedy tax indemnity agreement page c execution delivery performance company agreement requires consent third party result violation conflict constitute default without passage time giving notice provision constitutional document effect date hereof applicable law material contract obligation party bound ii accelerate constitute event entitling holder indebtedness company accelerate maturity indebtedness increase rate interest presently effect respect indebtedness iii result creation encumbrance upon property asset company breach default alleged breach default event would passage time notice constitute breach default agreement undertaking instrument company party company may bound including inter alia agreement occurred result agreement performance hereof occur e litigation arbitration administrative proceeding present current pending knowledge company threatened would material adverse effect upon ability company fulfill obligation hereunder section miscellaneous termination agreement shall terminate immediately prior consummation series c qpo binding effect assignment agreement shall binding upon shall enforceable party successor permitted assigns holder shall right assign part right agreement affiliate extent holder transfer equity security thereto except provided preceding sentence party may assign right obligation hereunder without prior written approval party governing law agreement shall governed construed accordance law state new york without regard conflict law principle thereunder dispute resolution dispute controversy claim dispute arising relating agreement interpretation breach termination validity hereof shall resolved first instance consultation party dispute consultation shall begin immediately party delivered written notice party dispute requesting consultation b dispute resolved within sixty day following date notice given dispute shall submitted arbitration upon request party dispute notice party dispute arbitration notice tax indemnity agreement page c arbitration shall conducted hong kong auspex hong kong international arbitration centre centre shall three arbitrator claimant dispute shall collectively choose one arbitrator respondent shall collectively choose one arbitrator secretary general centre shall select third arbitrator shall qualified practice law new york member arbitral tribunal appointed within thirty day arbitration notice given relevant appointment shall made secretary general centre arbitration proceeding shall conducted english chinese arbitration tribunal shall apply arbitration rule united nation commission international trade law effect time arbitration however rule conflict provision section including provision concerning appointment arbitrator provision section shall prevail e party arbitration shall cooperate party arbitration making full disclosure providing complete access information document requested party connection arbitration proceeding subject confidentiality obligation binding party f award arbitration tribunal shall final binding upon party prevailing party may apply court competent jurisdiction enforcement award g arbitrator shall decide dispute submitted party arbitration strictly accordance substantive law state new york shall apply substantive law h party dispute shall entitled seek preliminary injunctive relief possible court competent jurisdiction pending constitution arbitral tribunal course arbitration tribunal adjudication dispute agreement shall continue performed except respect part dispute adjudication language governing version agreement english language version translation agreement chinese language convenience party amendment except otherwise permitted herein agreement provision may amended changed waived discharged terminated writing signed party notice notice claim certificate request demand communication agreement shall made writing shall delivered party hereto hand sent facsimile sent postage prepaid reputable overnight courier service address given party signature page hereof address party shall specified like notice shall deemed given delivered hand sent facsimile upon receipt confirmed transmittal tax indemnity agreement page receipt sent overnight courier five calendar day delivery pickup overnight courier service assurance party shall perform cause done performed act thing shall execute deliver agreement certificate instrument document party may reasonably request give effect term intent agreement entire agreement agreement constitutes entire agreement party respect subject matter hereof supersedes prior written oral understanding agreement severability provision agreement shall held invalid unenforceable extent remainder agreement shall affected thereby shall enforced greatest extent permitted law remedy cumulative right remedy available agreement otherwise available shall cumulative right remedy may exercised successively counterpart execution agreement may executed one counterpart shall deemed original together shall constitute one instrument third party beneficiary nothing agreement intended confer upon person party hereto respective successor permitted assigns right benefit obligation hereunder remainder page left intentionally blank tax indemnity agreement page witness whereof party hereto caused duly authorized representative execute agreement first date written focus medium holding limited jiang nanchun name jiang nanchun chinese character capacity ceo address notice th floor zhao feng world trade building jiangsu road shanghai china attn jiang nanchun chinese character tel fax tax indemnity agreement page g focus holding limited david chou name david chou capacity authorized signatory address notice f cheung kong center queen road central hong kong attn david chou tel fax clawback right agreement page group plc cheng sim tan name cheng sim tan capacity authorized signatory address notice suite f two international finance centre finance street central hong kong attn cheng sim tan tel fax copy investment plc raffle place uob plaza singapore attn cheng sim tan tel fax clawback right agreement page asia pacific technology lp acting manager investment plc cheng sim tan name cheng sim tan capacity authorized signatory address notice suite f two international finance centre finance street central hong kong attn cheng sim tan tel fax copy investment plc raffle place uob plaza singapore attn cheng sim tan tel fax clawback right agreement page asia pacific lp acting manager investment plc cheng sim tan name cheng sim tan capacity authorized signatory address notice suite f two international finance centre finance street central hong kong attn cheng sim tan tel fax copy investment plc raffle place uob plaza singapore attn cheng sim tan tel fax clawback right agreement page ktbuci china venture limited wei yu name wei yu chinese character capacity ceo address notice th floor zhao feng world trade building jiangsu road shanghai china attn wei yu chinese character tel fax clawback right agreement page max wealth enterprise limited nei shen name nei shen chinese character capacity director address notice conduit road mid level hong kong attn neil shen chinese character tel fax clawback right agreement page schedule investor asia pacific technology lp limited partnership duly organized existing law england asia pacific lp limited partnership duly organized existing law england ktbuci china venture limited international business company organized existing law british virgin island max wealth enterprise limited international business company organized exiting law british virgin island tax indemnity agreement schedule</t>
+  </si>
+  <si>
     <t>tax indemnity agreement tax indemnity agreement agreement dated november entered among focus medium holding limited international business company organized law british virgin island company g focus holding limited exempted company organized exist ing law caym island lead investor group plc company organized existing law england co investor lead party listed schedule hereto together th e lead investor co investor lead investo r recital whereas company investor party share purchase agreement dated november share purchase agreement whereas condition precedent share purchase agreement company enter agreement whereas company seek induce investor consummate investment company contemplated share purchase agreement end seek satisfy condition precedent investment entering agreement agreement therefore consideration premise set forth mutual covenant agreement set forth herein ther good valua ble consideration adequacy hereby acknowledged party hereby agree follows section interpretation definition unless otherwise defined agreement capitalize term used herein shall following meaning affiliate mean respect given person person tha control controlled comm control given person acquisition price mean respect indemnity share u per share subject adjustment provided connection occurrence earnout eve nt acquisition price indemnity share issued outstanding prior earnout event shall adjusted multiplying acquisition price earnout dilution factor ii acquisition price series c sha issued company investor connection th e earnout event shall equal u muliplied earnou dilution factor indemnity agreem ent page b case new indemnity share issued upon conversion exchange indemnity share acquisition price new indemnity share shall acquisition price indemnity share converted exchanged apportioned pro rata across indemnity share issued conversi exchange according fair value thereof applicable law mean respect person provision constitution treaty statute law regulation ordinance code rule judgment rule common law order decree awa rd injunction governmental approval concession grant franchise licens e agreement directive requirement governmental restriction similar form decision determinatio n interpretation administration foregoing government entity whether effect date hereof thereafte r case amended applicable person subsidiar y respective asset closing meaning ascribed thereto share purchase agreement consent mean consent approval authorization waiver permit grant franchise concession agreement license exemption order registration certificate declaration filing rep ort notice person including government entity control mean used respect person power direct management policy person directly indirect ly whether ownership voting security contract otherwise term controlling controlled meaning correlative foregoing earnout agreement mean certain earnout agreement even date herewith among company investor certain affiliate company earnout dilution factor mean respect earnout event fraction numerator shall equal total indemnity share issued outstanding immediately prior earnout event determi ned converted basis denominator shall equal total indemnity share issued outstanding immediately following suc h earnout agreement converted basis earnout event mean issuance series c share investor earnout agreement encumbrance mean claim charge easement encumbrance lea se covenant security interest lien option pledge right others restriction whether voting sale transfer disposition otherwis e whether im posed agreement understanding law equity otherwise equity security shall mean ordinary share ordinary sh equivalent tax indemnity agreem ent page fair value mean respect security property asset business entity fair market value thereof determined accordance following procedure fair value shall initially determined good faith board director communicated writing holder representing majority voting power inde mnity share held holder ii holder representing majority voting power indemnity share held holder agree fair value initially determined board director holder may require fair value determined appraiser recognized international standing reputation company holder able agree appointment appraiser company holder shall designate appraiser recognize international standing reputation appraiser wil l turn appoint third appraiser shall determin e fair value iii appraiser duly designated make determination fair value shall deliver determination writing th e company holder determination shall conclusive binding company holder fee expense appraiser shall bo rne company iv fair value equity interest person shall determined without regard fact equity interest may constitute minority ownership interest closely held corporation whenever fair value must determined pursuant provision th e company shall responsible promptly initiating procedure making determination procedure contemplated connection obtaining determination fully complied th en determination fair value purpose shall deemed preliminary subject adjustment pending full compliance procedure government entity mean government agency bureau board commission court department official political subdivision tribunal in trumentality government group company mean person natural person controlled company holder mean investor together permitted transferee assigns holder right hereunder hong kong mean hong kong special administrative region indemnifiable loss mean respect indemnified party given date diminution fair value inde mnity share held thereby acquisition price share action cost damage tax indemnity agreem ent page disbursement expense liability loss deficiency obligation penalty settlement kind nature suffered indemnified party oth er way diminution value notwithstanding anything contrary provided preceding sentence indemnifiable loss shall include shall limited interest carrying cost penalty legal accounting professional fee expense reasonably incurred investigation collection prosecut ion defense claim amount paid settlement may impos ed otherwise incurred suffered indemnified party ii tax may payable indemnified party reason indemnification indemnifiable loss hereunder tax hat would payable notwithstanding event giving rise indemnification iii diminution fair value indemnity share sulting indemnity payment made compa ny pursuant agreement indemnity share mean series c share acquired investor pursuant share purchase agreement earnout agreement ii ordinary share issuable issued upon conversion series c share iii equity security company issued issuable upon conversion exchange exercise ordinary share equivalent dividend distribution respect exchange replacement share referenced ipo mean firm commitment underwritten initial public offerin g company ordinary share liability mean respect person liability owin g person nature whether accrued absolute contingent r otherwise whether due become due ordinary share shall mean ordinary share par value u per share company ordinary share equivalent shall mean warrant option rig hts exercisable ordinary share instrument convertible exchangeable ordinary share person mean natural person limited liability company joi nt stock company joint venture partnership enterprise trust unincorporated organization entity organization prc mean people republic china solely purpos e agreement excluding hong kong macau special administrativ e region island f taiwan qualified exchange mean new york stock exchange nasda q stock market national market system main board hong kong stock exchange main market london stock exchange mainboar singapore exchange series c qpo mean ipo company qualified exchang e exchange shall approved writing holder majority tax indemnity agreem ent page voting power outstanding series c share ordinary share representing least fully diluted share capital company immedia tely following offering price per share value company less u immediately prior offering series c share mean series c share series c share series c share mean series c preferred share par value u per share company series c share mean series c preferred share par value u per share company tax mean national provincial local income sale use excise franchise real personal property gross receipt capi tal stock production business occupation disability employment payroll severance withholding tax charg e imposed governme nt entity interest penalty civil criminal related thereto nonpayment thereof loss tax liability incurred connection determination settlement litigation liability arising therefrom tax return mean tax return declaration report estimate claim refund claim extension information return statemen t relating tax including schedule attachmen thereto interpretation purpose agreement except otherwise expressly herein provided term defined section shall meaning assigned section include plural well th e singular ii reference agreement designated section subdivision designated section nd subdivision body agreement iii pronoun either gender neuter shall include appropriate pronoun form iv word herein hereof hereunder word similar impor refer agreement whole particular section subdivision v reference agreement designated sched ules exhibit annex schedule exhibit annex attached agreement vi formula purport calculate excess one value another shall deemed yield value equal zero excess section indemnity indemnity company hereby agrees indemnify hold harmless holder indemnified party indemnifia ble loss suffered indemnified party directly indirectly resul based upon arising failure company group company prior december timely pay tax due payable thereby subject withholding remittance thereby ii timely fi le tax return iii comply applicable law relating tax iv pay fund social welfare benefit company grou p company may may required applicable law pay fund behalf prior continuing employee thereof indemnifiable event tax indemnity agreem ent page procedure inde mnified party shall entitled select counsel defense action suit proceeding alternative dispute resolution mechanism whether civil criminal administrative investigative claim may cause indemnifiable loss indemnifi ed party company shall advance reasonable expense including attorney fee related cost expense obligation incurred connection investigating defending claim collectively defense expense defense expense shall paid company indemnified party incurred event later fifteen day written request supporting documentation supplied b indemnified party company b claim asserted third party indemnif ied party indemnified party may request company defend claim behalf indemnified party written notice company fails defend indemnified party upon request recovery indemnified party shall conclusive favor company provided however company received reasonable notice claim allowed control defense judgment indemnified party shall constitute presumptive evidence company c payment made company indemnified part hereunder shall made immediately available fund bank account designated indemnified party payment made indemnif ied party shall made u dollar company cove nants agrees full authority resource make payment hereunder account company holder u dollar required ii shall make payment hereunder irrespective without deducti counterclaim defense recoupment set iii payment indemnity hereunder shall include amount necessary hold recipient f payment indemnity harmless tax basis tax requi red paid w ith respect payment indemnity taking account tax section representation warranty company represents warrant covenant investor duly organized validly existing law jurisdiction formation corporate power authority ow n operate property carry business conducted proposed conducted perform obligation agreement b corporate action necessary part company officer director shareholder taken authorization execution delivery agreement performance obligation hereunder agreement constitutes valid legally bindi ng obligation company enforceable accordance term hereof except limited applicabl e bankruptcy insolvency reorganization moratorium law general application affecting enforcement creditor right generally ii limited law relating availability specific performance injunctive relief medies nature equitable remedy tax indemnity agreem ent page c execution delivery performance company th agreement requires consent third party result ny violation conflict constitute default without passage time giving notice provision constitutional document effect date hereof applicable law material contract obligation party bound ii accelerate constitute event entitling holder indebtedness company accelerate turity indebtedne s increase rate interest presently effect respect indebtedness iii result creation encumbrance upon property asset company breach default alleged breach default event whi ch would passage time notice constitute breach defau lt agreement undertaking instrument company part company may bound including inter alia agreement h occurred result agreement performance hereof occur e litigation arbitration administrative proceeding present current pending knowledge company threatened would material adverse effect upon ability company fulfill obligation hereunder section miscellaneous termination agreement shall terminate immediately prior th e consummation series c qpo binding effect assignment agreement shall binding upon shall enforceable party succe ssors permitted assigns eac h holder shall right assign part right agreement affiliate extent holder transfer equ ity security thereto except provided preceding sentence party assign right obligation hereunder without prior written approval party governing law agreement shall governed construed n accordance law state new york withou regard conflic t law principle thereunder dispute resolution dispute controversy claim dispute arising relating agreement interpretation breach terminat ion validity hereof shall resolved first instance consultat ion party dispute consultation shall begin immediatel party delivered written notice party disput e requesting consultation b dispute resolved within sixty day followi ng date notice given dispute shall submitted arbitration upon request party dispute notice party dispute arbitration notice tax indemnity agreem ent page c arbitration shall conducted hong kong auspex hong kong international arbitration centre centre th ere shall three arbitrator claimant dispute shall collective ly choose one arbitrator respondent shall collectively choose one arbitrator secretary general centre shall select third arbitrator shall qualified practice law new york member arbitral tribunal appointed within thirty ays arbitration notice given relevant appointment shall made secretary general centre arbitration proceeding shall conducted english chinese arbitration tribunal shall apply arbitration rule united nation commission international trade law effect tim e arbitration however rule conflict provision section cluding provision concerning appointment arbitrator provision section shall prevail e party arbitration shall cooperate party arbitration making full disclosure prov iding complete access information document requested party connection arbitration proceeding subject confidentiality obligation binding party f award arbitration tribu nal shall final bind ing upon party prevailing party may apply court competent jurisdiction enforcement award g arbitrator shall decide dispute submitted part y arbitration str ictly accordance substantive law sta te new york shall apply substantive law h party dispute shall entitled seek preliminar injunctive relief possible court competent jurisdiction pend ing constitution arbitral tribunal course arbitration tribunal adjudication dispute agreement shall continue performed except respec part dispute unde r adjudication language governing version agreement english language version translation agreement chinese language convenience party amendment except otherwise permitted herein agreement provision may amended changed waived discharged terminated writing signed party notice notice claim certificate request demand communication agreement shall made writing shall delivered party hereto hand sent facsimile sent postage prepaid reputable overnight courier service address given suc h party signature page hereof address party shall specified like notice shall deemed given deliver ed hand sent facsimile upon receipt confirmed transmittal tax indemnity agreem ent page receipt sent overnight courier five calendar day delive ry pickup th e overnight courier service assurance party shall perform cause done performed act thing shall execute deliver agreement certificate instrument document party may reasonably request give effect term intent agreement entire agreement agreement constitutes entire agreement party respect subject matter hereof supersedes prior written oral understanding agreement severability provision agreement shall held invalid unenforceable extent remainder agreement shall affected thereby shall enforced greatest extent permitte law remedy cumulative right remedy available agreement otherwise available shall cumulative rig hts remedy may exercised successively counterpart execution agreement may executed one mo counterpart shall deemed original together shall constitute one instrum ent third party beneficiary nothing agreement intended confer upon person party hereto respective successor permitted assigns right benefit obligation hereund er remainder page left intentionally blank tax indemnity agreem ent page witness whereof party hereto caused dul authorized representative execute agreement first date written focus medium holding limited jiang nanchun name jiang nanchun chinese characte r capacity ceo address notice th floor zhao feng world trade buildin g jiangsu road shanghai china attn jiang nanchun chinese character tel fax tax indemnity agreem ent page g focus holding limited david chou name david chou capacity authorized signatory address notice f cheung kong center queen road central hong kong attn david chou tel fax clawback right agreem ent page group plc cheng sim tan name cheng sim tan capacity authorized signatory address notice suite f two international finance centre finance street central hon g kong attn cheng sim tan tel fax copy investment plc raffle place uob plaza singapore attn cheng sim tan tel fax clawback right agreem ent page asia pacific technology lp acting manager investment pl c cheng sim tan name cheng sim tan capacity authorized signatory address notice suite f two international finance centre finance street central hong kong attn cheng sim tan tel fax copy investment plc raffle place uob plaza singapore attn cheng sim tan tel fax clawback right agreem ent page asia pacific lp acting manager investment p lc cheng sim tan name cheng sim tan capacity authorized signatory address notice suite f two international finance centre finance street central hong kong attn cheng sim tan tel fax copy investment plc raffle place uob plaza singapore attn cheng sim tan tel fax clawback right agreem ent page ktbuci china venture limited wei yu name wei yu chinese character capacity ceo address notice th floor zhao feng world trade buildin g jiangsu road shanghai china attn wei yu chinese character tel fax clawback right agreem ent page max wealth enterprise limited nei shen name nei shen chinese characte r capacity director address notice conduit road mid level hong kong attn neil shen chinese character tel fax clawback right agreem ent page schedule investor asia pacific technology lp limited partnership duly organized existing law england asia pacific lp limited partnership duly organized existing law england ktbuci china ventu re limited international business company organized existing law british virgin island max wealth enterprise limited international business company organized exiting law british vi rgin island tax indemnity agreem ent schedul e</t>
   </si>
   <si>
-    <t>tax indemnity agreement tax indemnity agreement agreement dated november entered among focus medium holding limited international business company organized law british virgin island company g focus holding limited exempted company organized exist ing law cayman island lead investor group plc company organized existing law england co investor lead party listed schedule hereto together th e lead investor co investor lead investor recital whereas company investor party share purchase agreement dated november share purchase agreement whereas condition precedent share purchase agreement company enter agreement whereas company seek induce investor consummate investment company contemplated share purchase agreement end seek satisfy condition precedent investment entering agreement agreement therefore consideration premise set forth mutual covenant agreement set forth herein good valua ble consideration adequacy hereby acknowledged party hereby agree follows section interpretation definition unless otherwise defined agreement capitalize term used herein shall following meaning affiliate mean respect given person person tha control controlled common control given person acquisition price mean respect indemnity share u per share subject adjustment provided connection occurrence earnout event acquisition price indemnity share issued outstanding prior earnout event shall adjusted multiplying acquisition price earnout dilution factor ii acquisition price series c sha issued company investor connection th e earnout event shall equal u muliplied earnou dilution factor indemnity agreem ent page b case new indemnity share issued upon conversion exchange indemnity share acquisition price new indemnity share shall acquisition price indemnity share converted exchanged apportioned pro rata across indemnity share issued conversion exchange according fair value thereof applicable law mean respect person provision constitution treaty statute law regulation ordinance code rule judgment rule common law order decree awa rd injunction governmental approval concession grant franchise licens e agreement directive requirement governmental restriction similar form decision determination interpretation administration foregoing government entity whether effect date hereof thereafte r case amended applicable person subsidiar y respective asset closing meaning ascribed thereto share purchase agreement consent mean consent approval authorization waiver permit grant franchise concession agreement license exemption order registration certificate declaration filing rep ort notice person including government entity control mean used respect person power direct management policy person directly indirect ly whether ownership voting security contract otherwise term controlling controlled meaning correlative foregoing earnout agreement mean certain earnout agreement even date herewith among company investor certain affiliate company earnout dilution factor mean respect earnout event fraction numerator shall equal total indemnity share issued outstanding immediately prior earnout event determi ned converted basis denominator shall equal total indemnity share issued outstanding immediately following suc h earnout agreement converted basis earnout event mean issuance series c share investor earnout agreement encumbrance mean claim charge easement encumbrance lea se covenant security interest lien option pledge right others restriction whether voting sale transfer disposition otherwis e whether imposed agreement understanding law equity otherwise equity security shall mean ordinary share ordinary sh equivalent tax indemnity agreem ent page fair value mean respect security property asset business entity fair market value thereof determined accordance following procedure fair value shall initially determined good faith board director communicated writing holder representing majority voting power indemnity share held holder ii holder representing majority voting power indemnity share held holder agree fair value initially determined board director holder may require fair value determined appraiser recognized international standing reputation company holder able agree appointment appraiser company holder shall designate appraiser recognize international standing reputation appraiser wil l turn appoint third appraiser shall determin e fair value iii appraiser duly designated make determination fair value shall deliver determination writing th e company holder determination shall conclusive binding company holder fee expense appraiser shall bo rne company iv fair value equity interest person shall determined without regard fact equity interest may constitute minority ownership interest closely held corporation whenever fair value must determined pursuant provision th e company shall responsible promptly initiating procedure making determination procedure contemplated connection obtaining determination fully complied th en determination fair value purpose shall deemed preliminary subject adjustment pending full compliance procedure government entity mean government agency bureau board commission court department official political subdivision tribunal instrumentality government group company mean person natural person controlled company holder mean investor together permitted transferee assigns holder right hereunder hong kong mean hong kong special administrative region indemnifiable loss mean respect indemnified party given date diminution fair value indemnity share held thereby acquisition price share action cost damage tax indemnity agreem ent page disbursement expense liability loss deficiency obligation penalty settlement kind nature suffered indemnified party oth er way diminution value notwithstanding anything contrary provided preceding sentence indemnifiable loss shall include shall limited interest carrying cost penalty legal accounting professional fee expense reasonably incurred investigation collection prosecut ion defense claim amount paid settlement may impos ed otherwise incurred suffered indemnified party ii tax may payable indemnified party reason indemnification indemnifiable loss hereunder tax hat would payable notwithstanding event giving rise indemnification iii diminution fair value indemnity share resulting indemnity payment made compa ny pursuant agreement indemnity share mean series c share acquired investor pursuant share purchase agreement earnout agreement ii ordinary share issuable issued upon conversion series c share iii equity security company issued issuable upon conversion exchange exercise ordinary share equivalent dividend distribution respect exchange replacement share referenced ipo mean firm commitment underwritten initial public offerin g company ordinary share liability mean respect person liability owin g person nature whether accrued absolute contingent otherwise whether due become due ordinary share shall mean ordinary share par value u per share company ordinary share equivalent shall mean warrant option rig hts exercisable ordinary share instrument convertible exchangeable ordinary share person mean natural person limited liability company joi nt stock company joint venture partnership enterprise trust unincorporated organization entity organization prc mean people republic china solely purpos e agreement excluding hong kong macau special administrativ e region island taiwan qualified exchange mean new york stock exchange nasda q stock market national market system main board hong kong stock exchange main market london stock exchange mainboard singapore exchange series c qpo mean ipo company qualified exchang e exchange shall approved writing holder majority tax indemnity agreem ent page voting power outstanding series c share ordinary share representing least fully diluted share capital company immediately following offering price per share value company less u immediately prior offering series c share mean series c share series c share series c share mean series c preferred share par value u per share company series c share mean series c preferred share par value u per share company tax mean national provincial local income sale use excise franchise real personal property gross receipt capi tal stock production business occupation disability employment payroll severance withholding tax charge imposed governme nt entity interest penalty civil criminal related thereto nonpayment thereof loss tax liability incurred connection determination settlement litigation liability arising therefrom tax return mean tax return declaration report estimate claim refund claim extension information return statemen t relating tax including schedule attachment thereto interpretation purpose agreement except otherwise expressly herein provided term defined section shall meaning assigned section include plural well singular ii reference agreement designated section subdivision designated section nd subdivision body agreement iii pronoun either gender neuter shall include appropriate pronoun form iv word herein hereof hereunder word similar impor refer agreement whole particular section subdivision v reference agreement designated schedule exhibit annex schedule exhibit annex attached agreement vi formula purport calculate excess one value another shall deemed yield value equal zero excess section indemnity indemnity company hereby agrees indemnify hold harmless holder indemnified party indemnifia ble loss suffered indemnified party directly indirectly resul based upon arising failure company group company prior december timely pay tax due payable thereby subject withholding remittance thereby ii timely fi le tax return iii comply applicable law relating tax iv pay fund social welfare benefit company grou p company may may required applicable law pay fund behalf prior continuing employee thereof indemnifiable event tax indemnity agreem ent page procedure indemnified party shall entitled select counsel defense action suit proceeding alternative dispute resolution mechanism whether civil criminal administrative investigative claim may cause indemnifiable loss indemnifi ed party company shall advance reasonable expense including attorney fee related cost expense obligation incurred connection investigating defending claim collectively defense expense defense expense shall paid company indemnified party incurred event later fifteen day written request supporting documentation supplied b indemnified party company b claim asserted third party indemnif ied party indemnified party may request company defend claim behalf indemnified party written notice company fails defend indemnified party upon request recovery indemnified party shall conclusive favor company provided however company received reasonable notice claim allowed control defense judgment indemnified party shall constitute presumptive evidence company c payment made company indemnified part hereunder shall made immediately available fund bank account designated indemnified party payment made indemnif ied party shall made u dollar company covenant agrees full authority resource make payment hereunder account company holder u dollar required ii shall make payment hereunder irrespective without deduction counterclaim defense recoupment set iii payment indemnity hereunder shall include amount necessary hold recipient f payment indemnity harmless tax basis tax requi red paid respect payment indemnity taking account tax section representation warranty company represents warrant covenant investor duly organized validly existing law jurisdiction formation corporate power authority ow n operate property carry business conducted proposed conducted perform obligation agreement b corporate action necessary part company officer director shareholder taken authorization execution delivery agreement performance obligation hereunder agreement constitutes valid legally bindi ng obligation company enforceable accordance term hereof except limited applicable bankruptcy insolvency reorganization moratorium law general application affecting enforcement creditor right generally ii limited law relating availability specific performance injunctive relief remedy nature equitable remedy tax indemnity agreem ent page c execution delivery performance company th agreement requires consent third party result ny violation conflict constitute default without passage time giving notice provision constitutional document effect date hereof applicable law material contract obligation party bound ii accelerate constitute event entitling holder indebtedness company accelerate maturity indebtedne s increase rate interest presently effect respect indebtedness iii result creation encumbrance upon property asset company breach default alleged breach default event whi ch would passage time notice constitute breach defau lt agreement undertaking instrument company part company may bound including inter alia agreement h occurred result agreement performance hereof occur e litigation arbitration administrative proceeding present current pending knowledge company threatened would material adverse effect upon ability company fulfill obligation hereunder section miscellaneous termination agreement shall terminate immediately prior th e consummation series c qpo binding effect assignment agreement shall binding upon shall enforceable party successor permitted assigns eac h holder shall right assign part right agreement affiliate extent holder transfer equ ity security thereto except provided preceding sentence party assign right obligation hereunder without prior written approval party governing law agreement shall governed construed n accordance law state new york without regard conflic t law principle thereunder dispute resolution dispute controversy claim dispute arising relating agreement interpretation breach terminat ion validity hereof shall resolved first instance consultat ion party dispute consultation shall begin immediatel party delivered written notice party disput e requesting consultation b dispute resolved within sixty day followi ng date notice given dispute shall submitted arbitration upon request party dispute notice party dispute arbitration notice tax indemnity agreem ent page c arbitration shall conducted hong kong auspex hong kong international arbitration centre centre th ere shall three arbitrator claimant dispute shall collective ly choose one arbitrator respondent shall collectively choose one arbitrator secretary general centre shall select third arbitrator shall qualified practice law new york member arbitral tribunal appointed within thirty ays arbitration notice given relevant appointment shall made secretary general centre arbitration proceeding shall conducted english chinese arbitration tribunal shall apply arbitration rule united nation commission international trade law effect tim e arbitration however rule conflict provision section including provision concerning appointment arbitrator provision section shall prevail e party arbitration shall cooperate party arbitration making full disclosure providing complete access information document requested party connection arbitration proceeding subject confidentiality obligation binding party f award arbitration tribunal shall final bind ing upon party prevailing party may apply court competent jurisdiction enforcement award g arbitrator shall decide dispute submitted part y arbitration strictly accordance substantive law sta te new york shall apply substantive law h party dispute shall entitled seek preliminar injunctive relief possible court competent jurisdiction pend ing constitution arbitral tribunal course arbitration tribunal adjudication dispute agreement shall continue performed except respec part dispute adjudication language governing version agreement english language version translation agreement chinese language convenience party amendment except otherwise permitted herein agreement provision may amended changed waived discharged terminated writing signed party notice notice claim certificate request demand communication agreement shall made writing shall delivered party hereto hand sent facsimile sent postage prepaid reputable overnight courier service address given suc h party signature page hereof address party shall specified like notice shall deemed given deliver ed hand sent facsimile upon receipt confirmed transmittal tax indemnity agreem ent page receipt sent overnight courier five calendar day delive ry pickup overnight courier service assurance party shall perform cause done performed act thing shall execute deliver agreement certificate instrument document party may reasonably request give effect term intent agreement entire agreement agreement constitutes entire agreement party respect subject matter hereof supersedes prior written oral understanding agreement severability provision agreement shall held invalid unenforceable extent remainder agreement shall affected thereby shall enforced greatest extent permitte law remedy cumulative right remedy available agreement otherwise available shall cumulative right remedy may exercised successively counterpart execution agreement may executed one mo counterpart shall deemed original together shall constitute one instrument third party beneficiary nothing agreement intended confer upon person party hereto respective successor permitted assigns right benefit obligation hereund er remainder page left intentionally blank tax indemnity agreem ent page witness whereof party hereto caused duly authorized representative execute agreement first date written focus medium holding limited jiang nanchun name jiang nanchun chinese characte r capacity ceo address notice th floor zhao feng world trade buildin g jiangsu road shanghai china attn jiang nanchun chinese character tel fax tax indemnity agreem ent page g focus holding limited david chou name david chou capacity authorized signatory address notice f cheung kong center queen road central hong kong attn david chou tel fax clawback right agreem ent page group plc cheng sim tan name cheng sim tan capacity authorized signatory address notice suite f two international finance centre finance street central hong kong attn cheng sim tan tel fax copy investment plc raffle place uob plaza singapore attn cheng sim tan tel fax clawback right agreem ent page asia pacific technology lp acting manager investment pl c cheng sim tan name cheng sim tan capacity authorized signatory address notice suite f two international finance centre finance street central hong kong attn cheng sim tan tel fax copy investment plc raffle place uob plaza singapore attn cheng sim tan tel fax clawback right agreem ent page asia pacific lp acting manager investment p lc cheng sim tan name cheng sim tan capacity authorized signatory address notice suite f two international finance centre finance street central hong kong attn cheng sim tan tel fax copy investment plc raffle place uob plaza singapore attn cheng sim tan tel fax clawback right agreem ent page ktbuci china venture limited wei yu name wei yu chinese character capacity ceo address notice th floor zhao feng world trade buildin g jiangsu road shanghai china attn wei yu chinese character tel fax clawback right agreem ent page max wealth enterprise limited nei shen name nei shen chinese characte r capacity director address notice conduit road mid level hong kong attn neil shen chinese character tel fax clawback right agreem ent page schedule investor asia pacific technology lp limited partnership duly organized existing law england asia pacific lp limited partnership duly organized existing law england ktbuci china venture limited international business company organized existing law british virgin island max wealth enterprise limited international business company organized exiting law british virgin island tax indemnity agreem ent schedul e</t>
-  </si>
-  <si>
     <t>form missouri department revenue sale tax returndepartment use mmddyy reporting period mmyymissouri tax id numberfederal employer id number owner business name name taxable sale amount tax total page adjustment subtract timely payment allowance applicable subtract quartermonthly payment submitted applicable subtract approved credit balance due add interest late payment see line instruction add addition tax pay amount u fund taxpayer authorized agent signature form revised mail taxation division phone po box tdd jefferson city mo fax email salesusedormogov visit httpsdorsmogovtaxbusefileloginjspfinal return date closed mmddyy business sold business signing return authorizing department revenue issue potential refund penalty perjury declare information attached supplement true complete correct direct control supervision responsibility filing return title name date signed mmddyyyou must provide breakdown tax location item page two breakdown provided filing considered incomplete may subject penalty interest attach additional page necessary final return enter close date check reason closing account file sale tax return electronicallyaddress city state codeor reporting location changed please complete provide tax breakdown starting page two select box added new locationstotals returnindicate gross receipt printed email address zip payment tax due attest gross receipt report location left blankdepartment use select box return amended registration change request form submit returnpin telephone numberfiling frequencydue date mmddyyin event mailing address primary business location street address citypage jurisdiction code page total missouri tax id numberreporting period mmyy close city county districtitem codesite codebusiness location gross receiptsadjustments indicate taxable salestax rate amount tax include symbol important return must filed reporting period even though tax report amended return check box box checked correct previously filed return show increase decrease amount tax liability separate return must filed period amended return payment submitted period due date interest penalty apply additional amount reported please note overpayment authorized overpayment subject used offset towards debt addition receive refund overpayment attach seller claim sale use tax refund credit form filing frequency frequency required file return required field unknown leave blank pin unique four digit number issued department revenue required field unknown leave blank due date visit httpdormogovtaxcalendar list due date missouri tax id number eight digit number issued missouri department revenue identify business registered department complete missouri tax registration application form complete registration online going httpsdorsmogovtaxcoregindexjsp misplaced missouri tax id number call federal employer id number nine digit identification number issued internal revenue service identify business reporting period tax period required file based filing frequency owner business name address city state zip code enter name address city state zip code note event mailing address primary business location reporting location changed need complete missouri registration change request form submit return line total page enter total gross receipt adjustment taxable sale tax due page page must breakdown per business location identifying item code site code gross receipt adjustment taxable sale amount tax see page two instruction information breakdown provided filing considered incomplete may subject penalty interest attach additional page necessary adding new location box checked adding new business location location information street address city page two subsequent page must completed box checked breakdown per location identifies item code gross receipt adjustment taxable sale amount tax must also provided see page two instruction information final return final return enter close date check reason closing account missouri law requires person selling discontinuing business make final sale tax return within day sale closing line subtract timely payment allowance multiply total amount tax enter amount line return late discount allowed line subtract quartermonthly payment submitted quartermonthly filer made payment period enter amount payment made registered user missouri portal access amount payment made tax account line subtract approved credit credit approved department revenue line balance due amount tax line minus line applicable line add interest late payment tax paid due date multiply line daily interest rate b multiply amount number day late see example note number day late counted due date postmark datefor example due date march postmark date april payment day late example based annual interest rate daily rate example line x b x day late interest late paymentsales tax return form instruction annual interest rate subject change year visit httpdormogovintratesphp access annual interest rate visit httpdormogovcalculatorsinterest assistance calculating appropriate interest line add addition tax failure pay sale tax due date calculate line failure file sale tax return due date calculate line month late maximum month late filing note addition tax failure file apply pay addition tax failure pay example return due march filed time march april rate would filed time april may rate would maximum example return due march filed postmarked april example return due march filed postmarked april line line x x addition tax addition tax access httpdormogovcalculatorsinterest assistance calculating appropriate addition line pay amount enter total amount due line plus line plus line send check total amount make check draft money order payable director revenue u fund send cash stamp visit httpdormogovbusinesspayonlinephp pay sale tax online using credit card echeck electronic bank draft page instruction missouri tax id number enter missouri id number page reporting period enter reporting period page page front page act page sequent page start page please indicate total ensure page received business location list business location column discontinued operation business location check close box front location jurisdiction code enter jurisdiction code location made sale numeric code assigned missouri department revenue city county district unknown leave blankitem code enter four digit item code assigned department item tax food tax reported separate line business location unknown clearly indicate item tax example reporting food sale lower food tax rate write foodsite code enter one four digit site code assigned department unknown leave blank gross receipt enter gross receipt sale tangible personal property taxable service made reporting period business location none enter zero adjustment make adjustment location reporting indicate plus minus total adjustment claimed location negative figure may exempt sale nontaxable receipt positive adjustment item purchased exempt subsequently used seller taxable sale enter amount taxable sale business location gross receipt adjustment taxable sale rate rate percentage must include combined state conservation park soil applicable local transportation sale tax rate percentage enter sale tax rate location unsure correct tax rate access department website httpdormogovbusinesssalesrates contact taxation division assistance amount tax multiply taxable sale location applicable tax rate percent enter amount taxpage total enter total gross receipt adjustment taxable sale tax due pagesales tax return form instruction continued form revised</t>
   </si>
   <si>
     <t>tax summary required field tax due tax code excess collection balance line plus line balance tax due line minus line special tax due total tax due line plus line tax credit alcohol total sale tax due line minus total line b c penalty total due line plusmississippi sale special tax return declare penalty perjury return including accompanying schedule examined best knowledge belief true correct complete return dategross income sale taxable gross incomeaa cc ctax calculated line c crate tax ddtaxable gross income dgross income sale bbdeductions schedule back bgross income sale b btax code general sale b taxable gross incomea gross income sale ctaxable gross income phonesignature taxpayer agenttax code table discount line limited per returnform rev account id amended return close accountfiling period ending address changename b tax credit beer c tax credit item purchased resale interesttax code table tax code tablerate tax table rate tax table rate tax tablesee back deduction schedule back deduction schedule back deduction schedule backtax calculated line line line discount line limited per return balance special tax due line minus line tax due tax code total sale tax special tax due line plus line line plus line tax calculated line line line tax calculated line line line x x xmmddyyyyxxxxxxxxxxxxxxxx tax code amount contractor tax due monthcompensation received month contract amountprime contractor tax schedule tax code schedule itemized deductionsform rev material purchase certificate number oil gas well drillers number total tax code front line b c total tax code front line b c dtotal deductionsmississippi purchase made snapebt sale mpc holder sale delivered outside mississippisales motor fuel wholesale sale sale resale sale direct pay permit holder sale prescriptiondrugs medicine nontaxable salessales special tax included change address marked front list new address zip citymailing address number street including rural route statesales special tax return xx xxxxxxxx xxxxxxxxxxxxxxxxxx xx xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxfilling return sale special tax return divided four tax category section tax summary section tax category section used report sale deduction tax category occurred use many tax category section different category need report four tax category need file taptax summary line b c dinclude return check money order amount line department revenue po box jackson m enter month last day month year return cover box using number indicate month year example september would entered asaccount numberline return account number preprinted enter account number field provided beneath area name filing perioduse black ink preparing return print number like thismississippi sale special tax return instruction sending return tax category enter tax code tax category table assigned category tax reporting one tax code used tax category four category need file tap line b c enter total gross sale category tax reporting line b c enter deduction tax rate corresponds schedule deduction back returnenter excess collection line b c line b c multiplied rate line b c denter total line b c tax category vendor discount appliestax code line line line plus line line enter total line b c tax category vendor discount doesnt applytax code line enter total line plus line line aform rev staple return quarterly filer enter period way line b c dline enter result line multiplied amount limited per return vendor discount allowed return filed paid time line minus line line line b c minus line b c line b c enter tax rate tax category table corresponds category tax reportingenter amount wholesale tax paid alcohol filing period ending line b enter amount wholesale tax paid beer line c enter tax credit item purchased resale state tax interstate telecommunication line enter total line minus line b c line enter total line b c tax category representing special special city tax levytax code line enter result line multiplied amount limited per return vendor discounteffective allowed return filed paid time line enter total line minus line line enter total line line line enter applicable penalty return filed latemississippi sale special tax return instructionsform rev staple return line enter applicable interest due date return return filed late line enter net total line amount pay schedule itemized deduction line record sale special tax included line line record sale subject mississippi sale tax line closely describes type sale example sale prescription drug recorded line line record sale subject mississippi sale tax fit one type sale line line enter total line transfer total line b c tax category section front return total split among applicable rate taxprime contractor tax schedule contractor qualified construction contract department revenue must complete schedule person firm domiciled outside mississippi required qualify pay contractor tax due total contract amount work begun unless surety bond filed provided section amount sufficient ensure payment tax mpc oil gas well driller column identify tax payment complete digit material purchase numbermpc oil gas well driller number first two character alpha characterssuch bb pd next eight character numeric characterssuch example b b compensation received column tax guaranteed surety bond amount contract less report amount progress payment received month also report amount progress payment prepaid contract contract exceded original contract amount amount contractor tax due column enter tax due amount compensation received column question please contact local district service office contact information found website wwwdormsgovthe first section schedule applies contract subject rate second section schedule applies contract subject rate contract includes rate tax contract must entered section schedule total line rate transferred appropriate tax category section front return general sale tax rate truck greater lb mobile home aircraftautos motor home light truck lb less electric power association manufacturing machinery industrial fuel farm tractor farm implement including replacement part sale construction floating vessel nontransportation contracting manufacturing contracting commercial non residential public utlities industrial sale repealed public utility nonresidential consumer sale wholesale beer whiskywholesale food drink full service vending interstate telecommunication tupelo special city tax special tax special tax special tax special tax special tax special tax special tax tax category tax code tax rate yes yesyes yes yes yes nonononononono yes yesyesyesyesyesyesyesvendor discount tax category table hotel special tax yes jackson infrastructure tax yes january january december st january december st january december st january december st january rental auto light truck lb less yes</t>
   </si>
   <si>
-    <t>execution copy tax allocation agreement tax allocation agreement agreement dated november th among app pharmaceutical inc fka generico holding inc delaware corporation gholdco ap p pharmaceutical llc delaware limited liability company generico gholdco generico collectively generico party new abraxis inc delaware corporation renamed abraxis bioscience inc new alpha abraxis bioscience llc delaware limited liability company new alpha llc new alpha new alpha llc collectively alpha party recital whereas prior alpha merger defined corporation formerly known abraxis bioscience inc alpha common parent affiliated group corporation within meaning section internal revenue code amended code currently file consolidated federal income tax return affiliated group whereas date hereof alpha merged alpha merger new alpha llc whereby issued outstanding share common stock par value per share alpha share held alpha treasury converted ne share common stock par value per share gholdco gholdco common stock new alpha llc surviving entity alpha merger membership interest held gholdco whereas consequence alpha rger alpha ceased exist gholdco became common parent affiliated group whereas pursuant separation agreement dated date hereof generico party alpha party may amended time time ccordance term separation agreement gholdco distribute stockholder pro rata basis issued outstanding share new alpha common stock new alpha common stock described fully separation agreement share distribution new alpha change name abraxis bioscience inc whereas connection transaction contemplated separation agreement one generico group member incur aggregate f billion indebtedness debt financing whereas party agreement intend alpha merger qualify tax free reorganization within meaning section af code ii following alpha merger gholdco successor alpha tax purpose became common parent affiliated group iii new alpha contribution cash contribution followed share distribution qualify tax free reorganization within meaning section ad code iv share distribution qualify distribution eligible nonrecognition section c code whereas distribution date defined separation agreement neither new alpha new alpha llc alpha subsidiary hereinafter defined member affiliated group federal income tax purpose time formation distribution date new alpha llc disregarded entity separate new alpha u federal income tax purpose time formation distribution date generico disregarded entity separate new alpha gholdco u federal income tax purpose whereas share distribution aff iliated group shall continue gholdco shall treated common parent affiliated group federal income tax purpose whereas generico group alpha group hereinafter defined desire behalf su ccessors set forth right obligation respect tax due period distribution date therefore good valuable consideration receipt sufficiency hereby acknowledged part y hereto agree follows article definition section general capitalized term used agreement meaning set forth agreement defined separation agreement used agreement following term shall following meaning meaning equally applicable singular plural form term defined affiliate meaning set fort h separation agreement affiliated group meaning set forth first recital agreement mean tax allocation agreement may amended time time alpha meaning set forth first recital alpha b usiness meaning set forth separation agreement alpha group mean new alpha new alpha llc alpha subsidiary alpha indemnified party meaning set forth separation agreement alpha merger meaning set forth second recital alpha party meaning set forth preamble alpha separate group basis mean case covered group return amount covered group tax covered group return would due underlying covered group conducted solely alpha business conduct generico business c omputed taking account election accounting method actually used computing covered group tax covered group return ii adjustment contemplated agreement alpha subsidiary mean irect indirect subsidiary alpha immediately distribution alpha tax mean tax extent related alpha business amount alpha tax taxable year shall deemed zero claim meaning se forth section code meaning set forth first recital combined return meaning set forth section controlling party mean party described controlling party accordance section covered group mean group person join filing covered group return covered group return mean tax return including consolidated combined unitary tax return includes alpha tax generico tax period end prior includes distribution date covered group tax mean tax reportable covered group return debt financing meaning set forth fifth recital erisa mean employee retirement income security act amended filing party meaning set forth section final determination mean respect issue decision judgment decree order court competent jurisdiction decision judgment decre e order become final subject appeal b closing agreement whether entered section code binding settlement agreement whether irs entered connection wit h contemplation administrative judicial proceeding c completion highest level administrative proceeding judicial contest longer available final disposition including reason expiration applicable statute limitation generico meaning set forth preamble generico business meaning set forth separation agreement generico group mean gholdco generico generico subsidiary generico indemnified party meaning set forth separation agreement generico party meaning set forth preamble generico subsidiary mean direct indirect subsidiary generico member alpha group generico tainting act mean action failure take reasonably available action distribution date generico party affiliate generico party action contemplated transaction agreement b acquisition transaction involving equity member generico group distribution new alpha common stock share distribution c prohibited act performed generico party affiliate generico party generico tax mean tax extent related generico business gholdco meaning set forth preamble gholdco common stock meaning set forth second recital governmental entity meaning set forth separation agreement income tax mean tax measured imposed lieu net income income tax return mean tax return relating income tax indemnifiable loss meaning set forth separation agreement indemnified party meaning set forth section b independent firm meaning set forth article vi irs mean united state internal revenue service liable party meaning set forth section new alpha meaning set forth preamble new alpha common stock meaning set forth fourth recital new alpha llc meaning set forth preamble person meaning set forth separation agreement postdistribution period mean taxable year taxable period beginning af ter distribution date case taxable year taxable period begin end distribution date part taxable year taxable period begin beginning day di stribution date predistribution period mean taxable year taxable period end close distribution date case taxable year taxable period begin end dis tribution date part taxable year taxable period close distribution date prior payment mean type tax return taxable year payment previously made governmental entity respect uch tax return taxable year amount overpayment prior taxable period creditable liability reportable tax return taxable year private letter ruling meaning set forth separat ion agreement prohibited act meaning specified section restricted period meaning specified section restructuring tax mean tax liability including without limitation liability stock holder cost defending imposition tax liability member generico group alpha group arising attributable one transaction including limited fail ure share distribution constitute tax free distribution section section ad code b failure stock new alpha qualify qualified property within meaning section c section c code application section section e code share distribution ruling request mean ruling request material including attachment supplemental submission irs delivered deliverable alpha party others connection issuance irs private letter ruling separati agreement meaning set forth fourth recital share distribution meaning set forth fourth recital straddle period meaning set forth section subsidiary mean used respect person corporation organization whether incorporated unincorporated least majority security interest term ordinary voting power elect majority board director others performing simi lar function respect corporation organization directly indirectly owned controlled person one subsidiary person one subsidiary tax correlative meaning tax taxable meaning set forth separation agreement tax carryover attribute meaning specified section tax liability issue meaning set forth section b tax return mean return report similar statement filed required filed respect tax including attached schedule including without limitation information return claim refund amended return declaration estimated tax transaction taxe meaning set forth section b article ii tax return tax payment tax sharing obligation section obligation file tax return gholdco shall prepare timely file cause timely filed tax return resp ect member alpha group generico group due taking account extension properly filed distribution date b distribution date gholdco shall prepare timely file cause timely filed covered group return ii tax return relate solely generico business including income tax return respect one member generico group include member alpha group c distribution date new alpha shall prepare timely file cause timely filed tax return relate solely alpha business including income tax return respect one member alpha group include member generico group covered grou p return tax return relating member generico group taxable year period ending including distribution date ii member alpha group required filed gholdco pursuan agreement shall extent permitted applicable law prepared basis consistent election method accounting position convention principle taxation manner tax item information reported reflected comparable tax return filed date agreement provided different method used x would materially increase tax alpha group would responsible agreement prior written consent new alpha consent unreasonably withheld preceding sentence shall apply e xtent otherwise contemplated required ruling request private letter ruling ii necessary comply change applicable law consent shall considered unreasonably withheld within meaning second preceding se ntence different method would increase tax alpha party would responsible agreement gholdco compensate alpha party gholdco shall make available new alpha tax return respo nsible filing pursuant section least calendar day prior filing provided new alpha shall supply gholdco information regarding member alpha group necessary preparing return least calendar day prior due date taking account available extension filing return b make reasonable revision tax return requested new alpha e gholdco new alpha alpha case may shall bear outofpocket cost including accountant attorney fee incurred preparing tax return responsible preparing filing section section obligation remit tax gholdco new alpha shall timely remit cause timely remitted tax due respect tax return required file cause filed pursuant section section tax indemnity prior agreement refund distribution date alpha party shall indemnify defend hold harmless generico indemnified party indemnifiable loss incurred suffered one generico indemnified party connection w ith relating arising due directly indirectly alpha tax including avoidance doubt alpha tax arising redetermination thereof audit examination pre distribution period straddle pe riod ii amount new alpha liable section amount payable alpha party generico party respect tax pursuant section shall reduced direct indirect payment made alpha party alpha affiliate respect tax distribution date generico indemni fied party prior payment made behalf alpha party portion prior payment deemed behalf alpha party shall portion bear proportion prior payment portion c overed group tax prior payment relates constitute alpha tax bear amount covered group tax prior payment relates taxable year example amount notional tax constitute alpha tax period beginning january ending distribution date x amount notional tax constitute generico tax period x percent estimated tax payment made respect period shall deemed made behalf alpha party b distribution date generico party shall indemnify defend hold harmless alpha indemnified party indemnifiable los s incurred suffered one alpha indemnified party connection relating arising due directly indirectly generico tax including avoidance doubt generico tax arising determination thereof audit examination pre distribution period straddle period ii amount gholdco liable section amount payable generico party alpha party respect tax pursuant section b shall reduced direct indirect payment made generico party generico affiliate respect tax distribution date alpha indemnified party prior payment made behalf generico party portion prior payment deemed behalf generico party shall portion bear proportion prior payment portion covered group tax prior paym ent relates constitute generico tax bear amount covered group tax prior payment relates taxable year c prior tax sharing agreement practice generico party gholdco subsidiary one hand alpha party alpha subsidiary hand shall automatically terminated distribution date agreement set forth transaction agreement distribution date new alpha shall entitled refund credit alpha tax provided generico party shall entitled receive retain refund tax extent refund attributable tax carryover attribute relating generico business distribution date gholdco shall entitled refund credit generico tax section restructuring tax tax relating share distribution except otherwise provided section c next sentence section alpha party shall liable f restructuring tax generico party shall liable restructuring tax imposed result generico tainting act b notwithstanding section generico party shall liable alpha party shall liable sale transfer value added similar tax fee including real estate transfer tax real estate recording fee patent copyright trademark recording fee similar item relating patent copyright trademark excluding restructuring tax payable connection transaction contemplated separation agreement transaction tax party agree timely sign deliver certificate form req uested party may necessary appropriate enable party file promptly timely tax return transaction tax appropriate taxing authority remit payment transaction tax section straddle period portion covered group tax constituting alpha tax shall computed alpha separate group basis remaining portion covered group tax shall constitute generico tax b tax including escheat liability covered group tax tax addressed section shall constitute alpha tax extent relates alpha business including tax relating alpha business attributable pre distribution period gholdco liable successor alpha tax purpose ii generico tax extent relates generico business section preclosing v post closing issue notwithstanding provision agree ment amount arising virtue exercise distribution date compensatory option acquire new alpha common stock gholdco common stock ii vesting distribution date restricted stock unit new alp ha gholdco shall deductible gholdco holder option restricted stock unit employed gholdco subsidiary gholdco date option restricted stock unit granted date exercise vesting applicable deductible new alpha holder option restricted stock unit employed new alpha subsidiary new alpha date option restricted stock unit granted date exercise vesting applicable case except otherwise determined irs private letter ruling final determination b extent required applicable law taxable year member alpha group shall close close distribution date taxable income year income tax purpose shall computed taking account principle treasury regulation section b corresponding provision law applicable state local municipal foreign jurisdiction except ratable allocation election extraordinary item defined thereunder made section tax attribute tax benefit carryforwards post distribution period including net operating loss carryforwards net capital loss carryforwards foreign tax credit carryforwards research development credit carryforwards shall computed allocated alpha business generico business based group generated em except extent otherwise provided applicable law extent tax benefit relates alpha business matter law allocated amount tax benefit shall reduce payment obligation alpha party agreement extent amount tax benefit exceeds payment obligation alpha party agreement generico party shall pay amount excess alpha party benefit tax benefit realized b allocation earnings profit gholdco alpha party shall reasonably determined new alpha pursuant section h code treasury regulation promulgated thereunder within si x month distribution date section carryback provision unless party otherwise agree writing alpha party generico party shall elect shall cause alpha subsidiary generico subsidiary elect w permitted applicable law carry forward loss credit similar tax attribute arising post distribution period respect covered group return tax carryover attribute could absence election carried back pre distribution period refund credit tax resulting required carryback covered group return tax carryover attribute attributable alpha business arising post distribution period shall accoun benefit new alpha provided however gholdco shall required pay amount new alpha time amount actually realized cash credit refund offset generico group taking account tax attribute affiliated group ii carryback tax carryover attribute attributable generico business refund credit offset tax resulting carryback tax carryover attribute attributable generi co business arising post distribution period shall account benefit gholdco member alpha group recognizes tax carryover attribute applicable law must carried back pre distribution period alpha alpha subsidiary joined filing tax return consolidated combined unitary basis one gholdco generico gholdco subsidiary gholdco shall expense new alpha file appropriate refund claim within reasonable period requested new alpha unless filing shall materially adversely affect liability attribute generico party affiliate und er agreement including ability member generico group carry back tax attribute case filing shall subject gholdcos prior written consent consent unreasonably withheld refund claim alpha party received payment generico party subsequently disallowed relevant governmental entity alpha party shall promptly return payment generico party together interest penalty addition tax resulting disallowance section general tax payment respect tax one party liable party liable article ii remitted connection tax return filed party filing party distribution date liable party shall make payment estimated tax later fifth day receipt written request fifth date preceding due date payment filing party setting forth filing party good faith estimate liable party portion estimated tax remitted promptly date tax return taxable period due including extension filing pa rty shall provide written request liable party describing reasonable detail amount true payment owed filing party made liable party trueup payment owed filing party liable party r esult overpayment liable party true payment shall made later fifteen day receipt written request true payment section payment payment due party article ii shall due case receipt crediting refund five day receipt crediting b case final determination completion audit assessment examination similar event two day prior ate payment made governmental entity case delay payment party required made payment shall pay interest party rate equal prime rate citibank na effect date payment wa required made plus section payment failure party required make payment hereunder fails make payment required agreement required time period specified within business day written req uest party payment due amount due shall bear interest rate equal prime rate citibank na effect date payment required made plus section notice gholdco new alpha shall give prompt written notice payment may due agreement provided failure notify shall cause party forfeit substantive right except extent party materially prejudiced thereby payment may due agreement made wire transfer immediately available fund account designated gholdco new alpha notice method shall agreed upon gholdco new alpha section amended tax return distribution date generico party shall shall permit affiliate file amended tax return predistribution period straddle period without prior written consent new alpha consent unreasonably withheld unless amended tax return materially adversely affect liability attribute alpha party affiliate agreement separation agreement including ability new alpha carry back tax carryover attribute accordance section section combined tax return distribution date generico party alpha party sh required file combined tax return california combined return gholdco shall prepare timely file cause timely filed combined return ii gholdco shall timely remit cause timely remitted tax due respect combined return iii respective liability party respect tax due respect combined return shall determined accordance cal code regs tit amount respecti liability alpha party shall alpha tax amount respective liability generico party shall generico tax section option deduction except otherwise required law upon exercise option purchase new alpha stock new alpha new alpha shall claim tax deduction attributable exercise tax return member generico group shall claim deduction tax return except otherwise required law upon exercise option purchase gholdco stock gholdco gholdco shall claim tax deduction attributable exercise tax return member alpha group shall claim deduction tax return b section shall pply mutatis mutandis equity based compensation including restricted stock article iii tax audit section controlling party except otherwise provided agreement gholdco shall controlling party respect covered group tax relating generico business new alpha shall controlling party covered group tax relating alpha business th e controlling party respect covered group tax shall right control conduct disposition audit proceeding respect covered group tax provided new alpha shall subject provision agreement right conduct lead audit proceeding relating restructuring tax unless restructuring tax imposed result generico tainting act case alpha party generico p arties shall jointly control conduct disposition audit proceeding respect restructuring tax expense generico party section tax contest procedure controlling party shall right n controlling party reasonable discretion resolve settle agree deficiency claim adjustment proposed asserted assessed connection result tax controversy including without limitation audit protest claim refund competent authority proceeding litigation tax court court competent jurisdiction tax controversy respect tax controlling party responsible set forth section control right shall extend matter pertaining management control tax controversy including execution waiver choice forum scheduling conference resolution tax item non controlling party shall issue controlling party power attorney consent necessary permit controlling party exercise right cost incurred handling contesting tax controversy shall borne controlling party article iv cooperation following provision shall apply distribution date section inconsistent action party hereto agrees cause affiliate report alpha merger tax free reorganization within meaning section af code alpha contribution followed share distribution tax free reorganization within meaning section ad code share distribution distribution qualifying non recognition section c code tax return filing b comply take action inconsistent representation covenant provided irs connection obtaining private letter ruling c restricted period fail engaged conduct active trade business relied upon purpose satisfying requirement section b code purpose private letter ruling post distribution period party agreement agrees cause affiliate absence controlling change applicable law circumstance report tax return tax consequence transaction undertaken pursu ant transaction agreement accordance position taken respect transaction extent reported covered group return filed respect transaction section prohibited act month following distribution date restricted period generico party affiliate one hand alpha party affiliate hand agree redeem otherwise r epurchase capital stock gholdco new alpha pursuant open market stock repurchase program meeting requirement section b rev proc cb ii enter agreement arrangement re pect transaction event including limited capital contribution acquisition entering partnership joint venture arrangement stock issuance stock acquisition option grant series transaction event excluding share distribution case clause ii considered part plan includes share distribution would result one person acquiring directly indirectly stock gholdco new alpha representing percent greater interest therein within meaning section code act inconsistent act described section hereof act described clause ii collectively prohibited act notwithstanding foregoing following shall considered prohibited act v issuance compensatory option gholdco w issuance gholdco stock pursuant gholdco compensatory option restr icted stock unit x repurchase gholdco restricted stock case described clause v w x action satisfies condition treasury regulation di issuance stock retirement pl qualified section code transaction satisfies requirement treasury regulation section avoidance doubt issuance additional equity right acquire new equity gholdco new investor restricted period shall considered prohibited act b notwithstanding foregoing party may take prohibited act subject section case alpha party affiliate new alpha first obtains expense opinion form substance reasonably acceptable gholdco fried frank harris shriver jacobson llp another nationally recognized law firm big four accounting firm reasonably acceptable ghol dco opinion may based usual customary factual representation b new alpha request gholdco new alpha expense obtains supplemental ruling irs ii case gholdco affiliate gholdco fir obtains expense opinion form substance reasonably acceptable new alpha nationally recognized law firm big four accounting firm reasonably acceptable new alpha opinion may based usual customary factual r epresentations b gholdco expense obtains supplemental ruling irs case prohibited act transaction related thereto affect qualification share distribution section section ad code ii nonrecognition gain gholdco share distribution party may also take prohibited act subject section written consent party party sole absolute discretion restricted period party shall provide shall cause respective affiliate provide information reasonably requested party relating transaction involving acquisition directly ind irectly party stock within meaning section e code party hereto agree payment monetary compensation would adequate remedy breach obligation described prohibited act pa rty consent issuance entry injunction prevent breach obligation contained prohibited act subject waiver consent described preceding sentence new alpha represents knowledge da te agreement time share distribution except contemplated transaction agreement agreement understanding arrangement substantial negotiation gholdco subsidiary concerning ny acquisition gholdco stock purpose applying treas reg opinion andor ruling obtained accordance section bii may assume accuracy representation c notwithstanding anything agreement contrary party shall responsible shall indemnify party hold party harmless restructuring tax resulting prohibited act taken party affiliate regardless whether exception contained section b satisfied respect act section cooperation respect tax return filing examination tax related controversy addition obligation imposed pursuant separation agreement party shall fully cooperate party representative prompt timely manner connection preparation filing ii inquiry audit redetermination examination investigation dispute litigation involving tax return required filed party pursuant agreement cooperation shall include limited execution delivery party power attorney required allow party counsel participate control inquiry audit administrative proceeding assume defense prosecution case may suit action proceeding pursuant term subject condition set forth article iii b making available normal business hour within day written request therefor book record information assistance officer employee necessary useful co nnection preparation tax return tax inquiry audit redetermination examination investigation dispute litigation matter recovery generico party alpha party respective affiliate third party including award damage relating restructuring tax shall shared allocated party consistently allocation underlying restructuring tax article v retention record access alpha group generico group shall retain information accordance section separation agreement prior distribution date new alpha shal l make available gholdco copy consolidated combined unitary tax return affiliated group note workpapers correspondence record related thereto article vi dispute distribution date new alp ha gholdco agree calculation liability agreement interpretation application provision agreement either party may provide party written notice intent invoke dispute resolution procedure article vi within day following receipt written notice new alpha gholdco shall jointly retain nationally recognized law firm big four accounting firm firm independent party independent firm resolve dispute party jointly agree independent firm resolve dispute within day period party shall select nationally recognized law firm big four accounting firm firm independent party law accounting firm shall jointly select independent firm shall make determination article vi independent firm shall act arbitrator resolve point disagreement decision shall final binding upon party involved independent firm shall determine appropriate outcome based upon agreement respect disputed item independent firm shall day date sele cted make determination unless new alpha gholdco mutually agree extension period independent firm discretion determines extension period warranted exceptional circumstance new alp ha gholdco shall provide independent firm information documentation independent firm deems discretion necessary make determination requested determination independent firm shall n writing following decision independent firm new alpha gholdco shall take cause taken action necessary implement decision independent firm fee expense relating independent firm shall bo rne party independent firm determines lost dispute notwithstanding foregoing article vi shall apply dispute arising section c respect respective liability party event restructuring tax imposed article vii survival liability notwithstanding provision agreement liability agreement shall survive day following applicable statute limitation provided however party may continue dem full amount payment made respect liability agreement liability shall continue survive paid full accordance agreement article viii miscellaneous section entire agreeme nt construction agreement separation agreement ancillary agreement including annex schedule exhibit hereto thereto agreement document referred herein therein together constitute entir e agreement party respect subject matter hereof thereof supersede prior negotiation agreement understanding party nature whether oral written respect subject matter notwi thstanding provision agreement contrary event extent conflict relating tax provision agreement provision separation agreement ancillary agre ements provision agreement shall control section survival agreement except otherwise contemplated agreement covenant agreement party contained agreement remain full force effect survive distribution date section governing law agreement governed construed accordance law state delaware without giving effect choice law principle thereof section notice notice communication hereunder shall writing shall deemed duly given date delivery delivered personally ii upon confirmation receipt delivered telefacsimile iii fir business day following date dispatch delivered recognized next day courier service iv received delivered registered certified mail return receipt requested postage prepaid notice hereunder shall deliver</t>
-  </si>
-  <si>
-    <t>execution copy tax allocation agreement tax allocation agreement agreement dated november th among app pharmaceutical inc fka generico holding inc delaware corporation gholdco app pharmaceutical llc delaware limited liability company generico gholdco generico collectively generico party new abraxis inc delaware corporation renamed abraxis bioscience inc new alpha abraxis bioscience llc delaware limited liability company new alpha llc new alpha new alpha llc collectively alpha party recital whereas prior alpha merger defined corporation formerly known abraxis bioscience inc alpha common parent affiliated group corporation within meaning section internal revenue code amended code currently file consolidated federal income tax return affiliated group whereas date hereof alpha merged alpha merger new alpha llc whereby issued outstanding share common stock par value per share alpha share held alpha treasury converted one share common stock par value per share ghol dco gholdco common stock new alpha llc surviving entity alpha merger membership interest held gholdco whereas consequence alpha merger alpha ceased exist gholdco became common parent affiliated group whereas pursuant separation agreement dated date hereof generico party alpha party may amended time time accordance term separation agreement gholdco distribute stockholder pro rata basis issued outstanding share new alpha common stock new alpha common stock described fully separation agreement share distribution new alpha change name abraxis bioscience inc whereas connection transaction contemplated separation agreement one generico group member incur aggregate billion indebtedness debt financing whereas party agreement intend alpha merger qualify tax free reorganization within meaning section af code ii following alpha merger gholdco successor alpha tax purpose became common parent affiliated group iii new alpha contribution cash contribution followed share distribution qualify tax free reorganization within meaning section ad code iv share distribution qualify distribution eligible nonrecognition section c code whereas distribution date defined separation agreement neither new alpha new alpha llc alpha subsidiary hereinafter defined member affiliated group federal income tax purpose tim e formation distribution date new alpha llc disregarded entity separate new alpha u federal income tax purpose time formation distribution date generico disregard ed entity separate new alpha gholdco u federal income tax purpose whereas share distribution affiliated group shall continue gholdco shall treated common parent affiliated group federal income tax purpose whereas generico group alpha group hereinafter defined desire behalf successor set forth right obligation respect tax due period distribution date therefore good valuable consideration receipt sufficiency hereby acknowledged party hereto agree follows article definition section general capitalized term used agreement meaning set forth agreement defined separation agreement used agreement following term shall following meaning meaning equally ap plicable singular plural form term defined affiliate meaning set forth separation agreement affiliated group meaning set forth first recital agreement mean tax allocation agreement may amended time time alpha meaning set forth first recital alpha business meaning set forth separation agreement alpha group mean new alpha new alpha llc alpha subsidiary alpha indemnified party meaning set forth separation agreement alpha merger meaning set forth second recital alpha party meaning set forth preamble alpha separate group basis mean case covered group return amount covered group tax covered group return would due underlying covered group conducted solely alpha business conduct generico business computed taking account election accounting method actually used computing covered group tax covered group return ii adjustment contemplated agreement alpha subsidiary mean direct indirect subsidiary alpha immediately distribution alpha tax mean tax extent related alpha business amount alpha tax taxable year shall deemed zero claim meaning set forth section code meaning set forth first recital combined return meaning set forth section controlling party mean party described controlling party accordance section covered group mean group person join filing covered group return covered group return mean tax return including consolidated combined unitary tax return includes alpha tax generico tax period end prior includes distribution date covered group tax mean tax reportable covered group return debt financing meaning set forth fifth recital erisa mean employee retirement income security act amended filing party meaning set forth section final determination mean respect issue decision judgment decree order court competent jurisdiction decision judgment decree order become final subject appeal b closing agreement whether r entered section code binding settlement agreement whether irs entered connection contemplation administrative judicial proceeding c completion highest le vel administrative proceeding judicial contest longer available final disposition including reason expiration applicable statute limitation generico meaning set forth preamble generico business meaning set forth separation agreement generico group mean gholdco generico generico subsidiary generico indemnified party meaning set forth separation agreement generico party meaning set forth preamble generico subsidiary mean direct indirect subsidiary generico member alpha group generico tainting act mean action failure take reasonably available action distribution date generico party affiliate generico party action contemplated transaction agreement b acquisition transaction involving equity member generico group distribution new alpha common stock share distribution c prohibited act performed generico party affiliate generico party generico tax mean tax extent related generico business gholdco meaning set forth preamble gholdco common stock meaning set forth second recital governmental entity meaning set forth separation agreement income tax mean tax measured imposed lieu net income income tax return mean tax return relating income tax indemnifiable loss meaning set forth separation agreement indemnified party meaning set forth section b independent firm meaning set forth article vi irs mean united state internal revenue service liable party meaning set forth section new alpha meaning set forth preamble new alpha common stock meaning set forth fourth recital new alpha llc meaning set forth preamble person meaning set forth separation agreement postdistribution period mean taxable year taxable period beginning distribution date case taxable year taxable period begin end distribution date part taxable year taxabl e period begin beginning day distribution date predistribution period mean taxable year taxable period end close distribution date case taxable year taxable period begin end distribution date part taxable year taxable period close distribution date prior payment mean type tax return taxable year payment previously made governmental entity respect tax return taxable year amount overpayment prior taxable period creditable liability reportable tax return taxable year private letter ruling meaning set forth separation agreement prohibited act meaning specified section restricted period meaning specified section restructuring tax mean tax liability including without limitation liability stockholder cost defending imposition tax liability member generico group alpha group arising attributable one transaction including limited failure share distribution constitute tax free distribution section section ad code b failure stock new al pha qualify qualified property within meaning section c section c code application section section e code share distribution ruling request mean ruling request material including attachment supplemental submission irs delivered deliverable alpha party others connection issuance irs private letter ruling separation agreement meaning set forth fourth recital share distribution meaning set forth fourth recital straddle period meaning set forth section subsidiary mean used respect person corporation organization whether incorporated unincorporated least majority security interest term ordinary voting power elect majority board director others performing similar function respect corporation organization directly indirectly owned controlled person one subsidiary person one mor e subsidiary tax correlative meaning tax taxable meaning set forth separation agreement tax carryover attribute meaning specified section tax liability issue meaning set forth section b tax return mean return report similar statement filed required filed respect tax including attached schedule including without limitation information return claim refund amended return declaration estimated ta x transaction tax meaning set forth section b article ii tax return tax payment tax sharing obligation section obligation file tax return gholdco shall prepare timely file cause timely filed tax return respect member alpha group generico group due taking account extension properly filed distribution date b distribution date gholdco shall prepare timely file cause timely filed covered group return ii tax return relate solely generico business including income tax return respect one member generico group include member alpha group c distribution date new alpha shall prepare timely file cause timely filed tax return relate solely alpha business including income tax return respect one member alpha group include member generico group covered group return tax return relating member generico group taxable year period ending including distribution date ii member alpha group required file gholdco pursuant agreement shall extent permitted applicable law prepared basis consistent election method accounting position convention principle taxation manner tax item information reported reflected comparable tax return filed date agreement provided different method used x would materially increase tax alpha group would responsible agreement prior written consent new alpha consent unreasonably withheld preceding sentence shall apply e xtent otherwise contemplated required ruling request private letter ruling ii necessary comply change applicable law consent shall considered unreasonably withheld within meaning second preceding se ntence different method would increase tax alpha party would responsible agreement gholdco compensate alpha party gholdco shall make available new alpha tax return respo nsible filing pursuant section least calendar day prior filing provided new alpha shall supply gholdco information regarding member alpha group necessary preparing return least calendar day prior due date taking account available extension filing return b make reasonable revision tax return requested new alpha e gholdco new alpha alpha case may shall bear ofpocket cost including accountant attorney fee incurred preparing tax return responsible preparing filing section section obligation remit tax gholdco new alpha shall timely remit cause timely remitted tax due respect tax return required file cause filed pursuant section section tax indemnity prior agreement refund distribution date alpha party shall indemnify defend hold harmless generico indemnified party indemnifiable loss incurred suffered one generico indemnified parti e connection relating arising due directly indirectly alpha tax including avoidance doubt alpha tax arising redetermination thereof audit examination pre distribution per iod straddle period ii amount new alpha liable section amount payable alpha party generico party respect tax pursuant section shall reduced direct indirect payment made lpha party alpha affiliate respect tax distribution date generico indemnified party prior payment made behalf alpha party portion prior payment deemed behalf alpha party shall portion bear proportion prior payment portion covered group tax prior payment relates constitute alpha tax bear amount covered group tax prior payment relates taxable year example amount notional tax constitute alpha tax period beginning january ending distribution date x amount notional tax constitute gener ico tax period x percent estimated tax payment made respect period shall deemed made behalf alpha party b distribution date generico party shall indemnify defend hold harmless alpha indemnified party indemnifiable loss incurred suffered one alpha indemnified party connection relating arising due directly indirectly generico tax including avoidance doubt generico tax arising redetermination thereof audit examination pre distribution period straddle period ii amount gholdco liable section amount payable generico party alpha party respect tax pursuant section b shall reduced direct indir ect payment made generico party generico affiliate respect tax distribution date alpha indemnified party prior payment made behalf generico party portion prior payment deemed behalf generico party shall portion bear proportion prior payment portion covered group tax prior payment relates constitute generico tax bear amount covered group tax prior payment relates taxable year c prior tax sharing agreement practice generico party gholdco subsidiary one hand alpha party alpha subsidiary hand shall automatically terminated distribution date agreement set forth transaction agreement distribution date new alpha shall entitled refund credit alpha tax provided generico party shall entitled receive retain refund tax extent refund attributable tax carryover attribute relating generico business distribution date gholdco shall entitled refund credit generico tax section restructuring tax tax relating share distribution except otherwise provided section c next sentence section alpha party shall liable restructuring tax generico party shall liable restructuring tax imposed result generico tainting act b notwithstanding section generico party shall liable alpha party shall liable sale transfer value added similar tax fee including real estate transfer tax real estate recor ding fee patent copyright trademark recording fee similar item relating patent copyright trademark excluding restructuring tax payable connection transaction contemplated separation agreement transaction tax party agree timely sign deliver certificate form requested party may necessary appropriate enable party file promptly timely tax return transaction tax appropr iate taxing authority remit payment transaction tax section straddle period portion covered group tax constituting alpha tax shall computed alpha separate group basis remaining portion covered group tax shall constitute generico tax b tax including escheat liability covered group tax tax addressed section shall constitute alpha tax extent relates alpha business including tax relating alpha business attributable pre distribution period gholdco liable successor alpha tax purpose ii generico tax extent relates generico business section preclosing v post closing issue notwithstanding provision agreement amount arising virtue exercise distribution date compensatory option acquire new alpha common stock gholdco common stock ii vesting distr ibution date restricted stock unit new alpha gholdco shall deductible gholdco holder option restricted stock unit employed gholdco subsidiary gholdco date option restricted stock unit w granted date exercise vesting applicable deductible new alpha holder option restricted stock unit employed new alpha subsidiary new alpha date option restricted stock unit granted date exercise vesting applicable case except otherwise determined irs private letter ruling final determination b extent required applicable law taxable year member alpha group shall close close distribution date taxable income year income tax purpose shall computed taking account principle treasury regulation section b corresponding provision law applicable state local municipal foreign jurisdiction except ratable allocation election extraordinary item defined thereunder made section tax attribute tax benefit carryforwards post distribution period including net operating loss carryforwards net capital loss carryforwards foreign tax credit carryforwards research development credit carryforwards shall computed allocated betwe en alpha business generico business based group generated item except extent otherwise provided applicable law extent tax benefit relates alpha business matter law llocated amount tax benefit shall reduce payment obligation alpha party agreement extent amount tax benefit exceeds payment obligation alpha party agreement gene rico party shall pay amount excess alpha party benefit tax benefit realized b allocation earnings profit gholdco alpha party shall reasonably determined new alpha pursuant section h code treasury regulation promulgated thereunder within six month distribution da te section carryback provision unless party otherwise agree writing alpha party generico party shall elect shall cause alpha subsidiary generico subsidiary elect permitted applicable law carry forward loss credit similar tax attribute arising post distribution period respect covered group return tax carryover attribute could absence election carried back pre distribution period refund credit tax resulting required carryback covered group return tax carryover attribute attributable alpha business ar ising post distribution period shall account benefit new alpha provided however gholdco shall required pay amount new alpha time amount actually realized cash credit refund offset generico group taking account tax attribute affiliated gro ii carryback tax carryover attribute attributable generico business refund credit offset tax resulting carryback tax carryover attribute attributable generico business arising post distri bution period shall account benefit gholdco member alpha group recognizes tax carryover attribute applicable law must carried back pre distribution period alpha alpha subsidiary joined filing tax return consolidated combined unitary basis one gholdco generico gholdco subsidiary gholdco shall expense new alpha file appropriate refund claim within reasonable period requested new alpha unless filin g shall materially adversely affect liability attribute generico party affiliate agreement including ability member generico group carry back tax attribute case filing shall subject gholdcos prior written consent consent unreasonably withheld refund claim alpha party received payment generico party subsequently disallowed relevant governmental entit alpha party shall promptly return payment generico party together interest penalty addition tax resulting disallowance section general tax payment respect tax one party liable party liable article ii remitted connection tax return filed party filing party distribution date liable party shall make payment estimated tax later fifth day receipt written request fifth date preceding due date payment filing party setting fo rth filing party good faith estimate liable party portion estimated tax remitted promptly date tax return taxable period due including extension filing party shall provide written reque st liable party describing reasonable detail amount true payment owed filing party made liable party trueup payment owed filing party liable party result overpayment liable party true payment shall made later fifteen day receipt written request true payment section payment payment due party article ii shall due case receipt crediting refund five day receipt crediting b case final determination completion audit assessment examination similar event two day prior date payment made governmental entity case delay payment party required made payment shall pay interest party rate equal prime rat e citibank na effect date payment required made plus section payment failure party required make payment hereunder fails make payment required agreement required time period specified within business day written request party payment due amount due shall bear interest rate equal prime rate citibank na effect date payment required made plus section notice gholdco new alpha shall give prompt written notice payment may due agreement provided failure notify shall cause party forfeit substantive right except extent party materially prejudiced thereby payment may due agreement made wire transfer immediately availa ble fund account designated gholdco new alpha notice method shall agreed upon gholdco new alpha section amended tax return distribution date generico party shall shall permit affiliate file amended tax return predistribution period straddle period without prior written consent new alpha consent unreasonably withheld unless amended tax return materially adversely affect liability attribute alpha party affiliate agreement separation agreement including abilit new alpha carry back tax carryover attribute accordance section section combined tax return distribution date generico party alpha party shall required file combined tax return california combined return gholdco shall prepare timely file cause timely filed combined return ii gholdco shall timely remit cause timely remitted tax due respect combined return iii respective liability party respect tax due respect combined return shall determined accordance cal code regs tit amount respective liability alpha party shall alpha tax amount spective liability generico party shall generico tax section option deduction except otherwise required law upon exercise option purchase new alpha stock new alpha new alpha shall claim tax deduction attributable exercise tax return member generico group shall claim su ch deduction tax return except otherwise required law upon exercise option purchase gholdco stock gholdco gholdco shall claim tax deduction attributable exercise tax return member alpha grou p shall claim deduction tax return b section shall apply mutatis mutandis equity based compensation including restricted stock article iii tax audit section controlling party except otherwise provided agreement gholdco shall controlling party respect covered group tax relating generico business new alpha shall controlling party covered group tax relating alpha business controlling party respect covered group tax shall right control conduct disposition audit proceeding respect covered group tax provided new alpha shall subject provision agreement right conduct lead audit proceeding relating restructuring tax unless restructuring tax imposed result generico tainting act case alpha party generico party shall jointly control conduct disposition audit proceeding respect restructuring tax expense generico party section tax contest procedure controlling party shall right controlling party reasonable discretion resolve settle agree deficiency claim adjustment proposed asserted assessed connection result tax controversy including without limitation audit protest claim refund competent authority proceeding litigation tax court court com petent jurisdiction tax controversy respect tax controlling party responsible set forth section control right shall extend matter pertaining management control tax controversy including execution waiver choice forum scheduling conference resolution tax item non controlling party shall issue controlling party power attorney consent necessary permit controlling party exercise right cost incurred handling contesting tax controversy shall borne controlling party article iv cooperation following provision shall apply distribution date section inconsistent action party hereto agrees cause affiliate report alpha merger tax free reorganization within meaning section af code alpha contribution followed share distribution tax free reorganization within meaning section ad code share distribution distribution qualifying nonrecognition section c code tax return filing b comply take action inconsistent representation covenant provided irs connection obtaining private letter ruling c restricted period fail engaged conduct active trade business relied upon f purpose satisfying requirement section b code purpose private letter ruling post distribution period party agreement agrees cause affiliate absence contr olling change applicable law circumstance report tax return tax consequence transaction undertaken pursuant transaction agreement accordance position taken respect transaction extent r eported covered group return filed respect transaction section prohibited act month following distribution date restricted period generico party affiliate one hand alpha party affiliate hand agree redeem otherwise repurchase capital stock gholdco new alpha pu rsuant open market stock repurchase program meeting requirement section b rev proc cb ii enter agreement arrangement respect transaction event including limited ca pital contribution acquisition entering partnership joint venture arrangement stock issuance stock acquisition option grant series transaction event excluding share distribution case clause ii considered part plan includes share distribution would result one person acquiring directly indirectly stock gholdco new alpha representing percent greater interest therein within meaning section code act inconsistent act described section hereof act described clause ii collectively prohibited act notwithstanding foregoing following shall considered prohibited act v issuance compensatory option gholdco w issuance gholdco stock pursuant gholdco compensatory option restricted stock unit x repurchase gholdco restricted stock case described clause v w x action satisfies condition treasury regulation di issuance stock retirement plan qualified section code transaction satisfies requirement treasury regulation section avoidance doubt issuance additional equity right acquire new equity gholdco new investor uring restricted period shall considered prohibited act b notwithstanding foregoing party may take prohibited act subject section case alpha party affiliate new alpha first obtains expense opinion form substance reasonably acceptable gholdco fried frank harris shriver jacobson llp another nationally recognized law firm big four accounting firm reasonably acceptable gholdco opinion may based usual customary factual representation b new alpha request gholdco new alpha expense obtains supplemental ruling irs ii case gholdco affiliate gholdco first obtains expense opinion form substance reasonably acceptable new alpha nationally recognized law firm big four accounting firm reasonably acceptable new alpha opinion may based usual customary factual representation b gholdco expense obtains supplemental ruling th e irs case prohibited act transaction related thereto affect qualification share distribution section section ad code ii nonrecognition gain gholdco share distribution party may also take prohibited act subject section written consent party party sole absolute discretion restricted period party shall provide shall cause respective affiliate provide information reasonably requested party relating transaction involving acquisition directly indirectly party stock within meaning section e code party hereto agree th payment monetary compensation would adequate remedy breach obligation described prohibited act party consent issuance entry injunction prevent breach obligation contained prohibited act subject waiver consent described preceding sentence new alpha represents knowledge date agreement time share distribution except contemplated transaction agreement agreement understanding arrangement substantial negotiation gholdco subsidiary concerning acquisition gholdco stock purpose applying treas reg opinion andor ru ling obtained accordance section bii may assume accuracy representation c notwithstanding anything agreement contrary party shall responsible shall indemnify party hold party harmless restructuring tax resulting prohibited act taken party ny affiliate regardless whether exception contained section b satisfied respect act section cooperation respect tax return filing examination tax related controversy addition obligation imposed pursuant separation agreement party shall fully cooperate party representative prompt timely manner connection preparation filing ii quiry audit redetermination examination investigation dispute litigation involving tax return required filed party pursuant agreement cooperation shall include limited execution de livery party power attorney required allow party counsel participate control inquiry audit administrative proceeding assume defense prosecution case may suit action proceeding pursuant term subject condition set forth article iii b making available normal business hour within day written request therefor book record information assistance officer employee necessary useful connection preparation tax return tax inquiry audit redetermination examination investigation dispute litigation matter recovery gen erico party alpha party respective affiliate third party including award damage relating restructuring tax shall shared allocated party consistently allocation underlying re tructuring tax article v retention record access alpha group generico group shall retain information accordance section separation agreement prior distribution date new alpha shall make available gholdco copy consolidated combined unitary tax return affiliated group note workpapers correspondence record related thereto article vi dispute distribution date new alpha gholdco agree calculation liability agreement interpretation application provision agreement either party may provide party wr itten notice intent invoke dispute resolution procedure article vi within day following receipt written notice new alpha gholdco shall jointly retain nationally recognized law firm big four accounting firm w hich firm independent party independent firm resolve dispute party jointly agree independent firm resolve dispute within day period party shall select nationally recognized law firm big four accounting firm firm independent f party law accounting firm shall jointly select independent firm shall make determination article vi independent firm shall act arbitrator resolve point disagreement decision shall final binding upon party involved independent firm shall determine appropriate outcome based upon agreement respect disputed item independent firm shall day date selected make determination unless new alpha gholdco mutually agree extension period independent firm discretion determines extension period warranted exceptional circumstance new alpha gholdco shall provide independent firm information documentation independent firm deems discretion necessary make determination requested determination independent firm shall writing foll owing decision independent firm new alpha gholdco shall take cause taken action necessary implement decision independent firm fee expense relating independent firm shall borne part independent firm determines lost dispute notwithstanding foregoing article vi shall apply dispute arising section c respect respective liability party event restructu ring tax imposed article vii survival liability notwithstanding provision agreement liability agreement shall survive day following applicable statute limitation provided however party may continue demand full amount payment made respect liability agreement liability shall continue survive paid full accordance agreement article viii miscellaneous section entire agreement construction agreement separation agreement ancillary agreement including annex schedule exhibit hereto thereto agreement document referred herein therein together constitute entire agreement betw een party respect subject matter hereof thereof supersede prior negotiation agreement understanding party nature whether oral written respect subject matter notwithstanding ther provision agreement contrary event extent conflict relating tax provision agreement provision separation agreement ancillary agreement provi sion agreement shall control section survival agreement except otherwise contemplated agreement covenant agreement party contained agreement remain full force effect survive distribution date section governing law agreement governed construed accordance law state delaware without giving effect choice law principle thereof section notice notice communication hereunder shall writing shall deemed duly given date delivery delivered personally ii upon confirmation receipt delivered telefacsimile iii first business day following date dispatch delivered recognized next day courier service iv received delivered registered certified mail return rece ipt requested postage prepaid notice hereunde</t>
-  </si>
-  <si>
-    <t>execution copy tax allocation agreement tax allocation agreement agreement dated november th among app pharmaceutical inc fka generico holding inc delaware corporation gholdco ap p pharmaceutical llc delaware limited liability company generico gholdco generico collectively generico party new abraxis inc delaware corporation renamed abraxis bioscience inc new alpha abraxis bioscience llc delaware limited liability company new alpha llc new alpha new alpha llc collectively alpha party recital whereas prior alpha merger defined corporation formerly known abraxis bioscience inc alpha common parent affiliated group corporation within meaning section internal revenue code amended code currently file consolidated federal income tax return affiliated group whereas date hereof alpha merged alpha merger new alpha llc whereby issued outstanding share common stock par value per share alpha share held alpha treasury converted ne share common stock par value per share gholdco gholdco common stock new alpha llc surviving entity alpha merger membership interest held gholdco whereas consequence alpha rger alpha ceased exist gholdco became common parent affiliated group whereas pursuant separation agreement dated date hereof generico party alpha party may amended time time ccordance term separation agreement gholdco distribute stockholder pro rata basis issued outstanding share new alpha common stock new alpha common stock described fully separation agreement share distribution new alpha change name abraxis bioscience inc whereas connection transaction contemplated separation agreement one generico group member incur aggregate f billion indebtedness debt financing whereas party agreement intend alpha merger qualify tax free reorganization within meaning section af code ii following alpha merger gholdco successor alpha tax purpose became common parent affiliated group iii new alpha contribution cash contribution followed share distribution qualify tax free reorganization within meaning section ad code iv share distribution qualify distribution eligible nonrecognition section c code whereas distribution date defined separation agreement neither new alpha new alpha llc alpha subsidiary hereinafter defined member affiliated group federal income tax purpose time formation distribution date new alpha llc disregarded entity separate new alpha u federal income tax purpose time formation di stribution date generico disregarded entity separate new alpha gholdco u federal income tax purpose whereas share distribution affiliated group shall continue gholdco shall treated common parent affiliated group federal income tax purpose whereas generico group alpha group hereinafter defined desire behalf successor set forth right obligation respect tax due period distribution date therefore good valuable consideration receipt sufficiency hereby acknowledged party hereto agree follows article definition section general capitalized term used agreement meaning set forth agreement defined separation agreement used agreement following term shall following meaning meaning equally ap plicable singular plural form term defined affiliate meaning set forth separation agreement affiliated group meaning set forth first recital agreement mean tax allocation agreement may amended time time alpha meaning set forth first recital alpha business meaning set forth separation agreement alpha group mean new alpha new alpha llc alpha subsidiary alpha indem nified party meaning set forth separation agreement alpha merger meaning set forth second recital alpha party meaning set forth preamble alpha separate group basis mean case covered group return amount covered group tax covered group return would due underlying covered group conducted solely alpha business conduct generico business computed taking account election accounting method actually used computing covered group tax covered group return ii adjustment contemplated agreement alpha subsidiary mean direct indirect subsidiary alpha immediate ly distribution alpha tax mean tax extent related alpha business amount alpha tax taxable year shall deemed zero claim meaning set forth section code meaning set forth first recital combined return meaning set forth section controlling party mean party described controlling party accordance section covered group mean group person join filing covered group return covered group return mean tax return including consolidated combined unitary tax return includes alpha tax generico tax period end prior includes distribution date covered group tax mean tax reportable covered group return debt financing meaning set forth fifth recital erisa mean employee retirement income security act amended filing party meaning set forth section final determination mean respect issue decision judgment decree order court competent jurisdiction decision judgment decree orde r become final subject appeal b closing agreement whether entered section code binding settlement agreement whether irs entered connection contemp lation administrative judicial proceeding c completion highest level administrative proceeding judicial contest longer available final disposition including reason expiration applicable statute limitation generico meaning set forth preamble generico business meaning set forth separation agreement generico group mean gholdco generico generico subsidiary generico indemnified party meaning set forth separation agreement generico party meaning set forth preamble generico subsidiary mean direct indirect subsidiary generico member alpha group generico tainting act mean action failure take reasonably available action distribution date generico party affiliate generico party action contemplated transaction agreement b acquisition transaction involving equity member generico group distribution new alpha common stock share distribution c prohibited act performed generico party affiliate generico party generico tax mean tax extent related generico business gholdco meaning set forth preamble gholdco common stock meaning set forth second recital governmental entity meaning set forth separation agreement income tax mean tax measured imposed lieu net income income tax return mean tax return relating income tax indemnifiable loss meaning set forth separation agreement indemnified party meaning set forth section b independent firm meaning set forth article vi irs mean united state internal revenue service liable party meaning set forth section new alpha meaning set forth preamble new alpha common stock meaning set forth fourth recital new alpha llc meaning set forth preamble person meaning set forth separation agreement postdistribution period mean taxable year taxable period beginning af ter distribution date case taxable year taxable period begin end distribution date part taxable year taxable period begin beginning day di stribution date predistribution period mean taxable year taxable period end close distribution date case taxable year taxable period begin end dis tribution date part taxable year taxable period close distribution date prior payment mean type tax return taxable year payment previously made governmental entity respect uch tax return taxable year amount overpayment prior taxable period creditable liability reportable tax return taxable year private letter ruling meaning set forth separat ion agreement prohibited act meaning specified section restricted period meaning specified section restructuring tax mean tax liability including without limitation liability stock holder cost defending imposition tax liability member generico group alpha group arising attributable one transaction including limited fail ure share distribution constitute tax free distribution section section ad code b failure stock new alpha qualify qualified property within meaning section c section c code application section section e code share distribution ruling request mean ruling request material including attachment supplemental submission irs delivered deliverable alpha party others connection issuance irs private letter ruling separation agreement meaning set forth fourth recital share distribution meaning set forth fourth recital straddle period meaning set forth section subsidiary mean used respect person corporation ot organization whether incorporated unincorporated least majority security interest term ordinary voting power elect majority board director others performing similar function wit h respect corporation organization directly indirectly owned controlled person one subsidiary person one subsidiary tax correlative meaning tax taxable meaning set forth separation agreement tax carryover attribute meaning specified section tax liability issue meaning set forth section b tax return mean return report similar statement filed required filed respect tax including attached schedule including without limitation information return claim refund amended return declaration estimated tax transaction tax meanin g set forth section b article ii tax return tax payment tax sharing obligation section obligation file tax return gholdco shall prepare timely file cause timely filed tax return respect member alpha group generico group due taking account extension properly filed distribution date b distribution date gholdco shall prepare timely file cause timely filed covered group return ii tax return relate solely generico business including income tax return respect one member generico group include member alpha group c distribution date new alpha shall prepare timely file cause timely filed tax return relate solely alpha business including income tax return respect one member alpha group include member generico group covered grou p return tax return relating member generico group taxable year period ending including distribution date ii member alpha group required filed gholdco pursuan agreement shall extent permitted applicable law prepared basis consistent election method accounting position convention principle taxation manner tax item information reported reflected comparable tax return filed date agreement provided different method used x would materially increase tax alpha group would responsible agreement prior written consent new alpha consent unreasonably withheld preceding sentence shall apply extent otherwise contemplated required ruling request r private letter ruling ii necessary comply change applicable law consent shall considered unreasonably withheld within meaning second preceding sentence different method would increase tax lpha party would responsible agreement gholdco compensate alpha party gholdco shall make available new alpha tax return responsible filing pursuant section least calendar ays prior filing provided new alpha shall supply gholdco information regarding member alpha group necessary preparing return least calendar day prior due date taking account available extension filing return b make reasonable revision tax return requested new alpha e gholdco new alpha alpha case may shall bear ofpocket cost including accountant attorney fee curred preparing tax return responsible preparing filing section section obligation remit tax gholdco new alpha shall timely remit cause timely remitted tax due respect tax return required file cause filed pursuant section section tax indemnity prior agreement refund distribution date alpha party shall demnify defend hold harmless generico indemnified party indemnifiable loss incurred suffered one generico indemnified party connection relating arising due direc tly indirectly alpha tax including avoidance doubt alpha tax arising redetermination thereof audit examination pre distribution period straddle period ii amount new alpha liable section amount payable alpha party generico party respect tax pursuant section shall reduced direct indirect payment made alpha party alpha affiliate respect tax distribution date generico indemni fied party prior payment made behalf alpha party portion prior payment deemed behalf alpha party shall portion bear proportion prior payment portion c overed group tax prior payment relates constitute alpha tax bear amount covered group tax prior payment relates taxable year example amount notional tax constitute alpha tax period beginning january ending distribution date x amount notional tax constitute generico tax period x percent estimated tax payment made respect period shall deemed made behalf alpha party b distribution date generico party shall indemnify defend hold harmless alpha indemnified party indemnifiable los s incurred suffered one alpha indemnified party connection relating arising due directly indirectly generico tax including avoidance doubt generico tax arising determination thereof audit examination pre distribution period straddle period ii amount gholdco liable section amount payable generico party alpha party respect tax pursuant section b shall reduced direct indirect payment made generico party generico affiliate respect tax distribution date alpha indemnified party prior payment made behalf generico party portion prior payment deemed behalf generico party shall portion bear proportion prior payment portion covered group tax prior paym ent relates constitute generico tax bear amount covered group tax prior payment relates taxable year c prior tax sharing agreement practice generico party gholdco subsidiary one hand alpha party alpha subsidiary hand shall automatically terminated distribution date agreement set forth transaction agreement distribution date new alpha shall entitled refund credit alpha tax provided generico party shall entitled receive retain refund tax extent refund attributable tax carryover attribute relating generico business distribution date gholdco shall entitled refund credit generico tax section restructuring tax tax relating share distribution except otherwise provided section c next sentence section alpha party shall liable f restructuring tax generico party shall liable restructuring tax imposed result generico tainting act b notwithstanding section generico party shall liable alpha party shall liable sale transfer value added similar tax fee including real estate transfer tax real estate recording fee patent copyright trademark recording fee similar item relating patent copyright trademark excluding restructuring tax payable connection transaction contemplated separation agreement transaction tax party agree timely sign deliver certificate form req uested party may necessary appropriate enable party file promptly timely tax return transaction tax appropriate taxing authority remit payment transaction tax section straddle period portion covered group tax constituting alpha tax shall computed alpha separate group basis remaining portion covered group tax shall constitute generico tax b tax including escheat liability covered group tax tax addressed section shall constitute alpha tax extent relates alpha business including tax relating alpha business attributable pre distribution period gholdco liable successor alpha tax purpose ii generico tax extent relates generico business section preclosing v post closing issue notwithstanding provision agree ment amount arising virtue exercise distribution date compensatory option acquire new alpha common stock gholdco common stock ii vesting distribution date restricted stock unit new alp ha gholdco shall deductible gholdco holder option restricted stock unit employed gholdco subsidiary gholdco date option restricted stock unit granted date exercise vesting applicable deductible new alpha holder option restricted stock unit employed new alpha subsidiary new alpha date option restricted stock unit granted date exercise vesting applicable case except otherwise determined irs private letter ruling final determination b extent required applicable law taxable year member alpha group shall close close distribution date taxable income year income tax purpose shall computed taking account principle treasury regulation section b corresponding provision law applicable state local municipal foreign jurisdiction except ratable allocation election f extraordinary item defined thereunder made section tax attribute tax benefit carryforwards post distribution period including net operating loss carryforwards net capital loss carryforwards foreign tax credit carryforward research development credit carryforwards shall computed allocated alpha business generico business based group generated item except extent otherwise provided applicable law exte nt tax benefit relates alpha business matter law allocated amount tax benefit shall reduce payment obligation alpha party agreement extent amount tax benefit exceeds payment obligation alpha party agreement generico party shall pay amount excess alpha party benefit tax benefit realized b allocation earnings profit betw een gholdco alpha party shall reasonably determined new alpha pursuant section h code treasury regulation promulgated thereunder within six month distribution date section carryback provision unless party otherwise agree writing alpha party generico party shall elect shall cause alpha subsidiary generico subsidiary elect permitted applicable law carry forward loss credit simila r tax attribute arising post distribution period respect covered group return tax carryover attribute could absence election carried back pre distribution period refund credit tax resulting fro required carryback covered group return tax carryover attribute attributable alpha business arising post distribution period shall account benefit new alpha provided however gholdco shall requ ired pay amount new alpha time amount actually realized cash credit refund offset generico group taking account tax attribute affiliated group ii carryback tax carry attribute attributable generico business refund credit offset tax resulting carryback tax carryover attribute attributable generico business arising post distribution period shall account benefit gholdco member alpha group recognizes tax carryover attribute applicable law must carried back pre distribution period alpha alpha subsidiary joined filing tax return consolidated combined unitary basis one gholdco generico gholdco subsidiary gholdco shall expense new alpha file appropriate refund claim within reasonable period requested new alpha unless filing shall materially adversely affect liability attribute generico party affiliate und er agreement including ability member generico group carry back tax attribute case filing shall subject gholdcos prior written consent consent unreasonably withheld refund claim alpha party received payment generico party subsequently disallowed relevant governmental entity alpha party shall promptly return payment generico party together interest penalty addition tax resulting disallowance section general tax payment respect tax one party liable party liable article ii remitted connection tax return filed party filing party distribution date liable party shall make payment estimated tax later fifth day receipt written request fifth date preceding due date payment filing party setting forth filing party good faith estimate liable party portion estimated tax remitted promptly date tax return taxable period due including extension filing pa rty shall provide written request liable party describing reasonable detail amount true payment owed filing party made liable party trueup payment owed filing party liable party r esult overpayment liable party true payment shall made later fifteen day receipt written request true payment section payment payment due party article ii shall due case receipt crediting refund five day receipt crediting b case final determination completion audit assessment examination similar event two day prior ate payment made governmental entity case delay payment party required made payment shall pay interest party rate equal prime rate citibank na effect date payment wa required made plus section payment failure party required make payment hereunder fails make payment required agreement required time period specified within business day written req uest party payment due amount due shall bear interest rate equal prime rate citibank na effect date payment required made plus section notice gholdco new alpha shall give prompt written notice payment may due agreement provided failure notify shall cause party forfeit substantive right except extent party materially prejudiced thereby payment may due agreement made wire transfer immediately available fund account designated gholdco new alpha notice method shall agreed upon gholdco new alpha section amended tax return distribution date generico party shall shall permit affiliate file amended tax return predistribution period straddle period without prior written consent new alpha consent unreasonably withheld unless amended tax return materially adversely affect liability attribute alpha party affiliate agreement separation agreement including ability new alpha carry back tax carryover attribute accordance section section combined tax return distribution date generico party alpha party sh required file combined tax return california combined return gholdco shall prepare timely file cause timely filed combined return ii gholdco shall timely remit cause timely remitted tax due respect combined return iii respective liability party respect tax due respect combined return shall determined accordance cal code regs tit amount respecti liability alpha party shall alpha tax amount respective liability generico party shall generico tax section option deduction except otherwise required law upon exercise option purchase new alpha stock new alpha new alpha shall claim tax deduction attributable exercise tax return member generico group shall claim deduction tax return except otherwise required law upon exercise option purchase gholdco stock gholdco gholdco shall claim tax deduction attributable exercise tax return member alpha group shall claim deduction tax return b section shall pply mutatis mutandis equity based compensation including restricted stock article iii tax audit section controlling party except otherwise provided agreement gholdco shall controlling party respect covered group tax relating generico business new alpha shall controlling party covered group tax relating alpha business th e controlling party respect covered group tax shall right control conduct disposition audit proceeding respect covered group tax provided new alpha shall subject provision agreement right conduct lead audit proceeding relating restructuring tax unless restructuring tax imposed result generico tainting act case alpha party generico p arties shall jointly control conduct disposition audit proceeding respect restructuring tax expense generico party section tax contest procedure controlling party shall right n controlling party reasonable discretion resolve settle agree deficiency claim adjustment proposed asserted assessed connection result tax controversy including without limitation audit protest claim refund competent authority proceeding litigation tax court court competent jurisdiction tax controversy respect tax controlling party responsible set forth section control right shall extend matter pertaining management control tax controversy including execution waiver choice forum scheduling conference resolution tax item non controlling party shall issue controlling party power attorney consent necessary permit controlling party exercise right cost incurred handling contesting tax controversy shall borne controlling party article iv cooperation following provision shall apply distribution date section inconsistent action party hereto agrees cause affiliate report alpha merger tax free reorganization within meaning section af code alpha contribution followed share distribution tax free reorganization within meaning section ad code share distribution distribution qualifying non recognition section c code tax return filing b comply take action inconsistent representation covenant provided irs connection obtaining private letter ruling c restricted period fail engaged conduct active trade business relied upon purpose satisfying requirement section b code purpose private letter ruling post distribution period party agreement agrees cause affiliate absence controlling change applicable law circumstance report tax return tax consequence transaction undertaken pursu ant transaction agreement accordance position taken respect transaction extent reported covered group return filed respect transaction section prohibited act month following distribution date restricted period generico party affiliate one hand alpha party affiliate hand agree redeem otherwise r epurchase capital stock gholdco new alpha pursuant open market stock repurchase program meeting requirement section b rev proc cb ii enter agreement arrangement re pect transaction event including limited capital contribution acquisition entering partnership joint venture arrangement stock issuance stock acquisition option grant series transaction event excluding share distribution case clause ii considered part plan includes share distribution would result one person acquiring directly indirectly stock gholdco new alpha representing percent greater interest therein within meaning section code act inconsistent act described section hereof act described clause ii collectively prohibited act notwithstanding foregoing following shall considered prohibited act v issuance compensatory option gholdco w issuance gholdco stock pursuant gholdco compensatory option restr icted stock unit x repurchase gholdco restricted stock case described clause v w x action satisfies condition treasury regulation di issuance stock retirement pl qualified section code transaction satisfies requirement treasury regulation section avoidance doubt issuance additional equity right acquire new equity gholdco new investor restricted period shall considered prohibited act b notwithstanding foregoing party may take prohibited act subject section case alpha party affiliate new alpha first obtains expense opinion form substance reasonably acceptable gholdco fried frank harris shriver jacobson llp another nationally recognized law firm big four accounting firm reasonably acceptable ghol dco opinion may based usual customary factual representation b new alpha request gholdco new alpha expense obtains supplemental ruling irs ii case gholdco affiliate gholdco fir obtains expense opinion form substance reasonably acceptable new alpha nationally recognized law firm big four accounting firm reasonably acceptable new alpha opinion may based usual customary factual r epresentations b gholdco expense obtains supplemental ruling irs case prohibited act transaction related thereto affect qualification share distribution section section ad code ii nonrecognition gain gholdco share distribution party may also take prohibited act subject section written consent party party sole absolute discretion restricted period party shall provide shall cause respective affiliate provide information reasonably requested party relating transaction involving acquisition directly ind irectly party stock within meaning section e code party hereto agree payment monetary compensation would adequate remedy breach obligation described prohibited act pa rty consent issuance entry injunction prevent breach obligation contained prohibited act subject waiver consent described preceding sentence new alpha represents knowledge da te agreement time share distribution except contemplated transaction agreement agreement understanding arrangement substantial negotiation gholdco subsidiary concerning ny acquisition gholdco stock purpose applying treas reg opinion andor ruling obtained accordance section bii may assume accuracy representation c notwithstanding anything agreement contrary party shall responsible shall indemnify party hold party harmless restructuring tax resulting prohibited act taken party affiliate regardless whether exception contained section b satisfied respect act section cooperation respect tax return filing examination tax related controversy addition obligation imposed pursuant separation agreement party shall fully cooperate party representative prompt timely manner connection preparation filing ii inquiry audit redetermination examination investigation dispute litigation involving tax return required filed party pursuant agreement cooperation shall include limited execution delivery party power attorney required allow party counsel participate control inquiry audit administrative proceeding assume defense prosecution case may suit action proceeding pursuant term subject condition set forth article iii b making available normal business hour within day written request therefor book record information assistance officer employee necessary useful co nnection preparation tax return tax inquiry audit redetermination examination investigation dispute litigation matter recovery generico party alpha party respective affiliate third party including award damage relating restructuring tax shall shared allocated party consistently allocation underlying restructuring tax article v retention record access alpha group generico group shall retain information accordance section separation agreement prior distribution date new alpha shal l make available gholdco copy consolidated combined unitary tax return affiliated group note workpapers correspondence record related thereto article vi dispute distribution date new alp ha gholdco agree calculation liability agreement interpretation application provision agreement either party may provide party written notice intent invoke dispute resolution procedure article vi within day following receipt written notice new alpha gholdco shall jointly retain nationally recognized law firm big four accounting firm firm independent party independent firm resolve dispute party jointly agree independent firm resolve dispute within day period party shall select nationally recognized law firm big four accounting firm firm independent party law accounting firm shall jointly select independent firm shall make determination article vi independent firm shall act arbitrator resolve point disagreement decision shall final binding upon party involved independent firm shall determine appropriate outcome based upon agreement respect disputed item independent firm shall day date sele cted make determination unless new alpha gholdco mutually agree extension period independent firm discretion determines extension period warranted exceptional circumstance new alp ha gholdco shall provide independent firm information documentation independent firm deems discretion necessary make determination requested determination independent firm shall n writing following decision independent firm new alpha gholdco shall take cause taken action necessary implement decision independent firm fee expense relating independent firm shall bo rne party independent firm determines lost dispute notwithstanding foregoing article vi shall apply dispute arising section c respect respective liability party event restructuring tax imposed article vii survival liability notwithstanding provision agreement liability agreement shall survive day following applicable statute limitation provided however party may continue dem full amount payment made respect liability agreement liability shall continue survive paid full accordance agreement article viii miscellaneous section entire agreeme nt construction agreement separation agreement ancillary agreement including annex schedule exhibit hereto thereto agreement document referred herein therein together constitute entir e agreement party respect subject matter hereof thereof supersede prior negotiation agreement understanding party nature whether oral written respect subject matter notwi thstanding provision agreement contrary event extent conflict relating tax provision agreement provision separation agreement ancillary agre ements provision agreement shall control section survival agreement except otherwise contemplated agreement covenant agreement party contained agreement remain full force effect survive distribution date section governing law agreement governed construed accordance law state delaware without giving effect choice law principle thereof section notice notice communication hereunder shall writing shall deemed duly given date delivery delivered personally ii upon confirmation receipt delivered telefacsimile iii fir business day following date dispatch delivered recognized next day courier service iv received delivered registered certified mail return receipt requested postage prepaid notice hereunder shall deliver</t>
+    <t>execution version tax matter agreement tax matter agreement agreement made entered may effective upon closing among aramark holding corporation delaware corporation aramark holding grubhub holding inc delaware corporation parent seamless holding corporation delaware corporation spinco together aramark holding parent party individually party notwithstanding anything herein contrary agreement shall effective unless closing take place shall become effective upon closing provided provision article vi shall effective immediately upon execution hereof recital whereas october aramark holding spinco engaged series distribution involving stock spinco intended qualify taxfree distribution section code whereas board director party determined best interest party consummate transaction contemplated reorganization contribution agreement among party aramark holding slw investor llc grubhub inc delaware corporation grubhub seamless north america llc delaware limited liability company seamless dated date hereof reorganization agreement whereas party desire enter agreement date hereof effective upon closing therefore consideration mutual agreement provision covenant contained agreement party intending legally bound hereby agree follows article definition affiliate mean person directly indirectly one intermediary control controlled common control person purpose definition term control including term controlling controlled common control mean possession direct indirect power direct cause direction management policy person whether ownership voting security contract otherwise provided however term affiliate excludes portfolio company owned equityholder parent aramark holding private equity fund venture capital fund closing meaning set forth reorganization agreement code mean internal revenue code amended consolidated return mean tax return filed pursuant section code comparable combined consolidated unitary group income tax return filed foreign state local tax law includes spinco aramark holding subsidiary distribution agreement mean certain distribution agreement dated october among aramark holding aramark intermediate holdco corporation aramark corporation spinco final determination mean final resolution liability tax taxable period including related interest penalty result final unappealable decision judgment decree order court competent jurisdiction ii closing agreement accepted offer compromise section code comparable agreement law jurisdiction resolve entire tax liability taxable period iii final disposition indemnified liability mean liability tax subject indemnification pursuant section section person mean individual corporation partnership limited liability company firm joint venture association jointstock company trust unincorporated organization governmental entity entity prior tax matter agreement mean tax matter agreement dated october among aramark holding spinco proceeding mean audit examination proceeding brought taxing authority respect tax restricted period mean period beginning date hereof ending october section agent mean respect person officer director acting behalf person controlling shareholder person person implicit explicit permission one officer director controlling shareholder person case within meaning treasury regulation section spinco merger mean thin crust merger defined reorganization agreement spinoff mean series distribution stock spinco aramark holding certain subsidiary occurred october resulted spinco ceasing subsidiary aramark holding subsidiary mean respect person corporation partnership limited liability company entity person subsidiary person person one subsidiary person directly indirectly either majority ownership equity thereof ii power ordinary circumstance elect direct election majority board director governing body entity iii title function general partner right designate person title function tax mean federal state local foreign income gross receipt property sale use license excise franchise employment payroll withholding alternative add minimum ad valorem transfer excise tax tax custom duty governmental fee like assessment charge kind whatsoever together interest penalty imposed taxing authority ii liability payment amount type described clause arising result member group included required included tax return related thereto tax return mean report return including information return amended return required filed may filed period taxing authority connection tax whether domestic foreign taxing authority mean governmental authority whether united state nonunited state including state municipality political subdivision governmental agency responsible imposition tax article ii prior tax matter agreement section termination prior tax matter agreement immediately prior spinco merger prior tax matter agreement hereby terminated cancelled shall effect whether legal equitable otherwise section release spinco aramark holding hereby release spinco liability continuing obligation spinco prior tax matter agreement ii behalf aramark indemnitees defined distribution agreement release spinco liability spinco section distribution agreement section release aramark holding spinco hereby release aramark holding liability continuing obligation aramark holding prior tax matter agreement article iii aramark holding consent right section aramark holding consent right without prior written consent aramark holding none parent subsidiary shall engage substantial negotiation within meaning treasury regulation section effect business combination transaction including merger sale substantially asset parent person prior october b initiate sale process parent engagement investment banker ii public announcement parent intention market parent sale iii solicitation one potential acquirer case prior october provided foregoing shall restrict initiation sale process october response bona fide unsolicited written indication interest received parent c restricted period take action cause spinco reduce interest seamless interest ii take action cause seamless cease classified partnership federal income tax purpose iii cease conduct seamless business article iv indemnification obligation section indemnification parent parent shall indemnify hold harmless aramark holding subsidiary tax imposed upon incurred aramark holding subsidiary resulting application section e code spinoff due agreement understanding arrangement substantial negotiation within meaning treasury regulation section section agent grubhub subsidiary one hand section agent spinco seamless aramark holding subsidiary hand prior october b taking action described section without obtained prior written consent aramark holding set forth section unless either case tax would event imposed upon incurred person without regard substantial negotiation action determined time section indemnification aramark holding subject section aramark holding shall responsible payment tax payable respect consolidated return subject section aramark holding shall indemnify hold harmless parent subsidiary tax imposed upon incurred parent subsidiary whether treasury regulation section analogous provision federal state local law section limitation indemnification notwithstanding foregoing indemnification obligation parent aramark holding agreement shall subject following provision indemnification obligation parent shall survive expiration applicable statute limitation may extended waived determined section eei code application spinoff date seven year execution agreement b indemnification obligation aramark holding shall survive expiration applicable statute limitation may extended waived c indemnification obligation parent section shall event exceed fifteen million dollar section time manner payment unless otherwise agreed writing payment indemnified liability shall made indemnified party following final determination less amount paid directly indemnifying party taxing authority least two business day prior date payment indemnified liability required made taxing authority payment shall paid wire transfer immediately available fund account designated indemnified party written notice indemnifying party due date payment section refund amount paid another party aramark holding parent affiliate receive refund respect amount paid party taxing authority receiving party behalf paid party receiving party payment taxing authority respect indemnified liability amount would otherwise refundable receiving party applied credited taxing authority obligation receiving party unrelated indemnified liability receiving party shall promptly following receipt remit refund including statutory interest included refund net tax payable respect refund party article v contest procedural matter section proceeding involving parent subsidiary parent subsidiary receives written notice deficiency claim adjustment written communication taxing authority may result liability aramark holding section parent shall promptly give written notice thereof aramark holding provided delay parent notifying aramark holding shall relieve aramark holding liability section hereunder except extent aramark holding materially adversely prejudiced delay b aramark holding shall assume direct defense settlement proceeding respect may indemnity obligation section parent shall right conduct participate proceeding provided however proceeding may result liability parent section parent shall right set forth section b respect proceeding section proceeding involving aramark holding subsidiary aramark holding undertakes agrees time aramark holding subsidiary receives written notice deficiency claim adjustment communication taxing authority obtains knowledge representative taxing authority begun investigate inquire spinoff may result liability parent section aramark holding shall promptly give written notice thereof parent provided delay aramark holding notifying parent shall relieve parent liability section hereunder except extent parent materially adversely prejudiced delay ii consult parent time time keep parent fully informed conduct investigation inquiry proceeding iii provide parent copy material correspondence aramark holding representative taxing authority representative thereof pertaining investigation inquiry proceeding b aramark holding shall assume direct defense settlement proceeding respect parent may indemnity obligation section provided parent shall entitled participate proceeding cost expense provided aramark holding shall settle compromise concede otherwise resolve proceeding without parent prior written consent unreasonably withheld provided however parent shall consent right respect proceeding respect parent indemnity obligation section amount settlement matter respect parent indemnity obligation section equal exceeds million aramark holding conducted proceeding good faith due consideration parent indemnification obligation agreement section aramark holding tax return aramark holding shall prepare cause prepared file cause filed consolidated return extent spinco included consolidated return taxable period includes october aramark holding shall include consolidated return result spinco basis closing book method provided treasury regulation section bi section cooperation aramark holding parent subsidiary shall reasonably cooperate one another timely manner proceeding filing consolidated return aramark holding parent agree cooperation shall include without limitation making available party normal business hour book record information officer employee without substantial interruption employment necessary useful connection proceeding consolidated return party requesting otherwise entitled book record information officer employee pursuant section shall bear reasonable outofpocket cost expense except reimbursement salary employee benefit general overhead incurred connection providing book record information officer employee article vi miscellaneous section counterpart entire agreement corporate power agreement may executed one counterpart counterpart shall considered one agreement shall become effective one counterpart signed party hereto delivered party b agreement exhibit schedule appendix hereto contain entire agreement party respect subject matter hereof supersede previous agreement negotiation discussion writing understanding commitment conversation respect subject matter agreement understanding party respect subject matter hereof set forth referred herein c aramark holding parent represent follows person requisite corporate power authority taken corporate action necessary order execute deliver perform agreement consummate transaction contemplated hereby ii agreement duly executed delivered constitutes valid binding agreement enforceable accordance term hereof section termination agreement shall automatically terminated without action immediately upon shall force effect following termination reorganization agreement prior closing reason section governing law jurisdiction agreement shall governed construed accordance law state delaware regardless law might otherwise govern applicable principle conflict law thereof party irrevocably submits exclusive jurisdiction court chancery state delaware extent court subject matter jurisdiction superior court state delaware federal court state delaware respect action arising relating agreement hereby irrevocably agrees claim respect action may heard determined delaware state federal court party hereby irrevocably waif fullest extent may effectively defense inconvenient forum maintenance action section assignability neither agreement right interest obligation agreement shall assigned whole part operation law otherwise party without prior written consent party purported assignment without consent shall void subject preceding sentence agreement binding upon inure benefit enforceable party respective successor assigns notwithstanding preceding sentence party may assign agreement without consent connection merger transaction party surviving entity surviving entity acquires assumes substantially party asset b upon sale substantially party asset provided however assignee expressly assumes writing obligation assigning party agreement assigning party provides written notice evidence assignment assumption nonassigning party assignment permitted section shall release assigning party liability full performance obligation agreement section thirdparty beneficiary except indemnification right pursuant article iv agreement subsidiary aramark holding parent provision agreement solely benefit party intended confer upon person except party right remedy hereunder b thirdparty beneficiary agreement agreement shall provide third person remedy claim liability reimbursement cause action right excess existing without reference agreement section notice notice communication agreement shall writing shall deemed duly given delivered person b sent telecopier except sent normal business hour recipient opening business next business day recipient fax number set forth c deposited united state mail private express mail postage prepaid addressed follows aramark holding co aramark corporation market street philadelphia pa attn general counsel facsimile parent w washington st chicago il attn matt maloney facsimile copy shall constitute notice goodwin procter llp commonwealth drive menlo park ca attention craig schmitz esq facsimile spinco seamless holding corporation market street philadelphia pa attn president facsimile copy shall constitute notice latham watkins montgomery street suite san francisco ca attention scott r haber esq facsimile copy shall constitute notice simpson thacher bartlett llp lexington ave new york ny attention steven c todrys esq facsimile party may notice party change address notice given section severability provision agreement application thereof person circumstance determined court competent jurisdiction invalid void unenforceable remaining provision hereof application provision person circumstance jurisdiction held invalid unenforceable shall remain full force effect shall way affected impaired invalidated thereby long economic legal substance transaction contemplated hereby affected manner materially adverse party upon determination party shall negotiate good faith effort agree upon suitable equitable provision effect original intent party section force majeure party shall deemed default agreement extent delay failure performance obligation agreement result cause beyond reasonable control without fault negligence act god act civil military authority embargo epidemic war riot insurrection fire explosion earthquake flood unusually severe weather condition labor problem unavailability part case computer system failure electrical air conditioning equipment event excused delay time performance shall extended period equal time lost reason delay section heading article section paragraph heading contained agreement reference purpose shall affect way meaning interpretation agreement section waiver default waiver party hereto default party hereto provision agreement shall deemed waiver waiving party subsequent default section amendment provision agreement shall deemed waived amended supplemented modified party hereto unless waiver amendment supplement modification writing signed authorized representative party section interpretation word singular shall held include plural vice versa word one gender shall held include gender context requires term hereof herein herewith word similar import unless otherwise stated shall construed refer agreement whole including schedule exhibit appendix hereto particular provision agreement article section reference article section agreement unless otherwise specified reference herein agreement unless otherwise stated shall construed refer agreement amended supplemented otherwise modified time time permitted section word including word similar import used agreement shall mean including without limitation unless context otherwise requires unless otherwise specified word shall exclusive remainder page intentionally left blank witness whereof party caused agreement executed duly authorized representative aramark holding corporation joseph munnelly name joseph munnelly title svp controller cao witness whereof party caused agreement executed duly authorized representative seamless holding corporation michael j ohara name michael j ohara title vice president witness whereof party caused agreement executed duly authorized representative grubhub holding inc matt maloney name matt maloney title president</t>
   </si>
   <si>
     <t>execution version tax matter agreement tax matter agreement agreement made entered may effective upon closing among aramark holding corporation delaware cor poration aramark holding grubhub holding inc delaware corporation parent seamless holding corporation delaware corporation spinco together aramark holding parent party individually party notwithstanding anything herein contrary agreement shall effective unless closing take place shall become effective upon closing provided provision article vi shall effective immediately upo n execution hereof recital whereas october aramark holding spinco engaged series distribution involving stock spinco intended qualify tax free distribution section code whereas b oard director party determined best interest party consummate transaction contemplated reorganization contribution agreement among party aramark holding slw investor llc grubhub inc delaware corporation grubhub seamless north america llc delaware limited liability company seamless dated date hereof reorganization agreement whereas party desire enter agreemen date hereof effective upon closing therefore consideration mutual agreement provision covenant contained agreement party intending legally bound hereby agree follows article defin itions affiliate mean person directly indirectly one intermediary control controlled common control person purpose definition term control including term controlli ng controlled common control mean possession direct indirect power direct cause direction management policy person whether ownership voting security contract oth erwise provided however term affiliate excludes portfolio company owned equityholder parent aramark holding private equity fund venture capital fund closing meaning set forth reorganization agreement code mean internal revenue code amended consolidated return mean tax return filed pursuant section code comparable combined consolidated unitary group income tax return filed foreign state local tax law includes spinco aramark holding subsidiary distribution agreement mean certain distribution agreement dated october among aramark holding aramark intermediate holdco corporation aramark corporation spinco final determination mean final resolution liability tax taxable period including related interest penalty result final unappealable decision judgment decree order court competent jurisdiction ii closing agreement accepted offer compromise section code comparable agreement law jurisdiction resolve entire tax liability taxable period iii final disposition indemnified liability mean liability tax subject indemnification pursuant section section person mean individual corporation partnership limited liability company firm joint venture association joint stock company trust unincorporated organization governmental entity entity prior tax matter agreement mean ta x matter agreement dated october among aramark holding spinco proceeding mean audit examination proceeding brought taxing authority respect tax restricted period mean period beginning date hereof ending october section agent mean respect person officer director acting behalf person controlling shareholder person person wi th implicit explicit permission one officer director controlling shareholder person case within meaning treasury regulation section spinco merger mean thin crust merger defined reorganization agreement spinoff mean series distribution stock spinco aramark holding certain subsidiary occurred october resulted spinco ceasing subsidiary aramark holding subsidiary mean respect p erson corporation partnership limited liability company entity person subsidiary person person one subsidiary person directly indirectly either majority ownership eq uity thereof ii power ordinary circumstance elect direct election majority board director governing body entity iii title function general partner right designate person title function tax mean federal state local foreign income gross receipt property sale use license excise franchise employment payroll withholding alternative add minimum ad valorem transfer excise tax tax custom duty governmental fee like assessment charge kind whatsoever together interest penalty imposed taxing authority ii liability payment amount type escribed clause arising result member group included required included tax return related thereto tax return mean report return including informati return amended return required filed may filed period taxing authority connection tax whether domestic foreign taxing authority mean governmental authority whether united state non united state including state municipality political subdivision governmental agency responsible imposition tax article ii prior tax matter agreement section termination prior tax matter agreement immediatel prior spinco merger prior tax matter agreement hereby terminated cancelled shall effect whether legal equitable otherwise section release spinco aramark holding hereby release spinco liability continuing obligation spinco prior tax matter agreement ii behalf aramark indemnitees defined distribution agreement release spinco liability spin co section distribution agreement section release aramark holding spinco hereby release aramark holding liability continuing obligation aramark holding prior tax matter agreement article iii aramark holding consent right section aramark holding consent right without prior written consent aramark holding none parent subsidiary shall engage substantial negotiation within meaning treasury regulation section effect business comb ination transaction including merger sale substantially asset parent person prior october b initiate sale process parent engagement investment banker ii public announcement parent intention market parent sale iii solicitation one potential acquirer case prior october provided foregoi ng shall restrict initiation sale process october response bona fide unsolicited written indication interest received parent c restricted period take action cause spinco reduce interest seamless interest ii take action cause seamless cease classified partnership federal income tax purpose iii cease conduct seamless business article iv indemnification obligation section indemnification parent parent shall indemnify hold harmless aramark holding subsidiary tax imposed upon incurred aramark holding subsidiary resulting application section e code spin due agreement understanding arrangement substantial negotiation within meaning treasury regulation section section agent grubhub subsidiary one hand section agent spinco seamless aramark holding subsidiary hand prior october b taking action described section without obtained prior written consent aramark holding set forth section unless either case tax would event imposed upon incurred person without regard substantial negotiation action determined time section indemnification aramark holding subject section aramark holding shall responsible payment tax payable respect consolidated return subject section aramark holding shall indemnify hold harmless parent subsidiary tax imposed upon incurred parent subsidiary whether treasury regulation section analogous provision federal state local law section limitation indemnification notwithstanding foregoing indemnification obligation parent aramark holding agreement shall subject following provision indemnification obligation parent shall survive expiration appli cable statute limitation may extended waived determined section eei code application spin date seven year execution agreement b indemnif ication obligation aramark holding shall survive expiration applicable statute limitation may extended waived c indemnification obligation parent section shall event exceed fiftee n million dollar section time manner payment unless otherwise agreed writing payment indemnified liability shall made indemnified party following final determination less amount paid directly indemnifying party taxing authority least two business day prior date payment indemnified liability required made taxing authority payment shall paid wire transfer immediately available fund ccount designated indemnified party written notice indemnifying party due date payment section refund amount paid another party aramark holding parent affiliate receive refund spect amount paid party taxing authority receiving party behalf paid party receiving party payment taxing authority respect indemnified liability amount would otherwise refundable receiving party applied credited taxing authority obligation receiving party unrelated indemnified liability receiving party shall promptly following receipt remit refu nd including statutory interest included refund net tax payable respect refund party article v contest procedural matter section proceeding involving parent subsidiary parent subsidiary receives written notice deficiency claim adjustment written communication taxing authority may result liability aramark holding section parent shall promptly giv e written notice thereof aramark holding provided delay parent notifying aramark holding shall relieve aramark holding liability section hereunder except extent aramark holding materially advers ely prejudiced delay b aramark holding shall assume direct defense settlement proceeding respect may indemnity obligation section parent shall right conduct participate proceeding provided however proceeding may result liability parent section parent shall right set forth section b respect proceeding section proceeding involving aramark holding subsidiary aramark holding undertakes agrees time aramark holding subsidiary receives written notice deficiency claim adjustment communicatio n taxing authority obtains knowledge representative taxing authority begun investigate inquire spin may result liability parent section aramark holding shall promptly give written notice thereof parent provided delay aramark holding notifying parent shall relieve parent liability section hereunder except extent parent materially adversely prejudiced delay ii consu lt parent time time keep parent fully informed conduct investigation inquiry proceeding iii provide parent copy material correspondence aramark holding representative axing authority representative thereof pertaining investigation inquiry proceeding b aramark holding shall assume direct defense settlement proceeding respect parent may indemnity obligation un der section provided parent shall entitled participate proceeding cost expense provided aramark holding shall settle compromise concede otherwise resolve proceeding without pare nt prior written consent unreasonably withheld provided however parent shall consent right respect proceeding respect parent indemnity obligation section amount settlement matter respect parent indemnity obligation section equal exceeds million aramark holding conducted proceeding good faith due consideration parent indemnificati obligation agreement section aramark holding tax return aramark holding shall prepare cause prepared file cause filed consolidated return extent spinco included consolidated turn taxable period includes october aramark holding shall include consolidated return result spinco basis closing book method provided treasury regulation section bi section cooperation aramark holding parent subsidiary shall reasonably cooperate one another timely manner proceeding filing consolidated return aramark holding parent agree cooperation shall include without limitation making available party normal business hour book record information officer employee without substantial interruption employment necessary useful connection proceeding consolidated return party requesting otherwise entitled book record information officer employee pursuant section shall bear reasonable ofpocket cost expense except reimbursement salary employee benefit g eneral overhead incurred connection providing book record information officer employee article vi miscellaneous section counterpart entire agreement corporate power agreement may executed one counte rparts counterpart shall considered one agreement shall become effective one counterpart signed party hereto delivered party b agreement exhibit schedu le appendix hereto contain entire agreement party respect subject matter hereof supersede previous agreement negotiation discussion writing understanding commitment conversation respect uch subject matter agreement understanding party respect subject matter hereof set forth referred herein c aramark holding parent represent follows person requisite corporate power authority taken corporate action necessary order execute deliver perform agreement consummate transaction contemplated hereby ii agreement dul executed delivered constitutes valid binding agreement enforceable accordance term hereof section termination agreement shall automatically terminated without action immediately upon shall force effect following termination reorganization agreement prior closing reason section governing law jurisdiction agreement shall governed construed accordance law state delaware regardless law might otherwise govern applicable principle conflict law thereof party irrevocably submits exclusive jurisdiction court chancery state delaware extent court subject matter jurisdiction superior court state delaware federal court state delaware respect action arising relating agreement hereby irrevocably agrees clai m respect action may heard determined delaware state federal court party hereby irrevocably waif fullest extent may effectively defense inconvenient forum maintenance ac tion section assignability neither agreement right interest obligation agreement shall assigned whole part operation law otherwise party without prior written consent party purported assignment without consent shall void subject preceding sentence agreement binding upon inure benefit enforceable party respective successor assigns notwithstanding preceding sentence ny party may assign agreement without consent connection merger transaction party surviving entity surviving entity acquires assumes substantially party asset b upon sal e substantially party asset provided however assignee expressly assumes writing obligation assigning party agreement assigning party provides written notice evidence assignment assumption non assigning party assignment permitted section shall release assigning party liability full performance obligation agreement section third party beneficiary except indemnification right pursuant article iv agreement subsidiary aramark holding parent provision agreement solely benefit party intended confer upon person except party right remedy hereunder b third party beneficiary agreement agreement shall provide third person remedy claim liability reimbursement cause action right excess existing without reference agreement section notice notice communication agreement shall writing shall deemed duly given delivered person b sent telecopier exc ept sent normal business hour recipient opening business next business day recipient fax number set forth c deposited united state mail private express mail postage prepaid addressed follows aramark holding co aramark corporation market street philadelphia pa attn general counsel facsimile parent w washington st chicago il attn matt maloney facsimile copy shall constitute notice goodwin procter llp commonwealth drive menlo park ca attention craig schmitz esq facsimile spinco seamless holding corporation market street philadelphia pa attn president facsimile copy shall constitute notice latham watkins montgomery street suite san francisco ca attention scott r haber esq facsimile copy shall constitute notice simpson thacher bartlett llp lexington ave new york ny attention steven c todrys esq facsimile party may notice party change address notice given section severability provision agreement application thereof person circumstance determined court compe tent jurisdiction invalid void unenforceable remaining provision hereof application provision person circumstance jurisdiction held invalid unenforceable shall rema full force effect shall way affected impaired invalidated thereby long economic legal substance transaction contemplated hereby affected manner materially adverse party upon de termination party shall negotiate good faith effort agree upon suitable equitable provision effect original intent party section force majeure party shall deemed default agreement extent delay failure performance obligation agreement result cause beyond reasonable control without fault negligence act god act civil military authority embargo epidemic war riot insurrection fire explosion earthquake flood unusually severe weather condition labor problem unavailability part ca se computer system failure electrical air conditioning equipment event excused delay time performance shall extended period equal time lost reason delay section heading arti cle section paragraph heading contained agreement reference purpose shall affect way meaning interpretation agreement section waiver default waiver party hereto default party hereto provision agreement shall deemed waiver waiving party subsequent default section amendment provision agreement shall deemed waived amended supplemented modif ied party hereto unless waiver amendment supplement modification writing signed authorized representative party section interpretation word singular shall held include plural vice ver sa word one gender shall held include gender context requires term hereof herein herewith word similar import unless otherwise stated shall construed refer agreement whole inclu ding schedule exhibit appendix hereto particular provision agreement article section reference article section agreement unless otherwise specified reference herein agr eement unless otherwise stated shall construed refer agreement amended supplemented otherwise modified time time permitted section word including word similar import used agreement shall mean including without limitation unless context otherwise requires unless otherwise specified word shall exclusive remainder page intentionally left blank witness whereof party caused agreement executed duly authorized representative aramark holding corporation joseph munnelly name joseph munnelly title svp controller cao witness whereof party cau sed agreement executed duly authorized representative seamless holding corporation michael j ohara name michael j ohara title vice president witness whereof party caused agreement executed duly authorized representative grubhub holding inc matt maloney name matt maloney title president</t>
   </si>
   <si>
-    <t>execution version tax matter agreement tax matter agreement agreement made entered may effective upon closing among aramark holding corporation delaware corporation aramark holding grubhub holding inc delaware corporation parent seamless holding corporation delaware corporation spinco together aramark holding parent party individually party notwithstanding anything herein contrary agreement shall effective unless closing take place shall become effective upon closing provided provision article vi shall effective immediately upon execution hereof recital whereas october aramark holding spinco engaged series distribution involving stock spinco intended qualify tax free distribution section code whereas board director party determined best interest party consummate transaction contemplated reorganization contribution agreement among party aramark holding slw investor llc grubhub inc delaware corporation grubhub seamless north america llc delaware limited liability company seamless dated date hereof reorganization agreement whereas party desire enter agreement date hereof effective upon closing therefore consideration mutual agreement provision covenant contained agreement party intending legally bound hereby agree follows article definition affiliate mean person directly indirectly one intermediary control controlled common control person purpose definition term control including term controlling controlled common control mean possession direct indirect power direct cause direction management policy person whether ownership voting security contract otherwise provided however term affiliate excludes portfolio company owned equityholder parent aramark holding private equity fund venture capital fund closing meaning set forth reorganization agreement code mean internal revenue code amended consolidated return mean tax return filed pursuant section code comparable combined consolidated unitary group income tax return filed foreign state local tax law includes spinco aramark holding su bsidiaries distribution agreement mean certain distribution agreement dated october among aramark holding aramark intermediate holdco corporation aramark corporation spinco final determination mean final resolution liability tax taxable period including related interest penalty result final unappealable decision judgment decree order court competent jurisdiction ii closing agreement accepted offer compromise section code comparable agreement law jurisdiction resolve entire tax liability taxable period iii final disposit ion indemnified liability mean liability tax subject indemnification pursuant section section person mean individual corporation partnership limited liability company firm joint venture association joint stock company trust unincorporated organization governmental entity entity prior tax matter agreement mean tax matter agreement dated october among aramark holding spinco proceeding mean audit examination proceeding brought taxing authority respect tax restricted period mean period beginning date hereof ending october section agent mean respect person officer director acting behalf person controlling shareholder person person implicit explicit permission one officer director controlling share holder person case within meaning treasury regulation section spinco merger mean thin crust merger defined reorganization agreement spinoff mean series distribution stock spinco aramark holding certain subsidiary occurred october resulted spinco ceasing subsidiary aramark holding subsidiary mean respect person corporation partnership limited liability company entity person subsidiary person person one subsidiary person directly indirectly either majority ownership equity thereof ii power ordinary circumstance elect direct election majority board director governing body entity iii title function general partner right designate person title function tax mean federal state local foreign income gross receipt property sale use license excise franchise employment payroll withholding alternative add minimum ad valorem transfer excise tax tax custom duty governmental fee like assessment charge kind whatsoever together interest penalty imposed taxing authority ii liability payment amount type described clause arising r esult member group included required included tax return related thereto tax return mean report return including information return amended return required filed may filed period taxing authority connection tax whether domestic foreign taxing authority mean governmental authority whether united state non united state including state municipality political subdivision governmental agency responsible imposition tax article ii prior tax matter agreement section termination prior tax matter agreement immediately prior spinco merger prior tax matter agreement hereby terminated cancelled shall effect whether legal equitable otherwise section release spinco aramark holding hereby release spinco liability continuing obligation spinco prior tax matter agreement ii behalf aramark indemnitees defined distribution agreeme nt release spinco liability spinco section distribution agreement section release aramark holding spinco hereby release aramark holding liability continuing obligation aramark holding prior tax matter agreement article iii aramark holding consent right section aramark holding consent right without prior written consent aramark holding none parent subsidiary shall engage substantial negotiation within meaning treasury regulation section effect business combination transaction including merger sale substantially asset parent person n prior october b initiate sale process parent engagement investment banker ii public announcement parent intention market parent sale iii solicitation one potential acquirer case prior october provided foregoing shall restrict initiation sale process october response bona fide unsolicited written indication interest received parent c restricted period take action cause spinco reduce interest seamless interest ii take action cause seamless cease classified partnership federal income tax purpose iii cease conduct seamless business article iv indemnification obligation section indemnification parent parent shall indemnify hold harmless aramark holding subsidiary tax imposed upon incurred aramark holding subsidiary resulting application section e code spin du e agreement understanding arrangement substantial negotiation within meaning treasury regulation section section agent grubhub subsidiary one hand section agent spinco seamless aramark holding subsidiary hand prior october b taking action described section without obtained prior written consent aramark holding set forth section unless either case tax would event imposed upon incurred person without regard substantial negotiation r action determined time section indemnification aramark holding subject section aramark holding shall responsible payment tax payable respect consolidated return subject section aramark holding shall indemnify hold harmless parent subsidiary tax imposed upon incurred parent subsidiary whether treasury regulation section analogous provision federal state local law section limitation indemnification notwithstanding foregoing indemnification obligation parent aramark holding agreement shall subject following provision indemnification obligation parent shall survive expiration applicable statute limitation may extended waived determined section eei code application spin af ter date seven year execution agreement b indemnification obligation aramark holding shall survive expiration applicable statute limitation may extended waived c indemnification obligation parent section shall event exceed fifteen million dollar section time manner payment unless otherwise agreed writing payment indemnified liability shall made indemnified party following final determination less amount paid directly indemnifying party taxing authority least two business day pr ior date payment indemnified liability required made taxing authority payment shall paid wire transfer immediately available fund account designated indemnified party written notice indemnify ing party due date payment section refund amount paid another party aramark holding parent affiliate receive refund respect amount paid party taxing authority receiving party behalf paid party receiving party payment tax ing authority respect indemnified liability amount would otherwise refundable receiving party applied credited taxing authority obligation receiving party unrelated indemnified liability receiving party shall promptly following receipt remit refund including statutory interest included refund net tax payable respect refund party article v contest procedural matter section proceeding involving parent subsidiary parent subsidiary receives written notice deficiency claim adjustment written communication taxing authority may result liability aramark holding section parent shall promptly give written notice thereof aramark holding provided delay parent notifying aramark holding shall relieve aramark holding liability section hereunder except extent aramark holding materially adversely prejudiced delay b aramark holding shall assume direct defense settlement proceeding respect may indemnity obligation section parent shall right conduct participate proceeding provided however proceeding may result liability parent section parent shall right set forth section b respect proceeding section proceeding involving aramark holding subsidiary aramark holding undertakes agrees time aramark holding subsidiary receives written notice deficiency claim adjustment communication taxing authority obtains knowledge representative taxing authority begun investigate inquire spin may result liability parent section aramark holding shall promptly give written notice thereof parent provided delay aramark holding notifying parent shall relieve parent liability section hereunder except extent parent materially adversely prejudiced delay ii consult parent time time keep parent fully informed conduct investigation inquiry proceeding iii provide parent copy material correspondence aramark holding representative taxing authority representative thereof pertaining investigation inquiry proceeding b aramark holding shall assume direct defense settlement proceeding respect parent may indemnity obligation section provided parent shall entitled participate proceeding cost expense provided aramark holding shall settle compromise concede otherwise resolve proceeding without parent prior written consent unreasonably withheld provided however parent shall consent right respect proceeding respect parent indemnity obligation section amount settlement matter respect parent indemnity obligation section equal exceeds million aramark holding conducted proceeding good faith due consideration parent indemnification obligation agreement section aramark holding tax return aramark holding shall prepare cause prepared file cause filed consolidated return extent spinco included consolidated return taxable period includes october aramark holding shall include consolidated return result spinco basis closing book method provided treasury regulation section bi section cooperation aramark holding parent subsidiary shall reasonably cooperate one another timely manner proceeding filing consolidated return aramark holding parent agree cooperation shall include without l imitation making available party normal business hour book record information officer employee without substantial interruption employment necessary useful connection proceeding consoli dated return party requesting otherwise entitled book record information officer employee pursuant section shall bear reasonable ofpocket cost expense except reimbursement salary employee benefit general overhead incurred connection providing book record information officer employee article vi miscellaneous section counterpart entire agreement corporate power agreement may executed one counterpart counterpart shall considered one agreement shall become effective one counterpart signed party hereto delivered ot party b agreement exhibit schedule appendix hereto contain entire agreement party respect subject matter hereof supersede previous agreement negotiation discussion writing understanding commitment conversation respect subject matter agreement understanding party respect subject matter hereof set forth r referred herein c aramark holding parent represent follows person requisite corporate power authority taken corporate action necessary order execute deliver perform agreement consummate transaction contemplated hereby ii agreement duly executed delivered constitutes valid binding agreement enforceable accordance term hereof section termination agreement shall automatically terminated without action immediately upon shall force effect following termination reorganization agreement prior closing reason section governing law jurisdiction agreement shall governed construed accordance law state delaware regardless law might otherwise govern applicable principle conflict law thereof party irrevocably submits e xclusive jurisdiction court chancery state delaware extent court subject matter jurisdiction superior court state delaware federal court state delaware respect ction arising relating agreement hereby irrevocably agrees claim respect action may heard determined delaware state federal court party hereby irrevocably waif fullest extent th may effectively defense inconvenient forum maintenance action section assignability neither agreement right interest obligation agreement shall assigned whole part operation law otherwise party without prior written consent party purported assignment without consent shall void subject preceding sentence agreement binding upon inure benefit enforceable b party respective successor assigns notwithstanding preceding sentence party may assign agreement without consent connection merger transaction party surviving entity surv iving entity acquires assumes substantially party asset b upon sale substantially party asset provided however assignee expressly assumes writing obligation assig ning party agreement assigning party provides written notice evidence assignment assumption non assigning party assignment permitted section shall release assigning party liability full performance obligation agreement section third party beneficiary except indemnification right pursuant article iv agreement subsidiary aramark holding parent provision agreement solely benefit party intended confer upon person except party right remedy hereunder b third party beneficiary agreement agreement shall provide third person remedy claim liability reimbursement cause action right excess existing without reference agreement section notice notice communication agreement shall writing shall deemed duly given delivered person b sent telecopier except sent normal business hour recipient pening business next business day recipient fax number set forth c deposited united state mail private express mail postage prepaid addressed follows aramark holding co aramark corporation market street philadelphia pa attn general counsel facsimile parent w washington st chicago il attn matt maloney facsimile copy shall constitute notice goodwin procter llp commonwealth drive menlo park ca attention craig schmitz esq facsimile spinco seamless holding corporation market street philadelphia pa attn president facsimile copy shall constitute notice latham watkins montgomery street suite san francisco ca attention scott r haber esq facsimile copy shall constitute notice simpson thacher bartlett llp lexington ave new york ny attention steven c todrys esq facsimile party may notice party change address notice given section severability provision agreement application thereof person circumstance determined court competent jurisdiction invalid void unenforceable remaining provision hereof application provision person circumstance jurisdiction held invalid unenforceable shall remain full force effect shall way affected impaired invalidated thereby long economic legal substance transaction contemplated hereby affected manner materially adverse party upon determination party shall negotiate good faith effort agree upon suitable equitable provision effect th e original intent party section force majeure party shall deemed default agreement extent delay failure performance obligation agreement result cause beyond reasonable control without fault negligence act god act civil military authority embargo epide mics war riot insurrection fire explosion earthquake flood unusually severe weather condition labor problem unavailability part case computer system failure electrical air conditioning equipment ev ent excused delay time performance shall extended period equal time lost reason delay section heading article section paragraph heading contained agreement reference purpose shall affect way meaning interpretation agreement section waiver default waiver party hereto default party hereto provision agreement shall deemed waiver waiving party subsequent default section amendment provision agreement shall deemed waived amended supplemented modified party hereto unless waiver amendment supplement modification writing signed authorized representative party section interpretation word singular shall held include plural vice versa word one gender shall held include gender context requires term hereof herein herewith word similar import unless otherwise stated shall construed refer agreement whole including schedule exhibit appendix hereto particular provision agreement article section reference article section thi agreement unless otherwise specified reference herein agreement unless otherwise stated shall construed refer agreement amended supplemented otherwise modified time time permitted section word including word similar import used agreement shall mean including without limitation unless context otherwise requires unless otherwise specified word shall exclusive remainder page intentionally left blank witness whereof party caused agreement executed duly authorized representative aramark holding corporation joseph munnelly name joseph munnelly title svp controller cao witness whereof party caused agreement executed duly authorized representative seamless holding corporation michael j ohara name michael j ohara title vice president witness whereof party caused agreement executed duly authorized representative grubhub holding inc matt maloney name matt maloney title president</t>
-  </si>
-  <si>
-    <t>form tax receivable agreement dated table content page article definition section definition article ii determination realized tax benefit section basis adjustment section exchange basis schedule section tax benefit schedule section procedure amendment article iii tax benefit payment section payment section duplicative payment section pro rata payment article iv termination section early termination breach agreement section early termination notice section payment upon early termination article v late payment section late payment corporate taxpayer article vi dispute consistency cooperation section limited partner group member participation corporate taxpayer partnership tax matter section consistency section cooperation article vii miscellaneous section notice section counterpart section entire agreement third party beneficiary section governing law section severability section successor assignment amendment waiver section title subtitle section resolution dispute section reconciliation section withholding section affiliated corporation blackstone holding general partner admission corporate taxpayer consolidated group transfer corporate asset section confidentiality section partnership agreement section partnership section heading exhibit form joinder agreement ii tax receivable agreement amended time time agreement dated hereby entered among blackstone holding gp inc delaware corporation blackstone holding gp blackstone h oldings ii gp inc delaware corporation blackstone holding ii gp together blackstone holding gp corporate taxpayer blackstone holding lp delaware limited partnership blackstone holding blackstone holding ii l p delaware limited partnership blackstone holding ii together person defined herein corporate taxpayer acquire partnership interest member interest similar interest date hereof execute deliver joinder contemplated section partnership undersigned party hereto identified limited partner recital whereas limited partner hold interest partner member entity prior entitie selling interest corporate taxpayer initial sale described form registration statement blackstone group lp delaware limited partnership parent whereas limited partner hold limited p artner interest partnership unit partnership treated partnership u federal income tax purpose whereas corporate taxpayer general partner partnership whereas partner hip unit together limited partner interest blackstone holding partnership defined exchangeable corporate taxpayer parent common unit common unit parent subject provision exchange agreement defined whereas prior entity partnership direct indirect subsidiary effect election section internal revenue code amended code taxable year initial sale occurs taxable year exchange partnership unit common unit occurs election intended generally result adjustment tax basis asset owned partnership solely respect corporate taxpayer time exchange partnership unit common unit acquisition partnership unit cash consideration including initial sale collectively exchange time exchange date asset asset whose tax basis determined whole part reference adjusted basis asset original asset reason exchange receipt payment u nder agreement whereas income gain loss expense tax item partnership solely respect corporate taxpayer may affected basis adjustment defined ii corporate taxpayer may affecte imputed interest defined whereas party agreement desire make certain arrangement respect effect basis adjustment imputed interest actual liability tax corporate taxpayer therefore consideration foregoing respective covenant agreement set forth herein intending legally bound hereby party hereto agre e follows article definition section definition used agreement term set forth article shall following meaning meaning equally applicable singular plural form term defined affiliate mean respect person person directly indirectly one intermediary control controlled common control first person agreed rate mean libor plus ba si point agreement defined recital agreement amended schedule defined section b agreement basis adjustment mean adjustment tax basis original asset section code situat ion result one exchange partnership becomes entity disregarded separate owner tax purpose section code section b code situation following exchange partnership remains existence entity tax purpose case comparable section state local foreign tax law calculated section agreement result exchange payment made pursuant agreement notwithstanding provision agreement amount basis adjustment resulting exchange one partnership unit shall determined without regard pre exchange transfer partnership unit pre exchange transfer occurred blackstone holding gp defined recital agreement blackstone holding ii gp defined recital agreement blackstone holding general partner mean co llectively corporate taxpayer blackstone holding iii gp lp delaware limited partnership blackstone holding iii blackstone holding iv gp lp delaware limited partnership blackstone holding iv blackstone holding v gp lp alberta limited partnership blackstone holding v blackstone holding partnership mean collectively blackstone holding blackstone holding ii blackstone holding iii lp delaware limited partnership blackstone holding iii blackstone holding iv lp alberta limited partnership blackstone holding iv blackstone holding v lp alberta limited partnership blackstone holding v business day mean monday friday week except legal holiday recognized government united state america state new york shall regarded business day change control mean occurrence person person approved current general partner becoming general pa rtner parent common unit defined recital agreement code defined recital agreement control mean possession direct indirect power direct cause direction management policy person whether ownership voting security contract otherwise corporate taxpayer defined recital agreement corporate taxpayer return mean federal tax return andor state andor local andor foreign tax return applicable corporate taxpayer filed respect tax taxable year default rate mean libor plus basis point determi nation shall meaning ascribed term section code similar provision state local foreign tax law applicable event including execution form ad finally conclusively establi shes amount liability tax early termination date mean date early termination notice purpose determining early termination payment early termination notice defined section agreement early term ination schedule defined section agreement early termination payment defined section b agreement early termination rate mean lesser ii libor plus basis point exchange defined n recital agreement exchange agreement mean exchange agreement dated date hereof among parent corporate taxpayer limited partner blackstone holding time time exchange basis schedule efined section agreement exchange date defined recital agreement exchange payment defined section excluded asset defined section c agreement expert defined section agreement general partner mean blackstone management llc delaware limited liability company general partner parent initial sale defined recital agreement imputed interest shall mean interest imput ed section provision code similar provision state local foreign tax law respect corporate taxpayer payment obligation agreement libor mean month portion thereo f period interest rate per annum equal rate per annum reported date two day prior first day month telerate page screen shall cease publicly available reported reuters scre en page libo publicly available source market rate london interbank offered rate u dollar deposit month portion thereof limited partner mean party hereto corporate taxpayer individual time time executes joinder agreement form attached hereto exhibit limited partner group member meaning assigned term amended restated limited liability company agreement general partner may amended supplemented restated time time market value shall mean closing price common unit pplicable exchange date national security exchange interdealer quotation system common unit traded listed reported wall street journal provided closing price reported wall street journal applicable exchange date market value shall mean closing price common unit business day immediately preceding exchange date national security exchange interdealer quotation system common unit traded listed reported wall street journal provided common unit listed national security exchange interdealer quotation system market value shall mean cash considerati paid common unit fair market value property delivered common unit determined board director general partner good faith material objection notice meaning set forth section nonstepped tax basis mean respect asset time tax basis asset would time basis adjustment made nonstepped tax liability mean respect taxable year liability tax corporate taxpayer partnership corporate taxpayer owns interest respect tax imposed partnership allocable corporate taxpayer using method ele ctions convention similar practice used relevant corporate taxpayer return using non stepped tax basis instead tax basis original asset excluding deduction attributable imputed interest objection tice meaning set forth section original asset defined recital agreement parent defined recital agreement partnership defined recital agreement partnership agreement mean respect partnership amended restated limited partnership agreement partnership partnership unit defined recital agreement payment date mean date payment required made pursuant agreement person mean individual corporation firm partnership joint venture limited liability company estate trust business association organization governmental entity entity preexchange transfer mean trans fer including upon death limited partner one partnership unit occurs prior exchange partnership unit ii section b code applies prior entity defined recital greement realized tax benefit mean taxable year excess non stepped tax liability actual liability tax corporate taxpayer partnership corporate taxpayer interest respect tax imposed partnership allocable corporate taxpayer taxable year using without methodology portion actual tax liability tax taxable year arises sult audit taxing authority taxable year liability shall included determining realized tax benefit unless determination realized tax detriment mean taxable year excess actual liability tax cor porate taxpayer partnership corporate taxpayer owns interest respect tax imposed partnership allocable corporate taxpayer non stepped tax liability taxable year using without methodology portion actual tax liability tax taxable year arises result audit taxing authority taxable year liability shall included determining realized tax de triment unless determination reconciliation dispute meaning set forth section reconciliation procedure shall mean procedure set forth section agreement schedule mean exchange basis schedule tax benefit schedule early termination schedule subsidiary mean respect person date determination othe r person person owns directly indirectly otherwise control voting power similar interest sole general partner interest managing member similar interest person tax benefit paym ent defined section b agreement tax benefit schedule defined section agreement tax return mean return declaration report similar statement required filed respect tax including att ached schedule including without limitation information return claim refund amended return declaration estimated tax taxable year mean taxable year defined section b code comparable section state local r foreign tax law applicable therefore avoidance doubt may include period less month tax return made ending exchange date basis adjustment due exchange tax mean u federal state local foreign tax assessment similar charge measured respect net income profit interest related tax taxing authority shall mean domestic foreign federal national sta te county municipal local government subdivision agency commission authority thereof quasi governmental body exercising taxing authority authority exercising tax regulatory authority treasury regulation mean final temporary proposed regulation code promulgated time time including corresponding provision succeeding provision effect relevant taxable period valuation assumption shall mean early termination date assumption taxable year ending early termination date corporate taxpayer taxable income sufficient fully utilize deduction arising basis adjustment mputed interest taxable year federal income tax rate state local foreign income tax rate effect taxable year specified taxable year code law effect early termination date loss carryovers carryback generated basis adjustment imputed interest available date early termination schedule utilized corporate taxpayer pro r ata basis date early termination schedule scheduled expiration date loss carryovers carrybacks non amortizable asset deemed disposed respect private equity fund related asset pro rata number year remaining original fund agreement expected liquidation without extension applicable fund expected liquidation date passed early termination date b respect ot asset fifteenth anniversary earlier basis adjustment early termination date early termination effected prior exchange partnership unit clause section shall read include rket value common unit cash would transferred exchange occurred early termination date article ii determination rea lized tax benefit section basis adjustment corporate taxpayer partnershi p one hand applicable limited partner hand acknowledge result exchange corporate taxpayer basis applicable original asset shall increased excess sum x market value common unit cash consideration transferred applicable limited partner pursuant exchange payment exchanged partnership unit plus amount payment made pursuant agreement respect exchange plus z amount debt allocated partnership unit acquired pursuant exchange ii corporate taxpayer share basis original asset immediately exchange attributable partnership unit exchanged determined x partnership remains existence entity tax purpose partnership made election provided section code avoidance doubt payment made ag reement shall treated resulting basis adjustment extent payment treated imputed interest section exchange basis schedule within calendar day filing u federal income tax return corporate taxpayer taxable year exchange effected corporate taxpayer shall deliver applicable limited partner schedule exchange basis schedule show purpose tax actual unadjusted tax basis original asset applicable exchange date ii basis adjustment respect original asset result exchange effected taxable year calculated aggregate iii period period original asset ortizable andor depreciable iv period period basis adjustment amortizable andor depreciable non amortizable asset shall based valuation assumption section tax benefit schedule within calendar day filing u federal income tax return corporate taxpayer taxable year realized tax benefit realized tax detriment corporate taxpayer shall provide applicable limited partner schedule showing calculation realized tax benefit realized tax detriment taxable year tax benefit chedule schedule become final provided section may amended provided section b subject procedure set forth section b section procedure amendment procedure every time corporate taxpayer delivers applicable limited partner applicable schedule agreement including amended schedule delivered pursuant section b excluding early termination schedule amended early ter mination schedule corporate taxpayer shall also x deliver applicable limited partner schedule work paper providing reasonable detail regarding preparation schedule allow applicable limited partner reasona ble access cost appropriate representative corporate taxpayer connection review schedule applicable schedule shall become final binding party unless applicable limited partner group memb er within calendar day receiving exchange basis schedule amendment thereto calendar day receiving tax benefit schedule amendment thereto provides corporate taxpayer notice material objection schedu le objection notice made good faith provided sake clarity limited partner group member shall right object schedule amended schedule pursuant section party reason unable successfully resolve issue raised notice within calendar day receipt corporate taxpayer objection notice respect exchange basis schedule calendar day receipt corporate taxpayer obj ection notice respect tax benefit schedule schedule delivered applicable limited partner corporate taxpayer applicable limited partner shall employ reconciliation procedure described section agreement reconciliation procedure b amended schedule applicable schedule taxable year may amended time time corporate taxpayer connection determination affecting sc hedule ii correct material inaccuracy schedule identified result receipt additional factual information relating taxable year date schedule provided applicable limited partner iii comply wit h expert determination reconciliation procedure iv reflect material change realized tax benefit realized tax detriment taxable year attributable carryback carryforward loss tax item taxable year v reflect material change realized tax benefit realized tax detriment taxable year attributable amended tax return filed ta xable year vi adjust exchange basis schedule take account payment made pursuant agreement schedule amended schedule article iii tax benefit payment section payment payment within five calendar day tax benefit schedule delivered applicable limited partner becoming final accordance section corporate taxpayer shall pay applicable limited partner taxable year tax benefit payment determined pursuant section b tax benefit payment shall made wire transfer immediately available fund bank account applicable limited partner previously designated limited partner corporate taxpayer otherwise agreed corporate taxpayer applicable limited partner avoidance doubt tax benefit payment shall made respect estimated tax payment including without limitation federal come tax payment b tax benefit payment mean amount less zero equal sum net tax benefit interest amount net tax benefit shall equal corporate taxpayer realized tax benefit ny taxable year plus amount excess realized tax benefit reflected amended tax benefit schedule previous taxable year realized tax benefit realized tax detriment expressed negative number reflected tax benefit schedule previous taxable year minus amount equal corporate taxpayer realized tax detriment current previous taxable year minus amount excess realized tax benefit refl ected tax benefit schedule previous taxable year realized tax benefit realized tax detriment expressed negative number reflected amended tax benefit schedule previous taxable year provided however extent amount described b taken account determining tax benefit payment preceding taxable year amount shall taken account determining tax benefit payment attributable taxable year provided avoidance doubt applicable limited partner shall required return portion previously made tax benefit payment interest amount shall equal interest net tax benefit calc ulated agreed rate due date without extension filing corporate taxpayer return respect tax taxable year payment date notwithstanding foregoing taxable year ending date f change control tax benefit payment whether paid respect partnership unit exchanged prior date change control ii date change control shall calculated utilizing val uation assumption substituting case term closing date change control early termination date section duplicative payment intended provision agreement result duplicative payment amount including interest required agreement also intended provision agreement provide co rporate taxpayer realized tax benefit interest amount paid limited partner pursuant agreement provision agreement shall construed appropriate manner intention realized section pro rata payment avoidance doubt extent corporate taxpayer deduction respect basis adjustment limited particular taxable year corporate taxpayer lack sufficient fund satisfy obligation make tax benefit payment due particular taxable year limitation deduction tax benefit payment may made case may shall taken account made applicable limited partner pro rata basis relat ive total amount deduction respect aggregate basis adjustment applicable limited partner article iv termination section early termination breach agreement corporate taxpayer may terminate agreement respect partnership unit held previously held exchanged limited partner time paying applicable limited partner early termination paym ent provided however agreement shall terminate upon receipt early termination payment limited partner provided corporate taxpayer may withdraw notice execute termination right section prior time early termination payment paid upon payment early termination payment corporate taxpayer neither applicable limited partner corporate taxpayer shall f urther payment obligation agreement respect limited partner tax benefit payment agreed corporate taxpayer applicable limited partner due payable unpaid early terminatio n notice b tax benefit payment due taxable year ending including date early termination notice except extent amount described clause b included early termination payment exchange occu r corporate taxpayer exercise termination right section corporate taxpayer shall obligation agreement respect exchange b event corporate taxpayer breache material obligation agreement whether result failure make payment due failure honor material obligation required hereunder operation law result rejection agreement case commenced bankruptcy code otherwise obligation hereunder shall accelerated obligation shall calculated early termination notice delivered date breach shall include limited early termination payment calculated early termination notice delivered date breach tax benefit payment agreed corporate taxpayer limited partner due payable unpaid date breach tax benefit payment due taxable year ending including date breach notwithstanding foregoing event corporate taxpayer breach agreement limited partner shall entitled elect receive amount set forth seek specific performance term hereof party agre e failure make payment due pursuant agreement within three month date payment due shall deemed breach material obligation agreement purpose agreement considered breach material obligation agreement make payment due pursuant agreement within three month date payment due c undersigned party agree aggregate value tax benefit payment ascertained reasonable certainty u federal income tax purpose section early termination notice corporate taxpayer chooses exercise right early termination section corporate taxpayer shall deliver applicable limited partner notice intention exercise right early termination notice schedule early termination schedule specifying corporate taxpayer intention exercise right showing reasonable detail calculation early termination payment applicable early termination schedule shall become fina l binding party unless applicable limited partner group member within calendar day receiving early termination schedule thereto provides corporate taxpayer notice material objection schedule made go od faith material objection notice provided sake clarity limited partner group member shall right object schedule amended schedule pursuant section party reason unable su ccessfully resolve issue raised notice within calendar day receipt corporate taxpayer material objection notice corporate taxpayer applicable limited partner group member shall employ reconciliation p rocedures described section agreement section payment upon early termination within three calendar day agreement applicable limited partner corporate taxpayer early termination schedule corporate taxpayer shall pay applicable limited partner amount equal early termination payment payment shall made wire transfer immediately available fund bank account designated applicable limited partner otherwise agreed corporate taxpayer applicable limited partner b early termination payment date delivery early termination schedule shall equal respect applicable limited partner pr esent value discounted early termination rate date tax benefit payment would required paid corporate taxpayer applicable limited partner beginning early termination date assuming valuation assumption applied article v subordination la te payment section subordination notwithstanding provision agreement contrary tax benefit payment early termination payment required made corporation applicable partner agreement exchange payment shall rank subordinate junior right payment principal interest amo unts due payable respect obligation respect indebtedness borrowed money corporation subsidiary senior obligation shall rank pari passu current future unsecured obligation corporation th senior obligation section late payment corporate taxpayer amount portion tax benefit payment made applicable limited partner due term agreement shall payable together interest thereon computed default rate commencing date exchange payment due payable article vi dispute consist ency cooperation section limited partner group member participation corporate taxpayer partnership tax matter except otherwise provided herein corporate taxpayer shall full responsibility sole discretion tax matter concerning corporate taxpayer partnership including without limitation preparati filing amending tax return defending contesting settling issue pertaining tax notwithstanding foregoing corporate taxpayer shall notify applicable limited partner group member keep applicabl e limited partner group member reasonably informed respect portion audit corporate taxpayer partnership taxing authority outcome reasonably expected affect applicable limited partner group mem bers right obligation agreement shall provide applicable limited partner group member reasonable opportunity provide information input corporate taxpayer partnership respective advisor con cerning conduct portion audit provided however corporate taxpayer partnership shall required take action inconsistent provision partnership agreement secti consistency corporate taxpayer applicable limited partner agree report cause reported purpose including federal state local foreign tax purpose financial reporting purpose tax related item including without limitation basis adjustment tax benefit payment manner consistent specified corporate taxpayer schedule required provided behalf corporate taxpayer agreement section cooperation applicable limited partner shall furnish corporate taxpayer timely manner information document material corporate taxpayer may reasonably request purpose making determination computa tion necessary appropriate agreement preparing tax return contesting defending audit examination controversy taxing authority b make available corporate taxpayer representative provide explanation document material information corporate taxpayer representative may reasonably request connection matter described clause c reasonably cooperate n connection matter corporate taxpayer shall reimburse applicable limited partner reasonable third party cost expense incurred pursuant section article vii miscellaneous section notice notice request claim demand communication hereunder shall writing shall deemed duly given received date delivery delivered personally facsimile upon confirmation transmission sender f ax machine sent business day otherwise next business day b first business day following date dispatch delivered recognized next day courier service notice hereunder shall delivered set forth pursuant instruction may designated writing party receive notice blackstone holding gp blackstone holding ii gp co blackstone group lp park avenue new york ny attention chief legal officer copy simpson thacher bartlett llp lexington avenue new york new york f attention joshua ford bonnie esq applicable limited partner address facsimile number set forth record partnership party may change address fax number giving party written notice new address fax number manner set forth section counterpart agreement may executed one counterpart shall considered one agreement shall become effective one counterpart signed party delivered party understood party need sign counterpart delivery executed signature page agreement facsimile transmission shall effective delivery manually signed counterpart agreement section entire agreement third party beneficiary agreement constitutes ent ire agreement supersedes prior agreement understanding written oral among party respect subject matter hereof agreement shall binding upon inure solely benefit party hereto spective successor permitted assigns nothing agreement express implied intended shall confer upon person right benefit remedy nature whatsoever reason agreement section governing law agreement shall governed construed accordance law state new york section severability term provision agreement invalid illegal incapable enforced law public policy term provision agreement shall nevertheless remain full force effect long economic legal substance transaction contemplated hereby affected manner materially adverse party upon determination term provision invalid illegal incapable enforced party hereto shall negotiate good faith modify agreement effect original intent party closely possible acceptable manner order transaction contemplated hereby consummated originally contemplated greatest extent po ssible section successor assignment amendment waiver limited partner may assign agreement person without prior written consent corporate taxpayer provided however extent partnership unit effectively transferred accordance term partnership agreement agreement limited partner may entered parent corporate taxpayer andor blackstone holding general partner blackstone holding partnership transferring limited partner shall assign transferee partnership unit transferring limited partner right agreement respect transferred partner ship unit long transferee executed delivered connection transfer executes delivers joinder agreement form substance reasonably satisfactory corporate taxpayer agreeing becom e limited partner purpose agreement except otherwise provided joinder ii exchange occurred payment may become payable limited partner pursuant agreement respect exchange may assigned person person long person executed delivered connection assignment executes delivers joinder agreement form substance reasonably satisfactory e ach corporate taxpayer agreeing bound section acknowledging specifically last sentence next paragraph avoidance doubt extent limited partner group member person transfer partnership unit limited partner group mem ber pursuant relevant partnership agreement limited partner group member receiving partnership unit shall right agreement respect transferred partnership unit limited partner group member agreement respect partnership unit held b requirement execute deliver joinder pursuant section shall construed requiring execution delivery prior assignment becoming effective b notwithstanding provision section transferee described clause section shall right enforce provision section agreement assig nee described clause ii section shall right agreement except right enforce right receive payment agreement c provision agreement may amended unless amendment approved writing corporate taxpayer behalf respective partnership control limited partner group member would entitled receive least two third early termination payment pa yable limited partner group member hereunder corporate taxpayer exercised right early termination date recent exchange prior amendment excluding purpose sentence payment mad e limited partner group member pursuant agreement since date recent exchange provided amendment shall effective amendment disproportionate effect payment certain limited partner may receive agreement unless limited partner disproportionately effected consent writing amendment provision agreement may waived unless waiver writing signed party waiver effective term provision agreement shall binding upon shall inure benefit shall enforceable party hereto respective successor assigns heir executor administrator legal representative corporate taxpayer shall require cause direct indirect successor whether purchase merger consolidation otherwise substantially business asset corpo rate taxpayer written agreement expressly assume agree perform agreement manner extent corporate taxpayer would required perform succession taken place notwithstanding anything contrary herein event limited partner group member transfe</t>
-  </si>
-  <si>
-    <t>form tax receivable agreement dated table content page article definition section definition article ii determination realized tax benefit section basis adjustment section exchange basis schedule section tax benefit schedule section procedure amendment article iii tax benefit payment section payment section duplicative payment section pro rata payment article iv termination section early termination breach agreement section early termination notice section payment upon early termination article v late payment section late payment corporate taxpayer article vi dispute consistency cooperation section limited partner group member participation corporate taxpayer partnership tax matter section consistency section cooperation article vii miscellaneous section notice section counterpart section entire agreement third party beneficiary section governing law section severability section successor assignment amendment waiver section title subtitle section resolution dispute section reconciliation section withholding section affiliated corporation blackstone holding general partner admission corporate taxpayer consolidated group transfer corporate asset section confidentiality section partnership agreement section partnership section heading exhibit form joinder agreement ii tax receivable agreement amended time time agreement dated hereby entered among blackstone holding gp inc delaware corporation blackstone holding gp blackstone holding ii gp inc delaware corporation blackstone holding ii gp together blackstone holding gp corporate taxpayer blackstone holding lp delaware limited partnership blackstone holding blackstone holding ii lp delaware limited partnership blackstone holding ii together person defined herein corporate taxpayer acquire partnership interest member interest similar interest date hereof execute deliver joinder contemplated section partnership undersigned party hereto identified limited partner recital whereas limited partner hold interest partner member entity prior entity selling interest corporate taxpayer initial sale described form registration statement blackstone group lp delaware limited partnership parent whereas limited partner hold limited partner interest partnership unit partnership treated partnership u federal income tax purpose whereas corporate taxpayer general partner partnership whereas partnership unit together limited partner interest blackstone holding partnership defined exchangeable corporate taxpayer parent common unit common unit parent subject provision exchange agreement defined whereas prior entity partnership direct indirect subsidiary effect election section internal revenue code amended code taxable year initial sale occurs taxable year exchange partnership unit common unit occurs election intended generally result adjustment tax basis asset owned partnership solely respect corporate taxpayer time exchange partnership unit common unit acquisition partnership unit cash consideration including initial sale collectively exchange time exchange date asset asset whose tax basis determined whole part reference adjusted basis asset original asset reason exchange receipt payment agreement whereas income gain loss expense tax item partnership solely respect corporate taxpayer may affected basis adjustment defined ii corporate taxpayer may affected imputed interest defined whereas party agreement desire make certain arrangement respect effect basis adjustment imputed interest actual liability tax corporate taxpayer therefore consideration foregoing respective covenant agreement set forth herein intending legally bound hereby party hereto agree follows article definition section definition used agreement term set forth article shall following meaning meaning equally applicable singular plural form term defined affiliate mean respect person person directly indirectly one intermediary control controlled common control first person agreed rate mean libor plus basis point agreement defined recital agreement amended schedule defined section b agreement basis adjustment mean adjustment tax basis original asset section code situation result one exchange partnership becomes entity disregarded separate owner tax purpose section code section b code situation following exchange partnership remains existence entity tax purpose case comparable section state local foreign tax law calcula ted section agreement result exchange payment made pursuant agreement notwithstanding provision agreement amount basis adjustment resulting exchange one partn ership unit shall determined without regard pre exchange transfer partnership unit pre exchange transfer occurred blackstone holding gp defined recital agreement blackstone holding ii gp defined recital agreement blackstone holding general partner mean collectively corporate taxpayer blackstone holding iii gp lp delaware limited partnership blackstone holding iii blackstone holding iv gp lp delaware limited partnership blackstone holding iv blackstone holding v gp lp alberta limited partnership blackstone holding v blackstone holding partnership mean collectively blackstone holding blackstone holding ii blackstone holding iii lp delaware limited partnership blackstone holding iii blackstone holding iv lp alberta limited partnership blackstone holding iv blackstone holding v lp alberta limited partnership blackstone holding v business day mean monday friday week except legal holiday recognized government united state america state new york shall regarded business day change control mean occurrence person person approved current general partner becoming general partner parent common unit defined recital agreement code defined recital agreement control mean possession direct indirect power direct cause direction management policy person whether ownership voting security contract otherwise corporate taxpayer defined recital agreement corporate taxpayer return mean federal tax return andor state andor local andor foreign tax return applicable corporate taxpayer filed respect tax taxable year default rate mean libor plus basis point determination shall meaning ascribed term section code similar provision state local foreign tax law applicable event including execution form ad finally conclusively establishes amount liability tax early termination date mean date early termination notice purpose determining early termination payment early termination notice defined section agreement early termination schedule defined section agreement early termination payment defined section b agreement early termination rate mean lesser ii libor plus basis point exchange defined recital agreement exchange agreement mean exchange agreement dated date hereof among parent corporate taxpayer limited partner blackstone holding time time exchange basis schedule defined section agreement exchange date defined recital agreement exchange payment defined section excluded asset defined section c agreement expert defined section agreement general partner mean blackstone management llc delaware limited liability company general partner parent initial sale defined recital agreement imputed interest shall mean interest imputed section provision code similar provision state local foreign tax law respect corporate taxpayer payment obligation agreement libor mean month portion thereof period interest rate per annum equal rate per annum reported date two day prior first day month telerate page screen shall cease publicly available reported reuter screen page libo publicly available source market rate london interbank offered rate u dollar deposit month portion thereof limited partner mean party hereto corporate taxpayer individual time time executes joinder agreement form attached hereto exhibit limited partner group member meaning assigned term amended restated limited liability company agreement general partner may amended supplemented restated time time market value shall mean closing price common unit applicable exchange date national security exchange interdealer quotation system common unit traded listed reported wall street journal provided th closing price reported wall street journal applicable exchange date market value shall mean closing price common unit business day immediately preceding exchange date national securit y exchange interdealer quotation system common unit traded listed reported wall street journal provided common unit listed national security exchange interdealer quota tion system market value shall mean cash consideration paid common unit fair market value property delivered common unit determined board director general partner good faith material objection notice meaning set forth section nonstepped tax basis mean respect asset time tax basis asset would time basis adjustment made nonstepped tax liability mean respect taxable year liability tax corporate taxpayer partnership corporate taxpayer owns interest respect tax imposed partnership allocable corporate taxpayer using method election convention similar practice used relevant corporate taxpayer return using non stepped tax basis instead tax basis original asset excluding de duction attributable imputed interest objection notice meaning set forth section original asset defined recital agreement parent defined recital agreement partnership defined recital agreement partnership agreement mean respect partnership amended restated limited partnership agreement partnership partnership unit defined recital agreement payment date mean date payment required made pursuant agreement person mean individual corporation firm partnership joint venture limited liability company estate trust business association organization governmental entity entity preexchange transfer mean transfer including upon death limited partner one partnership unit occurs prior exchange partnership unit ii section b code applies prior entity defined recital agreement realized tax benefit mean taxable year excess non stepped tax liability actual liability tax corporate taxpayer partnership corporate taxpayer interest respect tax imposed partnership allocable corporate taxpayer taxable year using without methodology portion actual tax liability tax taxable year arises result audit taxing au thority taxable year liability shall included determining realized tax benefit unless determination realized tax detriment mean taxable year excess actual liability tax corporate taxpayer partnership corporate taxpayer owns interest respect tax imposed partnership allocable co rporate taxpayer non stepped tax liability taxable year using without methodology portion actual tax liability tax taxable year arises result audit taxing authority taxable year liability shall included determining realized tax detriment unless determination reconciliation dispute meaning set forth section reconciliation procedure shall mean procedure set forth section agreement schedule mean exchange basis schedule tax benefit schedule early termination schedule subsidiary mean respect person date determination person person owns directly indirectly otherwise control voting power similar interest sole general partner int erest managing member similar interest person tax benefit payment defined section b agreement tax benefit schedule defined section agreement tax return mean return declaration report similar statement required filed respect tax including attached schedule including without limitation information return claim refund amended return declaration estimated tax taxable year mean taxable year defined section b code comparable section state local foreign tax law applicable therefore avoidance doubt may include period less month tax return made ending exchange date basis adjustment due exchange tax mean u federal state local foreign tax assessment similar charge measured respect net income profit interest related tax taxing authority shall mean domestic foreign federal national state county municipal local government subdivision agency commission authority thereof quasi governmental body exercising taxing authority authority exe rcising tax regulatory authority treasury regulation mean final temporary proposed regulation code promulgated time time including corresponding provision succeeding provision effect relevant taxable period valuation assumption shall mean early termination date assumption taxable year ending early termination date corporate taxpayer taxable income sufficient fully utilize deduction arising th e basis adjustment imputed interest taxable year federal income tax rate state local foreign income tax rate effect taxable year specified taxable year code law effect early termination date loss carryovers carryback generated basis adjustment imputed interest available date early termination schedule utilized co rporate taxpayer pro rata basis date early termination schedule scheduled expiration date loss carryovers carrybacks non amortizable asset deemed disposed respect private equit fund related asset pro rata number year remaining original fund agreement expected liquidation without extension applicable fund expected liquidation date passed early termination date b respect asset fifteenth anniversary earlier basis adjustment early termination date early termination effected prior exchange partnership unit clause section sha read include market value common unit cash would transferred exchange occurred early termination date article ii determination realized tax benefit section basis adjustment corporate taxpayer partnership one hand applicable limited partner hand acknowledge result exchange corporate taxpayer basis applicable original asset shall increased excess sum x market value common unit cash consideration transferred applicable limited partner pursuant exchange payment exchanged partnership unit plus ount payment made pursuant agreement respect exchange plus z amount debt allocated partnership unit acquired pursuant exchange ii corporate taxpayer share basis original ssets immediately exchange attributable partnership unit exchanged determined x partnership remains existence entity tax purpose partnership made election provided section code fo r avoidance doubt payment made agreement shall treated resulting basis adjustment extent payment treated imputed interest section exchange basis schedule within calendar day filing u federal income tax return corporate taxpayer taxable year exchange effected corporate taxpayer shall deliver applicable limited part ner schedule exchange basis schedule show purpose tax actual unadjusted tax basis original asset applicable exchange date ii basis adjustment respect original asset result exchange effected taxable year calculated aggregate iii period period original asset amortizable andor depreciable iv period period basis adjustment amortizable andor depreciable non amortizable asset shall b ased valuation assumption section tax benefit schedule within calendar day filing u federal income tax return corporate taxpayer taxable year realized tax benefit realized tax detriment corporate taxpayer shall provide applicable limited partner schedule showing calculation realized ax benefit realized tax detriment taxable year tax benefit schedule schedule become final provided section may amended provided section b subject procedure set forth section b section procedure amendment procedure every time corporate taxpayer delivers applicable limited partner applicable schedule agreement including amended schedule delivered pursuant section b excluding early termination schedule amend ed early termination schedule corporate taxpayer shall also x deliver applicable limited partner schedule work paper providing reasonable detail regarding preparation schedule allow applicable limited par tner reasonable access cost appropriate representative corporate taxpayer connection review schedule applicable schedule shall become final binding party unless applicable limited partne r group member within calendar day receiving exchange basis schedule amendment thereto calendar day receiving tax benefit schedule amendment thereto provides corporate taxpayer notice material objection schedule objection notice made good faith provided sake clarity limited partner group member shall right object schedule amended schedule pursuant section party reason unable successfully resolv e issue raised notice within calendar day receipt corporate taxpayer objection notice respect exchange basis schedule calendar day receipt corporate taxpayer objection notice wit h respect tax benefit schedule schedule delivered applicable limited partner corporate taxpayer applicable limited partner shall employ reconciliation procedure described section agreement reconciliation procedure b amended schedule applicable schedule taxable year may amended time time corporate taxpayer connection determination affecting schedule ii correct material inaccuracy schedule identified result receipt additional factual information relating taxable year date schedule provided applicable limited partner iii comply expert determination reconciliation procedure iv reflect aterial change realized tax benefit realized tax detriment taxable year attributable carryback carryforward loss tax item taxable year v reflect material change realized tax benefit realized tax detriment taxable year attributable amended tax return filed taxable year vi adjust exchange basis schedule take account payment made pursuant agreement schedule amended schedule article iii tax benefit payment section payment payment within five calendar day tax benefit schedule delivered applicable limited partner becoming final accordance section corporate taxpayer shall pay applicable limited partner taxable year tax benefit payment determined pursuant section b tax benefit payment shall made wire transfer immediately available fund bank account applicable limited partner previously designated limited partner corporate taxpayer otherwise agreed corporate taxpayer applicable limited partner avoidance doubt tax benefit payment shall made respect estimated tax payment including without limitation federal come tax payment b tax benefit payment mean amount less zero equal sum net tax benefit interest amount net tax benefit shall equal corporate taxpayer realized tax benefit taxable year plus amount exces realized tax benefit reflected amended tax benefit schedule previous taxable year realized tax benefit realized tax detriment expressed negative number reflected tax benefit schedule previous taxable year minus amount equal corporate taxpayer realized tax detriment current previous taxable year minus amount excess realized tax benefit reflected tax benefit schedule previous taxable year realized tax benefit realized tax detriment expressed negative number reflected amended tax benefit schedule previous taxable year provided however extent amount described b taken account determining tax benefit payment preceding taxable year amount shall taken account determining tax benefit payment attributa ble taxable year provided avoidance doubt applicable limited partner shall required return portion previously made tax benefit payment interest amount shall equal interest net tax benefit calculated agreed rate due date without extension filing corporate taxpayer return respect tax taxable year payment date notwithstanding foregoin g taxable year ending date change control tax benefit payment whether paid respect partnership unit exchanged prior date change control ii date c hange control shall calculated utilizing valuation assumption substituting case term closing date change control early termination date section duplicative payment intended provision agreement result duplicative payment amount including interest required agreement also intended provision agreement provide corporate taxpayer realized tax benefit interest amount paid limited partner pursuant agreement provision agreement shall construed appropriate manner intention realized section pro rata payment avoidance doubt extent corporate taxpayer deduction respect basis adjustment limited particular taxable year corporate taxpayer lack sufficient fund satisfy obligation make tax benefit payment due particular taxable year limitation deduction tax benefit payment may made case may shall taken account made applicable limited partner pro rata basis relative total amount deduction respect aggregate basis adjustment applicable limited partner article iv termination section early termination breach agreement corporate taxpayer may terminate agreement respect partnership unit held previously held exchanged limited partner time paying applicable limited partner early termination paym ent provided however agreement shall terminate upon receipt early termination payment limited partner provided corporate taxpayer may withdraw notice execute termination right section prior time early termination payment paid upon payment early termination payment corporate taxpayer neither applicable limited partner corporate taxpayer shall f urther payment obligation agreement respect limited partner tax benefit payment agreed corporate taxpayer applicable limited partner due payable unpaid early terminatio n notice b tax benefit payment due taxable year ending including date early termination notice except extent amount described clause b included early termination payment exchange occu r corporate taxpayer exercise termination right section corporate taxpayer shall obligation agreement respect exchange b event corporate taxpayer breach material obligation agreement whether result failure make payment due failure honor material obligation required hereunder operati law result rejection agreement case commenced bankruptcy code otherwise obligation hereunder shall accelerated obligation shall calculated early termination notice del ivered date breach shall include limited early termination payment calculated early termination notice delivered date breach tax benefit payment agreed corporate taxpayer limited partner due payable unpaid date breach tax benefit payment due axable year ending including date breach notwithstanding foregoing event corporate taxpayer breach agreement limited partner shall entitled elect receive amount set forth seek specific performance term hereof party agree failure make payment due pursuant agreement within three month date payment due shall deemed breach material obligation und er agreement purpose agreement considered breach material obligation agreement make payment due pursuant agreement within three month date payment due c undersigned party agree aggregate value tax benefit payment ascertained reasonable certainty u federal income tax purpose section early termination notice corporate taxpayer chooses exercise right early termination section corporate taxpayer shall deliver applicable limited partner notice intention exercise right early termination notice schedule early termination schedule specifying corporate taxpayer intention exercise right showing reasonable detail calculation early termination payment applicable early termination schedule shall become final binding party unless pplicable limited partner group member within calendar day receiving early termination schedule thereto provides corporate taxpayer notice material objection schedule made good faith material objection notice provided sake clarity limited partner group member shall right object schedule amended schedule pursuant section party reason unable successfully resolve issue raised notice within calendar day receipt corporate taxpayer material objection notice corporate taxpayer applicable limited partner group member shall employ reconciliation procedure described section agreement section payment upon early termination within three calendar day agreement applicable limited partner corporate taxpayer early termination schedule corporate taxpayer shall pay applicable limited partner amount equal early termination payment payment shall made wire transfer immediately available fund bank account designated applicable limited partner otherwise agreed corporate taxpayer applicable limited partner b early termination payment date delivery early termination schedule shall equal respect applicable limited partner present value discounted early termination rate date tax benefit payment would required paid corporate taxpayer applicable limited partner beginning early termination date assuming valuation assumption applied article v subordination late payment section subordination notwithstanding provision agreement contrary tax benefit payment early termination payment required made corporation applicable partner agreement exchange payment shall rank subordinate junior right payment principal interest amount due payable respect obligation respect indebtedness borrowed money corporation subsidiary senior obligation shall rank pari passu current future unsecured obligation corporation senior obligation section late payment corporate taxpayer amount portion tax benefit payment made applicable limited partner due term agreement shall payable together interest thereon computed default rate commencing da te exchange payment due payable article vi dispute consistency cooperation section limited partner group member participation corporate taxpayer partnership tax matter except otherwise provided herein corporate taxpayer shall full responsibility sole discretion tax matter concerning corporate taxpayer partnership including without limitation preparati filing amending tax return defending contesting settling issue pertaining tax notwithstanding foregoing corporate taxpayer shall notify applicable limited partner group member keep applicable limited partner group member reasonably informed respect portion audit corporate taxpayer partnership taxing authority outcome reasonably expected affect applicable limited partner group member right obligation agreement shall provide applicable limited partner group member reasonable opportunity provide information input corporate taxpayer partnership respective advisor concerning conduct portion audit provided however corporate taxpayer partnership shall required take action inconsistent provision partnership agreement section consistency corporate taxpayer applicable limited partner agree report cause reported purpose including federal state local foreign tax purpose financial reporting purpose tax related item including without limitation basis adjustment tax benefit payment manner consistent specified corporate taxpayer schedule required provided behalf corporate taxpayer agreement section cooperation applicable limited partner shall furnish corporate taxpayer timely manner information document material corporate taxpayer may reasonably request purpose making determination computa tion necessary appropriate agreement preparing tax return contesting defending audit examination controversy taxing authority b make available corporate taxpayer representative provide explanation document material information corporate taxpayer representative may reasonably request connection matter described clause c reasonably cooperate n connection matter corporate taxpayer shall reimburse applicable limited partner reasonable third party cost expense incurred pursuant section article vii miscellaneous section notice notice request claim demand communication hereunder shall writing shall deemed duly given received date delivery delivered personally facsimile upon confirmation transmission sender fax machine sent business day otherwise next business day b first business day following date dispatch delivered recognized next day courier service notice hereunder shall delivered set forth low pursuant instruction may designated writing party receive notice blackstone holding gp blackstone holding ii gp co blackstone group lp park avenue new york ny attention chief legal officer copy simpson thacher bartlett llp lexington avenue new york new york f attention joshua ford bonnie esq applicable limited partner address facsimile number set forth record partnership party may change address fax number giving party written notice new address fax number manner set forth section counterpart agreement may executed one counterpart shall considered one agreement shall become effective one counterpart signed party delivered party understood party need sign counterpart delivery executed signature page agreement facsimile transmission shall effective delivery manually signed counterpart agreement section entire agreement third party beneficiary agreement constitutes entire agreement supersedes prior agreement understanding written oral among party respect subject matter hereof agreement shall binding upon inure solely benef party hereto respective successor permitted assigns nothing agreement express implied intended shall confer upon person right benefit remedy nature whatsoever reason agreement section governing law agreement shall governed construed accordance law state new york section severability term provision agreement invalid illegal incapable enforced law public policy term provision agreement shall nevertheless remain full force effect long economic r legal substance transaction contemplated hereby affected manner materially adverse party upon determination term provision invalid illegal incapable enforced party hereto shall n egotiate good faith modify agreement effect original intent party closely possible acceptable manner order transaction contemplated hereby consummated originally contemplated greatest extent possible section successor assignment amendment waiver limited partner may assign agreement person without prior written consent corporate taxpayer provided however extent partnership unit effectively transferred accordance erms partnership agreement agreement limited partner may entered parent corporate taxpayer andor blackstone holding general partner blackstone holding partnership tr ansferring limited partner shall assign transferee partnership unit transferring limited partner right agreement respect transferred partnership unit long transferee executed delivered connection transfer executes delivers joinder agreement form substance reasonably satisfactory corporate taxpayer agreeing become limited partner purpose agreement except therwise provided joinder ii exchange occurred payment may become payable limited partner pursuant agreement respect exchange may assigned person person long person executed delivered connection assignment executes delivers joinder agreement form substance reasonably satisfactory corporate taxpayer agreeing bound section acknowledging specifically last sentence next paragraph avoidance doubt extent limited partner group member person transfer partnership unit limited partner group member pursuant relevant partnership agreement limited partner group member receiving partnership unit shall right agreement respect transferred partnership unit limited partner group member agreement respect partnership unit held b requirement execute deliver joinder pursuant section shall construed requiring execution delivery prior assignment becoming effective b notwithstanding provision section transferee described clause section shall right enforce provision section agreement assignee described cla use ii section shall right agreement except right enforce right receive payment agreement c provision agreement may amended unless amendment approved writing corporate taxpayer behalf respective partnership control limited partner group member woul entitled receive least two third early termination payment payable limited partner group member hereunder corporate taxpayer exercised right early termination date recent exchange pr ior amendment excluding purpose sentence payment made limited partner group member pursuant agreement since date recent exchange provided amendment shall effective amen dment disproportionate effect payment certain limited partner may receive agreement unless limited partner disproportionately effected consent writing amendment provision agreement waived unless waiver writing signed party waiver effective term provision agreement shall binding upon shall inure benefit shall enforceable party hereto respective successor assigns heir executor administrator legal represe ntatives corporate taxpayer shall require cause direct indirect successor whether purchase merger consolidation otherwise substantially business asset corporate taxpayer written agreem ent expressly assume agree perform agreement manner extent corporate taxpayer would required perform succession taken place notwithstanding anything contrary herein event limited partner group member transfer partnership unit permitted transferee define</t>
+    <t>tax matter agreement among clear channel communication inc cce spinco inc cce holdco inc dated december section definition construction section definition capitalized term section construction section indemnification allocation responsibility tax section indemnification section allocation federal income tax section allocation state income tax section foreign income tax section allocation tax section distribution tax international restructuring tax additional tax section proration tax allocation tax item section proration tax item section combined tax return section allocation tax asset earnings profit section preparation filing tax return section distributings responsibility section controlled filed return section tax accounting practice section right review combined tax return section adjustment request carrybacks utilization tax asset section payment agreement section joint tax section payment tax authority section timing payment section tax treatment payment section interest section assistance cooperation retention tax record section assistance cooperation section retention tax record section tax contest section notice section control tax contest section reimbursement expense section continuing covenant section dispute resolution section general provision section effectiveness termination prior tax allocation agreement section survival obligation section address notice section binding effect section waiver section invalidity provision section action section integration section construction section double recovery section setoff section counterpart section third party right section governing law ii tax matter agreement tax matter agreement agreement entered december among clear channel communication inc texas corporation distributing cce spinco inc delaware corporation whollyowned subsidiary distributing controlled cce holdco delaware corporation holdco recital whereas date hereof distributing common parent corporation affiliated group defined section code corporation distributing consolidated group elected file consolidated u federal income tax return whereas distributing consolidated group included controlled sfx entertainment inc delaware corporation sfxe respective direct indirect eligible domestic subsidiary whereas prior distribution distributing unrelated investor formed holdco distributing receiving holdco common stock holdco series b redeemable nonvoting preferred stock series b preferred stock exchange distributings contribution holdco outstanding stock sfxe sfxe exchange ii unrelated investor receiving holdco series redeemable voting preferred stock series preferred stock whereas prior distribution distributing contribute common stock holdco controlled exchange common stock controlled whereas following sfxe exchange sfxe eligible domestic direct indirect subsidiary cease member distributing consolidated group whereas pursuant preexisting binding commitment entered prior sfxe exchange distributing sell sale series b preferred stock unrelated third party investor distributing recognize capital loss u federal income tax applicable tax purpose sfxe loss whereas following sale prior distribution controlled contribute holdco common stock one whollyowned subsidiary holdco contribution whereas distributing controlled entered distribution agreement setting forth corporate transaction pursuant distributing distribute outstanding share common stock controlled distributings stockholder transaction intended qualify taxfree distribution section section ad code whereas result distribution controlled direct indirect eligible domestic subsidiary cease member distributing consolidated group whereas following sfxe exchange holdco common parent corporation affiliated group corporation including sfxe direct indirect eligible domestic subsidiary elect file consolidated u federal income tax return holdco consolidated group following distribution controlled common parent corporation affiliated group corporation including direct indirect eligible domestic subsidiary excluding member holdco consolidated group elect file consolidated u federal income tax return whereas contemplation sfxe exchange distribution company desire enter agreement provide allocation among liability tax arising prior result subsequent sfxe exchange distribution provide agree upon matter relating tax agreement therefore consideration mutual agreement contained herein company hereby agree follows section definition construction section definition capitalized term purpose agreement including recital hereof following capitalized term shall meaning set forth accounting cutoff date mean respect controlled date end closing financial accounting record additional tax mean respect postdeconsolidation event result directly indirectly distributing able utilize sfxe loss amount equal sum amount tax refund distributing consolidated group would otherwise received applicable tax law sfxe loss otherwise utilizable distributing consolidated group distributing consolidated group could carried back sfxe loss one tax period prior tax period sfxe loss would otherwise incurred loss year product amount consolidated capital net income defined treasury regulation section distributing consolidated group loss year tax period thereafter determined without taking account tax asset distributing consolidated group may carried forward carried back tax period would otherwise reduced sfxe loss taking account amount sfxe loss would utilized prior tax period multiplied ii highest marginal corporate tax rate applicable tax period b subject clause without duplication respect postdeconsolidation event affect amount tax imposed attributable group member distributing otherwise responsible agreement amount equal excess cumulative amount tax distributing otherwise responsible agreement determined taking account postdeconsolidation event cumulative amount tax distributing would otherwise responsible agreement determined without taking account postdeconsolidation event c subject clause without duplication respect postdeconsolidation event affect tax asset group member amount equal tax benefit tax asset distributing would otherwise recognized postdeconsolidation event occurred adjustment request mean formal informal claim request filed tax authority administrative agency court adjustment refund credit tax including amended tax return claiming adjustment tax reported tax return applicable previously adjusted ii claim refund credit tax previously paid affiliate mean person directly indirectly controlled person question control mean possession directly indirectly power direct cause direction management policy person whether ownership voting security contract otherwise except otherwise provided herein term affiliate shall refer affiliate person determined distribution agreement shall meaning provided preamble amg broadcasting business mean amg broadcasting business term defined ruling request carryback item mean net operating loss net capital loss excess tax credit similar tax item may must carried one tax period another tax period code applicable tax law ccb group mean clear channel broadcasting inc nevada corporation subsidiary time distribution purpose clarification term ccb group shall include member either controlled group cco group ccb international asset mean asset located outside united state equity interest foreign entity held distributing subsidiary including member controlled group ccb group cco group international restructuring held ccb group international restructuring cco group shall mean clear channel outdoor holding inc delaware corporation subsidiary time distribution purpose clarification term cco group shall include member either controlled group ccb group cco international asset mean asset located outside united state equity interest foreign entity held distributing subsidiary including member controlled group ccb group cco group international restructuring held cco group international restructuring code mean internal revenue code amended successor law combined tax return mean respect tax tax return filed consolidated combined unitary basis includes least one distributing group member least one controlled group member company mean distributing controlled holdco collectively company mean context requires one distributing controlled holdco controlled filed return shall meaning provided section controlled group mean collectively controlled direct indirect subsidiary including member holdco consolidated group controlled group member mean individually member controlled group term controlled group member mean collectively context requires less member controlled group controlled indemnitees shall meaning provided section b controlled international asset mean asset located outside united state equity interest foreign entity held distributing subsidiary including member controlled group ccb group cco group international restructuring held controlled group international restructuring controlled separate return mean tax return includes one controlled group member include distributing group member including tax return filed federal income tax purpose affiliated group defined section code corporation common parent controlled group member corporation distributing group member controlleds allocated tax liability shall meaning provided section controlleds cumulative tax payment shall meaning provided section controlleds redetermined allocated tax liability shall meaning provided section c controlling company shall meaning provided section deconsolidation date mean respect controlled group member date applicable deconsolidation event deconsolidation event mean respect controlled group member included distributing consolidated group federal income tax purpose date hereof event transaction occurring date hereof including distribution sfxe exchange cause controlled group member longer eligible included distributing consolidated group federal income tax purpose ii respect controlled group member eligible included distributing consolidated group federal income tax purpose date hereof includible corporation defined section b code event transaction occurring date hereof including distribution sfxe exchange would cause controlled group member longer eligible included distributing consolidated group federal income tax purpose controlled group member includible corporation defined section b code iii respect holdco date incorporation law state delaware default rate mean rate interest equal underpayment rate provided section c code determined date applicable payment required made agreement due distributing filed return shall meaning provided section distributing consolidated group shall meaning provided recital agreement distributing group mean collectively distributing direct indirect subsidiary including clear channel worldwide holding inc delaware corporation excluding controlled group member distributing group member mean individually member distributing group term distributing group member mean collectively context requires less member distributing group distributing indemnitees shall meaning provided section distributing separate return mean respect tax tax return includes distributing group member distributings allocated tax liability shall meaning provided section b distributings cumulative tax payment shall meaning provided section b distributings redetermined allocated tax liability shall meaning provided section c distribution mean distribution distributing stockholder distribution date outstanding stock controlled owned distributing distribution agreement mean certain master separation distribution agreement dated december amended time time distributing controlled setting forth corporate transaction required effect distribution distributing stockholder outstanding stock controlled agreement attached exhibit distribution date mean distribution date term defined distribution agreement distribution tax mean tax calculated without regard tax asset distributing group imposed distributing group member resulting arising connection failure distribution taxfree distributing group member code including tax resulting failure distribution qualify section section ad code application section section e code distribution corresponding provision tax law ii loss relating arising claim lawsuit stockholder distributing resulting failure distribution taxfree stockholder code corresponding provision applicable tax law entertainment asset mean entertainment asset term defined distribution agreement entity mean partnership whether general limited corporation limited liability company association joint stock company trust joint venture unincorporated organization entity without regard whether treated disregarded entity u federal tax purpose federal income tax mean tax imposed subtitle f code final determination mean final resolution liability tax resolution may specific issue adjustment taxable period irs form ad successor form thereto date acceptance behalf controlling company comparable form tax law state local foreign taxing jurisdiction except form ad comparable form shall constitute final determination extent reserve whether term operation law right controlling company file claim refund right tax authority assert deficiency respect issue adjustment taxable period case may b decision judgment decree order court competent jurisdiction become final unappealable c closing agreement accepted offer compromise section code comparable agreement tax law state local foreign taxing jurisdiction allowance refund credit respect overpayment tax expiration period refund may recovered including way offset jurisdiction imposing tax e final settlement resulting treatybased competent authority determination f final disposition including reason expiration applicable statute limitation foreign income tax mean tax imposed foreign country possession united state political subdivision foreign country united state possession income tax defined treasury regulation section group mean distributing group controlled group context requires term group mean distributing group controlled group group member mean distributing group member controlled group member holdco consolidated group shall meaning provided recital holdco contribution shall meaning provided recital income tax mean federal income tax state income tax foreign income tax context requires indemnification expense shall meaning provided section indemnified company mean distributing case entitled indemnified loss controlled holdco agreement ii controlled case entitled indemnified loss distributing agreement indemnifying company mean distributing case obligated indemnify controlled loss agreement ii controlled holdco case obligated indemnify distributing loss agreement independent firm mean recognized law accounting firm provided however term shall include accounting firm performs preformed audit service respect distributing controlled irs mean internal revenue service international asset mean collectively ccb international asset controlled international asset cco international asset international officer certificate mean letter executed officer distributing controlled provided either skadden arp slate meagher flom llp ernst young connection international tax opinion international restructuring mean restructuring distributing international asset cause ccb international asset held ccb group cce international asset held controlled group cco international asset held cco group international restructuring tax mean tax imposed attributable group member arise attributable group member distribution transfer assignment disposition receipt purchase acquisition international asset pursuant international restructuring however effected international tax opinion mean opinion skadden arp slate meagher flom llp ernst young addressing certain u federal income tax consequence international restructuring joint tax shall meaning provided section letter ruling mean ruling irs delivered distributing connection distribution loss mean loss cost fine penalty fee damage obligation liability payment settlement tax expense kind including reasonable attorney fee cost excluding consequential special punitive exemplary damage officer certificate mean letter executed officer distributing controlled provided skadden arp slate meagher flom llp connection tax opinion tax mean tax income tax including value added tax real personal property tax flat minimum dollar tax withholding tax capital duty tax payment date mean respect federal income tax due date required installment estimated tax determined section code due date determined without regard extension filing tax return determined section code date tax return filed ii respect tax corresponding date determined applicable tax law payment period shall meaning provided section person mean individual entity governmental entity department agency political subdivision thereof postdeconsolidation event shall meaning provided section c postdeconsolidation period mean respect income tax tax period beginning applicable deconsolidation date case straddle period portion straddle period beginning day applicable deconsolidation date predeconsolidation period mean respect income tax tax period ending applicable deconsolidation date case straddle period portion straddle period ending including applicable deconsolidation date prior tax allocation agreement mean written oral agreement arrangement relating allocation tax existing among distributing group member controlled group member distribution date agreement reimbursement statement shall meaning provided section rulingopinion document mean ruling request letter ruling officer certificate tax opinion including amendment supplement foregoing ruling request mean letter filed distributing irs requesting ruling irs regarding certain u federal income tax consequence transaction including attachment exhibit material submitted ruling request letter amendment supplement ruling request letter sale shall meaning provided recital agreement separate company tax mean tax computed reference asset activity member member single group series preferred stock shall meaning provided recital series b preferred stock shall meaning provided recital sfxe loss shall meaning provided recital straddle period mean tax period begin end applicable deconsolidation date state income tax mean tax imposed state united state district columbia political subdivision foregoing imposed measured whole part income capital net worth taxable base nature income capital net worth including franchise tax based factor subsidiary mean respect person entity person directly indirectly owns beneficially record amount voting security interest entity sufficient enable person elect least majority member entity board director governing body ii least outstanding equity financial interest entity tax tax mean income gross income gross receipt profit capital stock capital duty franchise withholding payroll social security worker compensation unemployment disability property ad valorem stamp excise severance occupation service sale use license lease transfer import export value added alternative minimum estimated similar tax including fee assessment charge nature lieu tax imposed governmental entity political subdivision thereof interest penalty addition tax additional amount respect foregoing tax asset mean tax item accrued tax purpose used taxable period could reduce tax another taxable period including net operating loss net capital loss investment tax credit foreign tax credit research experimentation credit charitable deduction credit related alternative minimum tax tax credit tax authority mean respect tax governmental entity political subdivision thereof imposes tax agency charged collection tax governmental entity political subdivision including irs tax benefit mean refund credit reduction otherwise required tax payment including reduction estimated tax payment tax contest mean audit review examination administrative judicial proceeding purpose effect redetermining tax member group including administrative judicial review claim refund tax period tax detriment mean increase tax liability group member taxable period decrease tax asset group member except otherwise provided agreement tax detriment shall deemed realized tax item taxable period extent tax liability group member tax period taking account effect tax item tax liability group member current tax period prior tax period would tax liability determined without regard tax item tax item mean respect tax item income gain loss deduction credit attribute may effect increasing decreasing tax tax law mean law governmental entity political subdivision thereof relating tax including code tax opinion mean opinion skadden arp slate meagher flom llp addressing certain u federal income tax consequence distribution section code tax period mean respect tax period tax reported provided code applicable tax law tax record mean tax return tax return workpapers documentation relating tax contest book account record required maintained code applicable tax law record retention agreement tax authority tax return mean report tax due claim refund tax paid information return respect tax similar report statement declaration document required filed code tax law including attachment exhibit material submitted foregoing including amendment supplement foregoing theater business mean theater business term defined ruling request transaction mean transaction contemplated distribution agreement treasury regulation mean regulation promulgated time time code effect relevant tax period capitalized term defined elsewhere agreement shall meaning given section construction unless context otherwise requires reference section connection code treasury regulation refer section agreement ii word including shall mean including limited iii word used singular shall also denote plural word used plural shall also denote singular heading contained agreement reference purpose shall affect way meaning interpretation agreement section indemnification allocation responsibility tax section indemnification distributings indemnity controlled distributing shall indemnify controlled controlled group member respective director officer employee collectively distributing indemnitees hold harmless loss arise attributable tax specifically allocated responsibility distributing agreement failure distributing make payment required agreement controlled due breach nonperformance distributing representation warranty covenant contained agreement b controlleds holdco indemnity distributing controlled holdco shall jointly severally indemnify distributing distributing group member respective director officer employee collectively controlled indemnitees hold harmless loss arise attributable tax specifically allocated responsibility controlled agreement failure controlled make payment required agreement distributing due breach nonperformance controlled representation warranty covenant contained agreement section allocation federal income tax except provided section responsibility federal income tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility federal income tax distributing shall responsible federal income tax including adjustment federal income tax result final determination extent federal income tax imposed attributable distributing group member respect tax period ii controlled group member respect predeconsolidation period applicable controlled group member b controlleds responsibility federal income tax controlled shall responsible federal income tax including adjustment federal income tax result final determination imposed attributable controlled group member respect postdeconsolidation period applicable controlled group member section allocation state income tax except provided section responsibility state income tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility state income tax distributing shall responsible state income tax including adjustment state income tax result final determination extent state income tax imposed attributable distributing group member respect tax period ii controlled group member respect predeconsolidation period applicable controlled group member b controlleds responsibility state income tax controlled shall responsible state income tax including adjustment state income tax result final determination imposed attributable controlled group member respect postdeconsolidation period applicable controlled group member section foreign income tax except provided section responsibility foreign income tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility foreign income tax distributing shall responsible foreign income tax including adjustment foreign income tax result final determination extent foreign income tax imposed attributable distributing group member respect tax period b controlleds responsibility foreign income tax controlled shall responsible foreign income tax including adjustment foreign income tax result final determination extent foreign income tax imposed attributable controlled group member respect tax period section allocation tax except provided section responsibility tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility tax distributing shall responsible tax including adjustment tax result final determination extent tax imposed attributable distributing group member respect tax period b controlleds responsibility tax controlled shall responsible tax including adjustment tax result final determination extent tax imposed attributable controlled group member respect tax period c tax imposed multiple group member notwithstanding anything contrary section b respect tax taxable period imposed applicable tax law one distributing group member one controlled group member distributing shall responsible tax including adjustment tax result final determination extent distributing group member primarily responsible tax applicable tax law controlled shall responsible tax including adjustment tax result final determination extent controlled group member primarily responsible tax applicable tax law section distribution tax international restructuring tax additional tax distribution tax notwithstanding provision agreement contrary following provision shall apply distributings responsibility distribution tax distributing shall responsible one hundred percent distribution tax result one following act failure act omission distributing group member inconsistent material information covenant representation officer certificate ruling request ii act failure act omission distributing group member distribution date including cessation transfer affiliate disposition amg broadcasting business issuance stock stock buyback payment extraordinary dividend distributing group member following distribution date iii acquisition stock asset distributing group member one person prior following distribution iv issuance distributing group member change ownership stock distributing group member cause section section e code apply distribution controlleds responsibility distribution tax controlled shall responsible one hundred percent distribution tax result one following act failure act omission controlled group member inconsistent material information covenant representation officer certificate ruling request ii act failure act omission controlled group member distribution date including cessation transfer affiliate disposition theater business issuance stock stock buyback payment extraordinary dividend controlled group member following distribution date iii acquisition stock asset controlled group member one person prior following distribution date iv issuance controlled group member change ownership stock controlled group member cause section section e code apply distribution joint responsibility distribution tax responsibility distribution tax allocated section b shall borne fifty percent distributing fifty percent controlled b international restructuring tax except provided section notwithstanding provision agreement contrary responsibility international restructuring tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility international restructuring tax except provided section b distributing shall responsible international restructuring tax including adjustment international restructuring tax result final determination imposed attributable group member respect tax period controlleds responsibility international restructuring tax notwithstanding section b controlled shall responsible international restructuring tax including adjustment international restructuring tax result final determination imposed attributable group member extent international restructuring tax result one following act failure act omission controlled group member inconsistent material information covenant representation international officer certificate ii act failure act omission controlled group member applicable deconsolidation event iii acquisition stock asset controlled group member one person following applicable deconsolidation event iv issuance controlled group member change ownership stock controlled group member applicable deconsolidation event cause section section e code apply international restructuring c additional tax except provided section b notwithstanding provision agreement contrary controlled shall responsible one hundred percent additional tax determined applicable tax period imposed group member result arise whole part act failure act event transaction relates stock asset business controlled group member occurs applicable deconsolidation event controlled group member controlled group member breach representation covenant agreement contained agreement occurs applicable deconsolidation event controlled group member postdeconsolidation event including additional tax resulting arising distributing able utilize sfxe loss tax purpose result postdeconsolidation event additional tax resulting arising controlled group member failing provide assistance cooperation distributing accordance section failing retain tax record accordance section section proration tax allocation tax item purpose apportioning tax tax item predeconsolidation period postdeconsolidation period purpose preparing filing tax return agreement following provision shall apply section proration tax item general method except provided section b case straddle period tax item shall apportioned predeconsolidation period postdeconsolidation period accordance principle treasury regulation section b applicable corresponding provision tax law state local foreign jurisdiction corresponding provision reasonably interpreted applied distributing election shall made treasury regulation section bii relating ratable allocation year item applicable deconsolidation date accounting cutoff date principle treasury regulation section biii applied ratably allocate tax item extraordinary item month includes applicable deconsolidation date b transaction tax item determining apportionment tax item predeconsolidation period postdeconsolidation period tax item relating transaction shall treated extraordinary item described treasury regulation section biic shall allocated predeconsolidation period tax related tax item shall treated treasury regulation section biv relating extraordinary item shall allocated predeconsolidation period section combined tax return respect combined tax return includes tax item one controlled group member allocable postdeconsolidation period accordance provision agreement income tax treated imposed attributable controlled group member aggregate purpose agreement shall deemed equal amount income tax would result controlled group member deconsolidation event occurred included combined tax return filed consolidated combined unitary tax return based solely income apportionment factor tax item included combined tax return allocable postdeconsolidation period accordance provision agreement section allocation tax asset earnings profit allocation tax asset connection deconsolidation event distributing shall determine accordance applicable tax law allocation applicable tax asset among distributing distributing group member controlled controlled group member company hereby agree absence controlling legal authority unless otherwise provided agreement tax asset shall allocated group member generated tax asset respect tax asset created reason contribution capital controlled distributing</t>
   </si>
   <si>
     <t>tax matter agreement among clear channel communication inc cce spinco inc cce holdco inc dated december section definition construction section definition capitalized term section construction section indemnification allocation responsibility tax section indemnification section allocation federal income tax section allocation state income tax section foreign income tax section allocation tax section distribution tax international restructuring tax additional tax section proration tax allocation tax item section proration tax item section combined tax return section allocation tax asset earnings profit section preparation filing tax return section distributings responsibility section controlled filed return section tax accounting practice section right review combined tax return section adjustment request carrybacks utilization tax asset section payment agreement section joint tax section payment tax authority section timing payment section tax treatment payment section interest section assistance cooperation retention tax record section assistance cooperation section retention tax record section tax contest section notice section control tax contest section reimbursement expense section continuing covenant section dispute resolution section general provision section effectiveness termination prior tax allocation agreement section survival obligation section address notice section binding effect section waiver section invalidity provision section action section integration section construction section double recovery section setoff section counterpart section third party right section governing law ii tax matter agreement tax matter agreement agreement entered december among clear channel communication inc texas corporation distributing cce spinco inc delaware corporation wholly owned subsidiary distributing controlled cce holdco delaware corporation holdco recital whereas date hereof distributing common parent corporation affiliated group defined section code corporation distributing consolidated group elected file consolidated u federal income tax return whereas distributing consolidated group included controlled sfx ent ertainment inc delaware corporation sfxe respective direct indirect eligible domestic subsidiary whereas prior distribution distributing unrelated investor formed holdco distributing r eceiving holdco common stock holdco series b redeemable non voting preferred stock series b preferred stock exchange distributings contribution holdco outstanding stock sfxe sfxe exchange ii unrelated investor receiving holdco series redeemable voting preferred stock series preferred stock whereas prior distribution distributing contribute common stock holdco controlled exchange common stock controlled whereas following sfxe exchange sfxe eligible domestic direct indirect subsidiary cease member distributing consolidated group whereas pursuant pre existing binding commitment entered prior sfxe exchange distributing sell sale series b preferred stock unrelated third party investor distributing recognize capital loss u federal income tax applicable tax purpose sfxe loss whereas following sale prior distribution controlled contribute holdco common stock one wholly owned subsidiary holdco contribution whereas distributing controlled entered distribution agreement setting forth corporate transaction pursuant distributing distribute outstandin g share common stock controlled distributings stockholder transaction intended qualify taxfree distribution section section ad code whereas result distribution controlled di rect indirect eligible domestic subsidiary cease member distributing consolidated group whereas following sfxe exchange holdco common parent corporation affiliated group corporation including sfxe direct indirect eligible domestic subsidiary elect file consolidated u federal income tax return holdco consolidated group following distribution controlled common parent corporation aff iliated group corporation including direct indirect eligible domestic subsidiary excluding member holdco consolidated group elect file consolidated u federal income tax return whereas cont emplation sfxe exchange distribution company desire enter agreement provide allocation among liability tax arising prior result subsequent sfxe exchange distri bution provide agree upon matter relating tax agreement therefore consideration mutual agreement contained herein company hereby agree follows section definition construction section definition capitalized term purpose agreement including recital hereof following capitalized term shall meaning set forth accounting cutoff date mean respect controlled date end closing financial accounting record additional tax mean respect postdeconsolidation event result directly indirectly distributing able utilize sfxe loss amount equal sum amount tax refund distributing consolidated group would otherwise ceived applicable tax law sfxe loss otherwise utilizable distributing consolidated group distributing consolidated group could carried back sfxe loss one tax period prior tax period wh ich sfxe loss would otherwise incurred loss year product amount consolidated capital net income defined treasury regulation section distributing consolidated group loss year tax period thereafter determined without taking account tax asset distributing consolidated group may carried forward carried back tax period would otherwise reduced sfxe loss taking account amount sfxe loss would utilized prior tax period multiplied ii highest marginal corporate tax rate applicable tax period b subject clause without duplication respect post deconsolidation event affect amount tax imposed attributable group member distributing otherwise responsible agreement amount equal excess cumulative amount tax distributing otherwise responsible agreement determined taking account post deconsolidation event cumulative amount tax distributing would otherwise responsible agreement determined without taking account post deconsolidation event c subject clause without duplication respect post deconsolidation event affect tax asset group member amount equal tax benefit tax asset distributing would otherwise recognized post deconsolidation eve nt occurred adjustment request mean formal informal claim request filed tax authority administrative agency court adjustment refund credit tax including amended tax return clai ming adjustment tax reported tax return applicable previously adjusted ii claim refund credit tax previously paid affiliate mean person directly indirectly controlled oth er person question control mean possession directly indirectly power direct cause direction management policy person whether ownership voting security contract otherwise except oth erwise provided herein term affiliate shall refer affiliate person determined distribution agreement shall meaning provided preamble amg broadcasting business mean amg broadcasting business term defined ruling request carryback item mean net operating loss net capital loss excess tax credit similar tax item may must carried one tax period another tax period code applicable tax law ccb group mean clear channel broadcasting inc nevada corporation subsidiary time distribution purpose clarification term ccb group shall include member either cont rolled group cco group ccb international asset mean asset located outside united state equity interest foreign entity held distributing subsidiary including member controlled group ccb group cco group international restructuring held ccb group international restructuring cco group shall mean clear channel outdoor holding inc delaware corporation subsidiary time distribution purpose clarification term cco group shall include member either controlled group ccb group cco international asset mean asset located outside united state equity interest foreign entiti e held distributing subsidiary including member controlled group ccb group cco group international restructuring held cco group international restructuring code mean internal revenue code amended successor law combined tax return mean respect tax tax return filed consolidated combined unitary basis includes least one distributing group mem ber least one controlled group member company mean distributing controlled holdco collectively company mean context requires one distributing controlled holdco controlled filed return shall meaning provided section controlled group mean collectively controlled direct indirect subsidiary including member holdco consolidated group controlled group member mean individually member controlled group term controlled group member mean collectively context requires less member controlled group controlled indemnitees shall meani ng provided section b controlled international asset mean asset located outside united state equity interest foreign entity held distributing subsidiary including member controlle group ccb group cco group international restructuring held controlled group international restructuring controlled separate return mean tax return includes one controlled group member include distributing group member including tax return filed federal income tax purpose affiliated group defined section code corporation common parent controlled group ember corporation distributing group member controlleds allocated tax liability shall meaning provided section controlleds cumulative tax payment shall meaning provided section controlleds redetermined allocated tax liability shall meaning provided section c controlling company shall meaning provided section deconsolidation date mean respect controlled group member date applicable deconsolidation event deconsolidation event mean respect controlled group member included distributing consolidated group federal income tax purpose date hereof event transaction occurring date hereof including distribution sfxe exchange cause controlled group member longer eligible included distributing consolidated group federal income tax purpose ii respect controlled group member eligible included distributing co nsolidated group federal income tax purpose date hereof includible corporation defined section b code event transaction occurring date hereof including distribution sfx e exchange would cause controlled group member longer eligible included distributing consolidated group federal income tax purpose controlled group member includible corporation defined section b code iii respect holdco date incorporation law state delaware default rate mean rate interest equal underpayment rate provided section c code determine date applicable payment required made agreement due distributing filed return shall meaning provided section distributing consolidated group shall meaning provided citals agreement distributing group mean collectively distributing direct indirect subsidiary including clear channel worldwide holding inc delaware corporation excluding controlled group member distributing group member mean individually member distributing group term distributing group member mean collectively context requires less member distributing group distributing ndemnitees shall meaning provided section distributing separate return mean respect tax tax return includes distributing group member distributings allocated tax liability shall meaning provided section b distributings cumulative tax payment shall meaning provided section b distributings determined allocated tax liability shall meaning provided section c distribution mean distribution distributing stockholder distribution date outstanding stock controlled owned distributing distribution agreement mean certain master separation distribution agreement dated december amended time time distributing controlled setting forth corporate transaction required effect distribution distributing stockholder outstanding stock controlled agreement attached exhibit distribution dat e mean distribution date term defined distribution agreement distribution tax mean tax calculated without regard tax asset distributing group imposed distributing group member resulting arising connection failure distribution tax free distributing group member code including tax resulting failure distribution qualify section section ad code application section section e code distribution corresponding provision tax law ii loss relating arising claim lawsuit stockholder distributing resulti ng failure distribution tax free stockholder code corresponding provision applicable tax law entertainment asset mean entertainment asset term defined distribution agre ement entity mean partnership whether general limited corporation limited liability company association joint stock company trust joint venture unincorporated organization entity without regard wheth er treated disregarded entity u federal tax purpose federal income tax mean tax imposed subtitle f code final determination mean final resolution liability tax resolution may b e specific issue adjustment taxable period irs form ad successor form thereto date acceptance behalf controlling company comparable form tax law state local foreign taxing jurisdiction except form ad comparable form shall constitute final determination extent reserve whether term operation law right controlling company file claim refund right tax authority assert deficiency respect issue adjustment taxable period case may b decision judgment decree order court competent jurisdiction become final unappealable c closing agreement accepted offer compromise section code comparable agreement tax law state local foreign taxing jurisdiction allowance ref und credit respect overpayment tax expiration period refund may recovered including way offset jurisdiction imposing tax e final settlement resulting treaty based competent authority determination f final disposition including reason expiration applicable statute limitation foreign income tax mean tax imposed foreign country possession united state political subdivision foreign country united state possession income tax defined treasury regulation section group mean distributing group controlled group contex requires term group mean distributing group controlled group group member mean distributing group member controlled group member holdco consolidated group shall meaning provided citals holdco contribution shall meaning provided recital income tax mean federal income tax state income tax foreign income tax context requires indemnification expense shall th e meaning provided section indemnified company mean distributing case entitled indemnified loss controlled holdco agreement ii controlled case entitled ind emnified loss distributing agreement indemnifying company mean distributing case obligated indemnify controlled loss agreement ii controlled holdco case obligated indemnify distributing loss agreement independent firm mean recognized law accounting firm provided however term shall include accounting firm performs preformed audit service respect distributing controlled irs mean internal revenue service international asset mean collectively ccb international asset controlled international asset cco international asset international officer certificate mean letter executed officer distributing controlled provided either skadden arp slate meagher flom llp ernst young connection int ernational tax opinion international restructuring mean restructuring distributing international asset cause ccb international asset held ccb group cce international asset held controlled group cco international asset held cco group international restructuring tax mean ny tax imposed attributable group member arise attributable group member distribution transfer assignment disposition receipt purchase acquisition international asset pursuant international restructuring however effected international tax opinion mean opinion skadden arp slate meagher flom llp ernst young addressing certain u federal income tax consequence international restru cturing joint tax shall meaning provided section letter ruling mean ruling irs delivered distributing connection distribution loss mean loss cost fine penalty fee damage ob ligation liability payment settlement tax expense kind including reasonable attorney fee cost excluding consequential special punitive exemplary damage officer certificate mean letter executed officer distributing controlled provided skadden arp slate meagher flom llp connection tax opinion tax mean tax income tax including value added tax real personal property tax flat minimum dollar tax withholding tax capital duty tax payment date mean respect federal income tax due date required installment estimated tax determined section cod e due date determined without regard extension filing tax return determined section code date tax return filed ii respect tax corresponding date determined applica ble tax law payment period shall meaning provided section person mean individual entity governmental entity department agency political subdivision thereof postdeconsolidation event shal l meaning provided section c postdeconsolidation period mean respect income tax tax period beginning applicable deconsolidation date case straddle period portion straddle period beginning day applicable deconsolidation date predeconsolidation period mean respect income tax tax period ending applicable deconsolidation date case straddle period p ortion straddle period ending including applicable deconsolidation date prior tax allocation agreement mean written oral agreement arrangement relating allocation tax existing among distributing group member controlled group member distribution date agreement reimbursement statement shall meaning provided section ruling opinion document mean ruling request th e letter ruling officer certificate tax opinion including amendment supplement foregoing ruling request mean letter filed distributing irs requesting ruling irs regarding cer tain u federal income tax consequence transaction including attachment exhibit material submitted ruling request letter amendment supplement ruling request letter sale shall mea ning provided recital agreement separate company tax mean tax computed reference asset activity member member single group series preferred stock shall meaning provided recital series b preferred stock shall meaning provided recital sfxe loss shall meaning provided recital straddle period mean tax period begin end applica ble deconsolidation date state income tax mean tax imposed state united state district columbia political subdivision foregoing imposed measured whole part income capital net worth taxable base nature income capital net worth including franchise tax based n factor subsidiary mean respect person entity person directly indirectly owns beneficially record amount voting security interest entity sufficient enable person elect least majority member entity board director governing body ii least outstanding equity financial interest entity tax tax mean income gross income gross receipt profit capital stock capital duty franchise withholding payroll social security worker compensation unemployment disability property ad valorem stamp excise severance occupation service sale use license lease transfer import export value added alternative minimum estimated similar tax including fee assessment charge nature lieu ny tax imposed governmental entity political subdivision thereof interest penalty addition tax additional amount respect foregoing tax asset mean tax item accrued tax purpose used taxable period could reduce tax another taxable period including net operating loss net capital loss investment tax credit foreign tax credit research experimentation credit charitable deduction credit rel ated alternative minimum tax tax credit tax authority mean respect tax governmental entity political subdivision thereof imposes tax agency charged collection tax f governmental entity political subdivision including irs tax benefit mean refund credit reduction otherwise required tax payment including reduction estimated tax payment tax contest mean au dit review examination administrative judicial proceeding purpose effect redetermining tax member group including administrative judicial review claim refund tax period tax detriment mean increase tax liability group member taxable period decrease tax asset group member except otherwise provided agreement tax detriment shall deemed realized ta x item taxable period extent tax liability group member tax period taking account effect tax item tax liability group member current tax period prior tax period would tax liability determined without regard tax item tax item mean respect tax item income gain loss deduction credit attribute may effec increasing decreasing tax tax law mean law governmental entity political subdivision thereof relating tax including code tax opinion mean opinion skadden arp slate meagher flom llp add ressing certain u federal income tax consequence distribution section code tax period mean respect tax period tax reported provided code applicable tax law tax record mean tax return tax return workpapers documentation relating tax contest book account record required maintained code applicable tax law record retention agreement tax authority tax return mean report tax due claim refund tax paid information return respect tax similar report statement declaration documen required filed code tax law including attachment exhibit material submitted foregoing including amendment supplement foregoing theater business mean thea ter business term defined ruling request transaction mean transaction contemplated distribution agreement treasury regulation mean regulation promulgated time time code effect f relevant tax period capitalized term defined elsewhere agreement shall meaning given section construction unless context otherwise requires reference section conne ction code treasury regulation refer section agreement ii word including shall mean including limited iii word used singular shall also denote plural word used plural sha also denote singular heading contained agreement reference purpose shall affect way meaning interpretation agreement section indemnification allocation responsibility tax section indemnification distributings indemnity controlled distributing shall indemnify controlled controlled group member respective director officer employee collectively distributing inde mnitees hold harmless loss arise attributable tax specifically allocated responsibility distributing agreement failure b distributing make payment required agreement controlled due breach nonperformance distributing representation warranty covenant contained agreement b controlleds holdco indemnity distributing controlle holdco shall jointly severally indemnify distributing distributing group member respective director officer employee collectively controlled indemnitees hold harmless loss arise attributable tax specifically allocated responsibility controlled agreement failure controlled make payment required agreement distributing due breach nonperformance controlled representation warranty covenant contained agreement section allocation federal income tax except provided section responsibility federal income tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility federal income tax distributing shall responsible federal income tax including adjustment federal income tax result final determination extent federal income tax imposed attributable distr ibuting group member respect tax period ii controlled group member respect pre deconsolidation period applicable controlled group member b controlleds responsibility federal income tax control led shall responsible federal income tax including adjustment federal income tax result final determination imposed attributable controlled group member respect post decon solidation period applicable controlled group member section allocation state income tax except provided section responsibility state income tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility state income tax distributing shall responsible state income tax including adjustment state income tax result final determination extent state income tax imposed attributable distributing group member respect tax period ii controlled group member respect pre deconsolidation period applicable controlled group member b controlleds responsibility state income tax controlled shall responsib le state income tax including adjustment state income tax result final determination imposed attributable controlled group member respect post deconsolidation period applicab le controlled group member section foreign income tax except provided section responsibility foreign income tax imposed attributable group member shall allocated distrib uting controlled follows distributings responsibility foreign income tax distributing shall responsible foreign income tax including adjustment foreign income tax result final determination extent foreign income tax imposed attributable distributing group memb er respect tax period b controlleds responsibility foreign income tax controlled shall responsible foreign income tax including adjustment foreign income tax result final determi nation extent foreign income tax imposed attributable controlled group member respect tax period section allocation tax except provided section responsibility tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility tax distributing shall responsible nd tax including adjustment tax result final determination extent tax imposed attributable distributing group member respect tax period b controlleds responsibility tax controlled shall responsible tax including adjustment tax result final determination extent tax imposed attributable c ontrolled group member respect tax period c tax imposed multiple group member notwithstanding anything contrary section b respect tax taxable period imposed applicable tax law one distributing group member one controlled group member distributing shall responsible tax including adjustment tax result final determination extent distributing group member primarily responsible tax applicabl e tax law controlled shall responsible tax including adjustment tax result final determination extent controlled group member primarily responsible tax applicable tax law section distribution tax international restructuring tax additional tax distribution tax notwithstanding provision agreement contrary following provision shall apply distributings responsibility distribution tax distributing shall responsible one hundred percent distribution tax result one following act failure act omiss ion distributing group member inconsistent material information covenant representation officer certificate ruling request ii act failure act omission distributing group mber distribution date including cessation transfer affiliate disposition amg broadcasting business issuance stock stock buyback payment extraordinary dividend distributing group member following istribution date iii acquisition stock asset distributing group member one person prior following distribution iv issuance distributing group member change ownership stock distributing group member cause section section e code apply distribution controlleds responsibility distr ibution tax controlled shall responsible one hundred percent distribution tax result one following act failure act omission controlled group member inconsistent material information covenant representation officer certificate ruling request ii act failure act omission controlled group member distribution date including cessation transfer affiliate disposition theater business issuance stock stock buyback payment extraordinary dividend controlled group member following distribution date iii acquisition stock asset controlled group member one person prior following distribution date iv issuance controlled group member change ownership stock controlled group member cause section section e code apply distribution joint responsibility distribution tax responsibility distribution tax allocated section b shall borne fifty percent distributing fifty percent controlled b international restructuring tax except provided section notwithstanding provision agreement contrary responsibility international restructuring tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility international restructuring tax except provided section b distributing shall responsible international restructuring tax including adjustment international restructuring tax result final determination imposed attributabl e group member respect tax period controlleds responsibility international restructuring tax notwithstanding section b controlled shall responsible international restructuring tax includi ng adjustment international restructuring tax result final determination imposed attributable group member extent international restructuring tax result one following act failure act omission controlled group member inconsistent material information covenant representation international officer certificate ii act failure act omission controlled group member applicable deconsolidation event iii acquisition stock asset controlled group member one person following applicable deconsolidation event iv issuance c ontrolled group member change ownership stock controlled group member applicable deconsolidation event cause section section e code apply international restructuring c additional taxe except provided section b notwithstanding provision agreement contrary controlled shall responsible one hundred percent additional tax determined applicable tax period imposed group member result arise whole part act failure act event transaction relates stock asset business controlled group member occurs applicable deconsolidation event controlled group member controlled group member breach representation covenant agreement contained agreement th occurs applicable deconsolidation event controlled group member postdeconsolidation event including additional tax resulting arising distributing able utilize sfxe loss tax purpose result post deconsolidation event additional tax resulting arising controlled group member failing provide assistance cooperation distributing accordance section failing retain tax record ac cordance section section proration tax allocation tax item purpose apportioning tax tax item pre deconsolidation period postdeconsolidation period purpose preparing filing tax ret urn agreement following provision shall apply section proration tax item general method except provided section b case straddle period tax item shall apportioned pre deconsolidation period postdeconsolidation period accordance principle treasury regulation section b applicable corresponding provision tax law state local foreign jurisdiction corresponding provision reasonab ly interpreted applied distributing election shall made treasury regulation section bii relating ratable allocation year item applicable deconsolidation date accounting cutoff date pr inciples treasury regulation section biii applied ratably allocate tax item extraordinary item month includes applicable deconsolidation date b transaction tax item dete rmining apportionment tax item pre deconsolidation period post deconsolidation period tax item relating transaction shall treated extraordinary item described treasury regulation section biic shall allocated pre deconsolidation period tax related tax item shall treated treasury regulation section biv relating extraordinary item shall allocated pre deconsolidation per iods section combined tax return respect combined tax return includes tax item one controlled group member allocable post deconsolidation period accordance provision agreement income tax treated imposed attributable controlled group member aggregate purpose agreement shall deemed equal amount income tax would result controlled group member deconsolidation event occurred included combined tax return filed consolidated combined r unitary tax return based solely income apportionment factor tax item included combined tax return allocable post deconsolidation period accordance provision agreement section allocation tax asset earnings profit allocation tax asset connection deconsolidation event distributing shall determine accordance applicable tax law allocation applicable tax asset amon g distributing distributing group member controlled controlled group member company hereby agree absence controlling legal authority unless otherwise provided agreement tax asset shal</t>
   </si>
   <si>
-    <t>tax matter agreement among clear channel communication inc cce spinco inc cce holdco inc dated december section definition construction section definition capitalized term section construction section indemnification allocation responsibility tax section indemnification section allocation federal income tax section allocation state income tax section foreign income tax section allocation tax section distribution tax international restructuring tax additional tax section proration tax allocation tax item section proration tax item section combined tax return section allocation tax asset earnings profit section preparation filing tax return section distributings responsibility section controlled filed return section tax accounting practice section right review combined tax return section adjustment request carrybacks utilization tax asset section payment agreement section joint tax section payment tax authority section timing payment section tax treatment payment section interest section assistance cooperation retention tax record section assistance cooperation section retention tax record section tax contest section notice section control tax contest section reimbursement expense section continuing covenant section dispute resolution section general provision section effectiveness termination prior tax allocation agreement section survival obligation section address notice section binding effect section waiver section invalidity provision section action section integration section construction section double recovery section setoff section counterpart section third party right section governing law ii tax matter agreement tax matter agreement agreement entered december among clear channel communication inc texas corporation distributing cce spinco inc delaware corporation wholly owned subsidiary distributing controlled cce holdco delaware corporation holdco recital whereas date hereof distributing common parent corporation affiliated group defined section code corporation distributing consolidated group elected file consolidated u federal income tax return whereas distributing consolidated group included controlled sfx entertainment inc delaware corporation sfxe respective direct indirect eligible domestic subsidiary whereas prior distribution distributing unrelated investor formed holdco distributing receiving holdco common stock holdco series b redeemable non voting preferred stock series b preferred stock exchange distributings contribution holdco outstanding stock sfxe sfxe exchange ii unrelated investor receiving holdco series redeemable voting preferred stock series preferred stock whereas prior distribution distributing contribute common stock holdco controlled exchange common stock controlled whereas following sfxe exchange sfxe eligible domestic direct indirect subsidiary cease member distributing consolidated group whereas pursuant pre existing binding commitment entered prior sfxe exchange distributing sell sale series b preferred stock unrelated third party investor distributing recognize capital loss u federal income tax applicable tax purpose sfxe loss whereas following sale prior distribution controlled contribute holdco common stock one wholly owned subsidiary holdco contribution whereas distributing controlled entered distribution agreement setting forth corporate transaction pursuant distributing distribute outstanding share common stock controlled distributings sto ckholders transaction intended qualify taxfree distribution section section ad code whereas result distribution controlled direct indirect eligible domestic subsidiary cease member distributing consolidated group whereas following sfxe exchange holdco common parent corporation affiliated group corporation including sfxe direct indirect eligible domestic subsidiary elect file consolidated u federal ncome tax return holdco consolidated group following distribution controlled common parent corporation affiliated group corporation including direct indirect eligible domestic subsidiary excluding member holdco consolidated group whi ch elect file consolidated u federal income tax return whereas contemplation sfxe exchange distribution company desire enter agreement provide allocation among liability tax arising prior result subsequent sfxe ex change distribution provide agree upon matter relating tax agreement therefore consideration mutual agreement contained herein company hereby agree follows section definition construction section definition capitalized term purpose agreement including recital hereof following capitalized term shall meaning set forth accounting cutoff date mean respect controlled date end closing financial accounting record additional tax mean respect postdeconsolidation event result directly indirectly distributing able utilize sfxe loss amount equal sum amount tax refund distributing consolidated group would otherwise received applicable tax law sfxe loss otherwise utilizable distributing consolidated group distributing consolidated group could carried back sfxe loss one tax period prior tax period sfxe loss would otherwise incurred loss year product amount consolidated capital net income defined treasury regulation section distributing consolidated group loss year tax period thereafter determined without taking acc ount tax asset distributing consolidated group may carried forward carried back tax period would otherwise reduced sfxe loss taking account amount sfxe loss would utilized prior tax period multiplied ii highest marginal corporate tax rate applicable tax period b subject clause without duplication respect post deconsolidation event affect amount tax imposed attributable group member distributing otherwise responsible agreement amount equal excess cumulative amount tax distributing otherwise responsible agreement determined taking account post deconsolidation event cumulative amount tax distributing would otherwise responsible agreement determined without taking account post deconsolidation event c subject clause without duplication respect post deconsolidation event affect tax asset group member amount equal tax benefit tax asset distributing would otherwise recognized post deconsolidation event occurred adjustment request mean formal informal claim request filed tax authority administrative agency court adjustment refund credit tax including amended tax return claiming adjustment tax reported th e tax return applicable previously adjusted ii claim refund credit tax previously paid affiliate mean person directly indirectly controlled person question control mean possession directly indirectly power direct cause direction management policy person whether throug h ownership voting security contract otherwise except otherwise provided herein term affiliate shall refer affiliate person determined distribution agreement shall meaning provided preamble amg broadcasting business mean amg broadcasting business term defined ruling request carryback item mean net operating loss net capital loss excess tax credit similar tax item may must carried one tax period another tax period code applicable tax law ccb group mean clear channel broadcasting inc nevada corporation subsidiary time distribution purpose clarification term ccb group shall include member either controlled group cco group ccb international asset mean asset located outside united state equity interest foreign entity held distributing subsidiary including member controlled group ccb group cco group international structuring held ccb group international restructuring cco group shall mean clear channel outdoor holding inc delaware corporation subsidiary time distribution purpose clarification term cco group shall include member either controlled group ccb group cco international asset mean asset located outside united state equity interest foreign entity held distributing subsidiary including member controlled group ccb group cco group international structuring held cco group international restructuring code mean internal revenue code amended successor law combined tax return mean respect tax tax return filed consolidated combined unitary basis includes least one distributing group member least one controlled group member company mean distributing controlled holdco collectively company mean context requires one distributing controlled holdco controlled filed return shall meaning provided section controlled group mean collectively controlled direct indirect subsidiary including member holdco consolidated group controlled group member mean individually member controlled group term controlled group member mean collectively context requires less member controlled group controlled indemnitees shall meaning provided section b controlled international asset mean asset located outside united state equity interest foreign entity held distributing subsidiary including member controlled group ccb group cco group international restructuring held controlled group international restructuring controlled separate return mean tax return includes one controlled group member include distributing group member including tax return filed federal income tax purpose affiliated group defined section code corporation common parent controlled group member corporation distributing group member controlleds allocated tax liability shall meaning provided section controlleds cumulative tax payment shall meaning provided section controlleds redetermined allocated tax liability shall meaning provided section c controlling company shall meaning provided section deconsolidation date mean respect controlled group member date applicable deconsolidation event deconsolidation event mean respect controlled group member included distributing consolidated group federal income tax purpose date hereof event transaction occurring date hereof including distribution sfxe exchange cause controlled group member longer eligible included distributing consolidated group federal income tax purpose ii respect controlled group member eligible includ ed distributing consolidated group federal income tax purpose date hereof includible corporation defined section b code event transaction occurring date hereof including distribution sfxe exchange would cause controlled group member longer eligible included distributing consolidated group federal income tax purpose controlled group member includible corporatio n defined section b code iii respect holdco date incorporation law state delaware default rate mean rate interest equal underpayment rate provided section c code determined date applicable payment required made agreement due distributing filed return shall meaning provided section distributing consolidated group shall meaning provided recital agreement distributing group mean collectively distributing direct indirect subsidiary including clear channel worldwide holding inc delaware corporation excluding controlled group member distributing group member mean individually member distributing group term distributing group member mean collectively context requires less member distributing group distributing indemnitees shall meaning provided section distributing separate return mean respect tax tax return includes distributing group member distributings allocated tax liability shall meaning provided section b distributings cumulative tax payment shall meaning provided section b distributings redetermined allocated tax liability shall meaning provided section c distribution mean distribution distributing stockholder distribution date outstanding stock controlled owned distributing distribution agreement mean certain master separation distribution agreement dated december amended time time distributing controlled setting forth corporate transaction required effect distribution distributing stockholder outstanding stock controlled agreement attached exhibit distribution date mean distribution date term defined distribution agreement distribution tax mean tax calculated without regard tax asset distributing group imposed distributing group member resulting arising connection failure distribution tax free distributing group ember code including tax resulting failure distribution qualify section section ad code application section section e code distribution corresponding provision tax law ii loss relating arising claim lawsuit stockholder distributing resulting failure distribution tax free stockholder code corresponding pro vision applicable tax law entertainment asset mean entertainment asset term defined distribution agreement entity mean partnership whether general limited corporation limited liability company association joint stock company trust joint venture unincorporated organization entity without regard whether treated disregarded entity u federal tax purpose federal income tax mean tax imposed subtitle f code final determination mean final resolution liability tax resolution may specific issue adjustment taxable period irs form ad successor form thereto date acceptance behalf cont rolling company comparable form tax law state local foreign taxing jurisdiction except form ad comparable form shall constitute final determination extent reserve whether term operation law right controlling company file claim refund right tax authority assert deficiency respect issue adjustment taxable period case may b decision judgment decree order court competent jurisdiction become final unappealable c closing agreement accepted offer compromise section code comparable agreement tax law state local foreign taxing jurisdiction allowance refund credit respect overpay ment tax expiration period refund may recovered including way offset jurisdiction imposing tax e final settlement resulting treaty based competent authority determinatio n f final disposition including reason expiration applicable statute limitation foreign income tax mean tax imposed foreign country possession united state political subdivision foreign country united state possession income tax defined treasury regulation section group mean distributing group controlled group context requires term group mean distributing group controlled group group member mean distributing group member controlled group member holdco consolidated group shall meaning provided recital holdco contribution shall meaning provided recital income tax mean federal income tax state income tax foreign income tax context requires indemnification expense shall meaning provided section indemnified company mean distributing case entitled indemnified loss controlled holdco agreement ii controlled case entitled indemnified loss distributing agreement indemnifying company mean distributing case obligated indemnify controlled loss agreement ii controlled holdco case obligated indemnify distributing loss agreement independent firm mean recognized law accounting firm provided however term shall include accounting firm performs preformed audit service respect distributing controlled irs mean internal revenue service international asset mean collectively ccb international asset controlled international asset cco international asset international officer certificate mean letter executed officer distributing controlled provided either skadden arp slate meagher flom llp ernst young connection international tax opinion international restructuring mean restructuring distributing international asset cause ccb international asset held ccb group cce international asset held controlled group cco international asset held cco group international restructuring tax mean tax imposed attributable group member arise attributable group member distribution transfer assignment disposition receipt purchase acquisition international asset pursua nt international restructuring however effected international tax opinion mean opinion skadden arp slate meagher flom llp ernst young addressing certain u federal income tax consequence international restructuring joint tax shall meaning provided section letter ruling mean ruling irs delivered distributing connection distribution loss mean loss cost fine penalty fee damage obligation liability payment settlement tax expense kind including reasonable attorney fee cost excluding consequential special punitive exemplary damage officer certificate mean letter executed officer distributing controlled provided skadden arp slate meagher flom llp connection tax opinion tax mean tax income tax including value added tax real personal property tax flat minimum dollar tax withholding tax capital duty tax payment date mean respect federal income tax due date required installment estimated tax determined section code due date determined without regard extension filing tax return determined section code date tax return filed ii respect tax corresponding date determined applicable tax law payment period shall meaning provided section person mean individual entity governmental entity department agency political subdivision thereof postdeconsolidation event shall meaning provided section c postdeconsolidation period mean respect income tax tax period beginning applicable deconsolidation date case straddle period portion straddle period beginning day applicable deconsolidation date predeconsolidation period mean respect income tax tax period ending applicable deconsolidation date case straddle period portion straddle period ending including applicable deconsolidation date prior tax allocation agreement mean written oral agreement arrangement relating allocation tax existing among distributing group member controlled group member distribution date agreement reimbursement statement shall meaning provided section ruling opinion document mean ruling request letter ruling officer certificate tax opinion including amendment supplement foregoing ruling request mean letter filed distributing irs requesting ruling irs regarding certain u federal income tax consequence transaction including attachment exhibit material submitted ruling request le tter amendment supplement ruling request letter sale shall meaning provided recital agreement separate company tax mean tax computed reference asset activity member member single group series preferred stock shall meaning provided recital series b preferred stock shall meaning provided recital sfxe loss shall meaning provided recital straddle period mean tax period begin end applicable deconsolidation date state income tax mean tax imposed state united state district columbia political subdivision foregoing imposed measured whole part income capital net worth taxable base nature income capital net worth including franchise tax based n factor subsidiary mean respect person entity person directly indirectly owns beneficially record amount voting security interest entity sufficient enable person elect least major ity member entity board director governing body ii least outstanding equity financial interest entity tax tax mean income gross income gross receipt profit capital stock capital duty franchise withholding payroll social security worker compensation unemployment disability property ad valorem stamp excise severance occupation service ale use license lease transfer import export value added alternative minimum estimated similar tax including fee assessment charge nature lieu tax imposed governmental entity political su bdivision thereof interest penalty addition tax additional amount respect foregoing tax asset mean tax item accrued tax purpose used taxable period could reduce tax another taxable period including net operating loss net capital loss investment tax credit foreign tax credit resea rch experimentation credit charitable deduction credit related alternative minimum tax tax credit tax authority mean respect tax governmental entity political subdivision thereof imposes tax agency charged collection tax governmental entity political subdivision including irs tax benefit mean refund credit reduction otherwise required tax payment including reduction estimated tax payment tax contest mean audit review examination administrative judicial proceeding purpose effect redetermining tax member group including administrative judicial review claim refund tax peri od tax detriment mean increase tax liability group member taxable period decrease tax asset group member except otherwise provided agreement tax detriment shall deemed realized tax item taxable period extent tax liability group member tax period taking account effect tax item tax liability group member current tax period prior tax period would tax liability determined without regard tax item tax item mean respect tax item income gain loss deduction credit attribute may effect increasing decreasing tax tax law mean law governmental entity political subdivision thereof relating tax including code tax opinion mean opinion skadden arp slate meagher flom llp addressing certain u federal income tax consequence distribution section code tax period mean respect tax period tax reported provided code applicable tax law tax record mean tax return tax return workpapers documentation relating tax contest book account record required maintained code applicable tax law record retention agreement tax auth ority tax return mean report tax due claim refund tax paid information return respect tax similar report statement declaration document required filed code tax law including attachmen t exhibit material submitted foregoing including amendment supplement foregoing theater business mean theater business term defined ruling request transaction mean transaction contemplated distribution agreement treasury regulation mean regulation promulgated time time code effect relevant tax period capitalized term defined elsewhere agreement shall meaning given section construction unless context otherwise requires reference section connection code treasury regulation refer section agreement ii word including shall mean including limited ii word used singular shall also denote plural word used plural shall also denote singular heading contained agreement reference purpose shall affect way meaning interpretation agreement section indemnification allocation responsibility tax section indemnification distributings indemnity controlled distributing shall indemnify controlled controlled group member respective director officer employee collectively distributing indemnitees hold harmless loss arise attributable tax specifically allocated responsibility distributing agreement failure distributing make payment required agreement controlled due breach nonperformance distributing representation warranty covenant contained agreement b controlleds holdco indemnity distributing controlled holdco shall jointly severally indemnify distributing distributing group member respective director officer employee collectively controlled indemnitees hold harmless loss arise attributable tax specifically allocated responsibility controlled agreement failure controlled make payment required agreement distributing due breach nonperformance controlled representation warranty covenant contained agreement section allocation federal income tax except provided section responsibility federal income tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility federal income tax distributing shall responsible federal income tax including adjustment federal income tax result final determination extent federal income tax imposed attributable istributing group member respect tax period ii controlled group member respect pre deconsolidation period applicable controlled group member b controlleds responsibility federal income tax controlled shall responsible federal income tax including adjustment federal income tax result final determination imposed attributable controlled group member respect post deconsolidation period applicable controlled group member section allocation state income tax except provided section responsibility state income tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility state income tax distributing shall responsible state income tax including adjustment state income tax result final determination extent state income tax imposed attributable distributing group member respect tax period ii controlled group member respect pre deconsolidation period applicable controlled group member b controlleds responsibility state income tax controlled shall responsible state income tax including adjustment state income tax result final determination imposed attributable controlled group member respect po stdeconsolidation period applicable controlled group member section foreign income tax except provided section responsibility foreign income tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility foreign income tax distributing shall responsible foreign income tax including adjustment foreign income tax result final determination extent foreign income tax imposed attributable distributing group memb er respect tax period b controlleds responsibility foreign income tax controlled shall responsible foreign income tax including adjustment foreign income tax result final determination extent foreign income tax imposed attributable controlle group member respect tax period section allocation tax except provided section responsibility tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility tax distributing shall responsible tax including adjustment tax result final determination extent tax imposed attributable distributing group member respe ct tax period b controlleds responsibility tax controlled shall responsible tax including adjustment tax result final determination extent tax imposed attributable controlled group member respe ct tax period c tax imposed multiple group member notwithstanding anything contrary section b respect tax taxable period imposed applicable tax law one distributing group member one controlled group member distributing shall responsible tax including adjustment tax result final determination extent distributing group member primarily responsible tax applicabl e tax law controlled shall responsible tax including adjustment tax result final determination extent controlled group member primarily responsible tax appl icable tax law section distribution tax international restructuring tax additional tax distribution tax notwithstanding provision agreement contrary following provision shall apply distributings responsibility distribution tax distributing shall responsible one hundred percent distribution tax result one following act failure act omission distributing group member inconsistent material information covenant representation officer certificate ruling request ii act failure act omission distributing group member distribution date including cessation transfer affiliate disposition amg broadcasting business issuance stock stock buyback payme nt extraordinary dividend distributing group member following distribution date iii acquisition stock asset distributing group member one person prior following distribution iv issuance distributing group member change ownership stock distributing group member cause section section e code apply distribution controlleds responsibility distribution tax controlled shall responsible one hundred percent distribution tax result one following act failure act omission controlled group member inconsistent material information covenant representation officer certificate ruling request ii act failure act omission controlled group member distribution date including cessation transfer affiliate disposition theater business issuance stock stock buyback payment extraordinary dividend controlled group member following distribution date iii acquisition stock asset controlled group member one person prior following distribution date iv issuance controlled group member change ownership stock controlled group member cause section section e code apply distribution joint responsibility distribution tax responsibility distribution tax allocated section b shall borne fifty percent distributing fifty percent controlled b international restructuring tax except provided section notwithstanding provision agreement contrary responsibility international restructuring tax imposed attributable group member shall allocated distributing controlled follows distributings responsibility international restructuring tax except provided section b distributing shall responsible international restructuring tax including adjustment international restructuring tax result final determination imposed attributable group member re pect tax period controlleds responsibility international restructuring tax notwithstanding section b controlled shall responsible international restructuring tax including adjustment international restructuring tax result final determination imposed attributable group member extent international restructuring tax result one following act failure act omission controlled group member inconsistent material information covenant representation international officer certificate ii act failure act omission controlled group member applicable deconsolidation event iii acquisition stock asset controlled group member one person following applicable deconsolidation event iv issuance controlled group member change ownership stock controlled group member applicable deconsolidation event cause section section e code apply international restruct uring c additional tax except provided section b notwithstanding provision agreement contrary controlled shall responsible one hundred percent additional tax determined applicable tax period imposed group member result arise whole part act failure act event transaction relates stock asset business controlled group member occurs applicable deconsolidation event controlled group member controlled group member breach representation covenant agreement contained agreement occurs applicable deconsolidation event controlled group member postdeconsolidation event including additional tax resulting arising distributing able utilize sfxe loss tax purpose result post deconsolidation event additional tax resulting arising controlled group member failing provide assistance cooperation distributing accordance section failing retain tax record accordance section section proration tax allocation tax item purpose apportioning tax tax item pre deconsolidation period postdeconsolidation period purpose preparing filing tax return agreement following provision shall apply section proration tax item general method except provided section b case straddle period tax item shall apportioned pre deconsolidation period post deconsolidation period accordance principle treasury regulation section b applicable corresponding provisio n tax law state local foreign jurisdiction corresponding provision reasonably interpreted applied distributing election shall made treasury regulation section bii relating ratable llocation year item applicable deconsolidation date accounting cutoff date principle treasury regulation section biii applied ratably allocate tax item extraordinary item fo r month includes applicable deconsolidation date b transaction tax item determining apportionment tax item pre deconsolidation period post deconsolidation period tax item relating transaction shall treated extraordinary item described treasury regulation section biic shall allocated pre deconsolidation period tax related tax item shall treated treasury regulation section biv relating extraordinary item shall allocated pre deconso lidation period section combined tax return respect combined tax return includes tax item one controlled group member allocable post deconsolidation period accordance provision agreement income tax treated imposed attributable controlled group member aggregate purpose agreement shall deemed equal amount income tax would result controlled group member deconsolidation event occurred included combined tax return filed consolidated combined r unitary tax return based solely income apportionment factor tax item included combined tax return allocable post deconsolidation period accordance provision agreement section allocation tax asset earnings profit allocation tax asset connection deconsolidation event distributing shall determine accordance applicable tax law allocation applicable tax asset among distributing distributing group member controlled controlle group member company hereby agree absence controlling legal authority unless otherwise provided agreement tax asset shall allocated group member generated tax asset respe</t>
-  </si>
-  <si>
-    <t>tax receivable agreement agreement dated among dreamworks animation skg inc delaware corporation dwa dw investmen ii inc washington subchapter corporation dwi ii whereas dw investment inc subchapter corporation dwi distributed entire interest dreamworks animatio n llc delaware limited liability company dwa llc paul g allen allen sole shareholder transaction taxable section f code vulcan transaction whereas vulcan transaction alle n contributed entire interest dwa llc dwi ii dwa acquired interest dwa llc dwi ii contribution contribution transaction described section internal revenue code amended code whereas agreement issued dwa dwi ii partial consideration dwa llc interest transferred dwa dwi ii contribution shall treated property received dwi ii purpose section b th e code whereas dwa llc shall effect election section code taxable year vulcan transaction occurs result adjustment tax basis asset owned dw llc closing date asset asset whose tax basis determined whole part reference adjusted basis su ch asset original as ets reason vulcan transaction issuance agreement dwi ii partial consideration contribution whereas dwa acquired remaining interest dwa llc holder intere sts interest dwa llc held dreamworks inc delaware corporation dw inc whereas vulcan transaction dwa acquired outstanding stock dw inc whereas dwa common parent dwa affiliated group dw inc member dwa affiliated group whereas interest dwa llc held member dwa affiliated group result income gain loss expense ot tax item dwa llc reported dwa affiliated group dwa consolidated return page whereas income gain loss expense tax item wa llc may affected basis adjustment imputed interest whereas party agreement desire make certain arrangement respect effect basis adjustment imputed interest actual liability covered tax dwa affiliated grou p therefore consideration foregoing respect ive covenant agreement set forth herein intending b e legally bound hereby party hereto agree follows article definition definition used agreement term set forth th article shall following meaning meaning equally applicable singular plural form term defined advisory firm mean nationally recognized accounting law firm nationally recognized ex pert covered tax matt er agreed dwa dwi ii replacement advisory firm letter shall mean letter advisory firm stating relevant schedule notice information provide dwa dwi ii supporting schedule work paper prepared n manner consistent term agreement extent expressly provided agreement reasonable basis light fact law existence date schedule notice information delivered dwi ii agreed rate mean libor plus basis point agreement defin ed preamble agreement value defined section agreement amended tax benefit schedule defined section b agreement applicable treasury rate mean rate equal early termination notice delivered prior third anniversary closing date xxx yield maturity date early termination notice delivered united state treasury page security constant maturity applicable maturity compiled published recent federal reserve statistical release h equal early termination notice delivered th ird anniversary closing date prior fifth anniversary closing date year b early termination notice delivered fifth anniversary closing date prior fifteenth anniversary closing date number year date early termination notice delivered fifteenth anniversary clos ing date c early termination notice delivered fifteenth anniversary closing date two year united state treasury security constant maturity equal applicable maturity yield maturity shall interpolated united state treasury security constant maturity nearly longer shorter applicable maturity basis adjustment mean increase decrease tax basi original asset section b code comparable section california revenue taxation code result f vulcan transaction ii section code comparable section california revenue taxation code result receipt dwi ii agreement p artial consideration contribution shown basis agreement value schedule basis adjustment shall include increase decrease tax basis original asset made closing date reason described ii provided however relevant determination th part basis adjustment described ii occurred th e closing date reason accrual payment amount due dwi ii agreement increase decrease basis origi nal asset described ii shall include adjustment occ ur closing date manner consistent determination basis agreement value schedule defined section agreement business day mean calendar day saturday sun day calendar day bank required authorized closed city new york california state income tax mean income franchise simi lar tax imposed state california including without limitation corporation tax law california revenue taxation code section et seq interest addition tax penalty applicable rela ted tax change control event mean occurrence following event inc luding event occurring prior connectio n initial public offering share defined including occurrence initial public offering period consecutive calendar month individu al director dwa first day period incumbe nt director cease reason constitute majority board director dwa board provided however individual becoming director subsequent first day page period whose election nomination election stockholder approved vote least majority incumbent director shall considered though individual incumbent director excluding purpose proviso su ch individual wh ose initial assumption office occurs result actual threatened proxy contest respect election removal director actual threatened solicitation proxy consent behalf person term used section exchange act case management wa board holder dwas class b common stock par value ii consummation merger consolidati statutory share exchange similar form corporate transaction involving x wa subsidiary case clause dwa voting security defined issued issuable f event referred clause hereinafter referred reorganization b sale disposition substantially asset dwa entity affilia te dwa sale reorganization sale requires approval dwas stockholder law dwas jurisdiction organization whether approval required reorganization sale f issuance security dwa reorganization sale unle s immediately following reorganization sale substantially individual entity beneficial owner term defi ned rule exchange act successor rule thereto share class common stock dwa par value security dwa share shall changed reason recapitalization merger consolidation splitup combination exchange share similar transaction share security eligible vote election board together dwa voting security outstanding immediately prior consummation reorganization sale beneficially wn directly indirectly combined voting power outstanding voting security corporation resulting su ch reorganiz ation sale including without limitation corporation th result transaction owns dwa substantially dw asset either directly one subsidiary continuing corporation sub tantially proportion thei r ownership immediately prior consummation reorganization sale outstanding dwa voting security excluding outstandi ng voting security continuing corporation hat beneficial owner hold immediately following consummation reorganizatio n sale result ownership prior consummation voting security company entity involved forming part reorganization sale dwa person term used section exchange act excluding x employee benefit plan related trust sponsored maintained continuing corpo ration corporation controlled continuing corporation jeffrey katzenberg z david geffen beneficially owns directly indirectly combined voting power outstanding voting security continuing corporation least majority member board director continuing corporation incumbent director time execution definitiv e agreement providing page reorganization sale absence agreement time approval board obtained reorganizatio n sale iii stockholder dwa approve plan complete liquidat ion dissolution dwa iv person term used section exchange act corpus tion entity group used secti exchange act dwa b trustee fiduciary holding security employee benefit plan dw affiliate dwa c company wned directly indirectly stockholder dwa substantially proportion ir ownership voting power dwa voting security becomes beneficial owner directly indirectly security dwa representing combined voting power dwa voting security percentage owned exceeds aggregate percentage combined voting power dwa voting security th en owned directly indirectly jeffrey katzenberg david geffen provided however purpose subparagraph iv following acquisition shall constitute change control x acquisition directly dwa acquisition employee benefit plan related trust sponsored maintained dwa affiliate dwa change control termination payment defined section c agreement closing date mean code defined recital contribution defined recital covered taxable year mean taxable year dwa affiliat ed group ending closing date end taxable ear including date twentieth th anniversary closing date covered tax mean federal income tax california state income tax determination shall meaning ascribed term section code similar provision california revenue taxation code applicable dwa defined preamble page dwa affiliated group mean affiliated group domestic corporation within meaning section code unitary combined group corporation within meaning california revenue taxation code applicable dwa member time time dwa consolida ted return mean consolidated federal income ax return california unitary combined tax return applicable dwa affiliated group filed respect taxable year dwa group mean corporation member dw affiliated group ii corporation would member dwa affiliated group fact includible corporation section b code dwa payment defined section greement dwa llc defined recital dwa senior obligation mean indebtedness dwa including together monetary obligation respect five year milli revolving credit facility entered among dwa jp morgan chase bank certain lender credit agreement interest whether allowable accruing ndebtedness incurred pursuant credit agreement filing petition initiating proceeding bankruptcy insolvency similar law would accrued filing arising credit agreement th e term instrument creating evidencing indebtedness expressly designated senior deb made senior right payment indebtedness dwa provided event shall dwa senior obligation include indeb tedn es subsidiary dwa officer director employee dwa f subsidiary indebtedness required pledged lender credit agreement ii indebtedness trade creditor dwi defined recital dwi ii defined preamble dw inc defined recital dw llc mean dreamworks llc delaware limited liability company early termination notice defined section agreement early termination payment defined section b agreement page early termination rate mean applicable treasury rate plus basis point exchange act mean security exchange act amended successor statute thereto federal income tax mean tax imposed u nder subtitle th e code provision united state federal income tax law includin g without limitation tax imposed section code interest addition tax penalty applicable la ted tax governmental entity mean federal state local provincial foreign government court competent jurisdiction administrative age ncy commission governmental authority instrumentality whether domestic foreign hypothetical tax basis mean respect asset time tax basis asset would time basis adjustment made hypothetical tax liability mean respect covered taxable year liability covered tax dwa affiliated group usi ng method election convention similar practice used relevant dwa consolidated return using hypothetical tax basis instea actual tax basis relevant asset excluding deduction attributable imputed interest imputed interest shall mean interest imputed section oth er provision code similar section california revenue taxation code respect dwas payment obligation agreement initial value shall mean weighted average trading price dwa class common st ock date initial public offering reported new york stock exchange consolidated tape irs mean united state internal revenue service libor mean month portion thereof period interest rate per annum equal rate per annum reported date two day prior first day month telerate page screen shall cease publicly available reported reute r screen page libo r publicly available source market rate london interbank offered rate united state dollar deposit fo r month portion thereof original asset defined recital person mean nd includes individual firm corporation partnership including without limitation limited general limited liability partnership company limited liability company trust joint venture association joint stock company unincorporated organization similar entity governmental entity proceeding defined section agreement page realized tax benefit mean covered taxable year excess hypothetical tax liability actual liability f covered tax dwa affiliated group covered taxable year portion actual tax liability covered tax covered taxable year arises result audit taxing authority cove red taxable year liability shall included determining realize tax benefit reali zed tax detriment unless determination realized tax detriment mean covered taxable year excess actual liability covered tax dwa affiliat ed group hypothetical tax liability covered taxable year portion actual tax liability covered tax covered taxable year arises result audit taxing authority cove red taxable year liability shall included n determining realize tax benefit realized tax detriment unless determination reconciliation procedure shall mean procedure set forth section agreement scheduled termination date shall mean date agreement would terminate absence early termination notice statutory rate mean october long term applicable f ede ral rate subsidiary mean entity dwa directly indirectl possesses fifty percent total combined voting power class stock tax benefit payment defined section agreemen tax benefit schedule defined section agreement taxable year mean taxable year defined section b code comparable section california revenue taxation code applicable therefore avoidance doubt may include period less month tax return made tax mean form taxation duty imposed required collected withheld including without limitation charge together related interest penalty additional amount liability payment amount type described precedin g clause result member affiliate consolidated combined unitary group iii liability payment amount result party tax sharing agreement agreeme nt result express implied obligation indemnify person respect payment amount described immediately preceding clause ii obligation indemnify th agreement tax return mean return filing report questionnaire information statement document required filed including amend ed return may filed taxable period taxing authority whether payment require made respect filing page taxing authority mean irs state local fore ign governmental entity responsible f administration tax treasury regulation mean final temporary proposed regulation code promulgated time time including corresponding provision succeeding provision effect relev ant taxable period valuation assumption shall mean valuation date assumption covered taxable year ending valuation date dwa taxable income sufficient fully utilize deduction arising basis adjustment imputed interest covere taxable year federal income tax rate california state income tax rate effect covered taxable year specified suc h covered taxable year code california revenue taxation code effect valuation date valuation date mean closing date purpose determini ng agreement value date early termination notice purpose f determining early termination payment change control termination payment vulcan transaction defined recital article ii determination realized tax benefit realized tax detriment section closing date basis adjustment dwa dwi ii hereb agree treat issuance agreement property received dwi ii partial consideration contribution closing date tax purpose dwa dwi ii agree result issuance th e agreement dwi ii shall recognize gain closing date amount exceed value agreeme nt closing date agreement value section b code comparable section california revenue taxation code basis original asset shall increased amount gain recognized secti th e code comparable section california revenue taxation code addition basis increase occurring result vulcan transactio n dwa dwi ii shall treat gain basis adjustment occurring enti ly closing date unless determination contrary tax purpose dwa dwi ii hereby agree agreement value shall equal th e present value discounted statutory rate tax benefit payment would required paid dwa dwi ii period closing date scheduled termination date based valuation assumption valuation assumption applied manner consiste nt illustrative example attached appendix hereto section basis agreement value schedule within calendar day closing date dwa shall deliver dwi ii schedule basis agreement value schedule show reasonable detail covered tax purpose actual tax basis closing date original asset ii basis adjustment respect original asset iii calculation agreement value consistent wi th basis page adjustment methodology set forth section aggregate tax basis original asset closing date shall equal aggregate initial value common stock dwa received dwi ii contributi plus agreement value time dwa delivers basis agreement va lue schedule dwi ii shall x deliver dwi ii schedule work paper providing reasonab le detail regarding preparation basis agreem ent value schedule advisory firm letter supporting basis agreemen value schedule allow dwi ii reasonable access appropriate representative dwa advisory f irm connection review schedule basis agreement value schedule shall become final binding party unless dwi ii within calendar day receiving basis agreement value schedule provides dwa notic e materi al objection basis agreement value schedule made good faith party using best effort unable successfully resolve iss ues raised notice within calendar day basis agreement value schedule delivered dwi ii dwa dwi ii shall employ reconciliation procedure b amended basis agreement value schedule basis agreement value schedule may amended time time dwa connection determination ii correct inaccuracy original basis agreeme nt value schedule identified closing date result receipt f additional inform ation relating fact circumstance prior closing date iii comply expert determination reconciliation procedure time dwa delivers amended basis agreement value schedule dwi ii shall x deliver dwi ii schedule nd work paper providing reasonable detail regarding preparation amen ded basis agreement value schedule advisory firm letter supporting suc h amended basis agreement value schedule allow dwi ii reasonable access appropriate representative dwa advisory firm connection review schedule amended basis agreement value schedule shall become final binding party unless dwi ii within calenda r day receiving amended basis agreement valu e schedule provides dwa notice material objection amended ba si agreement value schedule made good faith party using best effort unable successf ully resolve issue raised notice within calendar day amended basis agreement value schedule delivered dwi ii dwa dwi ii shall employ reconciliat ion procedure section tax benefit schedule wi thin calendar day filing federal income tax return dwa relevant covered taxable year dwa shall provide dwi ii schedule showing reasonable detail calculation realized tax benefit realized tax detriment f suc h covered taxable year tax benefit schedule time dwa delivers tax benefit schedule dwi ii shall deliver dwi ii schedule w ork paper providing reasonable detail regarding preparation tax benef schedule advisory firm letter supporting tax benefit schedule ii allow dwi ii reasonable access appropriate representative dwa advisory fir connection review schedule tax benefit schedule shall become final binding party unless dwi ii within calendar day receiving tax benefit schedule provides wa notice material objection uch tax benefit schedule made good faith party using best effort unable successfully page resolve issue raised notice within c alendar day ax benefit schedule delivered dwi ii dwa dwi ii shall employ reconciliation procedure b amended tax benefit schedule tax benefit schedule covered taxable year may amended time time dwa connectio n determination affecting tax benefit schedule ii correct inaccuracy original tax benefit schedule identified result receipt additional factual information relating covered taxabl e year date tax benefit schedule provided dwi ii iii refl ect change realized tax benefit realized tax detriment cover ed taxable year attributable carryback carryforward loss ax item covered taxable year iv reflect change realized ax benefit realized tax detriment covered taxable year attributable amended tax return filed covered taxable year provided however change attribu table audit tax return applicable taxing authority shall taken account amended tax benefit schedule unless determination respect change v comply expert determination reconciliation procedure time dwa delivers amended tax benef schedule pursuant secti b amended tax benefit schedule dwi ii shall x deliver dwi ii schedule work paper providing reasonable detail regarding preparation amended tax benefit schedu le advisory firm letter supporting amended tax benefit schedule allow dwi ii reasonable access appropriate representative dwa advisory firm connection review schedule amended ta x benefit schedule shall become final binding party unle s dwi ii within calendar day receiving amended tax benefit schedule provides dwa notice material objection amended tax benefit schedule made good faith party using best effort unable successf ully resolve issue raised notice within calendar day amended tax benefit schedule delivered dwi ii dwa dwi ii shall employ reconciliation procedure c applicable principle realized tax benef realized ax detriment covered taxable year intended measure decrease r increase actual covered tax liability dwa affiliated group covered taxable year attributable basis adjustment imputed interest determined using without methodology carryovers carrybacks tax item attributable basis adjustment imputed interest determined using without methodology shall considered subject rule code treasury regulation california revenue taxation code applicable governing use limitation expiration carryovers carrybacks relevant type f carryover carryback tax item includes porti attributabl e basis adjustment imputed interest another portion portion shall considered used order determined using su ch without methodology appendix b agreement provides illustrative example applicable principle described section c agreement page article iii tax benefit payment section payment within calendar day th e deliver tax benefit schedule dwi ii covered taxable year dwa sh pay dwi ii amount equal realized tax benefit covered taxable year b dwi ii shall pay dwa amount equal realized tax detriment covered taxable year case interest calculated agreed rate due date without extension filing tax return respect covered tax covered taxable year suc h payment tax benefit payment shall de wire transfer immediately available fund bank account recipient previously designated party avoidance f doubt tax benefit payment shall made respect estimated tax payment including without limitation federal income tax payment b within calendar day delivery amended tax bene fit schedule dwi ii covered taxable year dwa shall pay dwi ii dwi ii shall pay dwa appropriate amount equal difference betwee n realized tax benefit realized tax detriment reflected amen ded tax benefit schedule realized tax benefit realized tax detrime nt reflected tax benefit schedule prior amended tax benefit schedule f relevant covered taxable year section duplicative payment duplicative payment amount including interest required agr eement article iv termination section early termination agreement dwa may terminate agreement time paying dwi ii early termination payment date early termination notice dwa may terminate agreement occurrence change control event paying dwi ii change control termination payment date early termination notice u pon payment early termination payment change control termination payment dwa neither dwi ii dwa shall payment obligation agreement tax benefit payment agreed dwa dwi ii due pay able unpaid early termination notice b tax benefit payment due covered taxable ye ar ending including date early termination notice except extent amount described clause b includ ed earl termination payment change control termination payment section early termination notice dwa chooses exercis e right early termination section dwa shall deliver dwi ii notice th e early termination notice specifying dwas intention exercise right showing reasonable detail calculation early termination payment change control termination payment th e case may time dwa delivers early termination notice dwi ii shall deliver dwi ii schedule work paper providing reasonable detail regarding calculation early termination payment chan ge control termination payment case may manner consistent wi th guideline set forth page section agreement advisory firm letter supporting ea rly termination notice b allow dwi ii reasonable access appropriate representative dwa advisory firm connection review f early termination notice early termination notice shall become fin al binding party unless dwi ii within calendar day receiving early termination notice provides dwa notice materi al objection earl termination notice made good faith party using best effort unable successfully resolve issue raise notice within calendar day early termination notice wa delivered dwi ii dwa dwi ii shall employ reconciliation procedure section payment upon early termination within calend ar day delivery dwi ii early termination notice amendme nt early termination notice dwa shall pay dwi ii amount equal early termination payment change control termination payment th e case may payment shall made wire transfer immediately available fund bank account designated relevant party b early termination payment date early termination notice shall equal present value discounted early termination rate tax benefit payment would required pa id dwa dwi ii period date early termination ice scheduled termination date assuming valuation assumption applied loss carryovers generated basis adjustment imputed interest available date early termination notice utilized dwa pro rata basis date early terminat ion notice scheduled termination date avoidance doubt th e early termination payment would equal agreement value early termination notice delivered closing date early termination rate equal statutory rate c change control termination payment date n early termi nation notice shall equal early termination payment date multiplied section right early termination avoida nce doubt dwi ii shall entitled cause early termination agreement article v subordination late payment section subordination notwithstanding provision agreement contrary tax benefit payment early ter mination payment change control termination payment required made dwa dwi ii agreement dwa payment shall rank subordinate juni right payment principal interest amount due payab le respe ct dwa senior obligation shall rank pari passu current future unsecured obligation dwa dwa senior obligation page section late payment dwa amount port ion dwa payment made dwi ii due term agreemen shall payable together interest thereon computed agreed r ate commencing dat e dwa payment due payable section late payment dwi ii amount portion tax benefit payment required made dwi ii dwa agreement made dwa due term agreement shall payable together interest thereon computed agreed r ate commencing date tax benefit payment due payable article vi dispute consistency cooperation section dwi ii participation dwa tax matter except otherwise provided herein dwa shall full responsibility sole discretion tax matter concerning member dwa group including without limitation preparation filing amending tax return defending contesting settling issue pertaining tax notwithstanding foregoing dwa shall notify dwi ii keep dwi ii reasonably inf ormed respect dwi ii shall right participate monitor avoidance doubt control portion audit dwa group taxing authority outcome wh ich reasonably expected affect dwi ii right obligation agreement shall provide dwi ii reasonable opportunity provide information input dwa advisor concerning conduct portion audit member dwa group shall settle otherwise resolve audit challenge taxing authority relating basis orig inal asset deduction imputed interest without consent dwi ii dwi ii shall unreasonably withhold conditio n delay nothing agreement shall alter dwi full responsibility f sole discretion audit dwi affiliate relatin g vulcan transaction section consistency unless determination contrary dwa behalf behalf member dwa grou p dwi ii behalf behalf affiliate agree report cause reported purpose including federal state local tax purpose financial reporting purpose tax related item including without limitation basis adjustment nd tax benefit payme nt manner consistent specified dwa schedule letter certificate required provided behalf dwa agreeme nt event advisory firm replaced another firm acce ptable dwa dwi ii replacement advisory firm shall required perform t service agreement using procedure methodology consistent w ith previous advisory firm unless otherwise required law dwa dwi agree use procedure methodology section cooperation dwi ii shall shall cause affiliate furnish dwa timely manner information docume nt material dwa may reasonably request f purpose making determination computation necessary appropriate agreement preparing tax return contesting defending page audit examination controversy taxing authority b make employee available dwa representative provide explanation document material information dwa representative may reasonably reque st connection matter described clause c reasonably cooperate connection wit h matter article vii general provision section notice notice request claim demand communication hereunder shall writing shall deemed duly given received date delivery delivered personally facsimile upon confirmation transmission sender fax machine se nt business day otherwise next business day b first business day following date dispatch delivered recognized nextday courier service notice hereunder shall delivered set th pursuant instruction may designated writing party receive notice dwa dreamworks animation skg inc grandview building flower street glendale california fax attention katherine kendrick esq general counsel copy cravath swaine moore llp worldwide plaza eighth avenue new york ny fax attention stephen l gordon esq dwi ii dw investment ii inc fifth avenue south suite seattle wa fax attention w lance conn page executive vice president investment management executive vice president legal copy skadden arp meagher flom llp four time square new york new york fax attention nicholas saggese esq david rievman esq party may change address fax number giving party writ ten notice new address fax number manner set forth section counterpart agreement may executed one counterpart shall considered one agreemen shall become effective one counterpart signed party delivered party understood hat party need sign counterpart section entire agreement third party beneficiary thi agreement constitutes entire agreement supersedes prior agreement understanding written oral among party respect subject matter eof agreement shall binding upon inure solely benefit party hereto respective successor permitte assigns nothing agreement express implied intended shall confer upon person right benefit remedy nature whatsoever reason agreement section governing law agre ement shall governed construed accordance law state new york without giving effect applicable principle conflict law section severability term provision thi agreement invalid illegal incapable enforced law public policy term provision agreement shall nevertheless remain full force effect long economic legal substance transaction contemplated reby affected mann er materially adverse party upon determination term oth er provision invalid illegal incapable enforced party eto shall negotiate good faith modify agreement effect original intent party closely possible acceptable manner order transaction contemplated hereby consummated originally contemplated greatest extent possible section successor assignment amendment dwi ii may assign agreement person without prior written consent dwa consent shall unreasonably withheld conditioned delayed provided however dwi i</t>
-  </si>
-  <si>
-    <t>tax receivable agreement agreement dated among dreamworks animation skg inc delaware corporation dwa dw investmen ii inc washington subchapter corporation dwi ii whereas dw investment inc subchapter corporation dwi distributed entire interest dreamworks animatio n llc delaware limited liability company dwa llc paul g allen allen sole shareholder transaction taxable section f code vulcan transaction whereas vulcan transaction allen contributed entire interest dwa llc dwi ii dwa acquired interest dwa llc dwi ii contribution contribution transaction described section internal revenue code amended code whereas agreement issued dwa dwi ii partial consideration dwa llc interest transferred dwa dwi ii contribution shall treated property received dwi ii purpose section b code whereas dwa llc shall effect election section code taxable year vulcan transaction occurs result adjustment tax basis asset owned dw llc closing date asset asset whose tax basis determined whole part reference adjusted basis su ch asset original asset reason vulcan transaction issuance agreement dwi ii partial consideration contribution whereas dwa acquired remaining interest dwa llc holder interest interest dwa llc held dreamworks inc delaware corporation dw inc whereas vulcan transaction dwa acquired outstanding stock dw inc whereas dwa common parent dwa affiliated group dw inc member dwa affiliated group whereas interest dwa llc held member dwa affiliated group result income gain loss expense ot tax item dwa llc reported dwa affiliated group dwa consolidated return page whereas income gain loss expense tax item wa llc may affected basis adjustment imputed interest whereas party agreement desire make certain arrangement respect effect basis adjustment imputed interest actual liability covered tax dwa affiliated grou p therefore consideration foregoing respect ive covenant agreement set forth herein intending legally bound hereby party hereto agree follows article definition definition used agreement term set forth th article shall following meaning meaning equally applicable singular plural form term defined advisory firm mean nationally recognized accounting law firm nationally recognized expert covered tax matt er agreed dwa dwi ii replacement advisory firm letter shall mean letter advisory firm stating relevant schedule notice information provide dwa dwi ii supporting schedule work paper prepared n manner consistent term agreement extent expressly provided agreement reasonable basis light fact law existence date schedule notice information delivered dwi ii agreed rate mean libor plus basis point agreement defined preamble agreement value defined section agreement amended tax benefit schedule defined section b agreement applicable treasury rate mean rate equal early termination notice delivered prior third anniversary closing date xxx yield maturity date early termination notice delivered united state treasury page security constant maturity applicable maturity compiled published recent federal reserve statistical release h equal early termination notice delivered th ird anniversary closing date prior fifth anniversary closing date year b early termination notice delivered fifth anniversary closing date prior fifteenth anniversary closing date number year date early termination notice delivered fifteenth anniversary clos ing date c early termination notice delivered fifteenth anniversary closing date two year united state treasury security constant maturity equal applicable maturity yield maturity shall interpolated united state treasury security constant maturity nearly longer shorter applicable maturity basis adjustment mean increase decrease tax basi original asset section b code comparable section california revenue taxation code result f vulcan transaction ii section code comparable section california revenue taxation code result receipt dwi ii agreement partial consideration contribution shown basis agreement value schedule basis adjustment shall include increase decrease tax basis original asset made closing date reason described ii provided however relevant determination th part basis adjustment described ii occurred th e closing date reason accrual payment amount due dwi ii agreement increase decrease basis origi nal asset described ii shall include adjustment occ ur closing date manner consistent determination basis agreement value schedule defined section agreement business day mean calendar day saturday sun day calendar day bank required authorized closed city new york california state income tax mean income franchise simi lar tax imposed state california including without limitation corporation tax law california revenue taxation code section et seq interest addition tax penalty applicable rela ted tax change control event mean occurrence following event including event occurring prior connectio n initial public offering share defined including occurrence initial public offering period consecutive calendar month individu al director dwa first day period incumbe nt director cease reason constitute majority board director dwa board provided however individual becoming director subsequent first day page period whose election nomination election dwas stockholder approved vote least majority incumbent director shall considered though individual incumbent director excluding purpose proviso su ch individual whose initial assumption office occurs result actual threatened proxy contest respect election removal director actual threatened solicitation proxy consent behalf person term used section exchange act case management wa board holder dwas class b common stock par value ii consummation merger consolidation statutory share exchange similar form corporate transaction involving x wa subsidiary case clause dwa voting security defined issued issuable f event referred clause hereinafter referred reorganization b sale disposition substantially asset dwa entity affilia te dwa sale reorganization sale requires approval dwas stockholder law dwas jurisdiction organization whether approval required reorganization sale f issuance security dwa reorganization sale unle s immediately following reorganization sale substantially individual entity beneficial owner term defined rule exchange act successor rule thereto share class common stock dwa par value security dwa share shall changed reason recapitalization merger consolidation splitup combination exchange share similar transaction share security eligible vote election board together dwa voting security outstanding immediately prior consummation reorganization sale beneficially wn directly indirectly combined voting power outstanding voting security corporation resulting su ch reorganization sale including without limitation corporation th result transaction owns dwa substantially dw asset either directly one subsidiary continuing corporation substantially proportion thei r ownership immediately prior consummation reorganization sale outstanding dwa voting security excluding outstandi ng voting security continuing corporation beneficial owner hold immediately following consummation reorganizatio n sale result ownership prior consummation voting security company entity involved forming part reorganization sale dwa person term used section exchange act excluding x employee benefit plan related trust sponsored maintained continuing corporation corporation controlled continuing corporation jeffrey katzenberg z david geffen beneficially owns directly indirectly combined voting power outstanding voting security continuing corporation least majority member board director continuing corporation incumbent director time execution definitive agreement providing page reorganization sale absence agreement time approval board obtained reorganizatio n sale iii stockholder dwa approve plan complete liquidat ion dissolution dwa iv person term used section exchange act corporation entity group used secti exchange act dwa b trustee fiduciary holding security employee benefit plan dw affiliate dwa c company owned directly indirectly stockholder dwa substantially proportion ir ownership voting power dwa voting security becomes beneficial owner directly indirectly security dwa representing combined voting power dwa voting security percentage owned exceeds aggregate percentage combined voting power dwa voting security th en owned directly indirectly jeffrey katzenberg david geffen provided however purpose subparagraph iv following acquisition shall constitute change control x acquisition directly dwa acquisition employee benefit plan related trust sponsored maintained dwa affiliate dwa change control termination payment defined section c agreement closing date mean code defined recital contribution defined recital covered taxable year mean taxable year dwa affiliat ed group ending closing date end taxable ear including date twentieth th anniversary closing date covered tax mean federal income tax california state income tax determination shall meaning ascribed term section code similar provision california revenue taxation code applicable dwa defined preamble page dwa affiliated group mean affiliated group domestic corporation within meaning section code unitary combined group corporation within meaning california revenue taxation code applicable dwa member time time dwa consolidated return mean consolidated federal income ax return california unitary combined tax return applicable dwa affiliated group filed respect taxable year dwa group mean corporation member dw affiliated group ii corporation would member dwa affiliated group fact includible corporation section b code dwa payment defined section agreement dwa llc defined recital dwa senior obligation mean indebtedness dwa including together monetary obligation respect five year milli revolving credit facility entered among dwa jp morgan chase bank certain lender credit agreement interest whether allowable accruing indebtedness incurred pursuant credit agreement filing petition initiating proceeding bankruptcy insolvency similar law would accrued filing arising credit agreement term instrument creating evidencing indebtedness expressly designated senior deb made senior right payment indebtedness dwa provided event shall dwa senior obligation include indebtedn es subsidiary dwa officer director employee dwa f subsidiary indebtedness required pledged lender credit agreement ii indebtedness trade creditor dwi defined recital dwi ii defined preamble dw inc defined recital dw llc mean dreamworks llc delaware limited liability company early termination notice defined section agreement early termination payment defined section b agreement page early termination rate mean applicable treasury rate plus basis point exchange act mean security exchange act amended successor statute thereto federal income tax mean tax imposed subtitle th e code provision united state federal income tax law includin g without limitation tax imposed section code interest addition tax penalty applicable rela ted tax governmental entity mean federal state local provincial foreign government court competent jurisdiction administrative age ncy commission governmental authority instrumentality whether domestic foreign hypothetical tax basis mean respect asset time tax basis asset would time basis adjustment made hypothetical tax liability mean respect covered taxable year liability covered tax dwa affiliated group usi ng method election convention similar practice used relevant dwa consolidated return using hypothetical tax basis instea actual tax basis relevant asset excluding deduction attributable imputed interest imputed interest shall mean interest imputed section provision code similar section california revenue taxation code respect dwas payment obligation agreement initial value shall mean weighted average trading price dwa class common stock date initial public offering reported new york stock exchange consolidated tape irs mean united state internal revenue service libor mean month portion thereof period interest rate per annum equal rate per annum reported date two day prior first day month telerate page screen shall cease publicly available reported reute r screen page libo publicly available source market rate london interbank offered rate united state dollar deposit fo r month portion thereof original asset defined recital person mean includes individual firm corporation partnership including without limitation limited general limited liability partnership company limited liability company trust joint venture association joint stock company unincorporated organization similar entity governmental entity proceeding defined section agreement page realized tax benefit mean covered taxable year excess hypothetical tax liability actual liability f covered tax dwa affiliated group covered taxable year portion actual tax liability covered tax covered taxable year arises result audit taxing authority cove red taxable year liability shall included determining realize tax benefit realized tax detriment unless determination realized tax detriment mean covered taxable year excess actual liability covered tax dwa affiliat ed group hypothetical tax liability covered taxable year portion actual tax liability covered tax covered taxable year arises result audit taxing authority cove red taxable year liability shall included determining realize tax benefit realized tax detriment unless determination reconciliation procedure shall mean procedure set forth section agreement scheduled termination date shall mean date agreement would terminate absence early termination notice statutory rate mean october long term applicable fede ral rate subsidiary mean entity dwa directly indirectl possesses fifty percent total combined voting power class stock tax benefit payment defined section agreemen tax benefit schedule defined section agreement taxable year mean taxable year defined section b code comparable section california revenue taxation code applicable therefore avoidance doubt may include period less month tax return made tax mean form taxation duty imposed required collected withheld including without limitation charge together related interest penalty additional amount liability payment amount type described precedin g clause result member affiliated consolidated combined unitary group iii liability payment amount result party tax sharing agreement agreeme nt result express implied obligation indemnify person respect payment amount described immediately preceding clause ii obligation indemnify th agreement tax return mean return filing report questionnaire information statement document required filed including amend ed return may filed taxable period taxing authority whether payment required made respect filing page taxing authority mean irs state local fore ign governmental entity responsible administration tax treasury regulation mean final temporary proposed regulation code promulgated time time including corresponding provision succeeding provision effect relev ant taxable period valuation assumption shall mean valuation date assumption covered taxable year ending valuation date dwa taxable income sufficient fully utilize deduction arising basis adjustment imputed interest covere taxable year federal income tax rate california state income tax rate effect covered taxable year specified covered taxable year code california revenue taxation code effect valuation date valuation date mean closing date purpose determini ng agreement value date early termination notice purpose f determining early termination payment change control termination payment vulcan transaction defined recital article ii determination realized tax benefit realized tax detriment section closing date basis adjustment dwa dwi ii hereb agree treat issuance agreement property received dwi ii partial consideration contribution closing date tax purpose dwa dwi ii agree result issuance th e agreement dwi ii shall recognize gain closing date amount exceed value agreement closing date agreement value section b code comparable section california revenue taxation code basis original asset shall increased amount gain recognized section th e code comparable section california revenue taxation code addition basis increase occurring result vulcan transactio n dwa dwi ii shall treat gain basis adjustment occurring entire ly closing date unless determination contrary tax purpose dwa dwi ii hereby agree agreement value shall equal th e present value discounted statutory rate tax benefit payment would required paid dwa dwi ii period closing date scheduled termination date based valuation assumption valuation assumption applied manner consiste nt illustrative example attached appendix hereto section basis agreement value schedule within calendar day closing date dwa shall deliver dwi ii schedule basis agreement value schedule show reasonable detail covered tax purpose actual tax basis closing date original asset ii basis adjustment respect original asset iii calculation agreement value consistent basis page adjustment methodology set forth section aggregate tax basis original asset closing date shall equal aggregate initial value common stock dwa received dwi ii contributi plus agreement value time dwa delivers basis agreement va lue schedule dwi ii shall x deliver dwi ii schedule work paper providing reasonable detail regarding preparation basis agreem ent value schedule advisory firm letter supporting basis agreemen value schedule allow dwi ii reasonable access appropriate representative dwa advisory firm connection review schedule basis agreement value schedule shall become final binding party unless dwi ii within calendar day receiving basis agreement value schedule provides dwa notice materi al objection basis agreement value schedule made good faith party using best effort unable successfully resolve iss ues raised notice within calendar day basis agreement value schedule delivered dwi ii dwa dwi ii shall employ reconciliation procedure b amended basis agreement value schedule basis agreement value schedule may amended time time dwa connection determination ii correct inaccuracy original basis agreeme nt value schedule identified closing date result receipt f additional information relating fact circumstance prior closing date iii comply expert determination reconciliation procedure time dwa delivers amended basis agreement value schedule dwi ii shall x deliver dwi ii schedule nd work paper providing reasonable detail regarding preparation amen ded basis agreement value schedule advisory firm letter supporting suc h amended basis agreement value schedule allow dwi ii reasonable access appropriate representative dwa advisory firm connection review schedule amended basis agreement value schedule shall become final binding party unless dwi ii within calendar day receiving amended basis agreement valu e schedule provides dwa notice material objection amended ba si agreement value schedule made good faith party using best effort unable successfully resolve issue raised notice within calendar day amended basis agreement value schedule delivered dwi ii dwa dwi ii shall employ reconciliat ion procedure section tax benefit schedule within calendar day filing federal income tax return dwa relevant covered taxable year dwa shall provide dwi ii schedule showing reasonable detail calculation realized tax benefit realized tax detriment suc h covered taxable year tax benefit schedule time dwa delivers tax benefit schedule dwi ii shall deliver dwi ii schedule w ork paper providing reasonable detail regarding preparation tax benef schedule advisory firm letter supporting tax benefit schedule ii allow dwi ii reasonable access appropriate representative dwa advisory firm connection review schedule tax benefit schedule shall become final binding party unless dwi ii within calendar day receiving tax benefit schedule provides wa notice material objection tax benefit schedule made good faith party using best effort unable successfully page resolve issue raised notice within calendar day ax benefit schedule delivered dwi ii dwa dwi ii shall employ reconciliation procedure b amended tax benefit schedule tax benefit schedule covered taxable year may amended time time dwa connectio n determination affecting tax benefit schedule ii correct inaccuracy original tax benefit schedule identified result receipt additional factual information relating covered taxable year date tax benefit schedule provided dwi ii iii refl ect change realized tax benefit realized tax detriment cover ed taxable year attributable carryback carryforward loss ax item covered taxable year iv reflect change realized ax benefit realized tax detriment covered taxable year attributable amended tax return filed covered taxable year provided however change attributable audit tax return applicable taxing authority shall taken account amended tax benefit schedule unless determination respect change v comply expert determination reconciliation procedure time dwa delivers amended tax benef schedule pursuant section b amended tax benefit schedule dwi ii shall x deliver dwi ii schedule work paper providing reasonable detail regarding preparation amended tax benefit schedu le advisory firm letter supporting amended tax benefit schedule allow dwi ii reasonable access appropriate representative dwa advisory firm connection review schedule amended ta x benefit schedule shall become final binding party unless dwi ii within calendar day receiving amended tax benefit schedule provides dwa notice material objection amended tax benefit schedule made good faith party using best effort unable successfully resolve issue raised notice within calendar day amended tax benefit schedule delivered dwi ii dwa dwi ii shall employ reconciliation procedure c applicable principle realized tax benefit realized ax detriment covered taxable year intended measure decrease r increase actual covered tax liability dwa affiliated group covered taxable year attributable basis adjustment imputed interest determined using without methodology carryovers carrybacks tax item attributable basis adjustment imputed interest determined using without methodology shall considered subject rule code treasury regulation california revenue taxation code applicable governing use limitation expiration carryovers carrybacks relevant type f carryover carryback tax item includes portion attributabl e basis adjustment imputed interest another portion portion shall considered used order determined using su ch without methodology appendix b agreement provides illustrative example applicable principle described section c agreement page article iii tax benefit payment section payment within calendar day deliver tax benefit schedule dwi ii covered taxable year dwa sh pay dwi ii amount equal realized tax benefit covered taxable year b dwi ii shall pay dwa amount equal realized tax detriment covered taxable year case interest calculated agreed rate due date without extension filing tax return respect covered tax covered taxable year payment tax benefit payment shall de wire transfer immediately available fund bank account recipient previously designated party avoidance f doubt tax benefit payment shall made respect estimated tax payment including without limitation federal income tax payment b within calendar day delivery amended tax bene fit schedule dwi ii covered taxable year dwa shall pay dwi ii dwi ii shall pay dwa appropriate amount equal difference betwee n realized tax benefit realized tax detriment reflected amen ded tax benefit schedule realized tax benefit realized tax detrime nt reflected tax benefit schedule prior amended tax benefit schedule f relevant covered taxable year section duplicative payment duplicative payment amount including interest required agreement article iv termination section early termination agreement dwa may terminate agreement time paying dwi ii early termination payment date early termination notice dwa may terminate agreement occurrence change control event paying dwi ii change control termination payment date early termination notice u pon payment early termination payment change control termination payment dwa neither dwi ii dwa shall payment obligation agreement tax benefit payment agreed dwa dwi ii due payable unpaid early termination notice b tax benefit payment due covered taxable ye ar ending including date early termination notice except extent amount described clause b included earl termination payment change control termination payment section early termination notice dwa chooses exercis e right early termination section dwa shall deliver dwi ii notice early termination notice specifying dwas intention exercise right showing reasonable detail calculation early termination payment change control termination payment th e case may time dwa delivers early termination notice dwi ii shall deliver dwi ii schedule work paper providing reasonable detail regarding calculation early termination payment chan ge control termination payment case may manner consistent wi th guideline set forth page section agreement advisory firm letter supporting ea rly termination notice b allow dwi ii reasonable access appropriate representative dwa advisory firm connection review early termination notice early termination notice shall become fin al binding party unless dwi ii within calendar day receiving early termination notice provides dwa notice materi al objection early termination notice made good faith party using best effort unable successfully resolve issue raise notice within calendar day early termination notice wa delivered dwi ii dwa dwi ii shall employ reconciliation procedure section payment upon early termination within calend ar day delivery dwi ii early termination notice amendme nt early termination notice dwa shall pay dwi ii amount equal early termination payment change control termination payment th e case may payment shall made wire transfer immediately available fund bank account designated relevant party b early termination payment date early termination notice shall equal present value discounted early termination rate tax benefit payment would required pa id dwa dwi ii period date early termination ice scheduled termination date assuming valuation assumption applied loss carryovers generated basis adjustment imputed interest available date early termination notice utilized dwa pro rata basis date early terminat ion notice scheduled termination date avoidance doubt th e early termination payment would equal agreement value early termination notice delivered closing date early termination rate equal statutory rate c change control termination payment date n early termination notice shall equal early termination payment date multiplied section right early termination avoida nce doubt dwi ii shall entitled cause early termination agreement article v subordination late payment section subordination notwithstanding provision agreement contrary tax benefit payment early termination payment change control termination payment required made dwa dwi ii agreement dwa payment shall rank subordinate juni right payment principal interest amount due payab le respect dwa senior obligation shall rank pari passu current future unsecured obligation dwa dwa senior obligation page section late payment dwa amount port ion dwa payment made dwi ii due term agreemen shall payable together interest thereon computed agreed r ate commencing date dwa payment due payable section late payment dwi ii amount portion tax benefit payment required made dwi ii dwa agreement made dwa due term agreement shall payable together interest thereon computed agreed r ate commencing date tax benefit payment due payable article vi dispute consistency cooperation section dwi ii participation dwa tax matter except otherwise provided herein dwa shall full responsibility sole discretion tax matter concerning member dwa group including without limitation preparation filing amending tax return defending contesting settling issue pertaining tax notwithstanding foregoing dwa shall notify dwi ii keep dwi ii reasonably informed respect dwi ii shall right participate monitor avoidance doubt control portion audit dwa group taxing authority outcome wh ich reasonably expected affect dwi ii right obligation agreement shall provide dwi ii reasonable opportunity provide information input dwa advisor concerning conduct portion audit member dwa group shall settle otherwise resolve audit challenge taxing authority relating basis original asset deduction imputed interest without consent dwi ii dwi ii shall unreasonably withhold conditio n delay nothing agreement shall alter dwi full responsibility f sole discretion audit dwi affiliate relatin g vulcan transaction section consistency unless determination contrary dwa behalf behalf member dwa grou p dwi ii behalf behalf affiliate agree report cause reported purpose including federal state local tax purpose financial reporting purpose tax related item including without limitation basis adjustment tax benefit payme nt manner consistent specified dwa schedule letter certificate required provided behalf dwa agreeme nt event advisory firm replaced another firm acceptable dwa dwi ii replacement advisory firm shall required perform t service agreement using procedure methodology consistent w ith previous advisory firm unless otherwise required law dwa dwi agree use procedure methodology section cooperation dwi ii shall shall cause affiliate furnish dwa timely manner information docume nt material dwa may reasonably request purpose making determination computation necessary appropriate agreement preparing tax return contesting defending page audit examination controversy taxing authority b make employee available dwa representative provide explanation document material information dwa representative may reasonably request connection matter described clause c reasonably cooperate connection wit h matter article vii general provision section notice notice request claim demand communication hereunder shall writing shall deemed duly given received date delivery delivered personally facsimile upon confirmation transmission sender fax machine se nt business day otherwise next business day b first business day following date dispatch delivered recognized nextday courier service notice hereunder shall delivered set th pursuant instruction may designated writing party receive notice dwa dreamworks animation skg inc grandview building flower street glendale california fax attention katherine kendrick esq general counsel copy cravath swaine moore llp worldwide plaza eighth avenue new york ny fax attention stephen l gordon esq dwi ii dw investment ii inc fifth avenue south suite seattle wa fax attention w lance conn page executive vice president investment management executive vice president legal copy skadden arp meagher flom llp four time square new york new york fax attention nicholas saggese esq david rievman esq party may change address fax number giving party writ ten notice new address fax number manner set forth section counterpart agreement may executed one counterpart shall considered one agreemen shall become effective one counterpart signed party delivered party understood hat party need sign counterpart section entire agreement third party beneficiary thi agreement constitutes entire agreement supersedes prior agreement understanding written oral among party respect subject matter hereof agreement shall binding upon inure solely benefit party hereto respective successor permitte assigns nothing agreement express implied intended shall confer upon person right benefit remedy nature whatsoever reason agreement section governing law agreement shall governed construed accordance law state new york without giving effect applicable principle conflict law section severability term provision thi agreement invalid illegal incapable enforced law public policy term provision agreement shall nevertheless remain full force effect long economic legal substance transaction contemplated hereby affected mann er materially adverse party upon determination term oth er provision invalid illegal incapable enforced party eto shall negotiate good faith modify agreement effect original intent party closely possible acceptable manner order transaction contemplated hereby consummated originally contemplated greatest extent possible section successor assignment amendment dwi ii may assign agreement person without prior written consent dwa consent shall unreasonably withheld conditioned delayed provided however dwi ii may pledge right interest entitlement agreement u money center bank connection bona fide lo</t>
-  </si>
-  <si>
     <t>sale use tax return reporting period return return due address changed please update mailing address physical address business last day business please send license card returnlicense rvstrtn sale tax calculation gross gross sale use taxable nontaxable sale special jurisdiction sale detail city section net state sale taxable may line minus line city special jurisdiction tax calculation detail cityspecial jurisdiction name code taxable rate tax due penaltyinterest adjustment previous creditbalance due total due line plus line plus line amount remittedx declare penalty perjury return examined best knowledge belief tr ue correct complete return date datepreparer licensee net state sale taxable beginning june x total tax due line plus line total cityspecial jurisdiction tax add line taxable rate tax due subtotal line plus line minus line total state tax due line tax due plus line tax duefile pay electronically httpsdgovepath receive collection allowance tax due exceed ea ch reporting period filing paying tax electronically time allowance given contractor excise tax return past tax due must complete send return even zero receipt failure could result penalty change address please use line provided return correct address send address change south dakota business tax division new license card new address mailed close account cancel tax license enter last day business space provided must cancel license within day file final return pay tax due ownership business change example sole ownership partnership partnership corporation etc new owner must apply new tax license wwwsdgovtaxapp must notify department partner leaf enters partnership need cancel license close business sell business interest interest assessed month past due tax tax paid full minimum interest due first month interest assessed month tax unpaid prior july penalty tax due minimum even tax due assessed return filed within day following month return due make check payable south dakota state treasurer please write license number check please staple paperclip check return mail return department revenue remittance center po box sioux fall sd question need help completing return andor worksheet please visit nearest department revenue office call south dakota department revenue aberdeen area office sioux fall area office business tax division south main suite c sycamore ave suite e capitol ave aberdeen sd sioux fall sd pierre sd mitchell area office watertown area office n main suite maple mitchell sd watertown sd rapid city area office yankton area office contact information call email bustaxstatesdus website httpdorsdgov haines avenue suite summit street rapid city sd yankton sd</t>
   </si>
   <si>
@@ -211,51 +178,45 @@
     <t>form rev january employer quarterly federal tax return department treasury internal revenue service omb employer identification number ein name trade name trade name address number street suite room number city state zip codereport quarter check one january february march april may june july august september october november december prioryear form available wwwirsgovform read separate instruction complete form type print within box part answer question quarter number employee received wage tip compensation pay period including mar quarter june quarter sept quarter dec quarter wage tip compensation income tax withheld wage tip compensation wage tip compensation subject social security medicare tax check go line column column taxable social security wage btaxable social security tip c taxable medicare wage tip add column line column line b column line c e section q notice demandtax due unreported tip see instruction e total tax adjustment add line e current quarter adjustment fraction cent current quarter adjustment sick pay current quarter adjustment tip groupterm life insurance total tax adjustment combine line total deposit quarter including overpayment applied prior quarter overpayment applied form x form x cobra premium assistance payment see instruction b number individual provided cobra premium assistance add line balance due line line enter difference see instruction overpayment line line enter difference check one apply next return send refund must complete page form sign next privacy act paperwork reduction act notice see back payment voucher cat z form rev name trade name employer identification number ein part tell u deposit schedule tax liability quarter unsure whether monthly schedule depositor semiweekly schedule depositor see pub circular e section check one line return less line return prior quarter less incur nextday deposit obligation current quarter line prior quarter less line return must provide record federal tax liability monthly schedule depositor complete deposit schedule semiweekly schedule depositor attach schedule b form go part monthly schedule depositor entire quarter enter tax liability month total liability quarter go part tax liability month month month total liability quarter total must equal line semiweekly schedule depositor part quarter complete schedule b form report tax liability semiweekly schedule depositor attach form tell u business question apply business leave blank part business closed stopped paying wage check enter final date paid wage seasonal employer file return every quarter year check may speak thirdparty designee part want allow employee paid tax preparer another person discus return irs see instruction detail yes designees name phone number select digit personal identification number pin use talking irs sign must complete page form sign part penalty perjury declare examined return including accompanying schedule statement best knowledge belief true correct complete declaration preparer taxpayer based information preparer knowledge sign name hereprint name print title date best daytime phone paid preparer use check selfemployed preparers name preparers signature firm name selfemployed address city stateptin date ein phone zip code page form rev form v payment voucher purpose form complete form v payment voucher making payment form employer quarterly federal tax return use completed voucher credit payment promptly accurately improve service return prepared third party make payment return please provide payment voucher return preparer making payment form avoid penalty make payment form net tax either current quarter preceding quarter line form less incur nextday deposit obligation current quarter paying full timely filed return monthly schedule depositor making payment accordance accuracy deposit rule see section pub circular e employer tax guide detail case amount payment may otherwise must make deposit electronic fund transfer see section pub circular e deposit instruction use form v make federal tax depositscaution use form v making payment form however pay amount form deposited may subject penalty see deposit penalty section pub circular e specific instruction box employer identification number ein ein may apply one online go irsgov click apply ein online link may also apply ein calling fax mail form s application employer identification number received ein due date form write applied date applied entry space box amount paid enter amount paid form box tax period darken circle identifying quarter payment made darken one circle box name address enter name address shown form enclose check money order made payable united state treasury sure enter ein form tax period check money order send cash staple form v payment form detach form v send payment form address instruction form note must also complete entity information part form detach mail payment form formv department treasury internal revenue service payment voucher staple voucher payment form omb enter employer identification number ein enter amount payment dollar cent tax period st quarter nd quarterrd quarter th quarterenter business name individual name sole proprietor enter address enter city state zip codeform rev privacy act paperwork reduction act notice ask information form carry internal revenue law united state need figure collect right amount tax subtitle c employment tax internal revenue code imposes employment tax wage including income tax withholding form used determine amount tax owe section requires provide requested information tax applicable section requires provide identification number fail provide information timely manner provide false fraudulent information may subject penalty interest required provide information requested form subject paperwork reduction act unless form display valid omb control number book record relating form instruction must retained long content may become material administration internal revenue law generally tax return return information confidential required section however section allows requires irs disclose give information shown tax return others described code example may disclose tax information department ofjustice civil criminal litigation city state district columbia u commonwealth possession use administering tax law may also disclose information country tax treaty federal state agency enforce federal nontax criminal law federal law enforcement intelligence agency combat terrorism time needed complete file form vary depending individual circumstance estimated average time recordkeeping hr learning law form min preparing copying assembling sending form irs hr comment concerning accuracy time estimate suggestion making form simpler would happy hear email u taxformsirsgov enter form subject line write internal revenue service tax product coordinating committee sewcarmptms constitution ave nw ir washington dc send form address instead see file instruction form</t>
   </si>
   <si>
+    <t>onecle home sample business contract climachem inc contract printerfriendly sample business contract tax sharing agreement lsb industry inc climachem inc popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link tax sharing agreement tax sharing agreement agreement entered st day november lsb industry inc delaware corporation lsb climachem inc oklahoma corporation climachem w n e e h whereas lsb owns issued outstanding share capital stock climachem climachem owns directly intermediary issued outstanding share capital stock entity listed schedule attached hereto climachem subsidiary whereas lsb climachem climachem subsidiary member affiliated group corporation lsb common parent collectively lsb consolidated group within meaning internal revenue code amended code whereas climachem climachem subsidiary collectively climachem group would member affiliated group corporation climachem would common parent within meaning code climachem subsidiary lsb whereas intent desire party hereto method established determining right obligation among lsb consolidated group climachem group member lsb consolidated group member climachem group lsb group tax liability refund related administrative matter therefore consideration mutual covenant promise contained herein party hereto agree follows filing tax return tax return lsb climachem group filed follows consolidated federal return lsb exclusive authority file consolidated federal income tax return pursuant code behalf lsb consolidated group includes limited climachem group consolidated federal return composite return lsb member lsb group designated lsb exclusive authority file state local foreign income tax return tax return required filed member climachem group computes tax payable taxing jurisdiction respect income operation asset two corporation including least page one member climachem group one member lsb group based combined consolidated reporting apportionment business income unitary business concept composite return return except otherwise provided paragraph agreement lsb member lsb group designated lsb exclusive authority file income tax franchise tax return respect income operation asset lsb consolidated group member thereof including limited climachem group member group tax information facilitate preparation filing consolidated federal return corporate return return climachem timely basis provide lsb information reasonably required lsb respect income operation asset member climachem group tax controversy tax return lsb designee exclusive authority represent member lsb consolidated group including limited member climachem group governmental agency court regarding tax matter related consolidated federal return composite return tax return including limited exclusive control response examination taxing authority b exclusive control contest issue therein final determination defined including limited whether form conduct contest whether basis settle contest purpose paragraph term final determination mean respect issue item period context federal income tax final nonappealable decision court competent jurisdiction ii expiration time assessment tax filing claim refund refund claim timely filed expiration time instituting suit respect refund claim adjustment item income gain deduction loss credit period may thereafter made iii execution closing agreement code iv acceptance irs counsel tender pursuant page offer compromise pursuant code v execution form vi final irrevocable determination tax period b context tax comparable final nonappealable irrevocable determination tax period notification controversy lsb designee timely notify climachem correspondence tax controversy taxing authority relating item member climachem group promptly provide climachem copy correspondence upon request climachem subject lsbs exclusive authority provided herein climachem right exercisable timely basis consult lsb respect handling correspondence controversy lsb designee permit climachem representative attend hearing proceeding relating controversy extent subject hearing proceeding relates member climachem group tax sharing climachem payment obligation climachem shall pay lsb dollar value federal state local income tax liability including without limitation deficiency interest penalty relating climachem group respective business operation respect tax climachem group taxable year period ending prior december tax liability climachem group calculated climachem group separate consolidated tax group part lsb consolidated group resulting amount referred climachem stand alone tax liability payment climachem climachem standalone tax liability climachem standalone tax liability paid lsb pursuant paragraph march june september december year lsb make good faith estimate climachem standalone tax liability current tax quarter amount estimate tax estimate promptly provide climachem summary calculation tax estimate tax notice notwithstanding objection climachem page calculation tax estimate within day date tax notice climachem pay lsb tax estimate period set forth tax notice quarterly payment lsb adjust amount tax estimate may necessary time time tax year climachem agrees one quarterly payment increased decreased appropriate account adjustment amount tax estimate sum quarterly payment tax year less climachem standalone tax liability year determined lsb climachem within day receipt notice lsb pay lsb amount equal deficiency amount quarterly payment tax year greater climachem standalone tax liability year determined lsb lsb within day determination climachem standalone tax liability pay climachem amount excess objection calculation calculation made lsb tax year pursuant paragraph conclusive climachem unless written objection received lsb within day end tax year written objection timely made climachem party unable agree upon correct calculation disputed issue submitted ernst young lp accounting firm recognized national standing selected lsb reasonable discretion whose determination final cost expense relating accounting firm determination paid climachem event party agree different determination accounting firm review result different calculation appropriate payment made amount payment earnings profit allocation party understand method allocation federal income tax liability used determination earnings profit federal income tax purpose governing law may differ method prescribed herein sharing economic burden tax extent permitted governing law otherwise inconsistent best interest lsb lsb agrees make election take action permitted governing law would cause method allocation resemble closely practical method sharing economic burden tax hereunder page administrative matter general provision agreement administered lsb except otherwise expressly governed term agreement lsb designee may use reasonable method making computation allocation hereunder power attorney order carry purpose intent agreement climachem hereby grant agrees cause member climachem group grant lsb appropriate officer lsb power attorney undertake name appropriate member climachem group action contemplated herein including without limitation filing return claim refund making election handling controversy receipt fund extent power attorney recognized respected climachem agrees take cause member climachem group take action including grant lsb additional power attorney execution return document may reasonably requested lsb carry provision agreement payment amount owed either party hereto respect tax refund credit received party party entitled hereunder paid party receiving refund party within five day receipt credit refund amount owed either party hereto respect tax increase paid party party within day final determination respect thereto timely paid amount payable hereunder bear interest date due one percent excess prime rate published wall street journal time time record lsb climachem agree record including limited return supporting schedule workpapers correspondence document within possession either relating tax liability refund either retained long may material determination liability refund made reasonably available either party upon request page return preparation defense general party hereto agrees cooperate representative prompt timely manner connection preparation filing b administrative judicial proceeding involving consolidated federal return composite return tax return filed required filed lsb climachem member respective group cooperation include limited making available party normal business hour book record including limited workpapers schedule information officer employee without substantial interruption employment reasonably requested necessary useful connection tax filing inquiry audit investigation dispute litigation matter consistency filing consolidated federal return composite return lsb make computation taxable amount tax basis consistent computation amount prior tax return respective taxing jurisdiction except extent otherwise required law rule regulation respective taxing jurisdiction applicable authority result change factual circumstance determining treat matter precedent prior return controlling legal authority lsb good faith take account reasonable interest climachem due consultation climachem miscellaneous term agreement effective taxable year portion thereof commencing december continue period ten year time climachem longer included lsbs consolidated federal tax return state consolidated page combined unitary tax return earlier unless sooner terminated pursuant term paragraph notwithstanding foregoing lsb may terminate agreement day written notice climachem climachem default term provision agreement lsb sell substantially issued outstanding stock climachem unless otherwise agreed writing party agreement remain force binding long statutory period assessment refund applicable law remains unexpired taxable period either party may claim agreement expense climachem reimburse pay lsb climachems allocable share expense including professional fee incurred lsb designee connection preparation audit consolidated federal return composite return return contest controversy related return allocation expense lsb climachem made lsb sole discretion successor assigns agreement bind inure benefit respective successor assigns party hereof assignment relieve party obligation hereunder without written consent party notice notice communication hereunder writing delivered hand mailed registered certified mail returnreceipt requested party following address address party specified like notice deemed given date notice received page lsb member lsb industry inc lsb group south pennsylvania post office box oklahoma city oklahoma attention chief financial officer climachem member climachem inc climachem group south pennsylvania post office box oklahoma city oklahoma attention president governing law agreement construed enforced accordance law state oklahoma without giving effect principle conflict law party consent jurisdiction court oklahoma county oklahoma subject matter jurisdiction action arising matter related agreement waive right commence action arising matter related agreement court outside oklahoma county oklahoma witness whereof party hereto caused name subscribed executed respective authorized officer date indicated lsb industry inc delaware corporation jim jones vice president controller climachem inc oklahoma corporation david r goss vice president business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlordtenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
+  </si>
+  <si>
     <t>onecle hom e sample business contract climachem inc contract printer friendly sample business contract tax sharing agreement lsb industry inc climachem inc popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link tax sharing agreement tax sharing agreement agreement entered st day november lsb industry inc delaware corporation lsb climachem inc oklahoma corporation climachem w n e e h whereas lsb owns issued outstanding share capital stock climachem climachem owns directly intermediary issued outstanding share c apital stock entity listed schedule attached hereto climachem subsidiary whereas lsb climachem climachem subsidiary member affiliated group corporation lsb common parent collectiv ely lsb consolidated group within meaning internal revenue code amended code whereas climachem climachem subsidiary collectively climachem group would member affilia ted group corporation climachem would common parent within meaning code climachem subsidiary lsb whereas intent desire party hereto method establish ed determining right obligation among lsb consolidated group climachem group member lsb consolidated group member climachem group lsb group tax liability refund related administrative matter therefore consideration mutual covenant promise contained herein party hereto agree follows filing tax return tax return lsb climachem group filed follows consolidated federal return lsb exclu sive authority file consolidated federal income tax return pursuant code behalf lsb consolidated group includes limited climachem group consolidated federal return composite return lsb member lsb group designated lsb exclusive authority file state local foreign income tax return tax return required filed member climachem group computes tax payable taxing jurisdiction respect income operation asset two corporation including least page one member climachem group one member lsb group based combined consolidated reporting apportion ment business income unitary business concept composite return return except otherwise provided paragraph agreement lsb member lsb group designated lsb exclusive authority file income tax franchise tax return respect income operation asset lsb consolidated group member thereof including limited climachem group member group tax information facilitate preparation filing consolidated federal return corporate return return climachem timely basis provide lsb information reasonably required lsb respect income operation asset member climachem group tax controversy tax return lsb designee exclusive authority represent member lsb consolidated group including limited member climachem group governmental agency court regarding tax matter related consolidat ed federal return composite return tax return including limited exclusive control response examination taxing authority b exclusive control contest issue therein final determination defined including limited whether form conduct contest whether basis settle contest purpose paragraph term final determination mean respect issue item period context federal income tax final nonappealable decision court competent jurisdiction ii expiration time assessment tax filing claim refund refund claim timely filed expiration time instituting suit respect refund claim adjustment item income gain deduction loss credit period may thereafter made iii execution closing agreement code iv acceptance irs counsel tender pursuant page offer compromise pursuant code v execution form vi final irrevocable determination tax period b context tax comparable final nonappealable nd irrevocable determination tax period notification controversy lsb designee timely notify climachem corre spondence tax controversy taxing authority relating item member climachem group promptly provide climachem copy correspondence upon request climachem subject lsbs exclusive authority provided herein climachem right exercisable timely basis consult lsb respect handling correspondence controversy lsb designee permit climachem representative attend hearing proceeding relating controversy extent subject hearing proceeding relates member climachem group tax sharing climachem payment obligation climachem shall pay lsb dollar value federal state local income tax liability including without limitation deficiency interest penalty relating climachem group respective business operation respect tax f climachem group taxable year period ending prior december tax liability climachem group calculated climachem group separate consolidated tax group part lsb consolidated group resulting amount referred climachem stand alone tax liability payment climachem climachem stand alone tax liability climachem stand alone tax liability paid lsb pursuant paragraph march june september december year lsb make g ood faith estimate climachem stand alone tax liability current tax quarter amount estimate tax estimate promptly provide climachem summary calculation tax estimate tax notice notwithstanding objection climachem page calculation tax estimate within day date tax notice climachem pay lsb tax estimate period set forth tax notice quarterly payment lsb adjust amount tax estimate may necessary time time tax year climachem agrees one quarterly payment increased decreased appropriate account adjustment amount tax estimate sum quarterly payment tax year less climachem stand alone tax liability year determined lsb climachem within day receipt notice b lsb pay lsb amount equal deficiency amount quarterly payment tax year greater climachem stand alone tax liability year determined lsb lsb withi n day determination climachem stand alone tax liability pay climachem amount excess objection calculation calculation made lsb tax year pursuant paragraph conclusive climachem unless written objection received lsb within day end tax year written objection timely made climachem party unable agree upon correct calculation disputed issue submitted ernst young lp accounting firm recognized national standing selected lsb reasonable discretion whose determination final cost expense relating account ing firm determination paid climachem event party agree different determination accounting firm review result different calculation appropriate payment made amount payment earnings profit allocation party understand method allocation federal income tax liability used determination earnings profit federal income tax purpose governing law may differ method prescribed herein sharing economic burden tax extent permitted governing law otherwise inconsistent best interest lsb lsb agrees make election take action permitted governing law would cause method allocation resemble closely practical method sharing economic burden tax hereunder page administrative matter general provision agreement administered lsb except otherwise expressly governed term agreement lsb designee may u e reasonable method making computation allocation hereunder power attorney order carry purpose intent agreement climachem hereby grant agrees cause member climachem group grant lsb appropriate officer lsb power attorney undertake name appropriate memb er climachem group action contemplated herein including without limitation filing return claim refund making election handling controversy receipt fund extent suc h power attorney recognized respected climachem agrees take cause member climachem group take action including grant lsb additional power attorney execution return document may reasonably requested lsb carry provision agreement payment amount owed either party hereto respect tax refund credit received party party entitled hereunder paid party receiving refund party within five day receipt cr edit refund amount owed either party hereto respect tax increase paid party party within day final determination respect thereto timely paid amount payable hereunder bear interest date due one percent excess prime rate published wall street journal time time record lsb climachem agree record including limited return supporting schedule workpapers correspondenc e document within possession either relating tax liability refund either retained long may material determination liability r refund made reasonably available either party upon request page return preparation defense general e ach party hereto agrees cooperate representative prompt timely manner connection preparation filing b administrative judicial proceeding involving consolidated federal return composite return tax return filed required filed lsb climachem member respecti group cooperation include limited making available party normal business hour book record including limited workpapers schedule information officer employee without substantial interruption employment reasonably requested necessary useful conn ection tax filing inquiry audit investigation dispute litigation matter consistency filing consolidated federal return composite return lsb make computation taxable amount tax basis consistent computation amount prior tax return respective axing jurisdiction except extent otherwise required law rule regulation respective taxing jurisdiction applicable authority result change factual circumstance determining treat matter precedent prior return controlling legal authority lsb good faith take account reasonabl e interest climachem due consultation climachem miscellaneous term agreement effective taxable year portion thereof commencing december continue period ten year time climachem longer included lsbs consolidated federal tax return state consolidated page combined unitary tax return earlier unless sooner terminated pursuant term paragraph notwithstanding foregoing lsb may terminate agreement day written notice climachem climachem default term provision agreement lsb sell su bstantially issued outstanding stock climachem unless otherwise agreed writing party agreement remain force binding long statutory period assessment refund applicable law remains unexpired taxable period either party may claim agreement expense climachem reimburse pay lsb climachems allocable share expense including professional fee incurred lsb designee connection preparation audit consolidated federal return composite return return contest controversy related return allocation expense lsb climachem made lsb sole discretion successor assigns agreement bind inure benefit respective successor assigns party hereof assignment relieve party obligation hereunder without written consent party notice notice c ommunications hereunder writing delivered hand mailed registered certified mail return receipt requested party following address address party specified like notice deemed given date notice received page lsb member lsb industry inc lsb group south pennsylvania post office box oklahoma city oklahoma attention chief financial officer climachem member climachem inc climachem group south pennsylvania post office box oklahoma city oklahoma attention president governing law agreement con strued enforced accordance law state oklahoma without giving effect principle conflict law party consent jurisdiction court oklahoma county oklahoma subject matter jurisdiction action arising matter related agreement waive right commence action arising matter related agreement court outside oklahoma county oklahoma witness whereof party hereto caused name subscribed exec uted respective authorized officer date indicated lsb industry inc delaware corporation jim jones vice president controller climachem inc oklahoma corporation david r goss vice president business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
   </si>
   <si>
-    <t>onecle hom e sample business contract climachem inc contract printer friendly sample business contract tax sharing agreement lsb industry inc climachem inc popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link tax sharing agreement tax sharing agreement agreement entered st day november lsb industry inc delaware corporation lsb climachem inc oklahoma corporation climachem w n e e h whereas lsb owns issued outstanding share capital stock climachem climachem owns directly intermediary issued outstanding share capital stock entity listed schedule attached hereto climachem subsidiary whereas lsb climachem climachem subsidiary member affiliated group corporation lsb common parent collectively lsb consolidated group within meaning internal revenue code amended code whereas climachem climachem subsidiary collectively climachem group would member affiliated group corporation climachem would common parent within meaning code climachem subsidiary lsb whereas intent desire party hereto method established determining right obligation among lsb consolidated group climachem group member lsb consolidated group member climachem group lsb group tax liability refund related administrative matter therefore consideration mutual covenant promise contained herein party hereto agree follows filing tax return tax return lsb climachem group filed follows consolidated federal return lsb exclusive authority file consolidated federal income tax return pursuant code behalf lsb consolidated group includes limited climachem group consolidated federal return composite return lsb member lsb group designated lsb exclusive authority file state local foreign income tax return tax return required filed member climachem group computes tax payable taxing jurisdiction respect income operation asset two corporation including least page one member climachem group one member lsb group based combined consolidated reporting apportionment business income unitary business concept composite return return except otherwise provided paragraph agreement lsb member lsb group designated lsb exclusive authority file income tax franchise tax return respect income operation asset lsb consolidated group member thereof including limited climachem group member group tax information facilitate preparation filing consolidated federal return corporate return return climachem timely basis provide lsb information reasonably required lsb respect income operation asset member climachem group tax controversy tax return lsb designee exclusive authority represent member lsb consolidated group including limited member climachem group governmental agency court regarding tax matter related consolidated federal return composite return tax return including limited exclusive control response examination taxing authority b exclusive control contest issue therein final determination defined including limited whether form conduct contest whether basis settle contest purpose paragraph term final determination mean respect issue item period context federal income tax final nonappealable decision court competent jurisdiction ii expiration time assessment tax filing claim refund refund claim timely filed expiration time instituting suit respect refund claim adjustment item income gain deduction loss credit period may thereafter made iii execution closing agreement code iv acceptance irs counsel tender pursuant page offer compromise pursuant code v execution form vi final irrevocable determination tax period b context tax comparable final nonappealable irrevocable determination tax period notification controversy lsb designee timely notify climachem correspondence tax controversy taxing authority relating item member climachem group promptly provide climachem copy correspondence upon request climachem subject lsbs exclusive authority provided herein climachem right exercisable timely basis consult lsb respect handling correspondence controversy lsb designee permit climachem representative attend hearing proceeding relating controversy extent subject hearing proceeding relates member climachem group tax sharing climachem payment obligation climachem shall pay lsb dollar value federal state local income tax liability including without limitation deficiency interest penalty relating climachem group respective business operation respect tax climachem group taxable year period ending prior december tax liability climachem group calculated climachem group separate consolidated tax group part lsb consolidated group resulting amount referred climachem stand alone tax liability payment climachem climachem stand alone tax liability climachem stand alone tax liability paid lsb pursuant paragraph march june september december year lsb make good faith estimate climachem stand alone tax liability current tax quarter amount estimate tax estimate promptly provide climachem summary calculation tax estimate tax notice notwithstanding objection climachem page calculation tax estimate within day date tax notice climachem pay lsb tax estimate period set forth tax notice quarterly payment lsb adjust amount tax estimate may necessary time time tax year climachem agrees one quarterly payment increased decreased appropriate account adjustment amount tax estimate sum quarterly payment tax year less climachem stand alone tax liability year determined lsb climachem within day receipt notice lsb pay lsb amount equal deficiency amount quarterly payment tax year greater climachem stand alone tax liability year determined lsb lsb within day determination climachem stand alone tax liability pay climachem amount excess objection calculation calculation made lsb tax year pursuant paragraph conclusive climachem unless written objection received lsb within day end tax year written objection timely made climachem party unable agree upon correct calculation disputed issue submitted ernst young lp accounting firm recognized national standing selected lsb reasonable discretion whose determination final cost expense relating accounting firm determination paid climachem event party agree different determination accounting firm review result different calculation appropriate payment made amount payment earnings profit allocation party understand method allocation federal income tax liability used determination earnings profit federal income tax purpose governing law may differ method prescribed herein sharing economic burden tax extent permitted governing law otherwise inconsistent best interest lsb lsb agrees make election take action permitted governing law would cause method allocation resemble closely practical method sharing economic burden tax hereunder page administrative matter general provision agreement administered lsb except otherwise expressly governed term agreement lsb designee may use reasonable method making computation allocation hereunder power attorney order carry purpose intent agreement climachem hereby grant agrees cause member climachem group grant lsb appropriate officer lsb power attorney undertake name appropriate member climachem group action contemplated herein including without limitation filing return claim refund making election handling controversy receipt fund extent power attorney recognized respected climachem agrees take cause member climachem group take action including grant lsb additional power attorney execution return document may reasonably requested lsb carry provision agreement payment amount owed either party hereto respect tax refund credit received party party entitled hereunder paid party receiving refund party within five day receipt credit refund amount owed either party hereto respect tax increase paid party party within day final determination respect thereto timely paid amount payable hereunder bear interest date due one percent excess prime rate published wall street journal time time record lsb climachem agree record including limited return supporting schedule workpapers correspondence document within possession either relating tax liability refund either retained long may material determination liability refund made reasonably available either party upon request page return preparation defense general party hereto agrees cooperate representative prompt timely manner connection preparation filing b administrative judicial proceeding involving consolidated federal return composite return tax return filed required filed lsb climachem member respective group cooperation include limited making available party normal business hour book record including limited workpapers schedule information officer employee without substantial interruption employment reasonably requested necessary useful connection tax filing inquiry audit investigation dispute litigation matter consistency filing consolidated federal return composite return lsb make computation taxable amount tax basis consistent computation amount prior tax return respective taxing jurisdiction except extent otherwise required law rule regulation respective taxing jurisdiction applicable authority result change factual circumstance determining treat matter precedent prior return controlling legal authority lsb good faith take account reasonable interest climachem due consultation climachem miscellaneous term agreement effective taxable year portion thereof commencing december continue period ten year time climachem longer included lsbs consolidated federal tax return state consolidated page combined unitary tax return earlier unless sooner terminated pursuant term paragraph notwithstanding foregoing lsb may terminate agreement day written notice climachem climachem default term provision agreement lsb sell substantially issued outstanding stock climachem unless otherwise agreed writing party agreement remain force binding long statutory period assessment refund applicable law remains unexpired taxable period either party may claim agreement expense climachem reimburse pay lsb climachems allocable share expense including professional fee incurred lsb designee connection preparation audit consolidated federal return composite return return contest controversy related return allocation expense lsb climachem made lsb sole discretion successor assigns agreement bind inure benefit respective successor assigns party hereof assignment relieve party obligation hereunder without written consent party notice notice communication hereunder writing delivered hand mailed registered certified mail return receipt requested party following address address party specified like notice deemed given date notice received page lsb member lsb industry inc lsb group south pennsylvania post office box oklahoma city oklahoma attention chief financial officer climachem member climachem inc climachem group south pennsylvania post office box oklahoma city oklahoma attention president governing law agreement construed enforced accordance law state oklahoma without giving effect principle conflict law party consent jurisdiction court oklahoma county oklahoma subject matter jurisdiction action arising matter related agreement waive right commence action arising matter related agreement court outside oklahoma county oklahoma witness whereof party hereto caused name subscribed executed respective authorized officer date indicated lsb industry inc delaware corporation jim jones vice president controller climachem inc oklahoma corporation david r goss vice president business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
+    <t>onecle home sample business contract com corp contract printerfriendly sample business contract tax opinion mayer brown platt com corp popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link form mayer brown platt tax opinion date u robotics corporation north mccormick boulevard skokie illinois reincorporation com corporation delaware corporation merger tr acquisition corporation whollyowned subsidiary com corporation u robotics corporation dear lady gentleman acted special counsel u robotics corporation delaware corporation usr connection proposed merger reincorporation merger com corporation california corporation com california com delaware corporation delaware corporation com delaware pursuant agreement plan merger reincorporation dated march among com california com delaware reincorporation agreement ii proposed merger merger tr acquisition corporation merger sub usr pursuant amended restated agreement plan merger dated february amended march among com california tr com delaware usr merger agreement reincorporation agreement merger agreement referred together agreement requested provide opinion required section c merger agreement regarding qualification reincorporation merger merger taxfree reorganization within meaning section internal revenue code amended code section reference unless otherwise indicated internal revenue code amended code reference com parent com delaware reincorporation effected prior merger com california reincorporation effected prior merger providing opinion relied description reincorporation merger related transaction set forth reincorporation agreement exhibit thereto ii description merger related transaction set forth merger agreement exhibit thereto iii description reincorporation merger merger related transaction set forth registration statement form joint proxy statementprospectus com california usr registration statement exhibit thereto iv representation provided com california com delaware merger sub usr extent required shareholder com california usr concerning certain fact underlying relating reincorporation merger merger certificate connection rendering opinion assumed obtained representation relying thereon without independent investigation review thereof original document including signature authentic document submitted u copy conform original document prior consummation reincorporation merger merger due execution delivery document due execution delivery prerequisite effectiveness thereof representation warranty statement made agreed com california com delaware merger sub usr management employee officer director stockholder shareholder connection merger reincorporation merger including limited set forth agreement certificate true accurate relevant time covenant contained agreement performed without waiver breach material provision thereof representation statement made best knowledge similarly qualified correct without qualification matter person entity making representation referred represented person entity either party aware plan intention understanding agreement fact plan intention understanding agreement merger reincorporation merger consummated pursuant applicable state law opinion counsel received com gray cary ware freidenrich substantially identical substance opinion delivered withdrawn merger reported usr com parent respective federal income tax return manner consistent opinion set forth reincorporation merger reported com parent federal income tax return manner consistent opinion set forth based examination foregoing item subject limitation qualification representation assumption caveat set forth herein opinion federal income tax purpose reincorporation merger merger constitute reorganization defined section code reorganization constitute reorganization independently consummation opinion expressed merger reincorporation merger applicable merger consummated accordance term merger agreement reincorporation merger consummated accordance term reincorporation agreement applicable without waiver breach material provision thereof representation warranty statement assumption upon relied true accurate relevant time extent representation warranty statement assumption upon relied issue opinion complete correct true accurate material respect relevant time opinion might adversely affected may relied upon opinion represents best judgment regarding application federal income tax law arising code existing judicial decision administrative regulation published ruling procedure opinion binding upon internal revenue service court internal revenue service precluded successfully asserting contrary position assurance given future legislative judicial administrative change either prospective retroactive basis would adversely affect accuracy conclusion stated herein nevertheless undertake responsibility advise new development application interpretation federal income tax law hereby consent use opinion exhibit registration statement consent use name wherever appearing registration statement including joint proxy statementprospectus constituting part thereof amendment thereof sincerely mayer brown platt business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlordtenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
   </si>
   <si>
     <t>onecle hom e sample business contract com corp contract printer friendly sampl e business contract tax opinion mayer brown platt com corp popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link form mayer brown platt tax opinion date u robotics corporation north mccormick boulevard skokie illinois reincorporation com corporation delaware corporation merger tr acquisition corporation wholly owned subsidiary com corporation u robotics corporation dear lady gentleman acted special counsel u robotics corporation delaware corporation usr connection propose merger reincorporation merger com corporation california corporation com california com delaware corporation delaware corporation com delaware pursuant agreement plan merger reincorporation dated march among com california com delaware reincorporation agreement ii proposed merger merger tr acquisition corporation merger sub usr pursuant amended restated agreement plan merger dated february amended march among com california tr com delaware usr merger agreement reincorporation agreement merger agreement referred together agre ements requested provide opinion required section c merger agreement regarding qualification reincorporation merger merger tax free reorganization within meaning section internal revenue code amended code section reference unless otherwise indicated internal revenue code amended code reference com parent com delaware reincorpora tion effected prior merger com california reincorporation effected prior merger providing opinion relied description reincorporation merger related transaction set forth th e reincorporation agreement exhibit thereto ii description merger related transaction set forth merger agreement exhibit thereto iii description reincorporation merger merger related tra nsactions set forth registration statement form joint proxy statementprospectus com california usr registration statement exhibit thereto iv representation provided com california com delaware merger sub usr extent required shareholder com california usr concerning certain fact underlying relating reincorporation merger merger certificate connection rendering opinion as umed obtained representation relying thereon without independent investigation review thereof original document including signature authentic document submitted u copy conform original document prior consummation reincorporation merger merger due execution delivery document due execution delivery prerequisite effectiveness thereof representation warranty nd statement made agreed com california com delaware merger sub usr management employee officer director stockholder shareholder connection merger reincorporation merger including limited th ose set forth agreement certificate true accurate relevant time covenant contained agreement performed without waiver breach material provision thereof representation stat ement made best knowledge similarly qualified correct without qualification matter person entity making representation referred represented person entity either party aware plan intention understanding agreement fact plan intention understanding agreement merger reincorporation merger consummated pursuant applicable state law opinion counsel received com gray cary ware freidenrich substantially identical substance opinion delivered withdrawn merger reported usr com parent respective fede ral income tax return manner consistent opinion set forth reincorporation merger reported com parent federal income tax return manner consistent opinion set forth based examinatio n foregoing item subject limitation qualification representation assumption caveat set forth herein opinion federal income tax purpose reincorporation merger merger constitut e reorganization defined section code reorganization constitute reorganization independently consummation opinion expressed merger reincorporation merger applic able merger consummated accordance term merger agreement reincorporation merger consummated accordance term reincorporation agreement applicable without waiver breach material provision thereof representation warranty statement assumption upon relied true accurate relevant time extent representation warranty statement assumption upon relied issue opinion complete correct true accurate material respect relevant time opinion might adversely affected may relied upon opinion represents best judgment regar ding application federal income tax law arising code existing judicial decision administrative regulation published ruling procedure opinion binding upon internal revenue service court intern al revenue service precluded successfully asserting contrary position assurance given future legislative judicial administrative change either prospective retroactive basis would adversely affect accurac conclusion stated herein nevertheless undertake responsibility advise new development application interpretation federal income tax law hereby consent use opinion exhibit registration statement consent use name wherever appearing registration statement including joint proxy statementprospectus constituting part thereof amendment thereof sincerely mayer brown platt business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
   </si>
   <si>
-    <t>onecle hom e sample business contract com corp contract printer friendly sample business contract tax opinion mayer brown platt com corp popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link form mayer brown platt tax opinion date u robotics corporation north mccormick boulevard skokie illinois reincorporation com corporation delaware corporation merger tr acquisition corporation wholly owned sub sidiary com corporation u robotics corporation dear lady gentleman acted special counsel u robotics corporation delaware corporation usr connection proposed merger reincorporation merger com corporation california corporation com california com delaware corporation delaware corporation com delaware pursuant agreement plan merger reincorporation dated march ong com california com delaware reincorporation agreement ii proposed merger merger tr acquisition corporation merger sub usr pursuant amended restated agreement plan merger dated february amended march among com california tr com delaware usr merger agreement reincorporation agreement merger agreement referred together agreement requested tha provide opinion required section c merger agreement regarding qualification reincorporation merger merger tax free reorganization within meaning section internal revenue code amended code section reference unless otherwise indicated internal revenue code amended code reference com parent com delaware reincorporation effected prior erger com california reincorporation effected prior merger providing opinion relied description reincorporation merger related transaction set forth reincorporation agreement exhibit thereto ii description merger related transaction set forth merger agreement exhibit thereto iii description reincorporation merger merger related transaction set forth r egistration statement form joint proxy statementprospectus com california usr registration statement exhibit thereto iv representation provided com california com delaware merger sub usr ext ent required shareholder com california usr concerning certain fact underlying relating reincorporation merger merger certificate connection rendering opinion assumed obtained representation relying thereon without independent investigation review thereof original document including signature authentic document submitted u copy conform original document prior consummation reincorporation merger merger due execution delivery document due execution delivery prerequisite effectiveness thereof representation warranty statement made agreed com california com delaware merger sub usr management employee officer director stockholder shareholder connection merger reincorporation merger including limited set forth agreement certificate true accurate relevant time covenant contained agreement performed without waiver breach material provision thereof representation statement made best know ledge similarly qualified correct without qualification matter person entity making representation referred represented person entity either party aware plan intention understanding agreement fact plan intention understanding agreement merger reincorporation merger consummated pursuant applicable state law opinion counsel rec eived com gray cary ware freidenrich substantially identical substance opinion delivered withdrawn merger reported usr com parent respective federal income tax return man ner consistent opinion set forth reincorporation merger reported com parent federal income tax return manner consistent opinion set forth based examination foregoing item su bject limitation qualification representation assumption caveat set forth herein opinion federal income tax purpose reincorporation merger merger constitute reorganization defined section code reorganization constitute reorganization independently consummation opinion expressed merger reincorporation merger applicable merger con ummated accordance term merger agreement reincorporation merger consummated accordance term reincorporation agreement applicable without waiver breach material provision thereof representation warranty statement assumption upon relied true accurate relevant time extent representation warranty statement assumption upon relied issue opinion complete correct true accurate material respect relevant time opinion might adversely affected may relied upon opinion represents best judgment regarding application federal income tax law arising code existing judicial decision administrative regulation published ruling procedure opinion binding upon internal revenue service court internal revenue service precl uded successfully asserting contrary position assurance given future legislative judicial administrative change either prospective retroactive basis would adversely affect accuracy conclusion stated herein nevertheless undertake responsibility advise new development application interpretation federal income tax law hereby consent use opinion exhibit registration statement furt consent use name wherever appearing registration statement including joint proxy statementprospectus constituting part thereof amendment thereof sincerely mayer brown platt business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
+    <t>onecle home sample business contract mcafee inc contract printerfriendly sample business contract tax sharing agreement network associate inc mcafeecom corp popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link tax sharing agreement tax sharing agreement agreement made network associate inc nai entity listed schedule annexed hereto amended time time whereas nai parent affiliated group corporation defined section internal revenue code amended code whereas nai behalf affiliated group required file consolidated federal income tax return accordance section code may required file consolidated federal income tax return subsequent taxable year whereas party wish provide allocation consolidated federal income tax liability state local income tax liability certain related matter therefore consideration foregoing premise mutual covenant agreement contained herein party agree follows definition purpose agreement term set forth shall defined follows group shall mean parent hereinafter defined corporation whether existing hereafter formed acquired required join parent filing consolidated federal income tax return b group tax liability shall mean consolidated federal income tax liability group reported group consolidated federal income tax return filed taxable year c member shall mean corporation required join parent filing consolidated federal income tax return listed schedule amended time time parent shall mean nai ii successor common parent corporation described treas reg section di ii iii corporation parent successor corporation described clause ii hereof predecessor within meaning treas reg section f corporation acquires nai successor corporation described clause ii hereof reverse acquisition within meaning treas reg section e separate return tax liability shall mean respect member taxable year hypothetical federal income tax liability member determined pro forma basis member filed separate federal income tax return year page calculated taking account loss credit carryovers loss credit prior subsequent year tax attribute member determined without reference effect application consolidated return regulation member attribute attribute subject limitation code would applicable member filed separate federal income tax return taxable year relating computation ii imposing tax taxable income member rate equal rate specified code taxable year applicable tax provision including without limitation tax imposed section code without surtax exemption iii employing method principle accounting election convention used group separate return tax liability member shall include interest penalty would shown due member filed separate federal income tax return taxable year accordance subparagraph e filing return parent shall timely basis file cause filed consolidated federal income tax return estimated tax return taxable year term agreement shall pay full tax shown due thereon member shall execute file consent election documentation may required appropriate proper filing return member shall also maintain book record provide information parent may request connection matter contemplated agreement b parent shall right sole discretion make election employed filing return including election denominated code choice method accounting depreciation ii determine manner return shall prepared filed including without limitation manner item income gain loss deduction credit shall reported iii contest compromise settle adjustment deficiency proposed asserted assessed result audit return iv file prosecute compromise settle claim refund v determine whether refund group may entitled shall paid way refund credit federal income tax liability group c group jointly file state local foreign tax return combined consolidated unitary method parent determines sole discretion result lower overall tax liability group event state local tax return filed provision agreement shall apply extent determined parent allocation preparation filing payment related state local tax return shall applied appropriate context applicable state local tax law determined sole discretion parent provided benefit realized filing state local return shall remain parent payment page taxable year group respect consolidated federal income tax return filed member shall make payment parent following manner member shall pay parent amount member separate return tax liability later five day date group consolidated federal income tax return required filed taking account extension thereof b member shall pay parent later five day date member would required make payment estimated federal income tax member file separate federal income tax return taxable year including payment due time extension time filing hypothetical return obtained amount determined parent manner consistent paragraph e equal portion member separate return tax liability would due member file separate federal income tax return taxable year quarterly estimated tax payment shall determined parent sole discretion payment made member parent subparagraph b respect taxable year shall applied reduce amount owing member subparagraph paragraph respect year excess payment amount determined subparagraph paragraph year shall repaid parent member later fortyfive day date group federal income tax return filed extent excess represents part tax refund claimed group later fortyfive day receipt refund change tax liability respect taxable year group file amended consolidated federal income tax return reporting consolidated federal income tax liability different group tax liability ii group tax liability member tax liability adjusted adjustment part final determination term defined section code iii group assessed pay federal income tax excess group tax liability reason event specified section b code amount payment required paragraph shall recomputed subject limitation subparagraph c paragraph give effect amended return adjustment assessment case may member shall pay parent parent shall pay member case may difference amount determined recomputation amount previously paid payment shall made later case additional payment tax group due result amended return adjustment assessment later five day date additional payment tax due b five day date parent notifies amount payment due member pursuant subparagraph ii group receives refund arising amended return adjustment fortyfive day receipt refund b respect taxable year group file amended consolidated federal income tax return reporting consolidated federal income tax liability identical group tax liability amount payment required paragraph subject limitation subparagraph c paragraph shall recomputed give effect page amended return later fortyfive day filing amended return affected member shall pay parent parent shall pay member case may difference amount determined recomputation amount previously paid c respect taxable year member realizes loss credit would permitted code taking account election section b code carried one taxable year precede taxable year member filed separate federal income tax return taxable year amount payment required paragraph taxable year shall recomputed give effect carryback provided however notwithstanding subparagraphs b paragraph recomputation shall made respect loss credit carried back taxable year beginning date hereof later taxable year member member provided loss credit could carried back taxable year beginning date hereof member member shall considered determining member separate return tax liability year member shall pay parent parent shall pay member case may difference amount determined recomputation amount previously paid later fortyfive day date group federal income tax return taxable year filed extent difference represents part tax refund claimed group later five day receipt refund party recognize recomputation subparagraphs b c paragraph amount payment required paragraph taxable year necessarily final determination amount payment year amount payment may recomputed e event change tax liability group arising amended return adjustment assessment described subparagraph paragraph result result receipt payment interest payment recovery penalty excess aggregate interest penalty included determining aggregate separate return tax liability member interest penalty shall allocated member follows total amount excess interest penalty shall multiplied fraction denominator amount change group tax liability interest penalty computed numerator amount change member allocated tax liability case respect recent prior computation group tax liability member separate return tax liability member shall pay parent parent shall pay member case may excess interest penalty allocated member pursuant subparagraph e time amount payable pursuant subparagraph paragraph become payable page f except provided paragraph payment made pursuant subparagraphs b c e paragraph shall bear interest indemnification member agrees indemnify hold harmless parent respect liability federal income tax including interest thereon addition tax assessable penalty imposed respect thereto collectively tax extent parent liability tax attributable failure member make payment required pursuant paragraph agreement failure subsidiary comply subparagraph paragraph agreement b parent agrees indemnify hold member harmless respect liability federal income tax including interest thereon addition tax assessable penalty imposed respect thereto collectively tax liability arises solely reason member severally liable tax group pursuant treas reg section provided however member shall entitled indemnification parent pursuant paragraph unless member made payment required pursuant paragraph agreement fully complied subparagraph paragraph agreement c payment pursuant indemnity provided paragraph shall made within ten day notice payment requiring indemnification paragraph made parent default interest payment required agreement made one party another made within time provided amount timely paid shall bear interest rate established pursuant section code termination affiliation event member cease included group continues corporation subject federal income tax agreement except provided paragraph agreement shall terminate b parent former member shall consult furnish information concerning status tax audit tax refund claim relating taxable year member member consolidated federal income tax return filed parent shall right make final determination response group audit shall sole right control expense contest change proposed proposed disallowance refund claim internal revenue service appeal office internal revenue service court connection taxable year agreement effect page c member shall reimburse parent extent member received payment agreement account payment made agreement reduced loss credit remains attribute member ie loss credit absorbed group calculating group tax liability payment would required paragraph agreement member member still member respect taxable year member member shall made accordance principle analogous set forth paragraph time set forth therein provided however payment shall made account loss credit realized member year member member may carried back taxable year member member resolution dispute dispute ambiguity concerning amount payment provided agreement shall resolved parent manner consistent principle procedure set forth agreement judgment parent shall conclusive binding upon party agreement effective date agreement shall effective effective date registration statement member initial public offering common stock shall remain effect taxable year thereafter member included consolidated federal income tax return filed parent information expense parent authorized retain accountant attorney purpose preparing group tax return provided herein member agrees pay cost incurred member furnishing record document information form requested parent connection preparation return member shall promptly provide parent record document information parent shall request connection preparation return parent shall authorized retain accountant attorney purpose preparing refund claim provided herein representation connection member dispute irs case action taken member specific member agreed action taken appropriate member agrees pay cost reasonably allocated parent employing attorney accountant including associated court cost bear cost incurred furnishing record document testimony connection matter miscellaneous provision agreement contains entire understanding party hereto respect subject matter contained herein supersedes prior written oral implied understanding representation agreement among party respect thereto page alteration amendment modification term agreement shall valid unless made instrument signed writing authorized officer party b agreement shall binding upon inure benefit party hereto respective successor assigns c agreement intended benefit person party hereto respective successor assigns person party ii party successor assign shall third party beneficiary hereof agreement shall governed interpreted enforced accordance law state california regardless law might applicable principle conflict law e agreement may executed simultaneously two counterpart shall deemed original together shall constitute one instrument f descriptive heading paragraph agreement inserted convenience shall constitute part hereof g notice communication required permitted agreement shall writing shall personally delivered sent certified registered united state mail postage prepaid party following address address party may specify notice others parent network associate inc member see address set forth schedule notice communication shall effective deemed given date delivered mailed case may provided notice communication changing address set forth shall effective deemed given upon receipt h context requires word person shall include corporation firm partnership form association entity page witness whereof party hereto caused agreement duly executed date set forth effective date member date member joined group network associate inc prabhat k goyal date mcafeecom corporation srivats sampath date page schedule list address member corporation mcafeecom corporation business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlordtenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
   </si>
   <si>
     <t>onecle hom e sample business contract mcafee inc contract printer friendly sample business contract tax sharing agreement network associate inc mcafeecom corp popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link tax sharing agreement tax sharing agreement agreement made network associate inc nai entity listed schedule annexed hereto amended time time whereas nai parent affiliated group corporation defined section internal venue code amended code whereas nai behalf affiliated group required file consolidated federal income tax return accordance section code may required file consolidated federal income tax return subsequent taxable year whereas party wish provide allocation consolidated federal income tax liability state local income tax liability certain related matter therefore consideration foregoing premise mutual covenant agreement contained herein party agree follows definition purpose agreement term set forth shall defined follows group shall mean parent hereinafter defined corporation whether existing hereafter formed acquired required join parent filing consolidated federal income tax return b group tax liability shall mean consolidated federal income tax liability group reported group consolidated federal income tax return filed taxable year c member shall mean corporation required join parent filing consolidated federal income tax return listed schedule amended time time parent shall mean nai ii successor common parent corporation described treas reg section di ii iii corporation parent successor corporation described clause ii hereof predecessor within meaning treas reg section f corporation acquires nai successor corporation described clause ii hereof reverse acquisition within meaning treas reg section e separate return tax liability shall mean respect member taxable year hypothetical federal income tax liability member determined pro forma basis member filed separate federal income tax return year page calculated taking account loss credit carryovers loss credit prior subsequent year tax attribute member determined without reference effect application consolidated return regulation member attribute attribute subject limitation code would applicable member filed separate federal income tax return taxable year relating computation ii imposing tax taxable income member rate equal rate specif ied code taxable year applicable tax provision including without limitation tax imposed section code without surtax exemption iii employing method principle accounting election convention used group separate return tax liability member shall include interest penalty would shown due member filed separate federal income tax return taxable year accordance subparagraph e filing return parent shall timely basis file cause filed consolidated federal income tax return estimated tax return taxable year durin g term agreement shall pay full tax shown due thereon member shall execute file consent election documentation may required appropriate proper filing return member shall also maintain book record provide information parent may request connection matter contemplated agreement b parent shall right sole discretion make election wh ich employed filing return including election denominated code choice method accounting depreciation ii determine manner return shall prepared filed including without limitation manner item income gain loss deduction credit shall reported iii contest compromise settle adjustment deficiency proposed asserted assessed result audit return iv file prosecute compromise settle claim refund v determine whether refund group may entitled shall paid way refund credit federal income tax liability group c group jointly file state local foreign tax return combined consolidated unitary method parent determines sole discretion result lower overall tax liability group event state local tax return filed provision agreement shall apply extent determined parent allocation preparation filing payment related state local tax return shall applied appropriate context applicable state local tax law determined sole discretion parent provided benefit real ized filing state local return shall remain parent payment page taxable year group respect consolidated federal income tax return filed member shall make payment parent following manner member shall pay parent amount member separate return tax liability later five day date group consolidated federal income tax return required filed taking account extension thereof b member shall pay parent later five day date member would r equired make payment estimated federal income tax member file separate federal income tax return taxable year including payment due time extension time filing hypothetical return obtain ed amount determined parent manner consistent paragraph e equal portion member separate return tax liability would due member file separate federal income tax return taxable year th e quarterly estimated tax payment shall determined parent sole discretion payment made member parent subparagraph b respect taxable year shall applied reduce amount owing member un der subparagraph paragraph respect year excess payment amount determined subparagraph paragraph year shall repaid parent member later forty five day date group federal income tax return filed extent excess represents part tax refund claimed group later forty five day receipt refund change tax liability respect taxable year group file amended consolidated federal income tax return reporting consolidated federal income tax liability different group tax liability ii group tax liability member tax liability adjusted adjustment part final determ ination term defined section code iii group assessed pay federal income tax excess group tax liability reason event specified section b code amou nt payment required paragraph shall recomputed subject limitation subparagraph c paragraph give effect amended return adjustment assessment case may member shall pay paren parent shall pay member case may difference amount determined recomputation amount previously paid payment shall made later case additional payment tax b group due result amended return adjustment assessment later five day date additional payment tax due b five day date parent notifies amount paymen due member pursuant subparagraph ii group receives refund arising amended return adjustment forty five day receipt refund b respect taxable year group file amended consolidated federal income tax return reporting consolidated federal income tax liability identical group tax liability amount payment required paragraph subject limitat ion subparagraph c paragraph shall recomputed give effect page amended return later forty five day filing amended return affected member shall pay parent parent shall pay member case may difference amount determined recomputatio n amount previously paid c respect taxable year member realizes loss credit would permitted code taking account election section b code carried one taxable year precede taxable year member filed separate federal income tax return taxable year amount payment required paragraph taxable year shall recomputed give effect carryback provided however notwithstanding subparagraphs b paragraph recomputation shall made respect loss credit carried back taxable year beginning date hereof later taxable year member member provided loss credit could carried back taxable year beginning date hereof member member shall considered determining suc h member separate return tax liability year member shall pay parent parent shall pay member case may difference amount determined recomputation amount previously paid la ter fortyfive day date group federal income tax return taxable year filed extent difference represents part tax refund claimed group later five day receipt refund party recognize recomputation subparagraphs b c paragraph amount payment required paragraph taxable year necessarily final determination amount payment year amount payment may recomputed e event change tax liability group arising amended return adjustment assessment described subparagraph paragraph result result receipt payment interest payment recovery penalty excess aggregate interest penalty included determining aggregate separate return tax liability member interest penalty shall allocated member follows total amount excess interest penalty shall multiplied fraction denominator amount change group tax liability interest penalty computed numerator whi ch amount change member allocated tax liability case respect recent prior computation group tax liability member separate return tax liability member shall pay parent parent shall pay member case may excess interest penalty allocated member pursuant subparagraph e time amount payable pursuant subparagraph paragraph become payable page f except provided paragraph payment made pursuant subparagraphs b c e paragraph shall bear interest indemnification member agrees indemnify hold harmless parent respect liability feder al income tax including interest thereon addition tax assessable penalty imposed respect thereto collectively tax extent parent liability tax attributable failure member make payment required pursuant paragraph agreement failure subsidiary comply subparagraph paragraph agreement b parent agrees indemnify hold member harmless respect liability federal income tax including interest thereon addition tax assessable penalty imposed respect thereto collectively tax liability arises solely reason member severally liable tax group pursuant treas reg section provided however member shall entitled indemnification parent pursuant paragraph unless member made payment required pursuant paragraph agreement fully complied subparagraph paragraph agreement c payment pursuant indemnity provided paragraph shall made within ten ays notice payment requiring indemnification paragraph made parent default interest payment required agreement made one party another made within time provided amount timely paid shall bear interest rate established pursuant section code termin ation affiliation event member cease included group continues corporation subject federal income tax agreement except provided paragraph agreement shall terminate b parent former member shall consult furnish information concerning status tax audit tax refund claim relating taxable year member member consolidated f ederal income tax return filed parent shall right make final determination response group audit shall sole right control expense contest change proposed proposed isallowance refund claim internal revenue service appeal office internal revenue service court connection taxable year agreement effect page c member shall reimburse parent extent member received payment agreement account payment made agreement reduced loss credit remains attribute member ie loss credit absorbed group calculating group tax liability payment would r equired paragraph agreement member member still member respect taxable year member member shall made accordance principle analogous set forth paragraph time set forth therein provided however payment shall made account loss credit realized member year member member may carried back taxable year w hich member member resolution dispute dispute ambiguity concerning amount payment provided agreement shall resolved parent manner consistent principle proc edures set forth agreement judgment parent shall conclusive binding upon party agreement effective date agreement shall effective effective date registration statement member initial public offering common stock shall remain effect taxable year thereafter member included consolidated federal income tax return filed parent information expense parent authorized retain accountant attorney purpose preparing group tax return provided herei n member agrees pay cost incurred member furnishing record document information form requested parent connection preparation return member shall promptly provide parent su ch record document information parent shall request connection preparation return parent shall authorized retain accountant attorney purpose preparing refund claim provided herein representation connection member dispute irs case action taken member specific member agreed action taken appropriate member agrees pay cost reasonably allocated b parent employing attorney accountant including associated court cost bear cost incurred furnishing record document testimony connection matter miscellaneous provision agreement contains entire understanding party hereto respect subject matter contained herein supersedes prior written oral implied understanding representation agreement among parti e respect thereto page alteration amendment modification term agreement shall valid unless made instrument signed writing authorized officer party b agreement shall binding upon inure benefit party hereto respective successor assigns c agreement intended benefit person party hereto respective successor assigns person party ii party successor assign shall third party beneficiary hereof agreement shall governed interpreted enforced accordance law state california regardless law might applicable principle conflict law e agreement may executed simultaneously two counterpart shall deemed original together shall constitute one instrument f descriptive heading paragraph th agreement inserted convenience shall constitute part hereof g notice communication required permitted agreement shall writing shall personally delivered sent cert ified registered united state mail postage prepaid party following address address party may specify notice others parent network associate inc memb er see address set forth schedule notice communication shall effective deemed given date delivered mailed case may provided notic e communication changing address set forth shall effective deemed given upon receipt h context requires word person shall include corporation firm partnership form association entity page witness whereof party hereto caused agreement duly executed date set forth effective date member date member joined group network associate inc prabhat k goyal date mcafeecom corporation srivats sampath date page schedule list address member corporation mcafeecom corporation business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
   </si>
   <si>
-    <t>onecle hom e sample business contract mcafee inc contract printer friendly sample business contract tax sharing agreement network associate inc mcafeecom corp popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link tax sharing agreement tax sharing agreement agreement made network associate inc nai entity listed schedule annexed hereto amended time time whereas nai parent affiliated group corporation defined section internal revenue code amended code whereas nai behalf affiliated group required file consolidated federal income tax return accordance section code may required file consolidated federal income tax return subsequent taxable year whereas party wish provide allocation consolidated federal income tax liability state local income tax liability certain related matter therefore consideration foregoing premise mutual covenant agreement contained herein party agree follows definition purpose agreement term set forth shall defined follows group shall mean parent hereinafter defined corporation whether existing hereafter formed acquired required join parent filing consolidated federal income tax return b group tax liability shall mean consolidated federal income tax liability group reported group consolidated federal income tax return filed taxable year c member shall mean corporation required join parent filing consolidated federal income tax return listed schedule amended time time parent shall mean nai ii successor common parent corporation described treas reg section di ii iii corporation parent successor corporation described clause ii hereof predecessor within meaning treas reg section f corporation acquires nai successor corporation described clause ii hereof reverse acquisition within meaning treas reg section e separate return tax liability shall mean respect member taxable year hypothetical federal income tax liability member determined pro forma basis member filed separate federal income tax return year page calculated taking account loss credit carryovers loss credit prior subsequent year tax attribute member determined without reference effect application consolidated return regulation member attribute attribute subject limitation code would applicable member filed separate federal income tax return taxable year relating computation ii imposing tax taxable income member rate equal rate specified code taxable year applicable tax provision including without limitation tax imposed section code without surtax exemption iii employing method principle accounting election convention used group separate return tax liability member shall include interest penalty would shown due member filed separate federal income tax return taxable year accordance subparagraph e filing return parent shall timely basis file cause filed consolidated federal income tax return estimated tax return taxable year term agreement shall pay full tax shown due thereon member shall execute file consent election documentation may required appropriate proper filing return member shall also maintain book record provide information parent may request connection matter contemplated agreement b parent shall right sole discretion make election employed filing return including election denominated code choice method accounting depreciation ii determine manner return shall prepared filed including without limitation manner item income gain loss deduction credit shall reported iii contest compromise settle adjustment deficiency proposed asserted assessed result audit return iv file prosecute compromise settle claim refund v determine whether refund group may entitled shall paid way refund credit federal income tax liability group c group jointly file state local foreign tax return combined consolidated unitary method parent determines sole discretion result lower overall tax liability group event state local tax return filed provision agreement shall apply extent determined parent allocation preparation filing payment related state local tax return shall applied appropriate context applicable state local tax law determined sole discretion parent provided benefit realized filing state local return shall remain parent payment page taxable year group respect consolidated federal income tax return filed member shall make payment parent following manner member shall pay parent amount member separate return tax liability later five day date group consolidated federal income tax return required filed taking account extension thereof b member shall pay parent later five day date member would required make payment estimated federal income tax member file separate federal income tax return taxable year including payment due time extension time filing hypothetical return obtained amount determined parent manner consistent paragraph e equal portion member separate return tax liability would due member file separate federal income tax return taxable year quarterly estimated tax payment shall determined parent sole discretion payment made member parent subparagraph b respect taxable year shall applied reduce amount owing member subparagraph paragraph respect year excess payment amount determined subparagraph paragraph year shall repaid parent member later forty five day date group federal income tax return filed extent excess represents part tax refund claimed group later forty five day receipt refund change tax liability respect taxable year group file amended consolidated federal income tax return reporting consolidated federal income tax liability different group tax liability ii group tax liability member tax liability adjusted adjustment part final determination term defined section code iii group assessed pay federal income tax excess group tax liability reason event specified section b code amount payment required paragraph shall recomputed subject limitation subparagraph c paragraph give effect amended return adjustment assessment case may member shall pay parent parent shall pay member case may difference amount determined recomputation amount previously paid payment shall made later case additional payment tax group due result amended return adjustment assessment later five day date additional payment tax due b five day date parent notifies amount payment due member pursuant subparagraph ii group receives refund arising amended return adjustment forty five day receipt refund b respect taxable year group file amended consolidated federal income tax return reporting consolidated federal income tax liability identical group tax liability amount payment required paragraph subject limitation subparagraph c paragraph shall recomputed give effect page amended return later forty five day filing amended return affected member shall pay parent parent shall pay member case may difference amount determined recomputation amount previously paid c respect taxable year member realizes loss credit would permitted code taking account election section b code carried one taxable year precede taxable year member filed separate federal income tax return taxable year amount payment required paragraph taxable year shall recomputed give effect carryback provided however notwithstanding subparagraphs b paragraph recomputation shall made respect loss credit carried back taxable year beginning date hereof later taxable year member member provided loss credit could carried back taxable year beginning date hereof member member shall considered determining member separate return tax liability year member shall pay parent parent shall pay member case may difference amount determined recomputation amount previously paid later fortyfive day date group federal income tax return taxable year filed extent difference represents part tax refund claimed group later five day receipt refund party recognize recomputation subparagraphs b c paragraph amount payment required paragraph taxable year necessarily final determination amount payment year amount payment may recomputed e event change tax liability group arising amended return adjustment assessment described subparagraph paragraph result result receipt payment interest payment recovery penalty excess aggregate interest penalty included determining aggregate separate return tax liability member interest penalty shall allocated member follows total amount excess interest penalty shall multiplied fraction denominator amount change group tax liability interest penalty computed numerator amount change member allocated tax liability case respect recent prior computation group tax liability member separate return tax liability member shall pay parent parent shall pay member case may excess interest penalty allocated member pursuant subparagraph e time amount payable pursuant subparagraph paragraph become payable page f except provided paragraph payment made pursuant subparagraphs b c e paragraph shall bear interest indemnification member agrees indemnify hold harmless parent respect liability federal income tax including interest thereon addition tax assessable penalty imposed respect thereto collectively tax extent parent liability tax attributable failure member make payment required pursuant paragraph agreement failure subsidiary comply subparagraph paragraph agreement b parent agrees indemnify hold member harmless respect liability federal income tax including interest thereon addition tax assessable penalty imposed respect thereto collectively tax liability arises solely reason member severally liable tax group pursuant treas reg section provided however member shall entitled indemnification parent pursuant paragraph unless member made payment required pursuant paragraph agreement fully complied subparagraph paragraph agreement c payment pursuant indemnity provided paragraph shall made within ten day notice payment requiring indemnification paragraph made parent default interest payment required agreement made one party another made within time provided amount timely paid shall bear interest rate established pursuant section code termination affiliation event member cease included group continues corporation subject federal income tax agreement except provided paragraph agreement shall terminate b parent former member shall consult furnish information concerning status tax audit tax refund claim relating taxable year member member consolidated federal income tax return filed parent shall right make final determination response group audit shall sole right control expense contest change proposed proposed disallowance refund claim internal revenue service appeal office internal revenue service court connection taxable year agreement effect page c member shall reimburse parent extent member received payment agreement account payment made agreement reduced loss credit remains attribute member ie loss credit absorbed group calculating group tax liability payment would required paragraph agreement member member still member respect taxable year member member shall made accordance principle analogous set forth paragraph time set forth therein provided however payment shall made account loss credit realized member year member member may carried back taxable year member member resolution dispute dispute ambiguity concerning amount payment provided agreement shall resolved parent manner consistent principle procedure set forth agreement judgment parent shall conclusive binding upon party agreement effective date agreement shall effective effective date registration statement member initial public offering common stock shall remain effect taxable year thereafter member included consolidated federal income tax return filed parent information expense parent authorized retain accountant attorney purpose preparing group tax return provided herein member agrees pay cost incurred member furnishing record document information form requested parent connection preparation return member shall promptly provide parent record document information parent shall request connection preparation return parent shall authorized retain accountant attorney purpose preparing refund claim provided herein representation connection member dispute irs case action taken member specific member agreed action taken appropriate member agrees pay cost reasonably allocated parent employing attorney accountant including associated court cost bear cost incurred furnishing record document testimony connection matter miscellaneous provision agreement contains entire understanding party hereto respect subject matter contained herein supersedes prior written oral implied understanding representation agreement among party respect thereto page alteration amendment modification term agreement shall valid unless made instrument signed writing authorized officer party b agreement shall binding upon inure benefit party hereto respective successor assigns c agreement intended benefit person party hereto respective successor assigns person party ii party successor assign shall third party beneficiary hereof agreement shall governed interpreted enforced accordance law state california regardless law might applicable principle conflict law e agreement may executed simultaneously two counterpart shall deemed original together shall constitute one instrument f descriptive heading paragraph agreement inserted convenience shall constitute part hereof g notice communication required permitted agreement shall writing shall personally delivered sent certified registered united state mail postage prepaid party following address address party may specify notice others parent network associate inc member see address set forth schedule notice communication shall effective deemed given date delivered mailed case may provided notice communication changing address set forth shall effective deemed given upon receipt h context requires word person shall include corporation firm partnership form association entity page witness whereof party hereto caused agreement duly executed date set forth effective date member date member joined group network associate inc prabhat k goyal date mcafeecom corporation srivats sampath date page schedule list address member corporation mcafeecom corporation business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
+    <t>onecle home sample business contract oilgear co contract printerfriendly sample business contract tax regulatory agreement norwest bank wisconsin na county dodge nebraska oilgear co popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link execution copy tax regulatory agreement among norwest bank wisconsin national association trustee county dodge nebraska issuer oilgear company borrower dated october page table content page article definition section definition section reliance borrower information article ii certain representation borrower section description project description facility section capital expenditure section prior issue million limit section federal tax return information section composite issue section prohibited us section composite project section acquisition existing property section land acquisition limit acquisition farmland section representation borrower purpose irs form article iii use bond proceeds section anticipated use proceeds section certification cost project section change use proceeds article iv arbitrage section arbitrage representation election section arbitrage compliance section calculation rebate amount section payment united state section recordkeeping section rebate analyst page article v compliance code article vi term tax regulatory agreement article vii amendment article viii event default remedy section event default section remedy event default exhibit asources us fund exhibit bform dealer certification bona fide bid price certificate deposit exhibit bform dealer certification certificate deposit active secondary market exists exhibit bform provider certification certificate deposit exhibit bform provider certification investment contract exhibit bform borrower certification certificate deposit involving three bid exhibit bform borrower certification investment contract involving three bid exhibit cuseful life property financed refinanced bond exhibit ddeclaration official intent ii page tax regulatory agreement tax regulatory agreement made dated october tax regulatory agreement among county dodge nebraska successor assigns issuer norwest bank wisconsin national association national banking association successor assigns trustee oilgear company wisconsin corporation successor assigns borrower w n e e h whereas pursuant accordance provision nebraska industrial development act chapter article reissue revised statute nebraska amended act issuer proposes finance issuance industrial revenue bond issuer cost acquisition improvement portion addition borrower existing hydraulic pump manufacturing facility located dodge county nebraska acquisition installation equipment facility project portion addition equipment constitute project within meaning act addition constructed within jurisdiction issuer operated borrower whereas issuer undertaken finance acquisition improvement project leasing project borrower providing proceeds sale bond borrower pursuant provision lease agreement dated date hereof agreement issuer borrower whereas determined estimated amount necessary finance cost acquisition improvement project including necessary expense incidental thereto require issuance sale delivery county dodge nebraska variable rate demand industrial development revenue bond series oilgear company project principal amount bond provided trust indenture dated date hereof indenture together issuance bond respect duly validly authorized resolution board supervisor issuer adopted october pursuant act whereas tax regulatory agreement entered issuer borrower trustee ensure compliance provision internal revenue code amended code income tax regulation promulgated thereunder regulation whereas ensure interest bond remain excludable gross income code restriction listed tax regulatory agreement must satisfied page therefore issuer borrower trustee hereby agree follows article definition section definition following word phrase shall following meaning capitalized word term used herein defined herein shall meaning given hereinafter defined agreement abusive arbitrage device mean action effect enabling issuer borrower exploit difference taxable taxexempt interest rate obtain material financial advantage b overburdening taxexempt bond market defined section regulation accounting method mean overall method used account gross proceeds bond eg cash method modified accrual method method used account allocate particular item within overall accounting method eg accounting investment expenditure allocation different source particular item foregoing average economic life mean average reasonably expected economic life project defined section b code average maturity mean average maturity bond defined section b code bond year mean period commencing october calendar year terminating september immediately succeeding calendar year term bond except first bond year shall commence date issuance end september unless different period required regulation selected borrower pursuant regulation bond yield mean yield bond calculated accordance section regulation capital expenditure mean cost type acquisition construction reconstruction improvement land property character subject allowance depreciation example cost incurred acquire construct reconstruct improve land building equipment generally capital expenditure whether expenditure capital expenditure determined time expenditure paid respect property future change law affect whether expenditure capital expenditure page capital project mean capital expenditure carry governmental purpose bond example capital project may include capital expenditure one building improvement equipment plus related capitalized interest paid accrued prior inservice date capital project class investment mean one following represents different class investment category yield restricted purpose investment program investment defined section lb subject different definition materially higher yield section b yield restricted nonpurpose investment c nonpurpose investment computation date mean installment computation date final computation date computation date credit mean last day bond year gross proceeds subject rebate requirement article iv hereof final computation date amount consistently applied mean applied uniformly within fiscal period fiscal period account gross proceeds issue amount commingled fund cost issuance mean cost incurred connection issuance incurrence bond fee paid behalf credit enhancer fee qualified guarantee defined section f regulation issuer portion higher yield permitted agreement section regulation example cost issuance include limited underwriter spread whether realized directly derived purchase bond discount price substantial number bond sold public b counsel fee including bond counsel special tax counsel underwriter counsel issuer counsel borrower counsel trustee counsel specialized counsel fee incurred connection issuance incurrence bond c financial advisor fee incurred connection issuance incurrence bond page rating agency fee except fee paid connection part fee credit enhancement bond e trustee fee incurred connection issuance incurrence bond f accountant fee incurred connection issuance incurrence bond g printing cost bond preliminary final official statement h cost incurred connection required public approval process eg publication cost public notice generally cost public hearing issuer fee cover administrative cost expense incurred connection issuance incurrence bond current outlay cash mean outlay reasonably expected occur later five banking day date allocation gross proceeds expenditure made date issuance mean october discharge mean respect bond date amount due respect bond actually unconditionally due cash available place payment interest accrues respect bond date economic accrual method also known constant interest method actuarial method mean method computing yield based compounding interest end compounding period exempt person mean organization described section c code state local governmental unit state expenditure mean book record entry allocates proceeds bond connection current outlay cash fair market value mean price willing buyer would purchase investment willing seller bona fide armslength transaction fair market value generally determined date contract purchase sell nonpurpose investment becomes binding ie trade date rather settlement date except otherwise provided definition investment type traded established security market within meaning section code rebuttably presumed page acquired disposed price equal fair market value fair market value united state treasury obligation purchased directly united state treasury purchase price following guideline shall apply purpose determining fair market value obligation described certificate deposit purchase certificate deposit fixed interest rate fixed payment schedule substantial penalty early withdrawal deemed investment purchased fair market value purchase date yield certificate deposit less yield reasonably comparable direct obligation united state ii highest yield published posted provider currently available provider reasonably comparable certificate deposit offered public b guaranteed investment contract guaranteed investment contract nonpurpose investment specifically negotiated withdrawal reinvestment provision specifically negotiated interest rate also includes agreement supply investment two future date eg forward supply contract purchase price guaranteed investment contract treated fair market value purchase date borrower make bona fide solicitation specified guaranteed investment contract receives least three bona fide bid provider material financial interest issue eg underwriter broker ii borrower purchase highestyielding guaranteed investment contract qualifying bid made determined net broker fee iii yield guaranteed investment contract determined net broker fee less yield available provider reasonably comparable guaranteed investment contract offered person source fund gross proceeds taxexempt bond iv determination term guaranteed investment contract take account significant factor borrower reasonably expected drawdown schedule amount invested exclusive amount deposited debt service fund reasonably required reserve replacement fund v term guaranteed investment contract including collateral security requirement reasonable page vi obligor guaranteed investment contract certifies administrative cost paying expects pay third party connection guaranteed investment contract final computation date mean date bond discharged future value mean value receipt payment end interval determined using economic accrual method equal value payment receipt paid received treated paid received plus interest assumed earned compounded period rate equal yield bond using compounding interval financial convention used compute yield bond gross proceeds mean proceeds replacement proceeds bond installment computation date mean last day fifth bond year succeeding fifth bond year stated section hereof investment mean purpose investment nonpurpose investment including taxexempt bond investment proceeds mean amount actually constructively received investing proceeds bond investmenttype property mean property property described section ba b c e code held principally passive vehicle production income except otherwise provided prepayment property service investmenttype property principal purpose prepaying receive investment return time prepayment made time payment otherwise would made prepayment investmenttype property prepayment made substantial business purpose investment return issuer commercially reasonable alternative prepayment b prepayment substantially term made substantial percentage person similarly situated issuer beneficiary taxexempt financing issue price mean except otherwise provided issue price defined section code generally issue price bond publicly offered first pace substantial amount bond sold public ten percent substantial amount public include bond house broker similar person organization acting capacity underwriter wholesaler issue price change part issue later sold different price issue price bond page substantially identical determined separately issue price bond bona fide public offering made determined sale date based upon reasonable expectation regarding initial public offering price bond issued property applicable federal taxexempt rate used lieu federal rate determining issue price section code issue price bond may exceed fair market value sale date respect bond issue price manufacturing facility mean capital project used manufacturing production tangible personal property including processing resulting change condition property including facility directly related ancillary manufacturing facility directly related ancillary facility located site manufacturing facility proceeds issue finance manufacturing facility directly related ancillary facility used provide facility net sale proceeds mean sale proceeds less portion sale proceeds invested reasonably required reserve replacement fund section code part minor portion section e code code mean internal revenue code amended effect effective date code nonpurpose investment mean security obligation annuity contract investment type property defined section b code including specified private activity bond defined section ac code excluding obligation interest excludable federal gross income term nonpurpose investment include borrower obligation make payment issuer pursuant provision agreement payment mean purpose computing rebate amount amount actually constructively paid acquire nonpurpose investment treated paid commingled fund b nonpurpose investment allocated issue date actually acquired eg investment becomes allocable transferred proceeds replacement proceeds becomes subject rebate requirement code date actually acquired eg investment allocated reasonably required reserve replacement fund construction issue end twoyear spending period value investment date c nonpurpose investment allocated issue end preceding computation period value investment beginning computation period last day bond year amount allocated gross proceeds issue subject rebate requirement code final maturity date computation date credit e yield reduction payment nonpurpose investment made pursuant section c regulation purpose computing yield investment including value investment payment mean amount actually constructively paid acquire investment page provided however payment made conduit borrower borrower treated paid conduit borrower cease receive benefit earnings amount payment investment including guaranteed investment contract adjusted qualified administrative cost acquiring nonpurpose investment preissuance accrued interest mean amount representing interest accrued obligation period greater one year date issuance amount paid within one year date issuance principal user mean person principal owner principal lessee principal output purchaser principal user related person principal user principal owner person time hold ownership interest value facility person hold ownership interest person person case multiple equal owner hold largest ownership interest facility person treated holding ownership interest person owner federal income tax purpose generally principal lessee person time lease facility disregarding portion used lessee shortterm lease portion facility leased lessee generally determined reference fair rental value shortterm lease one term one year less taking account option renew reasonably anticipated renewal principal output purchaser person purchase output facility unless total output purchased person oneyear period beginning date facility facility output period principal user person enjoys use facility shortterm use degree comparable enjoyment principal owner principal lessee taking account relevant fact circumstance person participation control use facility remote proximate geographic location prior issue mean issue taxexempt obligation whether issuer issue section b code section code applies proceeds mean sale proceeds investment proceeds transferred proceeds issue proceeds include however amount actually constructively received respect purpose investment properly allocable immaterially higher yield section regulation section g code qualified administrative cost recoverable section e regulation project meaning given term preamble hereto purpose investment mean investment acquired carry governmental purpose issue agreement constitute purpose investment qualified administrative cost mean reasonable direct administrative cost carrying cost separately stated brokerage selling commission legal page accounting fee recordkeeping custody similar cost general overhead cost similar indirect cost issuer employee salary office expense cost associated computing rebate amount qualified administrative cost general administrative cost reasonable unless comparable administrative cost would charged investment reasonably comparable investment acquired source fund gross proceeds taxexempt bond qualified hedging transaction mean contract meet requirement section h regulation rebate amount mean excess future value receipt nonpurpose investment future value payment nonpurpose investment future value computed computation date rebate amount additionally includes penalty interest underpayment reduced recovery overpayment rebate analyst shall mean entity chosen borrower issuer accordance section hereof determine amount required deposit rebate fund rebate fund mean rebate fund established pursuant indenture receipt mean purpose computing rebate amount amount actually constructively received nonpurpose investment including amount treated received commingled fund earnings return principal b nonpurpose investment cease allocated issue disposition redemption date eg investment becomes allocable transferred proceeds another issue cease allocable issue pursuant universal cap section regulation cease subject rebate requirement code date earlier disposition redemption date eg investment allocated fund initially subject rebate requirement code subsequently qualifies bona fide debt service fund value nonpurpose investment date c nonpurpose investment held end computation period value investment end period purpose computing yield investment receipt mean amount actually constructively received investment earnings return principal including value investment receipt investment including guaranteed investment contract adjusted reduced qualified administrative cost recomputation event mean transfer waiver modification similar transaction right part term bond qualified hedging transaction entered terminated connection bond regulation regulation mean temporary proposed final income tax regulation promulgated department treasury applicable bond including section section section page related person mean person relationship person would result disallowance loss section b code b person member controlled group corporation defined section code except shall substituted least place appears therein replacement proceeds mean amount sufficiently direct nexus bond governmental purpose bond conclude amount would used governmental purpose proceeds bond used used governmental purpose fully defined section lc regulation sale proceeds mean amount actually constructively received sale bond including amount used pay underwriter discount compensation accrued interest preissuance accrued interest slgs mean united state treasury certificate indebtedness note bond state local government series special tax counsel mean law firm nationally recognized bond counsel requested deliver approving opinion respect issuance incurrence exclusion federal income taxation interest bond tax regulatory agreement mean tax regulatory agreement testperiod beneficiary mean person owner principal user facility financed issue issue taxexempt obligation issued code code threeyear period beginning later date facility placed service date issuance issue issue taxexempt obligation purpose determining whether person testperiod beneficiary person related person shall treated one person transferred proceeds mean proceeds refunding issue become transferred proceeds refunding issue cease proceeds prior issue proceeds refunding issue discharge outstanding principal amount prior issue amount proceeds prior issue become transferred proceeds refunding issue amount equal proceeds prior issue date discharge multiplied fraction numerator principal amount prior issue discharged proceeds refunding issue date discharge b denominator total outstanding principal amount prior issue date immediately date discharge page universal cap mean value outstanding bond value mean value determined section e regulation bond value determined section regulation investment yield mean purpose determining yield bond yield computed economic accrual method using consistently applied compounding interval one year short first compounding interval short last compounding interval may used yield expressed annual percentage rate calculated least four decimal place eg reasonable standard financial convention day per month day per year convention may used computing yield must consistently applied yield issue would purpose investment absent section ba code equal yield conduit financing issue financed purpose investment yield fixed yield issue discount rate used computing present value issue date unconditionally payable payment principal interest fee qualified guarantee issue amount reasonably expected paid fee qualified guarantee issue produce amount equal present value using discount rate aggregate issue price bond issue issue date case obligation purchased sold substantial discount premium regulation prescribe certain special yield calculation rule purpose determining yield investment yield computed economic accrual method using compounding interval financial convention used compute yield bond yield investment allocated bond discount rate used computing present value date investment first allocated issue unconditionally payable receipt investment produce amount equal present value unconditionally payable payment investment yield investment shall adjusted hedging transaction entered connection investment unless issuer trustee borrower received opinion special tax counsel adjustment permitted regulation yield shall calculated separately class investment yield reduction payment mean payment united state respect investment treated payment investment reduces yield investment accordance section c regulation yield reduction payment include rebate amount paid united state section reliance borrower information special tax counsel trustee issuer shall permitted rely upon content certification document instruction provided pursuant tax regulatory agreement shall responsible liable way accuracy content failure borrower deliver required information page article ii certain representation borrower section description project description facility borrower hereby represents warrant benefit issuer trustee description project set forth preamble hereto exhibit agreement true accurate b borrower represents covenant benefit issuer trustee project constitutes manufacturing facility facility directly related ancillary manufacturing facility c portion project constitutes office space serf solely manufacturing portion project site manufacturing portion project financed net proceeds bond section capital expenditure period beginning three year date issuance ending date issuance aggregate amount capital expenditure including expenditure could treated capital expenditure rule election code paid incurred excluding paid reimbursed proceeds bond respect facility located incorporated municipality unincorporated county project located ii principal user borrower principal user project related person thereto set forth exhibit e hereto b period beginning date issuance ending date three year date issuance aggregate amount capital expenditure including expenditure could treated capital expenditure rule election code expected incurred excluding paid reimbursed proceeds bond respect facility located incorporated municipality unincorporated county project located ii principal user borrower principal user project related person thereto anticipated set forth exhibit e hereto c amount capitalized interest paid financing project excluding paid proceeds bond amount capitalized interest paid connection project paid proceeds bond borrower covenant sum capital expenditure described paragraph plus ii actual capital expenditure incurred described paragraph b c plus iii aggregate outstanding amount exempt small issue set forth section plus iv greater issue price par amount bond shall exceed page e information contained subsection b c provided issuer enable issuer elect qualify bond exemption afforded section code true accurate complete issuer hereby elect issue bond pursuant exemption afforded section code f project sold leased use otherwise transferred person borrower principal user project related person thereto identified date issuance threeyear period ending three year date issuance unless borrower received approving opinion special tax counsel effect sale lease transfer adversely affect taxexempt status bond section prior issue million limit aggregate face amount prior issue outstanding date issuance proceeds used extent respect facility located incorporated municipality unincorporated county project located principal user project borrower principal user project related person thereto b aggregate face amount prior issue exempt facility bond qualified redevelopment bond industrial development bond defined code code outstanding date issuance proceeds used allocated borrower principal user project related person thereto testperiod beneficiary section federal tax return information project sic code number borrower file federal income tax return internal revenue service center kansa city missouri federal employer identification number borrower section composite issue period beginning day prior sale date bond ending day thereafter none borrower principal user project related person thereto sold guaranteed arranged participated assisted borrowed proceeds leased facility financed obligation issued section code section code state local governmental unit constituted authority empowered issue obligation behalf state local governmental unit b period commencing date issuance ending day thereafter obligation sold issued section code code guaranteed borrower principal user project related person issued assistance participation arrangement borrower principal user project related person without written opinion special tax counsel effect issuance incurrence obligation page adversely affect opinion exclusion gross income federal income tax purpose interest respect bond c borrower principal user project related person person related person person guaranteed arranged participated assisted issuance incurrence paid portion cost issuance bond ii provided property franchise trademark trade name within meaning section code used connection project section prohibited us portion proceeds bond used provide facility purpose retail food beverage service automobile sale service provision recreation entertainment portion proceeds bond used provide private commercial golf course country club health club massage parlor tennis club skating facility including roller skating skateboarding ice skating racquet sport facility including handball squash racquetball court hot tub facility suntan facility racetrack skybox luxury box airplane store principal business sale alcoholic beverage consumption premise facility used primarily gambling portion proceeds bond used directly indirectly provide residential real property single multifamily unit section composite project project standalone manufacturing facility unconnected facility share portion substantial common facility building b enclosed shopping mall c strip office store warehouse section acquisition existing property borrower expect use proceeds bond pay cost acquisition real personal property land interest therein first use pursuant acquisition proceeds bond shown exhibit amount equal proceeds bond expected used purchase existing property proceeds bond used purchase existing property borrower meet rehabilitation requirement section rehabilitation improvement project within twoyear period following later date issuance date existing property acquired section land acquisition limit acquisition farmland amount proceeds bond expended land exceed less proceeds bond b portion proceeds bond used directly indirectly acquisition land interest therein used purpose farming page section representation borrower purpose irs form section e code requires condition qualification tax exemption issuer provide secretary treasury certain information respect bond application proceeds derived therefrom following representation borrower relied upon issuer bond counsel satisfying information reporting requirement accordingly borrower hereby represents covenant warrant best knowledge benefit issuer bond counsel registered owner bond truth accuracy c issuer employer identification number b number report previously filed issuer calendar year none c issue price bond proceeds used accrued interest e cost issuance including underwriter discount f reasonably required reserve fund deposit g proceeds used credit enhancement h proceeds used refund prior issue nonrefunding proceeds j date final maturity bond k interest rate final maturity bond vr issue price final maturity bond issue price entire issue bond n stated redemption price maturity final maturity bond stated redemption price maturity entire issue bond p weighted average maturity entire issue bond year q yield entire issue bond vr r net interest cost entire issue bond vr standard industrial classification code project type property financed nonrefunding proceeds bond land building equipment recovery period five year equipment recovery period five year less rehabilitation total page article iii use bond proceeds section anticipated use proceeds borrower covenant represents warrant benefit issuer trustee proceeds bond used manner set forth agreement proceeds bond invested accordance indenture section certification cost project borrower hereby certifies respect amount shown exhibit agreement amount consist cost directly related necessary financing project section change use proceeds company determines less proceeds bond used respect project required section code change use project occurs project would longer qualify financing section code company call bond establish defeasance escrow retirement bond amount time required pursuant section regulation article iv arbitrage section arbitrage representation election connection issuance incurrence bond borrower hereby represents certifies warrant follows borrower entered contract third party acquisition construction equipping project obligating expenditure excess net sale proceeds bond borrower proceed due diligence completing project allocating net sale proceeds bond expenditure b borrower use reasonable consistently applied accounting method account gross proceeds investment expenditure bond borrower shall additionally use consistently applied accounting method allocating proceeds bond expenditure subject current outlay cash rule c borrower shall commingle proceeds bond fund allocation net proceeds bond reimbursement portion cost project made completed date issuance declaration official intent required section regulation page respect net proceeds bond used reimburse borrower certain capital expenditure made connection project attached hereto exhibit e borrower issuer reasonably expect net sale proceeds bond used complete project within three year date issuance proceeds bond invested nonpurpose investment substantially guaranteed yield four year borrower reasonably expects net sale proceeds bond deposited escrow fund expended accordance schedule contained arbitrage certificate executed delivered issuer connection issuance incurrence delivery bond f fund account established pursuant indenture invested pursuant arbitrage certificate executed issuer date issuance g borrower enter abusive arbitrage devise proceeds invested certificate deposit pursuant investment contract certificate deposit borrower obtain provide trustee certification form attached hereto exhibit b h borrower hereby make issuer hereby accepts following election choice pursuant regulation respect bond borrower elect bond year stated definition bond year ii borrower elect avail unrestricted yield investment granted regulation temporary period reasonably required reserve bond fu</t>
   </si>
   <si>
     <t>onecle hom e sample business contract oilgear co contract printer friendly sample business contract tax regulatory agreement norwest bank wisconsin na county dodge nebraska oilgear co popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link execution copy tax regulatory agreement among norwest bank wisconsin national association trustee county dodge nebraska issuer oilgear company borrower dated october page table content page article definition section definition section reliance borrower information article ii certain representation borrower section description project description facility section capital expenditure section prior issue million limit section federal tax return information section composite issue section prohibited us section composite project section acquisition existing property section land acquisition limit acquisition farmland section representation borrower purpose irs form article iii use bond proceeds section anticipated use proceeds section ce rtification cost project section change use proceeds article iv arbitrage section arbitrage representation election section arbitrage compliance section calculation rebate amount section payment united state section recordkeeping section rebate analyst page article v compliance code article vi term tax regulatory agreement article vii amendment article viii event default remedy section event default section remedy event default exhibit source us fund exhibit b form dealer certification bona fide bid price certificate deposit exhibit b form dealer certification certificate deposit active secondary market exists exhibit b form p rovider certification certificate deposit exhibit b form provider certification investment contract exhibit b form borrower certification certificate deposit involving three bid exhibit b form borr owers certification investment contract involving three bid exhibit c useful life property financed refinanced bond exhibit declaration official intent ii page tax regulatory agreement tax regulatory agreement made dated october tax regulatory agreement among county dodge nebraska successor assigns issuer norwest bank wisconsin national association national banking association successor assigns trustee oilgear compa ny wisconsin corporation successor assigns borrower w n e e h whereas pursuant accordance provision nebraska industrial development act chapter article r eissue revised statute nebraska amended act issuer proposes finance issuance industrial revenue bond issuer cost acquisition improvement portion addition borrower existing hydraulic pump manufacturing facility located dodge county nebraska acquisition installation equipment facility project portion addition equipment constitute project within meaning act addit ion constructed within jurisdiction issuer operated borrower whereas issuer undertaken finance acquisition improvement project leasing project borrower providing proceeds sale bond borrower pursuant provision lease agreement dated date hereof agreement issuer borrower whereas determined estimated amount necessary finance cost acquisition improvement project including necessary expense incidental thereto require issuance sale delivery county dodge nebraska variable rate demand industrial development revenue bond series oilgear company project principal amount bond provided trust indenture dated date hereof indenture together issuance bond respect duly validly authorized resolution board supervisor issuer adopted october pursuant act whereas tax regulatory agreement entered issuer borrower trustee ensure compliance provision th e internal revenue code amended code income tax regulation promulgated thereunder regulation whereas ensure interest bond remain excludable gross income code strictions listed tax regulatory agreement must satisfied page therefore issuer borrower trustee hereby agree follows article definition section definition following word phrase shall following meaning capitalized word term used herein defined herein shall meaning given hereinafter defined agreement abusive arbitrage device mean action effect enabling issuer borrower exploit difference taxable taxexempt interest rate obtain material financial advantage b overburdening tax exempt bond market defined section regulation accounting method mean overall method used account gross proceeds bond eg cash method modified accrual method method used account allocate particular item within overall accounting method eg accounting investment expenditure allocation different source particular item foregoing average economic life mean average reasonably expected e conomic life project defined section b code average maturity mean average maturity bond defined section b code bond year mean period commencing october calendar year terminating september immediately succeeding calendar year term bond except first bond year shall commence date issuance end september unless different period required regulation selected borrower pursuant regulation bond yield mean yield bond calculated accordance section regulation capital expenditure mean cost type acquisition construction reconstruction improvement land property character subject allowance depreciation example cost incurred acquire construct reconstruct improve land building equipment generally capital expenditure whether expenditure capital expenditure determined time expenditure paid respect property future change law n ot affect whether expenditure capital expenditure page capital project mean capital expenditure carry governmental purpose bond example capital project may include capital expenditure one building improvement equipment plus related capitalized interest paid accrued prior service date capital project class investment mean one following represents different class investment category yield restricted purpose investment program investment defined section lb subject different definition materially higher yield section b yield restricted nonpurpose investment c nonpurpose investment computation date mean installment computation date th e final computation date computation date credit mean last day bond year gross proceeds subject rebate requirement article iv hereof final computation date amount consistently applied mean applied uniformly within fiscal period fiscal period account gross proceeds issue amount commingled fund cost issuance mean cost incurred connection issuan ce incurrence bond fee paid behalf credit enhancer fee qualified guarantee defined section f regulation issuer portion higher yield permitted agreement se ction regulation example cost issuance include limited underwriter spread whether realized directly derived purchase bond discount price substantial number bond sold public b counsel fee including bond counsel special tax counsel underwriter counsel issuer counsel borrower counse l trustee counsel specialized counsel fee incurred connection issuance incurrence bond c financial advisor fee incurred connection issuance incurrence bond page rating agency fee except fee paid connection part fee credit enhancement bond e trustee fee incurred connection issuance incurrence bond f accountant fee incurred connection issuance incurrence bond g printing cost bond preliminary final official statement h cost incurred connection required public approval process eg publication cost public notice generally cost public hearing issuer fee cover administrative cost expense incurred connection issuance incurrence bond current outlay cash mean outlay reasonably expected occur later five banking day date allocation gross proceeds expenditure made date issuance mean october discharge mean respect bond date amount due respect bond actually unconditionally due cash available place payment interest accrues respect bond date economic accrual method also known constant interest method actuarial method mean method computing yield based compounding interest end compounding period exempt person mean organization described section c code state local governmental unit state expenditure mean book record entry allocates proceeds bond connection current outlay cash fair market value mean price willing buyer would purchase investment willing seller bona fide arm length transaction fair market value generally determined date contract purchase sell nonpurpose investment becomes binding ie trade date rather sett lement date except otherwise provided definition investment type traded established security market within meaning section code rebuttably presumed page acquired disposed price equal fair market value fair market value united state treasury obligation purchased directly united state treasury purchase price following guideline shall apply purpose determining fair market value obligation described certificate deposit purchase certificate deposit fixed interest rate fixed payment schedule ubstantial penalty early withdrawal deemed investment purchased fair market value purchase date yield certificate deposit less yield reasonably comparable direct obligation united state ii highest yield published posted provider currently available provider reasonably comparable certificate deposit offered public b guaranteed investment contract guaranteed investment contract nonpurpose investment specifically negotiated withdrawal reinvestment provision specifically neg otiated interest rate also includes agreement supply investment two future date eg forward supply contract purchase price guaranteed investment contract treated fair market value purchase date borrower make bona fide solicitation specified guaranteed investment contract receives least three bona fide bid provider material financial interest issue eg underwriter broker ii borrower purchase highest yielding guaranteed investment contract qualifying bid made determined net broker fee iii th e yield guaranteed investment contract determined net broker fee less yield available provider reasonably comparable guaranteed investment contract offered person source fund gross proceeds tax exempt bond iv determination term guaranteed investment contract take account significant factor borrower reasonably expected drawdown schedule amount invested exclusive amount deposited debt service fund reasonably required reserve replacement fund v term guaranteed investment contract including collateral security requirement reasonable page vi obligor guaranteed investment contract certifies administrative cost paying expects pay third party connection guaranteed investment contract final computation date mean date th e bond discharged future value mean value receipt payment end interval determined using economic accrual method equal value payment receipt paid received treated paid received plus interest assumed earned compounded period rate equal yield bond using compounding interval financial convention used compute yield bond gross proceeds mean proceeds replacement proceeds bond installment computation date mean last day fifth bond year succeeding fifth bo nd year stated section hereof investment mean purpose investment nonpurpose investment including tax exempt bond investment proceeds mean amount actually constructively received investing proceeds bond investment type property mean property property described section ba b c e code held principally passive vehicle production income except otherwise provided prep ayment property service investment type property principal purpose prepaying receive investment return time prepayment made time payment otherwise would made prepayment investment type pro perty prepayment made substantial business purpose investment return issuer commercially reasonable alternative prepayment b prepayment substantially ame term made substantial percentage person similarly situated issuer beneficiary tax exempt financing issue price mean except otherwise provided issue price defined section code generally issue price bond publicly offered first pace substantial amount bond sold publ ic ten percent substantial amount public include bond house broker similar person organization acting capacity underwriter wholesaler issue price change part issue later sold different price issue price bond page substantially identical determined separately issue price bond bona fide public offering made determined sale date based upon reasonable expectation regarding initial public offering price bond issued property applicable federal taxexempt rate used lieu federal rate determining issue price section code issue price bond may exceed fair market value sale date respect bond issue price manufacturing facility mean capital project used manufacturing production tangible personal property including processing resulting change condition property including facility directly related ancillary manufacturing facility directly related ancillary facility located site manufacturing facility proceeds issue finance manufacturing facility directly related ancillary facility u sed provide facility net sale proceeds mean sale proceeds less portion sale proceeds invested reasonably required reserve replacement fund section code part minor portion section e code code mean internal revenue code amended effect effective date code nonpurpose investment mean security obligation annuity contract investment type property defined se ction b code including specified private activity bond defined section ac code excluding obligation interest excludable federal gross income term nonpurpose investment include borrower obligation make payment issuer pursuant provision agreement payment mean purpose computing rebate amount amount actually constructively paid acquire nonpurpose investment treated paid commingled fund b nonpurpose investment allocated issue date actually acquired eg investment becomes allocable transferred proceeds replacement proceeds becomes sub ject rebate requirement code date actually acquired eg investment allocated reasonably required reserve replacement fund construction issue end two year spending period value investment date c nonpurpose investment allocated issue end preceding computation period value investment beginning computation period last day bond year amount allocated gross proceeds issue subject rebate requirement code final maturity date computation date credit e yield reduction payment nonpurpose investment made pursuant section c regulation purpose computing yield investment including value investment payment mean amount actually constructively paid acquire investment page provided however payment made conduit borrower borrower treated paid conduit borrower cease receive benefit earnings amount payment investment including guaranteed investment contract adjusted qualified administrative cost acquiring nonpurpose investment preissuance accrued interest mean amount representing interest accrued bligation period greater one year date issuance amount paid within one year date issuance principal user mean person principal owner principal lessee principal output purchaser principal user related person principal user principal owner person time hold ownership terest value facility person hold ownership interest person person case multiple equal owner hold largest ownership interest facility person treated holding owner hip interest person owner federal income tax purpose generally principal lessee person time lease facility disregarding portion used lessee short term lease portion facility leased lessee generally determined reference fair rental value short term lease one term one year less taking account option renew reasonably anticipated renewal principal output purch aser person purchase output facility unless total output purchased person one year period beginning date facility facility output period principal user person enjoys use facility short term use degree comparable enjoyment principal owner principal lessee taking account relevant fact circumstance person participation control ove r use facility remote proximate geographic location prior issue mean issue tax exempt obligation whether issuer issue section b code section co de applies proceeds mean sale proceeds investment proceeds transferred proceeds issue proceeds include however amount actually constructively received respect purpose investment properly allocable immaterially higher yield section regulation section g code qualified administrative cost recoverable secti e regulation project meaning given term preamble hereto purpose investment mean investment acquired carry governmental purpose issue agreement constitute purpose investment qualified administrative cost mean reasonable direct administrative cost carrying cost separately stated brokerage selling commission legal page accounting fee recordkeeping custody similar cost general overhead cost similar indirect cost issuer employee salary office expense cost associated computing rebate amount qualified administrativ e cost general administrative cost reasonable unless comparable administrative cost would charged investment reasonably comparable investment acquired source fund gross proceed tax exempt bond qualified hedging transaction mean contract meet requirement section h regulation rebate amount mean excess future value receipt nonpurpose investment future value payment nonpurpose investment future value computed computation date rebate amount additionally includes ny penalty interest underpayment reduced recovery overpayment rebate analyst shall mean entity chosen borrower issuer accordance section hereof determine amount required deposit rebate fund rebate fund mean rebate fund established pursuant indenture receipt mean purpose computing rebate amount amount actually constructively received nonpurpose investment including amount treate received commingled fund earnings return principal b nonpurpose investment cease allocated issue disposition redemption date eg investment becomes allocable transferred pr oceeds another issue cease allocable issue pursuant universal cap section regulation cease subject rebate requirement code date earlier disposition redempt ion date eg investment allocated fund initially subject rebate requirement code subsequently qualifies bona fide debt service fund value nonpurpose investment date c nonpurpose inve stment held end computation period value investment end period purpose computing yield investment receipt mean amount actually constructively received investment earnings return principal including value investment receipt investment including guaranteed investme nt contract adjusted reduced qualified administrative cost recomputation event mean transfer waiver modification similar transaction right part term bond qualified hedging transaction entere terminated connection bond regulation regulation mean temporary proposed final income tax regulation promulgated department treasury applicable bond including section throug h section section page related person mean person relationship person would result disallowance loss section b code b person member controlled group corporation defined section code except shall substituted least place appears therein replacement proceeds mean amount sufficiently direct nexus bond governmental purpose bond conclude amount would used governmental purpose proceeds bond used used governmental purpose fully defined section lc regulation sale proceeds mean amount actually constructively received sale bond including amount used pay underwriter di scount compensation accrued interest pre issuance accrued interest slgs mean united state treasury certificate indebtedness note bond state local government series special tax counsel mean law firm natio nally recognized bond counsel requested deliver approving opinion respect issuance incurrence exclusion federal income taxation interest bond tax regulatory agreement mean tax regulatory greement testperiod beneficiary mean person owner principal user facility financed issue issue tax exempt obligation issued code code three year period beginning later date facility placed service date issuance issue issue tax exempt obligation purpose determining whether person test period beneficiary person related person shall treated one person transferred proceeds mean proceeds refunding issue become transferred proceeds refunding issue cease proceeds prior issue proceeds refunding issue discharge outstanding principal amount prior issue amount proceeds prior issue become transferred proceeds refunding issue amount equal proceeds pr ior issue date discharge multiplied fraction numerator principal amount prior issue discharged proceeds refunding issue date discharge b den ominator total outstanding principal amount prior issue date immediately date discharge page universal cap mean value standing bond value mean value determined section e regulation bond value determined section regulation investment yield mean purpose determining yield bond yield computed economic accrual method using consistently applied compounding interval one year short first compounding interval short last compoun ding interval may used yield expressed annual percentage rate calculated least four decimal place eg reasonable standard financial convention day per month day per year convention ay used computing yield must consistently applied yield issue would purpose investment absent section ba code equal yield conduit financing issue financed purpose investment yield fixed yield issue discount rate used computing present value issue date unconditionally payable payment principal interest fee qualified guarantee issue amount reasonably e xpected paid fee qualified guarantee issue produce amount equal present value using discount rate aggregate issue price bond issue issue date case obligation purchased sold substantial discount premium regulation prescribe certain special yield calculation rule purpose determining yield investment yield computed economic accrual method using compounding interval financial convention used compute yield bond yield investment allocated bond discount rate used computing present value date investment first allocated issue al l unconditionally payable receipt investment produce amount equal present value unconditionally payable payment investment yield investment shall adjusted hedging transaction entered connection investment unless issuer trustee borrower received opinion special tax counsel adjustment permitted regulation yield shall calculated separately class investment yield reduction payment mean payment united state respect investment treated payment investment reduces yield investment accordance section c regulation yield reduction payment include rebate amount paid united state section reliance borrower information special tax counsel trustee issuer shall permitted rely content certification document instruction provided pursuant tax regulatory agreement shall responsible liable way accuracy content failure borrower deliver required information page article ii certain representation borrower section description project description facility borrower hereby represents warrant benefit issuer trustee description project set forth preamble hereto exhibit agreement true accurate b borrower represents covenant benefit issuer trustee project constitutes manufacturing facility facility directly related ancillary manufacturing facility c portion project constitutes office space serf solely manufact uring portion project site manufacturing portion project financed net proceeds bond section capital expenditure period beginning three year befor e date issuance ending date issuance aggregate amount capital expenditure including expenditure could treated capital expenditure rule election code paid incurred exc luding paid reimbursed proceeds bond respect facility located incorporated municipality unincorporated county project located ii principal user borrower principal user project related person thereto set forth exhibit e hereto b period beginning date issuance ending date three year date issuance aggregate amount capital expenditure including expenditure could treated capital expenditure rule election code expected incurred excluding paid reimbursed proceeds bond respect facility located incorporated municipality unincorporated county project located ii principal user borrower principal user project related person theret anticipated set forth exhibit e hereto c amount capitalized interest paid financing project excluding paid proceeds bond amount capitalized interest b e paid connection project paid proceeds bond borrower covenant sum capital expenditure described paragraph plus ii actual capital expenditure incurred describe paragraph b c plus iii aggregate outstanding amount exempt small issue set forth section plus iv greater issue price par amount bond shall exceed page e information contained subsection b c provided issuer enable issuer elect qualify bond exemption aff orded section code true accurate complete issuer hereby elect issue bond pursuant exemption afforded section code f project sold leased use otherwise transferred person borrower principal user project related person thereto identified date issuance threeyear period ending three yea r date issuance unless borrower received approving opinion special tax counsel effect sale lease transfer adversely affect tax exempt status bond section prior issue mill ion limit aggregate face amount prior issue outstanding date issuance proceeds used extent respect facility located incorporated municipality unincorporated county project located principal user project borrower principal user project related person thereto b aggregate face amount prior issue exempt facility bond qualified redevelopment bond industrial development bond defined code code outstanding date issuance proceeds used allocated borrower principal user project related pe rson thereto test period beneficiary section federal tax return information project sic code number borrower file federal income tax return internal revenue service center kansa city miss ouri federal employer identification number borrower section composite issue period beginning day prior sale date bond ending day thereafter none borrower principal user project related person thereto sold guaranteed arranged participated assisted borrowed proceeds leased facility f inanced obligation issued section code section code state local governmental unit constituted authority empowered issue obligation behalf state local governmental unit b period commencing date issuance ending day thereafter obligation sold issued section code code guaranteed borrower principal user project related person issued assistance participation arrangement borrower principal user project related person without written opinion special tax counsel effect issuance r incurrence obligation page adversely affect opinion exclusion gross income federal income tax purpose interest respect bond c borrower principal user project related person person related person person guaranteed arranged participated assisted issuance incurrence paid portion co sts issuance bond ii provided property franchise trademark trade name within meaning section code used connection project section prohibited us portion p roceeds bond used provide facility purpose retail food beverage service automobile sale service provision recreation entertainment portion proceeds bond used provide private commercial golf course country club health club massage parlor tennis club skating facility including roller skating skateboarding ice skating racquet sport facility including handball squash racquetball court hot tub facility suntan facility racetrack skybox luxury box airplane store principal business sale alcoholic beverage consumption premise facility used primarily gambling portion proceeds bond used directly indirectly provide residential real property single multifamily unit section composite project project stand alone manufacturing facility unconnected facility share portion substantial common facility building b enclosed shopping mall c strip office store warehouse section acquisition existing property borrower expect use proceeds bond pay cost acquisition real personal property land interest therein first use pursuant acquisition proceeds bond shown exhibit amount equal proceeds bond expected used purchase existing property proceeds bond used purchase su ch existing property borrower meet rehabilitation requirement section rehabilitation improvement project within two year period following later date issuance date existing property acquired section land acquisition limit acquisition farmland amount proceeds bond expended land exceed less proceeds bond b portion procee d bond used directly indirectly acquisition land interest therein used purpose farming page section representation borrower purpo s irs form section e code requires condition qualification tax exemption issuer provide secretary treasury certain information respect bond application proceeds derived following representation borrower relied upon issuer bond counsel satisfying information reporting requirement accordingly borrower hereby represents covenant warrant best knowledge benefit issuer bond counsel registered owner bond truth accuracy c issuer employer identification number b number report previously filed issuer calendar year none c issue price bond proceeds used accrued interest e cost issuance including underwriter discount f reasonably required reserve fund deposit g proceeds used credit enhancement h proceeds used refund prior issue nonrefunding proceeds j date final maturity bond k interest rate final maturity bond vr issue price final maturity bond issue price entire issue bond n stated redemption price maturity final maturity bond stated redemption price maturity entire issue bond p weighted average maturity entire issue bond year q yield entire issue bond vr r net interest cost entire issue bond vr standard industrial classification code project type property financed nonrefunding proceeds bond land building equipment recovery period five year equipment recovery period five year less rehabilitation total page article iii use bond proceeds section anticipated use proceeds borrower covenant represents warrant benefit issuer truste e proceeds bond used manner set forth agreement proceeds bond invested accordance indenture section certification cost project borrower hereby certifies respect amount shown exhibit agreement amount consist cost directly related necessary financing project section change use proceeds company determines less proceeds bond used respect project required section code change use project occurs project would longer qualify financing section code company call bond establish defeasance escrow retirement bond amount time required pursuant section regulation article iv arbitrage section arbitrage representation election connection issuance incurrence bond borrower hereby represents certifies warran t follows borrower entered contract third party acquisition construction equipping project obligating expenditure excess net sale proceeds bond borrower proceed due diligence completing project allocating net sale proceeds bond expenditure b borrower use reasonable consistently applied accounting method account gross proceeds investment expenditure bond borrower shall additionally use consistently applied accounting method allocating proceeds bond expenditure subjec current outlay cash rule c borrower shall commingle proceeds bond fund allocation net proceeds bond reimbursement portion cost project made completed date issuance declaration official intent required section regulation page respect net proceeds bond used reimburse borrower certain capital expenditure made connection project attached hereto exhibit e borrower issuer reasonably expect net sale proceeds bond used complete project within three year date issuance proceeds bond invested nonpurpose investment substantially guaranteed yield four year borrower reasonably expects net sale proceeds bond deposited escrow fund expended accordance schedule contained arbitrage certificate executed delivered issuer connection issuance incurrence delivery bond f fund account established pursuant indenture invested pursuant arbitrage certificate executed issuer date issuance g borrower enter abusive arbitra ge devise proceeds invested certificate deposit pursuant investment contract certificate deposit borrower obtain provide trustee certification form attached hereto exhibit b h borrower hereby make issuer hereby accepts following election choice pursuant regulation respect bond borrower elect bond year stated definition bond year ii borrower</t>
   </si>
   <si>
-    <t>onecle hom e sample business contract oilgear co contract printer friendly sample business contract tax regulatory agreement norwest bank wisconsin na county dodge nebraska oilgear co popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link execution copy tax regulatory agreement among norwest bank wisconsin national association trustee county dodge nebraska issuer oilgear company borrower dated october page table content page article definition section definition section reliance borrower information article ii certain representation borrower section description project description facility section capital expenditure section prior issue million limit section federal tax return information section composite issue section prohibited us section composite project section acquisition existing property section land acquisition limit acquisition farmland section representation borrower purpose irs form article iii use bond proceeds section anticipated use proceeds section certification cost project section change use proceeds article iv arbitrage section arbitrage representation election section arbitrage compliance section calculation rebate amount section payment united state section recordkeeping section rebate analyst page article v compliance code article vi term tax regulatory agreement article vii amendment article viii event default remedy section event default section remedy event default exhibit source us fund exhibit b form dealer certification bona fide bid price certificate deposit exhibit b form dealer certification certificate deposit active secondary market exists exhibit b form provider certification certificate deposit exhibit b form provider certification investment contract exhibit b form borrower certification certificate deposit involving three bid exhibit b form borrower certification investment contract involving three bid exhibit c useful life property financed refinanced bond exhibit declaration official intent ii page tax regulatory agreement tax regulatory agreement made dated october tax regulatory agreement among county dodge nebraska successor assigns issuer norwest bank wisconsin national association national banking association successor assigns trustee oilgear company wisconsin corporation successor assigns borrower w n e e h whereas pursuant accordance provision nebraska industrial development act chapter article reissue revised statute nebraska amended act issuer proposes finance issuance industrial revenue bond issuer cost acquisition improvement portion addition borrower existing hydraulic pump manufacturing facility located dodge county nebraska acquisition installation equipment facility project portion addition equipment constitute project within meaning act addition constructed within jurisdiction issuer operated borrower whereas issuer undertaken finance acquisition improvement project leasing project borrower providing proceeds sale bond borrower pursuant provision lease agreement dated date hereof agreement issuer borrower whereas determined estimated amount necessary finance cost acquisition improvement project including necessary expense incidental thereto require issuance sale delivery county dodge nebraska variable rate demand industrial development revenue bond series oilgear company project principal amount bond provided trust indenture dated date hereof indenture together issuance bond respect duly validly authorized resolution board supervisor issuer adopted october pursuant act whereas tax regulatory agreement entered issuer borrower trustee ensure compliance provision internal revenue code amended code income tax regulation promulgated thereunder regulation whereas ensure interest bond remain excludable gross income code restriction listed tax regulatory agreement must satisfied page therefore issuer borrower trustee hereby agree follows article definition section definition following word phrase shall following meaning capitalized word term used herein defined herein shall meaning given hereinafter defined agreement abusive arbitrage device mean action effect enabling issuer borrower exploit difference taxable taxexempt interest rate obtain material financial advantage b overburdening tax exempt bond market defined section regulation accounting method mean overall method used account gross proceeds bond eg cash method modified accrual method method used account allocate particular item within overall accounting method eg accounting investment expenditure allocation different source particular item foregoing average economic life mean average reasonably expected economic life project defined section b code average maturity mean average maturity bond defined section b code bond year mean period commencing october calendar year terminating september immediately succeeding calendar year term bond except first bond year shall commence date issuance end september unless different period required regulation selected borrower pursuant regulation bond yield mean yield bond calculated accordance section regulation capital expenditure mean cost type acquisition construction reconstruction improvement land property character subject allowance depreciation example cost incurred acquire construct reconstruct improve land building equipment generally capital expenditure whether expenditure capital expenditure determined time expenditure paid respect property future change law affect whether expenditure capital expenditure page capital project mean capital expenditure carry governmental purpose bond example capital project may include capital expenditure one building improvement equipment plus related capitalized interest paid accrued prior service date capital project class investment mean one following represents different class investment category yield restricted purpose investment program investment defined section lb subject different definition materially higher yield section b yield restricted nonpurpose investment c nonpurpose investment computation date mean installment computation date final computation date computation date credit mean last day bond year gross proceeds subject rebate requirement article iv hereof final computation date amount consistently applied mean applied uniformly within fiscal period fiscal period account gross proceeds issue amount commingled fund cost issuance mean cost incurred connection issuance incurrence bond fee paid behalf credit enhancer fee qualified guarantee defined section f regulation issuer portion higher yield permitted agreement section regulation example cost issuance include limited underwriter spread whether realized directly derived purchase bond discount price substantial number bond sold public b counsel fee including bond counsel special tax counsel underwriter counsel issuer counsel borrower counsel trustee counsel specialized counsel fee incurred connection issuance incurrence bond c financial advisor fee incurred connection issuance incurrence bond page rating agency fee except fee paid connection part fee credit enhancement bond e trustee fee incurred connection issuance incurrence bond f accountant fee incurred connection issuance incurrence bond g printing cost bond preliminary final official statement h cost incurred connection required public approval process eg publication cost public notice generally cost public hearing issuer fee cover administrative cost expense incurred connection issuance incurrence bond current outlay cash mean outlay reasonably expected occur later five banking day date allocation gross proceeds expenditure made date issuance mean october discharge mean respect bond date amount due respect bond actually unconditionally due cash available place payment interest accrues respect bond date economic accrual method also known constant interest method actuarial method mean method computing yield based compounding interest end compounding period exempt person mean organization described section c code state local governmental unit state expenditure mean book record entry allocates proceeds bond connection current outlay cash fair market value mean price willing buyer would purchase investment willing seller bona fide arm length transaction fair market value generally determined date contract purchase sell nonpurpose investment becomes binding ie trade date rather settlement date except otherwise provided definition investment type traded established security market within meaning section code rebuttably presumed page acquired disposed price equal fair market value fair market value united state treasury obligation purchased directly united state treasury purchase price following guideline shall apply purpose determining fair market value obligation described certificate deposit purchase certificate deposit fixed interest rate fixed payment schedule substantial penalty early withdrawal deemed investment purchased fair market value purchase date yield certificate deposit less yield reasonably comparable direct obligation united state ii highest yield published posted provider currently available provider reasonably comparable certificate deposit offered public b guaranteed investment contract guaranteed investment contract nonpurpose investment specifically negotiated withdrawal reinvestment provision specifically negotiated interest rate also includes agreement supply investment two future date eg forward supply contract purchase price guaranteed investment contract treated fair market value purchase date borrower make bona fide solicitation specified guaranteed investment contract receives least three bona fide bid provider material financial interest issue eg underwriter broker ii borrower purchase highest yielding guaranteed investment contract qualifying bid made determined net broker fee iii yield guaranteed investment contract determined net broker fee less yield available provider reasonably comparable guaranteed investment contract offered person source fund gross proceeds tax exempt bond iv determination term guaranteed investment contract take account significant factor borrower reasonably expected drawdown schedule amount invested exclusive amount deposited debt service fund reasonably required reserve replacement fund v term guaranteed investment contract including collateral security requirement reasonable page vi obligor guaranteed investment contract certifies administrative cost paying expects pay third party connection guaranteed investment contract final computation date mean date bond discharged future value mean value receipt payment end interval determined using economic accrual method equal value payment receipt paid received treated paid received plus interest assumed earned compounded period rate equal yield bond using compounding interval financial convention used compute yield bond gross proceeds mean proceeds replacement proceeds bond installment computation date mean last day fifth bond year succeeding fifth bond year stated section hereof investment mean purpose investment nonpurpose investment including tax exempt bond investment proceeds mean amount actually constructively received investing proceeds bond investment type property mean property property described section ba b c e code held principally passive vehicle production income except otherwise provided prepayment property service investment type property principal purpose prepaying receive investment return time prepayment made time payment otherwise would made prepayment investment type property prepayment made substantial business purpose investment return issuer commercially reasonable alternative prepayment b prepayment substantially term made substantial percentage person similarly situated issuer beneficiary tax exempt financing issue price mean except otherwise provided issue price defined section code generally issue price bond publicly offered first pace substantial amount bond sold public ten percent substantial amount public include bond house broker similar person organization acting capacity underwriter wholesaler issue price change part issue later sold different price issue price bond page substantially identical determined separately issue price bond bona fide public offering made determined sale date based upon reasonable expectation regarding initial public offering price bond issued property applicable federal taxexempt rate used lieu federal rate determining issue price section code issue price bond may exceed fair market value sale date respect bond issue price manufacturing facility mean capital project used manufacturing production tangible personal property including processing resulting change condition property including facility directly related ancillary manufacturing facility directly related ancillary facility located site manufacturing facility proceeds issue finance manufacturing facility directly related ancillary facility used provide facility net sale proceeds mean sale proceeds less portion sale proceeds invested reasonably required reserve replacement fund section code part minor portion section e code code mean internal revenue code amended effect effective date code nonpurpose investment mean security obligation annuity contract investment type property defined section b code including specified private activity bond defined section ac code excluding obligation interest excludable federal gross income term nonpurpose investment include borrower obligation make payment issuer pursuant provision agreement payment mean purpose computing rebate amount amount actually constructively paid acquire nonpurpose investment treated paid commingled fund b nonpurpose investment allocated issue date actually acquired eg investment becomes allocable transferred proceeds replacement proceeds becomes subject rebate requirement code date actually acquired eg investment allocated reasonably required reserve replacement fund construction issue end two year spending period value investment date c nonpurpose investment allocated issue end preceding computation period value investment beginning computation period last day bond year amount allocated gross proceeds issue subject rebate requirement code final maturity date computation date credit e yield reduction payment nonpurpose investment made pursuant section c regulation purpose computing yield investment including value investment payment mean amount actually constructively paid acquire investment page provided however payment made conduit borrower borrower treated paid conduit borrower cease receive benefit earnings amount payment investment including guaranteed investment contract adjusted qualified administrative cost acquiring nonpurpose investment preissuance accrued interest mean amount representing interest accrued obligation period greater one year date issuance amount paid within one year date issuance principal user mean person principal owner principal lessee principal output purchaser principal user related person principal user principal owner person time hold ownership interest value facility person hold ownership interest person person case multiple equal owner hold largest ownership interest facility person treated holding ownership interest person owner federal income tax purpose generally principal lessee person time lease facility disregarding portion used lessee short term lease portion facility leased lessee generally determined reference fair rental value short term lease one term one year less taking account option renew reasonably anticipated renewal principal output purchaser person purchase output facility unless total output purchased person one year period beginning date facility facility output period principal user person enjoys use facility short term use degree comparable enjoyment principal owner principal lessee taking account relevant fact circumstance person participation control use facility remote proximate geographic location prior issue mean issue tax exempt obligation whether issuer issue section b code section code applies proceeds mean sale proceeds investment proceeds transferred proceeds issue proceeds include however amount actually constructively received respect purpose investment properly allocable immaterially higher yield section regulation section g code qualified administrative cost recoverable section e regulation project meaning given term preamble hereto purpose investment mean investment acquired carry governmental purpose issue agreement constitute purpose investment qualified administrative cost mean reasonable direct administrative cost carrying cost separately stated brokerage selling commission legal page accounting fee recordkeeping custody similar cost general overhead cost similar indirect cost issuer employee salary office expense cost associated computing rebate amount qualified administrative cost general administrative cost reasonable unless comparable administrative cost would charged investment reasonably comparable investment acquired source fund gross proceeds tax exempt bond qualified hedging transaction mean contract meet requirement section h regulation rebate amount mean excess future value receipt nonpurpose investment future value payment nonpurpose investment future value computed computation date rebate amount additionally includes penalty interest underpayment reduced recovery overpayment rebate analyst shall mean entity chosen borrower issuer accordance section hereof determine amount required deposit rebate fund rebate fund mean rebate fund established pursuant indenture receipt mean purpose computing rebate amount amount actually constructively received nonpurpose investment including amount treated received commingled fund earnings return principal b nonpurpose investment cease allocated issue disposition redemption date eg investment becomes allocable transferred proceeds another issue cease allocable issue pursuant universal cap section regulation cease subject rebate requirement code date earlier disposition redemption date eg investment allocated fund initially subject rebate requirement code subsequently qualifies bona fide debt service fund value nonpurpose investment date c nonpurpose investment held end computation period value investment end period purpose computing yield investment receipt mean amount actually constructively received investment earnings return principal including value investment receipt investment including guaranteed investment contract adjusted reduced qualified administrative cost recomputation event mean transfer waiver modification similar transaction right part term bond qualified hedging transaction entered terminated connection bond regulation regulation mean temporary proposed final income tax regulation promulgated department treasury applicable bond including section section section page related person mean person relationship person would result disallowance loss section b code b person member controlled group corporation defined section code except shall substituted least place appears therein replacement proceeds mean amount sufficiently direct nexus bond governmental purpose bond conclude amount would used governmental purpose proceeds bond used used governmental purpose fully defined section lc regulation sale proceeds mean amount actually constructively received sale bond including amount used pay underwriter discount compensation accrued interest pre issuance accrued interest slgs mean united state treasury certificate indebtedness note bond state local government series special tax counsel mean law firm nationally recognized bond counsel requested deliver approving opinion respect issuance incurrence exclusion federal income taxation interest bond tax regulatory agreement mean tax regulatory agreement testperiod beneficiary mean person owner principal user facility financed issue issue tax exempt obligation issued code code three year period beginning later date facility placed service date issuance issue issue tax exempt obligation purpose determining whether person test period beneficiary person related person shall treated one person transferred proceeds mean proceeds refunding issue become transferred proceeds refunding issue cease proceeds prior issue proceeds refunding issue discharge outstanding principal amount prior issue amount proceeds prior issue become transferred proceeds refunding issue amount equal proceeds prior issue date discharge multiplied fraction numerator principal amount prior issue discharged proceeds refunding issue date discharge b denominator total outstanding principal amount prior issue date immediately date discharge page universal cap mean value outstanding bond value mean value determined section e regulation bond value determined section regulation investment yield mean purpose determining yield bond yield computed economic accrual method using consistently applied compounding interval one year short first compounding interval short last compounding interval may used yield expressed annual percentage rate calculated least four decimal place eg reasonable standard financial convention day per month day per year convention may used computing yield must consistently applied yield issue would purpose investment absent section ba code equal yield conduit financing issue financed purpose investment yield fixed yield issue discount rate used computing present value issue date unconditionally payable payment principal interest fee qualified guarantee issue amount reasonably expected paid fee qualified guarantee issue produce amount equal present value using discount rate aggregate issue price bond issue issue date case obligation purchased sold substantial discount premium regulation prescribe certain special yield calculation rule purpose determining yield investment yield computed economic accrual method using compounding interval financial convention used compute yield bond yield investment allocated bond discount rate used computing present value date investment first allocated issue unconditionally payable receipt investment produce amount equal present value unconditionally payable payment investment yield investment shall adjusted hedging transaction entered connection investment unless issuer trustee borrower received opinion special tax counsel adjustment permitted regulation yield shall calculated separately class investment yield reduction payment mean payment united state respect investment treated payment investment reduces yield investment accordance section c regulation yield reduction payment include rebate amount paid united state section reliance borrower information special tax counsel trustee issuer shall permitted rely upon content certification document instruction provided pursuant tax regulatory agreement shall responsible liable way accuracy content failure borrower deliver required information page article ii certain representation borrower section description project description facility borrower hereby represents warrant benefit issuer trustee description project set forth preamble hereto exhibit agreement true accurate b borrower represents covenant benefit issuer trustee project constitutes manufacturing facility facility directly related ancillary manufacturing facility c portion project constitutes office space serf solely manufacturing portion project site manufacturing portion project financed net proceeds bond section capital expenditure period beginning three year date issuance ending date issuance aggregate amount capital expenditure including expenditure could treated capital expenditure rule election code paid incurred excluding paid reimbursed proceeds bond respect facility located incorporated municipality unincorporated county project located ii principal user borrower principal user project related person thereto set forth exhibit e hereto b period beginning date issuance ending date three year date issuance aggregate amount capital expenditure including expenditure could treated capital expenditure rule election code expected incurred excluding paid reimbursed proceeds bond respect facility located incorporated municipality unincorporated county project located ii principal user borrower principal user project related person thereto anticipated set forth exhibit e hereto c amount capitalized interest paid financing project excluding paid proceeds bond amount capitalized interest paid connection project paid proceeds bond borrower covenant sum capital expenditure described paragraph plus ii actual capital expenditure incurred described paragraph b c plus iii aggregate outstanding amount exempt small issue set forth section plus iv greater issue price par amount bond shall exceed page e information contained subsection b c provided issuer enable issuer elect qualify bond exemption afforded section code true accurate complete issuer hereby elect issue bond pursuant exemption afforded section code f project sold leased use otherwise transferred person borrower principal user project related person thereto identified date issuance threeyear period ending three year date issuance unless borrower received approving opinion special tax counsel effect sale lease transfer adversely affect tax exempt status bond section prior issue million limit aggregate face amount prior issue outstanding date issuance proceeds used extent respect facility located incorporated municipality unincorporated county project located principal user project borrower principal user project related person thereto b aggregate face amount prior issue exempt facility bond qualified redevelopment bond industrial development bond defined code code outstanding date issuance proceeds used allocated borrower principal user project related person thereto test period beneficiary section federal tax return information project sic code number borrower file federal income tax return internal revenue service center kansa city missouri federal employer identification number borrower section composite issue period beginning day prior sale date bond ending day thereafter none borrower principal user project related person thereto sold guaranteed arranged participated assisted borrowed proceeds leased facility financed obligation issued section code section code state local governmental unit constituted authority empowered issue obligation behalf state local governmental unit b period commencing date issuance ending day thereafter obligation sold issued section code code guaranteed borrower principal user project related person issued assistance participation arrangement borrower principal user project related person without written opinion special tax counsel effect issuance incurrence obligation page adversely affect opinion exclusion gross income federal income tax purpose interest respect bond c borrower principal user project related person person related person person guaranteed arranged participated assisted issuance incurrence paid portion cost issuance bond ii provided property franchise trademark trade name within meaning section code used connection project section prohibited us portion proceeds bond used provide facility purpose retail food beverage service automobile sale service provision recreation entertainment portion proceeds bond used provide private commercial golf course country club health club massage parlor tennis club skating facility including roller skating skateboarding ice skating racquet sport facility including handball squash racquetball court hot tub facility suntan facility racetrack skybox luxury box airplane store principal business sale alcoholic beverage consumption premise facility used primarily gambling portion proceeds bond used directly indirectly provide residential real property single multifamily unit section composite project project stand alone manufacturing facility unconnected facility share portion substantial common facility building b enclosed shopping mall c strip office store warehouse section acquisition existing property borrower expect use proceeds bond pay cost acquisition real personal property land interest therein first use pursuant acquisition proceeds bond shown exhibit amount equal proceeds bond expected used purchase existing property proceeds bond used purchase existing property borrower meet rehabilitation requirement section rehabilitation improvement project within two year period following later date issuance date existing property acquired section land acquisition limit acquisition farmland amount proceeds bond expended land exceed less proceeds bond b portion proceeds bond used directly indirectly acquisition land interest therein used purpose farming page section representation borrower purpose irs form section e code requires condition qualification tax exemption issuer provide secretary treasury certain information respect bond application proceeds derived therefrom following representation borrower relied upon issuer bond counsel satisfying information reporting requirement accordingly borrower hereby represents covenant warrant best knowledge benefit issuer bond counsel registered owner bond truth accuracy c issuer employer identification number b number report previously filed issuer calendar year none c issue price bond proceeds used accrued interest e cost issuance including underwriter discount f reasonably required reserve fund deposit g proceeds used credit enhancement h proceeds used refund prior issue nonrefunding proceeds j date final maturity bond k interest rate final maturity bond vr issue price final maturity bond issue price entire issue bond n stated redemption price maturity final maturity bond stated redemption price maturity entire issue bond p weighted average maturity entire issue bond year q yield entire issue bond vr r net interest cost entire issue bond vr standard industrial classification code project type property financed nonrefunding proceeds bond land building equipment recovery period five year equipment recovery period five year less rehabilitation total page article iii use bond proceeds section anticipated use proceeds borrower covenant represents warrant benefit issuer trustee proceeds bond used manner set forth agreement proceeds bond invested accordance indenture section certification cost project borrower hereby certifies respect amount shown exhibit agreement amount consist cost directly related necessary financing project section change use proceeds company determines less proceeds bond used respect project required section code change use project occurs project would longer qualify financing section code company call bond establish defeasance escrow retirement bond amount time required pursuant section regulation article iv arbitrage section arbitrage representation election connection issuance incurrence bond borrower hereby represents certifies warrant follows borrower entered contract third party acquisition construction equipping project obligating expenditure excess net sale proceeds bond borrower proceed due diligence completing project allocating net sale proceeds bond expenditure b borrower use reasonable consistently applied accounting method account gross proceeds investment expenditure bond borrower shall additionally use consistently applied accounting method allocating proceeds bond expenditure subject current outlay cash rule c borrower shall commingle proceeds bond fund allocation net proceeds bond reimbursement portion cost project made completed date issuance declaration official intent required section regulation page respect net proceeds bond used reimburse borrower certain capital expenditure made connection project attached hereto exhibit e borrower issuer reasonably expect net sale proceeds bond used complete project within three year date issuance proceeds bond invested nonpurpose investment substantially guaranteed yield four year borrower reasonably expects net sale proceeds bond deposited escrow fund expended accordance schedule contained arbitrage certificate executed delivered issuer connection issuance incurrence delivery bond f fund account established pursuant indenture invested pursuant arbitrage certificate executed issuer date issuance g borrower enter abusive arbitrage devise proceeds invested certificate deposit pursuant investment contract certificate deposit borrower obtain provide trustee certification form attached hereto exhibit b h borrower hereby make issuer hereby accepts following election choice pursuant regulation respect bond borrower elect bond year stated definition bond year ii borrower elect avail unrestricted yield investment granted regulation temporary period reasona</t>
-  </si>
-  <si>
-    <t>onecle hom e sample business contract coldwater creek inc contract printer friendly sample business contract agreement distribution retained earnings tax indemnification coldwater creek inc dennis penny elizabeth ann penny free customizable distribution form consignment agreement deal letter exclusivity agreement license agreement manufacturing contract manufacturing lease manufacturing license agreement process agreement product agreement product distribution agreement purchase order retailer agreement sale agreement subscription agreement supplier agreement warranty agreement sponsored link agreement distribution retained earnings tax indemnification agreement distribution retained earnings tax indemnification agreement entered effective day coldwater creek inc delaware corporation company dennis penny elizabeth ann penny stockholder whereas company undertaking public offering stock order raise additional equity public offering whereas company stockholder entered agreement c onnection public offering whereas company classified corporation immediately prior public offering classified c corporation whereas stockholder stockholder company whereas company wish make distribution stockholder retained earnings prior termination status corporation whereas company stockholder wish provide tax indemnification arrangement connection company termination corporation therefore party agree follows article distribution retained earnings company hereby agrees distribute stockholder amount company retained earnings determined financial accounting purpose generally accepted accoun ting principle termination date defined company currently estimate retained earnings termination date approximately million distribution shall effected page issuance promissory note note company prior termination date promissory note note shall provide upward downward adjustment based final determination retained earnings article ii termination corporation status company status corporation section internal revenue code amended code terminated earlier date closing public offering ii date specified revocation corporation status duly filed company date ing referred hereinafter termination date company status corporation pertinent state tax law also terminated termination date company shall use pro rata allocation method prescribed section e code order allocate taxable income short corporation taxable year ending day prior termination date c corporation short taxable year commencing termination date provided compan revoked corporation status prior date public offering shall use closing ofthebooks method prescribed section e code article iii tax filing tax return company covenant agrees company shall responsible shall effect filing federal state foreign local return company respect taxable period b company shall pay tax required paid company period covered return required applicable law subject reimbursement stockholder extent prescribed herein company indemnification stockholder additional preoffering tax company hereby indemnifies agrees hold stockholder harmless respect federal state income tax liability includi ng penalty interest tax resulting payment section incurred stockholder result final determination adjustment reason amended return claim refund audit otherwise company tax return increase tax liability stockholder taxable period ending prior termination date including short taxable period ending day termination date stockholder indemnification company stockholder hereby indemnify agree hold company harmless respect page federal state income tax liability including penalty interest tax e resulting payment sentence incurred company result final determination company corporation federal state income tax purpose taxable period ending prior termination date including short taxable period ending day termination date provided event shall stockholder aggregate liability sentence exceed refund tax interest received b stockholder result final determination andor ensuing claim refund stockholder hereby indemnify agree hold company harmless respect federal state income tax liability cluding penalty interest tax resulting payment sentence incurred company result final determination adjustment reason amended return claim refund audit otherwise company r stockholder tax return decrease stockholder tax liability taxable period ending prior termination date including short taxable period ending day termination date correspondingly increase tax liability company consolidated subsidiary taxable period ending termination date provided event shall stockholder aggregate liability sentence exceed refund tax interest received b stockholder result final determination andor ensuing claim refund payment stockholder company case may shall make payment required agreement within seven day receipt notice party payment due party appropriate taxing authority notice shall accompanied appropriate documentation demonstrating payment due cooperation party shall co operate connection contest additional tax liability asserted taxing authority party shall also cooperate securing refund federal state income tax stockholder result final determination described section respective liability stockholder shall liable company allocable share total liability stockholder agreement allocable share shall based stockholder relative percentage interest company day termination date page article iv miscellaneous counterpart agreement may executed several counterpart shall deemed original counterpart collectively shall constitute instrument representing agreement party hereto construction term nothing herein expressed implied intended shall construed confer upon give person firm corporation party hereto respective successor assigns right remedy reason agreement governing law agreement legal relation party hereto shall governed construed accordance substantive law state delaware without regard delaware choice law rule amendment modification agreement may amended modified supplemented written agreement executed party assignment assignment provision hereof shall binding upon inure nefit party hereto respective successor permitted assigns neither agreement right interest obligation hereunder shall assigned party hereto without prior written consent party agreement intended confer upon person except party right remedy hereunder interpretation title article section heading contained agreement solely pur pose reference part agreement party shall way affect meaning interpretation agreement severability event one provision agreement shall ld illegal invalid unenforceable respect shall respect affect validity legality enforceability remainder agreement party shall use best effort replace illegal invalid r unenforceable provision enforceable provision approximating extent possible original intent party entire agreement agreement embodies entire agreement understanding party hereto spect subject matter contained herein representation promise warranty covenant undertaking expressly set forth referred herein agreement supersedes prior agreement understanding party respect subject matter page witness whereof party executed agreement date first written coldwater creek inc stockholder dennis penny elizabeth ann penny business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
-  </si>
-  <si>
-    <t>onecle hom e sample business contract coldwater creek inc contract printer friendly sample business contract agreement distribution retained earnings tax indemnification coldwater creek inc dennis penny elizabeth ann penny free customizable distribution form consignment agreement deal letter exclusivity agreement license agreement manufacturing contract manufacturing lease manufacturing license agreement process agreement product agreement product distribution agreement purchase order retailer agreement sale agreement subscription agreement supplier agreement warranty agreement sponsored link agreement distribution retained earnings tax indemnification agreement distribution retained earnings tax indemnification agreement entered effective day coldwater creek inc delaware corporation company dennis penny elizabeth ann penny stockholder whereas company undertaking public offering stock order raise additional equity public offering whereas company stockholder entered agreement connection public offering whereas company classified corporation immediately prior public offering classified c corporation whereas stockholder stockholder company whereas company wish make distribution stockholder retained earnings prior termination status corporation whereas company stockholder wish provide tax indemnification arrangement connection company termination corporation therefore party agree follows article distribution retained earnings company hereby agrees distribute stockholder amount company retained earnings determined financial accounting purpose generally accepted accounting principle termination date defined company currently estimate retained earnings termination date approximately million distribution shall effected page issuance promissory note note company prior termination date promissory note note shall provide upward downward adjustment based final determination retained earnings article ii termination corporation status company status corporation section internal revenue code amended code terminated earlier date closing public offering ii date specified revocation corporation status duly filed company date referred hereinafter termination date company status corporation pertinent state tax law also terminated termination date company shall use pro rata allocation method prescribed section e code order allocate taxable income short corporation taxable year ending day prior termination date c corporation short taxable year commencing termination date provided company revoked corporation status prior date public offering shall use closing ofthebooks method prescribed section e code article iii tax filing tax return company covenant agrees company shall responsible shall effect filing federal state foreign local return company respect taxable period b company shall pay tax required paid company period covered return required applicable law subject reimbursement stockholder extent prescribed herein company indemnification stockholder additional preoffering tax company hereby indemnifies agrees hold stockholder harmless respect federal state income tax liability including penalty interest tax resulting payment section incurred stockholder result final determination adjustment reason amended return claim refund audit otherwise company tax return increase tax liability stockholder taxable period ending prior termination date including short taxable period ending day termination date stockholder indemnification company stockholder hereby indemnify agree hold company harmless respect page federal state income tax liability including penalty interest tax resulting payment sentence incurred company result final determination company corporation federal state income tax purpose taxable period ending prior termination date including short taxable period ending day termination date provided event shall stockholder aggregate liability sentence exceed refund tax interest received stockholder result final determination andor ensuing claim refund stockholder hereby indemnify agree hold company harmless respect federal state income tax liability including penalty interest tax resulting payment sentence incurred company result final determination adjustment reason amended return claim refund audit otherwise company stockholder tax return decrease stockholder tax liability taxable period ending prior termination date including short taxable period ending day termination date correspondingly increase tax liability company consolidated subsidiary taxable period ending termination date provided event shall stockholder aggregate liability sentence exceed refund tax interest received stockholder result final determination andor ensuing claim refund payment stockholder company case may shall make payment required agreement within seven day receipt notice party payment due party appropriate taxing authority notice shall accompanied appropriate documentation demonstrating payment due cooperation party shall cooperate connection contest additional tax liability asserted taxing authority party shall also cooperate securing refund federal state income tax stockholder result final determination described section respective liability stockholder shall liable company allocable share total liability stockholder agreement allocable share shall based stockholder relative percentage interest company day termination date page article iv miscellaneous counterpart agreement may executed several counterpart shall deemed original counterpart collectively shall constitute instrument representing agreement party hereto construction term nothing herein expressed implied intended shall construed confer upon give person firm corporation party hereto respective successor assigns right remedy reason agreement governing law agreement legal relation party hereto shall governed construed accordance substantive law state delaware without regard delaware choice law rule amendment modification agreement may amended modified supplemented written agreement executed party assignment assignment provision hereof shall binding upon inure benefit party hereto respective successor permitted assigns neither agreement right interest obligation hereunder shall assigned party hereto without prior written consent party agreement intended confer upon person except party right remedy hereunder interpretation title article section heading contained agreement solely purpose reference part agreement party shall way affect meaning interpretation agreement severability event one provision agreement shall held illegal invalid unenforceable respect shall respect affect validity legality enforceability remainder agreement party shall use best effort replace illegal invalid unenforceable provision enforceable provision approximating extent possible original intent party entire agreement agreement embodies entire agreement understanding party hereto respect subject matter contained herein representation promise warranty covenant undertaking expressly set forth referred herein agreement supersedes prior agreement understanding party respect subject matter page witness whereof party executed agreement date first written coldwater creek inc stockholder dennis penny elizabeth ann penny business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
+    <t>tax matter agreement tax matter agreement agreement dated may ipo date entered resource america inc delaware corporation rai atlas america inc delaware corporation atlas america recital rai common parent corporation affiliated group corporation together corporation may become member affiliated group referred rai consolidated group b atlas america included rai consolidated group date hereof would common parent corporation affiliated group corporation within meaning section internal revenue code amended code together corporation may become member affiliated group referred atlas america consolidated group c rai atlas america desire set forth agreement agreement certain matter relating inclusion atlas america consolidated group rai consolidated group including allocation tax liability year atlas america consolidated group included certain matter relating tax intending legally bound party agree follows filing consolidated return payment consolidated tax liability taxable year rai file consolidated federal income tax return return rai consolidated group taxable year rai consolidated return entitled include atlas america consolidated group return section successor provision code rai shall include atlas america consolidated group consolidated federal income tax return file common parent corporation rai consolidated group rai atlas america member rai consolidated group shall file consent election document take action necessary appropriate effect filing federal income tax return taxable year atlas america consolidated group included rai consolidated group rai shall pay entire federal income tax liability rai consolidated group shall indemnify hold harmless atlas america liability provided however atlas america shall make payment rai receive payment rai provided agreement settlement atlas america consolidated group share entire federal income tax liability rai consolidated group taxable year term shall throughout agreement include short taxable year beginning ipo date atlas america consolidated group included rai consolidated group taxable year agreement year taxable year ending ipo date preagreement year purpose agreement atlas america consolidated group shall deemed taxable year beginning october ending ipo date year shall treated preagreement year atlas america consolidated group shall deemed taxable year beginning day ipo date ending september earlier date atlas america consolidated group actual taxable year beginning october end year shall treated agreement year page pro forma atlas america return agreement year rai shall prepare pro forma consolidated federal income tax return atlas america consolidated group pro forma atlas america return except otherwise provided herein pro forma atlas america return agreement year shall prepared atlas america filed consolidated return behalf atlas america consolidated group taxable year provided however pro forma atlas america return shall include deduction tax benefit attributable exercise option purchase rai stock employee atlas america affiliate pro forma atlas america return shall reflect carryovers net operating loss net capital loss excess tax credit tax attribute prior agreement year pro forma atlas america return could utilized atlas america consolidated group excluding attribute carried back pursuant section herein atlas america consolidated group never included rai consolidated group pro forma atlas america return actual return otherwise shall reflect tax benefit arise adjustment preagreement year carryovers tax attribute preagreement year regardless whether attribute utilized audit otherwise tax return rai preagreement year pro forma atlas america return shall prepared manner reflects election position method used rai consolidated return must applied consolidated basis otherwise shall prepared manner consistent rai consolidated return provision code require consolidated computation section shall applied separately atlas america consolidated group section income tax regulation shall applied atlas america consolidated group rai consolidated group excluding member atlas america group separate affiliated group except pro forma atlas america return shall also include gain loss member atlas america consolidated group transaction within atlas america consolidated group including year prior first agreement year must taken account pursuant section income tax regulation reflected rai consolidated return atlas america consolidated group cease included rai consolidated group purpose agreement determination made atlas america consolidated group never included rai consolidated group pro forma atlas america return actual return shall reflect actual short taxable year resulting atlas america consolidated group joining leaving rai consolidated group page pro forma atlas america return payment agreement year atlas america shall make periodic payment periodic payment rai amount determined rai based upon estimated tax payment would due atlas america consolidated group included rai consolidated group later date payment estimated tax would due atlas america consolidated group included rai consolidated group balance tax due agreement year shall paid rai later december following close year balance payment atlas america shall pay rai later date rai consolidated return agreement year filed amount equal sum federal income tax liability shown corresponding pro forma atlas america return prepared agreement year ii addition tax section code would imposed atlas america treating amount due rai federal income tax liability treating periodic payment rai pursuant first sentence section estimated payment section code result inaccuracy information provided atlas america rai pursuant section hereof failure atlas america provide requested information reduced iii sum amount periodic payment balance payment collectively total periodic payment plus iv interest addition tax section code would due code total periodic payment actual payment tax atlas america total periodic payment rai agreement year exceed amount liability preceding sentence rai shall refund excess atlas america within day filing rai consolidated return purpose agreement term federal income tax liability includes tax imposed section code successor provision section rai shall notify atlas america amount due atlas america rai pursuant section later business day prior date payment due payment shall considered due later due date described fifth day notice rai payment taxable year event deconsolidation payment atlas america rai taxable year atlas america consolidated group cease included rai consolidated group postconsolidation year federal income tax liability atlas america consolidated group less ii federal income tax liability would imposed respect period atlas america consolidated group included rai consolidated group agreement year pro forma atlas america return actual return year carryovers atlas america attribute preagreement year permitted atlas america shall pay rai excess ii within day filing atlas america postconsolidation year return page b payment rai atlas america postconsolidation year federal income tax liability atlas america consolidated group greater ii federal income tax liability would imposed respect period atlas america consolidated group included rai consolidated group agreement year pro forma atlas america return actual return year carryovers atlas america attribute preagreement year permitted rai shall pay atlas america excess ii within day notification atlas america rai filing atlas america postconsolidation year return c documentation prior payment amount due pursuant section party shall exchange information documentation reasonably satisfactory order substantiate amount due pursuant section dispute amount documentation resolved prior date payment due shall referred independent accounting firm whose fee shall paid one half atlas america one half rai postconsolidation year carrybacks atlas america federal income tax return respect post consolidation year reflects net operating loss net capital loss excess tax credit tax attribute attribute may carried back rai tax return carrybacks pro forma atlas america return reflects net operating loss net capital loss excess tax credit tax attribute pro forma atlas america attribute actually utilized rai consolidated return including amendment thereto within day later due date rai consolidated return taking account extension thereof ii date pro forma atlas america attribute actually realized cash whether directly offset rai shall pay atlas america amount equal lesser x refund atlas america consolidated group would received result carryback pro forma atlas america attribute pro forma atlas america return prior agreement year year determined first agreement year earliest taxable year attribute could carried back tax saving tax benefit realized rai respect use pro forma atlas america attribute rai consolidated return calculation deemed refund pursuant section shall include interest computed atlas america filed claim refund application tentative carryback adjustment pursuant section code date rai consolidated return filed page preparation tax package financial reporting information atlas america shall provide rai format determined rai information requested rai necessary prepare rai consolidated return pro forma atlas america return rai tax package rai tax package respect taxable year shall provided rai basis consistent current practice rai consolidated group later sixty day close taxable year atlas america shall also provide rai information required determine total periodic payment current federal taxable income current deferred tax liability tax reserve item additional current prior information required rai timely basis consistent current practice rai consolidated group return audit refund amended return litigation adjustment ruling return rai shall exclusive sole responsibility preparation filing rai consolidated return including request extension thereof return amended return document statement required filed internal revenue service irs connection determination federal income tax liability rai consolidated group b audit refund claim rai exclusive sole responsibility control respect conduct irs examination return filed rai consolidated group refund claim respect thereto atlas america shall assist cooperate rai course proceeding rai shall give atlas america notice consult atlas america respect issue relating item income gain loss deduction credit member atlas america consolidated group item atlas america consolidated return item rai shall settle otherwise compromise atlas america consolidated return item would result additional liability atlas america agreement without written consent atlas america consent shall unreasonably withheld atlas america respond rais request consent within day atlas america shall deemed consented notwithstanding foregoing rai shall right sole discretion pay disputed tax sue refund forum choice case audit litigation respect atlas america return postconsolidation year atlas america shall settle otherwise compromise matter relating treatment item arising agreement year preagreement year manner would affect liability rai atlas america atlas america rai pursuant section without consent rai consent shall unreasonably withheld c litigation federal income tax liability rai consolidated group becomes subject litigation court conduct litigation shall controlled exclusively rai atlas america shall assist cooperate rai course litigation rai shall consult atlas america regarding issue relating atlas america consolidated return item page expense atlas america shall reimburse rai reasonable outofpocket expense including without limitation legal consulting accounting fee course proceeding described paragraph b c section extent expense reasonably attributable atlas america consolidated return item agreement year ii relating assertion liability attributable whole part action event covered section e recalculation payment reflect adjustment extent audit litigation claim refund respect rai consolidated return atlas america return postconsolidation year result additional payment tax including payment tax made preliminary commencing refund claim litigation refund tax additional payment refund adjustment relating treatment atlas america consolidated return item agreement year corresponding adjustment shall made corresponding pro forma atlas america return calculation payment made pursuant section agreement shall recomputed reflect effect adjustment relevant pro forma atlas america return liability atlas america consolidated group postconsolidation year within day adjustment atlas america rai appropriate shall make additional payment refund payment party reflecting adjustment plus interest pursuant section agreement calculated payment atlas america pursuant section agreement section payment refund federal income tax atlas america shall pay rai amount penalty addition tax incurred rai consolidated group result adjustment atlas america consolidated return item agreement year f ruling atlas america shall assist cooperate rai take action requested rai connection ruling request submitted rai irs including ruling unrelated distribution defined section g applicability respect consolidated return provision section b c shall apply rai consolidated return atlas america consolidated return item taxable year atlas america consolidated group member thereof includable rai consolidated group h document retention access record use personnel expiration relevant statute limitation including extension atlas america shall retain record document accounting data computer data information collectively record necessary preparation filing review audit defense tax return relevant obligation right liability either party agreement ii give rai reasonable access record personnel insuring cooperation premise extent relevant obligation right liability either party agreement prior disposing record atlas america shall notify rai writing intention afford rai opportunity take possession make copy record discretion page interest interest required paid atlas america pursuant agreement shall unless otherwise specified computed rate manner provided code interest underpayment overpayment respectively federal income tax relevant period payment required pursuant agreement made within time period specified agreement shall bear interest rate equal two hundred basis point prime rate reported wall street journal foreign state local income tax case foreign state local tax based measured net income rai consolidated group combination member thereof solely respect member member atlas america consolidated group member rai consolidated group atlas america consolidated group combined consolidated unitary basis provision agreement shall apply equal force foreign state local tax agreement year whether atlas america consolidated group included rai consolidated group federal income tax purpose provided however interest pursuant first sentence section agreement shall computed rate manner provided foreign state local law interest underpayment overpayment tax relevant period reference provision code throughout agreement shall deemed reference analogous provision state local foreign law agreement year preagreement year rai shall sole exclusive control determination whether combined consolidated unitary tax return filed foreign state local tax purpose b foreign state local income tax audit litigation respect member atlas america consolidated group atlas america shall reimburse rai reasonable outofpocket expense including without limitation legal consulting accounting fee course proceeding described preceding sentence extent expense reasonably attributable atlas america member atlas america consolidated group page atlas america shall provide rai separate legal entity reporting information respect member atlas america consolidated group requested rai timely basis rai provide notice consult atlas america respect issue relating audit litigation atlas america provide rai information necessary conduct audit litigation rai shall settle otherwise compromise audit litigation would result additional liability atlas america section without written consent atlas america consent shall unreasonably withheld atlas america respond rais request consent within day atlas america shall deemed consented notwithstanding foregoing rai shall right sole discretion atlas america pay disputed tax sue refund forum rais choice atlas america shall responsible filing tax return relating payroll sale use property withholding similar tax shall responsible payment tax taxable year prior including taxable year atlas america member rai consolidated group atlas america shall sole exclusive responsibility tax based measured net income determined solely income atlas america consolidated group combination member thereof including predecessor member combined consolidated unitary separate company basis rai consultation chief financial officer atlas america shall sole exclusive responsibility preparation return relating tax control audit controversy proceeding respect thereto tax attributable distribution action inconsistent ruling atlas america shall take fail take shall permit member atlas america consolidated group corporation entity directly indirectly percent vote value owned member atlas america consolidated group entity atlas america affiliate together atlas america consolidated group atlas america entity take fail take action act failure act would inconsistent ruling including purpose agreement supplemental ruling collectively ruling issued irs connection distribution stock atlas america successor thereto rais stockholder pursuant transaction intended qualify section code transaction distribution collectively distribution representation covenant information included submission irs connection ruling together ruling ruling submission page b liability notwithstanding anything contrary agreement atlas america atlas america entity shall jointly severally liable shall indemnify hold harmless defend rai member rai consolidated group member atlas america consolidated group aftertax basis tax including interest penalty addition tax resulting distribution extent tax result event transaction distribution involves stock asset business atlas america entity whether event transaction result direct action within control atlas america entity ii act failure act part atlas america entity distribution iii breach representation covenant information regarding atlas america entity included ruling submission iv action contemplated section c regardless whether action permitted pursuant section c covenant atlas america agrees completion distribution two year following distribution atlas america permit atlas america entity atlas pipeline partner lp covenant shall apply sell exchange distribute otherwise transfer substantial portion asset stock equity interest atlas america entity ii enter merger liquidation transaction iii discontinue otherwise fail maintain active trade business relied upon connection ruling submission iv purchase outstanding stock stock purchase meeting requirement section lb rev proc v issue stock equity interest except pursuant exercise employee stock option vi enter agreement sale disposition stock equity interest vii take action inconsistent information representation covenant included ruling submission would result distribution taxable whole part rai consolidated group rais stockholder page exception covenant notwithstanding section c atlas america entity may take action inconsistent covenant contained section c rai consent writing action consent determined rai sole discretion taking account solely preservation taxfree status distribution provided however consent given atlas america may request request may unreasonably denied rai either seek obtain ruling irs action question restricted action result distribution taxable rai consolidated group rais shareholder additional ruling provided however rai shall obligated request ruling determines good faith request might adverse effect rai consolidated group rais shareholder ii seek unqualified opinion counsel counsel chosen rai restricted action result distribution taxable rai consolidated group rais shareholder unqualified opinion either additional ruling unqualified opinion obtained form substance acceptable rai atlas america entity may engage restricted action atlas america agrees rai liability tax resulting restricted action permitted pursuant section agrees indemnify hold harmless rai tax atlas america shall also bear cost incurred rai connection considering whether grant request pursuant section requesting andor obtaining additional ruling unqualified opinion e ruling additional ruling sole discretion control rai shall right obtain ruling additional ruling atlas america shall cooperate rai take action requested rai connection obtaining ruling additional ruling including without limitation making representation covenant providing material information requested rai irs provided atlas america shall required make representation covenant inconsistent historical fact future matter event control deduction attributable option rai shall determine whether rai atlas america shall file tax return claiming deduction attributable exercise option purchase stock rai held employee atlas america affiliate distribution employee rai affiliate atlas america affiliate distribution determined rai shall claim tax deduction rai shall entitled tax deduction tax return rai atlas america shall prepared accordingly rai shall responsible remittance employer share fica similar tax extent deduction disallowed tax authority determines atlas america claimed deduction atlas america shall take action necessary claim deduction pay rai amount equal tax benefit deduction determined atlas america shall claim tax deduction atlas america shall entitled tax deduction tax return rai atlas america shall prepared accordingly atlas america shall notify rai amount tax deduction intends claim respect exercise rai option shall pay rai amount equal actual benefit related deduction less fica similar tax paid atlas america later day prior due date estimated tax payment immediately following member atlas america consolidated group becomes entitled tax saving refund credit offset attributable deduction extent deduction disallowed tax authority determines rai claimed deduction rai shall pay atlas america amount equal actual benefit received rai result disallowance extent atlas america paid rai pursuant preceding sentence purpose preceding sentence benefit shall considered equal excess amount tax would payable tax authority refund would receivable rai page confidentiality rai atlas america agrees information furnished pursuant agreement confidential except extent required law otherwise course audit litigation administrative legal proceeding shall disclosed person addition rai atlas america shall cause employee agent advisor comply term section successor access information agreement shall binding upon inure benefit successor party merger acquisition asset otherwise extent successor original party agreement taxable year atlas america consolidated group longer included rai consolidated group rai atlas america agree provide party information reasonably required complete tax return taxable period beginning atlas america consolidated group longer included rai consolidated return rai atlas america cooperate respect audit litigation relating rai consolidated return governing law agreement shall governed construed accordance law commonwealth pennsylvania excluding greatest extent permissible law rule law would cause application law jurisdiction commonwealth pennsylvania heading heading agreement convenience shall deemed purpose constitute part affect interpretation agreement counterpart agreement may executed simultaneously two counterpart deemed original shall necessary making proof agreement produce account one counterpart page severability provision agreement held unenforceable reason shall adjusted rather voided possible order achieve intent party maximum extent practicable event provision agreement shall deemed valid binding enforceable full extent termination agreement shall remain force binding long applicable period assessment including extension remains unexpired tax contemplated agreement provided however neither rai atlas america shall liability party respect tax liability taxable year atlas america consolidated group included rai consolidated return except provided section agreement successor provision reference herein provision code treasury regulation shall deemed include amendment successor provision thereto appropriate compliance subsidiary rai atlas america agree cause member rai consolidated group atlas america consolidated group including predecessor successor member comply term agreement signature following page page witness whereof party hereto caused tax matter agreement duly executed delivered date year first written resource america inc name atlas america inc name</t>
   </si>
   <si>
     <t>tax matter agreement tax matter agreement agreement dated may ipo date entered resource america inc delaware corporation rai atlas america inc delaware corporation atlas america recital rai common parent corporation affi liated group corporation together corporation may become member affiliated group referred rai consolidated group b atlas america included rai consolidated gr oup date hereof would common parent corporation affiliated group corporation within meaning section internal reve nue code amended code together corporation may become ember affiliated group referred atlas america consolidated group c rai atlas america desire set forth agreement agreement certain matter relating inclusion atlas americ consolidated group rai consolidated group including allocation tax liability year atlas america consolidated group included certain matter relating tax intending legally bound party agree follows filing consolidated return payment consolidated tax liability taxable year rai file consolidated federal inc ome tax return retu rn rai consolidated group taxable ye ar rai consolidated return entitled include atlas america consolidated group return section successor provision code rai shall include atlas america consolidated gro consolidated federal income tax return file common parent corporation rai consolidated group rai atlas america member rai consolidated group shall file consent elec ti ons document take action necessary appropriate eff ect filing federal income tax return taxable year atlas america consolidated group included rai consolidated grou p rai shall p ay entire federal income tax liability rai consolidated group shall indemnify hold harmless atlas america liability provided however atlas america shall make payment rai r receive payment rai provid ed agreement settlement atlas america consolidated group share entire federal income tax liability rai consolidated group taxable year term shal l throughout agreement include short taxable year begin ning afte r ipo date atlas america consolidated group included rai consolidated group taxable year agreement year taxable year ending ipo date pre agreement year purpose agreement atlas america consolidated group shall dee med taxable year beginning october ending ipo dat e year shall treated pre agreement year atlas america consolidated group shall deemed taxable year beginning da ipo date ending september earlier date atlas ame rica consolidated group actual taxable year beginning october end year shall treated agreement year page pro forma atlas america return agreement year rai shall prepare pro forma consol idat ed federal income tax return atlas america consolidated group pro fo rma atlas america return except otherwise provided herein pro forma la america return agreement year shall prepared atlas america filed co nsolidated return behalf atlas america consolidated group taxable year provided however pro forma atlas america return shall include deduction tax benefit attributable exercise option purchase rai stock employee atlas america affiliate pro forma atlas america return shall reflect carryov er net operating loss net capital loss excess tax credit tax attribute prior agreement year pro forma tlas america return could utilized atlas america consolidated group excluding attribute carried back pursuant section herein atlas amer ica consolidated group never included rai consolidated group pro forma atlas america return actual return otherwise shall reflect tax benefit arise adjustment pre agreement ye ar carryovers tax attribute pre agreement year regardle s whether attribute utilized audit otherwise tax ret urn rai pre agreement year pro forma atlas america return shall prepared manner reflects election position method used rai consolidated return must applied consolidated basis otherwise shall prepared manner consistent rai consolidated return provision code require consolidated computation su ch section shall applied separately atla america consolidated group section income tax regulation shall applied atlas america c onsolidated group rai consolidated group excluding member atlas america group separate affiliated group except pro forma atlas america return sh also include gain loss member atlas america consolidated group transaction within atlas america consolidated grou p including year prior first agreement year must taken account pursuant section income tax regulation reflected rai conso lidated return atlas america consolidated gr oup cease included rai consolidated group purpose agreement determination made atlas america consolidated group never included rai consolidated gr oup pro forma atlas america return actual return shall reflect actual short taxon ble year resulting atlas america consolidated group joining leaving rai consolidated group page pro forma atlas america return payment agreement year atlas america shall make periodic paymen t periodic payment rai amount determined rai based upon estimated tax payment would due atlas america consolidated group included rai consolidated group later date payment estimated tax would due atlas america consolidated group included rai consolidated group balance tax due agreement year shall paid rai later th december following close year balance payment atlas america shall pay rai later date rai consolidated return agreement year filed amount equal sum federal income tax liability shown corresponding pro forma atlas ameri ca return prepared agreement year ii addition tax section code would imposed atlas america treating amount due rai federal income tax liability treating periodic payment rai pursuant first sentence sectio n estimated payment section co de result inaccuracy information provided atlas america rai pursuant section hereof failure atlas amer ica provide requested information reduc ed iii sum amount periodic payment balance payment collectively total perio dic payment plus iv interest addition tax section code would due code th e total perio dic payment actual payment tax atlas america total periodic payme nt rai agreement year exceed amount liability preceding sentence rai shall refund excess atlas america within ays filing rai consolidated return purpose agreement term federal income tax liability includes tax imposed section code successor provision section rai shall notify atlas america amount due atlas america rai pursuant section later business day prior date payment due payment shall considered due later due date described fifth day notice rai payment taxable year event deconsolidation payment atlas america rai taxable year aft er atlas america consolidate group cease included ra consolidated group post consolidation year federal income tax liability atlas america consolidated group less ii federal income tax liability would impo sed respect period atlas america consolidated gr oup included rai consolidated group agreemen year pro forma atlas america return actual return fo r year carryovers atlas america attribute preagreement year permitted atlas america shall pay rai excess ii within day filing atla america post consolidation year return page b payment rai atlas america post consolidati year federal income tax liability atlas america consolidated group greater ii federal income tax liability would imposed respect peri od atlas america consolidated group included rai consolidated group agreement yea r pro forma atlas america return actual return year carryovers atlas america attribute pre agreement year permitted rai shall pay atlas america excess ove r ii within day notification atlas america rai filing atlas america post consolidation year return c documentation prior payment amount due pursua nt section p arties shall exchange information documentation reasonably satisfactory order substantiate amount due pursuant section dispute amount documentation c annot resolved prior date payment due shall referred independent accounting firm whose fee shall paid one half atlas america one half rai post consolidation year carrybacks atlas america federal income tax return respect post consolidation year reflects net operating loss net capital loss excess tax credit tax attribute attribute may carried back rai tax return carrybacks pro forma atlas america return reflects net operating loss net capital loss excess tax credit tax attribute pro forma atla america attribute actually utiliz ed rai consolidated return including amendment thereto within day later due date rai consolidated return taking account extensi ons thereof ii date pro forma atlas america attribut e actually realized cash whether directly offset rai shall pay atlas amer ica amount equal lesser x refund atlas america consolidated group would received result carryback p ro forma atlas america attribute pro forma atlas america return pri agreement year year determined first agreement year earliest taxable year attribute could carried back tax saving tax benefit realized rai respect use pr forma atlas america attribute rai consolidated return calculation deemed refund pursuant section shall include interest computed atlas america filed claim refund application tentative carryback adjustment pursuant section code date rai consolidated return filed page preparation tax package ot financial reporting information atlas america shall provide rai format determined rai information requested rai necessary prepare rai consolidated ret urn pro forma atlas america return rai tax pac kage rai tax package respect taxable year shall provided rai basis consistent current practice rai consolidated group later sixty day close taxable year atlas america shall also provide rai information required determine total periodic payment current federal taxable income current deferred tax liability tax reser item additional current prior information required rai timely basis consistent cu rrent practice rai consolidated group return audit refund amended return litigation adjustment ruling return rai shall exclusive sole responsibility preparation filing rai consolidated return includin g request extension thereof return amended retu rn document r statement required filed internal revenue service irs connection determination federal income tax liability rai consolidated group b audit refund claim rai w ill exclusive sole responsibility control respect conduct irs examination return filed rai consolidated group refund claim respect thereto atlas america shall assist cooperate rai course proceeding rai sha give atlas america notice consult atlas america respect issue relating item income gain loss deduction credit f member atlas america consolidated group item atlas america consolidated return item r ai shall settle otherwise compromise atlas america consolida ted return item would result additi onal liability atlas amer ica agreement without written consent atlas america wh ich consent shall unreasonably withheld atlas america respond rais request consent within day tlas america shall deemed consented notwithstanding foregoing ra shall right sole discretion pay disputed taxe sue refund forum choice case audit litigation respect atlas america return postconsolidation year atlas america shall settle otherwise compromise matter relating treatment item arising agreement year pre agreement year manner would affect liability rai atlas america atlas america rai pursuant section without consent rai consent shal l unreasonably held c litigation federal income tax liability rai consolidated group becomes subject litigation court conduct litigation shall controlled exclusively rai la america shall assist cooperate rai course litigation rai shall consult atlas america regarding issue relating atlas america consolidated return item page expense atlas america shall reimburse rai reasonabl e outofpocket expense including without limitation legal consulting accounting fee course proceeding described paragraph b c section extent su ch expense reasonably attributable atlas america consolidated return item agreement year ii relating assertio n liability attributable whole par action event covered section e recalculation payment reflect adjustment exte nt audit litigation claim refund respect rai consolidated return atlas erica return post consolidati year result additional payment tax including payment tax made preliminary commencing refund claim litigation refund tax additional payment refund adjustment relating treatment atlas america consolidated return ite agreement year corresponding adjustment shall made corresponding pro forma atlas america return calculation payment made pursuant section agreement shall recomputed reflect effect adjustment relevant pro forma atlas america return n liability atlas america consolidated group postconsolidation year within day adjustment la america rai appropriate shall make additional payment refund payment party reflecting adjustment plus interest pursuant section agreement calculated payment atlas america pursuant section agreement section payment refund federa l income tax atlas america shall pay rai amount ny penalty addition tax incurred rai consolidated group result adjustment atlas america consolidated ret urn tem agreement year f ruling atlas america shall assist cooperate rai take action requested rai connection ruling request submitted rai irs including rulin g unrelated distribution defined section g applicability respect consolidated return provision section b c shall apply rai consolidated return atlas america consolidated return item taxable year atlas america consolidated group member thereof includable rai consolidated group h document retention access record use personnel unt il expiration relevant statute limitation including extension atlas america shal l retain record document accounting data computer data information collectively record necessary preparation filing review audit defense tax return relevant obligation rig ht liability either party agreement ii give rai reasonable access record personnel insuring ir cooperation premise extent relevant obligation right li ability either party agreement prior disposing record atlas america shall notify rai writing intention afford rai opportunity take possession make copy record discretion page interest interest required paid atlas america pursuant agreement shall unless otherwise specified computed rate manner provided code interest underpayment overpayment respectively federal income tax relevant period payment required pursuant agreement made within time period specified agreement shall bea r interest rate equal two hundred basis point prime rate reported wall street journal foreign state local income tax case foreign state local tax based measured net income rai consolidated group combination member thereof solely respect member member atlas america consolidated group member rai consolidated group atlas america consolidated group combined consolidat ed unitary basis provision agreement shall apply equal forc e foreign state local tax agreement year whether th e atlas america consolidated group included rai consolidated group fo r federal income tax purpose provided however interest pursuant first sentence section agreement shall computed rate manner provided foreign state local law interest underpayment overpayment tax relevant period reference provision code throughout agreement shall deemed reference analo gous provision state local foreign law agreement year pre agreement year rai shall sole exclusive control determination whether combined consolidated unitary tax return filed fo r foreign state local tax purpose b foreign state local income tax audit litigation respect member atlas america consolidated group atlas america shall reimburse rai reasonable ofpocket expense including without limitation legal consulting accounting fee course proceeding described preceding sentence extent expense reasonably attributable atlas america member la america consolidated group page atlas america shall provide rai separate legal entity reportin g information respect member atlas america consolidated grou p requested rai timely basis rai provide notice consult atlas america respect issue relating audit litigation atlas ameri ca provide rai information necessary conduct audit litigation rai shall settle otherwise comprom ise audit litigation would result additional liability atlas america section without writt en consent atlas america wh ich consent shall unreasonably withheld atlas america respond rais request consent within day atlas america shall deemed ha consented notwithstanding foregoing rai shall right sol e discretion atlas america pay disputed tax sue refund forum rais choice atlas america shall responsible filing tax return relatin g payroll sale use property withholding nd similar tax shall responsible payment tax taxable year prior including taxable year th atlas america member rai consolidated group atlas america shall sole exclusi responsibility tax based measured net income determined solely income atlas america consolidated group combination member thereof including predecessor member combined c onsolidated unitary separat e company basis rai consultation chief financial officer atlas america shall sole exclusive responsibility preparation return relating tax control audit controvers y proceeding respect thereto tax attributable distribution action inconsistent ruling atlas america shall take fail take shall permit member atlas america consolidated group corporation entity directly indirectly percent vote value owned memb er atlas america consolidated group entity atlas america affiliate together atla america consolidated group atlas america entity take fail take action act fa ilure act would inconsistent ruling including purpose agreement supplemental ruling collectively ruling issued irs connection distribution stock f atlas america successor thereto rais stockholder pursuant transaction intended qualify sect ion code transaction distribution collectively distribution representation covenant r information included submission irs connection ruling together ruling ruling submission page b liability notwithstanding anything contrary agreement atlas america atlas america entity shall jointly severally liable shall indemnify hold harmless defend rai memb er rai consolidated group member atlas america consolidated group st tax basis tax including interest penalt y addition tax resulting distribution extent tax result event transaction distribution involve stock asset business la america entity whether event transaction result direct action within control atlas america entity ii act failure act part atlas america entity distribution iii breach representation covenant information regarding atlas amer ica entity included ruling submission iv acti contemplated section c regardless whether acti ons permitted pursuant section c covenant atlas america agrees completion distribution two year following distribution atlas america permit atlas america entity atlas pipeline partner lp covenant shall apply sell exchange distribute otherwise transfer substantial portion asset stock equity interest atlas america entity ii enter merger liquidation transaction iii discontinue otherwise fail maintain active tr ade business relied upon connection ruling submission iv purchase outstanding stock stock purchase meeting requirement section lb rev proc v issue stock equity interest except pursuant exercise employee stock option vi enter agreement sale dispositi stock equity interest vii take action inconsistent informat ion representation covenant included ruling submission would result distribution taxable whole part rai consolidated group rais sto ckholders page exception covenant notwithstanding section c atlas america entity may take action inconsistent covenant contained secti c rai consent writing action consent determined rai sole discretion taking account solely preservation tax fr ee status distribution provided however consent given atlas america may request request may unreasonably denied rai either seek obtain ruling irs action question restricted action result distribution taxable rai consolidated group rais shareholder add itional ruling provided howeve r rai shall obligated request ruling determines good faith request might adve rse effect rai consolidated group rai shareholder r ii seek unqualified opinion counsel counsel chos en rai restricted action result distribution taxable rai consolidated group rais shareholder unqualified opinion either additional ruling unqualified opinion obtained form substance acceptable rai atlas america entity may engage restricted ac tions atlas america agrees rai liability tax resulting restricted action permitted pursuant section agrees indemnify hold harmless rai tax atlas ame rica shall also bea r cost incurred rai connection considering whether grant request pursuant section requesting obtaining additional ruling unqualified opinion e ruling additional ruling sole discretion control rai shall right obtain ruling additional ruling atlas america shall cooperate rai ake action requested rai connection obtaining ruling additional ruling including without limitation making representation covenant providing material information requested rai irs provided atlas america shall b e required make representation covenant inconsistent historical fact future matter event control deduction attributable option rai shall determine whether rai atlas america shall file tax return claiming deduction attributable exercise option purchase stock rai held employee atla america affiliate distribution employee rai affiliate atlas america affiliate distribution determined rai shall claim tax deduction rai shall entitled tax deduction tax return rai atlas amer ica shall prepared accordingly rai shall responsible remittance employer share fica similar tax extent deduction disallowed tax authority determines atlas ameri ca claimed deduction atlas america shall take action necessary claim deduction pay rai amount equal tax benefit deduction determined atlas merica shall clai tax deduction atlas america shall entitled tax deduction tax return rai atlas america shall prepared accordingly atlas america shall notify rai amount tax deduction intends claim respect exercise rai option shall pay ra amount equal actual benefit related deduction less fic similar tax paid atlas america later day prior du e date estimated tax paym ent immediately following member th e atlas america consolidated group becomes entitled tax saving refund credit offset attributable deduction extent deduction disallowed tax authority determines rai claimed deduction rai shall pay atlas america amount equal actual benefit received rai result disallowance ext ent atlas america paid rai pursuant preceding sentence purpose f preceding sentence benefit shall considered equal excess amount tax would payable tax authority refund would receivable rai page confidentiality rai atlas america agrees information furnish ed pursuant agreement confidential except extent required law otherwise course audit litigation administrative legal proceeding shall disclosed person addition rai atlas america shall cause employee agent advisor comply term section successor access information agreement shall binding upon inure benefit ny successor party merger acquisition asset otherwis e ex tent successor original party agreement taxable year atlas america consolidated group longer included rai consolidated group rai atlas america agree provide party informatio n reasonably required complete ta x return taxable period beginning atlas america consolidated gr oup longer included rai consolidated return rai atlas america cooperate respect audit litigation relating ny rai consolidated return governing law agreement shall governed construed accordance wi th law commonwealth pennsylvania excluding greatest exten permissible law rule law would cause application l aws jurisdiction commonwealth pennsylv ania heading heading agreement convenience shall deemed purpose constitute part affect interpretatio n agreement counterpart agreement may executed simultaneously two counterpart deemed original shall necessary making proof agreement produce account tha n one counterpart page severability provision agreement held unenforceable reason shall adjusted rather voided possible order achieve intent party maximum extent practicable event provision agreement shall deemed valid binding enforceable full extent termination agreement shall remain force binding long applicable period assessment including extension remains unexpired tax contemplated agreement provided however neither rai atlas america shall liability party respect tax liability taxable year atlas america consolidated group included rai consolidated return except provided section agreement successor provision reference herein provision code treasury regulation shall deemed include amendment successor provision thereto appropriate compliance subsidiary rai atlas america agree cause member rai consolidated group atlas america consolidated group including predecesso r successor member comply term agr eement signature following page page witness whereof party hereto caused tax matter agreement duly executed delivered date year first written resource america inc name atlas america inc name</t>
   </si>
   <si>
-    <t>tax matter agreement tax matter agreement agreement dated may ipo date entered resource america inc delaware corporation rai atlas america inc delaware corporation atlas america recital rai common parent corporation affiliated group corporation together corporation may become member affiliated group referred rai consolidated group b atlas america included rai consolidated gr oup date hereof would common parent corporation affiliated group corporation within meaning section internal reve nue code amended code together corporation may become member affiliated group referred atlas america consolidated group c rai atlas america desire set forth agreement agreement certain matter relating inclusion atlas americ consolidated group rai consolidated group including allocation tax liability year atlas america consolidated group included certain matter relating tax intending legally bound party agree follows filing consolidated return payment consolidated tax liability taxable year rai file consolidated federal inc ome tax return return rai consolidated group taxable ye ar rai consolidated return entitled include atlas america consolidated group return section successor provision code rai shall include atlas america consolidated gro consolidated federal income tax return file common parent corporation rai consolidated group rai atlas america member rai consolidated group shall file consent electi ons document take action necessary appropriate eff ect filing federal income tax return taxable year atlas america consolidated group included rai consolidated grou p rai shall pay entire federal income tax liability rai consolidated group shall indemnify hold harmless atlas america liability provided however atlas america shall make payment rai r receive payment rai provided agreement settlement atlas america consolidated group share entire federal income tax liability rai consolidated group taxable year term shal l throughout agreement include short taxable year beginning afte r ipo date atlas america consolidated group included rai consolidated group taxable year agreement year taxable year ending ipo date pre agreement year purpose agreement atlas america consolidated group shall dee med taxable year beginning october ending ipo dat e year shall treated pre agreement year atlas america consolidated group shall deemed taxable year beginning da ipo date ending september earlier date atlas america consolidated group actual taxable year beginning october end year shall treated agreement year page pro forma atlas america return agreement year rai shall prepare pro forma consolidat ed federal income tax return atlas america consolidated group pro fo rma atlas america return except otherwise provided herein pro forma la america return agreement year shall prepared atlas america filed consolidated return behalf atlas america consolidated group taxable year provided however pro forma atlas america return shall include deduction tax benefit attributable exercise option purchase rai stock employee atlas america affiliate pro forma atlas america return shall reflect carryov er net operating loss net capital loss excess tax credit tax attribute prior agreement year pro forma atlas america return could utilized atlas america consolidated group excluding attribute carried back pursuant section herein atlas amer ica consolidated group never included rai consolidated group pro forma atlas america return actual return otherwise shall reflect tax benefit arise adjustment pre agreement ye ar carryovers tax attribute pre agreement year regardle s whether attribute utilized audit otherwise tax ret urn rai pre agreement year pro forma atlas america return shall prepared manner reflects election position method used rai consolidated return must applied consolidated basis otherwise shall prepared manner consistent rai consolidated return provision code require consolidated computation su ch section shall applied separately atla america consolidated group section income tax regulation shall applied atlas america consolidated group rai consolidated group excluding member atlas america group separate affiliated group except pro forma atlas america return sh also include gain loss member atlas america consolidated group transaction within atlas america consolidated grou p including year prior first agreement year must taken account pursuant section income tax regulation reflected rai consolidated return atlas america consolidated gr oup cease included rai consolidated group purpose agreement determination made atlas america consolidated group never included rai consolidated group pro forma atlas america return actual return shall reflect actual short taxon ble year resulting atlas america consolidated group joining leaving rai consolidated group page pro forma atlas america return payment agreement year atlas america shall make periodic paymen t periodic payment rai amount determined rai based upon estimated tax payment would due atlas america consolidated group included rai consolidated group later date payment estimated tax would due atlas america consolidated group included rai consolidated group balance tax due agreement year shall paid rai later th december following close year balance payment atlas america shall pay rai later date rai consolidated return agreement year filed amount equal sum federal income tax liability shown corresponding pro forma atlas ameri ca return prepared agreement year ii addition tax section code would imposed atlas america treating amount due rai federal income tax liability treating periodic payment rai pursuant first sentence section estimated payment section co de result inaccuracy information provided atlas america rai pursuant section hereof failure atlas amer ica provide requested information reduced iii sum amount periodic payment balance payment collectively total perio dic payment plus iv interest addition tax section code would due code total perio dic payment actual payment tax atlas america total periodic payme nt rai agreement year exceed amount liability preceding sentence rai shall refund excess atlas america within ays filing rai consolidated return purpose agreement term federal income tax liability includes tax imposed section code successor provision section rai shall notify atlas america amount due atlas america rai pursuant section later business day prior date payment due payment shall considered due later due date described fifth day notice rai payment taxable year event deconsolidation payment atlas america rai taxable year aft er atlas america consolidated group cease included ra consolidated group post consolidation year federal income tax liability atlas america consolidated group less ii federal income tax liability would impo sed respect period atlas america consolidated gr oup included rai consolidated group agreemen year pro forma atlas america return actual return fo r year carryovers atlas america attribute preagreement year permitted atlas america shall pay rai excess ii within day filing atla america post consolidation year return page b payment rai atlas america post consolidati year federal income tax liability atlas america consolidated group greater ii federal income tax liability would imposed respect peri od atlas america consolidated group included rai consolidated group agreement year pro forma atlas america return actual return year carryovers atlas america attribute pre agreement year permitted rai shall pay atlas america excess ove r ii within day notification atlas america rai filing atlas america post consolidation year return c documentation prior payment amount due pursua nt section party shall exchange information documentation reasonably satisfactory order substantiate amount due pursuant section dispute amount documentation resolved prior date payment due shall referred independent accounting firm whose fee shall paid one half atlas america one half rai post consolidation year carrybacks atlas america federal income tax return respect post consolidation year reflects net operating loss net capital loss excess tax credit tax attribute attribute may carried back rai tax return carrybacks pro forma atlas america return reflects net operating loss net capital loss excess tax credit tax attribute pro forma atla america attribute actually utilized rai consolidated return including amendment thereto within day later due date rai consolidated return taking account extensi ons thereof ii date pro forma atlas america attribute actually realized cash whether directly offset rai shall pay atlas amer ica amount equal lesser x refund atlas america consolidated group would received result carryback p ro forma atlas america attribute pro forma atlas america return pri agreement year year determined first agreement year earliest taxable year attribute could carried back tax saving tax benefit realized rai respect use pr forma atlas america attribute rai consolidated return calculation deemed refund pursuant section shall include interest computed atlas america filed claim refund application tentative carryback adjustment pursuant section code date rai consolidated return filed page preparation tax package financial reporting information atlas america shall provide rai format determined rai information requested rai necessary prepare rai consolidated ret urn pro forma atlas america return rai tax package rai tax package respect taxable year shall provided rai basis consistent current practice rai consolidated group later sixty day close taxable year atlas america shall also provide rai information required determine total periodic payment current federal taxable income current deferred tax liability tax reser item additional current prior information required rai timely basis consistent current practice rai consolidated group return audit refund amended return litigation adjustment ruling return rai shall exclusive sole responsibility preparation filing rai consolidated return includin g request extension thereof return amended retu rn document statement required filed internal revenue service irs connection determination federal income tax liability rai consolidated group b audit refund claim rai exclusive sole responsibility control respect conduct irs examination return filed rai consolidated group refund claim respect thereto atlas america shall assist cooperate rai course proceeding rai sha give atlas america notice consult atlas america respect issue relating item income gain loss deduction credit member atlas america consolidated group item atlas america consolidated return item r ai shall settle otherwise compromise atlas america consolida ted return item would result additional liability atlas amer ica agreement without written consent atlas america wh ich consent shall unreasonably withheld atlas america respond rais request consent within day atlas america shall deemed consented notwithstanding foregoing ra shall right sole discretion pay disputed taxe sue refund forum choice case audit litigation respect atlas america return postconsolidation year atlas america shall settle otherwise compromise matter relating treatment item arising agreement year pre agreement year manner would affect liability rai atlas america atlas america rai pursuant section without consent rai consent shal l unreasonably withheld c litigation federal income tax liability rai consolidated group becomes subject litigation court conduct litigation shall controlled exclusively rai la america shall assist cooperate rai course litigation rai shall consult atlas america regarding issue relating atlas america consolidated return item page expense atlas america shall reimburse rai reasonabl e outofpocket expense including without limitation legal consulting accounting fee course proceeding described paragraph b c section extent su ch expense reasonably attributable atlas america consolidated return item agreement year ii relating assertio n liability attributable whole part action event covered section e recalculation payment reflect adjustment exte nt audit litigation claim refund respect rai consolidated return atlas america return post consolidati year result additional payment tax including payment tax made preliminary commencing refund claim litigation refund tax additional payment refund adjustment relating treatment atlas america consolidated return ite agreement year corresponding adjustment shall made corresponding pro forma atlas america return calculation payment made pursuant section agreement shall recomputed reflect effect adjustment relevant pro forma atlas america return liability atlas america consolidated group postconsolidation year within day adjustment la america rai appropriate shall make additional payment refund payment party reflecting adjustment plus interest pursuant section agreement calculated payment atlas america pursuant section agreement section payment refund federa l income tax atlas america shall pay rai amount ny penalty addition tax incurred rai consolidated group result adjustment atlas america consolidated return tem agreement year f ruling atlas america shall assist cooperate rai take action requested rai connection ruling request submitted rai irs including ruling unrelated distribution defined section g applicability respect consolidated return provision section b c shall apply rai consolidated return atlas america consolidated return item taxable year atlas america consolidated group member thereof includable rai consolidated group h document retention access record use personnel unt il expiration relevant statute limitation including extension atlas america shall retain record document accounting data computer data information collectively record necessary preparation filing review audit defense tax return relevant obligation right liability either party agreement ii give rai reasonable access record personnel insuring ir cooperation premise extent relevant obligation right liability either party agreement prior disposing record atlas america shall notify rai writing intention afford rai opportunity take possession make copy record discretion page interest interest required paid atlas america pursuant agreement shall unless otherwise specified computed rate manner provided code interest underpayment overpayment respectively federal income tax relevant period payment required pursuant agreement made within time period specified agreement shall bear interest rate equal two hundred basis point prime rate reported wall street journal foreign state local income tax case foreign state local tax based measured net income rai consolidated group combination member thereof solely respect member member atlas america consolidated group member rai consolidated group atlas america consolidated group combined consolidat ed unitary basis provision agreement shall apply equal forc e foreign state local tax agreement year whether th e atlas america consolidated group included rai consolidated group fo r federal income tax purpose provided however interest pursuant first sentence section agreement shall computed rate manner provided foreign state local law interest underpayment overpayment tax relevant period reference provision code throughout agreement shall deemed reference analogous provision state local foreign law agreement year pre agreement year rai shall sole exclusive control determination whether combined consolidated unitary tax return filed foreign state local tax purpose b foreign state local income tax audit litigation respect member atlas america consolidated group atlas america shall reimburse rai reasonable ofpocket expense including without limitation legal consulting accounting fee course proceeding described preceding sentence extent expense reasonably attributable atlas america member la america consolidated group page atlas america shall provide rai separate legal entity reportin g information respect member atlas america consolidated grou p requested rai timely basis rai provide notice consult atlas america respect issue relating audit litigation atlas america provide rai information necessary conduct audit litigation rai shall settle otherwise comprom ise audit litigation would result additional liability atlas america section without written consent atlas america wh ich consent shall unreasonably withheld atlas america respond rais request consent within day atlas america shall deemed ha consented notwithstanding foregoing rai shall right sol e discretion atlas america pay disputed tax sue refund forum rais choice atlas america shall responsible filing tax return relatin g payroll sale use property withholding similar tax shall responsible payment tax taxable year prior including taxable year th atlas america member rai consolidated group atlas america shall sole exclusive responsibility tax based measured net income determined solely income atlas america consolidated group combination member thereof including predecessor member combined consolidated unitary separat e company basis rai consultation chief financial officer atlas america shall sole exclusive responsibility preparation return relating tax control audit controversy proceeding respect thereto tax attributable distribution action inconsistent ruling atlas america shall take fail take shall permit member atlas america consolidated group corporation entity directly indirectly percent vote value owned member atlas america consolidated group entity atlas america affiliate together atla america consolidated group atlas america entity take fail take action act failure act would inconsistent ruling including purpose agreement supplemental ruling collectively ruling issued irs connection distribution stock f atlas america successor thereto rais stockholder pursuant transaction intended qualify sect ion code transaction distribution collectively distribution representation covenant r information included submission irs connection ruling together ruling ruling submission page b liability notwithstanding anything contrary agreement atlas america atlas america entity shall jointly severally liable shall indemnify hold harmless defend rai member rai consolidated group member atlas america consolidated group st tax basis tax including interest penalt y addition tax resulting distribution extent tax result event transaction distribution involves stock asset business la america entity whether event transaction result direct action within control atlas america entity ii act failure act part atlas america entity distribution iii breach representation covenant information regarding atlas amer ica entity included ruling submission iv action contemplated section c regardless whether acti ons permitted pursuant section c covenant atlas america agrees completion distribution two year following distribution atlas america permit atlas america entity atlas pipeline partner lp covenant shall apply sell exchange distribute otherwise transfer substantial portion asset stock equity interest atlas america entity ii enter merger liquidation transaction iii discontinue otherwise fail maintain active tr ade business relied upon connection ruling submission iv purchase outstanding stock stock purchase meeting requirement section lb rev proc v issue stock equity interest except pursuant exercise employee stock option vi enter agreement sale dispositi stock equity interest vii take action inconsistent information representation covenant included ruling submission would result distribution taxable whole part rai consolidated group rais stockholder page exception covenant notwithstanding section c atlas america entity may take action inconsistent covenant contained section c rai consent writing action consent determined rai sole discretion taking account solely preservation tax fr ee status distribution provided however consent given atlas america may request request may unreasonably denied rai either seek obtain ruling irs action question restricted action result distribution taxable rai consolidated group rais shareholder additional ruling provided howeve r rai shall obligated request ruling determines good faith request might adve rse effect rai consolidated group rais shareholder r ii seek unqualified opinion counsel counsel chos en rai restricted action result distribution taxable rai consolidated group rais shareholder unqualified opinion either additional ruling unqualified opinion obtained form substance acceptable rai atlas america entity may engage restricted action atlas america agrees rai liability tax resulting restricted action permitted pursuant section agrees indemnify hold harmless rai tax atlas america shall also bea r cost incurred rai connection considering whether grant request pursuant section requesting obtaining additional ruling unqualified opinion e ruling additional ruling sole discretion control rai shall right obtain ruling additional ruling atlas america shall cooperate rai ake action requested rai connection obtaining ruling additional ruling including without limitation making representation covenant providing material information requested rai irs provided atlas america shall b e required make representation covenant inconsistent historical fact future matter event control deduction attributable option rai shall determine whether rai atlas america shall file tax return claiming deduction attributable exercise option purchase stock rai held employee atlas america affiliate distribution employee rai affiliate atlas america affiliate distribution determined rai shall claim tax deduction rai shall entitled tax deduction tax return rai atlas amer ica shall prepared accordingly rai shall responsible remittance employer share fica similar tax extent deduction disallowed tax authority determines atlas ameri ca claimed deduction atlas america shall take action necessary claim deduction pay rai amount equal tax benefit deduction determined atlas america shall clai tax deduction atlas america shall entitled tax deduction tax return rai atlas america shall prepared accordingly atlas america shall notify rai amount tax deduction intends claim respect exercise rai option shall pay ra amount equal actual benefit related deduction less fic similar tax paid atlas america later day prior du e date estimated tax payment immediately following member th e atlas america consolidated group becomes entitled tax saving refund credit offset attributable deduction extent deduction disallowed tax authority determines rai claimed deduction rai shall pay atlas america amount equal actual benefit received rai result disallowance ext ent atlas america paid rai pursuant preceding sentence purpose f preceding sentence benefit shall considered equal excess amount tax would payable tax authority refund would receivable rai page confidentiality rai atlas america agrees information furnish ed pursuant agreement confidential except extent required law otherwise course audit litigation administrative legal proceeding shall disclosed person addition rai atlas america shall cause employee agent advisor comply term section successor access information agreement shall binding upon inure benefit ny successor party merger acquisition asset otherwis e extent successor original party agreement taxable year atlas america consolidated group longer included rai consolidated group rai atlas america agree provide party information reasonably required complete ta x return taxable period beginning atlas america consolidated gr oup longer included rai consolidated return rai atlas america cooperate respect audit litigation relating ny rai consolidated return governing law agreement shall governed construed accordance wi th law commonwealth pennsylvania excluding greatest exten permissible law rule law would cause application l aws jurisdiction commonwealth pennsylvania heading heading agreement convenience shall deemed purpose constitute part affect interpretatio n agreement counterpart agreement may executed simultaneously two counterpart deemed original shall necessary making proof agreement produce account tha n one counterpart page severability provision agreement held unenforceable reason shall adjusted rather voided possible order achieve intent party maximum extent practicable event provision agreement shall deemed valid binding enforceable full extent termination agreement shall remain force binding long applicable period assessment including extension remains unexpired tax contemplated agreement provided however neither rai atlas america shall liability party respect tax liability taxable year atlas america consolidated group included rai consolidated return except provided section agreement successor provision reference herein provision code treasury regulation shall deemed include amendment successor provision thereto appropriate compliance subsidiary rai atlas america agree cause member rai consolidated group atlas america consolidated group including predecesso r successor member comply term agreement signature following page page witness whereof party hereto caused tax matter agreement duly executed delivered date year first written resource america inc name atlas america inc name</t>
-  </si>
-  <si>
     <t>r b aseball stadium district taxable sale milwaukee ozaukee racine w ashington waukesha county x b f ootball stadium district axable sale brown county x b b c b c b c b c otal sale subject county sale tax add line c c enter total sch ct col c ounty sale tax line x otal sale subtraction total sale sale received exemption certificate ale exempt property service sale occurred outside w isconsin real property grocery highway fuel etc ale return allowance bad debt ther sale tax included line etc otal subtraction add line ale subject state sale tax subtract line line tate sale tax line x step sale tax state step b sale tax county stadium county code see instructionssales subject county sale tax county name first letter step c sale tax discountwisconsin sale use tax returnformst fein ssntax account number wisconsin department revenue state county stadium sale use tax use black ink onlydue date mm dd yyyy period begin date mm dd yyyy period end date mm dd yyyy check amended returncheck address name change note change left check correspondence included sale subject stadium sale tax otal sale tax add tax amount line b b check business discontinued enter discontinuation date mm dd yyyy report county sale tax county leave line blank complete enclose schedule ct obtain sch ct call go wwwrevenuewigovc u n yattention business name legal name mailing address street po box city state zip code u m r b aseball stadium district taxable purchase milwaukee ozaukee racine washington waukesha county x b f ootball stadium district taxable purchase brown county x bstep discount net sale tax total sale tax fill amount line iscount applies return filed tax paid due date n et sale tax subtract line line line enter amount line line enter line greater multiply line enter result p urchases subject state use tax x bstep e use tax state b c b c b c b c otal purchase subject county use tax add l ines c c enter total sch ct col c ounty use tax line x step f use tax county stadium county code see instructionspurchases subject county use tax county name first letter step g total amount duepurchases subject stadium use tax otal sale use tax add tax amount line b b b interest late filing fee negligence penalty otal amount due add line step h signature mailing information hereby certify return including accompanying schedule statement examined best knowledge belief true correct complete return contact person please print clearly p hone number ignature ate mail wisconsin department revenue p box adison wi tax question call report county use tax county leave line blank complete enclose schedule ct obtain sch ct call go wwwrevenuewigovc u n u</t>
   </si>
   <si>
+    <t>onecle home sample business contract network solution inc contract printerfriendly sample business contract tax sharing agreement science application international corp network solution inc popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link tax sharing agreement tax sharing agreement agreement science application international corporation delaware corporation saic network solution inc delaware corporation network solution whereas network solution anticipates offer public share class voting common stock represent approximately vote value total issued outstanding network solution stock stock whereas public offering saic class b stock represents approximately vote value total issued outstanding share stock accordingly network solution continue member affiliated group within meaning section internal revenue code amended code saic common parent corporation group saic continue include network solution consolidated federal income tax return accordance code section whereas section code provides earnings profit member affiliated group determined allocating tax liability group particular taxable year among member group accordance whichever several allowable method group shall adopted group consolidated federal income tax return whereas party hereto deem equitable respect taxable year consolidated combined return filed behalf group network solution shall pay saic amount equal separate company tax liability hereinafter defined whereas party hereto wish provide treatment various matter may arise result filing consolidated return party wish set forth agreement agreement saic network solution respect allocation settlement federal state local tax group respect taxable period ending date hereof network solution included affiliated group saic common parent affiliation period therefore consideration mutual covenant contained herein party agree follows section filing return respect affiliation period saic shall file network solution shall agree join filing consolidated federal income tax return behalf group network solution shall execute file consent page election document saic reasonably request respect filing group consolidated federal income tax return shall consistent section hereof timely provide saic information may necessary filing return determination amount due agreement network solution acknowledges agrees right conferred upon saic connection filing group return include without limitation right reasonably determine allocation income loss saic subsidiary last affiliation period next taxable period network solution shall file federal state local foreign tax return respect period network solution join saic filing consolidated combined return network solution shall responsible payment tax connection therewith network solution shall file tax return manner consistent manner saic filed return affiliation period except required law extent inconsistency would adversely affect return group section tax payment due date except otherwise provided herein network solution pay saic amount due saic determined section b later due date filing federal income tax return group includes network solution ii saic pay network solution amount due network solution determined section c later due date filing federal income tax return group includes network solution provided however later estimated federal income tax payment date group group actually incurs federal income tax liability respect affiliation period network solution shall pay saic minimum amount required paid avoid imposition penalty addition tax code determined basis total amount due affiliation period section b amount overpayment underpayment pursuant section shall credited added case may amount otherwise required paid period within amount overpayment underpayment first becomes reasonably ascertainable settlement may satisfied check wire transfer intercompany account party may mutually agree b amount due saic network solution shall pay saic time manner described section amount equal separate company tax liability network solution separate company tax liability affiliation period shall amount federal income tax liability including without limitation liability penalty fine addition tax interest minimum tax item applicable subsidiary connection determination subsidiary tax liability network solution would incurred filed separate federal income tax return affiliation period computed manner prescribed income tax regulation section aii except carryforward carryback loss credit shall allowed page separate company tax liability network solution shall determined saic cooperation assistance network solution manner consistent general tax accounting principle ii code regulation thereunder iii long reasonable legal basis exists therefor prior custom practice notwithstanding anything contrary herein separate company tax liability shall construed include network solution federal applicable state income franchise tax liability including applicable alternative minimum tax liability extent alternative minimum tax liability incurred consolidated combined filing group case may computed without taking account net operating loss carryover carryback used group reduce consolidated tax liability including liability attributable item recapture determined tax reporting purpose quarterly basis addition transaction item saic network solution deferred federal income tax return shall also deferred purpose agreement time restored otherwise triggered income code regulation c amount due network solution event network solution separate company tax liability affiliation period instead either incurs net loss credit period saic shall pay network solution time manner prescribed section amount group federal income tax liability period actually reduced reason actual use loss credit group federal income tax return attributable network solution event network solution incurs tax loss tax credit permitted code regulation carried back forward one affiliation period saic shall pay network solution amount equal amount group federal income tax liability actually reduced reason actual use carried loss credit group federal income tax return payment saic network solution required account carryover shall paid within day date benefit carryover realized saic reason receipt refund credit tax notwithstanding foregoing network solution relinquish carryback net operating loss section b code successor provision affiliation period unless saic expressly agrees carryback network solution entitled payment agreement otherwise subsidiary defined section sustains loss credit taxable period eligible carried back affiliation period unless saic sole absolute discretion elect file claim refund respect carryback item agrees permit network solution file claim ii saic actually receives refund credit tax respect thereto event provision herein notwithstanding network solution shall entitled amount determined previous paragraph including interest actually paid taxing authority attributable thereto less amount reasonably determined saic equal present value determined page applicable shortterm federal rate code tax benefit group may deferred eliminated future increase tax liability group may incurred carryback iii saic indemnified network solution form satisfactory saic reasonable cost expense incurred pursuing refund cost shall paid network solution regardless whether refund obtained subsequent adjustment loss credit carryback shall treated adjustment tax liability section paying agent saic agrees make required payment internal revenue service irs consolidated federal income tax liability group section adjustment tax liability adjustmentrelated payment consolidated federal income tax liability group member adjusted taxable period reason loss credit carryback extent already provided section c whether mean amended return judicial decision claim refund tax audit irs separate company tax liability amount tax benefit realized group reason use network solution loss credit shall recomputed give effect adjustment amount payment due section hereof shall appropriately adjusted additional payment saic network solution required reason recomputed separate company tax liability group tax refund credit shall include allocable share refunded interest received irs applicable deficiency interest penalty addition tax applicable allocable share refunded interest deficiency interest penalty addition tax shall paid charged respectively network solution extent amount relates reduced group tax liability due decreased separate company tax liability increased group tax refund credit resulting increased use network solution loss credit one hand ii increased group tax liability due increased separate company tax liability decreased group tax benefit arising decreased use network solution loss credit hand b timing payment payment paid network solution section shall made earliest occur decision court competent jurisdiction subject judicial review appeal otherwise become final ii expiration time filing claim refund b instituting suit respect claim refund disallowed whole part irs irs took action iii execution closing agreement section code acceptance irs counsel offer compromise section code successor provision iv expiration day irs acceptance waiver restriction assessment collection deficiency tax overassessment internal revenue form ad successor comparable form b expiration ninetyday period receipt statutory notice deficiency resulting immediate assessment unless within day saic notifies network solution intent page attempt recovery relevant amount paid waiver filing timely claim refund network solution requested saic attempt recovery relevant amount paid complied subject section hereof v expiration statute limitation respect relevant period vi event party reasonably agree final determination tax liability issue section book record saic network solution agree preparation federal income tax return amended return claim refund irs examination litigation relating foregoing may require use record information within exclusive possession control either saic network solution saic network solution provide record information assistance may include making employee foregoing entity available provide additional information explanation material hereunder requested saic network solution case may regular business hour connection development described preceding sentence provided however network solution shall provide saic information necessary enable saic file group consolidated federal income tax return affiliation period soon practicable event later five month last day affiliation period date group federal income tax return include network solution filed saic shall provide network solution portion return relating network solution party agrees shall retain expiration applicable statute limitation including extension copy tax return affiliation period period might subject adjustment agreement supporting work schedule record information may relevant tax return party hereto destroy otherwise dispose record information without providing party reasonable opportunity review copy record information section assignment agreement shall transferable assignable either party hereto without prior written consent party hereto right obligation hereunder party shall binding upon inure benefit party respective permitted successor assigns agreement shall binding upon corporation network solution owns directly indirectly stock meeting requirement section code subsidiary whether network solution owns stock corporation upon execution agreement time affiliation period network solution shall cause corporation soon practicable assent formally term hereof except herein otherwise specifically provided nothing agreement shall confer right benefit upon person entity party hereto respective successor permitted assigns section dispute dispute concerning interpretation section amount payment due agreement shall resolved saics regular outside accounting firm whose judgment shall conclusive binding party shall act consultation saics tax counsel page section tax controversy party receives notice tax examination audit challenge involving amount subject agreement party shall timely notify party information shall provide party written copy relevant letter form schedule received irs otherwise possession shall provide notice information relating material proceeding connection therewith audit conference proceeding irs judicial proceeding concerning determination federal income tax liability group member including network solution group member shall represented person selected saic except otherwise expressly provided section settlement term settlement issue relating proceeding shall sole discretion saic network solution hereby appoints saic agent purpose proposing concluding settlement notwithstanding anything contrary agreement event shall saic obligated file amended return claim refund respect affiliation period section state local tax extent appropriate provision agreement shall apply force effect state local income tax liability computed combined consolidated unitary method provided however appropriate adjustment shall made provision hereof including computation separate company tax liability respect period within affiliation period network solution network solution item included return saic member group included return member group saic section apportionment tax purpose taxable year group group consolidated federal tax liability shall apportioned purpose computing earnings profit accordance method provided section code income tax regulation section section excess loss account income amount excess loss account defined income tax regulation section aii stock subsidiary required reason included consolidated federal taxable income group network solution applicable subsidiary shall pay saic amount income franchise tax liability resulting inclusion payment shall made within ten day following end taxable year inclusion occurred section additional group member time saic network solution acquires form one subsidiary corporation includible corporation group consolidated federal income tax return saic network solution case may shall cause corporation become subject agreement reference subsidiary subsidiary herein appropriate shall thereafter interpreted refer network solution subsidiary group page section indemnity party agreement saic required pay tax irs state taxing authority excess separate company tax liability determined hereunder party shall entitled reimbursement excess liability payment party excess properly allocable agreement section miscellaneous injunction party acknowledge irreparable damage would occur event provision agreement performed accordance specific term otherwise breached party hereto shall entitled injunction injunction prevent breach provision agreement enforce specifically term provision hereof court jurisdiction remedy addition remedy may entitled law equity b severability term provision covenant restriction agreement held court competent jurisdiction invalid void unenforceable remainder term provision covenant restriction set forth herein shall remain full force effect shall way affected impaired invalidated hereby stipulated declared intention party would executed remaining term provision covenant restriction without including may hereafter declared invalid void unenforceable event term provision covenant restriction held invalid void unenforceable party hereto shall use best effort find employ alternate mean achieve substantially result contemplated term provision covenant restriction c assurance subject provision hereof party hereto shall make execute acknowledge deliver instrument document take action may reasonably required order effectuate purpose agreement consummate transaction contemplated hereby subject provision hereof party shall connection entering agreement performing obligation hereunder taking action relating hereto comply applicable law regulation order decree obtain required consent approval make required filing governmental agency regulatory administrative agency commission similar authority promptly provide party information may reasonably request order able comply provision sentence party interest except herein otherwise specifically provided nothing agreement expressed implied intended confer right benefit upon person firm corporation party respective successor permitted assigns page e waiver failure delay part party exercising power right hereunder shall operate waiver thereof shall single partial exercise right power abandonment discontinuance step enforce right power preclude exercise thereof exercise right power modification waiver provision agreement consent departure party therefrom shall event effective unless shall writing waiver consent shall effective specific instance purpose given f setoff payment made party agreement shall made without setoff counterclaim withholding expressly waived g change law due change applicable law regulation interpretation thereof court law governing body jurisdiction subsequent date agreement performance provision agreement transaction contemplated thereby shall become impracticable impossible party hereto shall use best effort find employ alternative mean achieve substantially result contemplated provision h confidentiality subject contrary requirement law right party enforce right hereunder legal action party agrees shall keep strictly confidential shall cause employee agent keep strictly confidential information agent employee may acquire pursuant course performing obligation provision agreement provided however obligation maintain confidentiality shall apply information time disclosure public domain result act receiving party ii possession receiving party time disclosure heading descriptive heading convenience shall control affect meaning construction provision agreement j counterpart convenience party number counterpart agreement may executed party hereto executed counterpart shall shall deemed original instrument k governing law agreement shall governed construed accordance law state california without regard conflict law provision l effect agreement agreement shall supersede tax sharing arrangement agreement effect party nothing agreement intended change otherwise affect election made behalf group respect calculation earnings profit section code page interest payment required made hereunder made due shall bear interest rate per annum determined time time prevailing average borrowing rate party required make payment n term agreement agreement shall become effective date hereof shall continue unless earlier terminated mutual agreement party expiration applicable statute limitation including extension affiliation period final date provided provision section shall continue apply final date extent deal matter relevant tax period end final date begin prior end final date modification agreement may modified amended pursuant instrument writing executed party hereto p entire agreement agreement constitutes entire agreement among party relating allocation consolidated combined tax liability group among party q notice notice consent request instruction approval communication provided herein shall validly given made served writing delivered personally telegram sent registered mail postage prepaid saic network solution address party may furnished party writing accordance section q page witness whereof undersigned party caused agreement executed duly authorized officer science application international corporation president secretary network solution inc president secretary business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlordtenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
+  </si>
+  <si>
     <t>onecle hom e sample business contract network solution inc contract printer friendly sample business contract tax sharing agreement science application international corp network solution inc popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link tax sharing agreement tax sharing agreement agreement science application international corporation delaware corporation saic network solution inc delaware corporation network solution whereas network solution anticipates offer public share cla s voting common stock represent approximately vote value total issued outstanding network solution stock stock whereas public offering saic class b stock wh ich represents approximately vote value total issued outstanding share stock accordingly network solution continue member affiliated group within meaning section int ernal revenue code amended code saic common parent corporation group saic continue include network solution consolidated federal income tax return accordance code section whereas section code provides earnings profit member affiliated group determined allocating tax liability group particular taxable year among member group accor dance whichever several allowable method group shall adopted group consolidated federal income tax return whereas party hereto deem equitable respect taxable year consolidated combined return filed behalf group network solution shall pay saic amount equal separate company tax liability hereinafter defined whereas party hereto wish provid e treatment various matter may arise result filing consolidated return party wish set forth agreement agreement saic network solution respect allocation settlemen federal state local tax group respect taxable period ending date hereof network solution included affiliated group saic common parent affiliation period therefore consideration mutual covenant contained herein party agree follows section filing return respect affiliation period saic shall file network solution shall agree join filing consolidated federal income tax return behalf group network solution shall execute file consent page election document saic reasonably request re pect filing group consolidated federal income tax return shall consistent section hereof timely provide saic information may necessary filing return determination amount due agreement network solution acknowledges agrees right conferred upon saic connection filing group return include witho ut limitation right reasonably determine allocation income loss saic subsidiary last affiliation period next taxable period network solution shall file federal state local foreign tax turn respect period network solution join saic filing consolidated combined return network solution shall responsible payment tax connection therewith network solution shall file tax return manner consistent manner saic filed return affiliation period except required law extent inconsistency would adversely affect return group section tax payme nt due date except otherwise provided herein network solution pay saic amount due saic determined section b later due date filing federal income tax return group th includes network solution ii saic pay network solution amount due network solution determined section c later due date filing federal income tax return group includes network solution provided however later estimated federal income tax payment date group group actually incurs federal income tax liability respect affiliation period network solution shall pay saic inimum amount required paid avoid imposition penalty addition tax code determined basis total amount due affiliation period section b amount overpayment underpayment pursuant section shall credited added case may amount otherwise required paid period within amount overpayment underpayment fir becomes reasonably ascertainable settlement may satisfied check wire transfer intercompany account party may mutually agree b amount due saic network solution shall pay saic time manner descr ibed section amount equal separate company tax liability network solution separate company tax liability affiliation period shall amount federal income tax liability including without limitat ion liability penalty fine addition tax interest minimum tax item applicable subsidiary connection determination subsidiary tax liability network solution would incurred filed sepa rate federal income tax return affiliation period computed manner prescribed income tax regulation section aii except carryforward carryback loss credit shall allowed page separate company tax liability network solution shall determined saic cooperation assistance network solution manner consistent general tax accounting principle ii code regulation thereunder iii long reasonable legal basis exists therefor prior custom practice notwithstanding anything contrary herein separate company tax liability shall construed include network solution federal applicable state income franchise tax liability including applicable alternative minimum tax liability extent alt ernative minimum tax liability incurred consolidated combined filing group case may computed without taking account net operating loss carryover carryback used group reduce consolidated tax l iability including liability attributable item recapture determined tax reporting purpose quarterly basis addition transaction item saic network solution deferred federal income tax return shall also deferred purpose agreement time restored otherwise triggered income code regulation c amount due network solution event network solution h ave separate company tax liability affiliation period instead either incurs net loss credit period saic shall pay network solution time manner prescribed section amount group federal income tax liability period actually reduced reason actual use loss credit group federal income tax return attributable network solution event network solution incurs tax loss tax credit permitted code regulation carried back forward one affiliation period saic shall pay network solution amount equal amount group federal income tax liability actually reduced r eason actual use carried loss credit group federal income tax return payment saic network solution required account carryover shall paid within day date benefit carryover realized saic reason receipt refund credit tax notwithstanding foregoing network soluti ons relinquish carryback net operating loss section b code successor provision affiliation period unless saic expressly agrees carryback network solution entitled pay ments agreement otherwise subsidiary defined section sustains loss credit taxable period eligible carried back affiliation period unless saic sole absolute discretion elec t file claim refund respect carryback item agrees permit network solution file claim ii saic actually receives refund credit tax respect thereto event provision herein notwithsta nding network solution shall entitled amount determined previous paragraph including interest actually paid taxing authority attributable thereto less amount reasonably determined saic equal present value determined page applicable short term federal rate code tax benefit group may deferred eliminated future increase tax liability group may incurred carryback iii saic indemnified network solution form satisfactory saic reasonable cost expense incurred pursuing refund cost shall paid ne twork solution regardless whether refund obtained subsequent adjustment loss credit carryback shall treated adjustment tax liability section paying agent saic agrees make required payme nt internal revenue service irs consolidated federal income tax liability group section adjustment tax liability adjustment related payment consolidated federal income tax liability group member adjusted taxable period reason loss credit carryback extent already provided section c whether mean amended return judicial decision claim refund tax audit irs separate company tax liability amount tax benefit realized group reason use network solution loss credit shall recomputed give effect adjustment amount payment due section hereof shall appropriately adjusted additional payment saic network solution required reason recomputed separate company tax liability group tax refund credit shall include allocable share refunded interest received irs applicable deficiency interest penalty addition tax applicable allocable share refunded interest deficiency interest penalty addition tax shall paid charged respectively network solution extent amount relates reduced group tax liability due decreased separate company tax liability increased group tax refund credit resulting increased use network solution loss credit one hand ii increased group tax liability due increased separate company tax liability decreased group tax benefit arising decreased use network solution loss credit hand b timing payment payment paid network solution section shall made earliest occur deci sion court competent jurisdiction subject judicial review appeal otherwise become final ii expiration time filing claim refund b instituting suit respect claim refund disallowed whole part irs irs took action iii execution closing agreement section code acceptance irs counsel offer compromise section code successor provision iv expiration day irs acceptance waiver restriction assessment collection deficiency tax overassessment internal revenue form ad successor comparable form b expiration ninety day period receipt statutory notice deficiency resulting immediate assessment unless within day saic notifies network solution intent page attempt recovery relevant amount paid waiver filing timely claim refund network solution requested saic attempt recovery relevant amount paid complied subject section hereof v expiration statute limitation respect relevant period vi event party reasonably agree final determination ax liability issue section book record saic network solution agree preparation federal income tax return amended return claim refund irs examination litigation relating foregoing may require use record information within exclusive possession control either saic network solution saic network solution provide record information assistance may include making employee foregoing entity available provide additional information explanation material hereunder requested saic network solution case may regular business hour connection development escribed preceding sentence provided however network solution shall provide saic information necessary enable saic file group consolidated federal income tax return affiliation period soon practicable event later five month last day affiliation period date group federal income tax return include network solution filed saic shall provide network solution portion return relati ng network solution party agrees shall retain expiration applicable statute limitation including extension copy tax return affiliation period period might ubject adjustment agreement supporting work schedule record information may relevant tax return party hereto destroy otherwise dispose record information without providing party reasonable opportunity review copy record information section assignment agreement shall transferable assignable either party hereto without prior wri tten consent party hereto right obligation hereunder party shall binding upon inure benefit party respective permitted successor assigns agreement shall binding upon corporation network solution owns directly indirectly stock meeting requirement section code subsidiary whether network solution owns stock corporation upon execution agreement time affiliation period network solution shall cause corporation soon practicable assent formally term hereof except herein otherwise specifically provided nothing agreement shall confer right benefit upon person entity party hereto respective successor permitted assigns section dispute dispute concerning interpretation section amount payment due agreement sha resolved saics regular outside accounting firm whose judgment shall conclusive binding party shall act consultation saics tax counsel page section tax controversy party receives notice tax examination audit challenge involving amount subject agreement party shall timely notify party information shall provide party written copy relevant letter form schedule received irs otherwise possession shall provide notice information relating material proceeding connection therewith audit conference proceeding irs judicial proceeding concerning determination federal income tax liability group member including network solution group member shall represented person selected saic except otherwise expressly provided section settlement term settlement issue relating proceeding shall sole discretion saic network solution hereby appoints saic agent purpose propos ing concluding settlement notwithstanding anything contrary agreement event shall saic obligated file amended return claim refund respect affiliation period section state loca l tax extent appropriate provision agreement shall apply force effect state local income tax liability computed combined consolidated unitary method provided however appropria te adjustment shall made provision hereof including computation separate company tax liability respect period within affiliation period network solution network solution item included return saic member group included return member group saic section apportionment tax purpose taxable year group group consolidated federal tax liability shall apportioned purpose computing earnings profit accordance method provided section code income tax regulation section section excess loss account income amount excess loss account defined income tax regulation section aii stock subsidiary required reason included consolidated federal taxable income group network solution applicable subsidiary shall pay saic amount income franchise tax liability resulting inclusion payment shall made within ten day following end taxable year inclusion occurred section additional group member time saic network solution acquires form one subsidiary corporation includible corporation group consolidated fed eral income tax return saic network solution case may shall cause corporation become subject agreement reference subsidiary subsidiary herein appropriate shall thereafter interpreted refer network solution subsidiary group page section indemnity party agreement saic required pay tax irs state taxing authority excess separate company tax liability determined hereunder party shall entitled reimbursement excess liability payment party excess prop erly allocable agreement section miscellaneous injunction party acknowledge irreparable damage would occur event provision agreement performed accordance specific term otherwise breached party hereto shall entitled injunction injunction prevent breach provision agreement enforce specifically term provision hereof court jurisdi ction remedy addition remedy may entitled law equity b severability term provision covenant restriction agreement held court competent jurisdiction invalid void unenforceable remainder term provision covenant restriction set forth herein shall remain full force effect shall way affected impaired invalidated hereby stipulated declared int ention party would executed remaining term provision covenant restriction without including may hereafter declared invalid void unenforceable event term provision coven ant restriction held invalid void unenforceable party hereto shall use best effort find employ alternate mean achieve substantially result contemplated term provision covena nt restriction c assurance subject provision hereof party hereto shall make execute acknowledge deliver instrument document take action may reasonably required order effectuate purpose agreement consummate transaction contemplated hereby subject provision hereof party shall connect ion entering agreement performing obligation hereunder taking action relating hereto comply applicable law regulation order decree obtain required consent approval make required f ilings governmental agency regulatory administrative agency commission similar authority promptly provide party information may reasonably request order able comply provision sentence party interest except herein otherwise specifically provided nothing agreement expressed implied intended confer right benefit upon person firm corporation party thei r respective successor permitted assigns page e waiver failure delay part party exercising power right hereunder shall operate waiver thereof shall single partial exercise right power abandonment discontinuance step enforce right power preclude exercise thereof exercise right power modification waiver provision agreement consent departure party therefrom shall event effective unless shall writing waiver consent shall effective specific instance purpose given f setoff payment made party agreement shall made without setoff counterc laim withholding expressly waived g change law due change applicable law regulation interpretation thereof court law governing body jurisdiction subsequent date agreement performance provision agreement transaction contemplated thereby shall become impracticable impossible party hereto shall use best effort find employ alternative mean achieve substantially result contemplated provision h confidentiality subject contrary requirement law right party enforce right hereunder legal action party agrees sha keep strictly confidential shall cause employee agent keep strictly confidential information agent employee may acquire pursuant course performing obligation provision f agreement provided however obligation maintain confidentiality shall apply information time disclosure public domain result act receiving party ii possession f receiving party time disclosure heading descriptive heading convenience shall control affect meaning construction provision agreement j counterpart convenience party number counterpart agreement may executed party hereto executed counterpart shall shall deemed original instrument k governing law agreement shall governed construed accordance law state california without regard conflict law provision l effect agreement agreement shall supersede tax sharing arrangement agreement effect party nothing agreement intended change otherwise affect election made behalf gr oup respect calculation earnings profit section code page interest payment required made hereunder made due shall bear interest rate per annum determined time time prevailing average borrowing rate party required make payment n term agreement agreement shall become effective date hereof shall continue unless earlier terminated mutual agreement party expiration applicable statute limitation including extension affiliation period final date provided provision section shall continue apply final date extent deal matter relevant tax period end final date begin prior end afte r final date modification agreement may modified amended pursuant instrument writing executed party hereto p entire agreement agreement constitutes entire agreement among party relating allocation consolidated combined tax liability group among party q notice notice consent request instruction approval communication provided herein shall validly given made served writing delivered personally telegram sent registered mail postage prepaid saic network solution address party may furnished party writing accordance section q page witness whereof undersigned party caused agr eement executed duly authorized officer science application international corporation president secretary network solution inc president secretary business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
   </si>
   <si>
-    <t>onecle hom e sample business contract network solution inc contract printer friendly sample business contract tax sharing agreement science application international corp network solution inc popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link tax sharing agreement tax sharing agreement agreement science application international corporation delaware corporation saic network solution inc delaware corporation network solution whereas network solution anticipates offer public share class voting common stock represent approximately vote value total issued outstanding network solution stock stock whereas public offering saic class b stock represents approximately vote value total issued outstanding share stock accordingly network solution continue member affiliated group within meaning section internal revenue code amended code saic common parent corporation group saic continue include network solution consolidated federal income tax return accordance code section whereas section code provides earnings profit member affiliated group determined allocating tax liability group particular taxable year among member group accordance whichever several allowable method group shall adopted group consolidated federal income tax return whereas party hereto deem equitable respect taxable year consolidated combined return filed behalf group network solution shall pay saic amount equal separate company tax liability hereinafter defined whereas party hereto wish provide treatment various matter may arise result filing consolidated return party wish set forth agreement agreement saic network solution respect allocation settlement federal state local tax group respect taxable period ending date hereof network solution included affiliated group saic common parent affiliation period therefore consideration mutual covenant contained herein party agree follows section filing return respect affiliation period saic shall file network solution shall agree join filing consolidated federal income tax return behalf group network solution shall execute file consent page election document saic reasonably request respect filing group consolidated federal income tax return shall consistent section hereof timely provide saic information may necessary filing return determination amount due agreement network solution acknowledges agrees right conferred upon saic connection filing group return include without limitation right reasonably determine allocation income loss saic subsidiary last affiliation period next taxable period network solution shall file federal state local foreign tax return respect period network solution join saic filing consolidated combined return network solution shall responsible payment tax connection therewith network solution shall file tax return manner consistent manner saic filed return affiliation period except required law extent inconsistency would adversely affect return group section tax payment due date except otherwise provided herein network solution pay saic amount due saic determined section b later due date filing federal income tax return group includes network solution ii saic pay network solution amount due network solution determined section c later due date filing federal income tax return group includes network solution provided however later estimated federal income tax payment date group group actually incurs federal income tax liability respect affiliation period network solution shall pay saic minimum amount required paid avoid imposition penalty addition tax code determined basis total amount due affiliation period section b amount overpayment underpayment pursuant section shall credited added case may amount otherwise required paid period within amount overpayment underpayment first becomes reasonably ascertainable settlement may satisfied check wire transfer intercompany account party may mutually agree b amount due saic network solution shall pay saic time manner described section amount equal separate company tax liability network solution separate company tax liability affiliation period shall amount federal income tax liability including without limitation liability penalty fine addition tax interest minimum tax item applicable subsidiary connection determination subsidiary tax liability network solution would incurred filed separate federal income tax return affiliation period computed manner prescribed income tax regulation section aii except carryforward carryback loss credit shall allowed page separate company tax liability network solution shall determined saic cooperation assistance network solution manner consistent general tax accounting principle ii code regulation thereunder iii long reasonable legal basis exists therefor prior custom practice notwithstanding anything contrary herein separate company tax liability shall construed include network solution federal applicable state income franchise tax liability including applicable alternative minimum tax liability extent alternative minimum tax liability incurred consolidated combined filing group case may computed without taking account net operating loss carryover carryback used group reduce consolidated tax liability including liability attributable item recapture determined tax reporting purpose quarterly basis addition transaction item saic network solution deferred federal income tax return shall also deferred purpose agreement time restored otherwise triggered income code regulation c amount due network solution event network solution separate company tax liability affiliation period instead either incurs net loss credit period saic shall pay network solution time manner prescribed section amount group federal income tax liability period actually reduced reason actual use loss credit group federal income tax return attributable network solution event network solution incurs tax loss tax credit permitted code regulation carried back forward one affiliation period saic shall pay network solution amount equal amount group federal income tax liability actually reduced reason actual use carried loss credit group federal income tax return payment saic network solution required account carryover shall paid within day date benefit carryover realized saic reason receipt refund credit tax notwithstanding foregoing network solution relinquish carryback net operating loss section b code successor provision affiliation period unless saic expressly agrees carryback network solution entitled payment agreement otherwise subsidiary defined section sustains loss credit taxable period eligible carried back affiliation period unless saic sole absolute discretion elect file claim refund respect carryback item agrees permit network solution file claim ii saic actually receives refund credit tax respect thereto event provision herein notwithstanding network solution shall entitled amount determined previous paragraph including interest actually paid taxing authority attributable thereto less amount reasonably determined saic equal present value determined page applicable short term federal rate code tax benefit group may deferred eliminated future increase tax liability group may incurred carryback iii saic indemnified network solution form satisfactory saic reasonable cost expense incurred pursuing refund cost shall paid network solution regardless whether refund obtained subsequent adjustment loss credit carryback shall treated adjustment tax liability section paying agent saic agrees make required payment internal revenue service irs consolidated federal income tax liability group section adjustment tax liability adjustment related payment consolidated federal income tax liability group member adjusted taxable period reason loss credit carryback extent already provided section c whether mean amended return judicial decision claim refund tax audit irs separate company tax liability amount tax benefit realized group reason use network solution loss credit shall recomputed give effect adjustment amount payment due section hereof shall appropriately adjusted additional payment saic network solution required reason recomputed separate company tax liability group tax refund credit shall include allocable share refunded interest received irs applicable deficiency interest penalty addition tax applicable allocable share refunded interest deficiency interest penalty addition tax shall paid charged respectively network solution extent amount relates reduced group tax liability due decreased separate company tax liability increased group tax refund credit resulting increased use network solution loss credit one hand ii increased group tax liability due increased separate company tax liability decreased group tax benefit arising decreased use network solution loss credit hand b timing payment payment paid network solution section shall made earliest occur decision court competent jurisdiction subject judicial review appeal otherwise become final ii expiration time filing claim refund b instituting suit respect claim refund disallowed whole part irs irs took action iii execution closing agreement section code acceptance irs counsel offer compromise section code successor provision iv expiration day irs acceptance waiver restriction assessment collection deficiency tax overassessment internal revenue form ad successor comparable form b expiration ninety day period receipt statutory notice deficiency resulting immediate assessment unless within day saic notifies network solution intent page attempt recovery relevant amount paid waiver filing timely claim refund network solution requested saic attempt recovery relevant amount paid complied subject section hereof v expiration statute limitation respect relevant period vi event party reasonably agree final determination tax liability issue section book record saic network solution agree preparation federal income tax return amended return claim refund irs examination litigation relating foregoing may require use record information within exclusive possession control either saic network solution saic network solution provide record information assistance may include making employee foregoing entity available provide additional information explanation material hereunder requested saic network solution case may regular business hour connection development described preceding sentence provided however network solution shall provide saic information necessary enable saic file group consolidated federal income tax return affiliation period soon practicable event later five month last day affiliation period date group federal income tax return include network solution filed saic shall provide network solution portion return relating network solution party agrees shall retain expiration applicable statute limitation including extension copy tax return affiliation period period might subject adjustment agreement supporting work schedule record information may relevant tax return party hereto destroy otherwise dispose record information without providing party reasonable opportunity review copy record information section assignment agreement shall transferable assignable either party hereto without prior written consent party hereto right obligation hereunder party shall binding upon inure benefit party respective permitted successor assigns agreement shall binding upon corporation network solution owns directly indirectly stock meeting requirement section code subsidiary whether network solution owns stock corporation upon execution agreement time affiliation period network solution shall cause corporation soon practicable assent formally term hereof except herein otherwise specifically provided nothing agreement shall confer right benefit upon person entity party hereto respective successor permitted assigns section dispute dispute concerning interpretation section amount payment due agreement shall resolved saics regular outside accounting firm whose judgment shall conclusive binding party shall act consultation saics tax counsel page section tax controversy party receives notice tax examination audit challenge involving amount subject agreement party shall timely notify party information shall provide party written copy relevant letter form schedule received irs otherwise possession shall provide notice information relating material proceeding connection therewith audit conference proceeding irs judicial proceeding concerning determination federal income tax liability group member including network solution group member shall represented person selected saic except otherwise expressly provided section settlement term settlement issue relating proceeding shall sole discretion saic network solution hereby appoints saic agent purpose proposing concluding settlement notwithstanding anything contrary agreement event shall saic obligated file amended return claim refund respect affiliation period section state local tax extent appropriate provision agreement shall apply force effect state local income tax liability computed combined consolidated unitary method provided however appropriate adjustment shall made provision hereof including computation separate company tax liability respect period within affiliation period network solution network solution item included return saic member group included return member group saic section apportionment tax purpose taxable year group group consolidated federal tax liability shall apportioned purpose computing earnings profit accordance method provided section code income tax regulation section section excess loss account income amount excess loss account defined income tax regulation section aii stock subsidiary required reason included consolidated federal taxable income group network solution applicable subsidiary shall pay saic amount income franchise tax liability resulting inclusion payment shall made within ten day following end taxable year inclusion occurred section additional group member time saic network solution acquires form one subsidiary corporation includible corporation group consolidated federal income tax return saic network solution case may shall cause corporation become subject agreement reference subsidiary subsidiary herein appropriate shall thereafter interpreted refer network solution subsidiary group page section indemnity party agreement saic required pay tax irs state taxing authority excess separate company tax liability determined hereunder party shall entitled reimbursement excess liability payment party excess properly allocable agreement section miscellaneous injunction party acknowledge irreparable damage would occur event provision agreement performed accordance specific term otherwise breached party hereto shall entitled injunction injunction prevent breach provision agreement enforce specifically term provision hereof court jurisdiction remedy addition remedy may entitled law equity b severability term provision covenant restriction agreement held court competent jurisdiction invalid void unenforceable remainder term provision covenant restriction set forth herein shall remain full force effect shall way affected impaired invalidated hereby stipulated declared intention party would executed remaining term provision covenant restriction without including may hereafter declared invalid void unenforceable event term provision covenant restriction held invalid void unenforceable party hereto shall use best effort find employ alternate mean achieve substantially result contemplated term provision covenant restriction c assurance subject provision hereof party hereto shall make execute acknowledge deliver instrument document take action may reasonably required order effectuate purpose agreement consummate transaction contemplated hereby subject provision hereof party shall connection entering agreement performing obligation hereunder taking action relating hereto comply applicable law regulation order decree obtain required consent approval make required filing governmental agency regulatory administrative agency commission similar authority promptly provide party information may reasonably request order able comply provision sentence party interest except herein otherwise specifically provided nothing agreement expressed implied intended confer right benefit upon person firm corporation party respective successor permitted assigns page e waiver failure delay part party exercising power right hereunder shall operate waiver thereof shall single partial exercise right power abandonment discontinuance step enforce right power preclude exercise thereof exercise right power modification waiver provision agreement consent departure party therefrom shall event effective unless shall writing waiver consent shall effective specific instance purpose given f setoff payment made party agreement shall made without setoff counterclaim withholding expressly waived g change law due change applicable law regulation interpretation thereof court law governing body jurisdiction subsequent date agreement performance provision agreement transaction contemplated thereby shall become impracticable impossible party hereto shall use best effort find employ alternative mean achieve substantially result contemplated provision h confidentiality subject contrary requirement law right party enforce right hereunder legal action party agrees shall keep strictly confidential shall cause employee agent keep strictly confidential information agent employee may acquire pursuant course performing obligation provision agreement provided however obligation maintain confidentiality shall apply information time disclosure public domain result act receiving party ii possession receiving party time disclosure heading descriptive heading convenience shall control affect meaning construction provision agreement j counterpart convenience party number counterpart agreement may executed party hereto executed counterpart shall shall deemed original instrument k governing law agreement shall governed construed accordance law state california without regard conflict law provision l effect agreement agreement shall supersede tax sharing arrangement agreement effect party nothing agreement intended change otherwise affect election made behalf group respect calculation earnings profit section code page interest payment required made hereunder made due shall bear interest rate per annum determined time time prevailing average borrowing rate party required make payment n term agreement agreement shall become effective date hereof shall continue unless earlier terminated mutual agreement party expiration applicable statute limitation including extension affiliation period final date provided provision section shall continue apply final date extent deal matter relevant tax period end final date begin prior end final date modification agreement may modified amended pursuant instrument writing executed party hereto p entire agreement agreement constitutes entire agreement among party relating allocation consolidated combined tax liability group among party q notice notice consent request instruction approval communication provided herein shall validly given made served writing delivered personally telegram sent registered mail postage prepaid saic network solution address party may furnished party writing accordance section q page witness whereof undersigned party caused agreement executed duly authorized officer science application international corporation president secretary network solution inc president secretary business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
-  </si>
-  <si>
     <t>b new york state local quarterly sale use tax return department taxation finance quarterly st sale tax identification number legal name print id number legal name appears certificate authority dba business name number streetcity state zip code proceed step page office use onlyno tax due taxable sale taxable purchase credit report period complete step enter none box complete step final return sell discontinue business change form business required file final return applicable information completed step must file final return within day last day business change status return include tax due business operation last day business well tax collected asset sell mark x box final return address business information changed mark x box address listed new changed step return summary see instruction st page mandate use sale tax web file filer fall requirement see form sti instruction form st b business form changed sole proprietor partnership partnership corporation etc addition filing final return must also apply new certificate authority new entity see business form changed instruction gross sale service nontaxable sale b gross credit card debit card deposit optional step final return information see instruction business sold discontinued mark x appropriate box business sold discontinued sold insolvent owner deceased dissolved note intend sell business business asset including tangible intangible real property ordinary course business must give prospective purchaser copy form tp notice prospective purchaser business business asset must also provide u following information last day business date sale sale price whole part name address purchaser name address business location property w sale tax collected taxable item furniture fixture etc included sale e noare claiming credit step return schedule mark x box ye enter total amount credit claimed complete form st att see claiming credit instruction income reporting information different entity file corporation tax partnership personal income tax return report income business enter entity federal employer identification number ein social security number ssn leave field blank entity file sale tax return report income business arent required file income tax return example ny governmental entity id numbertax period rd quarter september november due wednesday december page st quarterly sale tax identification number new york state ne albany county al allegany county al broome county br cattaraugus county outside following ca olean city ol salamanca city sa cayuga county outside following ca auburn city au chautauqua county ch chemung county ch chenango county outside following ch norwich city clinton county cl columbia county co cortland county co delaware county de dutchess county du erie county er essex county e franklin county fr fulton county outside following fu gloversville city gl johnstown city jo genesee county ge greene county gr hamilton county ha herkimer county jef ferson county je lewis county le livingston county li madison county outside following oneida city monroe county mo montgomery county mo nassau county na niagara county ni oneida county outside following rome city ro utica city ut onondaga county ontario county orange county orleans county oswego county outside following o oswego city o otsego county ot step calculate sale use tax see instruction column c column column e column f axable sale purchase subject tax rate sale service tax use tax c e column column b axing jurisdiction jurisdiction code column subtotal also enter page box enter total form st page step box box enter sum total schedule b h n w quarterly st page sale tax identification number column c column column e column f axable sale purchase subject tax rate sale use tax service tax c e column column b axing jurisdiction jurisdiction code internal code column g column h column j axable receipt tax rate special tax due g hstep calculate special tax see instruction passenger car rental outside mctd p passenger car rental within mctd p information entertainment service furnished via telephony telegraphy total special tax step tax credit advance payment see instruction credit prepaid sale tax cigarette cr c overpayment carried forward prior period c advance payment made form st total tax credit advance payment overpayment internal code column k credit amount proceed step page total box box see page instruction putnam county pu rensselaer county rockland county ro st lawrence county st saratoga county outside following sa saratoga spring city sa schenectady county sc schoharie county sc schuyler county sc seneca county se steuben county st suf folk county su sullivan county su ioga county ti ompkins county outside following ithaca city ulster county ul w arren county outside following w glen fall city gl w ashington county w w ayne county w w estchester county outside following mount v ernon city mo new rochelle city ne white plain city wh onkers city yo wyoming county wy ate county new york citystate combined tax new york city includes county bronx king brooklyn new york manhattan queen richmond staten island ne new york statemctd ne new york city local tax ne column subtotal page box column total b ba box box box amount amount amount step calculate tax due step calculate vendor collection credit pay penalty interest see instructionstaxes due vendor collection credit penalty interest calculated amount box tax due pay penalty interest filing latepenalty interest page st quarterly orsales tax identification number vendor collection credit box amount box amount enter amount schedule fr instructed schedule sure enter amount positive number credit rate box enter amount calculated aking vendor collection credit subtract box box paying penalty interest add box box enter payment amount amount match amount due box make check money order payable new york state sale tax write check sale tax identification number st filing return due date andor paying full amount tax due stop eligible vendor collection credit eligible enter box go badd sale use tax column total box total special tax box subtract total tax credit advance payment overpayment box enter result box total amount due step calculate total amount due see instruction amount due amount paid step sign mail return see instr please sure keep completed copy recordsmust postmarked wednesday december considered filed time see complete mailing information dont forget write sale tax id number st dont forget sign check st december new ork state sale tax payment amount xxxxxx need help see form sti st quarterly instruction page file return attachment using private delivery service rather u postal service see publication designated private delivery service web file return wwwtaxnygov see highlight instruction required web file mail return attachment ny sale tax processing po box albany ny authorized person signature authorized person official title email address authorized person elephone number date firm name selfemployed firm ein preparer ptin ssn signature individual preparing return address city state zip code email address individual preparing return elephone number preparer nytprin nytprin date excl code paid preparer use see instr want allow another person discus return ax dept see instruction yes complete following designee name designee phone number personal identification number pin designees email addressthird party designee</t>
   </si>
   <si>
@@ -265,36 +226,36 @@
     <t>form va c rev va c virginia department taxation virginia corporat ion income tax efile signature authorization tax year send va c va dept taxation irs must maintained file corporation name federal id numb er part tax return information federal taxable income form page line virginia taxable income form page line income tax form page line total payment credit form page line total due form p age line amount refunded form page line part ii declaration signature authorization officer penalty perjury declare officer corporation examined copy corporation electronic return accompanying schedule statement best knowledge belief true correct complete furthe r declare information provided electronic retur n originator ero transmitter intermediate service provider including amount shown part agrees information amount shown corresponding line corporate electronic income tax return filing balance due r eturn authorize virginia department taxation designated financial agent initiate ach electronic fund withdrawal entry financial institution account indicated virginia income tax return payment state tax owed return also authorize financial institution involved processing electronic payment tax receive confidential information necessary answer inquiry resolve issue related payment certify transaction directly involve financial institution outside territorial jurisdiction united state point process understand virginia department taxation receive full timely payment tax liability corporation remain liable tax liability applicable interest penalty authorize ero transmitter intermediate service provider transmit complete return virginia department taxation selected personal identification number pin signature corporation electronic income tax return officer efile pin check one box authorize ero named enter e file pin signature corporation electronic virginia corporation income tax return enter zero ero firm name enter e file pin signature corporation electronic virginia corporation income tax return check box entering efile pin return filed using practitioner pin method ero must complete part iii signature date part iii certification authentication eros efinpin enter six digit efin followed five digit self selected pin enter zero certify numeric entry ero efin pin signature virginia corporation income tax return corporation indicated confirm submitting return accordance requirement practitioner pin method followed requirement specified department eros may sign form using rubber stamp mechanical device signature pen computer software program eros signature date form va c rev purpose form note form retained ero send form virginia department taxation irs complete form vac practitioner pin method used corporate officer authorizes electronic return originator ero enter generate corporate officer efile personal identification number pin electronic corporation income tax return complete ero using prac titioner pin method corporate officer enters pin complete form vac submitting form va c complete form vac using prac titioner pin method authorized enter generate corporation efile pin complete form vac part ii iii using prac titioners pin method nd corporate officer enters efile pin complete form va c part ii iii using prac titioner pin method authorized enter generate corporate officer efile pin complete form vac part ii ero responsibility ero enter corporation name federal identification number corporation top form complete part using amount corporation tax return enter generate authorized corporate officer officer efile pin box provided part ii enter authorization line part ii ero firm name name individual preparing return ero authorized enter officer efile pin completing give officer form va c completion review done person using u mail private delivery service email internet website eros may sign part iii form using alternativ e signature method using rubber stamp mechanical device signature pen computer software program signature must include either facsimile eros signature eros printed name note ero must receive complet ed signed form vac corporate officer electronic return request refund transmitted released transmission officer responsibility officer following responsibility verify accuracy pre pared corporation income tax return check appropriate box part ii authorize ero enter generate efile pin choose person indicate verify efile pin authorizing ero enter generate efile pin must five number zero sign date form va c return completed form va c ero hand delivery u mail private delivery service fax federal banking regulation imposed additional reporting requirement electronic banking transaction directly involve financial institution outside territorial jurisdiction united state point process called international ach transaction iat include elect ronic direct debit tax payment present virginia department taxation department support iat taxpayer instruct department process electronic banking transaction behalf certifying transaction directly involve financial institution outside territorial jurisdiction united state point process note return request transmitted virginia department taxation ero receives signed form vac send form virginia department taxation irs</t>
   </si>
   <si>
+    <t>tax receivable agreement tax receivable agreement agreement dated may among ltd sub ltd sub b defined herein wholly owned indirect subsidiary lazard ltd bermuda company lazard lfcm holding llc delaware limited liability company lfcm whereas december lazard lazard llc delaware limited liability company taxable partnership u federal income tax purpose renamed lazard group llc lazard group lazmd holding llc delaware limited liability company lazmd entered certain class b class c member transaction agreement relating lazard group buyout agreement whereas pursuant buyout agreement certain interest historic partner lazard group historic partner shall redeemed cash redemption whereas pursuant buyout agreement lazard group historic partner agreed treat portion consideration paid historic partner redemption received sale exchange pursuant section ab internal revenue code amended code remainder consideration received historic partner distribution whereas connection transaction contemplated buyout agreement certain member lazard group exchangeable holder issued class exchangeable membership interest lazmd exchangeable interest effectively exchangeable oneforone basis share lazard exchange whereas exchange expected effected via exchangeable holder transfer lazard group interest directly ltd sub ltd sub b ltd exchanging subsidiary transaction intended result exchangeable holder recognition gain loss u federal income tax purpose taxable exchange described herein whereas lazard group shall effect election section code taxable year defined herein redemption occurs election result adjustment ltd exchanging subsidiary share tax basis asset owned lazard group redemption date asset asset whose tax basis determined whole part reference adjusted basis asset original asset reason redemption whereas lazard group intends effect election section code taxable year taxable exchange occurs election result adjustment ltd exchanging subsidiary share tax basis asset owned lazard group date taxable exchange whereas lazard ltd exchanging subsidiary immediately following redemption controlling interest lazard group portion common membership interest lazard group whereas income gain loss expense tax item lazard group relevant lazard ltd taxpayer defined herein may affected basis adjustment defined herein imputed interest defined herein whereas party agreement desire make certain arrangement respect effect basis adjustment imputed interest actual liability covered tax relevant lazard ltd taxpayer defined herein therefore consideration foregoing respective covenant agreement set forth herein intending legally bound hereby party hereto agree follows article definition definition used agreement term set forth article shall following meaning meaning equally applicable singular plural form term defined advisory firm mean accounting law firm nationally recognized expert covered tax matter determined audit committee audit committee shall select advisory firm advisory firm letter shall mean letter advisory firm stating relevant schedule notice information provided ltd exchanging subsidiary lfcm supporting schedule work paper prepared manner consistent term agreement extent expressly provided agreement reasonable basis light fact law existence date schedule notice information delivered lfcm agreed rate mean libor plus basis point agreement defined preamble amended tax benefit schedule defined section b agreement applicable treasury rate mean rate equal yield maturity date early termination notice delivered delivery date u treasury security constant maturity applicable maturity compiled published recent federal reserve statistical release h equal delivery date third anniversary redemption date prior fifth anniversary redemption date year delivery date b delivery date fifth anniversary redemption date prior fifteenth anniversary redemption date number year delivery date fifteenth anniversary redemption date c delivery date fifteenth anniversary redemption date two year delivery date u treasury security constant maturity equal applicable maturity yield maturity shall interpolated u treasury security constant maturity nearly longer shorter applicable maturity audit committee mean audit committee board director lazard basis adjustment mean increase decrease tax basis relevant lazard ltd taxpayer share tax basis lazard group asset section b b code comparable section u state local income franchise tax law result redemption ii section b code comparable section u state local income franchise tax law result taxable exchange iii section b result payment agreement avoidance doubt payment agreement shall treated resulting basis adjustment extent payment relate redemption treated imputed interest business day mean calendar day saturday sunday calendar day bank required authorized closed city new york buyout agreement defined recital change control event mean occurrence following event consummation one related transaction merger amalgamation consolidation statutory share exchange similar form corporate transaction involving lazard lazard group reorganization b sale disposition substantially asset lazard lazard group entity controlled subsidiary lazard sale reorganization sale requires approval lazards stockholder law bermuda whether approval required reorganization sale issuance security lazard reorganization sale rule regulation principal trading exchange lazards class common share unless immediately following reorganization sale substantially individual entity beneficial owner term defined rule exchange act successor rule thereto share lazard security lazard share shall changed reason reorganization share security eligible vote election board together lazard voting security outstanding immediately prior consummation reorganization sale beneficially directly indirectly combined voting power outstanding voting security corporation resulting reorganization sale including without limitation corporation result transaction owns lazard substantially lazards asset either directly one subsidiary continuing corporation substantially proportion ownership immediately prior consummation reorganization sale outstanding lazard voting security excluding outstanding voting security continuing corporation beneficial owner hold immediately following consummation reorganization sale result ownership prior consummation voting security company entity involved forming part reorganization sale lazard ii stockholder lazard approve plan complete liquidation dissolution lazard iii person term used section exchange act corporation entity group used section exchange act lazard b trustee fiduciary holding security employee benefit plan lazard affiliate lazard c person controlled substantially thencurrent managing director lazard provided individual person control person company owned directly indirectly stockholder lazard substantially proportion ownership voting power lazard voting security becomes beneficial owner directly indirectly security lazard representing combined voting power lazard voting security provided however purpose subparagraph iii acquisition employee benefit plan related trust sponsored maintained lazard affiliate lazard shall constitute change control event change control termination payment defined section c agreement change notice defined section agreement code defined recital covered taxable year mean taxable year relevant lazard ltd taxpayer ending redemption date end taxable year including date twentiethfourth th anniversary redemption date covered tax mean u federal income tax u state local income franchise tax determination shall meaning ascribed term section code similar provision state local income franchise tax law applicable early termination notice defined section agreement early termination payment defined section b agreement early termination rate mean applicable treasury rate plus basis point escrow agent defined section agreement escrow agreement defined section agreement exchange defined recital exchange act mean security exchange act amended successor statute thereto exchange asset mean asset owned lazard group applicable exchange date asset whose tax basis determined whole part reference adjusted basis asset exchange basis schedule defined section agreement exchange date mean date taxable exchange effected exchangeable holder defined recital federal income tax mean tax imposed subtitle code provision u federal income tax law including without limitation tax imposed section code interest addition tax penalty applicable related tax governmental entity mean federal state local provincial foreign government court competent jurisdiction administrative agency commission governmental authority instrumentality whether domestic foreign hypothetical tax basis mean respect asset time tax basis asset would time basis adjustment made result redemption applicable taxable exchange case may hypothetical tax liability mean respect covered taxable year liability covered tax relevant lazard ltd taxpayer using method election convention similar practice used actual tax return relevant lazard ltd taxpayer using hypothetical tax basis instead actual tax basis relevant asset excluding deduction attributable imputed interest imputed interest shall mean interest imputed section provision code successor u federal income tax statute similar section applicable u state local income franchise tax law respect ltd exchanging subsidiary payment obligation agreement ipo proceeds mean aggregate proceeds sale lazard share initial public offering net underwriter discount commission directly allocated expense irs mean u internal revenue service lazmd defined recital lazard defined preamble lfcm defined preamble lfcm operating agreement mean operating agreement lfcm dated may ltd exchanging subsidiary defined recital ltd exchanging subsidiary payment defined section agreement ltd sub ltd sub b defined schedule agreement libor mean month portion thereof period interest rate per annum equal rate per annum reported date two day prior first day month telerate page screen shall cease publicly available reported reuters screen page libo publicly available source market rate london interbank offered rate u dollar deposit month portion thereof person mean includes individual firm corporation partnership including without limitation limited general limited liability partnership company limited liability company trust joint venture association joint stock company unincorporated organization similar entity governmental entity potential reduction defined section agreement proceeding defined section agreement realized tax benefit mean covered taxable year excess hypothetical tax liability actual liability covered tax relevant lazard ltd taxpayer covered taxable year less fee charge expense advisory firm expert described section related agreement paid relevant lazard ltd taxpayer relevant covered taxable year avoidance doubt realized tax benefit shall take account difference ability ltd sub b use foreign tax credit offset u federal income tax liability calculating hypothetical tax liability actual liability covered tax covered taxable year portion actual tax liability covered tax covered taxable year arises result audit taxing authority covered taxable year liability shall included determining realized tax benefit realized tax detriment unless determination realized tax detriment mean covered taxable year excess actual liability covered tax relevant lazard ltd taxpayer hypothetical tax liability covered taxable year plus fee charge expense advisory firm expert described section related agreement paid relevant lazard ltd taxpayer relevant covered taxable year avoidance doubt realized tax detriment shall take account difference ability ltd sub b use foreign tax credit offset u federal income tax liability calculating hypothetical tax liability actual liability covered tax covered taxable year portion actual tax liability covered tax covered taxable year arises result audit taxing authority covered taxable year liability shall included determining realized tax benefit realized tax detriment unless determination reconciliation procedure shall mean procedure set forth section agreement redemption defined recital redemption basis schedule defined section agreement redemption date mean date redemption effected relevant lazard ltd taxpayer mean ltd sub successor assigns ii ltd sub b successor assigns iii consolidated combined unitary group containing either ltd sub ltd sub b case may respective successor andor assigns scheduled termination date shall mean date agreement would terminate absence early termination notice senior obligation defined section agreement subsidiary mean entity lazard directly indirectly possesses fifty percent total combined voting power class stock lazard group lazard group finance llc respective subsidiary tax benefit payment defined section b agreement tax benefit schedule defined section agreement taxable exchange defined recital taxable year mean taxable year defined section b code comparable section u state local income franchise tax law applicable therefore avoidance doubt may include period less month tax return made tax mean form taxation duty imposed required collected withheld including without limitation charge together related interest penalty additional amount ii liability payment amount type described preceding clause result member affiliated consolidated combined unitary group iii liability payment amount result party tax sharing agreement agreement result express implied obligation indemnify person respect payment amount described immediately preceding clause ii obligation indemnify agreement tax return mean return filing report questionnaire information statement document required filed including amended return may filed taxable period taxing authority whether payment required made respect filing taxing authority mean irs state local foreign governmental entity responsible administration tax treasury regulation mean final temporary proposed regulation code promulgated time time including corresponding provision succeeding provision effect relevant taxable period valuation assumption shall mean valuation date assumption described schedule b agreement valuation date mean date early termination notice purpose determining early termination payment change control termination payment article ii determination realized tax benefit realized tax detriment section redemption date basis adjustment pursuant buyout agreement lazard group historic partner agreed treat consideration paid historic partner redemption sale exchange pursuant section ab code sale extent consideration originates ipo proceeds ii distribution pursuant section b section b code distribution extent total redemption consideration exceeds ipo proceeds ltd exchanging subsidiary lfcm hereby agree historic partner lazard group redeemed cash redemption shall recognize gain redemption date section code ii ltd exchanging subsidiary share basis original asset shall increased excess sale proceeds ltd exchanging subsidiary proportionate share basis original asset redemption date iii basis original asset shall increased amount gain recognized historic partner lazard group respect distribution ltd exchanging subsidiary lfcm shall treat gain basis adjustment occurring entirely redemption date unless determination contrary purpose agreement ltd exchanging subsidiary lfcm shall take account fair market value right receive payment agreement determining amount sale proceeds amount gain recognized historic partner redemption date ii shall treat payment made agreement respect redemption resulting basis adjustment section redemption basis schedule within calendar day redemption date ltd exchanging subsidiary shall deliver lfcm schedule redemption basis schedule approved audit committee show reasonable detail purpose covered tax actual tax basis redemption date original asset ii basis adjustment respect original asset result sale distribution iii period period original asset amortizable depreciable purpose covered tax time ltd exchanging subsidiary deliver redemption basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation redemption basis schedule advisory firm letter supporting redemption basis schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule redemption basis schedule shall become final binding party unless lfcm within calendar day receiving redemption basis schedule provides ltd exchanging subsidiary notice material objection redemption basis schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day redemption basis schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure b amended redemption basis schedule redemption basis schedule may amended time time ltd exchanging subsidiary consent audit committee connection determination ii correct inaccuracy original redemption basis schedule identified redemption date result receipt additional information relating fact circumstance prior redemption date iii comply expert determination reconciliation procedure time ltd exchanging subsidiary deliver amended redemption basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation amended redemption basis schedule advisory firm letter supporting amended redemption basis schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule amended redemption basis schedule shall become final binding party unless lfcm within calendar day receiving amended redemption basis schedule provides ltd exchanging subsidiary notice material objection amended redemption basis schedule made good faith party negotiating good faith unable successfully resolve sue raised notice within calendar day amended redemption basis schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure section basis adjustment attributable taxable exchange pursuant taxable exchange extent exchangeable holder effecting taxable exchange hold lazard group interest lazmd lazmd distribute exchangeable holder portion lazmds lazard group interest attributable exchangeable holder redemption portion exchangeable interest exchangeable holder lazmd ii exchangeable holder transfer interest lazard group ltd exchanging subsidiary exchange share lazard number lazard share transferred ltd exchanging subsidiary exchangeable holder pursuant taxable exchange determined proportion subsidiary respective interest lazard group applicable exchange date ltd exchanging subsidiary lfcm hereby agree exchangeable holder effecting taxable exchange shall recognize gain u federal income tax purpose exchange date section code amount equal excess fair market value lazard share received taxable exchange ii exchangeable holder basis lazard group interest transferred ltd exchanging subsidiary pursuant taxable exchange purpose agreement ltd exchanging subsidiary lfcm hereby agree fair market value lazard share received taxable exchange shall mean trading value share close business exchange date ltd exchanging subsidiary lfcm agree respect taxable exchange ltd exchanging subsidiary share basis exchange asset shall increased excess fair market value lazard share transferred exchangeable holder pursuant taxable exchange ii ltd exchanging subsidiary proportionate share basis exchange asset immediately taxable exchange attributable lazard group interest exchanged ltd exchanging subsidiary exchangeable holder pursuant lfcm operating agreement treat gain basis adjustment occurring entirely exchange date unless determination contrary ltd exchanging subsidiary exchangeable holder pursuant lfcm operating agreement agree u federal income tax purpose agreement treated additional consideration paid exchangeable holder exchange immediately assigned exchangeable holder lfcm assigning agreement lfcm exchangeable holder relinquish right title interest agreement notwithstanding provision agreement ltd exchanging subsidiary lfcm shall take account fair market value right receive payment agreement determining basis adjustment resulting exchange date ii shall treat payment principal agreement related taxable exchange resulting basis adjustment payment made section exchange basis schedule within calendar day end covered taxable year taxable exchange effected ltd exchanging subsidiary shall deliver lfcm schedule exchange basis schedule approved audit committee show reasonable detail purpose covered tax actual tax basis first applicable exchange date covered taxable year exchange asset ii basis adjustment respect exchange asset result taxable exchange effected covered taxable year calculated aggregate iii period period exchange asset amortizable depreciable time ltd exchanging subsidiary deliver exchange basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation exchange basis schedule advisory firm letter supporting exchange basis schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule exchange basis schedule shall become final binding party unless lfcm within calendar day receiving exchange basis schedule provides ltd exchanging subsidiary notice material objection exchange basis schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day exchange basis schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure b amended exchange basis schedule exchange basis schedule may amended time time ltd exchanging subsidiary consent audit committee connection determination ii correct inaccuracy original exchange basis schedule identified date taxable exchange result receipt additional information iii comply expert determination reconciliation procedure time ltd exchanging subsidiary deliver amended exchange basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation amended exchange basis schedule advisory firm letter supporting amended exchange basis schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule amended exchange basis schedule shall become final binding party unless lfcm within calendar day receiving amended exchange basis schedule provides ltd exchanging subsidiary notice material objection amended exchange basis schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day amended exchange basis schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure section tax benefit schedule within calendar day filing u federal income tax return relevant lazard ltd taxpayer relevant covered taxable year ltd exchanging subsidiary shall provide lfcm schedule approved audit committee showing reasonable detail calculation relevant lazard ltd taxpayer realized tax benefit realized tax detriment covered taxable year tax benefit schedule time ltd exchanging subsidiary deliver tax benefit schedule lfcm shall deliver lfcm schedule work paper providing reasonable detail regarding preparation tax benefit schedule including information related amount ltd sub effectively connected income respect applicable covered taxable year determined u federal income tax purpose advisory firm letter supporting tax benefit schedule ii allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule tax benefit schedule shall become final binding party unless lfcm within calendar day receiving tax benefit schedule provides ltd exchanging subsidiary notice material objection tax benefit schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day tax benefit schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure b amended tax benefit schedule tax benefit schedule covered taxable year may amended time time applicable ltd exchanging subsidiary consent audit committee connection determination affecting tax benefit schedule ii correct inaccuracy original tax benefit schedule identified result receipt additional factual information relating covered taxable year date tax benefit schedule provided lfcm iii reflect change realized tax benefit realized tax detriment covered taxable year attributable carryback carryforward loss tax item covered taxable year iv reflect change realized tax benefit realized tax detriment covered taxable year attributable amended tax return filed covered taxable year provided however change attributable audit tax return applicable taxing authority shall taken account amended tax benefit schedule unless determination respect change v comply expert determination reconciliation procedure time ltd exchanging subsidiary delivers amended tax benefit schedule pursuant section b amended tax benefit schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation amended tax benefit schedule advisory firm letter supporting amended tax benefit schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule amended tax benefit schedule shall become final binding party unless lfcm within calendar day receiving amended tax benefit schedule provides applicable ltd exchanging subsidiary notice material objection amended tax benefit schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day amended tax benefit schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure c applicable principle realized tax benefit realized tax detriment covered taxable year intended measure decrease increase actual covered tax liability relevant lazard ltd taxpayer covered taxable year attributable basis adjustment imputed interest determined using without methodology carryovers carrybacks tax item attributable basis adjustment imputed interest determined using without methodology shall considered subject rule code successor u federal income tax statute treasury regulation appropriate provision u state local income franchise tax law applicable governing use limitation expiration carryovers carrybacks relevant type carryover carryback tax item includes portion attributable basis adjustment imputed interest another portion portion shall considered used order determined using without methodology schedule c agreement provides illustrative example applicable principle described section c agreement article iii tax benefit payment section payment except provided section within calendar day delivery tax benefit schedule lfcm covered taxable year ltd exchanging subsidiary shall pay lfcm amount equal tax benefit payment defined covered taxable year ii national bank mutually agreeable ltd exchanging subsidiary audit committee lfcm escrow agent escrow agent amount equal tax benefit payment defined covered taxable year escrow agent shall hold tax benefit payment receives escrow pursuant mutually agreeable escrow agreement escrow agreement ltd exchanging subsidiary lfcm expiration applicable statute limitation attributable covered taxable year tax benefit payment relates tax benefit payment shall made wire transfer immediately available fund bank account lfcm escrow agent previously designated party ltd exchanging subsidiary avoidance doubt tax benefit payment shall made respect estimated tax payment including without limitation estimated federal income tax payment b tax benefit payment shall equal respect ltd exchanging subsidiary applicable ltd exchanging subsidiary realized tax benefit covered taxable year increased interest calculated agreed rate due date without extension filing tax return respect covered tax covered taxable year amount excess realized tax benefit reflected amended tax benefit schedule previous covered taxable year realized tax benefit realized tax detriment reflected tax benefit schedule previous covered taxable year decreased amount equal ltd exchanging subsidiary realized tax detriment previous covered taxable year amount excess realized tax benefit reflected tax benefit schedule previous covered taxable year realized tax benefit realized tax detriment reflected amended tax benefit schedule previous covered taxable year provided however amount described section b shall taken account determining tax benefit payment attributable covered taxable year extent amount taken account determining tax benefit payment preceding covered taxable year c within day receiving tax benefit payment lfcm shall distribute tax benefit payment member lfcm set forth schedule attached hereto schedule accordance percentage indicated schedule section duplicative payment duplicative payment amount including interest required agreement section suspension tax benefit payment following change notice lazard subsidiary lazard group receives day letter final audit report statutory notice deficiency similar written notice taxing authority respect tax treatment redemption taxable exchange change notice sustained would result reduction amount realized tax benefit increase amount realized tax detriment respect covered taxable year preceding taxable year change notice received ii reduction amount tax benefit payment ltd exchanging subsidiary required pay lfcm respect covered taxable year including taxable year change notice received collectively potential reduction prompt written notice shall given lfcm b date change notice received final determination respect adjustment proposed therein tax benefit payment required made ltd exchanging subsidiary shall paid ltd exchanging subsidiary escrow agent time amount paid escrow agent section aii respect covered year issue change notice section b aggregate equal amount potential reduction earlier final determination received respect change notice c final determination respect change notice result adjustment tax benefit payment amount paid escrow agent pursuant section along interest earned fund shall distributed lfcm accordance escrow agreement final determination result adjustment tax benefit payment lesser amount paid escrow agent pursuant section ii amount adjustment tax benefit payment case along interest earned fund shall distributed ltd exchanging subsidiary accordance escrow agreement article iv termination section early termination agreement time second nd anniversary date agreement ltd exchanging subsidiary may terminate agreement consent audit committee paying lfcm early termination payment date early termination notice defined ltd exchanging subsidiary may terminate agreement upon occurrence change control event paying lfcm change control termination payment date early termination notice upon payment early termination payment change control termination payment ltd exchanging subsidiary ltd exchanging subsidiary shall payment obligation agreement tax benefit payment agreed ltd exchanging subsidiary lfcm due payable unpaid early termination notice b tax benefit payment due covered taxable year ending including date early termination notice except extent amount described clause b included early termination payment change control termination payment case may section early termination notice ltd exchanging subsidiary choose exercise right early termination section ltd exchanging subsidiary shall deliver lfcm notice early termination notice specifying ltd exchanging subsidiary intention exercise right showing reasonable detail calculation early termination payment change control termination payment case may time ltd exchanging subsidiary deliver early termination notice lfcm ltd exchanging subsidiary shall deliver lfcm schedule work paper providing reasonable detail regarding calculation early termination payment change control termination payment case may manner consistent guideline set forth section agreement advisory firm letter supporting calculation b allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review calculation calculation contained early termination notice shall become final binding party unless lfcm within calendar day receiving calculation provides ltd exchanging subsidiary notice material objection calculation made good faith par</t>
+  </si>
+  <si>
     <t>tax receivable agreement tax receivable agreement agreement dated may among ltd sub ltd sub b defined herein wholly owned indirect subsidiary lazard ltd bermuda company lazard lfcm holding llc delaware limited liability company lfcm whereas december lazard lazard llc delaware limited liability company taxable partnership u federal income tax purpose renamed lazard group llc lazard group laz md holding llc delaware limited liability company lazmd entered certain class b class c member transaction agreement relating lazard group buyout agreement whereas pursuant buyout agreement certain interest historic partner lazard group historic partner shall redeemed cash redemption whereas pursuant buyout agreement lazard group historic p artners agreed treat portion consideration paid historic partner redemption received sale exchange pursuant section ab internal revenue code amended code remainder f consideration received historic partner distribution whereas connection transaction contemplated buyout agreement certain member lazard group exchangeable holder issued class exc hangeable membership interest laz md exchangeable interest effectively exchangeable oneforone basis share lazard exchange whereas exchange expected effected via exchangeable holder transfer lazard group interest directly ltd sub ltd sub b ltd exchanging subsidiary transaction intended result exchangeable holder recognition gain loss u federal income tax purpose taxable e xchange described herein whereas lazard group shall effect election section code taxable year defined herein redemption occurs election result adjustment ltd excha nging subsidiary share tax basis asset owned lazard group redemption date asset asset whose tax basis determined whole part reference adjusted basis asset original asse t reason redemption whereas lazard group intends effect election section code taxable year taxable exchange occurs election result adjustment ltd exchanging subsidiary share tax basis asset owned lazard group date taxable exchange whereas lazard ltd exchanging subsidiary immediat ely following redemption controlling interest lazard group portion common membership interest lazard group whereas income gain loss expense tax item lazard group relevant lazard ltd taxpayer defined herein may affected basis adjustment defined herein imputed interest defined herein whereas party agreement desire make certain arrangement respect effect basis adjustmen imputed interest actual liability covered tax relevant lazard ltd taxpayer defined herein therefore consideration foregoing respective covenant agreement set forth herein intending legally bound hereby party hereto agree follows article definition definition used agreement term set forth article shall following meaning meaning equally applicable singular plural form term defined advisory firm mean accounting law firm nationally recognized expert covered tax matter determined audit committee audit committee shall select advisory firm advisory firm letter shall mean letter advisory firm stating relevant schedule notice information provided ltd exchanging subsidiary lfcm supporting schedule work paper prepared manner consistent term agreement extent expressly provided agr eement reasonable basis light fact law existence date schedule notice information delivered lfcm agreed rate mean libor plus basis point agreement defined preamble amended ta x benefit schedule defined section b agreement applicable treasury rate mean rate equal yield maturity date early termination notice delivered delivery date u treasury security c onstant maturity applicable maturity compiled published recent federal reserve statistical release h equal delivery date third anniversary redemption date prior fifth anniversary redemption date year delivery date b delivery date fifth anniversary redemption date prior fifteenth anniversary redemption date number year delivery date fifteenth anniversary redemption date c delivery date fifteenth anniversary redemption date two year delivery date u treasury security constant maturity equal applicable maturity yield maturity shall interpolated u treasury security constant maturity nearly longer shorter applicable maturity audit committee mean audit committee board director lazard basis adjustment mean increase decrease tax basis relevant lazard ltd taxpayer share tax basis lazard group asset section b b code comparable section u state local income franchise tax law result redemption ii section b code comparable section u state local income franchise tax law result taxable exchange iii section b result payment agreement avoidance doubt payment agreement shall treated resulting basis adjustment extent payment relate redemption treated imputed interest business day mean calendar day saturday sunday calendar day bank required authorized closed city new york buyout agreement defined recital change control event mean occurrence following event consummation one related transaction merger amalgamation consolidation statutory share exchange similar form corporate transaction involving lazard lazard group reorganizat ion b sale disposition substantially asset lazard lazard group entity controlled subsidiary lazard sale reorganization sale requires approval lazards stockholder law bermuda whether approval required reorganization sale issuance security lazard reorganization sale rule regulation principal trading exchange lazards class commo n share unless immediately following reorganization sale substantially individual entity beneficial owner term defined rule exchange act successor rule thereto share lazard security lazard share shall changed reason reorganization share security eligible vote election board together lazard voting security outstan ding immediately prior consummation reorganization sale beneficially directly indirectly combined voting power outstanding voting security corporation resulting reorganization r sale including without limitation corporation result transaction owns lazard substantially l azards asset either directly one subsidiary continuing corporation substantially proportion ownership immediately prior consummation reorganization sale outstanding lazard vot ing security excluding outstanding voting security continuing corporation beneficial owner hold immediately following consummation reorganization sale result ownership prior consummation vot ing security company entity involved forming part reorganization sale lazard ii stockholder lazard approve plan complete liquidation dissolution lazard iii person term used section exchange act corporation entity group used section exchange act lazard b trustee fiduciary holding security employee benefit plan lazard affiliate lazard c person controlled substantially current managing director lazard provided individual person control person company owned directly indirectly stockholder lazard substantially proportion ownership voting power lazard voting security becomes beneficial owner directly indirectly security lazard representing combin ed voting power lazard voting security provided however purpose subparagraph iii acquisition employee benefit plan related trust sponsored maintained lazard affiliate lazard shall constitut e change control event change control termination payment defined section c agreement change notice defined section agreement code defined recital covered taxable year mean taxable year relevant lazard ltd taxpayer ending redemption date end taxable year including date twentieth fourth th anniversary redemption date covered tax mean u federal income tax u state local income franchise tax determination shall meaning ascribed term section code similar provision state local income franchise tax law applicable early termination notice defined section agreement early termination payment defined section b agreement early termination rate mean applicable treasury rate plus basis point escrow agent defined section agreement escrow agreement defined section agreement exchange defined recital exchange act mean security exchange act amended successor statute thereto exchange asset mean asset owned lazard group applicable exchange date asset whose tax basis determined whole part reference adjusted basis asset exchange basis schedule defined section agreement exchange date mean date taxable exchange effected exchangeable holder defined recital federal income tax mean tax imposed subtitle code provision u federal income tax law including without limitation tax imposed section code interest addition tax penalty applicable related tax governmental entity mean federal state local provincial foreign government court competent jurisdiction administrative agency commission governmental authority instrumentality wheth er domestic foreign hypothetical tax basis mean respect asset time tax basis asset would time basis adjustment made result redemption applicable taxable exchange case may hypothetical tax liability mean respect covered taxable year liability covered tax relevant lazard ltd taxpayer using method election convention similar practice used actual ta x return relevant lazard ltd taxpayer using hypothetical tax basis instead actual tax basis relevant asset excluding deduction attributable imputed interest imputed interest shall mean interest impu ted section provision code successor u federal income tax statute similar section applicable u state local income franchise tax law respect ltd exchanging subsidiary payment obligation agreement ipo proceeds mean aggregate proceeds sale lazard share initial public offering net underwriter discount commiss ion directly allocated expense irs mean u internal revenue service lazmd defined recital lazard defined preamble lfcm defined preamble lfcm operating agreement mean operating agreement lfcm dated may ltd exchanging subsidiary defined recital ltd exchanging subsidiary payment defined section agreement ltd sub ltd sub b defined schedule agreement libor mean month portion thereof period interest rate per annum equal rate per annum reported date two day prior first day month telerate page screen shall cease publicly available reported reuters screen page libo publicly available source market rate london interbank offered rate u dollar deposit month port ion thereof person mean includes individual firm corporation partnership including without limitation limited general limited liability partnership company limited liability company trust joint venture association joint stock company unincorporated organization similar entity governmental entity potential reduction defined section agreement proceeding defined section agreement realized tax benefit mean covered taxable year excess hypothetical tax liability actual liability covered tax relevant lazard ltd taxpayer covered taxable year less fee charge expense advisory firm ex pert described section related agreement paid relevant lazard ltd taxpayer relevant covered taxable year avoidance doubt realized tax benefit shall take account difference ability f ltd sub b use foreign tax credit offset u federal income tax liability calculating hypothetical tax liability actual liability covered tax covered taxable year portion actual tax liability covered tax covered taxable year arises result audit taxing authority covered taxable year liability shall included determining realized tax benefit realized tax detriment unless determination realized ax detriment mean covered taxable year excess actual liability covered tax relevant lazard ltd taxpayer hypothetical tax liability covered taxable year plus fee charge expense th e advisory firm expert described section related agreement paid relevant lazard ltd taxpayer relevant covered taxable year avoidance doubt realized tax detriment shall take account differen ce ability ltd sub b use foreign tax credit offset u federal income tax liability calculating hypothetical tax liability actual liability covered tax covered taxable year portion actual tax liability covered tax covered taxable year arises result audit taxing authority covered taxable year liability shall included determining realized tax benefit realized tax detriment unless determination reconciliation procedure shall mean procedure set forth section agreement redemption defined recital redemption basis schedule defined section agreement redemption date mean date redemption effected relevant lazard ltd taxpayer mean ltd sub successor assigns ii ltd sub b successor assigns iii consolidated combined unitary group containing either ltd sub ltd sub b case may respective successor andor assigns scheduled termination date shall mean date agreement would terminate ab sence early termination notice senior obligation defined section agreement subsidiary mean entity lazard directly indirectly possesses fifty percent total combined voting power class stock lazard group lazard group finance llc respective subsidiary tax benefit payment defined section b agreement tax benefit schedule defined section agreement taxable exchange defined recital taxable year mean taxable year defined section b code comparable section u state local income franchise tax law applicable therefore avoidance doubt may include period less month tax return made tax mean form taxation duty imposed required collected withheld including without limitation charge together related interest penalty additional amount ii liability payment amount type de scribed preceding clause result member affiliated consolidated combined unitary group iii liability payment amount result party tax sharing agreement agreeme nt result express implied obligation indemnify person respect payment amount described immediately preceding clause ii obligation indemnify agreement tax return mean return filing report questionnaire information statement document required filed including amended return may filed taxable period taxing authority whether payment required made respect filing taxing authority mean irs state local foreign governmental entity responsible administration tax treasury regulation mean final temporary proposed regulation code promulgated time time including corresponding provision succeeding provision effect relevant taxable period valuation assumption shall mean valuation date assumption described schedule b agreement valuation date mean date early termination notice purpose determining early termination payment change control termination payment article ii determination realized tax benefit realized tax detriment section redemption date basis adjustment pursuant buyout agreement lazard group historic partner agreed treat consideration paid historic partner redemption sale exchange pursuant section ab code sale extent consideration originates ipo proceeds ii distribution pursuant section b section b code distribution extent total redemption consideration exceeds ipo proceeds ltd exchanging subsidiary lfcm hereby agree historic partner lazard group redeemed cash redemption shall recognize gain redemption date section code ii ltd exchanging subsidiary share basis original asset shall increased excess sale proceeds ltd exchanging subsidiary proportionate share basis original asset redemption date iii basis original asset shall increased amount gain recognized historic partner lazard group respect distribution ltd exchanging subsidiary lfcm shall treat gain basis adjustment occurring entirely redemption date unless determination contrary purpose agreement ltd exchanging subsidiary lfcm shall take account fair market value right receive payment agreement determining amount sale proceeds amount gain recognized historic partner redemption date ii shall treat payment made agreement respect redemption resulting basis adjustment section redemption basis schedule within calendar day redemption date ltd exchanging subsidiary shall deliver lfcm schedule redemption basis schedule approved audit committee show reasonable detail purpose covered tax actual tax basis redemption date original asset ii basis adjustment respect original asset result sale distribution iii period period original asset amorti zable depreciable purpose covered tax time ltd exchanging subsidiary deliver redemption basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation redemption basis schedule advisory firm letter supporting redemption basis schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection wi th review schedule redemption basis schedule shall become final binding party unless lfcm within calendar day receiving redemption basis schedule provides ltd exchanging subsidiary notice mater ial objection redemption basis schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day redemption basis schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure b amended redemption basis schedule redemption basis schedule may amended time time ltd exchanging subsidiary consent udit committee connection determination ii correct inaccuracy original redemption basis schedule identified redemption date result receipt additional information relating fact circumstance prior redemption date iii comply expert determination reconciliation procedure time ltd exchanging subsidiary deliver amended redemption basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation amended redemption basis schedule advisory firm letter supporting amended redemption basis schedule allow lfcm reasonable access appropriate represent atives lazard subsidiary lazard group advisory firm connection review schedule amended redemption basis schedule shall become final binding party unless lfcm within calendar day receivi ng amended redemption basis schedule provides ltd exchanging subsidiary notice material objection amended redemption basis schedule made good faith party negotiating good faith unable successfully reso lve sue raised notice within calendar day amended redemption basis schedule delivered lfcm ltd exchanging subsidiari e lfcm shall employ reconciliation procedure section basis adjustment attributable taxable exchange pursuant taxable exchange extent exchangeable holder effecting taxable exchange hold lazard group intere sts laz md laz md distribute exchangeable holder portion laz md lazard group interest attributable exchangeable holder redemption portion exchangeable interest exchangeable holder laz md ii exchangeable holder transfer interest lazard group ltd exchanging subsidiary exchange share lazard number lazard share transferred ltd exchanging subsidiary exchangeable holder pursuant taxable exchange determined proportion subsidiary respective interest lazard group applicable exchange date ltd exchanging subsidiary lfcm hereby agree exchangeable holder effecting ta xable exchange shall recognize gain u federal income tax purpose exchange date section code amount equal excess fair market value lazard share received taxable exchange exchangeable holder basis lazard group interest transferred ltd exchanging subsidiary pursuant taxable exchange purpose agreement ltd exchanging subsidiary lfcm hereby agree fair market val ue lazard share received taxable exchange shall mean trading value share close business exchange date ltd exchanging subsidiary lfcm agree respect taxable exchange ltd exchanging subsidiary share basis exchange asset shall increased excess fair market value lazard share transferred exchangeable holder pursuant taxable exchange ii ltd exchang ing subsidiary proportionate share basis exchange asset immediately taxable exchange attributable lazard group interest exchanged ltd exchanging subsidiary exchangeable holder pursuant lfcm operati ng agreement treat gain basis adjustment occurring entirely exchange date unless determination contrary ltd exchanging subsidiary exchangeable holder pursuant lfcm operating agreement agre e u federal income tax purpose agreement treated additional consideration paid exchangeable holder exchange immediately assigned exchangeable holder lfcm assigning agreement lfcm ex changeable holder relinquish right title interest agreement notwithstanding provision agreement ltd exchanging subsidiary lfcm shall take account fair market value right receive payment agreement determining basis adjustment resulting exchange date ii shall treat payment principal agreement related taxable exchange resulting basis adjustment payment made section exchange basis schedule within calendar day end covered taxable year taxable exchange effected ltd exchanging subsidiary shall deliver lfcm schedule exchange basis schedule approved audit committee show reasonable detail purpose covered tax actual tax basis first applicable exchange date covered taxable year exchange asset ii basis adjustment respect exchange asset result taxable exchange effected covered taxable year calculated aggregate iii period period exchange asset amortizable depreciable time ltd exchanging subsidiary deliver exchange basis schedule lfcm sh x deliver lfcm schedule work paper providing reasonable detail regarding preparation exchange basis schedule advisory firm letter supporting exchange basis schedule allow lfcm reasonable access appropria te representative lazard subsidiary lazard group advisory firm connection review schedule exchange basis schedule shall become final binding party unless lfcm within calendar day recei ving exchange basis schedule provides ltd exchanging subsidiary notice material objection exchange basis schedule made good faith party negotiating good faith unable successfully resolve issue rai sed notice within calendar day exchange basis schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure b amended exchange basis schedule exchange basis schedule may amended time time ltd exchanging subsidiary consent audit committee connection determination ii correct inaccuracy original exchange basis schedule identified date taxable e xchange result receipt additional information iii comply expert determination reconciliation procedure time ltd exchanging subsidiary deliver amended exchange basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation amended exchange basis schedule advisory firm letter supporting amended exchange basis schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule amended exchange basis schedule shall become final binding party unless lfcm within cale ndar day receiving amended exchange basis schedule provides ltd exchanging subsidiary notice material objection amended exchange basis schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day amended exchange basis schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure section tax b enefit schedule within calendar day filing u federal income tax return relevant lazard ltd taxpayer relevant covered taxable year ltd exchanging subsidiary shall provide lfcm schedule approved audit commi ttee showing reasonable detail calculation relevant lazard ltd taxpayer realized tax benefit realized tax detriment covered taxable year tax benefit schedule time ltd exchanging subsidiary deliver ta x benefit schedule lfcm shall deliver lfcm schedule work paper providing reasonable detail regarding preparation tax benefit schedule including information related amount ltd sub effectively connected incom e respect applicable covered taxable year determined u federal income tax purpose advisory firm letter supporting tax benefit schedule ii allow lfcm reason able access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule tax benefit schedule shall become final binding party unless lfcm within calendar day receiving tax benefit schedule provides ltd exchanging subsidiary notice material objection tax benefit schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day tax benefit schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure b amended tax benefit schedule tax benefit schedule covered taxable year may amended time time applicable ltd exchanging subsidiary consent audit committee connection determination affecting tax benefit schedule ii c orrect inaccuracy original tax benefit schedule identified result receipt additional factual information relating covered taxable year date tax benefit schedule provided lfcm iii reflect change realized tax benefit realized tax detriment covered taxable year attributable carryback carryforward loss tax item covered taxable year iv reflect change realized tax benefit realized tax detri ment covered taxable year attributable amended tax return filed covered taxable year provided however change attributable audit tax return applicable taxing authority shall taken account n amended tax benefit schedule unless determination respect change v comply expert determination reconciliation procedure time ltd exchanging subsidiary delivers ended tax benefit schedule pursuant section b amended tax benefit schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation amended tax benefit schedule advisory firm letter supporting amended tax benefit schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule suc h amended tax benefit schedule shall become final binding party unless lfcm within calendar day receiving amended tax benefit schedule provides applicable ltd exchanging subsidiary notice material objection su ch amended tax benefit schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day amended tax benefit schedule delivered lfcm lt exchanging subsidiary lfcm shall employ reconciliation procedure c applicable principle realized tax benefit realized tax detriment covered taxable year intended measure decrease increase actual covered tax liability relevant lazard ltd taxpayer covered taxable year attributable basis adjustment imputed interest determined using without methodology carryovers carrybacks tax item attributable basis adjustment imputed interest determined using without methodology shall considered subject rule code successor u federal income tax statute treasury regulati ons appropriate provision u state local income franchise tax law applicable governing use limitation expiration carryovers carrybacks relevant type carryover carryback tax item includes por tion attributable basis adjustment imputed interest another portion portion shall considered used order determined using without methodology schedule c agreement provides illustrative example applicable principle described section c agreement article iii tax benefit payment section payment except provided section within calendar day delivery tax benefit schedule lfcm covered taxable year ltd exchanging subsidiary shall pay lfcm amount equal tax benefit payment defined covere taxable year ii national bank mutually agreeable ltd exchanging subsidiary audit committee lfcm escrow agent escrow agent amount equal tax benefit payment defined covered taxab le year escrow agent shall hold tax benefit payment receives escrow pursuant mutually agreeable escrow agreement escrow agreement ltd exchanging subsidiary lfcm expiration applicable statute f limitation attributable covered taxable year tax benefit payment relates tax benefit payment shall made wire transfer immediately available fund bank account lfcm escrow agent previously designated party ltd exchanging subsidiary avoidance doubt tax benefit payment shall made respect estimated tax payment including without limitation estimated federal income tax payment b tax benefit payment shall equal respect ltd exchanging subsidiary applicable ltd exchanging subsidiary realized tax benefit covered taxable year increased interest calculated agreed rate due date without extension filing tax return respect covered tax covered taxable year amount excess realized tax benefit reflected amended tax benefit schedule previous covered taxable year realized tax benefit realized tax detriment reflected tax benefit schedule previous covered taxable year decreased amount equal ltd exchanging subsidiary realized tax detriment previous covered taxable year amount th e excess realized tax benefit reflected tax benefit schedule previous covered taxable year realized tax benefit realized tax detriment reflected amended tax benefit schedule previous covered taxable year provid ed however amount described section b shall taken account determining tax benefit payment attributable covered taxable year extent amount taken account determining ta x benefit payment preceding covered taxable year c within day receiving tax benefit payment lfcm shall distribute tax benefit payment member lfcm set forth schedule attached hereto schedule accordance wi th percentage indicated schedule section duplicative payment duplicative payment amount including interest required agreement section suspension tax benefit payment following change tice lazard subsidiary lazard group receives day letter final audit report statutory notice deficiency similar written notice taxing authority respect tax treatment redemption taxable exchange change notice sustained would result reduction amount realized tax benefit increase amount realized tax detriment respect covered taxable year preceding taxable year th e change notice received ii reduction amount tax benefit payment ltd exchanging subsidiary required pay lfcm respect covered taxable year including taxable year change notice r eceived collectively potential reduction prompt written notice shall given lfcm b date change notice received final determination respect adjustment proposed therein tax benefit payment required made ltd exchanging subsidiary shall paid ltd exchanging subsidiary escrow agent time amount paid escrow agent section aii respect covered year issue change notice section b aggregate equal amount potential reduction earlier final determination received respect change notice c final determination resp ect change notice result adjustment tax benefit payment amount paid escrow agent pursuant section along interest earned fund shall distributed lfcm accordance escr ow agreement final determination result adjustment tax benefit payment lesser amount paid escrow agent pursuant section ii amount adjustment tax benefit payment case along interest earned fund shall distributed ltd exchanging subsi diary accordance escrow agreement article iv termination section early termination agreement time second nd anniversary date agreement ltd exchanging subsidiary may terminate agreement consent audit committee paying lfcm early termination payment date early termination notice defined ltd exchanging subsidiary may terminate agreement upon occurrence change f control event paying lfcm change control termination payment date early termination notice upon payment early termination payment change control termination payment ltd exchanging subsidiary l td exchanging subsidiary shall payment obligation agreement tax benefit payment agreed ltd exchanging subsidiary lfcm due payable unpaid early termination notice b tax benefit payment due covered taxable year ending including date early termination notice except extent amount described clause b included early termination payment change control termination payment case may section early termination notice ltd exchanging subsidiary choose exercise right early termination section ltd exchanging subsidiary shall deliver lfcm notice early termination notice specifying ltd exchanging subsidiary intention exercise right showing reasonable detail calculation early termination payment change control termination payment case may time ltd exchanging subsidiary deliver early termination notice lfcm ltd exchanging subsidiary shall deliver lfcm schedule work paper providing reasonable detail regarding calculation earl termination payment change control termination payment case may manner consistent guideline set forth section agreement advisory firm letter supporting calculation b allow lfcm reason able access appropriate representative lazard subsidiary lazard group advisory firm connection review calculation calculation contained early termination notice shall become final binding n party unless lfcm within calendar day receivi</t>
   </si>
   <si>
-    <t>tax receivable agreement tax receivable agreement agreement dated may among ltd sub ltd sub b defined herein wholly owned indirect subsidiary lazard ltd bermuda company lazard lfcm holding llc delaware limited liability company lfcm whereas december lazard lazard llc delaware limited liability company taxable partnership u federal income tax purpose renamed lazard group llc lazard group laz md holding llc delaware limited liability company lazmd entered certain class b class c member transaction agreement relating lazard group buyout agreement whereas pursuant buyout agreement certain interest historic partner lazard group historic partner shall redeemed cash redemption whereas pursuant buyout agreement lazard group historic partner agreed treat portion consideration paid historic partner redemption received sale exchange pursuant section ab internal revenue code amended code remainder consideration received historic partner distribution whereas connection transaction contemplated buyout agreement certain member lazard group exchangeable holder issued class exchangeable membership interest laz md exchangeable interest effectiv ely exchangeable oneforone basis share lazard exchange whereas exchange expected effected via exchangeable holder transfer lazard group interest directly ltd sub ltd sub b ltd exchanging subsidiary transaction intended result exchangeable hold er recognition gain loss u federal income tax purpose taxable exchange described herein whereas lazard group shall effect election section code taxable year defined herein redemption occurs election result adjustment ltd exchanging subsidiary share tax b asis asset owned lazard group redemption date asset asset whose tax basis determined whole part reference adjusted basis asset original asset reason redemption whereas lazard group intends effect election section code taxable year taxable exchange occurs election result adjustment ltd exchanging subsidiary share tax basis asset owned lazard group date taxable exchange whereas lazard ltd exchanging subsidiary immediately following redemption controlling interest lazard group portion common membership interest lazard group whereas income gain loss expense tax item lazard group relevant lazard ltd taxpayer defined herein may affected basis adjustment defined herein imputed interest defined herein whereas party agreement desire make certain arrangement respect effect basis adjustment imputed interest actual liability covered tax relevant lazard ltd taxpayer defined herein therefore consideration foregoing respective covenant agreement set forth herein intending legally bound hereby party hereto agree follows article definition definition used agreement term set forth article shall following meaning meaning equally applicable singular plural form term defined advisory firm mean accounting law firm nationally recognized expert covered tax matter determined audit committee audit committee shall select advisory firm advisory firm letter shall mean letter advisory firm stating relevant schedule notice information provided ltd exchanging subsidiary lfcm supporting schedule work paper prepared manner consistent th e term agreement extent expressly provided agreement reasonable basis light fact law existence date schedule notice information delivered lfcm agreed rate mean libor plus basis point agreement defined preamble amended tax benefit schedule defined section b agreement applicable treasury rate mean rate equal yield maturity date early termination notice delivered delivery date u treasury security constant maturity applicable maturity compiled published recent federal reserve statistical release h equal delivery date third anniversary redemption date prior fifth anniversary redemption date yea r delivery date b delivery date fifth anniversary redemption date prior fifteenth anniversary redemption date number year delivery date fifteenth anniversary redemption date c delivery date fifteenth anniversary redemption date two year delivery date u treasury security constant maturity equal applicable maturity yield maturity shall interpolated u treasury security constant maturiti e nearly longer shorter applicable maturity audit committee mean audit committee board director lazard basis adjustment mean increase decrease tax basis relevant lazard ltd taxpayer share tax basis lazard group asset section b b code comparable section u state local income franchise tax law result redemption ii section b code comparable section u state local income franchise tax law result taxable exchange iii section b result payment agreement avoidance doubt payment agreement shall treated resulting basis adjustment extent payment relate redemption treated imputed interest business day mean calendar day saturday sunday calendar day bank required authorized closed city new york buyout agreement defined recital change control event mean occurrence following event consummation one related transaction merger amalgamation consolidation statutory share exchange similar form corporate transaction involving lazard lazard group reorganization b sale disposition substantially asset lazard lazard group entity controlled subsidiary lazard sale reorganization sale requires approval lazards stockholder law bermuda whether approval required reorganization sale issuance security lazard reorganization sale r ules regulation principal trading exchange lazards class common share unless immediately following reorganization sale substantially individual entity beneficial owner term defined rule exchange act successor rule thereto share lazard security lazard share shall changed reason reorganization share security eligible vote election board together lazard voting security outstanding immediately prior consummation reorganization sale beneficially directly indirectly combined voting power outstanding voting security corporation resulting reorga nization sale including without limitation corporation result transaction owns lazard substantially lazards asset either directly one subsidiary continuing corporation substantially proportion ownership immediately prior consummation reorganization sale outstanding lazard voting security excluding outstanding voting security continuing corporation uch beneficial owner hold immediately following consummation reorganization sale result ownership prior consummation voting security company entity involved forming part reorganization sale lazard ii stockholder lazard approve plan complete liquidation dissolution lazard iii person term used section exchange act corporation entity group used section exchange act lazard b trustee fiduciary holding security employee benefit plan lazard affiliate lazard c person controlled substantially current managing director lazard provided individual person control person company owne directly indirectly stockholder lazard substantially proportion ownership voting power lazard voting security becomes beneficial owner directly indirectly security lazard representin g combined voting power lazard voting security provided however purpose subparagraph iii acquisition employee benefit plan related trust sponsored maintained lazard affiliate lazard shall constitute change control event change control termination payment defined section c agreement change notice defined section agreement code defined recital covered taxable year mean taxable year relevant lazard ltd taxpayer ending redemption date end taxable year including date twentieth fourth th anniversary redemption date covered tax mean u federal income tax u state local income franchise tax determination shall meaning ascribed term section code similar provision state local income franchise tax law applicable early termination notice defined section agreement early termination payment defined section b agreement early termination rate mean applicable treasury rate plus basis point escrow agent defined section agreement escrow agreement defined section agreement exchange defined recital exchange act mean security exchange act amended successor statute thereto exchange asset mean asset owned lazard group applicable exchange date asset whose tax basis determined whole part reference adjusted basis asset exchange basis schedule defined section agreement exchange date mean date taxable exchange effected exchangeable holder defined recital federal income tax mean tax imposed subtitle code provision u federal income tax law including without limitation tax imposed section code interest addition tax penalty applicable related tax governmental entity mean federal state local provincial foreign government court competent jurisdiction administrative agency commission governmental authority instrumentality whether domestic foreign hypothetical tax basis mean respect asset time tax basis asset would time basis adjustment made result redemption applicable taxable exchange case may hypothetical tax liability mean respect covered taxable year liability covered tax relevant lazard ltd taxpayer using method election convention similar practice used actual tax return relevant lazard ltd taxpayer using hypothetical tax basis instead actual tax basis relevant asset excluding deduction attributable imputed interest imputed interest shall mean interest imputed section provision code successor u federal income tax statute similar section applicable u state local income franchise tax law respect th e ltd exchanging subsidiary payment obligation agreement ipo proceeds mean aggregate proceeds sale lazard share initial public offering net underwriter discount commission directly allocated expense irs mean u internal revenue service lazmd defined recital lazard defined preamble lfcm defined preamble lfcm operating agreement mean operating agreement lfcm dated may ltd exchanging subsidiary defined recital ltd exchanging subsidiary payment defined section agreement ltd sub ltd sub b defined schedule agreement libor mean month portion thereof period interest rate per annum equal rate per annum reported date two day prior first day month telerate page screen shall cease publicly available reported reuters screen page libo publicly available source su ch market rate london interbank offered rate u dollar deposit month portion thereof person mean includes individual firm corporation partnership including without limitation limited general limited liability partnership company limited liability company trust joint venture association joint stock company unincorp orated organization similar entity governmental entity potential reduction defined section agreement proceeding defined section agreement realized tax benefit mean covered taxable year excess hypothetical tax liability actual liability covered tax relevant lazard ltd taxpayer covered taxable year less fee charge expense advisory firm expert described section related agreement paid relevant lazard ltd taxpayer relevant covered taxable year avoidance doubt realized tax benefit shall take account difference ability ltd sub b use foreign tax credit offset u federal income tax liability calculating hypothetical tax liability actual liability covered tax covered taxable year portion actual tax liability covered tax covered taxable year arises result audit taxing authority covered taxable year liability shall included determining realized tax benefit realized tax detriment unless determination realized tax detriment mean covered taxable year excess actual liability covered tax relevant lazard ltd taxpayer hypothetical tax liability covered taxable year plus fee charge expense advisory f irm expert described section related agreement paid relevant lazard ltd taxpayer relevant covered taxable year avoidance doubt realized tax detriment shall take account difference ability ltd sub b use foreign tax credit offset u federal income tax liability calculating hypothetical tax liability actual liability covered tax covered taxable year portion actual ax liability covered tax covered taxable year arises result audit taxing authority covered taxable year liability shall included determining realized tax benefit realized tax detriment unless determination reconciliation procedure shall mean procedure set forth section agreement redemption defined recital redemption basis schedule defined section agreement redemption date mean date redemption effected relevant lazard ltd taxpayer mean ltd sub successor assigns ii ltd sub b successor assigns iii consolidated combined unitary group containing either ltd sub ltd sub b case may respective successor andor assigns scheduled termination date shall mean date agreement would terminate absence early termination notice senior obligation defined section agreement subsidiary mean entity lazard directly indirectly possesses fifty percent total combined voting power class stock lazard group lazard group finance llc respective subsidiary tax benefit payment defined section b agreement tax benefit schedule defined section agreement taxable exchange defined recital taxable year mean taxable year defined section b code comparable section u state local income franchise tax law applicable therefore avoidance doubt may include period less month tax return made tax mean form taxation duty imposed required collected withheld including without limitation charge together related interest penalty additional amount ii liability payment amount type described preceding clause result member affiliated consolidated combined unitary group iii liability payment amount result party tax sharing agreement agreement result express implied obligation indemnify person respect payment amount described immediately preceding clause ii obligation indemnify agreeme nt tax return mean return filing report questionnaire information statement document required filed including amended return may filed taxable period taxing authority whether payment required made respect filing taxing authority mean irs state local foreign governmental entity responsible administration tax treasury regulation mean final temporary proposed regulation code promulgated time time including corresponding provision succeeding provision effect relevant taxable period valuation assumption shall mean valuation date assumption described schedule b agreement valuation date mean date early termination notice purpose determining early termination payment change control termination payment article ii determination realized tax benefit realized tax detriment section redemption date basis adjustment pursuant buyout agreement lazard group historic partner agreed treat consideration paid historic partner redemption sale exchange pursuant section ab code sale extent consideration originates ipo proceeds ii distribution pursuant section b section b code distribution extent total redemption consideration exceeds ipo proceeds ltd exchanging subsidiary lfcm hereby agree historic partner lazard group redeemed cash redemption shall recognize gain redemption da te section code ii ltd exchanging subsidiary share basis original asset shall increased excess sale proceeds ltd exchanging subsidiary proportionate share basis iginal asset redemption date iii basis original asset shall increased amount gain recognized historic partner lazard group respect distribution ltd exchanging subsidiary lfcm shall treat gain basis adjustment occurring entirely redemption date unless determination contrary purpos e agreement ltd exchanging subsidiary lfcm shall take account fair market value right receive payment agreement determining amount sale proceeds amount gain recognized hi storic partner redemption date ii shall treat payment made agreement respect redemption resulting basis adjustment section redemption basis schedule within calendar day redemption date ltd exchanging subsidiary shall deliver lfcm schedule redemption basis schedule approved audit committee show reasonable detail purpose covered tax actual tax basis redemption date original asset ii basis adjustment respect original asset result sale distribution iii period period original asset amortizable depreciable purpose covered tax time ltd exchanging subsidiary deliver redemption basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation redemption basis schedule advisory firm letter supporting redemption basis schedule allow lfcm reasonable access app ropriate representative lazard subsidiary lazard group advisory firm connection review schedule redemption basis schedule shall become final binding party unless lfcm within calendar day aft er receiving redemption basis schedule provides ltd exchanging subsidiary notice material objection redemption basis schedule made good faith party negotiating good faith unable successfully resolve th e issue raised notice within calendar day redemption basis schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure b amended redemption basis schedule redemption basis schedule may amended time time ltd exchanging subsidiary consent audit committee connection determination ii correct inaccuracy original redemption basis schedule ident ified redemption date result receipt additional information relating fact circumstance prior redemption date iii comply expert determination reconciliation procedure time ltd exchanging subsidiary deliver amended redemption basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation amended redemption basis schedule advisory fi rm letter supporting amended redemption basis schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule amend ed redemption basis schedule shall become final binding party unless lfcm within calendar day receiving amended redemption basis schedule provides ltd exchanging subsidiary notice material objection ame nded redemption basis schedule made good faith party negotiating good faith unable successfully resolve sue raised notice within calendar day amended redemption basis schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure section basis adjustment attributable taxable exchange pursuant taxable exchange extent exchangeable holder effecting taxable exchange hold lazard group interest laz md laz md distribute exchangeable holder portion laz md lazard group interest attributable exchangeable holder redemption portion exchangeable interest exchangeable holder laz md ii exchangeable holder transfer interest lazard group ltd exchanging subsidiary n exchange share lazard number lazard share transferred ltd exchanging subsidiary exchangeable holder pursuant taxable exchange determined proportion subsidiary respective interest lazard gr oup applicable exchange date ltd exchanging subsidiary lfcm hereby agree exchangeable holder effecting taxable exchange shall recognize gain u federal income tax purpose exchange date section code amount equal excess fair market value lazard share received taxable exchange ii exchangeable holder basis lazard group interest transferred ltd exchanging subsidiary pursuant taxable exchange purpose agreement ltd exchanging subsidiary lfcm hereby agree fair market value lazard share received taxable exchange shall mean trading value share close busine s exchange date ltd exchanging subsidiary lfcm agree respect taxable exchange ltd exchanging subsidiary share basis exchange asset shall increased excess fai r market value lazard share transferred exchangeable holder pursuant taxable exchange ii ltd exchanging subsidiary proportionate share basis exchange asset immediately taxable exchange attributabl e lazard group interest exchanged ltd exchanging subsidiary exchangeable holder pursuant lfcm operating agreement treat gain basis adjustment occurring entirely exchange date unless determ ination contrary ltd exchanging subsidiary exchangeable holder pursuant lfcm operating agreement agree u federal income tax purpose agreement treated additional consideration paid exchangeabl e holder exchange immediately assigned exchangeable holder lfcm assigning agreement lfcm exchangeable holder relinquish right title interest agreement notwithstanding provision agreement ltd exchanging subsidiary lfcm shall take account fair market value right receive payment agreement determining basis adjustment resulting exchange date ii shall treat payment principal agreement related taxable exchange resulting basis adjustment payment made section exchange basis schedule within calendar day end covered taxable year taxable exchange effected ltd exchanging subsidiary shall deliver lfcm schedule exchange basis schedule approved audit committee show reasonable detail purpose covered tax actual tax basis first applicable exchange date covered taxable year exchange asset ii basis adjustment respect exchange asset result taxable exchange effected covered taxable year calculated aggregate iii period period exchange as ets amortizable depreciable time ltd exchanging subsidiary deliver exchange basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation exchange basi schedule advisory firm letter supporting exchange basis schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule exchange basis schedule shall become final binding party unless lfcm within calendar day receiving exchange basis schedule provides ltd exchanging subsidiary notice material objection exch ange basis schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day exchange basis schedule delivered lfcm ltd exchanging sub idiaries lfcm shall employ reconciliation procedure b amended exchange basis schedule exchange basis schedule may amended time time ltd exchanging subsidiary consent audit committee connection determination ii correct inaccuracy original exchange basis schedule identifie date taxable exchange result receipt additional information iii comply expert determination reconciliation procedure time ltd exchanging subsidiary deliver amended exchange basis schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation amended exchange basis schedule advisory firm letter supporting amended exchange basis schedule allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule amended exchange basis schedule shall become final binding pa rties unless lfcm within calendar day receiving amended exchange basis schedule provides ltd exchanging subsidiary notice material objection amended exchange basis schedule made good faith party negoti ating good faith unable successfully resolve issue raised notice within calendar day amended exchange basis schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation proc edures section tax benefit schedule within calendar day filing u federal income tax return relevant lazard ltd taxpayer relevant covered taxable year ltd exchanging subsidiary shall provide lfcm schedule approved audit committee showing n reasonable detail calculation relevant lazard ltd taxpayer realized tax benefit realized tax detriment covered taxable year tax benefit schedule time ltd exchanging subsidiary deliver tax benefit schedule lfcm shall deliver lfcm schedule work paper providing reasonable detail regarding preparation tax benefit schedule including information rel ated amount ltd sub effectively connected income respect applicable covered taxable year determined u federal income tax purpose advisory firm letter supporting tax benefit schedule ii allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule tax benefit chedules shall become final binding party unless lfcm within calendar day receiving tax benefit schedule provides ltd exchanging subsidiary notice material objection tax benefit schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day tax benefit schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure b amended tax benefit schedule tax benefit schedule covered taxable year may amended time time applicable ltd exchanging subsidiary consent audit committee connection determination affecting tax benefit schedule ii correct inaccuracy original tax benefit schedule identified result receipt additional factual information relating covered taxable year date tax benefit schedule provided lfcm iii reflect change realized tax benefit realized tax detriment covered taxable year attributable carryback carryforward loss tax item covered taxable ye ar iv reflect change realized tax benefit realized tax detriment covered taxable year attributable amended tax return filed covered taxable year provided however change attributable audit tax return applicable taxing authority shall taken account amended tax benefit schedule unless determination respect change v comply expert determination reconciliation procedure time ltd exchanging subsidiary delivers amended tax benefit schedule pursuant section b amended tax benefit schedule lfcm shall x deliver lfcm schedule work paper providing reasonable detail regarding preparation amended tax benefit schedule advisory firm letter supporting amended tax benefit schedule allow lfcm reasonab le access appropriate representative lazard subsidiary lazard group advisory firm connection review schedule amended tax benefit schedule shall become final binding party unless lfcm wit hin calendar day receiving amended tax benefit schedule provides applicable ltd exchanging subsidiary notice material objection amended tax benefit schedule made good faith party negotiating good faith unable successfully resolve issue raised notice within calendar day amended tax benefit schedule delivered lfcm ltd exchanging subsidiary lfcm shall employ reconciliation procedure c applicable principle rea lized tax benefit realized tax detriment covered taxable year intended measure decrease increase actual covered tax liability relevant lazard ltd taxpayer covered taxable year attributable basis adjus tment imputed interest determined using without methodology carryovers carrybacks tax item attributable basis adjustment imputed interest determined using without methodology shall considered subject rule code successor u federal income tax statute treasury regulation appropriate provision u state local income franchise tax law applicable gover ning use limitation expiration carryovers carrybacks relevant type carryover carryback tax item includes portion attributable basis adjustment imputed interest another portion portion shall considered used order determined using without methodology schedule c agreement provides illustrative example applicable principle described section c agreement article iii tax benefit payment section payment except provided section within calendar day delivery tax benefit schedule lfcm covered taxable year ltd exchanging subsidiary shall pay lfcm amount equal tax benefit payment defined covere taxable year ii national bank mutually agreeable ltd exchanging subsidiary audit committee lfcm escrow agent escrow agent amount equal tax benefit payment defined covered taxable year escrow agent shall hold tax benefit payment receives escrow pursuant mutually agreeable escrow agreement escrow agreement ltd exchanging subsidiary lfcm expiration applicable statute limitation attributable covered taxable year tax benefit payment relates tax benefit payment shall made wire transfer immediately available fund bank account lfcm escrow agent previously designated party ltd exchanging subsidiary avoidance doubt tax benefit payment shall made respect estimated tax payment including without limitation estimated federal income tax payment b tax benefit payment shall equal respect ltd exchanging subsidiary applicable ltd exchanging subsidiary realized tax benefit covered taxable year increased interest calculated agreed rate due date without extension filing tax return respect covered tax covered taxable year amount excess realized tax benefit reflected amended tax benefit schedule previous covered taxable year realized tax benefit realized tax detriment reflected tax benefit schedule previous covered taxable year decreased amount equal ltd exchanging subsidiary realized tax detriment previous covered taxable year amount excess realized tax benefit reflected tax benefit schedule previous covered taxable year realized tax benefit realized tax detriment reflected amended tax benefit schedule previous covered taxable year provided however amount described section b shall taken account determining tax benefit payment attributable covered taxable year extent amount taken account determining tax benefit payment preceding covered taxable year c within day receiving tax benefit payment lfcm shall distribute tax benefit payment member lfcm set forth schedule attached hereto schedule accordance percentage indicated schedule section duplicative payment duplicative payment amount including interest required agreement section suspension tax benefit payment following change notice lazard subsidiary lazard group receives day letter final audit report statutory notice deficiency similar written notice taxing authority respect tax treatment redemption taxable exchange change notice sustained would result reduction amount realized tax benefit increase amount realized tax detriment respect covered taxable year preceding taxable year change notice receive ii reduction amount tax benefit payment ltd exchanging subsidiary required pay lfcm respect covered taxable year including taxable year change notice received collectively potential reduction prompt written notice shall given lfcm b date change notice received final determination respect adjustment proposed therein tax benefit payment required made ltd exchanging subsidiary shall paid l td exchanging subsidiary escrow agent time amount paid escrow agent section aii respect covered year issue change notice section b aggregate equal amount potential reduction earlier final determination received respect change notice c final determination respect change notice result adjustment tax benefit payment amount paid escrow agent pursuant section along interest earned fund shall distribut ed lfcm accordance escrow agreement final determination result adjustment tax benefit payment lesser amount paid escrow agent pursuant section ii amount adjustment tax benefit payment case along interest earned fund shall distributed ltd exchanging subsidiary accordance escro w agreement article iv termination section early termination agreement time second nd anniversary date agreement ltd exchanging subsidiary may terminate agreement consent audit committee paying lfcm early termination payment date early termination notice defined ltd exchanging subsidiary may terminate agreement upon occurrence change control event paying lfcm change control termination payment date early termination notice upon payment early termination payment change control termination payment ltd exchanging subsidiary ltd exchanging subsidiary shall payment obligation agreement tax bene fit payment agreed ltd exchanging subsidiary lfcm due payable unpaid early termination notice b tax benefit payment due covered taxable year ending including date early termination n otice except extent amount described clause b included early termination payment change control termination payment case may section early termination notice ltd exchanging subsidiary choose exercise right early termination section ltd exchanging subsidiary shall deliver lfcm notice early termination notice specifying ltd exchanging subsidiary intention exercise right showing reasonable detail calculation early termination payment change control termination payment case may time ltd exchangi ng subsidiary deliver early termination notice lfcm ltd exchanging subsidiary shall deliver lfcm schedule work paper providing reasonable detail regarding calculation early termination payment change contro l termination payment case may manner consistent guideline set forth section agreement advisory firm letter supporting calculation b allow lfcm reasonable access appropriate representative lazard subsidiary lazard group advisory firm connection review calculation calculation contained early termination notice shall become final binding party unless lfcm within calendar day receiving calculation provides ltd</t>
+    <t>tax receivable agreement tax receivable agreement agreement dated among rhi entertainment inc delaware corporation corporation rhi entertainment holding ii llc delaware limited liability company holding ii krh investment llc delaware limited liability company krh recital whereas pursuant certain membership unit subscription agreement dated date hereof among corporation krh holding ii holding ii issue corporation membership interest holding ii interest exchange cash purchase price dollar original issue holding ii issue interest krh exchange contribution interest rhi entertainment llc delaware limited liability company whereas pursuant certain limited liability company agreement holding ii dated date hereof llc agreement corporation krh krh right certain circumstance exchange interest cash ii share common stock corporation par value per share share iii combination cash share exchange whereas holding ii direct indirect subsidiary owned chain passthrough entity holding ii treated partnership u federal income tax purpose together holding ii direct indirect subsidiary owned chain passthrough entity holding ii treated disregarded entity u federal income tax purpose holding ii group effect election section code defined herein taxable year defined herein exchange occurs election result adjustment corporation share tax basis asset owned holding ii group date exchange consequent result taxable income subsequently derived therefrom whereas party agreement desire provide certain payment make certain arrangement respect tax benefit derived corporation result exchange receipt payment agreement contemplated llc agreement therefore consideration foregoing respective covenant agreement set forth herein intending legally bound hereby party hereto agree follows article definition used agreement term set forth article shall following meaning meaning equally applicable singular plural form term defined capitalized term used herein otherwise defined shall respective meaning ascribed term llc agreement advisory firm mean accounting law firm nationally recognized expert covered tax matter affiliate corporation selected corporation advisory firm letter mean letter advisory firm stating relevant schedule notice information provided corporation krh supporting schedule work paper prepared manner consistent term agreement extent expressly provided agreement reasonable basis light fact law existence date schedule notice information delivered krh affiliate mean respect specified person person directly indirectly one intermediary control controlled common control specified person purpose definition control person mean possession directly indirectly power direct cause direction management policy person whether ownership voting capital stock contract otherwise agreement defined preamble amended tax benefit schedule defined section b agreement assumed tax liability mean actual liability covered tax corporation bankruptcy code mean title united state code usc et seq amended time time basis adjustment mean increase decrease tax basis corporation share tax basis holding ii group asset section b b andor code comparable section u state local income franchise tax law result exchange ii payment agreement beneficial owner security mean person directly indirectly contract arrangement understanding relationship otherwise share voting power includes power vote direct voting security andor ii investment power includes power dispose direct disposition security term beneficially shall correlative meaning business day mean calendar day saturday sunday calendar day bank required authorized closed city new york change control mean occurrence following event whether approved board director corporation person group becomes beneficial owner permitted holder directly indirectly corporation voting stock representing total voting power outstanding voting stock corporation ii corporation consolidates merges another entity person corporation sell assigns conveys transfer lease otherwise disposes substantially asset person entity transaction immediately transaction shareholder corporation immediately prior transaction beneficially owns determined directly indirectly voting stock representing majority total voting power outstanding voting stock surviving entity transferee person iii consecutive oneyear period continuing director cease reason constitute majority board director corporation iv adoption plan liquidation dissolution corporation code mean internal revenue code amended successor u federal income tax statute corresponding provision thereof continuing director mean date determination member board director corporation member board director time original issue nominated election elected board director whose election board director approved affirmative vote majority continuing director member board director time nomination election nominated krh pursuant director designation agreement corporation defined preamble covered tax mean tax imposed subtitle code provision u federal income tax law including without limitation tax imposed section code u state local income franchise tax covered taxable year mean taxable year corporation ending including early termination date unilateral termination date covered tax mean every covered tax designated director mean person designated nomination board director corporation krh pursuant director designation agreement determination shall meaning ascribed term section code similar provision u state local income franchise tax law applicable director designation agreement mean director designation agreement dated among corporation holding ii krh may amended supplemented otherwise modified time time early termination date last day taxable year early termination notice given early termination notice defined section agreement early termination payment mean date early termination notice payment equal present value discounted termination rate tax benefit payment would required paid corporation beginning early termination date assuming valuation assumption applied exchange defined recital exchange act mean security exchange act amended exchange asset mean asset owned holding ii group applicable exchange date asset whose tax basis determined whole part reference adjusted basis asset exchange basis schedule defined section agreement exchange date mean date exchange effected expert defined section agreement governmental entity mean u federal state local government court competent jurisdiction administrative agency commission domestic governmental authority instrumentality group meaning set forth section rule exchange act holding ii defined preamble holding ii group defined recital hypothetical tax basis mean respect asset time tax basis asset would time basis adjustment made result exchange payment agreement hypothetical tax liability mean respect covered taxable year liability covered tax corporation hypothetically would arise using method election convention similar practice used actual tax return corporation using hypothetical tax basis instead actual tax basis relevant asset excluding deduction attributable imputed interest imputed interest mean portion payment treated interest section provision code similar section applicable u state local income franchise tax law respect corporation payment obligation agreement interest defined recital irs mean u internal revenue service kelso mean kelso company lp kelso investment associate vii lp kep vi llc investment fund managed kelso company lp affiliate kelso company lp respective subsidiary successor thereto krh defined preamble libor mean month portion thereof period interest rate per annum equal rate per annum reported date two day prior first day month telerate page screen shall cease publicly available reported reuters screen page libo publicly available source market rate london interbank offered rate u dollar deposit due last day month portion thereof llc agreement defined recital lump sum election notice defined section lump sum present value defined section market value mean respect share closing price share applicable exchange date national security exchange interdealer quotation system share traded listed reported wall street journal provided closing price reported wall street journal applicable exchange date market value shall mean closing price share business day immediately preceding exchange date national security exchange interdealer quotation system share traded listed reported wall street journal provided share listed national security exchange interdealer quotation system market value shall mean fair market value share determined krh good faith market value respect asset share shall mean fair market value asset determined krh good faith material breach mean breach corporation material obligation agreement including result failure make payment due failure honor material obligation required hereunder operation law result rejection agreement case commenced bankruptcy code purpose party agree failure make payment due pursuant agreement within three month date payment due shall deemed material breach considered material breach make payment due pursuant agreement within three month date payment due membership unit subscription agreement defined recital original issue defined recital original issue date mean date original issue effected permitted holder mean krh kelso person controlled krh kelso person mean includes individual firm corporation partnership including without limitation limited general limited liability partnership company limited liability company trust joint venture association joint stock company unincorporated organization similar entity governmental entity proceeding mean suit action proceeding relating agreement realized tax benefit mean covered taxable year excess hypothetical tax liability assumed tax liability covered taxable year less fee charge expense advisory firm expert related agreement paid corporation excluding avoidance doubt cost expense krh corporation reimburses krh pursuant second sentence section b cost expense corporation borne corporation pursuant second sentence section b relevant covered taxable year portion assumed tax liability covered taxable year arises result adjustment pursuant audit taxing authority covered taxable year adjustment liability shall included determining realized tax benefit unless determination realized tax detriment mean covered taxable year excess assumed tax liability hypothetical tax liability covered taxable year plus fee charge expense advisory firm expert related agreement paid corporation excluding avoidance doubt cost expense krh corporation reimburses krh pursuant second sentence section b cost expense corporation borne corporation pursuant second sentence section b relevant covered taxable year portion assumed tax liability covered taxable year arises result audit taxing authority covered taxable year adjustment liability shall included determining realized tax detriment unless determination reconciliation dispute defined section reconciliation procedure mean procedure set forth section agreement registrable security mean share security issued issuable respect exchange share particular registrable security share security issued issuable respect exchange share shall cease registrable security registration statement respect sale share security issued issuable respect exchange share shall become effective security act share security issued issuable respect exchange share shall disposed accordance registration statement ii share security issued issuable respect exchange share shall distributed public pursuant rule security act iii share security issued issuable respect exchange share shall ceased outstanding registration right agreement mean certain registration right agreement dated krh corporation senior obligation mean principal interest amount due payable respect debt guarantee corporation borrowed fund share defined recital security act mean security act amended tax benefit payment defined section b agreement tax benefit schedule defined section agreement tax return mean return filing required made respect covered tax including amended return taxable year taxing authority taxable year mean taxable year defined section b code comparable section u state local income franchise tax law applicable therefore avoidance doubt may include period less month tax return made taxing authority mean irs state local governmental entity responsible administration covered tax termination rate mean lesser ii libor plus basis point treasury regulation mean final temporary proposed regulation code promulgated time time including corresponding provision succeeding provision effect relevant time unilateral termination date defined section agreement unilateral termination notice defined section agreement valuation assumption mean valuation date assumption corporation income exceeds amount increase deduction may derived basis adjustment imputed interest throughout relevant period purpose covered tax change applicable tax rate covered tax throughout relevant period except extent change already enacted law taxable income corporation subject maximum applicable tax rate covered tax throughout relevant period loss carryovers carrybacks generated basis adjustment imputed interest including basis adjustment imputed interest generated result payment made agreement available date early termination notice utilized corporation pro rata basis early termination date scheduled expiration date loss carryovers carrybacks nonamortizable asset deemed disposed fifteenth anniversary earlier basis adjustment early termination date early termination date occurs prior exchange interest remaining interest exchanged early termination date shall treated sold exchange occurring early termination date share received deemed sale valued market value valuation date mean date early termination notice purpose determining early termination payment article ii determination realized tax benefit realized tax detriment section basis adjustment attributable exchange pursuant exchange krh right exchange interest cash share combination cash share party hereto acknowledge corporation share basis exchange asset shall increased excess sum x market value share cash consideration transferred krh pursuant exchange payment interest amount payment made pursuant agreement respect exchange z amount liability allocated interest acquired pursuant exchange b corporation proportionate share basis exchange asset immediately exchange attributable interest exchanged determined member holding ii group remains existence entity tax purpose member holding ii group made election provided section code avoidance doubt payment made agreement shall treated resulting basis adjustment extent payment treated imputed interest section exchange basis schedule generally within calendar day filing u federal income tax return relevant taxable year corporation shall deliver cause holding ii deliver krh schedule exchange basis schedule show reasonable detail u federal income tax purpose actual tax basis first applicable exchange date taxable year exchange asset ii basis adjustment respect exchange asset result exchange effected taxable year iii period period exchange asset amortizable depreciable iv period period basis adjustment amortizable depreciable nonamortizable asset shall based valuation assumption time corporation delivers cause holding ii deliver exchange basis schedule krh shall x deliver cause holding ii deliver krh schedule work paper providing reasonable detail regarding preparation exchange basis schedule advisory firm letter supporting exchange basis schedule allow krh reasonable access appropriate representative corporation holding ii advisory firm connection krhs review schedule exchange basis schedule shall become final binding party unless krh within calendar day receiving exchange basis schedule provides corporation notice material objection exchange basis schedule made good faith reasonable detail party negotiating good faith unable successfully resolve issue raised notice within calendar day notice delivered corporation corporation krh shall employ reconciliation procedure b amendment exchange basis schedule exchange basis schedule shall amended time time corporation connection determination ii correct inaccuracy original exchange basis schedule identified date exchange result receipt additional information iii comply expert determination reconciliation procedure corporation shall deliver shall cause holding ii deliver amended exchange basis schedule krh within day date related determination receipt additional information expert determination applicable time corporation delivers amended exchange basis schedule krh shall x deliver krh schedule work paper providing reasonable detail regarding preparation amended exchange basis schedule advisory firm letter supporting amended exchange basis schedule allow krh reasonable access appropriate representative corporation holding ii advisory firm connection krhs review schedule amended exchange basis schedule shall become final binding party unless krh within calendar day receiving amended exchange basis schedule provides corporation notice material objection amended exchange basis schedule made good faith reasonable detail party negotiating good faith unable successfully resolve issue raised notice within calendar day notice delivered corporation corporation krh shall employ reconciliation procedure section tax benefit schedule generally within calendar day filing u federal income tax return relevant covered taxable year corporation shall provide krh schedule showing reasonable detail calculation corporation realized tax benefit realized tax detriment covered taxable year tax benefit schedule time corporation delivers tax benefit schedule krh shall deliver krh schedule work paper providing reasonable detail regarding preparation tax benefit schedule advisory firm letter supporting tax benefit schedule ii allow krh reasonable access appropriate representative corporation holding ii advisory firm connection krhs review schedule tax benefit schedule shall become final binding party unless krh within calendar day receiving tax benefit schedule provides corporation notice material objection tax benefit schedule made good faith reasonable detail party negotiating good faith unable successfully resolve issue raised notice within calendar day receipt thereof corporation corporation krh shall employ reconciliation procedure b amendment tax benefit schedule tax benefit schedule covered taxable year shall amended time time corporation connection determination affecting tax benefit schedule ii correct inaccuracy original tax benefit schedule identified result receipt additional factual information relating covered taxable year date tax benefit schedule provided krh iii reflect change realized tax benefit realized tax detriment covered taxable year attributable carryback carryforward loss tax item covered taxable year iv reflect change realized tax benefit realized tax detriment covered taxable year attributable amended tax return filed covered taxable year provided however change attributable audit tax return applicable taxing authority shall taken account amended tax benefit schedule unless determination respect change v comply expert determination reconciliation procedure corporation shall deliver amended tax benefit schedule krh within day date related determination receipt additional information filing amended tax return application form expert determination applicable time corporation delivers amended tax benefit schedule pursuant subsection b amended tax benefit schedule krh shall x deliver krh schedule work paper providing reasonable detail regarding preparation amended tax benefit schedule advisory firm letter supporting amended tax benefit schedule allow krh reasonable access appropriate representative corporation holding ii advisory firm connection krhs review schedule amended tax benefit schedule shall become final binding party unless krh within calendar day receiving amended tax benefit schedule provides corporation notice material objection amended tax benefit schedule made good faith reasonable detail party negotiating good faith unable successfully resolve issue raised notice within calendar day notice delivered corporation corporation krh shall employ reconciliation procedure c applicable principle realized tax benefit realized tax detriment covered taxable year intended measure decrease increase actual liability covered tax corporation covered taxable year attributable basis adjustment imputed interest determined using without methodology avoidance doubt actual liability covered tax take account deduction portion tax benefit payment must accounted imputed interest code based upon characterization tax benefit payment additional consideration payable corporation interest acquired exchange carryovers carrybacks covered tax item attributable basis adjustment imputed interest determined using without methodology shall considered subject rule code treasury regulation appropriate provision u state local income franchise tax law applicable governing use limitation expiration carryovers carrybacks relevant type carryover carryback covered tax item includes portion attributable basis adjustment imputed interest another portion portion shall considered used order determined using without methodology party agree tax benefit payment treated subsequent upward purchase price adjustment give rise basis adjustment corporation b effect creating additional basis adjustment corporation year payment ii result additional basis adjustment incorporated current year calculation future year calculation appropriate circularity created current year continuing incremental current year benefit equal immaterial amount time exchange krh shall conclude whether aggregate value tax benefit payment ascertained reasonable certainty u federal income tax purpose unless determination contrary corporation krh behalf behalf affiliate agree report cause reported u purpose including purpose covered tax u financial reporting purpose payment made agreement manner consistent conclusion article iii tax benefit payment section payment within five calendar day delivery tax benefit schedule krh covered taxable year applicable within five calendar day final determination tax benefit schedule pursuant procedure set forth section corporation shall pay krh amount equal tax benefit payment covered taxable year shall make payment krh respect applicable dispute pursuant section tax benefit payment shall made wire transfer immediately available fund bank account krh previously designated krh corporation avoidance doubt tax benefit payment shall made respect estimated tax payment including without limitation estimated u federal income tax payment b tax benefit payment covered taxable year shall equal eightyfive percent corporation realized tax benefit covered taxable year increased interest calculated termination rate due date without extension filing relevant tax return covered taxable year date tax benefit payment made ii eightyfive percent amount excess realized tax benefit reflected amended tax benefit schedule previous covered taxable year realized tax benefit case realized tax detriment realized tax detriment expressed negative number reflected tax benefit schedule previous covered taxable year plus interest thereon calculated pursuant paragraph subsection b decreased iii amount equal eightyfive percent corporation realized tax detriment previous covered taxable year iv eightyfive percent amount excess realized tax benefit reflected tax benefit schedule previous covered taxable year realized tax benefit case realized tax detriment realized tax detriment expressed negative number reflected amended tax benefit schedule previous covered taxable year plus interest thereon calculated pursuant paragraph subsection b provided however amount described clause ii iii iv shall taken account determining tax benefit payment attributable covered taxable year extent amount taken account determining tax benefit payment preceding covered taxable year b tax benefit payment shall number less zero avoidance doubt krh shall obligation make payment corporation reimburse corporation amount previously paid pursuant agreement section duplicative payment duplicative payment amount including interest required agreement section lump sum payment time present value remaining payment section covered taxable year beginning last covered taxable year payment made pursuant section based upon valuation assumption using discount rate termination rate lump sum present value equal less million krh record owner less outstanding interest holding ii krh may elect require corporation pay krh lump sum present value accordance next paragraph giving corporation notice lump sum election notice stating electing right receive lump sum present value payment section showing reasonable detail calculation lump sum present value date notice ownership holding ii b corporation shall pay lump sum present value corporation election cash ii share valued market value trading day immediately preceding date payment iii combination cash share valued market value trading day immediately preceding date payment corporation shall pay lump sum present value within ten business day receiving lump sum election notice within ten business day resolution dispute undertaken pursuant section date may agreed upon krh lump sum present value shall calculated date lump sum election notice received corporation corporation elect pay portion lump sum present value share share fully paid nonassessable free clear lien claim encumbrance share treated registrable security registration right agreement c krh elect receive lump sum present value payment lump sum present value payment paid full accordance provision section corporation shall obligation make payment section respect covered taxable year included present value calculation lump sum present value payment made difference actual event date present value calculation used present value calculation including without limitation assumption amount taxable income fact used present value calculation shall affect require adjustment reimbursement lump sum present value amount paid full corporation shall within five calendar day request krh prepare estimate lump sum present value date request together reasonable supporting detail showing basis calculation event corporation estimate lump sum present value equal krhs estimate set forth lump sum election notice procedure similar set forth section shall apply e respect lump sum payment section corporation shall release information public time disclosure lump sum payment required exchange act article iv termination section early termination upon occurrence change control corporation shall obligated terminate agreement effective early termination date paying krh early termination payment provided section upon payment early termination payment corporation corporation shall payment obligation agreement tax benefit payment agreed corporation krh due payable unpaid early termination date ii tax benefit payment due covered taxable year ending including early termination date except extent amount described clause ii included early termination payment section early termination notice within day change control corporation shall deliver krh notice early termination notice stating date change control showing reasonable detail calculation early termination payment time corporation delivers early termination notice krh corporation shall deliver krh schedule work paper providing reasonable detail regarding calculation early termination payment manner consistent definition term advisory firm letter supporting calculation ii allow krh reasonable access appropriate representative corporation holding ii advisory firm connection krhs review calculation calculation contained early termination notice shall become final binding party unless krh within calendar day receiving calculation provides corporation notice material objection calculation made good faith reasonable detail party negotiating good faith unable successfully resolve issue raised calculation within calendar day notice material objection delivered corporation corporation krh shall employ reconciliation procedure section payment upon early termination within event krh provide corporation notice material objection pursuant section calendar day delivery krh early termination notice ii event krh provides corporation notice material objection krh corporation successfully resolve issue raised notice without employment reconciliation procedure case pursuant section calendar day resolution iii event employment reconciliation procedure pursuant section day finalization early termination notice pursuant reconciliation procedure corporation shall pay krh amount equal early termination payment payment shall made wire transfer immediately available fund bank account designated krh section breach agreement event material breach obligation hereunder shall accelerated obligation shall calculated early termination notice delivered date material breach shall include without limitation early termination payment calculated early termination notice delivered date material breach tax benefit payment agreed corporation krh due payable unpaid date material breach tax benefit payment due taxable year ending including date material breach notwithstanding foregoing event material breach krh shall entitled elect accelerate obligation due krh hereunder set forth seek specific performance term hereof section unilateral termination krh time providing notice unilateral termination notice corporation krh may elect terminate agreement effective date designated krh notice unilateral termination date upon receipt unilateral termination notice corporation shall payment obligation agreement tax benefit payment agreed corporation krh due payable unpaid unilateral termination date ii tax benefit payment due covered taxable year ending including unilateral termination date except extent amount described clause ii attributable interest exchanged unilateral termination date article v subordination late payment section subordination notwithstanding provision agreement contrary tax benefit payment lump sum present value payment extent payable cash early termination payment required made agreement shall rank subordinate junior right payment senior obligation shall rank pari passu current future unsecured obligation corporation senior obligation section late payment corporation amount portion payment made krh due term agreement shall payable together interest thereon computed termination rate commencing date payment due payable ending date payment article vi election dispute consistency cooperation section election filed managing member holding ii corporation shall cause holding ii holding ii group member treated partnership u federal income tax purpose file election section code commencing taxable year original issue occurs shall cause entity revoke election agreement longer effect holding ii acquires interest entity treated partnership u federal income tax purpose corporation shall use best effort cause entity file election section code effective entity taxable year acquisition occurs unless entity already election section code effect shall cause entity revoke election agreement longer effect section krhs participation tax matter corporation except otherwise provided herein corporation shall full responsibility sole discretion matter concerning covered tax corporation including without limitation preparation filing amending tax return defending contesting settling issue pertaining covered tax notwithstanding foregoing corporation shall notify krh keep krh reasonably informed respect krh shall right participate monitor avoidance doubt control portion audit corporation taxing authority outcome reasonably expected affect krhs right agreement corporation shall provide krh reasonable opportunity provide information input corporation advisor concerning conduct portion audit corporation shall settle otherwise resolve audit challenge taxing authority relating basis adjustment deduction imputed interest without consent krh consent krh shall unreasonably withhold condition delay section consistency unless determination contrary except consent corporation krh corporation krh behalf behalf affiliate agree report cause reported u purpose including purpose covered tax u financial reporting purpose item related covered tax agreement including without limitation basis adjustment tax benefit payment manner consistent specified corpor</t>
   </si>
   <si>
     <t>tax receivable agreement tax receivable agreement agreement dated among rhi entertainment inc delaware corporation corporation rhi entertainment holding ii llc delaware limited liability company holding ii krh investment llc delaware limited liability company krh recital whereas pursuant certain membership unit subscription agreement dated date hereof among co rporation krh holding ii holding ii issue corporation membership interest holding ii interest exchange cash purchase price dollar original issue holding ii issue interest krh exchange contribution interest rhi entertainment llc delaware limited liability company whereas pursuant certain limited liability company agreement holding ii dated date hereof llc agreement corporation krh krh right certain circumstance exchange interest cash ii share common stock corporation par value per share share iii combination cash share exchange whereas holding ii direct indirect subsidiary owned chain pas entity holding ii treated partnership u federal income tax purpose together holding ii direct indi rect subsidiary owned chain pas entity holding ii treated disregarded entity u federal income tax purpose holding ii group effect election section code defined herein taxable year defined herein exchange occurs election result adjustment corporation share tax basis asset owned holding ii group date exchange con equent result taxable income subsequently derived therefrom whereas party agreement desire provide certain payment make certain arrangement respect tax benefit derived corporation re ult exchange receipt payment agreement contemplated llc agreement therefore consideration foregoing respective covenant agreement set forth herein intending legally bound hereb party hereto agree follows article definition used agreement term set forth article shall following meaning meaning equally applicable singular plural form term defi ned capitalized term used herein otherwise defined shall respective meaning ascribed term llc agreement advisory firm mean accounting law firm nationally recognized expert covered tax matter affiliate corporation selected corporation advisory firm letter mean letter advisory firm stating hat relevant schedule notice information provided corporation krh supporting schedule work paper prepared manner consistent term agreement extent expressly provided agreement reasonable basis light fact law existence date schedule notice information delivered krh affiliate mean respect specified person person directly indirect ly one intermediary control controlled common control specified person purpose definition control person mean possession directly indirectly power direct cause th e direction management policy person whether ownership voting capital stock contract otherwise agreement defined preamble amended tax benefit schedule defined section b agreemen assumed tax liability mean actual liability covered tax corporation bankruptcy code mean title united state code usc et seq amended time time basis adjustment mean increase decrease tax basis corporation share tax basis holding ii group asset section b b andor code comparable section u state local income franchise tax law result exchange ii payment agreement beneficial owner security mean person directly indirectly contract arrangement understanding relationship otherwise share voting power includes power vote direct voting security andor ii investment power includes power dispose direct disposition security term beneficially shall cor relative meaning business day mean calendar day saturday sunday calendar day bank required authorized closed city new york change control mean occurrence following ev ents whether approved board director corporation person group becomes beneficial owner permitted holder directly indirectly corporation voting stock representing total voting power outstanding voting stock corporation ii corporation consolidates merges another entity person corporation sell assigns conveys transfer lease otherwise disposes substantially asset person entity uch transaction immediately transaction shareholder corporation immediately prior transaction beneficially owns determined directly indirectly voting stock representing majority total votin g power outstanding voting stock surviving entity transferee person iii consecutive one year period continuing director cease reason constitute majority board director corporation iv adoption plan liquidation dissolution corporation code mean internal revenue code amended successor u federal income tax statute corresponding provision thereof continuing director mean date determination member board director corporation member board director time original issue nominated election elected board director whose election board director approved affirmative vote majority continuing irectors member board director time nomination election nominated krh pursuant director designation agreement corporation defined preamble covered tax mean tax imposed subt itle code provision u federal income tax law including without limitation tax imposed section code u state local income franchise tax covered taxable year mean ny taxable year corporation ending including early termination date unilateral termination date covered tax mean every covered tax designated director mean person designated nomination board director corporation krh pursuant director designation agreement determination shall meaning ascribed term section code similar provision u state local income franchise tax law applicable director designation agreement mean director designation agreement dated among corporation holding ii krh may amended supplemented otherwise modified time time early termination date last day taxable year early termination notice given early termination notice defined section agreement early termination payment mean date early termination notice payment equal present value discounted termination rate tax benefit payment would required paid corporation beginning early termination date assuming valuation assumption applied exchange defined recital exchange act mean security exchange act amended exchange asset mean asset owned holding ii group applicable exchange date asset whose tax basis determined w hole part reference adjusted basis asset exchange basis schedule defined section agreement exchange date mean date exchange effected expert defined section agreement governmental entity mean u federal state local government court competent jurisdiction administrative agency commission domestic governmental authority instrumentality group meaning set forth n section rule exchange act holding ii defined preamble holding ii group defined recital hypothetical tax basis mean respect asset time tax basis asset would time basis adjustment made result exchange payment agreement hypothetical tax liability mean respect covered taxable year liability covered tax corporation hypothe tically would arise using method election convention similar practice used actual tax return corporation using hypothetical tax basis instead actual tax basis relevant asset excluding deduct ion attributable imputed interest imputed interest mean portion payment treated interest section provision code similar section applicable u state local income franchise tax law respect corporation payment obligation agreement interest defined recital irs mean u internal revenue service kelso mean kelso company lp kelso investment associate vii lp kep vi l lc investment fund managed kelso company lp affiliate kelso company lp respective subsidiary successor thereto krh defined preamble libor mean month portion thereof period interest rate per annum equal rate per annum reported date two day prior first day month telerate page screen shall cease publicly available reported reuters screen page libo publicly vailable source market rate london interbank offered rate u dollar deposit due last day month portion thereof llc agreement defined recital lump sum election notice defined section lump sum present value defined section market value mean respect share closing price share applicable exchange date national security exchange interdealer quotation system share traded listed reported wall street journal provided closing price reported wall street journal applicable exchange date market value shall mean closing price share business ay immediately preceding exchange date national security exchange interdealer quotation system share traded listed reported wall street journal provided share listed national security exchange interdealer quotation system market value shall mean fair market value share determined krh good faith market value respect asset share shall mean fair market value asset determined krh good faith material breach mean breach corporation material obligation agreement including result failure make payment due failure honor materi al obligation required hereunder operation law result rejection agreement case commenced bankruptcy code purpose party agree failure make payment due pursuant agreement within three month date payment due shall deemed material breach considered material breach make payment due pursuant agreement within three month date payment due membership u nit subscription agreement defined recital original issue defined recital original issue date mean date original issue effected permitted holder mean krh kelso person controlled krh kelso person mean includes individual firm corporation partnership including without limitation limited general limited liability partnership company limited liability company trust joint venture association joint stock company unincorporated organization similar entity governmental entity proceeding mean suit action proceeding relating agreement realized tax benefit mean covered taxable year excess hypothetical tax l iability assumed tax liability covered taxable year less fee charge expense advisory firm expert related agreement paid corporation excluding avoidance doubt cost expense k rh corporation reimburses krh pursuant second sentence section b cost expense corporation borne corporation pursuant second sentence section b relevant covered taxable year portion assumed tax liability covered taxable year arises result adjustment pursuant audit taxing authority covered taxable year adjustment liability shall included determining realized tax benefit unless determination realized ax detriment mean covered taxable year excess assumed tax liability hypothetical tax liability covered taxable year plus fee charge expense advisory firm expert related agr eement paid corporation excluding avoidance doubt cost expense krh corporation reimburses krh pursuant second sentence section b cost expense corporation borne corporation p ursuant second sentence section b relevant covered taxable year portion assumed tax liability covered taxable year arises result audit taxing authority covered taxable year adj ustment liability shall included determining realized tax detriment unless determination reconciliation dispute defined section reconciliation procedure mean procedure set forth section agreement registrable security mean share security issued issuable respect exchange share particular registrable security share security issued issuable respect exchange share shall cease registrable security registration statement respect sale share security issued issuable r espect exchange share shall become effective security act share security issued issuable respect exchange share shall disposed accordance regis tration statement ii share security issued issuable respect exchange share shall distributed public pursuant rule security act iii share securitie issued issuable respect exchange share shall ceased outstanding registration right agreement mean certain registration right agreement dated krh corporation senior obl igations mean principal interest amount due payable respect debt guarantee corporation borrowed fund share defined recital security act mean security act amended tax benefit payment defined section b agreement tax benefit schedule defined section agreement tax return mean return filing required made respect covered tax including amended return axable year taxing authority taxable year mean taxable year defined section b code comparable section u state local income franchise tax law applicable therefore avoidance doubt may include period less month tax r eturn made taxing authority mean irs state local governmental entity responsible administration covered tax termination rate mean lesser ii libor plus basis point treasury regulation mean final temporary proposed regulation code promulgated time time including corresponding provision succeeding provision effect relevant time unilateral termination date defined section th agreement unilateral termination notice defined section agreement valuation assumption mean valuation date assumption corporation income exceeds amount increase deduct ion may derived basis adjustment imputed interest throughout relevant period purpose covered tax change applicable tax rate covered tax throughout relevant period except extent change already enacted law taxable income corporation subject maximum applicable tax rate fo r covered tax throughout relevant period loss carryovers carrybacks generated basis adjustment imputed interest including basis adjustment imputed interest generated result payment made ag reement available date early termination notice utilized corporation pro rata basis early termination date scheduled expiration date loss carryovers carrybacks non amorti zable asset deemed disposed fifteenth anniversary earlier basis adjustment early termination date early termination date occurs prior exchange interest remaining interest exchanged early termination date shall treated sold exchange occurring early termination date share received deemed ale valued market value valuation date mean date early termination notice purpose determining early termination payment article ii determination realized tax benefit realized tax detriment section basis adjustment attributable exchange pursuant exchange krh right exchange interest cash share combination cash share party hereto acknowledge corporation share basis exchange asset shall increased excess sum x market value share cash consideration transferred krh pursuant exchange payment interest amount payment made pursuant agreement respect exchange z amount liability allocated interest acquired pursuant exchange b corporation proportionate shar e basis exchange asset immediately exchange attributable interest exchanged determined member holding ii group remains existence entity tax purpose member holding ii group de election provided section code avoidance doubt payment made agreement shall treated resulting basis adjustment extent payment treated imputed interest section exchange ba si schedule generally within calendar day filing u federal income tax return relevant taxable year corporation shall deliver cause holding ii deliver krh schedule exchange basis schedule show reasonable detail u federal income tax purpose actual tax basis first applicable exchange date taxable year exchange asset ii basis adjustment respect exchange asset result e xchange effected taxable year iii period period exchange asset amortizable depreciable iv period period basis adjustment amortizable depreciable namortizable asset shall based valuation assumption time corporation delivers cause holding ii deliver exchange basis schedule krh shall x deliver cause holding ii deliver krh schedule work paper providing reasonable detail regarding preparation exchange basis schedule advisory firm letter supporting exchange basis schedule allow krh reasonable access appropriate representative corporation hold ings ii advisory firm connection krhs review schedule exchange basis schedule shall become final binding party unless krh within calendar day receiving exchange basis schedule provides corpus tion notice material objection exchange basis schedule made good faith reasonable detail party negotiating good faith unable successfully resolve issue raised notice within calendar day aft er notice delivered corporation corporation krh shall employ reconciliation procedure b amendment exchange basis schedule exchange basis schedule shall amended time time corporation connect ion determination ii correct inaccuracy original exchange basis schedule identified date exchange result receipt additional information iii comply expert determination recon ciliation procedure corporation shall deliver shall cause holding ii deliver amended exchange basis schedule krh within day date related determination receipt additional information expert determination applicable time corporation delivers amended exchange basis schedule krh shall x deliver krh schedule work paper providing reasonable detail regarding preparation amended exchange ba schedule advisory firm letter supporting amended exchange basis schedule allow krh reasonable access appropriate representative corporation holding ii advisory firm connection krhs review sch edule amended exchange basis schedule shall become final binding party unless krh within calendar day receiving amended exchange basis schedule provides corporation notice material objection amended exchange basis schedule made good faith reasonable detail party negotiating good faith unable successfully resolve issue raised notice within calendar day notice delivered corporation corporation krh shall employ reconciliation procedure section tax benefit schedule generally within calendar day filing u federal income tax return relevant covered taxable year corporation shall provid e krh schedule showing reasonable detail calculation corporation realized tax benefit realized tax detriment covered taxable year tax benefit schedule time corporation delivers tax benefit schedule krh shall deliver krh schedule work paper providing reasonable detail regarding preparation tax benefit schedule advisory firm letter supporting tax benefit schedule ii allow krh reasonable access app ropriate representative corporation holding ii advisory firm connection krhs review schedule tax benefit schedule shall become final binding party unless krh within calendar day receiving suc h tax benefit schedule provides corporation notice material objection tax benefit schedule made good faith reasonable detail party negotiating good faith unable successfully resolve issue raised n notice within calendar day receipt thereof corporation corporation krh shall employ reconciliation procedure b amendment tax benefit schedule tax benefit schedule covered taxable year shall amended time time corporation connection determination affecting tax benefit schedule ii correct inaccuracy original tax benefit schedule identified result receipt additional factual information rela ting covered taxable year date tax benefit schedule provided krh iii reflect change realized tax benefit realized tax detriment covered taxable year attributable carryback carryforward loss tax item covered taxable year iv reflect change realized tax benefit realized tax detriment covered taxable year attributable amended tax return filed covered taxable year provided however change attributable audit tax return applicable taxing authority shall taken account amended tax benefit schedule unless determination respect change v comply expert determination reconciliation procedure corporation shall deliver amended tax benefit schedule krh within day date related determination receipt additional information filing amended tax retur n application form expert determination applicable time corporation delivers amended tax benefit schedule pursuant subsection b amended tax benefit schedule krh shall x deliver krh schedule work paper providing reasonable detail regarding preparation amended tax benefit schedule advisory firm letter supporting amended tax benefit schedule allow krh reasonable acc es appropriate representative corporation holding ii advisory firm connection krhs review schedule amended tax benefit schedule shall become final binding party unless krh within calendar da y receiving amended tax benefit schedule provides corporation notice material objection amended tax benefit schedule made good faith reasonable detail party negotiating good faith unable su ccessfully resolve issue raised notice within calendar day notice delivered corporation corporation krh shall employ reconciliation procedure c applicable principle realized tax benefit reali zed tax detriment covered taxable year intended measure decrease increase actual liability covered tax corporation covered taxable year attributable basis adjustment imputed interest determined using without methodology avoidance doubt actual liability covered tax take account deduction portion tax benefit payment must accounted imputed interest code based u pon characterization tax benefit payment additional consideration payable corporation interest acquired exchange carryovers carrybacks covered tax item attributable basis adjustment imputed interest determined using without methodology shall considered subject rule code treasury regulation appropriate provision u state local income franchise tax law applicable governing use limitation expiration carryovers carrybacks relevant type carryover carryback covered tax item includes portion attributable basis adjustment imputed interest another portion portion shall considered used order determined using without methodology party agree tax benefit payment treated subsequent upward purchase price adjustment give rise ba adjustment corporation b effect creating additional basis adjustment corporation year payment ii result additional basis adjustment incorporated current year calculation nd future year calculation appropriate circularity created current year continuing incremental current year benefit equal immaterial amount time exchange krh shall conclude whether aggregate value tax benefit payment ascertained reasonable certainty u federal income tax purpose unless determination contrary corporation krh behalf behalf affiliate agree report cause reported u purpose including purpose covered tax u financial reporting purpose payment made agreement manner consistent conclusion article iii tax benefit payment section payment within five calendar day delivery tax benefit schedule krh covered taxable year applicable within five calendar day final determination tax benefit schedule pursuant procedure set forth ection corporation shall pay krh amount equal tax benefit payment covered taxable year shall make payment krh respect applicable dispute pursuant section tax benefit payment shall made wire transfer immediately available fund bank account krh previously designated krh corporation avoidance doubt tax benefit payment shall made respect estimated tax payment including without limitatio n estimated u federal income tax payment b tax benefit payment covered taxable year shall equal eighty five percent corporation realized tax benefit covered taxable year increased interest calcula ted termination rate due date without extension filing relevant tax return covered taxable year date tax benefit payment made ii eighty five percent amount excess realized ta x benefit reflected amended tax benefit schedule previous covered taxable year realized tax benefit case realized tax detriment realized tax detriment expressed negative number reflected tax benefit schedule previous covered taxable year plus interest thereon calculated pursuant paragraph subsection b decreased iii amount equal eighty five percent corporation realized tax detriment previous covered taxable year iv eighty five percent amount excess realized tax benefit reflected tax benefit schedule previous covered taxable year realized tax benefit case realize tax detriment realized tax detriment expressed negative number reflected amended tax benefit schedule previous covered taxable year plus interest thereon calculated pursuant paragraph subsection b provided however amount described clause ii iii iv shall taken account determining tax benefit payment attributable covered taxable year extent amount taken account determining ta x benefit payment preceding covered taxable year b tax benefit payment shall number less zero avoidance doubt krh shall obligation make payment corporation reimburse corporation amount previously paid pursuant agreement section duplicative payment duplicative payment amount including interest required agreement section lump sum payment time present value remaining payment section covered taxable year beginning last covered taxable year payment made pursuant section based upon valuation assumption using discount rate termination rate lump sum present value equal less million krh record owner less outstanding interest holding ii krh may elect require corporation pay krh lump sum present value accordance next paragraph giving corporation notice lump sum election notice stating elec ting right receive lump sum present value payment section showing reasonable detail calculation lump sum present value date notice ownership holding ii b corporation shall pa lump sum present value corporation election cash ii share valued market value trading day immediately preceding date payment iii combination cash share valued market value tradi ng day immediately preceding date payment corporation shall pay lump sum present value within ten business day receiving lump sum election notice within ten business day resolution dispute undertaken pursuant section date may agreed upon krh lump sum present value shall calculated date lump sum election notice received corporation corporation elect pay portion lump um present value share share fully paid non assessable free clear lien claim encumbrance share treated registrable security registration right agreement c krh elect rece ive lump sum present value payment lump sum present value payment paid full accordance provision section corporation shall obligation make payment section respect covered taxable year included present value calculation lump sum present value payment made difference actual event date present value calculation used present value calcula tion including without limitation assumption amount taxable income fact used present value calculation shall affect require adjustment reimbursement lump sum present value amount p aid full corporation shall within five calendar day request krh prepare estimate lump sum present value date request together reasonable supporting detail showing basis calculation event corporation estimate lump sum present value equal krhs estimate set forth lump sum election notice procedure similar set forth section shall apply e respect lump sum payment section corporation shall release information public time disclosure lump sum payment required exchange act artic le iv termination section early termination upon occurrence change control corporation shall obligated terminate agreement effective early termination date paying krh early termination payment provide section upon payment early termination payment corporation corporation shall payment obligation agreement tax benefit payment agreed corporation krh due p ayable unpaid early termination date ii tax benefit payment due covered taxable year ending including early termination date except extent amount described clause ii included ea rly termination payment section early termination notice within day change control corporation shall deliver krh notice early termination notice stating date change control showing reasonable detail calculation early termination payment time corporation delivers early termination notice krh corporation shall deliver krh schedule work paper providing reasonable detail regarding calculation ear ly termination payment manner consistent definition term advisory firm letter supporting calculation ii allow krh reasonable access appropriate representative corporation holding ii advisory firm connection krhs review calculation calculation contained early termination notice shall become final binding party unless krh within calendar day receiving calculation provides corporati notice material objection calculation made good faith reasonable detail party negotiating good faith unable successfully resolve issue raised calculation within calendar day n otice material objection delivered corporation corporation krh shall employ reconciliation procedure section payment upon early termination within event krh provide corporation notice mater ial objection pursuant section calendar day delivery krh early termination notice ii event krh provides corporation notice material objection krh corporation successfully resolve issue raised n notice without employment reconciliation procedure case pursuant section calendar day resolution iii event employment reconciliation procedure pursuant section day finalization early termination notice pursuant reconciliation procedure corporation shall pay krh amount equal early termination payment payment shall made wire transfer immediately available fund bank account designated krh section breach agreement event material breach obligation hereunder shall accelerated obligation shall calculated early termination notice delivered date material breach shall include without limitation early termination payment calculated early termination notice delivered date material breach tax benefit payment agreed corporation krh due payable unpaid date material breach tax benefit payment due taxable year ending including date material breach notwithstanding foregoing event material breach krh shall entitled elect accelerate obligation due krh hereunder set forth seek specific performance term hereof section unilateral termination krh time providing notice unilateral termination notice corporation krh may elect terminate agreement effective date designated krh notice unilateral termination date upon receipt unilateral termination notice corporation shall payment obligation agreement tax benefit paymen agreed corporation krh due payable unpaid unilateral termination date ii tax benefit payment due covered taxable year ending including unilateral termination date except extent amount described clause ii attributable interest exchanged unilateral termination date article v subordination late payment section subordination notwithstanding provision agreement contrary tax benefit payment lump sum present value payment extent payable cash early termination payment required made agreement shall rank subordinate junior right payment senior obligation shall rank pari pa ssu current future unsecured obligation corporation senior obligation section late payment corporation amount portion payment made krh due term agreement shall payable together interest thereon computed termination rate commencing date payment due payable ending date payment article vi election dispute consistency cooperation section election filed managing member holding ii corporation shall cause holding ii holding ii group member treated partnership u federal income tax purpose file election section code commencing taxable year original issue occurs shall cause entity revoke election agreement n longer effect holding ii acquires interest entity treated partnership u federal income tax purpose corporation shall use best effort cause entity file election section code ef fective entity taxable year acquisition occurs unless entity already election section code effect shall cause entity revoke election agreement longer e ffect section krhs participation tax matter corporation except otherwise provided herein corporation shall full responsibility sole discretion matter concerning covered tax corporation including without limitation preparation filing amending tax return defending contesting settling issue pertaining covered tax notwithstanding foregoing corporation shall notify krh keep krh reasonably informed respect krh shall right participate monitor avoidance doubt control portion audit corporation taxing authority outcome reasonably expected affect krhs right un der agreement corporation shall provide krh reasonable opportunity provide information input corporation advisor concerning conduct portion audit corporation shall settle otherw ise resolve audit challenge taxing authority relating basis adjustment deduction imputed interest without consent krh consent krh shall unreasonably withhold condition delay section consistency unless determination contrary except consent corporation krh corporation krh behalf behalf affiliate agree report cause reported u purpose including purpose covered tax u financial reporting purpose item related covered tax agreement including withou</t>
   </si>
   <si>
-    <t>tax receivable agreement tax receivable agreement agreement dated among rhi entertainment inc delaware corporation corporation rhi entertainment holding ii llc delaware limited liability company holding ii krh investment llc delaware limited liability company krh recital whereas pursuant certain membership unit subscription agreement dated date hereof among corporation krh holding ii holding ii issue corporation membership interest holding ii interest exchange cash purchase price dollar original issue holding ii issue interest krh exchange contribution interest rhi entertainment llc delaware limited liability company whereas pursuant certain limited liability company agreement holding ii dated date hereof llc agreement corporation krh krh right certain circumstance exchange interest cash ii share common stock corporation par value per share share iii combination cash share exchange whereas holding ii direct indirect subsidiary owned chain pas entity holding ii treated partnership u federal income tax purpose together holding ii direct indirect subsidiar owned chain pas entity holding ii treated disregarded entity u federal income tax purpose holding ii group effect election section code defined herein taxable year defined herein exchange occurs election result adjustment corporation share tax basis asset owned holding ii group date exchange consequent result taxable income subsequently derived therefrom whereas party agreement desire provide certain payment make certain arrangement respect tax benefit derived corporation result exchange receipt payment agreement co ntemplated llc agreement therefore consideration foregoing respective covenant agreement set forth herein intending legally bound hereby party hereto agree follows article definition used agreement term set forth article shall following meaning meaning equally applicable singular plural form term defined capitalized term used herein otherwise defined shall respective meaning ascribed term llc agreement advisory firm mean accounting law firm nationally recognized expert covered tax matter affiliate corporation selected corporation advisory firm letter mean letter advisory firm stating relevant schedule notice information provided corporation krh supporting schedule work paper prepared manner consistent term agreem ent extent expressly provided agreement reasonable basis light fact law existence date schedule notice information delivered krh affiliate mean respect specified person person directly indirectly one intermediary control controlled common control specified person purpose definition control f person mean possession directly indirectly power direct cause direction management policy person whether ownership voting capital stock contract otherwise agreement defined preamble amended tax benefit schedule defined section b agreement assumed tax liability mean actual liability covered tax corporation bankruptcy code mean title united state code usc et seq amended time time basis adjustment mean increase decrease tax basis corporation share tax basis holding ii group asset section b b andor code comparable section u state local income franchise tax law result exchange ii payment agreement beneficial owner security mean person directly indirectly contract arrangement understanding relationship otherwise share voting power includes power vote direct voting security andor ii investment power includes power dispose direct disposition security term beneficially shall correlative meaning business day mean calendar day saturday sunday calendar day bank required authorized closed city new york change control mean occurrence following event whether approved board director corporation person group becomes beneficial owner permitted holder directly indirectly corporation voting stock representing total voting power outstanding voting stock corporation ii corporation consolidates merges another entity person corporation sell assigns conveys transfer lease otherwise disposes substantially asset person entity transaction immediately transaction shareholder corporation immediately prior transaction beneficially owns determined directly indirectly voting stock representing majority total voting power outstanding voting stock surviving entity transferee person iii consecutive one year period continuing director cease reason constitute majority board director corporation iv adoption plan liquidation dissolution corporation code mean internal revenue code amended successor u federal income tax statute corresponding provision thereof continuing director mean date determination member board director corporation member board director time original issue nominated election elected board director w hose election board director approved affirmative vote majority continuing director member board director time nomination election nominated krh pursuant director de ignation agreement corporation defined preamble covered tax mean tax imposed subtitle code provision u federal income tax law including without limitation tax imposed section code u state local income franchise tax e covered taxable year mean taxable year corporation ending including early termination date unilateral termination date covered tax mean every covered tax designated director mean person designated nomination board director corporation krh pursuant director designation agreement determination shall meaning ascribed term section code similar provision u state local income franchise tax law applicable director designation agreement mean director designation agreement dated among corporation holding ii krh may amended supplemented otherwise modified time time early termination date last day taxable year early termination notice given early termination notice defined section agreement early termination payment mean date early termination notice payment equal present value discounted termination rate tax benefit payment would required paid corporation beginning early termination date as uming valuation assumption applied exchange defined recital exchange act mean security exchange act amended exchange asset mean asset owned holding ii group applicable exchange date asset whose tax basis determined whole part reference adjusted basis asset exchange basis schedule defined section agreement exchange date mean date exchange effected expert defined section agreement governmental entity mean u federal state local government court competent jurisdiction administrative agency commission domestic governmental authority instrumentality group meaning set forth section rule exchange act holding ii defined preamble holding ii group defined recital hypothetical tax basis mean respect asset time tax basis asset would time basis adjustment made result exchange payment agreement hypothetical tax liability mean respect covered taxable year liability covered tax corporation hypothetically would arise using method election convention similar practice used actual tax return corporation bu using hypothetical tax basis instead actual tax basis relevant asset excluding deduction attributable imputed interest imputed interest mean portion payment treated interest section provision code similar section applicable u state local income franchise tax law respect corporation payment obligato ons agreement interest defined recital irs mean u internal revenue service kelso mean kelso company lp kelso investment associate vii lp kep vi llc investment fund managed kelso company lp affiliate kelso company lp respective subsidiary successor thereto krh defined preamble libor mean month portion thereof period interest rate per annum equal rate per annum reported date two day prior first day month telerate page screen shall cease publicl available reported reuters screen page libo publicly available source market rate london interbank offered rate u dollar deposit due last day month portion thereof llc agreement defined recital lump sum election notice defined section lump sum present value defined section market value mean respect share closing price share applicable exchange date national security exchange interdealer quotation system share traded listed reported wall street journal prov ided closing price reported wall street journal applicable exchange date market value shall mean closing price share business day immediately preceding exchange date national securi tie exchange interdealer quotation system share traded listed reported wall street journal provided share listed national security exchange interdealer quotation system market value shall mean fair market value share determined krh good faith market value respect asset share shall mean fair market value asset determined krh good faith material breach mean breach corporation material obligation agreement including result failure make payment due failure honor material obligation required hereunder operation law result rejection agreement case commenced bankruptcy code purpose party agree failure make payment due pursuant agreement within three month date payment due shall deeme material breach considered material breach make payment due pursuant agreement within three month date payment due membership unit subscription agreement defined recital original issue defined recital original issue date mean date original issue effected permitted holder mean krh kelso person controlled krh kelso person mean includes individual firm corporation partnership including without limitation limited general limited liability partnership company limited liability company trust joint venture association joint stock company unincorp orated organization similar entity governmental entity proceeding mean suit action proceeding relating agreement realized tax benefit mean covered taxable year excess hypothetical tax liability assumed tax liability covered taxable year less fee charge expense advisory firm expert related agreement paid corporation excluding avoidance doubt cost expense krh corporation reimburses krh pursuant second sentence section b cost expense corporation borne corporation pursuant second sentence section b relevant covered taxable year portion assumed tax liability covered taxable year arises result adjustment pursuant audit taxing authority covered taxable year adjustment liability shall included determining realized tax benefit unless determination realized tax detriment mean covered taxable year excess assumed tax liability hypothetical tax liability covered taxable year plus fee charge expense advisory firm expert related agreement paid corporation excluding avoidance doubt cost expense krh corporation reimburses krh pursuant second sentence section b cost expense corporation borne corporation pursuant second sentence section b relevant covered taxable year portion assumed tax liability covered taxable year arises result audit taxing authority covered taxable year adjustment liability shall included determining realized tax detriment unless determination reconciliation dispute defined section reconciliation procedure mean procedure set forth section agreement registrable security mean share security issued issuable respect exchange share particular registrable security share security issued issuable respect exchange share hall cease registrable security registration statement respect sale share security issued issuable respect exchange share shall become effective security act share security issued issuable respect exchange share shall disposed accordance registration statement ii share security issued issuable respect exchange share shall distributed public pursuant rule security act iii share security issued issuable respect exchange share shall ceased outstanding registration right agreement mean certain registration right agreement dated krh corporation senior obligation mean principal interest amount due payable respect debt guarantee corporation borrowed fund share defined recital security act mean security act amended tax benefit payment defined section b agreement tax benefit schedule defined section agreement tax return mean return filing required made respect covered tax including amended return taxable year taxing authority taxable year mean taxable year defined section b code comparable section u state local income franchise tax law applicable therefore avoidance doubt may include period less month tax return made taxing authority mean irs state local governmental entity responsible administration covered tax termination rate mean lesser ii libor plus basis point treasury regulation mean final temporary proposed regulation code promulgated time time including corresponding provision succeeding provision effect relevant time unilateral termination date defined section agreement unilateral termination notice defined section agreement valuation assumption mean valuation date assumption corporation income exceeds amount increase deduction may derived basis adjustment imputed interest throughout relevant period purpose covered tax change applicable tax rate covered tax throughout relevant period except extent change already enacted law taxable income corporation subject maximum applicable tax rate covered tax throughout relevant period loss carryovers carrybacks generated basis adjustment imputed interest including basis adjustment imputed interest generated result payment made agreement available date early termina tion notice utilized corporation pro rata basis early termination date scheduled expiration date loss carryovers carrybacks non amortizable asset deemed disposed fifteenth anniversary earlier basis adjustment early termination date early termination date occurs prior exchange interest remaining interest exchanged early termination date shall treated sold exchange occurring early termination date share received deemed ale valued market value valuation date mean date early termination notice purpose determining early termination payment article ii determination realized tax benefit realized tax detriment section basis adjustment attributable exchange pursuant exchange krh right exchange interest cash share combination cash share party hereto acknowledge corporation share basis exchange asset shall increased excess sum x market value share cash consideration transferred krh pursuant exchange payment interest amount payment made pursuant agreement respect exchange z amount liability allocated interest acquired pursuant exchange b corporation proportionate share basis exchange asset immediately exchange attributable interest exchanged determined member ho ldings ii group remains existence entity tax purpose member holding ii group made election provided section code avoidance doubt payment made agreement shall treated resultin g basis adjustment extent payment treated imputed interest section exchange basis schedule generally within calendar day filing u federal income tax return relevant taxable year corporation shall deliver cause holding ii deliver krh schedule exchange basis schedule show reasonable detail u federal income tax purpose actual tax basis first applicable exchange date taxable year exchange asset ii basis adjustment respect exchange asset re ult exchange effected taxable year iii period period exchange asset amortizable depreciable iv period period basis adjustment amortizable depreciable non amortizable asset shall based valuation assumption time corporation delivers cause holding ii deliver exchange basis schedule krh shall x deliver cause holding ii deliver krh schedule work paper providing reasonable detail regarding preparation exchange ba si schedule advisory firm letter supporting exchange basis schedule allow krh reasonable access appropriate representative corp oration holding ii advisory firm connection krhs review schedule exchange basis schedule shall become final binding party unless krh within calendar day receiving exchange basis schedule provide corporation notice material objection exchange basis schedule made good faith reasonable detail party negotiating good faith unable successfully resolve issue raised notice within calendar day notice delivered corporation corporation krh shall employ reconciliation procedure b amendment exchange basis schedule exchange basis schedule shall amended time time corporation connection determination ii correct inaccuracy original exchange basis schedule identified date exchange result ceipt additional information iii comply expert determination reconciliation procedure corporation shall deliver shall cause holding ii deliver amended exchange basis schedule krh within day ate related determination receipt additional information expert determination applicable time corporation delivers amended exchange basis schedule krh shall x deliver krh schedule work paper providing reasonable detail regarding preparation amended exchange basis schedule advisory firm letter supporting amended exchange basis schedule allow krh reasonable acce s appropriate representative corporation holding ii advisory firm connection krhs review schedule amended exchange basis schedule shall become final binding party unless krh within calendar ays receiving amended exchange basis schedule provides corporation notice material objection amended exchange basis schedule made good faith reasonable detail party negotiating good faith unabl e successfully resolve issue raised notice within calendar day notice delivered corporation corporation krh shall employ reconciliation procedure section tax benefit schedule generally within calendar day filing u federal income tax return relevant covered taxable year corporation shall provide krh schedule showing reasonable detail calculation corporation realized tax benefit rea lized tax detriment covered taxable year tax benefit schedule time corporation delivers tax benefit schedule krh shall deliver krh schedule work paper providing reasonable detail regarding preparation tax benefit schedule advisory firm letter supporting tax benefit schedule ii allow krh reasonable access appropriate representative corporation holding ii advisory firm connection krhs review schedule tax benefit schedule shall become final binding th e party unless krh within calendar day receiving tax benefit schedule provides corporation notice material objection tax benefit schedule made good faith reasonable detail party negotiating g ood faith unable successfully resolve issue raised notice within calendar day receipt thereof corporation corporation krh shall employ reconciliation procedure b amendment tax benefit schedule tax benefit schedule covered taxable year shall amended time time corporation connection determination affecting tax benefit schedule ii correct inaccuracy original tax benefit schedule identi fied result receipt additional factual information relating covered taxable year date tax benefit schedule provided krh iii reflect change realized tax benefit realized tax detriment cover ed taxable year attributable carryback carryforward loss tax item covered taxable year iv reflect change realized tax benefit realized tax detriment covered taxable year attributable amended ta x return filed covered taxable year provided however change attributable audit tax return applicable taxing authority shall taken account amended tax benefit schedule unless bee n determination respect change v comply expert determination reconciliation procedure corporation shall deliver amended tax benefit schedule krh within day date related determinati receipt additional information filing amended tax return application form expert determination applicable time corporation delivers amended tax benefit schedule pursuant subsection b amended tax benefit schedule krh shall x deliver krh schedule work paper providing reasonable detail regarding preparation amended tax benefit schedule advisory firm letter supporting amended tax benefit schedule allow krh reasonable acc es appropriate representative corporation holding ii advisory firm connection krhs review schedule amended tax benefit schedule shall become final binding party unless krh within calendar da y receiving amended tax benefit schedule provides corporation notice material objection amended tax benefit schedule made good faith reasonable detail party negotiating good faith unable su ccessfully resolve issue raised notice within calendar day notice delivered corporation corporation krh shall employ reconciliation procedure c applicable principle realized tax benefit realized tax detriment covered taxable year intended measure decrease increase actual liability covered tax corporation covered taxable year attributable basis adjustme nt imputed interest determined using without methodology avoidance doubt actual liability covered tax take account deduction portion tax benefit payment must accounted impu ted interest code based upon characterization tax benefit payment additional consideration payable corporation interest acquired exchange carryovers carrybacks covered tax item attributable basis adjustment imputed interest determined using without methodology shall considered subject rule code treasury regulation appropriate provision u state local income franchise ta x law applicable governing use limitation expiration carryovers carrybacks relevant type carryover carryback covered tax item includes portion attributable basis adjustment imputed interest another portion portion shall considered used order determined using without methodology party agree tax benefit payment treated subsequent upward purchase price adjust ments give rise basis adjustment corporation b effect creating additional basis adjustment corporation year payment ii result additional basis adjustment incorporated current year calculation future year calculation appropriate circularity created current year continuing incremental current year benefit equal immaterial amount time exchange krh shall conclude whether aggregate value tax benefit payment ascertained reasonable certainty u federal income tax purpose unless determination contrary corporat ion krh behalf behalf affiliate agree report cause reported u purpose including purpose covered tax u financial reporting purpose payment made agre ement manner consistent conclusion article iii tax benefit payment section payment within five calendar day delivery tax benefit schedule krh covered taxable year applicable within five calendar day final determination tax benefit schedule pursuant procedure set forth ection corporation shall pay krh amount equal tax benefit payment covered taxable year shall make payment krh respect applicable dispute pursuant section tax benefit payment shall made wire transfer immediately available fund bank account krh previously designated krh corporation avoidance doubt tax benefit payment shall made respect estimated tax payment including without limitatio n estimated u federal income tax payment b tax benefit payment covered taxable year shall equal eighty five percent corporation realized tax benefit covered taxable year increased interest calculated termination rate due date without extension filing relevant tax return covered taxable year date tax benefit payment made ii eighty five percent amount excess realized tax benefit reflected amended tax benefit schedule previous covered taxable year realized tax benefit case realized tax detriment realized tax de triment expressed negative number reflected tax benefit schedule previous covered taxable year plus interest thereon calculated pursuant paragraph subsection b decreased iii amount equal eighty five percent corporation realized tax detriment previous covered taxable year iv eighty five percent amount excess realized tax benefit reflected tax benefit schedule previous covered taxable year realized tax benefit case realized tax detriment realized tax detriment expressed negative number reflected amended tax benefit schedule previous covered taxable year plus interest thereon calculated pursuant paragraph subsection b provided however amount described clause ii iii iv shall taken account determining tax benefit payment attributable covered taxable year extent amount taken account determining tax benefit payment preceding covered taxable year b tax benefit payment shall number less zero avoidance doubt krh shall obligation make payment corporation reimburse corporation amount previously paid pursuant agreement section duplicative payment duplicative payment amount including interest required agreement section lump sum payment time present value remaining payment section covered taxable year beginning last covered taxable year payment made pursuant section based upon valuation assumption using discount rate termination rate lump sum present value equal less million krh record owner less outstanding interest holding ii krh may elect require corporation pay krh lump sum present value accordance next paragraph giving corporation notice lump sum election notice stating electing right receive lump sum present value payment section showing reasonable detail calculation lump sum present value date notice ownership holding ii b corporation shall pay lump sum present value corporation election cash ii share valued market value trading day immediately preceding date payment iii combination cash share valued market value trading day immediately preceding date payment corporation shall pay lump sum present value within ten business day receiving lump sum election notice within ten business day resolution ispute undertaken pursuant section date may agreed upon krh lump sum present value shall calculated date lump sum election notice received corporation corporation elect pa portion lump sum present value share share fully paid non assessable free clear lien claim encumbrance share treated registrable security registration right agreemen c krh elect receive lump sum present value payment lump sum present value payment paid full accordance provision section corporation shall obligation make payme nt section respect covered taxable year included present value calculation lump sum present value payment made difference actual event date present value calculation used present value calculation including without limitation assumption amount taxable income fact used present value calculation shall affect require adjustment reimbursement lump sum present value ce amount paid full corporation shall within five calendar day request krh prepare estimate lump sum present value date request together reasonable supporting detail showing basis calculation event corporation estimate lump sum present value equal krhs estimate set forth lump sum election notice procedure similar set forth section shall apply e respect lump sum payment section corporation shall release information public time disclosure lump sum payment required exchange act article iv termination section early termination upon occurrence change control corporation shall obligated terminate agreement effective early termination date paying krh early termination payment provided section upon payment early ter mination payment corporation corporation shall payment obligation agreement tax benefit payment agreed corporation krh due payable unpaid early termination ate ii tax benefit payment due covered taxable year ending including early termination date except extent amount described clause ii included early termination payment section early termination notice within day change control corporation shall deliver krh notice early termination notice stating date change control showing reasonable detail calculation early termination payment time corporation delivers early termination notice krh corporation shall deliver krh schedule work paper providing reasonable detail regarding calculation early termination payment manner consistent definition term advisory firm letter supporting calculation ii allow krh reasonable access appropriate representative corporation holding ii advisory firm connection krhs review calculation calculation contained early termination notice shall become final binding party unless krh wit hin calendar day receiving calculation provides corporation notice material objection calculation made good faith reasonable detail party negotiating good faith unable successfully resol issue raised calculation within calendar day notice material objection delivered corporation corporation krh shall employ reconciliation procedure section payment upon early termination within event krh provide corporation notice material objection pursuant section calendar day delivery krh early termination notice ii event krh provides corporation notice mat erial objection krh corporation successfully resolve issue raised notice without employment reconciliation procedure case pursuant section calendar day resolution iii event th e employment reconciliation procedure pursuant section day finalization early termination notice pursuant reconciliation procedure corporation shall pay krh amount equal early termination paym ent payment shall made wire transfer immediately available fund bank account designated krh section breach agreement event material breach obligation hereunder shall accelerated obligation shall calculated early termination notice delivered date material breach shall include without limitation early termination payment calculated early termination notice delivered date material breach tax benefit payment agreed corporation krh due payable unpaid date material breach tax benefit payment due taxable year ending including date material breach notwithstanding foregoing event material breach krh shall entitled elect accelerate obligation due krh hereunder set forth seek specific performance term hereof section unilateral termination krh time providing notice unilateral termination notice corporation krh may elect terminate agreement effective date designated krh notice unilateral termination date upon receipt unilateral termination notice corporation shall payment obligation agreement tax benefit payment agreed corporation krh due payable unpaid unilateral termination date ii tax benefit payment due covered taxable year ending including unilateral termination date except extent amount described clause ii attributable interest exchanged unilateral termination date article v subordination late payment section subordination notwithstanding provision agreement contrary tax benefit payment lump sum present value payment extent payable cash early termination payment required made agreement shall rank subordinate junior right payment senior obligation shall rank pari passu current future unsecured obligation corporation senior obligation section late payment corporation amount portion payment made krh due term agreement shall payable together interest thereon computed termination rate commencing date payment due paya ble ending date payment article vi election dispute consistency cooperation section election filed managing member holding ii corporation shall cause holding ii holding ii group member treated partnership u federal income tax purpose file election section code commencing taxab le year original issue occurs shall cause entity revoke election agreement longer effect holding ii acquires interest entity treated partnership u federal income ta x purpose corporation shall use best effort cause entity file election section code effective entity taxable year acquisition occurs unless entity already election ection code effect shall cause entity revoke election agreement longer effect section krhs participation tax matter corporation except otherwise provided herein corporation shall full responsibility sole discretion matter concerning covered tax corporation including without limitation preparation filing amending tax return defending contesting settling issue pertaining covered tax notwithstanding foregoing corporation shall notify krh keep krh reasonably informed respect krh shall right participate monitor avoidance doubt control portion audit corporation taxing authority outcome reasonably expected affect krhs right agreement corporation shall provide krh reasonable oppo rtunity provide information input corporation advisor concerning conduct portion audit corporation shall settle otherwise resolve audit challenge taxing authority relating basis adjustment deduction imputed interest without consent krh consent krh shall unreasonably withhold condition delay section consistency unless determination contrary except consent corporation krh corporation krh behalf behalf affiliate agree report cause reported u purpose including purpose covered tax u financial reporting purpose item related covered tax agreement including without limitation basis adjustment tax benefit pay</t>
+    <t>dated september deed tax indemnity linklaters th floor alexandra house chater road hong kong telephone facsimile page deed made september hutchison telecommunication limited company incorporated law hong kong whose registered office nd floor hutchison house harcourt road hong kong indemnifier hutchison telecommunication international limited company incorporated law cayman island whose principal place business th floor two harbourfront tak fung street hunghom kowloon hong kong company capacity trustee beneficiary defined whereas number restructuring step taken transfer certain company within group indemnifier company group restructuring prior global offering listing company share b order effect restructuring global offering listing indemnifier agreed execute deliver deed favour company respect beneficiary defined clause deed c restructuring documentation dated date deed agreed inter alia indemnifier company indemnifier certain subsidiary agreed sell company purchasing company agreed purchase beneficiary defined clause deed term condition contained document deed witness follows definition interpretation definition deed except extent context requires otherwise beneficiary mean company company accounted combined financial statement group year ended december december contained accountant report group attached appendix prospectus beneficiary mean one context permit claim mean issue claim notice assessment demand letter document behalf person authority body whatsoever taking action behalf person authority body appears liability respect taxation may imposed beneficiary commissioner meaning given section estate duty ordinance cost mean cost including legal cost expense interest penalty fine charge liability beneficiary may properly incur connection page investigation assessment contesting claim contemplated clause case may ii settlement claim contemplated clause case may iii legal proceeding beneficiary make claim contemplated clause case may judgment given beneficiary iv enforcement settlement judgement estate duty law mean estate duty ordinance law similar effect relevant jurisdiction beneficiary affected estate duty ordinance mean estate duty ordinance chapter law hong kong estate duty provision mean provision section andor section estate duty ordinance provision law similar effect relevant jurisdiction beneficiary affected event includes without limitation death person action omission transaction whether beneficiary party thereto includes completion sale beneficiary company purchasing company reference result event date hereof shall include combined result two event one shall taken place date hereof group mean group defined prospectus hong kong mean hong kong special administrative region people republic china indemnity period mean period six year commencing restructuring date listing date mean date expected october trading share company commences stock exchange hong kong limited party mean party deed includes successor title permitted assigns permitted transferee prospectus mean document entitled dated september relating offering sale share company potential investor hong kong purchasing company mean company listed schedule deed relief mean relief allowance setoff deduction computing income profit gain credit right repayment taxation available beneficiary granted pursuant legislation concerning otherwise relating form taxation restructuring date mean september page taxation mean tax levy impost duty charge withholding similar nature without prejudice generality foregoing includes amount payable revenue custom fiscal authority part world cost charge penalty interest payable connection failure pay delay paying interpretation deed except extent context requires otherwise reference statute treaty legislative provision provision shall construed particular time including reference modification extension reenactment time force subordinate legislation made time time reference deed include schedule reference clause schedule reference provision deed reference agreement deed instrument licence code document including deed provision contained shall construed particular time reference may amended varied supplemented modified suspended assigned novated reference singular shall include reference plural vice versa word denoting gender shall include gender word denoting natural person shall include person reference claim shall include claim whether made date hereof whether satisfied unsatisfied date hereof shall also include loss relief could claim question available company beneficiary whether said loss result taxation payable time loss ii nullifying cancellation right repayment taxation would available date hereof assumed beneficiary company available case amount taxation could otherwise relieved allowed credited relief lost amount repayment would otherwise obtained shall treated amount taxation liability arisen heading shall ignored construing deed language governs interpretation deed english language notice given party communication documentation way relevant deed performance termination deed including dispute resolution proceeding shall english language page reference person includes person firm company corporation government state agency state association trust partnership whether separate legal personality two foregoing condition deed shall become effective listing date indemnity indemnifier hereby undertakes indemnify keep indemnified company trustee beneficiary accordance term deed full indemnity basis hold company trustee beneficiary harmless diminution value asset beneficiary attributable company case beneficiary company company direct indirect shareholding interest beneficiary result loss liability suffered beneficiary including limited diminution value asset share beneficiary payment made required made beneficiary cost incurred result connection claim falling beneficiary resulting reference income profit gain earned accrued received respect period ending restructuring date consequence event occurred restructuring date whether alone conjunction circumstance whether taxation chargeable attributable person estate duty indemnity indemnifier shall indemnify time keep company trustee beneficiary fully effectively indemnified depletion reduction value asset beneficiary attributable company case beneficiary company company direct indirect shareholding interest beneficiary consequence respect amount beneficiary may hereafter become liable pay duty hereafter becomes payable beneficiary virtue estate duty provision reason death person reason asset beneficiary deemed purpose estate duty included property passing death reason person making made relevant transfer beneficiary b amount recovered beneficiary estate duty provision respect duty payable estate duty provision reason death person reason asset beneficiary deemed purpose estate duty included property passing death reason person making made relevant transfer beneficiary page c amount duty beneficiary obliged pay virtue estate duty provision respect death person case asset another company deemed purpose estate duty included property passing person death reason person making made relevant transfer company reason beneficiary received distributed asset company distribution within meaning estate duty law extent beneficiary unable recover amount amount respect duty person estate duty provision cost notwithstanding provision deed indemnifier liable penalty imposed beneficiary section estate duty ordinance provision law similar effect relevant jurisdiction beneficiary affected reason relevant beneficiary defaulting obligation give information commissioner section estate duty ordinance provision law similar effect relevant jurisdiction beneficiary affected provided obligation part beneficiary give information go beyond extent actual knowledge relevant beneficiary indemnifier shall liable interest unpaid estate duty exclusion clause cover indemnifier shall liability respect claim extent provision made claim combined financial statement group shown accountant report appendix prospectus extent relates taxation incurred accrued since june arises ordinary course business group described section entitled business prospectus falling beneficiary respect accounting period commencing june unless liability claim would arisen act omission transaction entered indemnifier beneficiary whether alone conjunction act omission transaction whenever occurring otherwise ordinary course business ordinary course acquiring disposing asset date deed extent provision reserve made claim audited account beneficiary group including june finally established overprovision excessive reserve provided amount provision reserve applied pursuant clause reduce indemnifiers liability respect taxation shall available respect liability arising thereafter page extent claim discharged another person beneficiary none beneficiary required reimburse person respect discharge claim extent claim would arisen voluntary act transaction carried pursuant legally binding commitment created date deed relevant beneficiary date deed extent claim arises increased result wholly partly increase rate taxation change law made date deed retrospective effect arises result beneficiary failing act accordance reasonable request indemnifier avoiding resisting compromising settling taxation failure act occurs restructuring date extent claim arises referable period end indemnity period cost expense indemnity given deed shall cover cost expense full indemnity basis attributable company case beneficiary company company direct indirect shareholding interest beneficiary incurred beneficiary connection claim penalty fine interest payable beneficiary relating claim indemnifier liable deed reimbursement event claim subject indemnity hereunder discharged suffered beneficiary whether payment loss relief indemnity given hereunder shall take effect covenant indemnifier forthwith indemnify company trustee beneficiary pursuant term deed conduct claim company becomes aware claim relevant purpose deed shall soon reasonably practicable give notice thereof indemnifier shall subject company indemnified satisfaction liability cost damage expense may incurred thereby take action procure beneficiary shall take action indemnifier may reasonably request avoid resist dispute defend compromise appeal claim provided none beneficiary shall required take step would require admission guilt liability relating matter connected claim question would affect future conduct business relevant beneficiary affect right reputation shall required take action unless indemnifier shall produced leading barrister opinion action reasonable page setoff deduction payment made indemnifier deed shall made full without setoff counterclaim restriction condition free clear present future tax duty charge deduction withholding nature deduction withholding required made payment indemnifier shall together payment pay additional amount necessary ensure recipient receives full amount due hereunder waiver severability failure delay beneficiary exercising right power remedy deed shall operate waiver thereof shall single partial exercise preclude exercise thereof exercise right power remedy time provision deed becomes illegal invalid unenforceable respect legality validity enforceability remaining provision deed shall affected impaired thereby assignment company may assign right benefit deed notice notice demand communication given made deed shall writing delivered sent relevant party address telex number fax number set clause address fax number party purpose clause follows indemnifier hutchison telecommunication limited address nd floor hutchison house harcourt road hong kong fax number attention company secretary company hutchison telecommunication international limited address th floor two harbourfront tak fung street hunghom kowloon hong kong fax number page attention company secretary copy hutchison whampoa limited address nd floor hutchison house harcourt road hong kong fax number attention company secretary governing law jurisdiction service process deed shall governed construed accordance law hong kong party irrevocably agree hong kong court nonexclusive jurisdiction settle dispute may arise connection deed page witness whereof deed executed day year first written executed delivered deed common seal hutchison telecommunication limited common seal presence edith shih susan chow executed delivered deed common seal hutchison telecommunication international common seal limited presence susan chow edith shih page schedule purchasing company hti bvi holding limited hutchison telecommunication international thailand holding limited hutchison telecommunication international cayman holding limited hutchison telecommunication international limited</t>
   </si>
   <si>
     <t>dated september deed tax indemnity linklaters th floor alexandra house chater road hong kong telephone facsimile page deed made september hutchison telecommunication limited company incorporated th e law hong kong whose registered office nd floor hutchison house harcourt road hong kong indemnifier hutchison telecommunication international limited company incorporated law cayman island whose principal pla ce business th floor two harbourfront tak fung street hunghom kowloon hong kong company capacity trustee beneficiary defined whereas number restructu ring step taken transfer certain company within group indemnifier company group restructuring prior global offering listing company share b order eff ect restructuring global offering listing indemnifier agreed execute deliver deed favour company respect beneficiary defined clause deed c restr ucturing documentation dated date dee agreed inter alia indemnifier company indemnifier certain subsidiary agreed sell company purchasing compa ny agreed purchase beneficiary defined clause deed term condition contained document deed witness follows definition interpretation def initions deed except extent context requires otherwise beneficiary mean company company accounted combined financial statement gro year ended december december contained accountant report group attached appendix prospectus beneficiary mean one context permit claim mean issue claim notice assessment demand letter document behalf perso n authority body whatsoever taking actio n behalf person authority body appears liability respect taxation may imposed ben eficiary commissioner meaning given section esta te duty ordinance cost mean cost including legal cost expense interest penalty fine charge liability whi ch beneficiary may properly incur connection wit h page investigation assessment contesting claim contemplated clause case ii settlement claim contemplated clause case may iii legal p roceedings beneficiari e make claim contemplated clause case may judgment given ny beneficiary iv enforcement settlement judgement estate duty law mean estate duty ordinance oth er law similar effect relevant jurisdiction whi ch beneficiary affected estate duty ordinance mean estate duty ordinance chap ter law hong kong estate duty provision mean provision section andor se ction estate duty ordinance provision law similar effect relevant jurisdiction beneficiary affected event includes without limitation death person action omission transaction whether beneficiary party thereto includes completion sale beneficiary company purchasing company reference result event n date hereof shall include combined result f two event one shall taken plac e dat e hereof group mean group defined prospectus hong kong mean hong kong special administrative region people republic china indemnity period mean period six year commencing restructuring date listing date mean date expected october trading share company commences stock exchange hong kong limited party mean party deed includes successor title permitted assigns permitted transferee prospectus mean document entitled dated september relating offering sale share company potential investor hong kong purchasing company mean company listed schedule deed relief mean relief allowance set deduction computing income profit gain credit right repayment taxation available beneficiary granted pursuant legislation concerning otherwise relating form taxation restructuring date mean september page taxation mean tax levy impost duty charge withholding similar nature without prejudice th e generality foregoing includes amount payable revenue custom fiscal authority part wor ld cost charge penalty interest payable connection failure pay delay paying interpretation deed except extent context requires otherwise reference statute treaty legislative provis ion provision shall construed particular time including reference modification extension enactment time hen force subor dinate legislation made time time reference deed include schedule referen ce clause schedule reference provision deed reference agreement deed instrument licence code document including deed provision contained shall constru ed particular time reference amended varied supplemented modifie suspended assigned novated reference singular shall include reference n plural vice versa word denoting gender shall include gender word denoting natural person shall include person reference claim shall include claim whether made date hereof whether satisfied unsatisfied date hereof shall also include loss relief could th e claim question available company beneficiary whether r said loss result taxation bei ng payable time loss ii nullifying cancellation right repayment taxation would available date hereof assumed beneficiary company available case amount taxation could otherwise relieved allowed credited relief lost amount repayment would otherwise obtained shall treated amount taxation liability arisen heading sh ignored construing deed language governs interpretation deed english language notice given party communic ations documentat ion way relevant deed performance termination deed including dispute resolution proceeding shall engli sh language page reference person includes person firm company corporation government state agency state association trust partnership whet separate legal personality two ore foregoing condition deed shall become effective listing date indemnity indemnifier hereby undertakes indemnify keep indemnified company trustee beneficiary accordance w ith term deed full indemnity basis nd hold company trustee beneficiary harmless diminution value asset beneficiary ar e attributable company case beneficiary company company direct indirect shareholding interest beneficiary result loss liability suffered beneficiar including limited diminution value as ets share beneficiary payment made required ade beneficiary cost incurred result connection wi th claim falling beneficiary resulting r reference income profit gain earned accrued recei ved respect period ending restructuring date consequen ce event occurred restructuring date whether alone conjunction ot circumstance whether taxation chargeable attributable person estate duty indemnity indemnifier shall indemnify time keep company trustee beneficiary fully effectively indemnified depletion reduction value asset beneficiary attributable company throug h case benef iciary company company direct indirect shareholding interest beneficiary consequence respect amoun beneficiary may hereafter become liable pay duty hereafter becomes payable beneficiary virtue estate uty provision reason death f person reason asset beneficiary hem deemed purpose estate duty included property passing death reason person making made relevan transfer beneficiary b amount recovered beneficiary estate duty provision respect duty payable estate duty provision reason death person reason asset f beneficiary deemed purpose estate duty included property passing death reason person making made relevant transfer bene ficiaries page c amount duty beneficiary obliged pay virtue estate duty provision respect death person case asset another company deemed f purpose estate duty included property passing person death reason person making made relevant transfer company reason beneficiarie received distributed asset company distribution within meaning estate duty law extent beneficiary unable recover amount amount respect duty person estate duty provision cost notwithstanding provision deed indemnifier liable penalty imposed beneficiary section estate uty ordinance provision law similar eff ect relevant jurisdiction beneficiary affected reason relevant beneficiary defaulting obligation give information commissioner section estate duty ordinance provision law similar ef fect relevant jurisdiction beneficiary affected provided obligation part beneficiary give information go beyond extent f actual knowledge relevant beneficiary indemnifier shall liable interest unpaid estate duty exclusion clause cover indemnifier shal l liability respect claim extent provision made claim combined financial statement group shown accountant report ap pendix prospectus extent relates taxation incurred accrued since june arises ordinary course business group described section entitled business prospectus falling beneficiary respect accounting perio commencing june unless liability claim would arisen bu act omission transaction entered indemnifier beneficiari e whether alone conjunction oth er act omission transaction whenever occurring otherwise ordinary course business ordinary course acquiring disposing asset date deed extent provision reserve made claim audited account beneficiary group including june finally established overprovision excessive reserve provided amou nt provision reserve applied pursuant cla use reduce indemnifiers liability respect taxation shall avai lable respect liabil ity arising thereafter page extent claim discharged another pers benefici aries none beneficiary required reimburse person respect discharge claim extent claim would arisen voluntary ct transaction carried pursuant legally binding commitment created date deed relevant beneficiary date deed extent claim arises increased re ult wholly partly increase rate taxation cha nge law made date deed retrospective effect arises result beneficiary failing act accordance reasonable request indemnifier avoiding resisting compromising settling taxation b ut failure act occurs restructuring date extent claim arises referable period end indemnity period cost expense indemnity given deed shall cover cost expen s full indemnity basis attributable company case beneficiary company company direct indirect shareholding interest beneficiary incurred beneficiary connection claim penalty fine interest payable beneficiary relating claim indemnifier liable deed reimbursement event claim subject indemnity hereunder discharged suffered beneficiary whether payment loss relief indemnity given hereund er shall take effect covenant indemnifier forthwith indemnify company trustee beneficiary pursuant term deed conduct claim company becomes aware claim relevant purpose deed shall soon reasonably practicable give notice thereof ind emnifier shall subject company indemnified satisfaction liability cost damage expense may incurred thereby take action procure beneficiary shall take ac tion indemnifier may reasonably request avoid resist dispute defend compromise appeal claim provided none beneficiary sha required take step would require admission gu ilt liability relating matter connected claim question would affect future conduct business relevant beneficiary affect right reputation sh required take action unless indemnifier shall produced leading barrister opinion action reasonable page set deduction payment made indemnifier deed shall ade full without set counterclaim restriction conditi free clear present future tax duty charge deduction withholding nature deduction withholding required made payment indemnif ier shall together payment pay additional amount necessary ensure recipient receives full amount due hereunder waiver severability failure delay beneficiary exercising right power remedy deed shall operate waiver thereof shall ny single partial exercise preclude exercise thereof exercise right power remedy time provis ion deed becomes illegal invalid unenforceable respect legality validity enforceabili ty remaining provision deed shall affected impaired thereby assignment company may assign right benefit deed notice notice demand communication given made unde r deed shall writing delivered sent relevant party address telex number fax number et clause address fax number party purpose clause follows indemnifier hutchison telecommunication limited address nd floor hutchison house harcourt road hong kong fax number attention company secretary company hutchison telecommunication international limited address th floor two harbourfront tak fung street hunghom kowloon hong kong fax number page attention company secretary copy hutchison whampoa limited address nd floor hutchison house harcourt road hong kong fax number attention c ompany secretary governing law jurisdiction service process deed shall governed construed accordance l aws hong kong party irrevocably agree hong kong cou rts non exclusive jurisdiction settle dispute ay arise connection deed page witness whereof deed executed day year first abov e written executed delivered deed common seal hutchison telecommunication limited common seal presence edith shih susan chow executed delivered deed common seal hutchison telecommunication international common seal limited presence susan chow edith shih page schedule purchasing company hti bvi holding limited hutchison telecommunication international thailand holding limite hutchison telecommunication international cayman holding limited hutchison telecommunication international limited</t>
   </si>
   <si>
-    <t>dated september deed tax indemnity linklaters th floor alexandra house chater road hong kong telephone facsimile page deed made september hutchison telecommunication limited company incorporated th e law hong kong whose registered office nd floor hutchison house harcourt road hong kong indemnifier hutchison telecommunication international limited company incorporated law cayman island whose principal pla ce business th floor two harbourfront tak fung street hunghom kowloon hong kong company capacity trustee beneficiary defined whereas number restructuring step taken transfer certain company within group indemnifier company group restructuring prior global offering listing company share b order effect restructuring global offering listing indemnifier agreed execute deliver deed favour company respect beneficiary defined clause deed c restructuring documentation dated date dee agreed inter alia indemnifier company indemnifier certain subsidiary agreed sell company purchasing company agreed purchase beneficiary defined clause deed term condition contained document deed witness follows definition interpretation definition deed except extent context requires otherwise beneficiary mean company company accounted combined financial statement gro year ended december december contained accountant report group attached appendix prospectus beneficiary mean one context permit claim mean issue claim notice assessment demand letter document behalf perso n authority body whatsoever taking actio n behalf person authority body appears liability respect taxation may imposed beneficiary commissioner meaning given section esta te duty ordinance cost mean cost including legal cost expense interest penalty fine charge liability whi ch beneficiary may properly incur connection wit h page investigation assessment contesting claim contemplated clause case ii settlement claim contemplated clause case may iii legal proceeding beneficiari e make claim contemplated clause case may judgment given ny beneficiary iv enforcement settlement judgement estate duty law mean estate duty ordinance oth er law similar effect relevant jurisdiction whi ch beneficiary affected estate duty ordinance mean estate duty ordinance chap ter law hong kong estate duty provision mean provision section andor section estate duty ordinance provision law similar effect relevant jurisdiction beneficiary affected event includes without limitation death person action omission transaction whether beneficiary party thereto includes completion sale beneficiary company purchasing company reference result event n date hereof shall include combined result f two event one shall taken plac e date hereof group mean group defined prospectus hong kong mean hong kong special administrative region people republic china indemnity period mean period six year commencing restructuring date listing date mean date expected october trading share company commences stock exchange hong kong limited party mean party deed includes successor title permitted assigns permitted transferee prospectus mean document entitled dated september relating offering sale share company potential investor hong kong purchasing company mean company listed schedule deed relief mean relief allowance set deduction computing income profit gain credit right repayment taxation available beneficiary granted pursuant legislation concerning otherwise relating form taxation restructuring date mean september page taxation mean tax levy impost duty charge withholding similar nature without prejudice th e generality foregoing includes amount payable revenue custom fiscal authority part wor ld cost charge penalty interest payable connection failure pay delay paying interpretation deed except extent context requires otherwise reference statute treaty legislative provis ion provision shall construed particular time including reference modification extension enactment time hen force subordinate legislation made time time reference deed include schedule referen ce clause schedule reference provision deed reference agreement deed instrument licence code document including deed provision contained shall constru ed particular time reference amended varied supplemented modifie suspended assigned novated reference singular shall include reference n plural vice versa word denoting gender shall include gender word denoting natural person shall include person reference claim shall include claim whether made date hereof whether satisfied unsatisfied date hereof shall also include loss relief could th e claim question available company beneficiary whether r said loss result taxation bei ng payable time loss ii nullifying cancellation right repayment taxation would available date hereof assumed beneficiary company available case amount taxation could otherwise relieved allowed credited relief lost amount repayment would otherwise obtained shall treated amount taxation liability arisen heading shall ignored construing deed language governs interpretation deed english language notice given party communication documentat ion way relevant deed performance termination deed including dispute resolution proceeding shall engli sh language page reference person includes person firm company corporation government state agency state association trust partnership whet separate legal personality two ore foregoing condition deed shall become effective listing date indemnity indemnifier hereby undertakes indemnify keep indemnified company trustee beneficiary accordance term deed full indemnity basis nd hold company trustee beneficiary harmless diminution value asset beneficiary attributable company case beneficiary company company direct indirect shareholding interest beneficiary result loss liability suffered beneficiary including limited diminution value as ets share beneficiary payment made required ade beneficiary cost incurred result connection claim falling beneficiary resulting r reference income profit gain earned accrued recei ved respect period ending restructuring date consequence event occurred restructuring date whether alone conjunction ot circumstance whether taxation chargeable attributable person estate duty indemnity indemnifier shall indemnify time keep company trustee beneficiary fully effectively indemnified depletion reduction value asset beneficiary attributable company throug h case beneficiary company company direct indirect shareholding interest beneficiary consequence respect amoun beneficiary may hereafter become liable pay duty hereafter becomes payable beneficiary virtue estate uty provision reason death person reason asset beneficiary hem deemed purpose estate duty included property passing death reason person making made relevan transfer beneficiary b amount recovered beneficiary estate duty provision respect duty payable estate duty provision reason death person reason asset f beneficiary deemed purpose estate duty included property passing death reason person making made relevant transfer beneficiary page c amount duty beneficiary obliged pay virtue estate duty provision respect death person case asset another company deemed f purpose estate duty included property passing person death reason person making made relevant transfer company reason beneficiary received distributed asset company distribution within meaning estate duty law extent beneficiary unable recover amount amount respect duty person estate duty provision cost notwithstanding provision deed indemnifier liable penalty imposed beneficiary section estate uty ordinance provision law similar eff ect relevant jurisdiction beneficiary affected reason relevant beneficiary defaulting obligation give information commissioner section estate duty ordinance provision law similar effect relevant jurisdiction beneficiary affected provided obligation part beneficiary give information go beyond extent f actual knowledge relevant beneficiary indemnifier shall liable interest unpaid estate duty exclusion clause cover indemnifier shall liability respect claim extent provision made claim combined financial statement group shown accountant report appendix prospectus extent relates taxation incurred accrued since june arises ordinary course business group described section entitled business prospectus falling beneficiary respect accounting perio commencing june unless liability claim would arisen act omission transaction entered indemnifier beneficiari e whether alone conjunction oth er act omission transaction whenever occurring otherwise ordinary course business ordinary course acquiring disposing asset date deed extent provision reserve made claim audited account beneficiary group including june finally established overprovision excessive reserve provided amou nt provision reserve applied pursuant cla use reduce indemnifiers liability respect taxation shall available respect liabil ity arising thereafter page extent claim discharged another pers beneficiary none beneficiary required reimburse person respect discharge claim extent claim would arisen voluntary act transaction carried pursuant legally binding commitment created date deed relevant beneficiary date deed extent claim arises increased re ult wholly partly increase rate taxation cha nge law made date deed retrospective effect arises result beneficiary failing act accordance reasonable request indemnifier avoiding resisting compromising settling taxation b ut failure act occurs restructuring date extent claim arises referable period end indemnity period cost expense indemnity given deed shall cover cost expen s full indemnity basis attributable company case beneficiary company company direct indirect shareholding interest beneficiary incurred beneficiary connection claim penalty fine interest payable beneficiary relating claim indemnifier liable deed reimbursement event claim subject indemnity hereunder discharged suffered beneficiary whether payment loss relief indemnity given hereunder shall take effect covenant indemnifier forthwith indemnify company trustee beneficiary pursuant term deed conduct claim company becomes aware claim relevant purpose deed shall soon reasonably practicable give notice thereof indemnifier shall subject company indemnified satisfaction liability cost damage expense may incurred thereby take action procure beneficiary shall take action indemnifier may reasonably request avoid resist dispute defend compromise appeal claim provided none beneficiary sha required take step would require admission gu ilt liability relating matter connected claim question would affect future conduct business relevant beneficiary affect right reputation sh required take action unless indemnifier shall produced leading barrister opinion action reasonable page set deduction payment made indemnifier deed shall ade full without set counterclaim restriction conditi free clear present future tax duty charge deduction withholding nature deduction withholding required made payment indemnif ier shall together payment pay additional amount necessary ensure recipient receives full amount due hereunder waiver severability failure delay beneficiary exercising right power remedy deed shall operate waiver thereof shall ny single partial exercise preclude exercise thereof exercise right power remedy time provision deed becomes illegal invalid unenforceable respect legality validity enforceabili ty remaining provision deed shall affected impaired thereby assignment company may assign right benefit deed notice notice demand communication given made unde r deed shall writing delivered sent relevant party address telex number fax number et clause address fax number party purpose clause follows indemnifier hutchison telecommunication limited address nd floor hutchison house harcourt road hong kong fax number attention company secretary company hutchison telecommunication international limited address th floor two harbourfront tak fung street hunghom kowloon hong kong fax number page attention company secretary copy hutchison whampoa limited address nd floor hutchison house harcourt road hong kong fax number attention company secretary governing law jurisdiction service process deed shall governed construed accordance l aws hong kong party irrevocably agree hong kong cou rts non exclusive jurisdiction settle dispute ay arise connection deed page witness whereof deed executed day year first abov e written executed delivered deed common seal hutchison telecommunication limited common seal presence edith shih susan chow executed delivered deed common seal hutchison telecommunication international common seal limited presence susan chow edith shih page schedule purchasing company hti bvi holding limited hutchison telecommunication international thailand holding limite hutchison telecommunication international cayman holding limited hutchison telecommunication international limited</t>
+    <t>tax sharing agreement among united online inc affiliate classmate medium corporation affiliate dated table content page section definition section preparation filing tax return parent responsibility cmcs responsibility agent manner tax return preparation section liability tax cmcs liability tax parent liability tax tax reimbursement payment tax liability computation section deconsolidation event tax allocation carrybacks continuing covenant section distribution tax liability distribution tax continuing covenant section indemnification general inaccurate incomplete information indemnification tax item section payment estimated tax payment trueup payment redetermination amount payment refund credit reimbursement payment agreement section tax proceeding general participation noncontrolling party notice control distribution tax proceeding section stock option restricted stock notice withholding reporting section miscellaneous provision effectiveness cooperation exchange information dispute resolution notice change law confidentiality binding effect successor affiliate authority entire agreement counterpart severability third party beneficiary failure indulgence waiver remedy cumulative setoff remedy amendment modification interpretation ii tax sharing agreement tax sharing agreement agreement dated among united online inc delaware corporation parent parent affiliate defined classmate medium corporation delaware corporation cmc cmc affiliate defined entered connection ipo defined recital whereas date hereof parent direct indirect domestic subsidiary member affiliated group defined parent common parent whereas parent owns issued outstanding share cmc stock intends effect initial public offering cmc cmc common stock reduce parent ownership cmc ipo whereas contemplation ipo party hereto determined enter agreement setting forth agreement respect certain tax matter agreement therefore consideration mutual covenant agreement contained herein party hereto hereby agree follows section definition used agreement capitalized term shall following meaning meaning equally applicable singular plural form term defined affiliated group mean affiliated group corporation within meaning section code file consolidated return united state federal income tax purpose aftertax amount mean additional amount necessary reflect hypothetical tax consequence receipt accrual payment required made agreement including payment additional amount amount hereunder effect deduction available interest paid accrued tax state local income tax determined using highest applicable statutory corporate income tax rate rate case item affect one tax relevant taxable period portion thereof agreement meaning set forth preamble hereto audit mean audit assessment tax examination taxing authority proceeding appeal proceeding relating tax whether administrative judicial including proceeding relating competent authority determination carryback period meaning set forth section agreement cmc meaning set forth preamble hereto cmc affiliate mean corporation entity directly indirectly controlled cmc time question control mean ownership fifty percent ownership interest corporation entity vote value possession directly indirectly power direct cause direction management policy corporation entity cmc business mean business operation conducted cmc cmc affiliate business operation continue ipo date cmc business record meaning set forth section b agreement cmc group mean affiliated group similar group entity defined corresponding provision law jurisdiction cmc common parent corporation immediately deconsolidation event including corporation entity may become member group time time cmc separate tax liability mean amount equal tax liability cmc cmc affiliate would incurred filed consolidated return combined return including nexus combination worldwide combination domestic combination line business combination form combination unitary return separate return case may separate member parent group relevant tax period amount shall computed parent manner consistent general tax accounting principle ii code treasury regulation promulgated thereunder iii past practice b taking account tax asset cmc cmc affiliate attributable tax period beginning ipo date provided however although cmc separate tax liability computed hypothetical basis cmc cmc affiliate separate member parent group tax asset parent group consolidated return combined return effect inclusion calculation tax item shall nevertheless taken account purpose computing cmc separate tax liability example purpose calculating research development credit cmc shall entitled allocable share consolidated research development credit parent group code mean internal revenue code amended combined return mean tax return respect united state federal income tax filed consolidated combined including nexus combination worldwide combination domestic combination line business combination form combination unitary basis wherein cmc one cmc affiliate join filing tax return taxable period portion thereof parent one parent affiliate consolidated return mean tax return respect united state federal income tax filed consolidated basis wherein cmc one cmc affiliate join filing tax return taxable period portion thereof parent one parent affiliate contract mean contract agreement lease license sale order purchase order instrument commitment binding person part property applicable law controlling party meaning set forth section agreement deconsolidation event mean respect cmc cmc affiliate event transaction cause cmc andor one cmc affiliate longer eligible join parent one parent affiliate filing consolidated return combined return distribution mean distribution parent issued outstanding share cmc stock security parent hold time parent shareholder andor securityholders transaction intended qualify distribution section code distribution tax mean tax imposed increase tax incurred parent parent affiliate tax parent shareholder former parent shareholder required paid reimbursed parent parent affiliate pursuant legal determination provided parent shall vigorously defended legal proceeding involving tax parent shareholder without regard whether tax offset reduced tax asset tax item otherwise resulting arising connection failure distribution qualify taxfree transaction section code including tax resulting application section section e code distribution corresponding provision law jurisdiction income tax referred immediately preceding sentence shall determined using highest applicable statutory corporate income tax rate relevant taxable period portion thereof estimated tax installment date mean respect united state federal income tax estimated tax installment due date prescribed section c code case tax mean date installment payment estimated amount tax required made final determination shall mean final resolution liability tax taxable period result final unappealable decision judgment decree order court competent jurisdiction ii final settlement irs defined closing agreement accepted offer compromise section code comparable agreement law jurisdiction resolve entire tax liability taxable period iii allowance refund credit respect overpayment tax expiration period refund may recovered jurisdiction imposing tax iv final disposition including reason expiration applicable statute limitation income tax shall mean federal state local nonunited state tax determined whole part reference net income net worth gross receipt capital tax imposed lieu tax avoidance doubt term income tax includes franchise tax tax imposed lieu tax income tax return mean tax return relating income tax independent accountant mean internationallyrecognized reputable independent public accounting firm jointly selected retained party time section agreement becomes invoked ipo meaning set forth recital hereto ipo date mean close business date ipo effected irs mean united state internal revenue service successor thereto including agent representative attorney joint responsibility item mean tax item noncontrolling party responsibility agreement could exceed two hundred fifty thousand dollar sole responsibility item liability mean debt liability guarantee assurance commitment obligation whether fixed contingent absolute asserted unasserted matured unmatured liquidated unliquidated accrued accrued known unknown due become due whenever however arising including without limitation whether arising contract tort based negligence strict liability whether would required generally accepted principle accounting policy reflected financial statement disclosed note thereto master transaction agreement mean master transaction agreement cmc parent even date herewith nonincome tax return mean tax return relating tax income tax officer certificate mean letter executed officer parent cmc provided tax counsel condition completion tax opinion supplemental tax opinion option mean option acquire common stock equitybased incentive economic value designed mirror option including nonqualified stock option discounted nonqualified stock option cliff stock option extent stock issued issuable opposed cash compensation tandem stock option extent stock issued issuable opposed cash compensation owed party meaning set forth section agreement owing party meaning set forth section agreement parent meaning set forth preamble hereto parent affiliate mean corporation entity directly indirectly controlled parent control mean ownership fifty percent ownership interest corporation entity vote value possession directly indirectly power direct cause direction management policy corporation entity time excluding cmc cmc affiliate parent business mean business operation conducted parent parent affiliate excluding cmc business time whether prior ipo date parent group mean affiliated group similar group entity defined corresponding provision law jurisdiction parent common parent corporation corporation entity may may may become member group time time excluding member cmc group payment period meaning set forth section e agreement person mean individual partnership corporation limited liability company association joint stock company trust joint venture unincorporated organization governmental entity department agency political subdivision thereof postdeconsolidation period mean taxable period beginning date deconsolidation event postipo period mean taxable period beginning ipo date predeconsolidation period mean taxable period beginning date deconsolidation event ruling mean private letter ruling issued irs connection distribution response request private letter ruling filed parent parent affiliate prior date distribution ii similar ruling issued taxing authority addressing application provision law another jurisdiction distribution ruling document mean request ruling filed irs together supplemental filing material subsequently submitted behalf parent parent affiliate parent shareholder irs appendix exhibit thereto ruling issued irs parent parent affiliate connection distribution ii similar filing submitted ruling issued taxing authority connection distribution sole responsibility item mean tax item noncontrolling party entire economic liability agreement straddle ipo period mean taxable period beginning ipo date ending ipo date supplemental ruling mean ruling ruling issued irs connection distribution ii similar ruling issued taxing authority addressing application provision law another jurisdiction distribution supplemental ruling document mean request supplemental ruling together supplemental filing material subsequently submitted appendix exhibit thereto supplemental ruling issued irs connection distribution ii similar filing submitted ruling issued taxing authority connection distribution supplemental tax opinion meaning set forth section c agreement tax mean federal state local nonunited state tax charge fee duty levy impost rate assessment including income gross receipt net worth excise property sale use license capital stock transfer franchise payroll withholding social security value added tax including interest penalty addition attributable thereto tax shall mean one tax taxpayer mean taxpayer affiliated group similar group entity defined corresponding provision law jurisdiction taxpayer member tax asset mean tax item accrued tax purpose realized taxable period accrued could reduce tax another taxable period including limited net operating loss net capital loss investment tax credit foreign tax credit charitable deduction credit related alternative minimum tax tax credit tax benefit mean reduction tax liability increase refund credit item deduction expense taxpayer taxable period except otherwise provided agreement tax benefit shall deemed realized received tax item taxable period extent tax liability taxpayer period taking account effect tax item tax liability taxpayer current period prior period less would tax liability determined without regard tax item tax counsel mean nationally recognized law firm selected parent provide tax opinion tax detriment mean increase tax liability reduction refund credit item deduction expense taxpayer taxable period except otherwise provided agreement tax detriment shall deemed realized incurred tax item taxable period extent tax liability taxpayer period taking account effect tax item tax liability taxpayer current period prior period would tax liability determined without regard tax item tax item mean item income gain loss deduction expense credit attribute may effect increasing decreasing tax tax opinion mean opinion issued tax counsel one condition completing distribution addressing certain united state federal income tax consequence distribution section code tax return mean return report certificate form similar statement document including related supporting information schedule attached thereto information return amended tax return claim refund declaration estimated tax required supplied filed taxing authority connection determination assessment collection tax administration law regulation administrative requirement relating tax taxing authority mean governmental authority subdivision agency commission authority thereof quasigovernmental private body jurisdiction assessment determination collection imposition tax including irs section preparation filing tax return parent responsibility subject applicable provision agreement parent shall sole exclusive responsibility preparation filing consolidated return combined return taxable period b income tax return consolidated return combined return respect parent andor parent affiliate taxable period c income tax return consolidated return combined return respect cmc andor cmc affiliate required filed taking account extension time requested received prior ipo date nonincome tax return respect parent parent affiliate parent business part thereof taxable period cmcs responsibility subject applicable provision agreement cmc shall sole exclusive responsibility preparation filing income tax return consolidated return combined return respect cmc andor cmc affiliate required filed taking account extension time requested received ipo date b nonincome tax return respect cmc cmc affiliate cmc business part thereof taxable period agent subject applicable provision agreement cmc hereby irrevocably designates agrees cause cmc affiliate designate parent sole exclusive agent attorneyinfact take action including execution document parent sole discretion may deem appropriate matter including audit relating tax return described section agreement manner tax return preparation unless otherwise required taxing authority party hereby agree prepare file tax return take action manner consistent agreement tax opinion supplemental tax opinion ruling supplemental ruling tax return shall filed timely basis taking account applicable extension party responsible filing return agreement b parent shall exclusive right sole discretion respect tax return described section agreement determine manner tax return shall prepared filed including election method accounting position convention principle taxation used manner tax item shall reported whether extension shall requested election made parent parent affiliate cmc andor cmc affiliate tax return whether amended tax return shall filed whether claim refund shall made whether refund shall recognized way refund credited liability related tax whether retain outside firm prepare andor review tax return provided however parent shall consult cmc prior changing method accounting action would solely impact cmc cmc affiliate case consolidated return combined return respect straddle ipo period postipo period report cmc separate tax liability excess five million dollar parent shall provide cmc pro forma draft portion tax return reflects cmc separate tax liability statement showing reasonable detail parent calculation cmc separate tax liability including copy worksheet material used preparation thereof least twentyone day prior due date applicable extension filing tax return cmcs review comment cmc shall provide comment parent least ten day prior due date applicable extension filing tax return dispute respect reporting tax item tax return requesting change method accounting would solely impact cmc cmc affiliate shall resolved pursuant section agreement c information cmc shall timely provide accordance parent internal tax return calendar provided cmc rolling oneyear schedule information necessary parent prepare tax return compute estimated tax payment purpose section agreement cmc meet deadline section b notice period cmc shall waived section liability tax cmcs liability tax cmc cmc affiliate shall jointly severally liable following tax shall entitled receive retain refund tax previously incurred cmc cmc affiliate cmc business respect tax tax respect tax return described section agreement extent tax related cmc separate tax liability ii cmc business taxable period b tax respect tax return described section c agreement c tax respect tax return described section agreement tax imposed taxing authority respect cmc business cmc cmc affiliate connection required filing tax return described section c agreement taxable period parent liability tax parent shall liable following tax shall entitled receive retain refund tax previously incurred parent parent affiliate parent business respect tax except provided section agreement tax respect tax return described section agreement b tax respect tax return described section b agreement c tax imposed taxing authority respect parent parent affiliate parent business connection required filing tax return described section b agreement taxable period tax reimbursement notwithstanding section agreement parent parent affiliate shall liable tax incurred person respect parent business period shall entitled refund credit tax previously incurred person respect tax ii cmc cmc affiliate shall jointly severally liable tax incurred person respect cmc business period shall entitled refund credit tax previously incurred person respect tax payment tax liability one party liable responsible tax section agreement respect tax return another party responsible filing respect tax paid another party liable responsible party shall pay tax reimbursement tax party pursuant section agreement computation parent shall provide cmc written calculation reasonable detail including upon reasonable request copy work sheet material used preparation thereof setting forth amount cmc separate tax liability estimated cmc separate tax liability purpose section agreement tax related cmc business cmc shall right review comment calculation dispute respect calculation shall resolved pursuant section agreement provided however notwithstanding dispute respect calculation event shall payment attributable amount cmc separate tax liability estimated cmc separate tax liability paid later date provided section agreement section deconsolidation event tax allocation party set forth certain tax matter respect deconsolidation event would handled event deconsolidation event allocation tax item case deconsolidation event tax computation predeconsolidation period ending date deconsolidation event immediately following taxable period cmc cmc affiliate shall made pursuant principle section b treasury regulation corresponding provision law jurisdiction reasonably determined parent taking account reasonable suggestion made cmc respect thereto b allocation tax asset case deconsolidation event parent cmc shall cooperate determining allocation tax asset among parent parent affiliate cmc cmc affiliate party hereby agree absence controlling legal authority unless otherwise provided agreement tax asset shall allocated legal entity required section agreement bear liability tax associated tax asset case party required hereunder bear liability party incurred cost burden associated creation tax asset carrybacks case deconsolidation event parent agrees pay cmc tax benefit use predeconsolidation period carryback period carryback tax asset cmc group postdeconsolidation period carryback tax asset attributable distribution tax liability borne parent parent affiliate subsequent payment parent cmc tax benefit carryback tax asset cmc group shall final determination result decrease amount tax asset carried back amount tax benefit cmc shall repay parent amount would payable cmc pursuant section amount benefit determined light event nothing section shall require parent file amended tax return claim refund income tax provided however parent shall use reasonable effort use carryback tax asset cmc group carried back section continuing covenant parent parent affiliate cmc cmc affiliate agrees take action reasonably expected result increased tax liability reduction tax asset increased liability agreement take action reasonably requested would reasonably expected result tax benefit avoid tax detriment provided either case taking refraining take action result additional cost fully compensated party adverse effect party party hereby acknowledge preceding sentence intended limit therefore shall apply right party respect matter otherwise covered agreement section distribution tax liability distribution tax although neither party plan intent effectuate distribution party set forth certain tax matter respect distribution would handled event result changed circumstance distribution pursued future time parent liability distribution tax event distribution notwithstanding section agreement parent parent affiliate shall jointly severally liable distribution tax extent distribution tax attributable caused result one following action omission parent parent affiliate inconsistent information covenant representation material related parent parent affiliate parent business officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling avoidance doubt disclosure action fact inconsistent information covenant representation material submitted tax counsel irs taxing authority applicable connection officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling shall relieve parent parent affiliate liability agreement ii action omission parent parent affiliate including cessation transfer affiliate disposition active trade business issuance stock stock buyback payment extraordinary dividend parent parent affiliate following distribution iii acquisition stock asset parent parent affiliate one person cmc cmc affiliate prior following distribution iv issuance stock parent parent affiliate change ownership stock parent parent affiliate b cmcs liability distribution tax event distribution notwithstanding section agreement cmc cmc affiliate shall jointly severally liable distribution tax extent distribution tax attributable caused result one following action omission cmc cmc affiliate distribution time inconsistent information covenant representation material related cmc cmc affiliate cmc business officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling avoidance doubt disclosure cmc cmc affiliate parent parent affiliate action fact inconsistent information covenant representation material submitted tax counsel irs taxing authority applicable connection officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling shall relieve cmc cmc affiliate liability agreement ii action omission cmc cmc affiliate date distribution including act omission furtherance connected part plan series related transaction within meaning section e code occurring prior date distribution including cessation transfer affiliate disposition active trade business cmc cmc affiliate stock buyback payment extraordinary dividend iii acquisition stock asset cmc cmc affiliate one person parent parent affiliate prior following distribution iv issuance stock cmc cmc affiliate distribution including issuance pursuant exercise employee stock option employment related arrangement exercise warrant change ownership stock cmc cmc affiliate distribution c joint liability remaining distribution tax parent shall liable fifty percent cmc cmc affiliate shall jointly severally liable fifty percent distribution tax otherwise allocated section b agreement continuing covenant cmc restriction cmc agrees long distribution could reasonable determination parent effectuated cmc knowingly take fail take permit cmc affiliate knowingly take fail take action could reasonably expected preclude parent ability effectuate distribution event distribution cmc agrees take cause cmc affiliate take action reasonably requested parent order enable parent effectuate distribution take fail take permit cmc affiliate take fail take action action failure act would inconsistent information covenant representation material relates fact matter related cmc cmc affiliate within control cmc contained officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling except information covenant representation material previously disclosed cmc permitted section c agreement purpose action considered inconsistent representation representation state plan intention take action event distribution cmc agrees take cause cmc affiliate refrain taking position tax return inconsistent distribution qualifying section code b parent restriction event distribution parent agrees take fail take permit parent affiliate take fail take action action failure act would inconsistent material information covenant representation relates fact matter related parent parent affiliate within control parent contained officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling purpose action considered inconsistent representation representation state plan intention take action event distribution parent agrees take cause parent affiliate refrain taking position tax return inconsistent distribution qualifying section code c certain cmc action following distribution event distribution cmc agrees two year period following distribution without first obtaining cmcs expense either supplemental opinion tax counsel action result distribution tax supplemental tax opinion supplemental ruling action result distribution tax unless case parent cmc agree otherwise cmc shall sell substantially asset cmc cmc affiliate merge cmc cmc affiliate another entity without regard party surviving entity transfer asset cmc transaction described section transfer corporation file consolidated return cmc whollyowned directly indirectly cmc subparagraph c section code issue stock cmc cmc affiliate instrument convertible exchangeable stock acquisition public private offering compensatory related issuance described treasury regulation section ei facilitate otherwise participate acquisition stock cmc would result shareholder owning five percent outstanding stock cmc cmc cmc affiliate shall undertake action parent receipt supplemental tax opinion supplemental ruling pursuant term condition supplemental tax opinion supplemental ruling otherwise consented writing advance parent party hereby agree act good faith take reasonable step necessary amend section c time time mutual agreement add certain action list contained herein ii remove certain action list contained herein either case order reflect relevant change law regulation administrative interpretation occurring date agreement notice specified transaction later twenty day prior entering oral written contract agreement later five day first becomes aware negotiation plan intention regardless whether party negotiation plan intention regarding transaction described section c cmc shall provide written notice intent consummate transaction negotiation plan intention becomes aware case may parent e cmc cooperation cmc agrees request parent cmc shall cooperate fully parent take action necessary reasonably helpful effectuate distribution including seeking obtain expeditiously possible tax opinion supplemental tax opinion ruling andor supplemental ruling cooperation shall include execution document may necessary reasonably helpful connection obtaining tax opinion supplemental tax opinion ruling andor supplemental ruling including power attorney ii officer certificate iii ruling document iv supplemental ruling document andor v reasonably requested written representation confirming cmc read officer certificate ruling document andor supplemental ruling document b information representation relating cmc cmc affiliate cmc business contained therein true correct complete material respect f earnings profit parent advise cmc writing decrease parent earnings profit attributable distribution section h code first anniversary distribution provided however parent shall provide cmc estimate amount determined accordance past practice prior anniversary reasonably requested cmc section indemnification general parent member parent group shall jointly severally indemnify cmc cmc affiliate respective director officer employee hold harmless tax parent parent affiliate liable agreement loss cost damage expense including reasonable attorney fee cost attributable result failure parent parent affiliate director officer employee make payment required made agreement cmc member cmc group shall jointly severally indemnify parent parent affiliate respective director officer employee hold harmless tax cmc cmc affiliate liable agreement loss cost damage expense including reasonable attorney fee cost attributable result failure cmc cmc affiliate director officer employee make payment required made agreement inaccurate incomplete information parent member parent group shall jointly severally indemnify cmc cmc affiliate respective director officer employee hold harmless cost fine penalty expense kind attributable failure parent parent affiliate supplying cmc cmc affiliate inaccurate incomplete information connection preparation tax return cmc member cmc group shall jointly severally indemnify parent parent affiliate respective director officer employee hold harmless cost fine penalty expense kind attributable failure cmc cmc affiliate supplying parent parent affiliate inaccurate incomplete information connection preparation tax return indemnification tax item nothing agreement shall construed guarantee existence amount loss credit carryforward basis tax item whether past present future parent parent affiliate cmc cmc affiliate addition avoidance doubt purpose determining amount owed party hereto determination shall made without regard financial accounting tax asset liability financial accounting item section payment estimated tax payment later five day prior estimated tax installment date respect taxable period consolidated return combined return filed cmc shall pay parent behalf cmc group amount equal amount estimated cmc separate tax liability cmc otherwise would required pay taxing authority estimated tax installment date later seven day prior estimated tax installment date parent shall provide cmc written notice setting forth amount payable cmc respect estimated cmc separate tax liability calculation amount trueup payment later ten business day receipt cmc separate tax liability computation pursuant section agreement cmc shall pay parent parent shall pay cmc appropriate amount equal difference cmc separate tax liability aggregate amount paid cmc respect period section agreement redetermination amount event redetermination tax item reflected consolidated return combined return tax item relating distribution tax result refund</t>
   </si>
   <si>
     <t>tax sharing agreement among united online inc affiliate classmate medium corporation affiliate dated table content page section definition section preparation filing tax return parent responsibility cmcs responsibility agent manner tax return preparation section liability tax cmcs liability tax parent liability tax tax reimbursement payment tax liability computation section deconsolidation event tax allocation carrybacks continuing covenant section distribution tax liability distribution tax continuing covenant section indemnification general inaccurate incomplete information indemnification tax item section payment estimated tax payment trueup payment redetermination amount payment refund credit reimbursement payment agreement section tax proceeding general participation non controlling party notice control distribution tax proceeding section stock option restricted stock notice withholding reporting section miscellaneous provision effectiveness cooperation exchange information dispute resolution notice change law confidentiality binding effect successor affiliate authority entire agreement counterpart severability third party beneficiary failure indulgence waiver remedy cumulative setoff remedy amendment modification interpretation ii tax sharing agreement tax sharing agreement agreement dated among united online inc delaware corporation parent parent affiliate defined classmate medium corporation delaware corporation cmc cmc affiliate defined entered connection ipo defined recital whereas date hereof parent direct indirect domestic subsidiary member affiliated group define parent common parent whereas parent owns issued outstanding share cmc stock intends effect initial public offering cmc cmc common stock reduce parent ownership cmc ipo whereas contemplation ipo party hereto determined enter agreement setting forth agreement respect certain tax matter agreement therefore consideration mutual covenant agreeme nt contained herein party hereto hereby agree follows section definition used agreement capitalized term shall following meaning meaning equally applicable singular plural form term defined affiliated group mean affiliated group corporation within meaning section code file consolidated return united state federal income tax purpose tax amount mean additional amou nt necessary reflect hypothetical tax consequence receipt accrual payment required made agreement including payment additional amount amount hereunder effect deduction available inter est paid accrued tax state local income tax determined using highest applicable statutory corporate income tax rate rate case item affect one tax relevant taxable period po rtion thereof agreement meaning set forth preamble hereto audit mean audit assessment tax examination taxing authority proceeding appeal proceeding relating tax whether administrative judicial including proceeding relating competent authority determination carryback period meaning set forth section agreement cmc meaning set forth preamble hereto cmc affiliate mean corporatio n entity directly indirectly controlled cmc time question control mean ownership fifty percent ownership interest corporation entity vote value possession di rectly indirectly power direct cause direction management policy corporation entity cmc business mean business operation conducted cmc cmc affiliate business operation wil l continue ipo date cmc business record meaning set forth section b agreement cmc group mean affiliated group similar group entity defined corresponding provision law jurisdiction cmc common parent corporation immediately deconsolidation event including corporation entity may become member group time time cmc separate tax liability mean amount equal tax liability c mc cmc affiliate would incurred filed consolidated return combined return including nexus combination worldwide combination domestic combination line business combination form combination unitary return separate return case may separate member parent group relevant tax period amount shall computed parent manner consistent general tax accounting principle ii code treasury regulation promulgated thereunder iii past practice b taking account tax asset cmc cmc affiliate attributable tax period beginning ipo date provided however although cmc separa te tax liability computed hypothetical basis cmc cmc affiliate separate member parent group tax asset parent group consolidated return combined return effect inclusion n calculation tax item shall nevertheless taken account purpose computing cmc separate tax liability example purpose calculating research development credit cmc shall entitled allocable share consolidated research development credit parent group code mean internal revenue code amended combined return mean tax return respect united state federal income tax filed conso lidated combined including nexus combination worldwide combination domestic combination line business combination form combination unitary basis wherein cmc one cmc affiliate join filing tax return fo r taxable period portion thereof parent one parent affiliate consolidated return mean tax return respect united state federal income tax filed consolidated basis wherein cmc one cmc affiliate join filing tax return taxable period portion thereof parent one par ent affiliate contract mean contract agreement lease license sale order purchase order instrument commitment binding person part property applicable law controlling party meaning set forth section agreement deconsolidation event mean respect cmc cmc affiliate event transaction cause cmc andor one cmc affiliate longer eligible join parent one pare nt affiliate filing consolidated return combined return distribution mean distribution parent issued outstanding share cmc stock security parent hold time parent shareholder securityholders transaction intended qualify distribution section code distribution tax mean tax imposed increase tax incurred parent parent affiliate tax parent shareho lder former parent shareholder required paid reimbursed parent parent affiliate pursuant legal determination provided parent shall vigorously defended legal proceeding involving tax pare nt shareholder without regard whether tax offset reduced tax asset tax item otherwise resulting arising connection failure distribution qualify tax free transaction section code including tax resulting application section section e code distribution corresponding provision law jurisdiction income tax referred immediately preceding sentence shall determined using highest applicable statutory corporate income tax rate relevant taxable period portion thereof estimated tax installment date mean respect united state federal income tax estimated tax installment due date prescribed section c code case tax mean date installment pa yment estimated amount tax required made final determination shall mean final resolution liability tax taxable period result final unappealable decision judgment decree order court competent jurisdiction ii final settlement irs defined closing agreement accepted offer compromise section code comparable agreement law jurisdicti ons resolve entire tax liability taxable period iii allowance refund credit respect overpayment tax expiration period refund may recovered jurisdiction imposing tax iv final disposition including reason expiration applicable statute limitation income tax shall mean federal state local non united state tax determined whole part reference net income net worth gross receipt capital tax imposed lieu tax avoidance doubt term income tax includes franchise tax tax imposed lieu tax income tax return mean tax ret urn relating income tax independent accountant mean internationally recognized reputable independent public accounting firm jointly selected retained party time section agreement becomes invoked ipo meaning set forth recital hereto ipo date mean close business date ipo effected irs mean united state internal revenue service successor thereto including agent representative attorney joint responsibility item mean tax item non controlling party responsibility agreement could exceed two hundred fifty thousand dollar sole responsibility item liability mean al l debt liability guarantee assurance commitment obligation whether fixed contingent absolute asserted unasserted matured unmatured liquidated unliquidated accrued accrued known unknown due become due ever however arising including without limitation whether arising contract tort based negligence strict liability whether would required generally accepted principle accounting policy reflec ted financial statement disclosed note thereto master transaction agreement mean master transaction agreement cmc parent even date herewith nonincome tax return mean tax return relating tax income tax officer certificate mean letter executed officer parent cmc provided tax counsel condition completion tax opinion supplemental tax opinion option mean option acquire common sto ck equity based incentive economic value designed mirror option including non qualified stock option discounted non qualified stock option cliff stock option extent stock issued issuable opposed cash compensation tandem stock option extent stock issued issuable opposed cash compensation owed party meaning set forth section agreement owing party meaning set forth section agreement parent meaning set forth preamble hereto parent affiliate mean corporation entity dire ctly indirectly controlled parent control mean ownership fifty percent ownership interest corporation entity vote value possession directly indirectly power direct cause direction management policy corporation entity time excluding cmc cmc affiliate parent business mean business operation conducted parent parent affiliate excludi ng cmc business time whether prior ipo date parent group mean affiliated group similar group entity defined corresponding provision law jurisdiction parent common p arent corporation corporation entity may may may become member group time time excluding member cmc group payment period meaning set forth section e agr eement person mean individual partnership corporation limited liability company association joint stock company trust joint venture unincorporated organization governmental entity department agency politica l subdivision thereof post deconsolidation period mean taxable period beginning date deconsolidation event post ipo period mean taxable period beginning ipo date predeconsolidation period mean taxable pe riod beginning date deconsolidation event ruling mean private letter ruling issued irs connection distribution response request private letter ruling filed parent parent affi liate prior date distribution ii similar ruling issued taxing authority addressing application provision law another jurisdiction distribution ruling document mean request ru ling filed irs together supplemental filing material subsequently submitted behalf parent parent affiliate parent shareholder irs appendix exhibit thereto ruling issued irs p arent parent affiliate connection distribution ii similar filing submitted ruling issued taxing authority connection distribution sole responsibility item mean tax item ncontrolling party entire economic liability agreement straddle ipo period mean taxable period beginning ipo date ending ipo date supplemental ruling mean ruling rulin g issued irs connection distribution ii similar ruling issued taxing authority addressing application provision law another jurisdiction distribution supplemental ruling document mean request supplemental ruling together supplemental filing material subsequently submitted appendix exhibit thereto supplemental ruling issued irs connect ion distribution ii similar filing submitted ruling issued taxing authority connection distribution supplemental tax opinion meaning set forth section c agreement tax mean federal state local non united state tax charge fee duty levy impost rate assessment including income gross receipt net worth excise property sale use license capital stock transfer franchise payroll wit hholding social security value added tax including interest penalty addition attributable thereto tax shall mean one tax taxpayer mean taxpayer affiliated group similar group entity defined corresponding provision law jurisdiction taxpayer member tax asset mean tax item accrued tax purpose realized taxable period accrued could reduce tax another taxable period including limited net operating loss net capital loss investment tax credit foreign tax credit charitable deduction credit related alternative minimum tax tax credi tax benefit mean reduction tax liability increase refund credit item deduction expense taxpayer taxable period except otherwise provided agreement tax benefit shall deemed realized received tax item taxable period extent tax liability taxpayer period taking account effect tax item tax liability taxpayer current period prior period less would tax liability determined without regard tax item tax counsel mean nationally recognized law firm selected parent provide tax opinion tax detriment mean increase tax liability reduction refund credit item deduction expense taxpayer taxable period except otherwise provided agreement tax detriment shall deemed realized inc urred tax item taxable period extent tax liability taxpayer period taking account effect tax item tax liability taxpayer current period prior perio d would tax liability determined without regard tax item tax item mean item income gain loss deduction expense credit attribute may effect increasing decreas ing tax tax opinion mean opinion issued tax counsel one condition completing distribution addressing certain united state federal income tax consequence distribution section code tax return mean ny return report certificate form similar statement document including related supporting information schedule attached thereto information return amended tax return claim refund declaration estimated tax required supplied filed taxing authority connection determination assessment collection tax administration law regulation administrative requirement relating tax taxing authority mean governmental authority subdivision agency commission authority thereof quasi governmental private body jurisdiction assessment determination collection imposition tax including irs section preparation filing tax return parent responsibility subject applicable provision agreement parent shall sole exclusive responsibility preparation filing consolidated return combined return taxable period b income tax return consolidated return combined return respect parent andor parent affiliate taxable period c income tax return consolidated return combined return respect cmc andor cmc affiliate required filed taking account extension time requested received prior ipo date non income tax return respect parent parent affiliate parent business part thereof taxable period cmcs responsibility subject applicable provision agreement cmc shall sole exclusive responsibility preparation filing income tax return consolidated return combined return respect cmc andor cmc affiliate required filed taking account extension time requested received ipo date b non income tax return respect cmc cmc affiliate cmc business part thereof taxable period agent subject applicable provision agreement cmc hereb irrevocably designates agrees cause cmc affiliate designate parent sole exclusive agent attorney infact take action including execution document parent sole discretion may deem appropriate matter including audit relating tax return described section agreement manner tax return preparation unless otherwise required taxing authority party hereby agree prepare file tax return take action manner consistent agreement tax opinion supplemental tax opinion ruling supplemental ruling tax return shall filed timely basis taking int account applicable extension party responsible filing return agreement b parent shall exclusive right sole discretion respect tax return described section agreement deter mine manner tax return shall prepared filed including election method accounting position convention principle taxation used manner tax item shall reported whether ex tension shall requested election made parent parent affiliate cmc andor cmc affiliate tax return whether amended tax return shall filed whether claim refund shall made whether refund shall recognized way refund credited liability related tax whether retain outside firm prepare andor review tax return provided however parent shall consult cmc prior c hanging method accounting action would solely impact cmc cmc affiliate case consolidated return combined return respect straddle ipo period post ipo period report cmc separate tax liability excess five million dollar parent shall provide cmc pro forma draft portion tax return reflects cmc separate tax liability statement showing reasonable detail parent calculation cmc separate tax liability including copy worksheet material used prepara tion thereof least twenty one day prior due date applicable extension filing tax return cmcs review comment cmc shall provide comment parent least ten day prior due date appli cable extension filing tax return dispute respect reporting tax item tax return requesting change method accounting would solely impact cmc cmc affiliate shall resolved pursua nt section agreement c information cmc shall timely provide accordance parent internal tax return calendar provided cmc rolling one year schedule information necessary parent prepare ax return compute estimated tax payment purpose section agreement cmc meet deadline section b notice period cmc shall waived section liability tax cmcs liability tax cmc cmc affiliate shall jointly severally liable following tax shall entitled receive retain refund tax previously incurred cmc cmc affiliate cmc business spect tax tax respect tax return described section agreement extent tax related cmc separate tax liability ii cmc business taxable period b tax respect tax return described section c agreement c tax respect tax return described section agreement tax imposed taxing authority respect cmc business cmc cmc affiliate connection required filing tax return described section c agreement taxable period parent liability tax parent shall liable following ta x shall entitled receive retain refund tax previously incurred parent parent affiliate parent business respect tax except provided section agreement tax respe ct tax return described section agreement b tax respect tax return described section b agreement c tax imposed taxing authority respect parent parent ffiliate parent business connection required filing tax return described section b agreement taxable period tax reimbursement notwithstanding section agreement parent parent affiliate shall liable tax incurred person respect parent business period shall entitled refund credit tax previously incurred per son respect tax ii cmc cmc affiliate shall jointly severally liable tax incurred person respect cmc business period shall entitled refund credit tax previo usly incurred person respect tax payment tax liability one party liable responsible tax section agreement respect tax return another party responsible filing respect tax paid another party liable responsible party shall pay tax reimbursement tax party pursuant section agreement computation parent shall provide cmc written calculation reasonable detail including upon reasonable request copy work sheet material used preparation reof setting forth amount cmc separate tax liability estimated cmc separate tax liability purpose section agreement tax related cmc business cmc shall right review comment calc ulation dispute respect calculation shall resolved pursuant section agreement provided however notwithstanding dispute respect calculation event shall payment attributable th e amount cmc separate tax liability estimated cmc separate tax liability paid later date provided section agreement section deconsolidation event tax allocation party set forth certain tax matter respect deconsolidation event would handled event deconsolidation event allocation tax item case deconsolidation event tax computation pre deco nsolidation period ending date deconsolidation event immediately following taxable period cmc cmc affiliate shall made pursuant principle section b treasury regulation correspon ding provision law jurisdiction reasonably determined parent taking account reasonable suggestion made cmc respect thereto b allocation tax asset case deconsolidation event parent cmc shall cooperate determining allocation tax asset among parent parent affiliate cmc cmc affiliate party hereby agree absence controlling legal authority unless otherwise provided agreement tax asset shall allocated legal entity required section agreement bear liability tax associated tax asset case party required hereunder bear liability party hat incurred cost burden associated creation tax asset carrybacks case deconsolidation event parent agrees pay cmc tax benefit use pre deconsolidation period carryback period carryback tax asset cmc group post deconsolidation period carryback tax asset attributable distribution tax liability borne parent parent affiliate subsequent payment parent cmc tax benefit carryback tax asset cmc group shall final determination result decrease amount tax asset carried back amount tax benefit cmc shall rep ay parent amount would payable cmc pursuant section amount benefit determined light event nothing section shall require parent file amended tax return claim refund income tax provided however parent shall use reasonable effort use carryback tax asset cmc group carried back section continuing covenant parent parent affiliate cmc cmc affiliate agrees take action reasonably expected result increased tax liability reduction tax asset increased liability agreement take action reasonably requested would reasonably expected result tax benefit avoid tax detriment provided either case taking refraining take action result additio nal cost fully compensated party adverse effect party party hereby acknowledge preceding sentence intended limit therefore shall apply right party respect matter otherwise covered agreement section distribution tax liability distribution tax although neither party plan intent effectuate distribution party set forth certain tax matter respect distribution would handled event result changed circumstance distribution pursued future time parent liability fo r distribution tax event distribution notwithstanding section agreement parent parent affiliate shall jointly severally liable distribution tax extent distribution taxe attributable caused result one following action omission parent parent affiliate inconsistent information covenant representation material related parent parent affiliate parent business officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling avoidance doubt disclosure action fact inconsistent information covenant representation material submitted tax counsel irs taxing authority applicable connection officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling shall relieve parent parent affiliate liability agreement ii action omission pa rent parent affiliate including cessation transfer affiliate disposition active trade business issuance stock stock buyback payment extraordinary dividend parent parent affiliate following distribution iii acquisition stock asset parent parent affiliate one person cmc cmc affiliate prior following distribution iv issuance stock parent parent affiliate change ownership stock parent parent affiliate b cmcs liability distribution tax event distribution notwithstanding section agreement cmc cmc affiliate shall jointly severally liable distribution tax extent distribution tax attributable caused result one following action omission cmc cmc affiliate distribution time inconsistent information covenant representation material related cmc cmc affiliate cmc business officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling avoidance doubt disclosure cmc cmc affiliate parent parent affiliate action fact inconsistent information covenant representation material submi tted tax counsel irs taxing authority applicable connection officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling shall relieve cmc cmc affiliate liability agreement ii action omission cmc cmc affiliate date distribution including act omission furtherance connected part plan series related transaction within meaning section e code occurring prior date distribution including cessation transfer affiliate disposition active trade business cmc cmc affiliate stock buyback payment extraordinary dividend iii acquisition stock asset cmc cmc affiliate one person parent parent affiliate prior following distribution iv issuance stock cmc cmc affiliate distribution including issuance pursuant exer cise employee stock option employment related arrangement exercise warrant change ownership stock cmc cmc affiliate distribution c joint liability remaining distribution tax parent shall liable fifty percent cmc cmc affiliate shall jointly severally liable fifty percent distribution tax otherwise allocated section b agreement continuing covenant cmc restriction cmc agrees long distribution could reasonable determination parent effectuated cmc knowingly take fail take permit cmc affiliate knowingly take fail take action could reasonably expected preclude parent ability effectuate distribution event distribution cmc agrees take cause cmc affiliate take action reasonably requested parent order enable parent effectuate distribution take fail take permit cmc affiliate ake fail take action action failure act would inconsistent information covenant representation material relates fact matter related cmc cmc affiliate within control cmc contained officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling except information covenant representation material previously disclose cmc permitted section c agreement purpose action considered inconsistent representation representation state plan intention take action event distr ibution cmc agrees take cause cmc affiliate refrain taking position tax return inconsistent distribution qualifying section code b parent restriction even distribution parent agrees take fail take permit parent affiliate take fail take action action failure act would inconsistent material information covenant representatio n relates fact matter related parent parent affiliate within control parent contained officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling purpose action considered inconsistent representation representation state plan intention take action event distribution parent agrees take cause parent affiliate refrain taking position tax return inconsistent distribution qualifying section code c certain cmc action following distribution event distribution cmc agrees two year period following distribution without first obtaining cmcs expense either supplemental opinion tax counsel action result distribution tax supplemental tax opinion supplemental ruling action result distribution tax unless case parent cmc agree otherwise cmc shall sell substantially asset cmc cmc affiliate merge cmc cmc affi liate another entity without regard party surviving entity transfer asset cmc transaction described section transfer corporation file consolidated return cmc wholl yowned directly indirectly cmc subparagraph c section code issue stock cmc cmc affiliate instrument convertible exchangeable stock acquisition public pri vate offering compensatory related issuance described treasury regulation section ei facilitate otherwise participate acquisition stock cmc would result shareholder owning five percent outstanding stock cmc cmc cmc affiliate shall undertake action parent receipt supplemental tax opinion supplemental ruling pursuant term condition supplement al tax opinion supplemental ruling otherwise consented writing advance parent party hereby agree act good faith take reasonable step necessary amend section c time time mutual agreement add certain action list contained herein ii remove certain action list contained herein either case order reflect relevant change law regulation administrative interpretation occurring date agreement notice specified transaction later twenty day prior enteri ng oral written contract agreement later five day first becomes aware negotiation plan intention regardless whether party negotiation plan intention regarding tran sactions described section c cmc shall provide written notice intent consummate transaction negotiation plan intention becomes aware case may parent e cmc cooperation cmc agrees request parent cmc shall cooperate fully parent take action necessary reasonably helpful effectuate distribution including seeking obtain expeditiously possible tax opinion supplemental tax opinion ruling andor supplemental ruling cooperation shall include execution document may necessary reasonably helpful connection obtaining tax opinion supplemental tax opinion ruling andor supplemental ruling including power attorney ii officer certificate iii ruling document iv supplemental ruling document andor v reasonably requested written representation confirming cmc read officer certificate ruling document andor supplement al ruling document b information representation relating cmc cmc affiliate cmc business contained therein true correct complete material respect f earnings profit parent advise cmc writing decrease parent earnings profit attributable distribution section h code first anniversary distribution provided however parent shall provide cmc estimate amount etermined accordance past practice prior anniversary reasonably requested cmc section indemnification general parent member parent group shall jointly severally indemnify cmc cmc affiliate respective director officer employee hold harmless tax parent parent affiliate liable agreement loss cost damage expense including reasonable attorney fee cost attributable result failure parent parent affiliate director officer employee make payme nt required made agreement cmc member cmc group shall jointly severally indemnify parent parent affiliate respective director officer employee hold harmless tax cmc cmc affiliate liable agreement loss cost damage expense including reasonable attorney fee cost attributable result failure cmc cmc affiliate directo r officer employee make payment required made agreement inaccurate incomplete information parent member parent group shall jointly severally indemnify cmc cmc affiliate respective director officer employee hold harmless cost fine penalty expense kind attributable failure parent parent affiliate supplying cmc cmc affiliate inaccurate incompl ete information connection preparation tax return cmc member cmc group shall jointly severally indemnify parent parent affiliate respective director officer employee hold harmless cost fine penalty expense kind attributable failure cmc cmc affiliate supplying parent parent affiliate inaccurate incomplete information connection preparation tax return indemnification tax item nothing agreement shall construed guarantee existence amount loss credit carryforward basis tax item whether past present future parent parent affiliate cmc cmc affiliate addition avoidance doubt purpose determining amount owed party hereto determination shall made without regard financial accounting tax asset liability financial acc ounting item section payment estimated tax payment later five day prior estimated tax installment date respect taxable period consolidated return combined return filed cmc shall pay parent behalf cmc group amount equal amount estimated cmc separate tax liability cmc otherwise would required pay taxing authority estimated tax installment date later seven day pr ior estimated tax installment date parent shall provide cmc written notice setting forth amount payable cmc respect estimated cmc separate tax liability calculation amount trueup payment later ten business day receipt cmc separate tax liability computation pursuant section agreement cmc shall pay parent parent shall pay cmc appropriate amount equal difference cmc separate tax liability aggregate amount paid cmc respect period section agreement redetermination amount event redetermination tax it</t>
   </si>
   <si>
-    <t>tax sharing agreement among united online inc affiliate classmate medium corporation affiliate dated table content page section definition section preparation filing tax return parent responsibility cmcs responsibility agent manner tax return preparation section liability tax cmcs liability tax parent liability tax tax reimbursement payment tax liability computation section deconsolidation event tax allocation carrybacks continuing covenant section distribution tax liability distribution tax continuing covenant section indemnification general inaccurate incomplete information indemnification tax item section payment estimated tax payment trueup payment redetermination amount payment refund credit reimbursement payment agreement section tax proceeding general participation non controlling party notice control distribution tax proceeding section stock option restricted stock notice withholding reporting section miscellaneous provision effectiveness cooperation exchange information dispute resolution notice change law confidentiality binding effect successor affiliate authority entire agreement counterpart severability third party beneficiary failure indulgence waiver remedy cumulative setoff remedy amendment modification interpretation ii tax sharing agreement tax sharing agreement agreement dated among united online inc delaware corporation parent parent affiliate defined classmate medium corporation delaware corporation cmc cmc affiliate defined entered connection ipo defined recital whereas date hereof parent direct indirect domestic subsidiary member affiliated group defined parent common parent whereas parent owns issued outstanding share cmc stock intends effect initial public offering cmc cmc common stock reduce parent ownership cmc ipo whereas contemplation ipo party hereto determined enter agreement setting forth agreement respect certain tax matter agreement therefore consideration mutual covenant agreement contained herein party hereto hereby agree follows section definition used agreement capitalized term shall following meaning meaning equally applicable singular plural form term defined affiliated group mean affiliated group corporation within meaning section code file consolidated return united state federal income tax purpose tax amount mean additional amount necessary reflect hypothetical tax consequence receipt accrual payment required made agreement including payment additional amount amount hereunder effect ded uctions available interest paid accrued tax state local income tax determined using highest applicable statutory corporate income tax rate rate case item affect one tax rel evant taxable period portion thereof agreement meaning set forth preamble hereto audit mean audit assessment tax examination taxing authority proceeding appeal proceeding relating tax whether administrative judicial including proceeding relating competent authority determination carryback period meaning set forth section agreement cmc meaning set forth preamble hereto cmc affiliate mean corporation entity directly indirectly controlled cmc time question control mean ownership fifty percent ownership interest corporation entity vote value possession directly indirectly power direct cause direction management policy corporation entity cmc business mean business operation conducted cmc cmc affiliate business operation continue ipo date cmc business record meaning set forth section b agreement cmc group mean affiliated group similar group entity defined corresponding provision law jurisdiction cmc common parent corporation immediately deconsolidation event including corporation ther entity may become member group time time cmc separate tax liability mean amount equal tax liability cmc cmc affiliate would incurred filed consolidated return combined return including nexus combination worldwide combination domestic combination line business combinatio n form combination unitary return separate return case may separate member parent group relevant tax period amount shall computed parent manner consistent genus l tax accounting principle ii code treasury regulation promulgated thereunder iii past practice b taking account tax asset cmc cmc affiliate attributable tax period beginning ipo date provided however although cmc separate tax liability computed hypothetical basis cmc cmc affiliate separate member parent group tax asset parent group consolidated return combined return effect inclusion calculation tax item shall nevertheless taken account purpose computing cmc separate tax liability example purpose calculating research development credit cmc shall e ntitled allocable share consolidated research development credit parent group code mean internal revenue code amended combined return mean tax return respect united state federal income tax filed consolidated combined including nexus combination worldwide combination domestic combination line business combination form combinatio n unitary basis wherein cmc one cmc affiliate join filing tax return taxable period portion thereof parent one parent affiliate consolidated return mean tax return respect united state federal income tax filed consolidated basis wherein cmc one cmc affiliate join filing tax return taxable period portion thereof parent one p arent affiliate contract mean contract agreement lease license sale order purchase order instrument commitment binding person part property applicable law controlling party meaning set forth section agreement deconsolidation event mean respect cmc cmc affiliate event transaction cause cmc andor one cmc affiliate longer eligible join parent one parent affiliate filing consolidated return combin ed return distribution mean distribution parent issued outstanding share cmc stock security parent hold time parent shareholder andor securityholders transaction intended qualify distribution section code distribution tax mean tax imposed increase tax incurred parent parent affiliate tax parent shareholder former parent shareholder required paid reimbursed parent parent affiliate pursuant legal determination provided parent shall vigorously defended legal proceeding involving tax parent shareholder without regard whether tax offset reduced tax asset tax item otherwise resultin g arising connection failure distribution qualify tax free transaction section code including tax resulting application section section e code distribution corresponding provision law jurisdiction income tax referred immediately preceding sentence shall determined using highest applicable statutory corporate income tax rate relevant taxable period portion thereof estimated tax installment date mean respect united state federal income tax estimated tax installment due date prescribed section c code case tax mean date installment payment estimated amount tax required made final determination shall mean final resolution liability tax taxable period result final unappealable decision judgment decree order court competent jurisdiction ii final settlement irs defined closing agreement accepted offer compromise section code comparable agreement law jurisdiction resolve entire tax liability taxable period iii allowan ce refund credit respect overpayment tax expiration period refund may recovered jurisdiction imposing tax iv final disposition including reason expir ation applicable statute limitation income tax shall mean federal state local non united state tax determined whole part reference net income net worth gross receipt capital tax imposed lieu tax avoidance doubt term income tax includes franchise tax tax imposed lieu tax income tax return mean tax return relating income tax independent accountant mean internationally recognized reputable independent public accounting firm jointly selected retained party time section agreement becomes invoked ipo meaning set forth recital hereto ipo date mean close business date ipo effected irs mean united state internal revenue service successor thereto including agent representative attorney joint responsibility item mean tax item non controlling party responsibility agreement could exceed two hundred fifty thousand dollar sole responsibility item liability mean debt liability guarantee assurance commitment obligation whether fixed contingent absolute asserted unasserted matured unmatured liquidated unliquidated accrued accrued known unknown due become due whenever however arising including without limitation whether arising contract tort based negligence strict liability whether would required generally accepted principle accounting policy reflected financial statement disclosed note thereto master transaction agreement mean master transaction agreement cmc parent even date herewith nonincome tax return mean tax return relating tax income tax officer certificate mean letter executed officer parent cmc provided tax counsel condition completion tax opinion supplemental tax opinion option mean option acquire common stock equity based incentive economic value designed mirror option including non qualified stock option discounted non qualified stock option cliff stock option extent stock issued issuable opposed cash compensation tandem stock option extent stock issued issuable opposed cash compensation owed party meaning set forth section agreement owing party meaning set forth section agreement parent meaning set forth preamble hereto parent affiliate mean corporation entity directly indirectly controlled parent control mean ownership fifty percent ownership interest corporation entity vote value possession di rectly indirectly power direct cause direction management policy corporation entity time excluding cmc cmc affiliate parent business mean business operation conducted parent parent affiliate excluding cmc business time whether prior ipo date parent group mean affiliated group similar group entity defined corresponding provision law jurisdiction parent common parent corporation corporation entity may may become member group time time excluding member cmc group payment period meaning set forth section e agreement person mean individual partnership corporation limited liability company association joint stock company trust joint venture unincorporated organization governmental entity department agency political subdivision th ereof post deconsolidation period mean taxable period beginning date deconsolidation event post ipo period mean taxable period beginning ipo date predeconsolidation period mean taxable period beginning date deconsolidation event ruling mean private letter ruling issued irs connection distribution response request private letter ruling filed parent parent affiliate prior date distribution ii similar ruling ssued taxing authority addressing application provision law another jurisdiction distribution ruling document mean request ruling filed irs together supplemental filing material subsequently submitted behalf parent parent affiliate parent shareholder irs appendix exhibit thereto ny ruling issued irs parent parent affiliate connection distribution ii similar filing submitted ruling issued taxing authority connection distribution sole responsibility item mean tax item non controlling party entire economic liability agreement straddle ipo period mean taxable period beginning ipo date ending ipo date supplemental ruling mean ruling ruling issued irs connection distribution ii similar ruling issued taxing authority addressing application provision law another jurisdiction distribu tion supplemental ruling document mean request supplemental ruling together supplemental filing material subsequently submitted appendix exhibit thereto supplemental ruling issued irs connection distribution ii similar filing submitted ruling issued taxing authority connection distribution supplemental tax opinion meaning set forth section c agreement tax mean federal state local non united state tax charge fee duty levy impost rate assessment including income gross receipt net worth excise property sale use license capital stock transfer franchise payrol l withholding social security value added tax including interest penalty addition attributable thereto tax shall mean one tax taxpayer mean taxpayer affiliated group similar group entity defined corresponding provision law jurisdiction taxpayer member tax asset mean tax item accrued tax purpose realized taxable period accrued could reduce tax another taxable period including limited net operating loss net capital loss investment tax credit foreign tax credit charitable deduction credit related alternative minimum tax tax credit tax benefit mean reduction tax liability increase refund credit item deduction expense taxpayer taxable period except otherwise provided agreement tax benefit shall deemed realized rece ived tax item taxable period extent tax liability taxpayer period taking account effect tax item tax liability taxpayer current period prior period less would tax liability determined without regard tax item tax counsel mean nationally recognized law firm selected parent provide tax opinion tax detriment mean increase tax liability reduction refund credit item deduction expense taxpayer taxable period except otherwise provided agreement tax detriment shall deemed realized ncurred tax item taxable period extent tax liability taxpayer period taking account effect tax item tax liability taxpayer current period prior per iods would tax liability determined without regard tax item tax item mean item income gain loss deduction expense credit attribute may effect increasing decreasing tax tax opinion mean opinion issued tax counsel one condition completing distribution addressing certain united state federal income tax consequence distribution section code tax return mean return report certificate form similar statement document including related support ing information schedule attached thereto information return amended tax return claim refund declaration estimated tax required supplied filed taxing authority connection determination assessment collection tax administration law regulation administrative requirement relating tax taxing authority mean governmental authority subdivision agency commission authority thereof quasi governmental private body jurisdiction assessment determination collection imposition tax including irs section preparation filing tax return parent responsibility subject applicable provision agreement parent shall sole exclusive responsibility preparation filing consolidated return combined return taxable period b income tax return consolidated return combined return respect parent andor parent affiliate taxable period c income tax return consolidated return combined return respect cmc andor cmc affiliate required filed taking account extension time requested received prior th e ipo date non income tax return respect parent parent affiliate parent business part thereof taxable period cmcs responsibility subject applicable provision agreement cmc shall sole exclusive responsibility preparation filing income tax return consolidated return combined return respect cmc andor cmc affiliate required filed taking account extension time requested received ipo dat e b non income tax return respect cmc cmc affiliate cmc business part thereof taxable period agent subject applicable provision agreement cmc hereby irrevocably designates agrees cause cmc affiliate designate parent sole exclusive agent attorney infact take action including execution f document parent sole discretion may deem appropriate matter including audit relating tax return described section agreement manner tax return preparation unless otherwise required taxing authority party hereby agree prepare file tax return take action manner consistent agreement tax opinion supplemental tax opinion ruling supplemental ruling tax return shall filed timely basis taking account applicable extension party responsible filing return agreement b parent shall exclusive right sole discretion respect tax return described section agreement determine manner tax return shall prepared filed including election metho accounting position convention principle taxation used manner tax item shall reported whether extension shall requested election made parent parent affiliate cmc ndor cmc affiliate tax return whether amended tax return shall filed whether claim refund shall made whether refund shall recognized way refund credited liability related tax whether retain outside firm prepare andor review tax return provided however parent shall consult cmc prior changing method accounting action would solely impact cmc cmc affiliate case consolidated return combined return respect straddle ipo period post ipo period th report cmc separate tax liability excess five million dollar parent shall provide cmc pro forma draft portion tax return reflects cmc separate tax liability statement showing reasonable detail parent calcul ation cmc separate tax liability including copy worksheet material used preparation thereof least twenty one day prior due date applicable extension filing tax return cmcs review comment cmc shall provide comment parent least ten day prior due date applicable extension filing tax return dispute respect reporting tax item tax return requesti ng change method accounting would solely impact cmc cmc affiliate shall resolved pursuant section agreement c information cmc shall timely provide accordance parent internal tax return calendar provided cmc rolling one year schedule information necessary parent prepare tax return compute estimated tax payment purpose section agreement cmc meet deadline section b notice period cmc shall waived section liability tax cmcs liability tax cmc cmc affiliate shall jointly severally liable following tax shall entitled receive retain refund tax previously incurred cmc cmc affiliate cmc business respect tax tax respect tax return described section agreement extent tax related cmc separate tax liability ii cmc business taxable period b tax respect tax return described section c agreement c tax respect tax return described section agreement tax imposed taxing authority respect cmc business cmc cmc affiliate connection required filing tax return described section c agreement taxable period parent liability tax parent shall liable following tax shall entitled receive retain refund tax previously incurred parent parent affiliate parent business respect tax except provided section agreement tax respect tax return described section agreement b tax respect tax return described section b agreement c tax imposed taxing authority respect parent parent affiliate parent business connection required filing tax return described section b agreement taxable period tax reimbursement notwithstanding section agreement parent parent affiliate shall liable tax incurred person respect parent business period shall entitled refund credit tax e previously incurred person respect tax ii cmc cmc affiliate shall jointly severally liable tax incurred person respect cmc business period shall entitled fund credit tax previously incurred person respect tax payment tax liability one party liable responsible tax section agreement respect tax return another party responsible filing respect tax paid another party liable responsible party shall pay tax reimbursement tax party pursuant section agreement computation parent shall provide cmc written calculation reasonable detail including upon reasonable request copy work sheet material used preparation thereof setting forth amount cmc separate tax liability estimate cmc separate tax liability purpose section agreement tax related cmc business cmc shall right review comment calculation dispute respect calculation shall resolved purs uant section agreement provided however notwithstanding dispute respect calculation event shall payment attributable amount cmc separate tax liability estimated cmc separate tax liability paid later date provided section agreement section deconsolidation event tax allocation party set forth certain tax matter respect deconsolidation event would handled event deconsolidation event allocation tax item case deconsolidation event tax computation pre deconsolidation period ending date deconsolidation event immediately following taxable period cmc cmc affiliate shall made pursuant th e principle section b treasury regulation corresponding provision law jurisdiction reasonably determined parent taking account reasonable suggestion made cmc respect thereto b allocation tax asset case deconsolidation event parent cmc shall cooperate determining allocation tax asset among parent parent affiliate cmc cmc affiliate party hereby agree absence controlling legal authority unless otherwise provided agreement tax asset shall allocated legal entity required section agreement bear liability tax associated tax asset case party required hereunder bear liability party incurred cost burden associated creation tax asset carrybacks case deconsolidation event parent agrees pay cmc tax benefit use pre deconsolidation period carryback period carryback tax asset cmc group post deconsolidation period carryback tax asset attributable distribution tax liability borne parent parent affiliate subsequent pay ment parent cmc tax benefit carryback tax asset cmc group shall final determination result decrease amount tax asset carried back amount tax benefit cmc shall repay parent amount would payable cmc pursuant section amount benefit determined light event nothing section shall require parent file amended tax return cl aim refund income tax provided however parent shall use reasonable effort use carryback tax asset cmc group carried back section continuing covenant parent parent affiliate cmc cmc affiliate agrees take action reasonably expected result increased tax liability reduction tax asset inc reased liability agreement take action reasonably requested would reasonably expected result tax benefit avoid tax detriment provided either case taking refraining take action result additional cost fully compensated party adverse effect party party hereby acknowledge precedin g sentence intended limit therefore shall apply right party respect matter otherwise covered agreement section distribution tax liability distribution tax although neither party plan intent effectuate distribution party set forth certain tax matter respect distribution would handled event result changed circumstance distribution pursued future time parent liability distribution tax event distribution notwithstanding section agreement parent parent affiliate shall jointly severally liable distribution tax extent distribution tax attributable caused result one following action omission parent parent affiliate inconsistent information covenant representation material related parent parent affiliate parent business officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling avoidance doubt disclosure action fact inconsistent information covenant representation material submitted tax cou nsel irs taxing authority applicable connection officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling shall relieve parent pa rent affiliate liability agreement ii action omission parent parent affiliate including cessation transfer affiliate disposition active trade business issuance stock stock buyback payment extraordinary dividend parent parent affiliate following distribution iii acquisition stock asset parent parent affiliate one person cmc cmc affiliate prior following distribution iv issuance stock parent parent affiliate change ownership stock parent parent affiliate b cmcs liability distribution tax event distribution notwithstanding section agreement cmc cmc affiliate shall jointly severally liable distribution tax extent distribution tax attributable caus ed result one following action omission cmc cmc affiliate distribution time inconsistent information covenant representation material related cmc cmc affiliate cmc business officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling avoidance doubt disclosure cmc cmc affiliate parent parent affiliate action fact inconsistent information covenant representation material submitted tax counsel irs taxing authority applicable connection officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling shall relieve cmc cmc affiliate liability agreement ii action omission cmc cmc affiliate date distribution including act omission furtherance connected part plan series related transaction within meaning section e code occurring prior date distribution including cessation transfer affiliate disposition active trade business cmc cmc affiliate stock buyback payment extraordinary dividend iii acquisition stock asset cmc cmc affiliate one person parent parent affiliate prior following distribution iv issuance stock cmc cmc affiliate distribution including issuance pursuant exercise employee stock option employment related arrangement exercise warrant change ownership stock cmc cmc affiliate distribution c joint liability remaining distribution tax parent shall liable fifty percent cmc cmc affiliate shall jointly severally liable fifty percent distribution tax otherwise allocated section b agreement continuing covenant cmc restriction cmc agrees long distribution could reasonable determination parent effectuated cmc knowingly take fail take permit cmc affiliate knowingly take fail take action could reasonably expected preclude parent ability effectuate distribution event distribution cmc agrees take cause cmc affiliate take action reasonably requested parent order enable parent effectuate dist ribution take fail take permit cmc affiliate take fail take action action failure act would inconsistent information covenant representation material relates fact r matter related cmc cmc affiliate within control cmc contained officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling except information covenant representation material previously disclosed cmc permitted section c agreement purpose action considered inconsistent representation representation sta te plan intention take action event distribution cmc agrees take cause cmc affiliate refrain taking position tax return inconsistent distribut ion qualifying section code b parent restriction event distribution parent agrees take fail take permit parent affiliate take fail take action action failure act would inconsistent material information covenant r epresentation relates fact matter related parent parent affiliate within control parent contained officer certificate tax opinion supplemental tax opinion ruling document supplemental ruling document ruling supplemental ruling purpose action considered inconsistent representation representation state plan intention take action event distribution parent agrees take cause parent affiliate refrain taking position tax return inconsistent distribution qualifying section code c certain cmc action following distribution event distribution cmc agrees two year period following distribution without first obtaining cmcs expense either supplemental opinion tax counsel action result distribution tax supplemental tax opinion supplemental ruling action result distribution tax unless case parent cmc agree otherwise cmc shall sell substantially asset cmc cmc affiliate merge cmc cmc affiliate another entity without regard party surviving entity transfer asset cmc transaction described section transfer corporation file consolidated return cmc whollyowned directly indirectly cmc subparagraph c section code issue stock cmc cmc affiliate instrument convertible exchangeable stock acquisition public private offering compensatory related issuance described treasury regulation section ei facilitate otherwise participate acquisition stock cmc would result shareholder owning five perc ent outstanding stock cmc cmc cmc affiliate shall undertake action parent receipt supplemental tax opinion supplemental ruling pursuant term condition supple mental tax opinion supplemental ruling otherwise consented writing advance parent party hereby agree act good faith take reasonable step necessary amend section c time time mu tual agreement add certain action list contained herein ii remove certain action list contained herein either case order reflect relevant change law regulation administrative interpretation occurring date agreement notice specified transaction later twenty day prior entering oral written contract agreement later five day first becomes aware negotiation plan intention regardless whether party negotiation plan intention regarding transaction described section c cmc shall provide written notice intent consummate transaction negotiation plan intention becomes aware case may pa rent e cmc cooperation cmc agrees request parent cmc shall cooperate fully parent take action necessary reasonably helpful effectuate distribution including seeking obtain expeditiously possible tax opinion supplemental tax opinion ruling andor supplemental ruling cooperation shall include execution document may necessary reasonably helpful connection obtaining tax opinion supplemental tax opinion ruling andor supplemental ruling including power attorney ii officer certificate iii ruling document iv supplemental ruling document andor v reasonably requested written representation confirming cmc read officer certificate ruling documen t andor supplemental ruling document b information representation relating cmc cmc affiliate cmc business contained therein true correct complete material respect f earnings profit parent advise cmc writing decrease parent earnings profit attributable distribution section h code first anniversary distribution provided however parent shall provide cmc estimate amount determined accordance past practice prior anniversary reasonably requested cmc section indemnification general parent member parent group shall jointly severally indemnify cmc cmc affiliate respective director officer employee hold harmless tax parent parent affi liate liable agreement loss cost damage expense including reasonable attorney fee cost attributable result failure parent parent affiliate director officer employee make ny payment required made agreement cmc member cmc group shall jointly severally indemnify parent parent affiliate respective director officer employee hold harmless ny tax cmc cmc affiliate liable agreement loss cost damage expense including reasonable attorney fee cost attributable result failure cmc cmc affiliate director officer employee make payment required made agreement inaccurate incomplete information parent member parent group shall jointly severally indemnify cmc cmc affiliate respective director officer employee hold harmless cost fine penalty expense kind attributable failure parent parent affiliate supplying cmc cmc affiliate inaccurate incomplete information connection preparation tax return cmc member cmc group shall jointly sev erally indemnify parent parent affiliate respective director officer employee hold harmless cost fine penalty expense kind attributable failure cmc cmc affiliate n supplying parent parent affiliate inaccurate incomplete information connection preparation tax return indemnification tax item nothing agreement shall construed guarantee existence amount loss credit carryforward basis tax item whether past present future parent parent affiliate cmc cmc affiliate addition avoidance doubt purpose determining amount owed party hereto determination shall made wit hout regard financial accounting tax asset liability financial accounting item section payment estimated tax payment later five day prior estimated tax installment date respect taxable period consolidated return combined return filed cmc shall pay parent behalf cmc group amount equal amount ny estimated cmc separate tax liability cmc otherwise would required pay taxing authority estimated tax installment date later seven day prior estimated tax installment date parent shall provide c mc written notice setting forth amount payable cmc respect estimated cmc separate tax liability calculation amount trueup payment later ten business day receipt cmc separate tax liability computation pursuant section agreement cmc shall pay parent parent shall pay cmc appropriate amount equal difference b etween cmc separate tax liability aggregate amount paid cmc respect period section agreement redetermination amount event redetermination tax ite</t>
+    <t>onecle home sample business contract weider nutrition international inc contract printerfriendly sample business contract income tax sharing agreement weider nutrition international inc weider health fitness popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link income tax sharing agreement income tax sharing agreement agreement made march among weider nutrition international inc delaware corporation subsidiary listed signature page hereof collectively company weider health fitness nevada corporation subsidiary listed signature page hereof collectively parent recital whereas parent common parent affiliated group corporation whf group term used section internal revenue code amended code parent member whf group term used section treasury regulation promulgated thereunder regulation whereas company subsidiary parent member whf group within meaning section regulation whereas whf group includes certain member affiliated parent within meaning section code whereas parent whf group previously filed consolidated federal income tax return accordance section code whf group required file consolidated federal income tax return current future taxable year whereas company intends sell percentage issued outstanding share company common stock person member whf group pursuant public offering offering company longer member whf group whereas company owns directly indirectly stock corporation would subsidiary company member affiliated group corporation company group company would common parent status corporation common parent determined disregarding ownership stock corporation higher tier parent corporation parent cause corporation member affiliated group common parent whereas upon closing closing offering closing date closing date company member company group longer member whf group whereas company parent desire comply provision code applicable state statute company parent remain penalty proof every taxing authority whereas company subsidiary parent subsidiary desire set forth agreement relation liability tax including interest penalty thereon page company may owed asserted federal state local foreign taxing authority therefore consideration foregoing mutual promise covenant condition hereinafter contained party hereto agree follows agreement article definition used agreement following term shall following meaning affiliate respect corporation given corporation person corporation partnership entity directly indirectly one intermediary control controlled common control given corporation purpose definition control mean possession directly indirectly voting power value outstanding voting interest affiliated group affiliated group corporation within meaning code section taxable period purpose state local foreign income tax matter consolidated combined unitary group corporation within meaning corresponding provision tax law state jurisdiction question closing completion public offering closing date date closing occurs code internal revenue code amended successor thereto effect taxable period question combined income tax return consolidated combined unitary similar state local foreign income tax return company member company group may included company defined preamble agreement company group defined recital agreement income tax tax based upon measured whole part net income regardless whether denominated income tax franchise tax otherwise including tax imposed alternative base one net income imposed taxing authority together interest penalty addition thereto income tax return tax return relating required filed connection payment refund income tax page information return report return declaration filing tax return required furnished taxing authority tax tax income tax together interest penalty addition thereto tax return tax return relating required filed connection payment refund tax overdue rate rate specified code section successor provision underpayment tax party entity identified heading signature page hereof postclosing straddle period respect straddle period period beginning day closing date ending last day taxable year postclosing taxable period taxable year begin close closing date addition solely respect whf group whole respect company member company group term shall also include taxable year whf group includes closing date end close closing date preclosing straddle period respect straddle period period beginning first day taxable year ending close closing date preclosing taxable period taxable year end close closing date prior tax sharing agreement tax sharing agreement made entered st day june weider nutrition group inc behalf whollyowned controlled subsidiary parent receipt date respect notification given party agreement date party deemed received notification pursuant section hereof representative respect person entity person entity director officer employee agent consultant accountant attorney advisor separate income tax return state local foreign income tax return company member company group combined income tax return straddle period taxable period company member company group begin end close closing date tax domestic foreign net income gross income gross receipt sale use excise franchise transfer payroll employment stamp gain capital premium property page windfall profit tax alternative addon minimum tax value added tax fee assessment together interest penalty addition tax additional amount imposed taxing authority whether tax imposed directly withholding tax benefit case income tax consolidated federal income tax return combined income tax return filed amount tax liability affiliated group relevant group corporation member affiliated group reduced deduction entitlement refund credit offset otherwise whether available current taxable year adjustment taxable income taxable year carryforward carryback including effect income tax reduction plus interest received respect related tax refund b saved application credit offset deduction ii case income tax separate income tax return filed tax amount tax liability corporation reduced deduction entitlement refund credit offset otherwise whether available current taxable year adjustment taxable income taxable year carryforward carryback including effect income tax reduction plus interest received respect related tax refund tax practice recently applied policy procedure practice employed whf group preparation filing position taken tax return company member company group preclosing taxable period including without limitation policy procedure practice specified prior tax sharing agreement tax return return report estimate information statement declaration filing relating required filed connection payment refund tax required applicable law taxable period one pre postclosing taxable period pre postclosing straddle period taxable year one taxable year may shorter full calendar fiscal year year assessment period respect tax may imposed tax return required filed taxing authority internal revenue service domestic foreign governmental authority responsible administration imposition collection tax whf group defined recital agreement article ii termination prior tax sharing agreement except extent provided herein prior tax sharing agreement shall closing terminated superseded agreement page article iii preparation tax return payment tax preparation filing tax return parent extent filed prior close closing date parent shall prepare timely file cause prepared timely filed federal income tax return combined income tax return whf group including company member company group preclosing taxable period separate income tax return company member company group preclosing taxable period ii federal state local foreign tax return information return whf group excluding company member company group taxable year beginning closing postclosing taxable period b company except provided section company shall prepare timely file cause prepared timely filed federal state local foreign income tax return company member company group straddle period postclosing taxable period ii tax return information return company member company group c review tax return least thirty day prior filing straddle period tax return including amendment thereto article iii applies company shall provide parent portion tax return draft form related company member company group tax return shall prepared manner consistent past tax practice except otherwise required law parent case may company shall voluntarily accelerate defer shift deduction similar item preclosing taxable period ii defer accelerate shift income similar item postclosing taxable period original amended portion tax return relate company member company group otherwise voluntarily change reporting item unless otherwise required law provided however prohibition shall extend correction mathematical error adjustment necessary conform tax return past tax practice preparing party shall solicit party comment respect portion tax return shall good faith consult party effort resolve difference respect preparation accuracy tax return consistency past tax practice b consider party recommendation alternative position respect item reflected portion tax return page payment tax parent except extent provided herein parent shall pay cause paid tax shown due payable tax return filed caused filed parent pursuant section hereof subject provision agreement tax shall thereafter become due payable respect tax return provided however respect preclosing taxable period company shall liable tax company group amount equal tax computed company group company group file separate tax return period whether tax shown due payable tax return filed caused filed parent pursuant section hereof subject provision agreement thereafter become due payable respect tax return company tax payment company tax shall calculated made accordance term prior tax sharing agreement company party agreement ie company company defined agreement b company except extent specifically provided section provision agreement company shall pay cause paid tax shown due payable tax return filed caused filed company pursuant section b hereof tax shall thereafter become due payable respect tax return c information tax return party required file information tax return pursuant article iii shall pay related fee charge including fee charge shall thereafter become due payable respect information tax return shall indemnify hold party harmless related interest penalty well fee charge assessed party result failure party responsible failure file information return timely accurate manner straddle period purpose agreement income tax shown tax return straddle period shall allocated pre postclosing straddle period basis actual taxable income period determined interim closing book company close closing date allocation method party may agree writing company shall pay parent within ten day receipt executed income tax return excess amount allocated based upon amount tax shown tax return preclosing straddle period amount estimated income tax previously paid company company group prior closing date parent shall pay company within ten day filing income tax return excess amount estimated income tax previously paid company company group prior closing date amount allocated period refund parent parent shall entitled refund tax company member company group preclosing taxable period preclosing straddle period connection therewith company shall provide parent irrevocable power page attorney respect endorsement refund parent shall accordance term prior tax sharing agreement pay company refund respect preclosing taxable period company would entitled prior tax sharing agreement assuming company party agreement amount refund straddle period shall allocated preclosing straddle period postclosing straddle period using principle described section agreement b company company shall entitled refund tax company company group postclosing taxable period postclosing straddle period amount refund straddle period shall allocated preclosing straddle period postclosing straddle period using principle described section agreement c transmittal refund recipient entitled parent receives tax refund company member company group entitled pursuant agreement parent shall pay amount refund including interest received thereon company within ten day receipt thereof conversely company member company group receives tax refund parent entitled pursuant agreement company member company group case may shall pay amount refund including interest received thereon parent within ten day receipt thereof amendment tax return parent shall entitled amend tax return filed parent pursuant section hereof company member company group shall entitled amend tax return taxable period filed pursuant section b hereof provided however amended tax return filed pursuant section shall subject provision section c hereof carrybacks without prior written consent parent may granted withheld parent discretion neither company member company group shall carry back net operating loss item attribute postclosing taxable period preclosing taxable period company agrees reimburse parent reasonable administrative cost connected therewith including limited reasonable cost time spent preparing carryback tax return provision filing information company parent case may shall cooperate assist parent company preparation filing tax return information return subject section submit parent company necessary filing information manner consistent past tax practice event later sixty day closing date ii information reasonably requested parent company connection preparation tax return information return promptly request expressly understood agreed parent company ability discharge tax return information return preparation filing responsibility contingent upon company parent providing parent company cooperation assistance information reasonably necessary requested filing tax return information return company parent shall indemnify parent company parent company indemnification obligation article iv shall page apply extent tax increased result material inaccuracy information failure timely provide material information assistance reasonable notice written request therefor article iv indemnification parent tax subject section parent shall indemnify hold company member company group harmless income tax whf group member thereof company member company group preclosing taxable period preclosing straddle period extent payment required parent pursuant section agreement b member liability parent shall indemnify hold company member company group harmless every liability tax whf group tax attributable company member company group treasury regulation section similar law rule regulation administered taxing authority company b member liability company shall indemnify hold parent member whf group harmless every liability tax company group treasury regulation section similar law rule regulation administered taxing authority indemnification procedure parent company case may shall notify company parent tax paid whf group member thereof company group member thereof subject indemnification article iv extent otherwise provided article iv notification contemplated article iv shall include detailed calculation including applicable separate allocation tax pre postclosing taxable period supporting work paper brief explanation basis indemnification hereunder whenever notification described article iv given notified party shall pay amount requested notice notifying party accordance article v extent notified party agrees request extent notified party disagrees request shall within twenty day notify notifying party whereupon party shall use best page effort resolve disagreement party unable resolve disagreement shall resolved accordance article v extent otherwise provided article iv article v payment made day period shall include interest overdue rate beginning receipt date based upon original notice given notifying party article v method timing character payment required agreement dispute payment immediately available fund payment made pursuant agreement shall made immediately available fund except otherwise provided herein payment made due hereunder shall thereafter bear interest overdue rate beginning receipt date absence specified date payment shall due day later date notifying party actually incurs outofpocket cost respect notice relates ii receipt date dispute event company parent agree calculation required provision agreement calculation shall made deloitte touche llp firm refuse serve nationally recognized independent public accounting firm acceptable company parent decision firm shall final binding fee expense incurred connection calculation shall shared equally parent company article vi cooperation document retention confidentiality provision cooperation document information upon request party agreement parent company shall provide shall cause affiliate provide requesting party promptly upon request cooperation assistance document information without charge may reasonably requested party connection preparation filing original amended tax return ii conduct audit examination judicial administrative proceeding involving extent tax tax return information return within scope agreement iii verification party amount payable hereunder receivable hereunder another party cooperation assistance shall include without limitation provision demand book record tax return documentation information relating relevant tax return information return b execution document may necessary reasonably helpful connection filing tax return information return whf group company member whf group company group connection audit proceeding suit action type generally referred preceding sentence including without limiting foregoing execution irrevocable power attorney closing date respect tax return parent may obligated file pursuant section c prompt timely filing appropriate claim refund use reasonable best effort obtain documentation page governmental authority third party may necessary helpful connection foregoing party shall make employee facility available mutually convenient basis facilitate cooperation notwithstanding foregoing nothing herein shall entitle company information concerning parent business operation owned company member company group retention book record parent member whf group company member company group shall retain cause retained tax return information return related preclosing taxable period straddle period case parent whf group postclosing taxable period includes closing date book record schedule workpapers document relating thereto expiration later applicable statute limitation including waiver extension thereof ii retention period required law pursuant record retention agreement party least thirty day prior thereto provide written notice intended destruction document referred preceding sentence party giving notification dispose foregoing material without first offering transfer possession thereof notified party provided however nothing herein shall entitle company information concerning parent business operation owned company member company group status information regarding audit litigation parent shall use reasonable best effort keep company advised company shall use reasonable best effort keep parent advised status tax audit litigation involving issue relating tax tax return information return tax benefit subject indemnification hereunder extent relating issue parent shall promptly furnish company company shall promptly furnish parent copy inquiry request information taxing authority administrative judicial governmental authority well copy relevant portion revenue agent report similar report notice proposed adjustment notice deficiency failure company parent provide parent company copy inquiry request report notice prior requested reply date shall shift responsibility company parent interest andor penalty result directly failure provide timely reply company parent confidentiality document information except required law prior written consent shall unreasonably withheld parent case tax return information return relating parent member whf group separate income tax return company member company group ii company case tax return information return relating company member company group tax return information return document schedule work paper similar item information contained therein tax return information return material within scope agreement shall kept confidential party hereto representative shall disclosed person entity shall used purpose provided herein page article vii contest audit notification audit dispute upon receipt parent member whf group company member company group case may notice pending threatened tax audit inquiry assessment may affect liability tax subject indemnification hereunder parent company shall promptly notify writing receipt notice failure company parent provide parent company copy notice prior requested reply date shall shift responsibility interest andor penalty resulting directly failure provide timely reply company parent furthermore without consent party company member company group parent member whf group responds notice pending threatened tax audit inquiry assessment manner would materially adversely affect liability tax interest andor penalty thereon subject indemnification hereunder party responsibility addition tax liability including interest andor penalty thereon resulting response shall shift company parent control settlement parent parent shall right control represent interest affected taxpayer tax audit administrative judicial proceeding relating whole part preclosing taxable period tax taxable period parent responsible article iv employ counsel choice expense provided however respect issue may materially adversely affect company member company group straddle period postclosing taxable period parent shall advise company existence status proceeding ii afford company full opportunity review submission related issue company expense iii allow company employ counsel choice expense iv good faith cooperate consult company regarding comment respect submission effort resolve difference respect parent position regard issue v good faith consider company recommendation alternative position respect issue event disagreement regarding proceeding parent shall ultimate control contest settlement resolution thereof b company company shall right control represent interest affected taxpayer tax audit administrative judicial proceeding relating whole part straddle period postclosing taxable period tax taxable period company responsible article iv employ counsel choice expense provided however respect issue may materially adversely affect company member company group preclosing taxable period company shall advise parent existence status proceeding ii afford parent full opportunity review submission related issue parent expense iii allow parent employ counsel choice expense iv good faith cooperate consult parent regarding comment page respect submission effort resolve difference respect company position regard issue v good faith consider parent recommendation alternative position respect issue event disagreement regarding proceeding company shall ultimate control contest settlement resolution thereof delivery power attorney company shall execute deliver parent promptly upon reasonable request power attorney authorizing parent extend statute limitation receive refund negotiate audit settlement subject company right section take action parent reasonably considers appropriate exercising control right pursuant section article viii termination liability except liability attributable item contested parent company pursuant article vii notwithstanding provision agreement liability parent company agreement terminate tenth th anniversary closing date article ix general provision notice notice request demand communication required may given agreement shall writing shall deemed duly given received personally delivered transmitted transmitted telecopy electronic digital transmission method day sent sent next day delivery domestic address recognized overnight delivery service eg federal express upon receipt sent certified registered mail return receipt requested case notice shall sent parent co weider health fitness erwin street woodland hill ca company weider nutrition international inc south west salt lake city utah attention chief financial officer place copy party may designate written notice others benefit agreement shall inure benefit binding upon party hereto respective successor assigns page guarantee performance parent company shall cause complete prompt performance respective affiliate obligation undertaking pursuant agreement amendment party may amend agreement whole part time time time instrument writing signed authorized representative party caption article section subsection heading caption provided purpose reference convenience shall relied way construe define modify limit extend scope provision agreement choice law agreement shall construed interpreted right party determined accordance law state california without reference choice law provision thereof except respect matter law concerning internal corporate affair corporate entity party subject agreement matter law jurisdiction respective entity derives power shall govern meaning whenever appropriate singular used agreement shall include plural vice versa masculine gender shall include feminine neuter gender vice versa neuter gender shall include masculine feminine gender vice versa counterpart agreement may executed one counterpart shall deemed original together shall constitute one instrument invalidity event one provision contained agreement shall reason held invalid illegal unenforceable respect maximum extent permitted law invalidity illegality unenforceability shall affect provision agreement instrument page witness whereof agreement duly executed day year first written weider health fitness nevada corporation name subsidiary weider health fitness weider nutrition international inc delaware corporation name subsidiary weider health fitness business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlordtenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
   </si>
   <si>
     <t>onecle hom e sample business contract weider nutrition international inc contract printer friendly sample business contract income tax sharing agreement weider nutrition international inc weider health fitness popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link income tax sharing agreement income tax sharing agreement agreement made march among weider nutrition international inc delaware corporation subsidiary listed signature page hereof collectively company weider health fitness nevada corporation subsidiary listed signature page hereof collectively parent recital whereas parent common parent affiliated group corporation whf group term used section internal revenue code amended code parent member whf group term used section treasury regulation promulgated thereunder regulation whereas company subsidiary parent member whf group within meaning section regulation whereas whf group includes certain member affiliated parent withi n meaning section code whereas parent whf group previously filed consolidated federal income tax return accordance section code whf group required file consolid ated federal income tax return current future taxable year whereas company intends sell percentage issued outstanding share company common stock person member whf group pursuant public offering offering company longer member whf group whereas company owns directly indirectly stock corporation would subsidiary company member affiliated group corporation company group company would common parent status corporation common parent determined disregarding ownership stock corporation higher tier parent corporation parent cause corporation member affiliated group th e common parent whereas upon closing closing offering closing date closing date company member company group longer member whf group whereas company parent desire comply provision code applicable state statute company parent remain penalty proof every taxing authority whereas company sub sidiaries parent subsidiary desire set forth agreement relation liability tax including interest penalty thereon page company may owed asserted federal state local foreign taxing authority therefore consideration foregoing mutual promise covenant condition hereinafter contained party hereto agree follows agreement article definition used agreement following term shall following meaning affiliate respect corporation given corporation person corporation partnership entity directly indirectly one intermediary control controlled common control given corporation purpose definition contr ol mean possession directly indirectly voting power value outstanding voting interest affiliated group affiliated group corporation within meaning code section ta xable period purpose state local foreign income tax matter consolidated combined unitary group corporation within meaning corresponding provision tax law state jurisdiction question closing completion public offering closing date date closing occurs code internal revenue code amended successor thereto effect taxable period question combined income tax return consolidated combined unitary similar state local foreign inc ome tax return company member company group may included company defined preamble agreement company group defined recital agreement income tax tax based upon measured whole part net income regardless whether denominated income tax franchise tax otherwise including tax imposed alternative base one wh ich net income imposed taxing authority together interest penalty addition thereto income tax return tax return relating required filed connection payment refu nd income tax page information return report return declaration filing tax return required furnished taxing authority tax tax income tax together interest penalty addition ther eto tax return tax return relating required filed connection payment refund tax overdue rate rate specified code section su ccessor provision underpayment tax party entity identified heading signature page hereof postclosing straddle period respect straddle period period beg inning day closing date ending last day taxable year postclosing taxable period taxable year begin close closing date addition solely respect whf group whole respect company member company group term shall also include taxable year whf group includes closing date end close closing date preclosing straddle period respect straddle period period beginning first day taxable year ending close closing date preclosing taxable period taxable year end close closing date prior tax sharing agreement tax sharing agreement made entered st day june weider nutrition group inc behalf wh ollyowned controlled subsidiary parent receipt date respect notification given party agreement date party deemed received notification pursuant section hereof representative respect person entity person entity director officer employee agent consultant accountant attorney advisor separate income tax r eturns state local foreign income tax return company member company group combined income tax return straddle period taxable period company member company gro begin end close closing date tax domestic foreign net income gross income gross receipt sale use excise franchise transfer payroll employment stamp gain capital premium property page windfall profit tax alternative add minimum tax value added tax fee assessment together interest penalty addition tax additional amount imposed taxing authority whether tax imposed directly withholding tax benefit case income tax consolidated federal income tax return combined income tax return filed amount tax liability affiliated group relevant group corporation member affiliated group reduced deduction entitlement refund credit offset otherwise whether available current taxable year adjustment taxable income taxable year carryforward carryback including effect ther income tax reduction plus interest received respect related tax refund b saved application credit offset deduction ii case income tax separate income tax retur n filed tax amount tax liability corporation reduced deduction entitlement refund credit offset otherwise whether available current taxable year adjustment taxable income taxable year carryforward carryback including effect income tax reduction plus interest received respect related tax refund tax practice recently applied policy procedure practice employed whf group preparation filing position taken tax return company member company group pre closing taxabl e period including without limitation policy procedure practice specified prior tax sharing agreement tax return return report estimate information statement declaration filing relat ing required filed connection payment refund tax required applicable law taxable period one pre postclosing taxable period pre postclosing straddle period taxable year one taxable year may shorter full calendar fiscal year year assessment period respect tax may imposed tax return required filed taxing authority internal revenue service domestic foreign governmental authority responsible administration imposition collection tax whf group defined recital greement article ii termination prior tax sharing agreement except extent provided herein prior tax sharing agreement shall closing terminated superseded agreement page article iii preparation tax return payment tax preparation filing tax return parent extent filed prior close closing date parent shall prepare timely file cause prepared imely filed federal income tax return combined income tax return whf group including company member company group pre closing taxable period separate income tax return company member company group pre closing taxable period ii federal state local foreign tax return information return whf group excluding company member company group taxable year beginning closing post closing taxable period b company except provided section company shall prepare timely file cause prepared timely filed federal state local foreign income tax return company member company group straddle period post closing taxable period ii tax return information return company member company group c review tax return least thirty day prior filing straddle period tax return including amendment thereto article iii appl y company shall provide parent portion tax return draft form related company member company group tax return shall prepared manner consistent past tax practice except otherwise required law parent case may company shall voluntarily accelerate defer shift deduction similar item pre closing taxable period ii defer accelerate shift income similar em post closing taxable period original amended portion tax return relate company member company group otherwise voluntarily change reporting item unless otherwise required law provided however prohibition shall extend correction mathematical error adjustment necessary conform tax return past tax practice preparing party shall solicit party comment respect portion tax return shall good faith consult party effort resolve difference wit h respect preparation accuracy tax return consistency past tax practice b consider party recommendation alternative position respect item reflected portion tax return page payment tax parent except extent provided herein parent shall pay cause paid tax shown b e due payable tax return filed caused filed parent pursuant section hereof subject provision agreement tax shall thereafter become due payable respect tax return provided however respect pre closing taxable period company shall liable tax company group amount equal tax computed company group company group file separate tax return suc h period whether tax shown due payable tax return filed caused filed parent pursuant section hereof subject provision agreement thereafter become due payable respect tax return company tax payment company tax shall calculated made ac cordance term prior tax sharing agreement company party agreement ie company company defined agreement b company except extent specifically provided section provision agreement company shall pay cause paid tax shown due payable tax return filed caused filed company pursuant sectio n b hereof tax shall thereafter become due payable respect tax return c information tax return party required file information tax return purs uant article iii shall pay related fee charge including fee charge shall thereafter become due payable respect information tax return shall indemnify hold party harmless agai nst related interest penalty well fee charge assessed party result failure party responsible failure file information return timely accurate manner straddle period purpose agreement income tax shown tax return straddle period shall allocated pre post closing straddle period basis actual taxable income f period determined interim closing book company close closing date allocation method party may agree writing company shall pay parent within ten day receipt executed income tax return excess amount allocated based upon amount tax shown tax return pre closing straddle period amount estimated inco tax previously paid company company group prior closing date parent shall pay company within ten day filing income tax return excess amount estimated income tax previously paid th e company company group prior closing date amount allocated period refund parent parent shall entitled refund tax compa ny member company group preclosing taxable period pre closing straddle period connection therewith company shall provide parent irrevocable power page attorney respect endorsement refund parent shall accordance term prior tax sharing agreement pay company refund respect pre closing taxable period company would entitled su ch prior tax sharing agreement assuming company party agreement amount refund straddle period shall allocated pre closing straddle period post closing straddle period using principle described section agreement b company company shall entitled refund tax company company group post closing taxable period post closing straddle period amount refund straddle period shall allocated preclosing straddle period post closing straddle period using principle described section agreement c transmittal refund recipient entitled parent receives tax refund whic h company member company group entitled pursuant agreement parent shall pay amount refund including interest received thereon company within ten day receipt thereof conversely comp member company group receives tax refund parent entitled pursuant agreement company member company group case may shall pay amount refund including interest received hereon parent within ten day receipt thereof amendment tax return parent shall entitled amend tax return filed parent pursuant section hereof company member company group shall entitled amend tax return taxable period filed pursuant section b hereof provided however amended tax return filed pursuant section shall subject provisio n section c hereof carrybacks without prior written consent parent may granted withheld parent discretion neither company member company group shall carry back net operating loss item attribute post closing taxable period pre closing taxable period company agrees reimburse parent reasonable admini strative cost connected therewith including limited reasonable cost time spent preparing carryback tax return provision filing information company parent case may shall cooperate assist parent company preparation filing tax return information return subject section submit parent company necessary filing information manner consistent past tax pra ctices event later sixty day closing date ii information reasonably requested parent company connection preparation tax return information return promptly req uest expressly understood agreed parent company ability discharge tax return information return preparation filing responsibility contingent upon company parent providing parent company wi th cooperation assistance information reasonably necessary requested filing tax return information return company parent shall indemnify parent company parent company indemnifica tion obligation article iv shall page apply extent tax increased result material inaccuracy information failure timely provide material information assistance reasonable notice written request therefor article iv indemnification parent tax subject section parent shall indemnify hold company member company group harmless income tax wh f group member thereof company member company group pre closing taxable period pre closing straddle period extent payment required parent pursuant section agreement b member liability parent shall indemnify hold company member company group harmless every liability tax whf group tax attributable company member company group treasury regulation section similar law rule regulation administered taxing authority company b member liability company shall indemnify hold parent member whf group harmless every liability tax company group treasury regulation section similar law rule regulation administered taxing authority indemnification procedure parent company case may shall notify company parent tax paid whf group member thereof company group member thereof subject indemnification article iv extent otherwise provided article iv notification contemplated article iv shall include detailed calculation including applicable separate allocation tax pre post closing taxable period supporting work paper brief explanation basis indemnification hereunder whenever tification described article iv given notified party shall pay amount requested notice notifying party accordance article v extent notified party agrees request extent notified party disagrees request shall within twenty day notify notifying party whereupon party shall use best page effort resolve disagreement party unable resolve disagreement shall resolved accordance article v extent otherwise provided article iv article v payment made day period shall include interest overdue rate beginning receipt date based upon original notice given notifying party article v method timing character payment required ag reement dispute payment immediately available fund payment made pursuant agreement shall made immediately available fund except otherwise provided herein payment made due hereunder shall thereafter bear interest overdue rate beginning receipt date absence specified date payment shall due day later date notifying party actually incurs outofpocket cost spect notice relates ii receipt date dispute event company parent agree calculation required provision agreement calculation shall made de loitte touche llp firm refuse serve nationally recognized independent public accounting firm acceptable company parent decision firm shall final binding fee expense incurred connection calculation shall shared equally parent company article vi cooperation document retention confidentiality provision cooperation document information upon request party agreement parent company shall provide shall cause affiliate provide requesting party promptly upon request cooperatio n assistance document information without charge may reasonably requested party connection preparation filing original amended tax return ii conduct audit examination judicial administrative proceeding involving extent tax tax return information return within scope agreement iii verification party amount payable hereunder receivable hereunder another pa rty cooperation assistance shall include without limitation provision demand book record tax return documentation information relating relevant tax return information return b execution doc ument may necessary reasonably helpful connection filing tax return information return whf group company member whf group company group connection audit proceeding suit ction type generally referred preceding sentence including without limiting foregoing execution irrevocable power attorney closing date respect tax return parent may obligated file pursuant section c prompt timely filing appropriate claim refund use reasonable best effort obtain documentation page governmental authority third party may necessary helpful connection foregoing party shall make employee facility available mutually convenient basis facilitate cooperation notwithstanding foregoing nothing herein shall entitle company information concerning parent business operation owned company member company group retention book record parent member whf group company member company group shall retain cause retained tax return information return related pre closing taxable period straddle period case parent whf gro post closing taxable period includes closing date book record schedule workpapers document relating thereto expiration later applicable statute limitation including waiver extension thereof ii retention period required law pursuant record retention agreement party least thirty day prior thereto provide written notice intended destruction document referred preceding sentence party giving notification dispose foregoing material without first offering transfer possession thereof notified party provided however nothing herein shall entitle company information concerning parent business operation owned company member company group status information regarding audit litigati parent shall use reasonable best effort keep company advised company shall use reasonable best effort keep parent advised status tax audit litigation involving issue relating tax tax return infor mation return tax benefit subject indemnification hereunder extent relating issue parent shall promptly furnish company company shall promptly furnish parent copy inquiry request information fr om taxing authority administrative judicial governmental authority well copy relevant portion revenue agent report similar report notice proposed adjustment notice deficiency failure f company parent provide parent company copy inquiry request report notice prior requested reply date shall shift responsibility company parent interest andor penalty resu lt directly failure provide timely reply company parent confidentiality document information except required law prior written consent shall unreasonably withheld parent case tax return information return relating parent member whf group separate income tax return company member company group ii company case tax turn information return relating company member company group tax return information return document schedule work paper similar item information contained therein tax return information return material within scope agreement shall kept confidential party hereto representative shall disclosed person e ntity shall used purpose provided herein page article vii contest audit tification audit dispute upon receipt parent member whf group company member company group case may notice pending threatened tax audit inquiry assessment may affect liability tax subject indemnification hereunder parent company shall promptly notify writing receipt notice failure company parent provide parent company copy uch notice prior requested reply date shall shift responsibility interest andor penalty resulting directly failure provide timely reply company parent furthermore without consent party company member company group parent member whf group responds notice pending threatened tax audit inquiry assessment manner would materially adversely affect liability tax interest andor penalty thereon subject indemnification hereunder party responsibility addition tax liability including interest andor penalty hereon resulting response shall shift company parent control settlement parent parent shall right control represent int erests affected taxpayer tax audit administrative judicial proceeding relating whole part pre closing taxable period tax taxable period parent responsible article iv employ counsel choice expense provided however respect issue may materially adversely affect company member company group straddle period post closing taxable period parent shal l advise company existence status proceeding ii afford company full opportunity review submission related issue company expense iii allow company employ counsel choice expense iv good faith cooperate consult company regarding comment respect submission effort resolve difference respect parent position regard issue v good fa ith consider company recommendation alternative position respect issue event disagreement regarding proceeding parent shall ultimate control contest settlement resolution ther eof b company company shall right control represent interest affected taxpayer tax audit administrative judicial proceeding relating whole part straddle period post closing taxable period tax taxable period company responsible article iv employ counsel choice expense provided however respect issue may materially adversely affect company member company group preclosing taxable period company shall advise parent existence status proceeding ii afford parent full opportunity review submission related issue parent expense iii allow parent employ counsel choice expense iv good fai th cooperate consult parent regarding comment page respect submission effort resolve difference respect company position regard issu e v good faith consider parent recommendation alternative position respect issue event disagreement regarding proceeding company shall ultimate control contest settlement resolution thereof delivery power attorney company shall execute deliver parent promptly upon reasonable request power attorney authorizing parent extend statute limitation receive refund negotiate audit settlement subject company right section take action parent reasonably considers appropriate exercising control right pursuant section article viii termination liability except liability attributable item contested parent company pursuant article vii notwithstanding ot provision agreement liability parent company agreement terminate tenth th anniversary closing date article ix general provi sion notice notice request demand communication required may given agreement shall writing shall deemed duly given received personally delivered transmitted transmitted telecopy electronic digital transmission method day sent sent next day delivery domestic address recognized overnight delivery service eg federal express upon receipt ent certified registered mail return receipt requested case notice shall sent parent co weider health fitness erwin street woodland hill ca company weider nutrition international inc south west salt lake city utah attention chief financial officer place copy party may designate written notice others benefit agreement shall inure benefit bind ing upon party hereto respective successor assigns page guarantee performance parent company shall cause complete prompt performance respective affiliate obligation undertaking pursuant agreement amendment party may amend agreement whole part time time time instrument writing signed authorized representative party caption article section sub section heading caption provided purpose reference convenience shall relied way construe define modify limit extend scope provision agreement choice law agreem ent shall construed interpreted right party determined accordance law state california without reference choice law provision thereof except respect matter law concerning internal c orporate affair corporate entity party subject agreement matter law jurisdiction respective entity derives power shall govern meaning ever appropriate singular used agreement shall include plural vice versa masculine gender shall include feminine neuter gender vice versa neuter gender shall include masculine feminine gender vice versa counterpart agreement may executed one counterpart shall deemed original together shall constitute one instrument invalidity event one provision contained agreement shall reason held invalid illegal unenforceable respect maximum extent permitted law invalidity illegality unenforceability shall affect provision agreement instrument page witness whereof agreement duly executed day year first written weider health fitness nevada corporation name subsidiary weider health fitness weider nutrition international inc delaware corporation name subsidiary weider health fitness business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
   </si>
   <si>
-    <t>onecle hom e sample business contract weider nutrition international inc contract printer friendly sample business contract income tax sharing agreement weider nutrition international inc weider health fitness popular free form loan agreement general contract service promissory note employment agreement noncompete agreement sponsored link income tax sharing agreement income tax sharing agreement agreement made march among weider nutrition international inc delaware corporation subsidiary listed signature page hereof collectively company weider health fitness nevada corporation subsidiary listed signature page hereof collectively parent recital whereas parent common parent affiliated group corporation whf group term used section internal revenue code amended code parent member whf group term used section treasury regulation promulgated thereunder regulation whereas company subsidiary parent member whf group within meaning section regulation whereas whf group includes certain member affiliated parent within meaning section code whereas parent whf group previously filed consolidated federal income tax return accordance section code whf group required file consolidated federal income tax return current future taxable year whereas company intends sell percentage issued outstanding share company common stock person member whf group pursuant public offering offering company longer member whf group whereas company owns directly indirectly stock corporation would subsidiary company member affiliated group corporation company group company would common parent status corporation common parent determined disregarding ownership stock corporation higher tier parent corporation parent cause corporation member affiliated group common parent whereas upon closing closing offering closing date closing date company member company group longer member whf group whereas company parent desire comply provision code applicable state statute company parent remain penalty proof every taxing authority whereas company subsidiary parent subsidiary desire set forth agreement relation liability tax including interest penalty thereon page company may owed asserted federal state local foreign taxing authority therefore consideration foregoing mutual promise covenant condition hereinafter contained party hereto agree follows agreement article definition used agreement following term shall following meaning affiliate respect corporation given corporation person corporation partnership entity directly indirectly one intermediary control controlled common control given corporation purpose definition control mean possession directly indirectly voting power value outstanding voting interest affiliated group affiliated group corporation within meaning code section taxable period purpose state local foreign income tax matter consolidated combined unitary group corporation within meaning corresponding provision tax law state jurisdiction question closing completion public offering closing date date closing occurs code internal revenue code amended successor thereto effect taxable period question combined income tax return consolidated combined unitary similar state local foreign income tax return company member company group may included company defined preamble agreement company group defined recital agreement income tax tax based upon measured whole part net income regardless whether denominated income tax franchise tax otherwise including tax imposed alternative base one net income imposed taxing authority together interest penalty addition thereto income tax return tax return relating required filed connection payment refund income tax page information return report return declaration filing tax return required furnished taxing authority tax tax income tax together interest penalty addition thereto tax return tax return relating required filed connection payment refund tax overdue rate rate specified code section successor provision underpayment tax party entity identified heading signature page hereof postclosing straddle period respect straddle period period beginning day closing date ending last day taxable year postclosing taxable period taxable year begin close closing date addition solely respect whf group whole respect company member company group term shall also include taxable year whf group includes closing date end close closing date preclosing straddle period respect straddle period period beginning first day taxable year ending close closing date preclosing taxable period taxable year end close closing date prior tax sharing agreement tax sharing agreement made entered st day june weider nutrition group inc behalf wholly owned controlled subsidiary parent receipt date respect notification given party agreement date party deemed received notification pursuant section hereof representative respect person entity person entity director officer employee agent consultant accountant attorney advisor separate income tax return state local foreign income tax return company member company group combined income tax return straddle period taxable period company member company group begin end close closing date tax domestic foreign net income gross income gross receipt sale use excise franchise transfer payroll employment stamp gain capital premium property page windfall profit tax alternative add minimum tax value added tax fee assessment together interest penalty addition tax additional amount imposed taxing authority whether tax imposed directly withholding tax benefit case income tax consolidated federal income tax return combined income tax return filed amount tax liability affiliated group relevant group corporation member affiliated group reduced deduction entitlement refund credit offset otherwise whether available current taxable year adjustment taxable income taxable year carryforward carryback including effect income tax reduction plus interest received respect related tax refund b saved application credit offset deduction ii case income tax separate income tax return filed tax amount tax liability corporation reduced deduction entitlement refund credit offset otherwise whether available current taxable year adjustment taxable income taxable year carryforward carryback including effect income tax reduction plus interest received respect related tax refund tax practice recently applied policy procedure practice employed whf group preparation filing position taken tax return company member company group pre closing taxable period including without limitation policy procedure practice specified prior tax sharing agreement tax return return report estimate information statement declaration filing relating required filed connection payment refund tax required applicable law taxable period one pre postclosing taxable period pre postclosing straddle period taxable year one taxable year may shorter full calendar fiscal year year assessment period respect tax may imposed tax return required filed taxing authority internal revenue service domestic foreign governmental authority responsible administration imposition collection tax whf group defined recital agreement article ii termination prior tax sharing agreement except extent provided herein prior tax sharing agreement shall closing terminated superseded agreement page article iii preparation tax return payment tax preparation filing tax return parent extent filed prior close closing date parent shall prepare timely file cause prepared timely filed federal income tax return combined income tax return whf group including company member company group pre closing taxable period separate income tax return company member company group pre closing taxable period ii federal state local foreign tax return information return whf group excluding company member company group taxable year beginning closing post closing taxable period b company except provided section company shall prepare timely file cause prepared timely filed federal state local foreign income tax return company member company group straddle period post closing taxable period ii tax return information return company member company group c review tax return least thirty day prior filing straddle period tax return including amendment thereto article iii applies company shall provide parent portion tax return draft form related company member company group tax return shall prepared manner consistent past tax practice except otherwise required law parent case may company shall voluntarily accelerate defer shift deduction similar item pre closing taxable period ii defer accelerate shift income similar item post closing taxable period original amended portion tax return relate company member company group otherwise voluntarily change reporting item unless otherwise required law provided however prohibition shall extend correction mathematical error adjustment necessary conform tax return past tax practice preparing party shall solicit party comment respect portion tax return shall good faith consult party effort resolve difference respect preparation accuracy tax return consistency past tax practice b consider party recommendation alternative position respect item reflected portion tax return page payment tax parent except extent provided herein parent shall pay cause paid tax shown due payable tax return filed caused filed parent pursuant section hereof subject provision agreement tax shall thereafter become due payable respect tax return provided however respect pre closing taxable period company shall liable tax company group amount equal tax computed company group company group file separate tax return period whether tax shown due payable tax return filed caused filed parent pursuant section hereof subject provision agreement thereafter become due payable respect tax return company tax payment company tax shall calculated made accordance term prior tax sharing agreement company party agreement ie company company defined agreement b company except extent specifically provided section provision agreement company shall pay cause paid tax shown due payable tax return filed caused filed company pursuant section b hereof tax shall thereafter become due payable respect tax return c information tax return party required file information tax return pursuant article iii shall pay related fee charge including fee charge shall thereafter become due payable respect information tax return shall indemnify hold party harmless related interest penalty well fee charge assessed party result failure party responsible failure file information return timely accurate manner straddle period purpose agreement income tax shown tax return straddle period shall allocated pre post closing straddle period basis actual taxable income period determined interim closing book company close closing date allocation method party may agree writing company shall pay parent within ten day receipt executed income tax return excess amount allocated based upon amount tax shown tax return pre closing straddle period amount estimated income tax previously paid company company group prior closing date parent shall pay company within ten day filing income tax return excess amount estimated income tax previously paid company company group prior closing date amount allocated period refund parent parent shall entitled refund tax company member company group preclosing taxable period pre closing straddle period connection therewith company shall provide parent irrevocable power page attorney respect endorsement refund parent shall accordance term prior tax sharing agreement pay company refund respect pre closing taxable period company would entitled prior tax sharing agreement assuming company party agreement amount refund straddle period shall allocated pre closing straddle period post closing straddle period using principle described section agreement b company company shall entitled refund tax company company group post closing taxable period post closing straddle period amount refund straddle period shall allocated preclosing straddle period post closing straddle period using principle described section agreement c transmittal refund recipient entitled parent receives tax refund company member company group entitled pursuant agreement parent shall pay amount refund including interest received thereon company within ten day receipt thereof conversely company member company group receives tax refund parent entitled pursuant agreement company member company group case may shall pay amount refund including interest received thereon parent within ten day receipt thereof amendment tax return parent shall entitled amend tax return filed parent pursuant section hereof company member company group shall entitled amend tax return taxable period filed pursuant section b hereof provided however amended tax return filed pursuant section shall subject provision section c hereof carrybacks without prior written consent parent may granted withheld parent discretion neither company member company group shall carry back net operating loss item attribute post closing taxable period pre closing taxable period company agrees reimburse parent reasonable administrative cost connected therewith including limited reasonable cost time spent preparing carryback tax return provision filing information company parent case may shall cooperate assist parent company preparation filing tax return information return subject section submit parent company necessary filing information manner consistent past tax practice event later sixty day closing date ii information reasonably requested parent company connection preparation tax return information return promptly request expressly understood agreed parent company ability discharge tax return information return preparation filing responsibility contingent upon company parent providing parent company cooperation assistance information reasonably necessary requested filing tax return information return company parent shall indemnify parent company parent company indemnification obligation article iv shall page apply extent tax increased result material inaccuracy information failure timely provide material information assistance reasonable notice written request therefor article iv indemnification parent tax subject section parent shall indemnify hold company member company group harmless income tax whf group member thereof company member company group pre closing taxable period pre closing straddle period extent payment required parent pursuant section agreement b member liability parent shall indemnify hold company member company group harmless every liability tax whf group tax attributable company member company group treasury regulation section similar law rule regulation administered taxing authority company b member liability company shall indemnify hold parent member whf group harmless every liability tax company group treasury regulation section similar law rule regulation administered taxing authority indemnification procedure parent company case may shall notify company parent tax paid whf group member thereof company group member thereof subject indemnification article iv extent otherwise provided article iv notification contemplated article iv shall include detailed calculation including applicable separate allocation tax pre post closing taxable period supporting work paper brief explanation basis indemnification hereunder whenever notification described article iv given notified party shall pay amount requested notice notifying party accordance article v extent notified party agrees request extent notified party disagrees request shall within twenty day notify notifying party whereupon party shall use best page effort resolve disagreement party unable resolve disagreement shall resolved accordance article v extent otherwise provided article iv article v payment made day period shall include interest overdue rate beginning receipt date based upon original notice given notifying party article v method timing character payment required agreement dispute payment immediately available fund payment made pursuant agreement shall made immediately available fund except otherwise provided herein payment made due hereunder shall thereafter bear interest overdue rate beginning receipt date absence specified date payment shall due day later date notifying party actually incurs outofpocket cost respect notice relates ii receipt date dispute event company parent agree calculation required provision agreement calculation shall made deloitte touche llp firm refuse serve nationally recognized independent public accounting firm acceptable company parent decision firm shall final binding fee expense incurred connection calculation shall shared equally parent company article vi cooperation document retention confidentiality provision cooperation document information upon request party agreement parent company shall provide shall cause affiliate provide requesting party promptly upon request cooperation assistance document information without charge may reasonably requested party connection preparation filing original amended tax return ii conduct audit examination judicial administrative proceeding involving extent tax tax return information return within scope agreement iii verification party amount payable hereunder receivable hereunder another party cooperation assistance shall include without limitation provision demand book record tax return documentation information relating relevant tax return information return b execution document may necessary reasonably helpful connection filing tax return information return whf group company member whf group company group connection audit proceeding suit action type generally referred preceding sentence including without limiting foregoing execution irrevocable power attorney closing date respect tax return parent may obligated file pursuant section c prompt timely filing appropriate claim refund use reasonable best effort obtain documentation page governmental authority third party may necessary helpful connection foregoing party shall make employee facility available mutually convenient basis facilitate cooperation notwithstanding foregoing nothing herein shall entitle company information concerning parent business operation owned company member company group retention book record parent member whf group company member company group shall retain cause retained tax return information return related pre closing taxable period straddle period case parent whf group post closing taxable period includes closing date book record schedule workpapers document relating thereto expiration later applicable statute limitation including waiver extension thereof ii retention period required law pursuant record retention agreement party least thirty day prior thereto provide written notice intended destruction document referred preceding sentence party giving notification dispose foregoing material without first offering transfer possession thereof notified party provided however nothing herein shall entitle company information concerning parent business operation owned company member company group status information regarding audit litigation parent shall use reasonable best effort keep company advised company shall use reasonable best effort keep parent advised status tax audit litigation involving issue relating tax tax return information return tax benefit subject indemnification hereunder extent relating issue parent shall promptly furnish company company shall promptly furnish parent copy inquiry request information taxing authority administrative judicial governmental authority well copy relevant portion revenue agent report similar report notice proposed adjustment notice deficiency failure company parent provide parent company copy inquiry request report notice prior requested reply date shall shift responsibility company parent interest andor penalty result directly failure provide timely reply company parent confidentiality document information except required law prior written consent shall unreasonably withheld parent case tax return information return relating parent member whf group separate income tax return company member company group ii company case tax return information return relating company member company group tax return information return document schedule work paper similar item information contained therein tax return information return material within scope agreement shall kept confidential party hereto representative shall disclosed person entity shall used purpose provided herein page article vii contest audit notification audit dispute upon receipt parent member whf group company member company group case may notice pending threatened tax audit inquiry assessment may affect liability tax subject indemnification hereunder parent company shall promptly notify writing receipt notice failure company parent provide parent company copy notice prior requested reply date shall shift responsibility interest andor penalty resulting directly failure provide timely reply company parent furthermore without consent party company member company group parent member whf group responds notice pending threatened tax audit inquiry assessment manner would materially adversely affect liability tax interest andor penalty thereon subject indemnification hereunder party responsibility addition tax liability including interest andor penalty thereon resulting response shall shift company parent control settlement parent parent shall right control represent interest affected taxpayer tax audit administrative judicial proceeding relating whole part pre closing taxable period tax taxable period parent responsible article iv employ counsel choice expense provided however respect issue may materially adversely affect company member company group straddle period post closing taxable period parent shall advise company existence status proceeding ii afford company full opportunity review submission related issue company expense iii allow company employ counsel choice expense iv good faith cooperate consult company regarding comment respect submission effort resolve difference respect parent position regard issue v good faith consider company recommendation alternative position respect issue event disagreement regarding proceeding parent shall ultimate control contest settlement resolution thereof b company company shall right control represent interest affected taxpayer tax audit administrative judicial proceeding relating whole part straddle period post closing taxable period tax taxable period company responsible article iv employ counsel choice expense provided however respect issue may materially adversely affect company member company group preclosing taxable period company shall advise parent existence status proceeding ii afford parent full opportunity review submission related issue parent expense iii allow parent employ counsel choice expense iv good faith cooperate consult parent regarding comment page respect submission effort resolve difference respect company position regard issue v good faith consider parent recommendation alternative position respect issue event disagreement regarding proceeding company shall ultimate control contest settlement resolution thereof delivery power attorney company shall execute deliver parent promptly upon reasonable request power attorney authorizing parent extend statute limitation receive refund negotiate audit settlement subject company right section take action parent reasonably considers appropriate exercising control right pursuant section article viii termination liability except liability attributable item contested parent company pursuant article vii notwithstanding provision agreement liability parent company agreement terminate tenth th anniversary closing date article ix general provision notice notice request demand communication required may given agreement shall writing shall deemed duly given received personally delivered transmitted transmitted telecopy electronic digital transmission method day sent sent next day delivery domestic address recognized overnight delivery service eg federal express upon receipt sent certified registered mail return receipt requested case notice shall sent parent co weider health fitness erwin street woodland hill ca company weider nutrition international inc south west salt lake city utah attention chief financial officer place copy party may designate written notice others benefit agreement shall inure benefit binding upon party hereto respective successor assigns page guarantee performance parent company shall cause complete prompt performance respective affiliate obligation undertaking pursuant agreement amendment party may amend agreement whole part time time time instrument writing signed authorized representative party caption article section sub section heading caption provided purpose reference convenience shall relied way construe define modify limit extend scope provision agreement choice law agreement shall construed interpreted right party determined accordance law state california without reference choice law provision thereof except respect matter law concerning internal corporate affair corporate entity party subject agreement matter law jurisdiction respective entity derives power shall govern meaning whenever appropriate singular used agreement shall include plural vice versa masculine gender shall include feminine neuter gender vice versa neuter gender shall include masculine feminine gender vice versa counterpart agreement may executed one counterpart shall deemed original together shall constitute one instrument invalidity event one provision contained agreement shall reason held invalid illegal unenforceable respect maximum extent permitted law invalidity illegality unenforceability shall affect provision agreement instrument page witness whereof agreement duly executed day year first written weider health fitness nevada corporation name subsidiary weider health fitness weider nutrition international inc delaware corporation name subsidiary weider health fitness business contract asset purchase business separation collaboration construction consulting distribution employment franchise indemnification joint venture lease license llc loan management manufacturingsupply merger noncompetition offer letter partnership promissory note sale service severance shareholder stock purchase consumer form divorce dmv durable power attorney employment government identity theft landlord tenant living mechanic lien medical probate worker compensation contract blog view type view industry view company copyright onecle inc claim contract derived security filing term service privacy policy</t>
-  </si>
-  <si>
     <t>valuation report business valuation trend strategy spring one several valuation adjustment discount lack marketability dlom often one largest impact deter mination value reason one frequently contested issue valuation litigation interestingly dlom cen tral number recent dissent ing shareholder case new york court ruled fair value dissenting shareholder interest fair value typically defined price willing purchaser arm length transaction would pay company operating business dlom deducted value ownership interest company reflect owner inability sell market interest convert cash quickly would possible interest publicly held ruling case address whether dlom required even applicable applicable value discount applied dlom required zelouf international corp v zelouf father died three zelouf son inherited successful litigation update dlom issue recent valuation case valuation case dlomchallenging projection dcftextile business joseph received percent rony emil received percent joseph son danny received percent joseph died suddenly leaving danny percent ownership danny made president appointed rony vice president emil became incapacitated wife nahal inherited share danny rony looted com pany dramatically increasing salary taking interestfree loan company leasing fleet luxury car personal use among contemptible deed eventually nahal filed shareholder derivative lawsuit danny rony waste misappropriation instead settling nahal danny rony pursued freezeout merger would leave nahal unable pursue derivative claim nahal rejected buyout offer company neutral appraiser brought estimate fair value nahals share nahals expert maintained dlom applicable calculating fair value company expert contended new york law required dlom court determined nahals expert correct case rejected claim new york law mandated dlom source business valuation update dlom even applicable ferolito v arizona beverage usa llc arizona iced tea founded equal partner john ferolito use caution rule thumbcontinued page valuation report spring technical topic importance challenging projection dcf depending purpose nature valuation analyst many option choose term valuation approach methodology used discounted cash flow dcf method part income approach used determine current value company using future cash flow projection discounted reflect present value academic point view dcf make sense meant quantify expected future value investment current dollar dcf relies future cash flow projection methodology begs question perhaps biggest prepared projection projection valid realistic reliable problem assump ons dcf good input work well high degree certainty confidence future cash flow dcf problematic miscalculation estimating cash flow growth discount rate potentially difficult endeavor based many assumption result significant error valuation therefore rule valuation analyst assume managementsupplied projection accurate management projection might completely innocuous reason example might prepared staffer little experience might strategic reason perhaps prepared agenda mind example inflate deflate value company maybe math wrong projection reflective reality company circumstance countless court case illuminated valuation problem caused one party relying heavily managementsupplied projection example adelphia recovery trust v fpl group court ruled management projection would meaningless company management trustworthy projection would based fraudulent information would therefore unreliable another case global techno vations inc court ruled sale forecast used projection bore rational relationship target historical result resulting dcf analysis unreasonable unreliabledigging financial statement reason imperative projection carefully vetted valuation analyst ensure dcfbased valuation credible valuation analyst must examine line income statement balance sheet determine projection derived whether supporting assumption correct defensible number look like next five year revenue estimate wage capital improvement debt structure change working capital input open discussion examination ensure underlying assumption valid issue unusual dcf valuation delivered range value versus single value range would reflect optimistic likely pessimistic scenario based various assumption dcf work beautifully many type valuation order dcfbased valuation result credible imperative vet management projection question dcf prepare projection upcoming valuation please contact u spring valuation reportlitigation update dlom valuation continued page domenick vultaggio ensuing year two falling sake business decided vultaggio would run company agreed restrict party could sell interest ferolito wanted sell stake initially went court requesting sale restriction ruled unenforceable didnt work sued dissolve company vultaggio decided proceed buyout fair value trial ferolitos expert valu ation reflected zero percent dlom company successful attracted interest potential buyer past vultaggios expert weighed percent dlom due transfer restriction lack audited financial statement fierce court battle party company corp status court agreed vultaggios expert dlom appropriate however court lowered percent citing testimony valuation guru shannon pratt smaller discount often appropriate large growing company analyst believe dlom resulted material windfall vultaggio percent dlom resulted ferolito receiving less half value company exchange half company stock source bv wire dlom applicable wright v irish two brothersinlaw wright irish started solar energy company early enjoyed initial success competitive landscape changed company market share dropped precipitously relative argued direc tion business wright filed dissolu tion company irish chose buy wright fair value party hired valuation expert wright expert used percent dlom applied goodwill company rather company overall value irish expert proposed percent dlom applied entire company court rejected irish expert conclusion dismissing report severe deficiency court agreed wright expert point questioned application dlom goodwill court eventually accepted wright expert percent dlom rate found reason limit dlom goodwill ruling disappointed hoping brightline rule regarding applicability dlom shareholder dispute instead reinforced idea whether dlom applies entire company goodwill casebycase decision source bv law key point case identify two key point regarding dloms first new york court ruled dlom required may applicable dissenting shareholder matter second dlom may applicable total company value portion representing goodwill determination made casebycase basis dlom applicable reduction value percent uncommon given dloms material effect value dissenting shareholder interest critical side dissenting shareholder matter get valuation professional involved early case experienced valuation profession al help party develop negotiating litigation strategy providing beneficial insight advice regarding effect dlom could valuation interested finding dlom court case contact valuation team publication distributed understanding author publisher distributor rendering legal acc ounting tax professional advice opinion specific fact matter accordingly assume liability whatsoever connection wit h use information publication intended written used used taxpayer purpose avoiding pe nalties may imposed internal revenue code applicable state local tax law provision ii promoting marketing recommending another party transaction matter addressed publication please recycle newsletter please recycle newsletter spring valuation reportbeware rule thumb everyones heard buzz youre fillintheblank industry business sell fillintheblank number time fillintheblank measure type guideline widely discussed generally accepted there one problem rarely correct rule thumb accepted method valuation quite misleading buyer seller look valuation number problem lie fact ignore basic truth relevant valuation specific circumstance matter every business different term characteristic every deal different relative whats included term sale one company may great growth potential profitability another industry might dying say two business industry share calculation value ignores fact value depends specific circumstance company economic condition count rule thumb apply today recession cant economic condition influence much people willing pay everything food airline ticket business rule thumb ignore economic factor influence pricing world change rule thumb legal regulatory requirement supply demand fluctuation social political upheaval factor influence value world always evolving rule thumb rarely adapt valuation professional ignore rule thumb except sanity check even author book rule thumb warn shouldnt used primary method assessment forget hear friend family rule thumb reliable ignore rule thumb contact firm reliable valuation input</t>
   </si>
   <si>
@@ -316,9 +277,6 @@
     <t>office associate throughout america europe asia pacific africa middle east savills international associate office chartered surveyor regulated rics dmb international wll registered ba hrain cr registered office suite seef star building al seef district kingdom bahrain eskan bank nd september valuation report danaat al madina isa town kingdom bahrain savillsbh office associate throughout america europe asia pacific africa middle east savills international associate office chartered surveyor regulated rics dmb international wll registered ba hrain cr registered office suite seef star building al seef district kingdom bahrain nd september ref dmb eskan bank seef district almoayyed tower po box manama kingdom bahrain attention mr ahmad tayara dear sir valuation report danaat al madina isa town kingdom bahrain wish thank instruction revalue property following report th october pleased provide valuation nd september require valuation october please let u know provide updated certificate record trust attached report meet requirement instruction remain faithfully donald bradley f rics rics registered valuer ceo dmb international wll donald bradley frics e dbradleysavillsqa dl suite seef star building kingdom bahrain international associate savills dmb international wll savills bh report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september content executive summary instruction term reference instruction property statutory legal aspect location overview situation site area description accommodation condi tion highway access service environme ntal consideration flooding planning approval tenure occupational lease current rental income operating expenditure building management market commentary global macro economic factor regional macro factor bahrain general factor real estate market investor consideration investment fund bahrain commercial residential market bahrain residential market office market retail market bahrain hospitality sector valuation advice approach valuation principal valuation consideration opinion market value market volatility confidentiality disclosure signature general assumption condition valuation general assumption condition report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september appendix confirmation instructionsappendix title deed appendix b floor plan ppendix c service charge budget appendix property management agreementappendix e draft report valuation seef star building seef district kingdom bahrain dmb international wll savills international associate th june executive summary report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september executive summary front elevation location plan report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september address danaat al madina isa town kingdom bahrain use retail office area part danaat l madina complex location property situated isa town close isa town mall frontage al quds avenue return frontage muscat avenue mix commercial residential area km central manama description danaat al madina project completed comprises number mid rise building constructed high standard portfolio comprises retail commercial unit developer completed sold apartment upper floor site detail title current use square fee square meter mixed use development mixed use development office development total tenure assumed virtual f reehold without undue encumbrance apart occupational lease tenancy income standard lease term year payment service charge however exception please see rental schedule occupancy retail space approximately occupied leased office area approximately occupied leased current gross rental income bd per annum include service charge recovery current net rental income bd per annum operating cost estimated gross rental value bd per annum include service charge recovery current service charge recovery bd per annum potential service charge recovery bd per annum current operating cost bd per annum apportioned current service charge shortfall bd per annum market value valuation date nd september valuation methodology property considered primarily investment currently part let letting take place market value bd eight million six hundred fifty thousand bahraini dinar purpose valuation valuation prepared regulated purpose defined rics valuation professional standard edition red book understand valuation determine portfolio value reported prospectus prospectus published th e security investment company sico mandated eskan bank bscc establish shariah compliant real estate investment trust reit bahrain financial trust law trust law central bank bahrain cbb rulebook volume collective investment undertaking ciu strength high grade property attractive mix use complex residential unit sold professional management place weakness slow letting progress significant proportion space lease high operating cost service charge shortfall current gross net yield potential gross net yield report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september instruction term reference report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september instruction instruction basis f valuation instructed u provide opinion value following base valuation market value prepared accordance rics royal institution chartered surveyor rics valuation profession al standard january red book general assumption condition valuation carried basis general assumption condition set relevant secti towards rear report date valuation opinion value ar e nd september importance date valuation must stressed property value change relatively short period definition market value market rent undertaking valuati ons adopted rics definition market value market rent detailed valuation standard v red book defines market value mv estimated amount asset liability exchange valuation ate willing buyer willing seller arm length transaction proper marketing party acted knowledgeably prudently without compulsion valuation standard v red book defines market rent mr estimated amount interest real property leased valuation date willing lessor willing lessee appropriate lease term arm length transaction proper marketing partie acted knowledgeably prudently without compulsion purpose valuation valuation prepared regulated purpose defined rics valuation professional standard edition red book understand valuation determine portfolio value reported prospectus prospectus published security investment company sico mandated eskan bank bscc establish shariah compliant real estat e investment trust reit bahrain financial trust law trust law central bank bahrain cbb rulebook volume collective investment undertaking ciu report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september conflict interest aware c onflict interest either property borrower preventing u providing independent valuation property accordance rics red book acting external valuer defined red book valuer detail inspection due diligence enquiry referred undertaken bradley frics valuation also reviewed michael lowes mrics valuer represent dmb international wll savills international associate property inspected th august mr donald bradley frics able inspect area property wish thank management team support weather date inspection dry sunny furth ermore accordance p confirm aforementioned individual sufficient current local nation al international knowledge particular market skill understanding undertake valuation competently extent due diligence enquiry information source extent due diligence enquiry undertaken source information relied upon purpose valuation stated relevant section report valuation carried client request based information supplied u report information provided summarise relevant detail report accept responsibility error omission information documentation provided u consequence may flow error omission liability cap confirmation instruction appendix includes detail liability cap set bahrain dinar rics compliance report prepared accordance royal institution chartered surveyor rics valuation professional standard january rics red book published november effective janu ary particular accordance requirement vps entitled valuation report vpga valuation secured lending appropriate report accordance requirement set verification report contains many assumption general sp ecific nature valuation based upon certain information supplied u others information consider material may provided u matter referred relevant section report report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september recommend satisfy yo urself point either verification individual point judgement relevance particular point context purpose valuation valuati relied upon pending verification process confidentiality responsibility finally accordance recommendation rics would state report provided solely purpo se stated confide ntial use party addressed responsibility accepted third party whole part content party rely upon report r isk neither whole p art report reference may included time future published document circular statement published referred used way without written approval form context appear report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september property statutory legal aspect report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september location overview property located isa town close seef mall isa town al muntaza market traditionally centre retail premise market area predominated l ow mid income housing mainly populated bahrain national also small hospital petrol station number motor related us vicinity isa town km bahrain international airport km king fahad causeway situation property occupies prominent site frontage al quds avenue return frontage muscat avenue lie opposite large shopping centre strategically situated close junction shaikh salman highway al estegal highway major northsouth route kingdom site area combined property area totalling thre e adjoining plo t measure sqm attach copy three title plan ful l within appendix b report showing property boundary immediate vicinity report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september description dan aat al madina complex known heart bahrain strategically located close centre isa town intersection al quds muscat avenue complex total building residential office durra durra pioneering scheme eskan bank involve high standard design construction sale entire residential component unit completed taken owner interest client therefore remains two commercial building remaining commercial space still leased retained long term income producing commercial investment original design carefully combined practical balance commercial element residential building followed courtyard concept attractive landscape garden one two purpose designed office building durrah fully leased single tenant property separate land title could readily placed market sale independent property photograph property taken date inspection provided dana al madina dana dana al madina durrah report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september dana al madina durrah carpark dana al madina durrah danaat al madina gimash dana al madina gimash dana al madina hasbah dana al madina jiwan report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september danaat al madina juman accommodation accommodation property completed relatively recently comprises one prominently located office building showroom use ground floor self contained office building retail unit varying si z also apartment numbe r building sold excluded valuation condition instructed carried site survey property recently completed yet fitted appear adequate condition case opinion value may change highway access highway adjoining property made adequate standard access point created use assumed impairment would prevent full access property service assumed main service connected adequate purpose environmental consideration informal enquiry instructed carried soil test environmental audit understand site previously developed assumed land contamination exist comment made without liability report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september assumption informal enquiry suggested land contamination unlikely valued property basis suffered land contamination past likely become contaminated foreseeable future however subsequently established contaminatio n exists property neighbouring land may wish review valuation advice flooding much bahrain constructed land reclaimed sea low lying may therefore susceptible flooding although unaware specific risk respect subject property planning approval understand property constructed full approval master developer consent obtai ned informed breach tenure valued unrestricted freehold interest property outlined red title plan appendix b assumed restriction plot appears dir ect access surrounding road network inspection title deed appears onerous restrictive covenant affecting site understand apartment form part develo pment sold individual owner stratum title basis remainder building retained reit apartment residential common area excluded valuation assumed transaction properly executed professionally managed occupational lease managing agent cluttons provided initial rental schedule reviewed amended eskan bank attached appendix schedule break letting individual unit building us assume detail fully accurate date schedule also includes lettable area projected rent vacant unit schedule also make provision anticipated service charge reveal continue service char ge deficit provided sample lease agreement also copy summary sheet leasing offer retail unit office lease term either year unit let shell core basi tenant sponsible fit cost granted rent free period extend six month duration addition rent tenant pay service charge either depending agreement also pay municipality tax utility cost report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september current rental income schedule provide extracted pro jected following information current base rental bd additional base rental vacant unit bd curren rental incl service charge bd additio nal rental incl service charge bd retail unit office unit total base rental current base rental income pa pa pa pa total potential base rental pa total potential gross rental incl service charge pa please note base rental stated lease agreement constitute net rental income gross rental income less operating expense operating expenditure currently provided copy danaat al madina operating expense opex includes cost residential apartment sold third party buyer informed operating cost residential transferred separate vehicle th e responsibility reit net operating cost ebrit portion estimated bd therefore assumed responsibility reit building management provided copy property management agreement dated st september owner cluttons llp management property report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september market commentary report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september global macro economic factor major economy u uk remain positive long term currently international capital market state uncertainty consequence brexit decline price oil commodity general uncertainti e global financial market uncertainty beginning reflect challenge facing major economy output begin show downward trend uncertainty caused knock effect across globe regional macro factor oil price decline regional gcc government committed high level spending particularly major infrastructure project particularly true saudi arabia kuwait abu dhabi addition dubai commencing number expansionary project support dubai world expo qatar continuing spending meet obligation host fifa world cup qatar since oil price decline gcc government make rapid adjustment realign budget significant drop available revenue limit exposure drawing long held capital reserve even significant bahrain general factor even government expansion oil production finance budget deficit seen significant much greater imbalance policy diverse market economy combination oil service industry tourism ser ving eastern province saudi produced upbeat tone point fundamental would increasingly exposed nevertheless provision gcc support fund billion provided ten year seen economic strategic demonstration solidarity part fund allocated recommencing failed real estate project overhang skyline villamaar marina west savills bahrain office appointed judicial authority strategy deal project reactivate market necessary tightening central bank regulation lending real estate development sector major constraint new project although domestic demand kept reasonable level activity medium small scale project particularly close existing urban area government long term strategy outlined vision national land use strategy still perceive maj real estate project could entertained land mass bahrain expanded since ambitious large scale reclamation prevailing reality project attracted limited international local investor apart party connected government potential overhang project market increased supply across every sector result real estate price remain close nominal year norm additionally institutional private investment directed th e main global market return secure liquidity higher real estate market investor consideration yield bahrain government debt average around regional bourse mainly dubai kuwait list indirect real estate debt equity asset dar al arkan sukuk tend trade around report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september direct property trading active sale investment grade real estate asset still maturing little distinction classification use revenue profile risk remains imprecise science particularly analysis property return fail accurately recognize true holding cost void collection service charge full cost obsolescence capital replacement reality yield probably analyzed net rate quoted professional true yield investor sentiment towards value local real estate often includes consideration theoretical land price construction cost concept value slowly changing bahrain long term foreign issuer default rating idr idrs downgraded bbb bbb outlook reported stable according fitch bahrain central informatics organisation cio registered real gdp rising per cent year year per cent first quarter moody projected per cent growth overall region face challenging economic environment decreased oil price contributing factor however analyst indicate impact cushioned infrastructure investment gcc development fund also robust liquidity capital safeguard kingdom bank provides flexibility adapt condition medium term actual investment property transaction taken place recent time bahrain indicate level demand pricing yield include sale addax ban k head office seef bmmi reported bd million sale taib bank head office building diplomatic quarter abc bank reported u million sale retail investment unit uae investment house bahrain b ased investment bank august recent transaction occurred august based yield leased asset unleased asset noted largest transaction significantly smaller tha n subject property devaluation led capital value ranging bd bd per gla whilst adjustment transaction size quality location investment consideration would need made deal low valu e market reflection actual market activity based theoretical appraisal regional transaction also influence asset investment market report uae currently deemed insufficiently reliab le provide proper comparison major global market provide reference could amount middle eastern investor placing ad much billion global real estate investment fund significant investor still consider gulf market unique dynamic reality economic fundamental constantly effecting viewpoint widespread interest established core market prime city london new york growing return precise bankable supported legislation proper asset performance management increasing core every participant investment rationale legacy land value remain stubborn undercurrent influence group syndicated developerinvestors featured long time new approved listed real estate product beginning come onto market unit price start low u per unit lot size bd report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september million en range transaction performance fund dictate growth although addressed issue long lease critical influence global market bahrain commercial residential market per figure bahrain economic development board kingdom gradually reducing reliance hydrocarbon sector growing contribution non oil sector recent quarter investment large scale infrastructure project includ ing multi bn bahrain airport expansion expansion government housing scheme forefront trend another major project spotlight bahrain bay u bn waterfront district lo cated kingdom capital manama earlier year development welcomed country first four season hotel followed wyndham grand q star wyndham housed iconic storey mixed use tower also incorporate floor p rime commercial office accommodation ground floor retail bin faqeeh real estate investment company purchased three land parcel new residential complex project named water bay plan three storey residence around lu xury apartment festival retail due complete series new development announcement various location around kingdom well increasing activity within masterplan development faced delay including progress bahrain bay diyar al muharraq dilmunia positively also renewed emphasis resolving situation prominent stalled project including villamar bahrain financial harbour yet another five star hotel developme nt announced quarter key waterfront resort managed anantara brand upon completion first hotel durrat al bahrain project developed bahrain mumtalakat minor hotel g roup retail sector continues gravitate towards neighborhood community centre first bahrain commenced construction much anticipated al mercado janabiya sq gla gross leasable area diversification predicted consistent stream announcement government related large scale social affordable housing scheme around kingdom bahrain residential market although residential rent remained stable across popu lar expatriate area increase demand particularly housing north western area country including sar budaiya jasra many compound achieving full occupancy perhaps predictably decrease level saudi arabian oil related company securing executive staff accommodation however tenant working within non hydrocarbon sector appear covering shortfall point reef island located heart manama providi ng predominantly apartment accommodation report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september continues attract city worker seeking secure waterfront lifestyle ease access cbd entertainment facility average occupancy across reef island rental property region per cent due open late reef island resort provide luxury villa accommodation facility catering short long term market average juffair rental rate seen significant increase across different resident ial class however remains strong demand area supported american naval base housing requirement following success first fontana tower kooheji contractor final stage construction fontana garden w hich reportedly fully sold freehold basis work also started fontana suite also met positive response buyer bahrain bay announced latest project water bay cityscape bin faqeeh real esta te investment company purchased three plot land development mixed use predominantly residential complex bahrain bay first residential offering within master planned project water bay offer three storey r esidences approximately luxury apartment ground floor retail completion expected office market commercial office market yet see level recovery registered sector following econo mic political challenge recent year current need occupier tends geared towards smaller unit sub sq fitted space cost effective turnkey solution flexibility lease term incentive additional parking also sought remains tenant market average rental leading grade development remain stable typically quoted bd per sq remains unclear much impact upcoming property market includin g two new office property soon open bahrain bay adding close sq prime stock q main demand source throughout existing occupier looking consolidate upgrade accommodation still ca larger traditional office shell core condition however limited mainly led government organisation established international firm existing presence kingdom ministry indust ry commerce recentl announced signing agreement bahrain financial harbour lease around sq consolidate operation ministry set occupy space relocation existing office wh ich demonstrates trend amo ngst private public sector taking advantage ample international grade supply affordable rent report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september landlord flexible approach diversify offering meet tenant requirement well providing attractiv e parking solution site facility able gain greater traction achieve favorable occupancy level retail market development retail sector continues pick pace provision neighbourhood shopping centre food beverage solution emerging major trend despite bahrain small country size population community retail development currently operation appear answering need grown popularity development range smaller complex anchored supermarket also offer retail space service convenience store large r development provide fully comprehensive mall experience customer seef mall muharraq also house cin ema report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september deviation established mindset retail purely manama oriented firmly taken hold opened opportunity developer investor latest major announcement come first bahrain commenced construction f much anticipated al mercado janabiya sq gla project due completion serve new janabiya area galleria zinj dadabhai project offering sq gla set completion closely followed mn wadi alsail project riffa courtyard food beverage development also completed seef district reportedly per cent pre let bahrain hospitality sector hospitality sector particularly luxury segment continues see growth influx star star hotel announced currently hotel operating bahrain figure set rise rotana town due complete year along wyndham grand bahrain bay early amongst others marriott residence inn water garden city also expected year emaar hospitality group reportedly build five new hotel kingdom address marassi al bahrain address residence marassi al bahrain vida hotel resort along vida marassi al bahrain vida residence marassi al bahrain association eagle hill five project scheduled completio n time less development focus mid market budget category although holiday inn express hoora example reportedly running average occupancy whereas surge development hospitality ector encouraging kingdom future question mark whether demand able absorb increase stock however information released tourism authority paint positive picture rising visitor number j anuary may bahrain logged total mn visitor reflecting close per cent increase total number tourist recorded period report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september valuation advice report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september approach valuation since valuation commentary number new influence coming place would affect market opinion commercial investment portfolio factor include undoubted slowdown bahrain economy caused reduction global oil price resulting government substantial budget deficit similar macro economic issue also affecting saudi arabia gcc country budget deficit almost every country financed drawing n previous current account urpluses bond sukkuk market additionally bahrain political issue remain influence foreign investment country recent day global financial market thrown turmoil uk brexit decision extremist attack mainland europe attempted coup turkey impending u election global investor focused liquid asset prime core market several real estate investment trust put pressure liquidate holding u dollar gcc currency remained firm escalated comparative term principal valuation consideration several property transaction taken place property market ndicates prime yield compression real estate yield international market last month significant acti vity main core capital city particularly uk europe usa actual investment property transaction taken place recent time bahrain indicate level demand pricing yield include sale addax bank head office seef bmmi reported bd million sale taib bank head office building diplomatic quarter abc bank reported u million sale retail investment unit uae investment house bahrain based investment bank august recent transaction occurred august based yield leased asset unleased asset noted largest transaction significantly smaller subject propert devaluation led capital value rangi ng bd bd per gla bahrain four company listed bahrain bourse give dividend yield long term listing trading pattern level hotel development activity indicates tha investor still see strong potential market prepared commit significant capital sum individual project general economy softened last six month hospitality sector actively promoted mean reinvigorating broader service sector report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september date name dividend yield bahrain national hotel company gulf hotel group bsc bahrain tourism company bahrain carpark company seef property average background market value danaat al madina considered unusual investment proposition significant advantage combined several issue would taken account potential investor include property well designed constructed located property still process initial leasing tenant demand modest retail space leased quoting rental may need moderated secure new letting without abnormally long rent free period office space high calibre relative rental rate market proportion recovery service charge remains challenging management carefully distinguishes service charge commercial space remain obligation organise facility apartment could impact investor interest nevertheless property present opportunity invest high calibre space due course present attractive diverse portfolio including two excellent office building potentially higher investment value relative part investor would reassured retail space leased occurs sale time may extended opinion market value taking factor account place market value freehold interest dannat al madina described herein income producing inve stment building nd september sum bd eight million six hund red fifty thousand bahraini dinar value reflects current gross yield net yield payment operational expense reversionary yield gross yield net yield report valuation danaat al madina isa town kingdom bahrain dmb international wll savills international associate nd september market volatility current political unrest recent fall world oil price introduced instability bahraini property market vpga rics valuation professional standard january relates market uncertainty considered helpful valuer draw attention factor likely create significant instability uncertainty recent fall oil price significant effect bahraini budget income likely directly affe ct property m</t>
   </si>
   <si>
-    <t>fair valuation reporting report guide fair valuation reporting report guide fair valuation reporting report guide northerntrustcom today financial reporting environment put increased attention measurement fair value firm asset liability investment resulted additional financial statement disclosure requirement accounting guidance defines fair value contains principlesbased guidance fair value measurement guidance also requires expanded disclosure three primary area fair value hierarchy breakdown asset liability reported fair value according input used develop measurement lev el reflects measurement based quoted price active market identical asset liability b lev el reflects measurement based observable input c lev el reflects measurement based significant unobservable input b level asset reconciliation providing reconcilia tion beginning ending balance presenting change period due gain loss purchase sale issuance settlement transfer intoout level c discussion valuation technique qualitativ e discussion entity input valuation method used measure fair value including change method period b quantification unobserv able input level assetsfor client portfolio contain significant number holding across wide number asset type examining input holding manually assigning level asset may operationally challenging northern trust fair valuation toolkit provides integrated support including documentation reporting assist preparing required disclosure fair valuation toolkit includes following feature reporting northern trust offer suite report provide preassigned suggested fair value level asset pricing ven dors underlying pricing methodology detail well asset transferred andor level category level determination detail report level determination summary report transfer level detail report transfer level summary report unchanged price report northern trust newest report provide transparency pricing security within portfolio override capability client subscribe fair valuationlevel determination report capability override level specific asset within portfolio instance client fair value intr oduction fair valuation reporting report guide topic addressed financial accounting standard board fasb accounting standard codification asc topic fair value measurement international financial reporting standard ifrs f inancial instrument disclosure ifrs fair value measurement northerntrustcom fair valuation reporting report guide policy yield different leveling decision northern trust suggested level valuation level client override suggested fair value hierarchy level asset specific valuation period overridden level stored period period b asset level client override stored period period asset client decides change level additional information level override function initiate please reference fair valuation toolkit level override guide supporting document northern trust offer following material maintained updated twice year supplement fair valuation reporting document available part level determination report assist client fair value level hierarchy table pricing guideline preferred source us pricing service multiple vendor price asset whenever possible obtain best available price price selected based established hierarchy thorough price scrubbing process pricing guideline hierarchy information available client auditor upon request level designation matrix provides summary preassigned suggested level organized asset class derived information fact sheet fact sheet provides summary vendor input type asset price indication whether input deemed observable unobservable resulting assessment whether asset could considered level level r oll f orward roll forward report second tier northern trust fair valuation reporting premium product suite template provide efficient manner collect information required level asset across client portfolio date range specified generating report template capture beginning ending market value level asset realized change unrealized gainloss purchase sale issuance settlement transfer intoout level category client wit h high volume level asset looking fully automated solution purchasing access level roll forward report northern trust offer convenience isolating displaying transaction associated level security assist fair valuation reporting report guide northerntrustcom level reconciliation level roll forward reporting level roll forward detail report level roll forward summary report please note northern trust also created level roll forward report categorize asset major category based nature risk security well following new categorization hierarchy based expanded category identification sector electing sort equity sector provision current period change unrealized gainloss position still held reporting date current period realized gainloss based reset book value applicable er isa qualified trust receive northern trust supplemental reporting please te accounting guidance explicitly prescribe reporting treatment transfer level order assist client would like report transfer northern given client choice reflect transfer level beginning end reporting periodnorthern trust level roll forward report allow client decide different election option come running level roll forward report based version level roll forward used client choose four election please note election deemed acceptable accounting perspective although election available use may eventually removed northern trust system election transfer inout level beginning period transfer level beginning period transaction associated security reflected roll forward reconciliation schedule ii transfer level beginning period none transaction associated security reflected roll forward reconciliation schedule b election transfer inout level end period transfer level end period none transaction associated secu rity reflected roll forward reconciliation schedule ii transfer level end period transaction associated security reflected roll forward reconciliation scheduleintr oduction continued northerntrustcom fair valuation reporting report guide c election transfer beginning period transfer end period transfer level beginning period transaction associated security reflected roll forward reconciliation schedule ii transfer level end period transaction associated security reflected roll forward reconciliation scheduled election transfer end period transfer beginning period available bidask reporting transfer level end period none transaction associated security reflected roll forward reconciliation schedule ii transfer level beginning period transaction associated security reflected roll forward reconciliation schedule content level deter mination report level determination detail level determination summary level determination detail ii level determination summary ii transfer bet ween level detail transfer bet ween level summary unc hanged price report detail unc hanged price report summary level r oll f orward report level roll forward detail level roll forward summary level roll forward detail ii level roll forward detail ii wo revalued cost level roll forward summary ii note bidask version report noted asterisk use market value based bidask pricing methodology fair valuation reporting report guide northerntrustcom northerntrustcom fair valuation reporting report guide content appendi x sample bidask report appendi x level roll forward detail excel column header description appendi x sample documentation whic h avail able within fair valuation toolkits level determ inat ion deta il fair valuation reporting report guide northerntrustcomthis schedule detail holding value reporting date report includes security level pricing information suggested fair value level denotes super category investment type b denotes subcategory investment type c denotes country risk followed pricing currency symbol denotes description asset id share par value holdinge denotes exchange rate local mar ket price used value holding f primary exchange represents primary exchange security trade however indicate reported price obtained exchange g denotes market value local base holding report datee h price source represents provider supplied reported price provider type reflects classification vendor provided reported price j price type represents character price reflected report k northern trust suggested level reflects northern trust suggested level asset asset level designated suggested level overridden client directed level l price date represents date reported price appliesnorthern ust generated northern trust periodic data aug xx ba b cdg e f h jk l note level determination detail bidask report level determination detail report except market value reflected based bid ask price available northerntrustcom fair valuation reporting report guide level determ inat ion ummary report provides total market value client holding level sorted asset type denotes super category investment type b denotes subcategory investment type c denotes country risk followed pricing currency symbold denotes total market value base holding based country risk super category subcategory e denotes market value level holding based quoted price active market identical asset liability f denotes market value level holding based observable inputsg denotes market value level holding based significant unobservable input h denotes market value holding undetermined level based unknown input determined leveling northern ust generated northern trust periodic data apr xx ba b cd g e f h note level determination summary bidask report level determination summary report except market value reflected based bid ask price available level determ inat ion deta il ii fair valuation reporting report guide northerntrustcomthis report feature level determination detail report us different methodology sort client asset liability including new cat egorization hierarchy according expanded nature risk based category ide ntification sector electing sort equity sector ide ntification fund primary underlying investment exposure seg regation residential mortgage asset backed security enhanc ed derivative categorization reporting eg broken underlying risk contract denotes asset liability type b denotes super category investment typec denotes sub category investment type version ii report three sub category layer denotes country risk followed pricing currency symbol e denotes description asset id share par value holding f denotes exchange rate local mar ket price used value holding g primary exchange represents primary exchange security trade however indicate reported price obtained exchange h denotes market value local base holding report datei price source represents provider supplied reported price j provider type reflects classification vendor provided reported price k price type represents character price reflected report l northern trust suggested level reflects northern trust suggested level asset level designated suggested level overridden client directed level price date represents date reported price appliesnorthern ust generated northern trust periodic data aug xx ba bc eg fh j kl northerntrustcom fair valuation reporting report guide level determ inat ion ummary ii report feature level determination summary report use different methodology sort client asset liability including new cat egorization hierarchy according expanded nature risk based category ide ntification sector electing sort equity sector ide ntification fund primary underlying investment exposure seg regation residential mortgage asset backed security enhanc ed derivative categorization reporting eg broken underlying risk contract denotes asset liability type b denotes super category investment type c denotes subcategory investment type version ii report three subcategory layer denotes country risk followed pricing currency symbol e denotes total market value base holding based country risk super category sub categoryf denotes market value level holding based quoted price active market identical asset liability g denotes market value level holding based observable input h denotes market value level holding based significant unobservable input denotes market value holding undetermined level based unknown input determined leveling northern ust generated northern trust periodic data aug xx ba bcdg f h e report headline fair valuation reporting report guide northerntrustcom report italic type report description b report description c report highlight text report descrip tion report highlight text report description report highlight text report descrip tion report highlight text report descriptiondec northern ust generated northern trust periodic data jan xxa b c dtransfers level deta il provides market value associated fair value level assigned asset held two report date asset categorized within report based whether fair value level changed one report date next report show information last date specified date range last date prior specified date range example transfer level report generated period reported market value fair value level would asset subcategorized according expanded nature riskbased classification currently presented level determination ii report denotes transfer level category b denotes super category investment type c denotes sub category investment type version ii report three sub category layer denotes description asset id holding e denotes share prior report date f denotes market value base prior report dateg denotes percentage reported market value market value total portfolio calculated market value divided total market value portfolio multiplied prior report date h denotes detailed price information related price underlying reported market value including price source provider type price type prior report date denotes northern trust suggested fair v alue level prior report date client overridden fair value level denoted double asterisknorthern ust generated northern trust periodic data aug xx ba b c dg f h e jk l n northerntrustcom fair valuation reporting report guide j denotes share current report date k denotes market value base current report date l denotes percentage reported market value market value total portfolio calculated market value divided total market value portfolio multiplied current report datem denotes detailed price information related price underlying reported market value including price source provider type price type current report date n denotes northern trust suggested fair value level current report date client overridden fair value level denoted double asterisk note transfer level detail bidask report transfer level detail report except market value reflected based bid ask price available addition asset classification used report similar used security detail bidask report report headline fair valuation reporting report guide northerntrustcom report italic type report description b report description c report highlight text report descrip tion report highlight text report description report highlight text report descrip tion report highlight text report descriptiondec northern ust generated northern trust periodic data jan xxa b c dtransfers level ummary report aggregate market value asset transfer level detail report within category denotes transfer level category b denotes super category investment type c denotes sub category investment type version ii report three sub category layer denotes country risk followed currencye denotes market value base prior report date f denotes percentage reported market value market value total portfolio calculated market value divided total market value portfolio multiplied prior report date g denotes northern trust suggested fair v alue level prior report date client overridden fair value level denoted double asteriskh denotes market value base current report date denotes percentage reported market value market value total portfolio calculated market value divided total market value portfolio multiplied current report date j denotes northern trust suggested fair v alue level current report date client overridden fair value level denoted double asterisknorthern ust generated northern trust periodic data aug xx b note transfer level summary bidask report transfer level summary report except market value reflected based bid ask price available addition asset classification used report similar used security detail bidask reporta b c dgf h ej northerntrustcom fair valuation reporting report guide description category within transfer level report table ransfers level category transfer level category description level asset level prior period end level current period end level asset level prior period end level current period end level u asset level prior period end level u current period end level asset level prior period end level current period end level asset level prior period end level current period end level u asset level prior period end level u current period end level asset level prior period end level current period end level asset level prior period end level current period end level u asset level prior period end level u current period end level u asset level u prior period end level current period end level u asset level u prior period end level current period end level u asset level u prior period end level current period end level change level asset level period end change level level change level asset level period end change level level change level asset level period end change level level change level u asset level u period end change level position held period level asset held period end either disposed end current period acquired end prior period position held period level asset held period end either disposed end current period acquired end prior period position held period level asset held period end either disposed end current period acquired end prior period position held period level u asset held period end either disposed end current period acquired end prior period unchanged pr ice rep ort deta il fair valuation reporting report guide northerntrustcomprovides client detail long asset price gone unchanged within portfolio along expanded nature riskbased classification denotes unchanged price section excluded section see note breakdown section b denotes super category investment type c denotes sub category investment type version report three sub category layer denotes country risk e denotes description asset id sharespar value holdingf denotes exchange rate local mar ket price used value holding g denotes market value local base holding report date h price source represents provider supplied winning price reflected price detail report price type represents character price reflected report j northern trust suggested level reflects northern trust suggested level asset asset designated suggested level overridden client directed levelk price date represents date reported price applies l denotes first unchanged date represents date last new price received denotes day unchanged represents number calendar day price unchanged difference reporting date first unchanged date day count value cleared new price received n denotes comment reason asset unchanged pricenorthern ust generated northern trust periodic data feb xx ba b c degf h ij kml n northerntrustcom fair valuation reporting report guide note report provides unchanged priced section following name n day unchanged price include asset day count da y unchanged n day unchanged price include asset day count da y day unchanged n day unchanged price include asset day count da y day unchangedn day unchanged price include asset day count da y day unchanged n day unchanged price include asset day count da day unchangedn excluded asset include asset day count z ero picked unchanged b asset day count determined c asset fitting within stale price process example asset fall within category include asset receiving ordinary daily pricing certain otc derivative cash balance receivables payable unchanged pr ice rep ort ummary fair valuation reporting report guide northerntrustcomreport provide overall summary unchanged price section within portfolio account consolidation right report list unchanged price category following criterion n super category n market value per super category n market value percentage category p er unchanged price section n market value percentage category p er overall portfolio market valuea denotes unchanged price section b denotes total market value unc hanged price section c denotes unchanged price section portfolio denotes super category within unchanged price section e denotes market value super category within unchanged price section f denotes percentage super category market value calculated total market value super category divided total market value section g denotes percentage portfolio market value calculated total market value super category within unchanged price section divided total market value whole portfolionorthern ust generated northern trust periodic data feb xx ba b c e f g northerntrustcom fair valuation reporting report guide northern ust generated northern trust periodic data feb xx b level r oll f ward deta il fair valuation reporting report guide northerntrustcomreport detail beginning ending market value level asset along transaction activity transfer andor level reporting period report reflects detail investment transaction gainslosses based historical cost experienced level security denotes asset liability type b denotes super category investment type c denotes subcategory investment typed denotes description asset id sector equity e denotes opening share opening mar ket value holding opening share closing share quantity end prior period opening mv closing mv end prior period security level security prior period became level security current reporting period level security acquired current period opening share opening mv zerof transfer level beginning period bop populated security closing mv end prior period transfer level bop transfer level beginning period bop populated security closing mv end prior period transfer level bop northern ust generated northern trust periodic data oct xx ba b c deg fh ij km l npoq northerntrustcom fair valuation reporting report guide g share increase denotes share quantity addition take place within period report share decrease denotes share quantity subtraction take place within period report transfer inout level account share movement associated transfer inout level beginning period andor end period h purchasesother acquisition represent increase value level security pursuant purchase acquisition except transfer level reporting period level roll forward detail report discloses purchase acquisition separately salessettlements represent decrease value level security pursuant sale settlement except transfer level reporting period level roll forward detail report discloses sale settlement separately j additional security related item represents net increase decrease value level security pursuant securityrelated transaction except transfer inout level reporting period column represents gainloss capital change activity noncash investment income expense transactionsk change unrealized gainloss ugl calculated taking difference ugl current period minus ugl prior period level security time one side ugl end prior period end current period zero depending whether share held andor based election chosen rated transfer level l change unrealized gainloss adj due security movement adjusts change ugl arising due free security movement transaction qty client account change unrealized gainloss adj due transfer inout level adjusts change ugl due transfer qty inout level n realized gainloss rgl represents rgl associated transaction recognized period level security transfer level end period eop populated security closing mv current period transfer level eop transfer level end period eop populated security closing mv current period transfer level eop p denotes closing share closing mar ket value holding closing share represents closing share quan tity level security share activity security taking consideration closing mv represents closing mv level security mv activity security taking consideration security level security period level security end period closing share closing mv zero q election option represents client choice transferring asset level first day last day current reporting period elec tion transfer inout le vel beginning period elec tion transfer inout le vel end period elec tion transfer beginning period transfer end p eriod elec tion transfer end period transfer ginning period note level roll forward detail bidask report level roll forward detail report except market value reflected based bid ask price available level r oll f ward ummar fair valuation reporting report guide northerntrustcomthis report display summarized level market value reconciliation individual account account consolidation denotes beginning balance market value level security held beginning period b denotes transfer bop mv opening market value security transferred inout level beginning period c purchase denotes value security acquired purchase denotes acquisition level r ollforward detail consist acquisition security receipt funding disbursement accretion e sale denotes value security removed sale transaction f denotes settlement level r ollforward detail consist settlement security disbursement funding disbursement amortization g denotes additional security related tems level roll forward detail consist issuancesother settlement capital change detail activity noncash investment incomeexpense h denotes otal change unrealized gainloss level asset within portfolioi change ugl adj due security movement adjustment change unrealized gainloss reporting period due security movement transition transfer account j change ugl adj due transfer level adjustment change unrealized gainloss report ing period due transfer inout level category k realized gainloss rgl represents rgl associated transaction taking place within reporting period level security l denotes transfer eop mv end ing market value security transferred inout level end periodnorthern ust generated northern trust periodic data aug xx ba b c e f g h ij k lp northerntrustcom fair valuation reporting report guide denotes ending balance market value level security held end period n denotes asset detail level security except cash end date report represents ending mv excluding accrual asset detail report security deemed level denotes ending balance asset detail level security except cash represents ending balance line level roll forward summary minus asset detail level security except cash end date report zero confirm level roll forward summary balancep election option elec tion transfer inout le vel beginning period elec tion transfer inout le vel end period elec tion transfer beginning period transfer end p eriod elec tion transfer end period transfer ginning periodnorthern ust generated northern trust periodic data aug xx bm n note level roll forward summary bidask report level roll forward summary report except market value reflected based bid ask price available level r oll f ward deta il ii fair valuation reporting report guide northerntrustcomthis report feature level roll forward detail report provide different methodology sort client asset liability including new cat egorization hierarchy according expanded nature riskbased category ide ntification sector electing sort equity sector ide ntification fund primary underlying investment exposure seg regation residential mortgage asset backed security enhanc ed derivative categorization eg broken underlying risk contractthe report reflects detail investment transaction gainslosses based reset book value cost level security report intended client receive northern trust supplemental reporting order accurately reflect current period change unrealized realized gainloss value receive northern trust supplemental reporting please contact northern trust client service representative denotes asset liability type b denotes super category investment type c denotes sub category investment type version ii report three sub category layersd description asset id sector equity e denotes opening share opening mar ket value holding opening share closing share quantity end prior period opening mv closing mv end prior period security level security prior period became level security current reporting period level security acquired current period opening share opening mv zeronorthern ust generated northern trust periodic data aug xx ba b c deg f h ijk lnpoq northerntrustcom fair valuation reporting report guide f transfer level beginning period bop populated security closing mv end prior period transfer level bop transfer level beginning period bop populated security closing mv end prior period transfer level bop g share increase denotes share quantity addition take place within period report share decrease denotes share quantity subtraction take place within period report transfer inout level account share movement associated transfer inout level beginning period andor end period h purchasesother acquisition represent increase value level security pursuant purchase acquisition except transfer level reporting period level roll forward detail report discloses purchase acquisition separately salessettlements represent decrease value level security pursuant sale settlement except transfer level reporting period level roll forward detail report discloses sale settlement separately j additional security related item represents net increase decrease value level security pursuant securityrelated transaction except transfer inout level reporting period column represents gainloss capital change activity noncash investment incomeexpense transactionsk change unrealized gainloss ugl calculated taking differ ence ugl current period minus ugl prior period level security time one side ugl end prior period end current period zero depending whether share held andor based election chosen rated transfer level current period ugl position still held represents current period change unrealized gainloss level position transferred still held end period current period ugl position still held based reset book value cost l change unrealized gainloss adj due security movement adjusts change ugl arising due free secu rity movement transaction qty client account change unrealized gainloss adj due transfer inout level adjusts change ugl due transfer qty inout level n realized gainloss rgl represents rgl associated transaction taking place reporting period level security current period rgl represents realized gain loss recognized level position sold otherwise disposed period current period rgl based reset book value cost transfer level end period eop populated security closing mv current period transfer level eop transfer level end period eop populated security closing mv current period transfer level eop p denotes closing share closing mar ket value holding closing share represents closing share quan tity level security share activity security taking consideration closing mv represents closing mv level security mv activity security taking consideration security level security period level security end period closing share closing mv zero q election option elec tion transfer inout le vel beginning period elec tion transfer inout le vel end period elec tion transfer beginning period transfer end p eriod elec tion transfer end period transfer ginning period note level rollforward dlt reset bidask report level roll forward detail ii report except market value reflected based bid ask price available level r oll f ward deta il w rev alued c o fair valuation reporting report guide northerntrustcomthis report feature level roll forward detail report provide different methodology greater flexibility sort client asset liability including new cat egorization hierarchy according expanded nature riskbased category ide ntification sector electing sort equity sector ide ntification fund primary underlying investment exposure seg regation residential mortgage asset backed security enhanc ed derivative categorization eg broken underlying risk contractthe report reflects detail investment transaction gainslosses based historical cost experienced level security denotes asset liability type b denotes super category investment type c denotes sub category investment type version ii report three sub category layer description asset id sector equity onlye denotes opening share opening mar ket value holding opening share closing share quantity end prior period opening mv closing mv end prior period security level s</t>
-  </si>
-  <si>
     <t>manager hsbc bank malta plc inspection valuation report residential property charged charged hsbc bank malta plc detail client name id card name id card address inspected property subject property date inspection report based visual inspection subject property relates general state intended substituted formal structural survey inspected property considered solely valuation purpose prepared exclusive use hsbc bank malta plc andor subsidiary company used also fo r regulatory reporting comp ilation property price index location property provide general description property surroundings road formation access amenity type property terraced house bungalow fully detached villa semi detached villa maisonette block flat apartment block house character farmhouse please specify garage penthouse block palazzo townhouse access residence eg common stairwell lift front garden etc state completed serviced area total land area footprint area total internal area gross area size property reported square metre calculated footprint plot u nit built per floor including internal yard shaft front garden etc example calculate size terraced house area footprint dwelling built need multiplied number floor present buildin g addition garage integral part dwelling situated vicinity property soldbought contract sale included size property frontage frontage accommodation reception living room sitting room dining room kitchen bathroom bathroom en suit bedroom washroom store garage parking space swimming pool garden lift space lift year built year built available please mark year permit issued view v iews seafront sea view seafront country view presence view flagged view seen inside property andor balcony view seen rooftop included floor floor number property situated field filled apartment penthouse maisonette ground floor semi basement flagged higher level flagged accordingly eg st floor etc finish provide short description new dwelling yes specify property bought never lived condition indicate condition fixture fitting finish structural stability indicate type construction condition building structure existing service installation provide list property fully completed serviced yes tenure freehold perpetual emphyteusis state ground rent amount ground rent revisable yes temporary emphyteusis state groun rent amount ground rent revisable yes remaining term temporary emphyteusis year use property main residence summer residence please state planning permit post bu ildings valid development permit held yes yes state permit number attach copy permit permitted plan report yes property developed fully conformant approved permit conditio n permitted plan yes planning compliance building developed valid development permit held yes yes state permit number attach copy permit permitted plan rep ort available yes property developed fully conformant approved permit condition permitted plan yes valid development permit held state whether property legally built yes yes legally built eg pre sanitary regulation internal yard metre x metre back yard metre x metre side curtilage metre x metre indication building law sanitary regulation adhered yes yes please give reason security recommend property suitable security yes demand area desirable one demand outlook type property area additional comment please comment factor may bearing value marketability prope rty property valuation current market value property valuation carried accordance kamra tal periti standard latest edition published kamra tal periti chamber architect civil engineer malta undertaken appropriately qualified valuer defined therein adopted market value accordance current practice statement valuation standard defined market value estimated amount asset exchange date valuation willing buyer willing seller arm length transaction proper marketing wherein party acted knowledgeably prudently without compulsion valuation valid date nspection take account condition property indicated report fixture fitting included valuation inquiry made regarding actual potential use property area may effect value inspected property title inspected property investigated current market value market value property completion replacement value attachment copy buil ding permit approved plan pre building attach detailed sketch plan property including overall dimension land registry site plan duly marked architect architect stamp signature date architect estimate cost form used property fully completed serviced detail client name id card name id card address inspected property subject property date inspection architect estimate completion cost bank use bank use cost plot shell excavation foundation masonry work electrical plumb ing installation rainwater drainage disposal installation roofing exterior plastering decoration flooring internal staircase wall tiling sanitary ware interior plastering decoration internal aperture external aperture total estimate work total confirm work carried requiredo require mepa permit strike applicable remark architect signature stamp date</t>
   </si>
   <si>
@@ -328,7 +286,7 @@
     <t>holland house harray orkney kw lq prepared john stockan bsc frics chartered surveyor property address king harald kloss kirkwall orkney kw ft date inspection april seller name richard nisakorn wood mortgage valuation report page address property property description detached one half storey house attached garage annexe room age approx year extension year location property situated mixed residential estate kirkwall close many town facility location satisfactory construction main wall structural timber framed construction roughcasted blockwork outer leaf pitched tiled roof concrete ground floor suspended timber upper floor accommodation floor reception bedroom kitchen bathroom separate wcs gefa gifa garage outbuilding attached garage annexe room behind floored loft garden front side rear garden service please detail main water yes main drainage yes main electricity yes main gas central heating full x part none central heating type gas electric x oil solid fuel warm air road pathway assumed adopted yes yes please detail page address property condition general comment property stand generally satisfactory order regard age specification essential repair none retention required yes recommended retention subsidence settlement landslip none legal matter tenure exfeudal x freehold leasehold legal matter check right responsibility shared fence etc necessary local authority approval obtained original construction subsequent alteration extension title clean heritable onerous burden condition extension received necessary approval completion certificate matter affecting value none valuation insurance valuation present condition basis vacant possession valuation upon completion work required condition na recommended building insurance approximate current reinstatement cost including site clearance professional fee excluding vat except fee valuer signature name qualification john stockan frics date april page address property condition engagement property inspected qualified chartered surveyor purpose advising upon suitability mortgag e purpose andor ascertaining market value however final decision whether mortgage granted rest chosen lending institution may impose retention line lending criterion date valuation date inspection degree inspection accordance th e current guideline mortgage valuation inspection issued royal institution chartered surveyor doubt scope extent inspection survey contacted prior submission binding offer purchase shall happy provide information meantime avoidance doubt confirm sub floor area examined roof void inspected access hatch without entering roof space common roof void building tenement inspected exterior property spected ground level recognised detailed survey property neither required instructed specifically required inspect part property covered unexposed otherwise inaccessible carpeting furnishing removed consequence shall preparing valuation recommendation entitl ed assume part property outwith scope inspection free defect condition adjacent property could adverse e ffect subject property unless expressly stated contrary arriving opinion market value make following assumption property unaffected adverse planning road proposal known proposal amend alter devel op adjacent land buildin g could adverse effect subject report shall obligation make property enquiry local authority office b property held feudal tenure affected unusual onerous title conditi ons outgoings good title given c alteration property properly regulated regulated minimal cost whe necessary superior approval obtained shall value ritable part property basis inspection part property inspected would neither reveal material defect cause u alter valuation materially e service tested w ill assumed functioning condition conforming current regulation electricity gas water drainage installed main facility case non main water drainage assume facilitie satisfactory approved appropriate authority f property adjoining property locality free contamination deleterious material high alumina cement concrete calcium chloride additive used construction subject g market value mv estimated amount asset liability exchange date valuation willing buyer willing seller arm length transaction proper marke ting wherein party acted knowledgeably prudently without compulsion special condition assumption relating asbestos valuer carry asbestos inspection acting asbestos inspector completing valuation inspection property may fall within control asbestos workplace regulation b enquiry duty holder def ined control asbestos workplace regulation existence asbestos register plan management asbestos made c legal advisorconveyancer confirm duty holder regulation availability asbestos register existence management asbestos containing material purpose valuation assumed duty holder defined control asbestos workplace regulation register asbestos effective management plan place require immediate expenditure pose significant risk health breach hse regulation special condition assumption relating te rrorism responsible agreement otherwise designing advising otherwise taking measure prevent r mitigate effect terrorism action may taken controlling preventing suppressing way rel ating terrorism shall liability connection agreement whether contract tort negligence breach statutor duty otherwise claim arising consequence whatsoever resulting directly indirectly connection terrorism action regardless contributory cause event save extent claim covered professional ind emnity insurance taken force time claim earlier circumstance may give rise claim reported insurer question clause terrorism shall mean act act including limited use threat force andor violence andor b harm damage life property threat harm damage including limited harm damage nuclear andor chemical andor biological andor radiological mean caused occasioned person group p ersons claimed whole part political religious ideological similar purpose special condition assumption relating fungus spore etc responsible agreement otherwise warning preventing mi tigating loss damage wholly partly arising resulting caused contributed directly indirectly associated way fung u spore substance vapour gas produced arising fungus r spore shall liability connection agreement whether contract tort negligence breach statutory duty otherwise claim los damage including without limitation cost testing monitoring abatement mitigation removal remediation disposal fungus spore save extent claim covered professional indemnity insurance taken force ime claim earlier circu mstances may give rise claim reported insurer question purpose agreement term fungus includes limited form type mould mushroom mildew term spore mean ny rep roductive body produced arising fungus noted vested interest outcome valuation unless otherwise stated external valuer defined within royal institution chartered surveyor val uation standard global uk edition strongly recommend report passed solicitor immediately obtain independent legal advice report private confidential context supplied responsibility accepted third party whether notified u neither whole part content however line local scottish practice reserve righ make report available party requested lending institution part remit may feel qualified experienced provide general comment standard appropriate supplementary documentation presented client lender conveyancer event significant amount documentation provided additional fee may incurred additional fee agreed writing event report received time letter confirming instruction term condition departed requirement royal institution chartered surveyor valuation standard global uk edition due time restriction created traditional procedure buying property n scotland</t>
   </si>
   <si>
-    <t>maurice rizzuto real estate advisor mauricerealestateadvisortv realestateadvisortv goal client satisfaction march property valuation report california real estate license lusk boulevard suite san diego ca prepared joe client caminito rialto la jolla ca property detailsproperty detail page data within report compiled corelogic public private source desired accuracy data contained herein independently verified recipient report applicable county municipality generated caminito rialto la jolla ca san diego county ml bed bldg sq ft lot sq ft ml list price ml bath yr builtna typesfr ml list dateactive listing owner information owner name vicknair cynthia tax billing zip tax billing address caminito rialto tax billing zip tax billing cit state la jolla ca owner occupied yes location information school district san diego map coordinate h comm college district code san diego census ract zip code zoning carrier r oute c subdivision hidden valley park tract number tax information apn tax area impro ved lot legal description lot tr assessment tax assessment year assessed value total assessed value land assessed value improved yoy assessed change yoy assessed change tax year total tax change change special assessment tax amount mwd wtr standby chrg cwa wtr availability vector disease ctrl mosquito surveillanc total special assessment characteristic lot frontage garage ype garage lot acre garage capacit lot sq ft year built ml building sq ft effectiv e year built story parking ype garagecarport total unit parking space bedroom building total bath land use sfrproperty detail page data within report compiled corelogic public private source desired accuracy data contained herein independently verified recipient report applicable county municipality generated full bath listing information ml listing number ml listing date ml status active ml list price ml status change date ml area la jolla ml listing ml status active ml listing date last market sale sale history recording date deed ype quit claim deed document number owner name vicknair cynthia sale ype full seller weissberger beatrice recording date salesettlement date nominal buyer name vicknair cynthia vicknair cynthia hutchinson trust hutchinson trust hutchinson trust seller name hutchinson trust hutchinson beatrice hutchinson trust hutchinson raymond ahutchinson raymond beatrice document number document type quit claim deed affidavit quit claim deed affidavit deed recording date salesettlement date nominal buyer namehitchinson raymond beatrice seller name weissberger beatrice document number document type quit claim deed property map lot dimension estimated</t>
+    <t>whats worth family heirloom national treasureva luat ion report impact tax credit valuationin issue clarifying compensation whats reasonablebus iness valuat ion trend strateg y summer continued page september designer marc ecko paid buy barry bond record breaking th homerun baseball white disco suit worn john travolta saturday night fever recently sold let ter signed president theodore roosevelt brought auction one arrive price treasure standard value intrinsic investment v alue business valuation fair market value generally standard based cash flow generated company come unique object replacement value necessary insurance purpose either intrinsic investment value standard sale auction intrinsic value value investor perceives others pay piece desirable grandmother ring may high intrinsic value truly piece fine jewelry lower intrinsic value merely valuable family sentimental heirloom investment value value one particular investor collector one certain item may willing pay collector complete set dr ives v alue several factor drive value unique object authenticity several method available authenticate object ranging scientific analysis paint ink paper comparison similar item artwork antique auto graph appraiser typically perform authentication service fee condition fan pbs antique road show know condition item question enhance detract value vintage toy original packaging worth considerably playedwith counterpart antique furniture original finish generally valuable piece age touched rarity limited supply increase value topps com pany printed fewer baseball card today reason baseball card generally worth baseball card recent era ownership history previous ership provenance major impact value example sale princess diana gown raised million charity fashion continue valuation report summer research experimen tation tax credit evolved dramatically since early company qualify wagebased credit governed internal revenue code qual ifies qualify credit activi tie must meet four criterion research activity must designed discover information relating new improved product process formula technique invention software research must technological nature activity must intended eliminate uncertainty discovering information currently unknown company activity must include process experimentation evaluate alternative whats th e value tax credit tier tax issue mean among greatest compliance risk tax issue determined irs irs audit large percentage requested tax credit credit may impact valu ation determination depending whether potentially significant amount income attributed credit accepted denied irs include include refund valuation important judgment made valuation expert crux issue determination whether credit deemed valid irs likely continue analyst must ask many question arrive determination client first claim credit amount refund client receive business eligible credit future irs audit claim past signifi cant adjustment current irs audit taking placedid business receive day letter irs regarding tax credit client received mandatory information document requesthow large credit mate rial recurringwhat true effect earnings per sharedid outside firm prepare claim prepared inhouse answer question identify status existing credit whether potential future credit included valuation extent another factor consider tax credit currently expired likely congress renew least another year nothing certain however credit retroactive company go back open year amend tax return recapture unclaimed credit along renewal many cpa valuation analyst would like see reform including adding definitive wording code clarifying documentation requirement company secure claim making entire process simple permanent would like discus tax credit may impact value company please contact firmirs in ight impact tax credit valuation summer valuation report value business hinge income theory income fewer expense mean value company course part business valuation analyst job closely examine company income expense figure arrive clear picture whats really going business assessing value closely held business owner compensation expense category thats always scrutiny difficult sepa rate owner return investment compensation service rendered determine accurate value one must first deter mine nonowner employee would require term compensation job use figure reasonable expense earnings figuring whats reasonable complicated valuation professional turn variety source help compe nsation nchmarks undertaking compensation study valuation expert typically start organization chart job description outlining position responsibility analyst also look variable size business profitability relative peer group employee benefit cost ofliving differential armed true picture job responsibility valuation professional compare position others like using variety compensation information resource industry association salary survey proxy statement publicly traded company valuation expert also rely sophisticated subscriptionbased compensation study assess company industry code screen using specific variable correla ting public p rivate one popular subscription source economic research institute eri us regression analysis correlate data publicly traded company data subject company translating data eri allows valid compar ison say billion public company million closely held company database specific various job physician architect professional service example study even indi cate base salary range well incentive additional service provided risk management asso ciates integra provide finan cial benchmark industry code using type information valuation professional look average shareholder compensation percentage sale approach somewhat limited however data shown reported company ownermanaged business number reported actual expense may reflect reasonable compensation marketplace puttin g toge ther often case valuation arena arriving final number reasonable compensation involves fair amount judgment chal lenge valuation analyst merge generic compensation study data specific company involved requires specialized expertise prudent work experienced valuation expert find relevant data also interpret correctly backing extra included owner compensation key arriving reasonable compensation number accurate business value would like find reasonable compensation please contact firm whats worth continued page ownersh ip spotl ight clarifying compensation whats reasonablelanguish thrift shop jfk golf club sold lates set junked age ago market interest current event fad sway market memorabilia olympic game rise price every year interest pique wane value certain political paraphernalia change elec tions come go tras h treasure thanks internet seller buyer historical treasure pop culture gem easy way find ebay redefined marketplace even rare object one man trash indeed another man treasure dont make assumption value unique item always wise rely specialized valuation analyst investor usually want balance risk reward thus higher return may pique interest even greater risk involved concept heart equity risk premium erp percentage indicating extra return stock theoretically provides riskfree investment treasury bond business valuation erp used calculate discount rate applied future cash flow using income approach universally accepted standard estimating erp analyst often turned highly regarded study u capital market called ibbotson associate stock bond bill inflation earbook known simply ibbotsons study contains summary return u stock bond since using realized return rate ibbotsons erp average percent observer believe high newer study developed duff phelps risk premium report offer alternative erp measure thats percent range duff phelps present historical erps size premium sizeranked portfolio using eight alternative measure company size increased number measure analyst believe duff phelps provides accurate erp particu larly smaller companiesof course strength weak ness two source subject much debate court auditor also continue increasingly demanding regarding valuation calculation data becomes available expectation objective supportable number increase reason many valuation analyst using ibbotsons duff phelps support erp calculation fact ana lyst training american society appraiser suggests incor porating data source market analysis information erp calculation please contact firm erp two source better one summer valuation reportthis publication distributed understanding author publisher distributor rendering legal accounting tax professional advice opinion specific fact matter accordingly assume liability whatsoever connection use information publication intended written used used taxpayer purpose avoiding penalty may imposed internal revenue code applicable state local tax law provision ii promoting marketing recommending another party transaction matter addressed publication</t>
   </si>
   <si>
     <t>Agreements</t>
@@ -340,6 +298,9 @@
     <t>Human Resources</t>
   </si>
   <si>
+    <t>images</t>
+  </si>
+  <si>
     <t>Taxes</t>
   </si>
   <si>
@@ -373,15 +334,12 @@
     <t>property, atmore, project, center, shopping</t>
   </si>
   <si>
+    <t>buyer, seller, shall, property, agreement</t>
+  </si>
+  <si>
     <t>buyer, seller, shall, agreement, property</t>
   </si>
   <si>
-    <t>buyer, seller, shall, property, agreement</t>
-  </si>
-  <si>
-    <t>beneficiary, shall, grantor, deed, trust</t>
-  </si>
-  <si>
     <t>tenant, landlord, lease, premise, month</t>
   </si>
   <si>
@@ -406,9 +364,6 @@
     <t>department, manager, administrative, agency, service</t>
   </si>
   <si>
-    <t>e, board, n, r, l</t>
-  </si>
-  <si>
     <t>employee, benefit, employer, commuter, law</t>
   </si>
   <si>
@@ -457,24 +412,21 @@
     <t>employee, service, benefit, year, retirement</t>
   </si>
   <si>
-    <t>plan, retirement, contribution, saving, pension</t>
-  </si>
-  <si>
     <t>student, school, teacher, teaching, individual</t>
   </si>
   <si>
     <t>plan, notice, must, information, benefit</t>
   </si>
   <si>
-    <t>business, emergency, employee, weather, plan</t>
-  </si>
-  <si>
     <t>plan, benefit, coverage, c, f</t>
   </si>
   <si>
     <t>position, career, development, employee, leadership</t>
   </si>
   <si>
+    <t>agreement, shall, company, party, share</t>
+  </si>
+  <si>
     <t>shall, agreement, company, party, share</t>
   </si>
   <si>
@@ -484,30 +436,18 @@
     <t>tax, line, sale, return, b</t>
   </si>
   <si>
-    <t>tax, party, alpha, shall, agreement</t>
+    <t>agreement, section, shall, holding, aramark</t>
   </si>
   <si>
     <t>agreement, section, shall, holding, party</t>
   </si>
   <si>
-    <t>tax, agreement, taxpayer, partner, corporate</t>
-  </si>
-  <si>
-    <t>tax, agreement, corporate, taxpayer, partner</t>
+    <t>tax, controlled, group, distributing, shall</t>
   </si>
   <si>
     <t>tax, controlled, group, distributing, section</t>
   </si>
   <si>
-    <t>tax, controlled, group, distributing, shall</t>
-  </si>
-  <si>
-    <t>dwa, tax, ii, dwi, agreement</t>
-  </si>
-  <si>
-    <t>dwa, tax, ii, agreement, dwi</t>
-  </si>
-  <si>
     <t>tax, due, return, line, business</t>
   </si>
   <si>
@@ -523,27 +463,24 @@
     <t>merger, com, reincorporation, agreement, opinion</t>
   </si>
   <si>
+    <t>member, tax, shall, parent, return</t>
+  </si>
+  <si>
     <t>member, tax, shall, return, parent</t>
   </si>
   <si>
-    <t>member, tax, shall, parent, return</t>
+    <t>bond, section, borrower, investment, proceeds</t>
   </si>
   <si>
     <t>bond, section, borrower, investment, date</t>
   </si>
   <si>
-    <t>bond, section, borrower, investment, proceeds</t>
-  </si>
-  <si>
-    <t>agreement, company, stockholder, tax, shall</t>
+    <t>america, atlas, rai, consolidated, shall</t>
   </si>
   <si>
     <t>atlas, america, rai, consolidated, shall</t>
   </si>
   <si>
-    <t>america, atlas, rai, consolidated, shall</t>
-  </si>
-  <si>
     <t>tax, sale, line, b, county</t>
   </si>
   <si>
@@ -559,15 +496,18 @@
     <t>form, pin, return, tax, ero</t>
   </si>
   <si>
+    <t>tax, ltd, subsidiary, agreement, lazard</t>
+  </si>
+  <si>
     <t>tax, ltd, subsidiary, lazard, lfcm</t>
   </si>
   <si>
-    <t>tax, ltd, subsidiary, agreement, lazard</t>
-  </si>
-  <si>
     <t>tax, corporation, shall, krh, agreement</t>
   </si>
   <si>
+    <t>beneficiary, company, deed, shall, duty</t>
+  </si>
+  <si>
     <t>beneficiary, company, deed, shall, claim</t>
   </si>
   <si>
@@ -598,9 +538,6 @@
     <t>international, valuation, bahrain, dmb, property</t>
   </si>
   <si>
-    <t>level, period, report, value, security</t>
-  </si>
-  <si>
     <t>property, yes, permit, area, valuation</t>
   </si>
   <si>
@@ -610,7 +547,7 @@
     <t>property, valuation, condition, asbestos, inspection</t>
   </si>
   <si>
-    <t>ml, tax, date, lot, hutchinson</t>
+    <t>value, valuation, credit, company, compensation</t>
   </si>
 </sst>
 </file>
@@ -968,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -990,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1001,10 +938,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1012,10 +949,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1023,10 +960,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1034,10 +971,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1045,10 +982,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1056,10 +993,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1067,10 +1004,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1078,10 +1015,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1089,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1100,10 +1037,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1111,10 +1048,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1122,10 +1059,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1133,21 +1070,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1155,285 +1092,267 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
       <c r="B28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
       <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
       <c r="B40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1441,10 +1360,10 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1452,10 +1371,10 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1463,153 +1382,153 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1617,10 +1536,10 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1628,10 +1547,10 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1639,571 +1558,428 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>93</v>
-      </c>
-      <c r="B101" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>94</v>
-      </c>
-      <c r="B102" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>99</v>
-      </c>
-      <c r="B107" t="s">
-        <v>109</v>
-      </c>
-      <c r="C107" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>100</v>
-      </c>
-      <c r="B108" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>102</v>
-      </c>
-      <c r="B110" t="s">
-        <v>109</v>
-      </c>
-      <c r="C110" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>103</v>
-      </c>
-      <c r="B111" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>104</v>
-      </c>
-      <c r="B112" t="s">
-        <v>109</v>
-      </c>
-      <c r="C112" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
